--- a/P_aeropuertos_carga.xlsx
+++ b/P_aeropuertos_carga.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFB7FAE-E3FD-425A-B054-928A345B3770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FF9669-E4D0-400F-8F25-C6D668289B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
   <si>
     <t>Total</t>
   </si>
@@ -102,6 +102,42 @@
   </si>
   <si>
     <t>Santa Lucia</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
   </si>
 </sst>
 </file>
@@ -317,12 +353,6 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -346,6 +376,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -421,6 +457,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -428,12 +470,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -489,7 +525,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:P85" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:P85" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="B5:P85" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
@@ -787,20 +823,20 @@
       <c r="B4" s="14"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" s="17" t="s">
@@ -850,11 +886,11 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B6" s="22">
+      <c r="B6" s="20">
         <v>2024</v>
       </c>
-      <c r="C6" s="23">
-        <v>8</v>
+      <c r="C6" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="D6" s="9">
         <f>SUM(E6:P6)</f>
@@ -898,11 +934,11 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B7" s="24">
+      <c r="B7" s="22">
         <v>2024</v>
       </c>
-      <c r="C7" s="25">
-        <v>7</v>
+      <c r="C7" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="D7" s="8">
         <f t="shared" ref="D7:D9" si="0">SUM(E7:P7)</f>
@@ -946,11 +982,11 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B8" s="22">
+      <c r="B8" s="20">
         <v>2024</v>
       </c>
-      <c r="C8" s="23">
-        <v>6</v>
+      <c r="C8" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
@@ -994,11 +1030,11 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B9" s="24">
+      <c r="B9" s="22">
         <v>2024</v>
       </c>
-      <c r="C9" s="25">
-        <v>5</v>
+      <c r="C9" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
@@ -1042,11 +1078,11 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B10" s="22">
+      <c r="B10" s="20">
         <v>2024</v>
       </c>
-      <c r="C10" s="23">
-        <v>4</v>
+      <c r="C10" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" ref="D10:D40" si="1">SUM(E10:P10)</f>
@@ -1090,11 +1126,11 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B11" s="24">
+      <c r="B11" s="22">
         <v>2024</v>
       </c>
-      <c r="C11" s="25">
-        <v>3</v>
+      <c r="C11" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" si="1"/>
@@ -1138,11 +1174,11 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B12" s="22">
+      <c r="B12" s="20">
         <v>2024</v>
       </c>
-      <c r="C12" s="23">
-        <v>2</v>
+      <c r="C12" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="1"/>
@@ -1186,11 +1222,11 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B13" s="26">
+      <c r="B13" s="24">
         <v>2024</v>
       </c>
-      <c r="C13" s="27">
-        <v>1</v>
+      <c r="C13" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="D13" s="10">
         <f t="shared" si="1"/>
@@ -1234,11 +1270,11 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B14" s="28">
+      <c r="B14" s="26">
         <v>2023</v>
       </c>
-      <c r="C14" s="29">
-        <v>12</v>
+      <c r="C14" s="27" t="s">
+        <v>30</v>
       </c>
       <c r="D14" s="11">
         <f t="shared" si="1"/>
@@ -1282,11 +1318,11 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B15" s="24">
+      <c r="B15" s="22">
         <v>2023</v>
       </c>
-      <c r="C15" s="25">
-        <v>11</v>
+      <c r="C15" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" si="1"/>
@@ -1330,11 +1366,11 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B16" s="22">
+      <c r="B16" s="20">
         <v>2023</v>
       </c>
-      <c r="C16" s="23">
-        <v>10</v>
+      <c r="C16" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="D16" s="9">
         <f t="shared" si="1"/>
@@ -1378,11 +1414,11 @@
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B17" s="24">
+      <c r="B17" s="22">
         <v>2023</v>
       </c>
-      <c r="C17" s="25">
-        <v>9</v>
+      <c r="C17" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" si="1"/>
@@ -1426,11 +1462,11 @@
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B18" s="22">
+      <c r="B18" s="20">
         <v>2023</v>
       </c>
-      <c r="C18" s="23">
-        <v>8</v>
+      <c r="C18" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" si="1"/>
@@ -1474,11 +1510,11 @@
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B19" s="24">
+      <c r="B19" s="22">
         <v>2023</v>
       </c>
-      <c r="C19" s="25">
-        <v>7</v>
+      <c r="C19" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="D19" s="8">
         <f t="shared" si="1"/>
@@ -1522,11 +1558,11 @@
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B20" s="22">
+      <c r="B20" s="20">
         <v>2023</v>
       </c>
-      <c r="C20" s="23">
-        <v>6</v>
+      <c r="C20" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" si="1"/>
@@ -1570,11 +1606,11 @@
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B21" s="24">
+      <c r="B21" s="22">
         <v>2023</v>
       </c>
-      <c r="C21" s="25">
-        <v>5</v>
+      <c r="C21" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" si="1"/>
@@ -1618,11 +1654,11 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B22" s="22">
+      <c r="B22" s="20">
         <v>2023</v>
       </c>
-      <c r="C22" s="23">
-        <v>4</v>
+      <c r="C22" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D22" s="9">
         <f t="shared" si="1"/>
@@ -1666,11 +1702,11 @@
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B23" s="24">
+      <c r="B23" s="22">
         <v>2023</v>
       </c>
-      <c r="C23" s="25">
-        <v>3</v>
+      <c r="C23" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="D23" s="8">
         <f t="shared" si="1"/>
@@ -1714,11 +1750,11 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B24" s="22">
+      <c r="B24" s="20">
         <v>2023</v>
       </c>
-      <c r="C24" s="23">
-        <v>2</v>
+      <c r="C24" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" si="1"/>
@@ -1762,11 +1798,11 @@
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B25" s="26">
+      <c r="B25" s="24">
         <v>2023</v>
       </c>
-      <c r="C25" s="27">
-        <v>1</v>
+      <c r="C25" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="D25" s="10">
         <f t="shared" si="1"/>
@@ -1808,11 +1844,11 @@
       </c>
     </row>
     <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="28">
+      <c r="B26" s="26">
         <v>2022</v>
       </c>
-      <c r="C26" s="29">
-        <v>12</v>
+      <c r="C26" s="27" t="s">
+        <v>30</v>
       </c>
       <c r="D26" s="11">
         <f t="shared" si="1"/>
@@ -1854,11 +1890,11 @@
       </c>
     </row>
     <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="24">
+      <c r="B27" s="22">
         <v>2022</v>
       </c>
-      <c r="C27" s="25">
-        <v>11</v>
+      <c r="C27" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="D27" s="8">
         <f t="shared" si="1"/>
@@ -1900,11 +1936,11 @@
       </c>
     </row>
     <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="22">
+      <c r="B28" s="20">
         <v>2022</v>
       </c>
-      <c r="C28" s="23">
-        <v>10</v>
+      <c r="C28" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="D28" s="9">
         <f t="shared" si="1"/>
@@ -1946,11 +1982,11 @@
       </c>
     </row>
     <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="24">
+      <c r="B29" s="22">
         <v>2022</v>
       </c>
-      <c r="C29" s="25">
-        <v>9</v>
+      <c r="C29" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="D29" s="8">
         <f t="shared" si="1"/>
@@ -1992,11 +2028,11 @@
       </c>
     </row>
     <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="22">
+      <c r="B30" s="20">
         <v>2022</v>
       </c>
-      <c r="C30" s="23">
-        <v>8</v>
+      <c r="C30" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="D30" s="9">
         <f t="shared" si="1"/>
@@ -2038,11 +2074,11 @@
       </c>
     </row>
     <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="24">
+      <c r="B31" s="22">
         <v>2022</v>
       </c>
-      <c r="C31" s="25">
-        <v>7</v>
+      <c r="C31" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="D31" s="8">
         <f t="shared" si="1"/>
@@ -2084,11 +2120,11 @@
       </c>
     </row>
     <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="22">
+      <c r="B32" s="20">
         <v>2022</v>
       </c>
-      <c r="C32" s="23">
-        <v>6</v>
+      <c r="C32" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="D32" s="9">
         <f t="shared" si="1"/>
@@ -2130,11 +2166,11 @@
       </c>
     </row>
     <row r="33" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="24">
+      <c r="B33" s="22">
         <v>2022</v>
       </c>
-      <c r="C33" s="25">
-        <v>5</v>
+      <c r="C33" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="D33" s="8">
         <f t="shared" si="1"/>
@@ -2176,11 +2212,11 @@
       </c>
     </row>
     <row r="34" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="22">
+      <c r="B34" s="20">
         <v>2022</v>
       </c>
-      <c r="C34" s="23">
-        <v>4</v>
+      <c r="C34" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D34" s="9">
         <f t="shared" si="1"/>
@@ -2222,11 +2258,11 @@
       </c>
     </row>
     <row r="35" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="24">
+      <c r="B35" s="22">
         <v>2022</v>
       </c>
-      <c r="C35" s="25">
-        <v>3</v>
+      <c r="C35" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="D35" s="8">
         <f t="shared" si="1"/>
@@ -2268,11 +2304,11 @@
       </c>
     </row>
     <row r="36" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="22">
+      <c r="B36" s="20">
         <v>2022</v>
       </c>
-      <c r="C36" s="23">
-        <v>2</v>
+      <c r="C36" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="D36" s="9">
         <f t="shared" si="1"/>
@@ -2314,11 +2350,11 @@
       </c>
     </row>
     <row r="37" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="26">
+      <c r="B37" s="24">
         <v>2022</v>
       </c>
-      <c r="C37" s="27">
-        <v>1</v>
+      <c r="C37" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="D37" s="10">
         <f t="shared" si="1"/>
@@ -2360,11 +2396,11 @@
       </c>
     </row>
     <row r="38" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="28">
+      <c r="B38" s="26">
         <v>2021</v>
       </c>
-      <c r="C38" s="29">
-        <v>12</v>
+      <c r="C38" s="27" t="s">
+        <v>30</v>
       </c>
       <c r="D38" s="11">
         <f t="shared" si="1"/>
@@ -2406,11 +2442,11 @@
       </c>
     </row>
     <row r="39" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="24">
+      <c r="B39" s="22">
         <v>2021</v>
       </c>
-      <c r="C39" s="25">
-        <v>11</v>
+      <c r="C39" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" si="1"/>
@@ -2452,11 +2488,11 @@
       </c>
     </row>
     <row r="40" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="22">
+      <c r="B40" s="20">
         <v>2021</v>
       </c>
-      <c r="C40" s="23">
-        <v>10</v>
+      <c r="C40" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="D40" s="9">
         <f t="shared" si="1"/>
@@ -2498,11 +2534,11 @@
       </c>
     </row>
     <row r="41" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="24">
+      <c r="B41" s="22">
         <v>2021</v>
       </c>
-      <c r="C41" s="25">
-        <v>9</v>
+      <c r="C41" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="D41" s="8">
         <f t="shared" ref="D41:D72" si="2">SUM(E41:P41)</f>
@@ -2544,11 +2580,11 @@
       </c>
     </row>
     <row r="42" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="22">
+      <c r="B42" s="20">
         <v>2021</v>
       </c>
-      <c r="C42" s="23">
-        <v>8</v>
+      <c r="C42" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="D42" s="9">
         <f t="shared" si="2"/>
@@ -2590,11 +2626,11 @@
       </c>
     </row>
     <row r="43" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="24">
+      <c r="B43" s="22">
         <v>2021</v>
       </c>
-      <c r="C43" s="25">
-        <v>7</v>
+      <c r="C43" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="D43" s="8">
         <f t="shared" si="2"/>
@@ -2636,11 +2672,11 @@
       </c>
     </row>
     <row r="44" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="22">
+      <c r="B44" s="20">
         <v>2021</v>
       </c>
-      <c r="C44" s="23">
-        <v>6</v>
+      <c r="C44" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="D44" s="9">
         <f t="shared" si="2"/>
@@ -2682,11 +2718,11 @@
       </c>
     </row>
     <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="24">
+      <c r="B45" s="22">
         <v>2021</v>
       </c>
-      <c r="C45" s="25">
-        <v>5</v>
+      <c r="C45" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="D45" s="8">
         <f t="shared" si="2"/>
@@ -2728,11 +2764,11 @@
       </c>
     </row>
     <row r="46" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="22">
+      <c r="B46" s="20">
         <v>2021</v>
       </c>
-      <c r="C46" s="23">
-        <v>4</v>
+      <c r="C46" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D46" s="9">
         <f t="shared" si="2"/>
@@ -2774,11 +2810,11 @@
       </c>
     </row>
     <row r="47" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="24">
+      <c r="B47" s="22">
         <v>2021</v>
       </c>
-      <c r="C47" s="25">
-        <v>3</v>
+      <c r="C47" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="D47" s="8">
         <f t="shared" si="2"/>
@@ -2820,11 +2856,11 @@
       </c>
     </row>
     <row r="48" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="22">
+      <c r="B48" s="20">
         <v>2021</v>
       </c>
-      <c r="C48" s="23">
-        <v>2</v>
+      <c r="C48" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="D48" s="9">
         <f t="shared" si="2"/>
@@ -2866,11 +2902,11 @@
       </c>
     </row>
     <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="26">
+      <c r="B49" s="24">
         <v>2021</v>
       </c>
-      <c r="C49" s="27">
-        <v>1</v>
+      <c r="C49" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="D49" s="10">
         <f t="shared" si="2"/>
@@ -2912,11 +2948,11 @@
       </c>
     </row>
     <row r="50" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="28">
+      <c r="B50" s="26">
         <v>2020</v>
       </c>
-      <c r="C50" s="29">
-        <v>12</v>
+      <c r="C50" s="27" t="s">
+        <v>30</v>
       </c>
       <c r="D50" s="11">
         <f t="shared" si="2"/>
@@ -2958,11 +2994,11 @@
       </c>
     </row>
     <row r="51" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="24">
+      <c r="B51" s="22">
         <v>2020</v>
       </c>
-      <c r="C51" s="25">
-        <v>11</v>
+      <c r="C51" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="D51" s="8">
         <f t="shared" si="2"/>
@@ -3004,11 +3040,11 @@
       </c>
     </row>
     <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="22">
+      <c r="B52" s="20">
         <v>2020</v>
       </c>
-      <c r="C52" s="23">
-        <v>10</v>
+      <c r="C52" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="D52" s="9">
         <f t="shared" si="2"/>
@@ -3050,11 +3086,11 @@
       </c>
     </row>
     <row r="53" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="24">
+      <c r="B53" s="22">
         <v>2020</v>
       </c>
-      <c r="C53" s="25">
-        <v>9</v>
+      <c r="C53" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="D53" s="8">
         <f t="shared" si="2"/>
@@ -3096,11 +3132,11 @@
       </c>
     </row>
     <row r="54" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="22">
+      <c r="B54" s="20">
         <v>2020</v>
       </c>
-      <c r="C54" s="23">
-        <v>8</v>
+      <c r="C54" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="D54" s="9">
         <f t="shared" si="2"/>
@@ -3142,11 +3178,11 @@
       </c>
     </row>
     <row r="55" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="24">
+      <c r="B55" s="22">
         <v>2020</v>
       </c>
-      <c r="C55" s="25">
-        <v>7</v>
+      <c r="C55" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="D55" s="8">
         <f t="shared" si="2"/>
@@ -3188,11 +3224,11 @@
       </c>
     </row>
     <row r="56" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="22">
+      <c r="B56" s="20">
         <v>2020</v>
       </c>
-      <c r="C56" s="23">
-        <v>6</v>
+      <c r="C56" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="D56" s="9">
         <f t="shared" si="2"/>
@@ -3234,11 +3270,11 @@
       </c>
     </row>
     <row r="57" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="24">
+      <c r="B57" s="22">
         <v>2020</v>
       </c>
-      <c r="C57" s="25">
-        <v>5</v>
+      <c r="C57" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="D57" s="8">
         <f t="shared" si="2"/>
@@ -3280,11 +3316,11 @@
       </c>
     </row>
     <row r="58" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="22">
+      <c r="B58" s="20">
         <v>2020</v>
       </c>
-      <c r="C58" s="23">
-        <v>4</v>
+      <c r="C58" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D58" s="9">
         <f t="shared" si="2"/>
@@ -3326,11 +3362,11 @@
       </c>
     </row>
     <row r="59" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="24">
+      <c r="B59" s="22">
         <v>2020</v>
       </c>
-      <c r="C59" s="25">
-        <v>3</v>
+      <c r="C59" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="D59" s="8">
         <f t="shared" si="2"/>
@@ -3372,11 +3408,11 @@
       </c>
     </row>
     <row r="60" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="22">
+      <c r="B60" s="20">
         <v>2020</v>
       </c>
-      <c r="C60" s="23">
-        <v>2</v>
+      <c r="C60" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="D60" s="9">
         <f t="shared" si="2"/>
@@ -3418,11 +3454,11 @@
       </c>
     </row>
     <row r="61" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="26">
+      <c r="B61" s="24">
         <v>2020</v>
       </c>
-      <c r="C61" s="27">
-        <v>1</v>
+      <c r="C61" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="D61" s="10">
         <f t="shared" si="2"/>
@@ -3464,11 +3500,11 @@
       </c>
     </row>
     <row r="62" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="28">
+      <c r="B62" s="26">
         <v>2019</v>
       </c>
-      <c r="C62" s="29">
-        <v>12</v>
+      <c r="C62" s="27" t="s">
+        <v>30</v>
       </c>
       <c r="D62" s="11">
         <f t="shared" si="2"/>
@@ -3510,11 +3546,11 @@
       </c>
     </row>
     <row r="63" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="24">
+      <c r="B63" s="22">
         <v>2019</v>
       </c>
-      <c r="C63" s="25">
-        <v>11</v>
+      <c r="C63" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="D63" s="8">
         <f t="shared" si="2"/>
@@ -3556,11 +3592,11 @@
       </c>
     </row>
     <row r="64" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="22">
+      <c r="B64" s="20">
         <v>2019</v>
       </c>
-      <c r="C64" s="23">
-        <v>10</v>
+      <c r="C64" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="D64" s="9">
         <f t="shared" si="2"/>
@@ -3602,11 +3638,11 @@
       </c>
     </row>
     <row r="65" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="24">
+      <c r="B65" s="22">
         <v>2019</v>
       </c>
-      <c r="C65" s="25">
-        <v>9</v>
+      <c r="C65" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="D65" s="8">
         <f t="shared" si="2"/>
@@ -3648,11 +3684,11 @@
       </c>
     </row>
     <row r="66" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="22">
+      <c r="B66" s="20">
         <v>2019</v>
       </c>
-      <c r="C66" s="23">
-        <v>8</v>
+      <c r="C66" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="D66" s="9">
         <f t="shared" si="2"/>
@@ -3694,11 +3730,11 @@
       </c>
     </row>
     <row r="67" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="24">
+      <c r="B67" s="22">
         <v>2019</v>
       </c>
-      <c r="C67" s="25">
-        <v>7</v>
+      <c r="C67" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="D67" s="8">
         <f t="shared" si="2"/>
@@ -3740,11 +3776,11 @@
       </c>
     </row>
     <row r="68" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="22">
+      <c r="B68" s="20">
         <v>2019</v>
       </c>
-      <c r="C68" s="23">
-        <v>6</v>
+      <c r="C68" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="D68" s="9">
         <f t="shared" si="2"/>
@@ -3786,11 +3822,11 @@
       </c>
     </row>
     <row r="69" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="24">
+      <c r="B69" s="22">
         <v>2019</v>
       </c>
-      <c r="C69" s="25">
-        <v>5</v>
+      <c r="C69" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="D69" s="8">
         <f t="shared" si="2"/>
@@ -3832,11 +3868,11 @@
       </c>
     </row>
     <row r="70" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="22">
+      <c r="B70" s="20">
         <v>2019</v>
       </c>
-      <c r="C70" s="23">
-        <v>4</v>
+      <c r="C70" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D70" s="9">
         <f t="shared" si="2"/>
@@ -3878,11 +3914,11 @@
       </c>
     </row>
     <row r="71" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="24">
+      <c r="B71" s="22">
         <v>2019</v>
       </c>
-      <c r="C71" s="25">
-        <v>3</v>
+      <c r="C71" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="D71" s="8">
         <f t="shared" si="2"/>
@@ -3924,11 +3960,11 @@
       </c>
     </row>
     <row r="72" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="22">
+      <c r="B72" s="20">
         <v>2019</v>
       </c>
-      <c r="C72" s="23">
-        <v>2</v>
+      <c r="C72" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="D72" s="9">
         <f t="shared" si="2"/>
@@ -3970,11 +4006,11 @@
       </c>
     </row>
     <row r="73" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="26">
+      <c r="B73" s="24">
         <v>2019</v>
       </c>
-      <c r="C73" s="27">
-        <v>1</v>
+      <c r="C73" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="D73" s="10">
         <f t="shared" ref="D73:D85" si="3">SUM(E73:P73)</f>
@@ -4016,11 +4052,11 @@
       </c>
     </row>
     <row r="74" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="23">
+      <c r="B74" s="21">
         <v>2018</v>
       </c>
-      <c r="C74" s="23">
-        <v>12</v>
+      <c r="C74" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="D74" s="9">
         <f t="shared" si="3"/>
@@ -4062,11 +4098,11 @@
       </c>
     </row>
     <row r="75" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="25">
+      <c r="B75" s="23">
         <v>2018</v>
       </c>
-      <c r="C75" s="25">
-        <v>11</v>
+      <c r="C75" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="D75" s="8">
         <f t="shared" si="3"/>
@@ -4108,11 +4144,11 @@
       </c>
     </row>
     <row r="76" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="23">
+      <c r="B76" s="21">
         <v>2018</v>
       </c>
-      <c r="C76" s="23">
-        <v>10</v>
+      <c r="C76" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="D76" s="9">
         <f t="shared" si="3"/>
@@ -4154,11 +4190,11 @@
       </c>
     </row>
     <row r="77" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="25">
+      <c r="B77" s="23">
         <v>2018</v>
       </c>
-      <c r="C77" s="25">
-        <v>9</v>
+      <c r="C77" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="D77" s="8">
         <f t="shared" si="3"/>
@@ -4200,11 +4236,11 @@
       </c>
     </row>
     <row r="78" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="23">
+      <c r="B78" s="21">
         <v>2018</v>
       </c>
-      <c r="C78" s="23">
-        <v>8</v>
+      <c r="C78" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="D78" s="9">
         <f t="shared" si="3"/>
@@ -4246,11 +4282,11 @@
       </c>
     </row>
     <row r="79" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="25">
+      <c r="B79" s="23">
         <v>2018</v>
       </c>
-      <c r="C79" s="25">
-        <v>7</v>
+      <c r="C79" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="D79" s="8">
         <f t="shared" si="3"/>
@@ -4292,11 +4328,11 @@
       </c>
     </row>
     <row r="80" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="23">
+      <c r="B80" s="21">
         <v>2018</v>
       </c>
-      <c r="C80" s="23">
-        <v>6</v>
+      <c r="C80" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="D80" s="9">
         <f t="shared" si="3"/>
@@ -4338,11 +4374,11 @@
       </c>
     </row>
     <row r="81" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="25">
+      <c r="B81" s="23">
         <v>2018</v>
       </c>
-      <c r="C81" s="25">
-        <v>5</v>
+      <c r="C81" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="D81" s="8">
         <f t="shared" si="3"/>
@@ -4384,11 +4420,11 @@
       </c>
     </row>
     <row r="82" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="23">
+      <c r="B82" s="21">
         <v>2018</v>
       </c>
-      <c r="C82" s="23">
-        <v>4</v>
+      <c r="C82" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="D82" s="9">
         <f t="shared" si="3"/>
@@ -4430,11 +4466,11 @@
       </c>
     </row>
     <row r="83" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="25">
+      <c r="B83" s="23">
         <v>2018</v>
       </c>
-      <c r="C83" s="25">
-        <v>3</v>
+      <c r="C83" s="23" t="s">
+        <v>27</v>
       </c>
       <c r="D83" s="8">
         <f t="shared" si="3"/>
@@ -4476,11 +4512,11 @@
       </c>
     </row>
     <row r="84" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="23">
+      <c r="B84" s="21">
         <v>2018</v>
       </c>
-      <c r="C84" s="23">
-        <v>2</v>
+      <c r="C84" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="D84" s="9">
         <f t="shared" si="3"/>
@@ -4522,11 +4558,11 @@
       </c>
     </row>
     <row r="85" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="25">
+      <c r="B85" s="23">
         <v>2018</v>
       </c>
-      <c r="C85" s="25">
-        <v>1</v>
+      <c r="C85" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="D85" s="8">
         <f t="shared" si="3"/>

--- a/P_aeropuertos_carga.xlsx
+++ b/P_aeropuertos_carga.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FF9669-E4D0-400F-8F25-C6D668289B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E014D5D3-0827-41BC-8E32-7BAA5C4CE386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="34">
   <si>
     <t>Total</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Mes</t>
-  </si>
-  <si>
-    <t>Actualización: agosto 2024.</t>
   </si>
   <si>
     <t>Guadalajara</t>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t>Sep.</t>
+  </si>
+  <si>
+    <t>Actualización: septiembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -457,12 +457,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -470,6 +464,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -525,8 +525,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:P85" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="B5:P85" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:P86" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
+  <autoFilter ref="B5:P86" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -780,7 +780,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:P95"/>
+  <dimension ref="B2:P96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -852,3782 +852,3830 @@
         <v>3</v>
       </c>
       <c r="F5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="H5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="I5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="K5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="M5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="15" t="s">
         <v>20</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>21</v>
       </c>
       <c r="P5" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B6" s="20">
+      <c r="B6" s="22">
         <v>2024</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="8">
+        <f>SUM(E6:P6)</f>
+        <v>102256.34403999997</v>
+      </c>
+      <c r="E6" s="4">
+        <v>19983</v>
+      </c>
+      <c r="F6" s="4">
+        <v>15121.885</v>
+      </c>
+      <c r="G6" s="4">
+        <v>6653.17</v>
+      </c>
+      <c r="H6" s="4">
+        <v>6096.0540000000001</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3038.8139999999999</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2226.7169999999996</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2083.5909999999999</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2940.2349999999997</v>
+      </c>
+      <c r="M6" s="4">
+        <v>2121.4749999999999</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1691.9869999999999</v>
+      </c>
+      <c r="O6" s="4">
+        <v>35995.97</v>
+      </c>
+      <c r="P6" s="4">
+        <v>4303.4460399999825</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B7" s="20">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="9">
+        <f>SUM(E7:P7)</f>
+        <v>108823.69917000002</v>
+      </c>
+      <c r="E7" s="7">
+        <v>20229.3</v>
+      </c>
+      <c r="F7" s="7">
+        <v>15421.421999999999</v>
+      </c>
+      <c r="G7" s="7">
+        <v>6900.85</v>
+      </c>
+      <c r="H7" s="7">
+        <v>6494.0969999999998</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3427.1890000000003</v>
+      </c>
+      <c r="J7" s="7">
+        <v>2725.0420000000004</v>
+      </c>
+      <c r="K7" s="7">
+        <v>2321.3049999999998</v>
+      </c>
+      <c r="L7" s="7">
+        <v>3155.9950000000003</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2335.154</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1623.2050000000002</v>
+      </c>
+      <c r="O7" s="7">
+        <v>39174.343999999997</v>
+      </c>
+      <c r="P7" s="7">
+        <v>5015.7961700000369</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B8" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="9">
-        <f>SUM(E6:P6)</f>
-        <v>108823.69917000002</v>
-      </c>
-      <c r="E6" s="7">
-        <v>20229.3</v>
-      </c>
-      <c r="F6" s="7">
-        <v>15421.421999999999</v>
-      </c>
-      <c r="G6" s="7">
-        <v>6900.85</v>
-      </c>
-      <c r="H6" s="7">
-        <v>6494.0969999999998</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3427.1890000000003</v>
-      </c>
-      <c r="J6" s="7">
-        <v>2725.0420000000004</v>
-      </c>
-      <c r="K6" s="7">
-        <v>2321.3049999999998</v>
-      </c>
-      <c r="L6" s="7">
-        <v>3155.9950000000003</v>
-      </c>
-      <c r="M6" s="7">
-        <v>2335.154</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1623.2050000000002</v>
-      </c>
-      <c r="O6" s="7">
-        <v>39174.343999999997</v>
-      </c>
-      <c r="P6" s="7">
-        <v>5015.7961700000369</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B7" s="22">
+      <c r="D8" s="8">
+        <f t="shared" ref="D8:D10" si="0">SUM(E8:P8)</f>
+        <v>107882.74128000005</v>
+      </c>
+      <c r="E8" s="4">
+        <v>19500.699999999997</v>
+      </c>
+      <c r="F8" s="4">
+        <v>15606.789000000001</v>
+      </c>
+      <c r="G8" s="4">
+        <v>7406.7370000000001</v>
+      </c>
+      <c r="H8" s="4">
+        <v>6133.4809999999998</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3408.8180000000002</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2590.2110000000002</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2370.0729999999999</v>
+      </c>
+      <c r="L8" s="4">
+        <v>3036.741</v>
+      </c>
+      <c r="M8" s="4">
+        <v>2203.3470000000002</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1958.9659999999999</v>
+      </c>
+      <c r="O8" s="4">
+        <v>38531.585999999996</v>
+      </c>
+      <c r="P8" s="4">
+        <v>5135.2922800000515</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B9" s="20">
         <v>2024</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="8">
-        <f t="shared" ref="D7:D9" si="0">SUM(E7:P7)</f>
-        <v>107882.74128000005</v>
-      </c>
-      <c r="E7" s="4">
-        <v>19500.699999999997</v>
-      </c>
-      <c r="F7" s="4">
-        <v>15606.789000000001</v>
-      </c>
-      <c r="G7" s="4">
-        <v>7406.7370000000001</v>
-      </c>
-      <c r="H7" s="4">
-        <v>6133.4809999999998</v>
-      </c>
-      <c r="I7" s="4">
-        <v>3408.8180000000002</v>
-      </c>
-      <c r="J7" s="4">
-        <v>2590.2110000000002</v>
-      </c>
-      <c r="K7" s="4">
-        <v>2370.0729999999999</v>
-      </c>
-      <c r="L7" s="4">
-        <v>3036.741</v>
-      </c>
-      <c r="M7" s="4">
-        <v>2203.3470000000002</v>
-      </c>
-      <c r="N7" s="4">
-        <v>1958.9659999999999</v>
-      </c>
-      <c r="O7" s="4">
-        <v>38531.585999999996</v>
-      </c>
-      <c r="P7" s="4">
-        <v>5135.2922800000515</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B8" s="20">
-        <v>2024</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>107278.03736</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="7">
         <v>19499.3</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="7">
         <v>14724.419</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G9" s="7">
         <v>7318.848</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H9" s="7">
         <v>6428.241</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I9" s="7">
         <v>3309.4189999999999</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J9" s="7">
         <v>2399.3510000000001</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K9" s="7">
         <v>2148.4209999999998</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L9" s="7">
         <v>3308.527</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M9" s="7">
         <v>2070.7939999999999</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N9" s="7">
         <v>1689.7920000000001</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O9" s="7">
         <v>39593.667999999998</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P9" s="7">
         <v>4787.2573600000051</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B9" s="22">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B10" s="22">
         <v>2024</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="C10" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8">
         <f t="shared" si="0"/>
         <v>110767.87444999999</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="4">
         <v>20062</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F10" s="4">
         <v>15321.734</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G10" s="4">
         <v>6842.7150000000001</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H10" s="4">
         <v>6818.1309999999994</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I10" s="4">
         <v>3632.4749999999995</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J10" s="4">
         <v>2865.9740000000002</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K10" s="4">
         <v>2297.306</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L10" s="4">
         <v>3244.5340000000001</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M10" s="4">
         <v>2175.2600000000002</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N10" s="4">
         <v>1778.4730000000002</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O10" s="4">
         <v>40133.834000000003</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P10" s="4">
         <v>5595.438449999996</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B10" s="20">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B11" s="20">
         <v>2024</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C11" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" ref="D11:D41" si="1">SUM(E11:P11)</f>
+        <v>105001.11396000002</v>
+      </c>
+      <c r="E11" s="7">
+        <v>18973.3</v>
+      </c>
+      <c r="F11" s="7">
+        <v>13665.344000000001</v>
+      </c>
+      <c r="G11" s="7">
+        <v>6313.32</v>
+      </c>
+      <c r="H11" s="7">
+        <v>6639.4679999999998</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3421.6190000000001</v>
+      </c>
+      <c r="J11" s="7">
+        <v>3106.3360000000002</v>
+      </c>
+      <c r="K11" s="7">
+        <v>2364.4089999999997</v>
+      </c>
+      <c r="L11" s="7">
+        <v>3512.4059999999999</v>
+      </c>
+      <c r="M11" s="7">
+        <v>2156.3200000000002</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1665.7180000000001</v>
+      </c>
+      <c r="O11" s="7">
+        <v>38069.884000000005</v>
+      </c>
+      <c r="P11" s="7">
+        <v>5112.9899599999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B12" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="9">
-        <f t="shared" ref="D10:D40" si="1">SUM(E10:P10)</f>
-        <v>105001.11396000002</v>
-      </c>
-      <c r="E10" s="7">
-        <v>18973.3</v>
-      </c>
-      <c r="F10" s="7">
-        <v>13665.344000000001</v>
-      </c>
-      <c r="G10" s="7">
-        <v>6313.32</v>
-      </c>
-      <c r="H10" s="7">
-        <v>6639.4679999999998</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3421.6190000000001</v>
-      </c>
-      <c r="J10" s="7">
-        <v>3106.3360000000002</v>
-      </c>
-      <c r="K10" s="7">
-        <v>2364.4089999999997</v>
-      </c>
-      <c r="L10" s="7">
-        <v>3512.4059999999999</v>
-      </c>
-      <c r="M10" s="7">
-        <v>2156.3200000000002</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1665.7180000000001</v>
-      </c>
-      <c r="O10" s="7">
-        <v>38069.884000000005</v>
-      </c>
-      <c r="P10" s="7">
-        <v>5112.9899599999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B11" s="22">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="D12" s="8">
         <f t="shared" si="1"/>
         <v>104062.29637999996</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E12" s="4">
         <v>19802.7</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F12" s="4">
         <v>14556.685000000001</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G12" s="4">
         <v>5905.6409999999996</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H12" s="4">
         <v>5567.2889999999998</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I12" s="4">
         <v>3144.7429999999999</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J12" s="4">
         <v>3762.2560000000003</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K12" s="4">
         <v>2058.4110000000001</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L12" s="4">
         <v>2935.8180000000002</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M12" s="4">
         <v>1921.692</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N12" s="4">
         <v>1570.1889999999996</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O12" s="4">
         <v>38209.173000000003</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P12" s="4">
         <v>4627.6993799999464</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B12" s="20">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B13" s="20">
         <v>2024</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="C13" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="9">
         <f t="shared" si="1"/>
         <v>97004.465000000026</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E13" s="7">
         <v>19063.57</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F13" s="7">
         <v>12825.287</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G13" s="7">
         <v>5709.5619999999999</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H13" s="7">
         <v>6237.3979999999992</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I13" s="7">
         <v>3026.2809999999999</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J13" s="7">
         <v>3371.2139999999999</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K13" s="7">
         <v>2375.6289999999999</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L13" s="7">
         <v>3173.3670000000002</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M13" s="7">
         <v>2052.38</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N13" s="7">
         <v>1593.547</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O13" s="7">
         <v>32860.998999999996</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P13" s="7">
         <v>4715.2310000000243</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B13" s="24">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B14" s="24">
         <v>2024</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="10">
+      <c r="C14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="10">
         <f t="shared" si="1"/>
         <v>97330.675600000075</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="6">
         <v>18369.400000000001</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F14" s="6">
         <v>13351.472999999998</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G14" s="6">
         <v>5884.6970000000001</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H14" s="6">
         <v>5967.9220000000005</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I14" s="6">
         <v>2989.357</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J14" s="6">
         <v>2973.8410000000003</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K14" s="6">
         <v>2268.6259999999997</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L14" s="6">
         <v>2854.8959999999997</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M14" s="6">
         <v>2397.5709999999999</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N14" s="6">
         <v>1825.489</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O14" s="6">
         <v>33787.300999999999</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P14" s="6">
         <v>4660.1026000000729</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B14" s="26">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B15" s="26">
         <v>2023</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="C15" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="11">
         <f t="shared" si="1"/>
         <v>104426.30729999999</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E15" s="12">
         <v>20566.599999999999</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F15" s="12">
         <v>13313.805</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G15" s="12">
         <v>5779.5439999999999</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H15" s="12">
         <v>6634.8190000000004</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I15" s="12">
         <v>3186.3519999999999</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J15" s="12">
         <v>3890.0010000000002</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K15" s="12">
         <v>2228.2650000000003</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L15" s="12">
         <v>3022.0309999999999</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M15" s="12">
         <v>2482.5659999999998</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N15" s="12">
         <v>1573.3980000000001</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O15" s="12">
         <v>36496.25</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P15" s="12">
         <v>5252.6762999999974</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B15" s="22">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B16" s="22">
         <v>2023</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="C16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8">
         <f t="shared" si="1"/>
         <v>105823.25400000002</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="4">
         <v>20520.5</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F16" s="4">
         <v>14126.735000000001</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G16" s="4">
         <v>6122.6710000000003</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H16" s="4">
         <v>6195.4279999999999</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I16" s="4">
         <v>3286.1129999999998</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J16" s="4">
         <v>3463.6080000000002</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K16" s="4">
         <v>2592.8070000000002</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L16" s="4">
         <v>3439.2550000000001</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M16" s="4">
         <v>2391.259</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N16" s="4">
         <v>1992.0079999999998</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O16" s="4">
         <v>36256.74</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P16" s="4">
         <v>5436.1300000000128</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B16" s="20">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B17" s="20">
         <v>2023</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="C17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="9">
         <f t="shared" si="1"/>
         <v>107132.1866</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E17" s="7">
         <v>20291</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F17" s="7">
         <v>14588.228999999999</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G17" s="7">
         <v>6563.4580000000005</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H17" s="7">
         <v>6490.5720000000001</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I17" s="7">
         <v>3206.3980000000001</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J17" s="7">
         <v>2918.2420000000002</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K17" s="7">
         <v>2583.0619999999999</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L17" s="7">
         <v>3007.05</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M17" s="7">
         <v>2285.1779999999999</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N17" s="7">
         <v>2296.12</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O17" s="7">
         <v>37567.615000000005</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P17" s="7">
         <v>5335.2626000000073</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B17" s="22">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B18" s="22">
         <v>2023</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="C18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="8">
         <f t="shared" si="1"/>
         <v>96344.621599999969</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="4">
         <v>18890.84</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F18" s="4">
         <v>11939.238000000001</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G18" s="4">
         <v>6448.41</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H18" s="4">
         <v>6941.482</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I18" s="4">
         <v>2997.1009999999997</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J18" s="4">
         <v>2820.8690000000001</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K18" s="4">
         <v>2392.9459999999999</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L18" s="4">
         <v>2689.5440000000003</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M18" s="4">
         <v>2237.8310000000001</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N18" s="4">
         <v>1937.12</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O18" s="4">
         <v>32211.534999999996</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P18" s="4">
         <v>4837.7055999999784</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B18" s="20">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B19" s="20">
         <v>2023</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="9">
+      <c r="C19" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="9">
         <f t="shared" si="1"/>
         <v>101340.06099999999</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E19" s="7">
         <v>30758.92</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F19" s="7">
         <v>12635.058999999999</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G19" s="7">
         <v>6735.0630000000001</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H19" s="7">
         <v>7071.5340000000006</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I19" s="7">
         <v>3260.134</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J19" s="7">
         <v>2927.556</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K19" s="7">
         <v>2738.0719999999997</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L19" s="7">
         <v>3079.3420000000001</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M19" s="7">
         <v>2242.9470000000001</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N19" s="7">
         <v>2212.1790000000001</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O19" s="7">
         <v>22653.131999999998</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P19" s="7">
         <v>5026.1229999999987</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B19" s="22">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B20" s="22">
         <v>2023</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="C20" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="8">
         <f t="shared" si="1"/>
         <v>99893.349999999977</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="4">
         <v>42255.99</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F20" s="4">
         <v>13795.428</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G20" s="4">
         <v>6453.2659999999996</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H20" s="4">
         <v>6305.5460000000003</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I20" s="4">
         <v>2850.3670000000002</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J20" s="4">
         <v>2992.5640000000003</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K20" s="4">
         <v>2184.107</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L20" s="4">
         <v>3001.3330000000001</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M20" s="4">
         <v>2136.636</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N20" s="4">
         <v>1665.6389999999999</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O20" s="4">
         <v>12061.946</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P20" s="4">
         <v>4190.5279999999912</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B20" s="20">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B21" s="20">
         <v>2023</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="9">
+      <c r="C21" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="9">
         <f t="shared" si="1"/>
         <v>100692.46</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E21" s="7">
         <v>48959.360000000001</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F21" s="7">
         <v>14347.388000000001</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G21" s="7">
         <v>6967.08</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H21" s="7">
         <v>7548.9220000000005</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I21" s="7">
         <v>3319.7</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J21" s="7">
         <v>2985.5720000000001</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K21" s="7">
         <v>2751.5749999999998</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L21" s="7">
         <v>2986.2660000000001</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M21" s="7">
         <v>2130.835</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N21" s="7">
         <v>1363.424</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O21" s="7">
         <v>2657.15</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P21" s="7">
         <v>4675.1880000000074</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B21" s="22">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B22" s="22">
         <v>2023</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="8">
+      <c r="C22" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="8">
         <f t="shared" si="1"/>
         <v>98181.257999999987</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="4">
         <v>50235.43</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F22" s="4">
         <v>13240.904999999999</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G22" s="4">
         <v>6447.4090000000006</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H22" s="4">
         <v>6818.1289999999999</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I22" s="4">
         <v>3168.0129999999999</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J22" s="4">
         <v>3032.7219999999998</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K22" s="4">
         <v>2419.5279999999998</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L22" s="4">
         <v>3039.0519999999997</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M22" s="4">
         <v>2077.337</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N22" s="4">
         <v>1145.9829999999999</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O22" s="4">
         <v>2054.748</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P22" s="4">
         <v>4502.0019999999795</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B22" s="20">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B23" s="20">
         <v>2023</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="9">
+      <c r="C23" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="9">
         <f t="shared" si="1"/>
         <v>92574.85</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E23" s="7">
         <v>47367.56</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F23" s="7">
         <v>13553.766</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G23" s="7">
         <v>6046.3230000000003</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H23" s="7">
         <v>5997.2860000000001</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I23" s="7">
         <v>2823</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J23" s="7">
         <v>3201.482</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K23" s="7">
         <v>2103.346</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L23" s="7">
         <v>2699.6509999999998</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M23" s="7">
         <v>1830.1030000000001</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N23" s="7">
         <v>966.625</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O23" s="7">
         <v>1973.069</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P23" s="7">
         <v>4012.6390000000029</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B23" s="22">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B24" s="22">
         <v>2023</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="8">
+      <c r="C24" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="8">
         <f t="shared" si="1"/>
         <v>105745.56200000001</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="4">
         <v>52276.67</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F24" s="4">
         <v>16535.007000000001</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G24" s="4">
         <v>6440.4480000000003</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H24" s="4">
         <v>7445.0419999999995</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I24" s="4">
         <v>3504.6480000000001</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J24" s="4">
         <v>3949.8199999999997</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K24" s="4">
         <v>2498.7659999999996</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L24" s="4">
         <v>3061.4049999999997</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M24" s="4">
         <v>2069.788</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N24" s="4">
         <v>1219.9379999999999</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O24" s="4">
         <v>1776.1070000000002</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P24" s="4">
         <v>4967.9229999999952</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B24" s="20">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B25" s="20">
         <v>2023</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="9">
+      <c r="C25" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="9">
         <f t="shared" si="1"/>
         <v>92062.197000000015</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E25" s="7">
         <v>48557.700000000004</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F25" s="7">
         <v>12859.111000000001</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G25" s="7">
         <v>5657.7039999999997</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H25" s="7">
         <v>6269.88</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I25" s="7">
         <v>2992.4319999999998</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J25" s="7">
         <v>3589.6260000000002</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K25" s="7">
         <v>2018.2800000000002</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L25" s="7">
         <v>2591.8669999999997</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M25" s="7">
         <v>1971.3010000000002</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N25" s="7">
         <v>967.20100000000002</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O25" s="7">
         <v>24.785999999999998</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P25" s="7">
         <v>4562.3090000000093</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B25" s="24">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B26" s="24">
         <v>2023</v>
       </c>
-      <c r="C25" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="10">
+      <c r="C26" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="10">
         <f t="shared" si="1"/>
         <v>91861.286999999982</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E26" s="6">
         <v>47206.720000000001</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F26" s="6">
         <v>14071.760999999999</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G26" s="6">
         <v>5308.5119999999997</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H26" s="6">
         <v>6105.5779999999995</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I26" s="6">
         <v>3099.4949999999999</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J26" s="6">
         <v>3049.6080000000002</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K26" s="6">
         <v>2226.4519999999998</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L26" s="6">
         <v>2648.1549999999997</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M26" s="6">
         <v>2170.7359999999999</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N26" s="6">
         <v>1026.6849999999999</v>
       </c>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6">
+      <c r="O26" s="6"/>
+      <c r="P26" s="6">
         <v>4947.5849999999755</v>
       </c>
     </row>
-    <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="26">
+    <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="26">
         <v>2022</v>
       </c>
-      <c r="C26" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="11">
+      <c r="C27" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="11">
         <f t="shared" si="1"/>
         <v>101065.27699999994</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E27" s="12">
         <v>51995.01</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F27" s="12">
         <v>14753.401000000002</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G27" s="12">
         <v>6074.482</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H27" s="12">
         <v>6693.6720000000005</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I27" s="12">
         <v>3610.9369999999999</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J27" s="12">
         <v>3543.056</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K27" s="12">
         <v>2529.5419999999999</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L27" s="12">
         <v>3120.09</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M27" s="12">
         <v>2114.6820000000002</v>
       </c>
-      <c r="N26" s="12">
+      <c r="N27" s="12">
         <v>1202.202</v>
       </c>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12">
+      <c r="O27" s="12"/>
+      <c r="P27" s="12">
         <v>5428.2029999999249</v>
       </c>
     </row>
-    <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="22">
+    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="22">
         <v>2022</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="8">
+      <c r="C28" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="8">
         <f t="shared" si="1"/>
         <v>100761.743</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E28" s="4">
         <v>52228.090000000004</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F28" s="4">
         <v>14611.128000000001</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G28" s="4">
         <v>6314.7170000000006</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H28" s="4">
         <v>6174.5390000000007</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I28" s="4">
         <v>3744.3739999999998</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J28" s="4">
         <v>3438.8589999999999</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K28" s="4">
         <v>2565.1889999999999</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L28" s="4">
         <v>3357.0519999999997</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M28" s="4">
         <v>2200.0079999999998</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N28" s="4">
         <v>1152.1139999999998</v>
       </c>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4">
+      <c r="O28" s="4"/>
+      <c r="P28" s="4">
         <v>4975.6730000000007</v>
       </c>
     </row>
-    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="20">
+    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="20">
         <v>2022</v>
       </c>
-      <c r="C28" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="9">
+      <c r="C29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="9">
         <f t="shared" si="1"/>
         <v>101815.66400000002</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E29" s="7">
         <v>53850.369999999995</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F29" s="7">
         <v>15184.744000000001</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G29" s="7">
         <v>6463.3790000000008</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H29" s="7">
         <v>5772.1310000000003</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I29" s="7">
         <v>3574.8900000000003</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J29" s="7">
         <v>3573.3429999999998</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K29" s="7">
         <v>2038.558</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L29" s="7">
         <v>2968.2270000000003</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M29" s="7">
         <v>2060.0630000000001</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N29" s="7">
         <v>1283.712</v>
       </c>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7">
+      <c r="O29" s="7"/>
+      <c r="P29" s="7">
         <v>5046.2470000000367</v>
       </c>
     </row>
-    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="22">
+    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="22">
         <v>2022</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="8">
+      <c r="C30" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="8">
         <f t="shared" si="1"/>
         <v>89334.159999999974</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E30" s="4">
         <v>47061.49</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F30" s="4">
         <v>14479.710999999999</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G30" s="4">
         <v>6202.4430000000002</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H30" s="4">
         <v>5721.7240000000002</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I30" s="4">
         <v>2401.297</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J30" s="4">
         <v>2631.6559999999999</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K30" s="4">
         <v>2465.8180000000002</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L30" s="4">
         <v>2754.2740000000003</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M30" s="4">
         <v>512.15899999999999</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N30" s="4">
         <v>1143.1680000000001</v>
       </c>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4">
+      <c r="O30" s="4"/>
+      <c r="P30" s="4">
         <v>3960.4199999999564</v>
       </c>
     </row>
-    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="20">
+    <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="20">
         <v>2022</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="9">
+      <c r="C31" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="9">
         <f t="shared" si="1"/>
         <v>95278.69100000005</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E31" s="7">
         <v>47746.51</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F31" s="7">
         <v>14115.436000000002</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G31" s="7">
         <v>7015.4850000000006</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H31" s="7">
         <v>6571.5810000000001</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I31" s="7">
         <v>2958.8999999999996</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J31" s="7">
         <v>3531.7309999999998</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K31" s="7">
         <v>2622.4749999999999</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L31" s="7">
         <v>2978.3830000000003</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M31" s="7">
         <v>2025.0970000000002</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N31" s="7">
         <v>1204.242</v>
       </c>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7">
+      <c r="O31" s="7"/>
+      <c r="P31" s="7">
         <v>4508.8510000000351</v>
       </c>
     </row>
-    <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="22">
+    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="22">
         <v>2022</v>
       </c>
-      <c r="C31" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="8">
+      <c r="C32" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="8">
         <f t="shared" si="1"/>
         <v>97785.689999999988</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E32" s="4">
         <v>50063.990000000005</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F32" s="4">
         <v>14860.342999999999</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G32" s="4">
         <v>6623.2259999999997</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H32" s="4">
         <v>5368.71</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I32" s="4">
         <v>3986.607</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J32" s="4">
         <v>4343.424</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K32" s="4">
         <v>2496.5360000000001</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L32" s="4">
         <v>2822.9870000000001</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M32" s="4">
         <v>1943.029</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N32" s="4">
         <v>1117.913</v>
       </c>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4">
+      <c r="O32" s="4"/>
+      <c r="P32" s="4">
         <v>4158.924999999982</v>
       </c>
     </row>
-    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="20">
+    <row r="33" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="20">
         <v>2022</v>
       </c>
-      <c r="C32" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="9">
+      <c r="C33" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="9">
         <f t="shared" si="1"/>
         <v>98754.335000000006</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E33" s="7">
         <v>46577.189999999995</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F33" s="7">
         <v>15738.313999999998</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G33" s="7">
         <v>7141.8860000000004</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H33" s="7">
         <v>6363.9130000000005</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I33" s="7">
         <v>4263.3530000000001</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J33" s="7">
         <v>3976.6590000000001</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K33" s="7">
         <v>2587.8480000000004</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L33" s="7">
         <v>3419.7529999999997</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M33" s="7">
         <v>2042.5399999999997</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N33" s="7">
         <v>1359.9259999999999</v>
       </c>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7">
+      <c r="O33" s="7"/>
+      <c r="P33" s="7">
         <v>5282.9530000000059</v>
       </c>
     </row>
-    <row r="33" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="22">
+    <row r="34" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="22">
         <v>2022</v>
       </c>
-      <c r="C33" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="8">
+      <c r="C34" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="8">
         <f t="shared" si="1"/>
         <v>100981.77</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E34" s="4">
         <v>48175.270000000004</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F34" s="4">
         <v>15121.800999999999</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G34" s="4">
         <v>6917.94</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H34" s="4">
         <v>7004.4480000000003</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I34" s="4">
         <v>4293.0200000000004</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J34" s="4">
         <v>4633.1059999999998</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K34" s="4">
         <v>2216.5819999999999</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L34" s="4">
         <v>4035.9160000000002</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M34" s="4">
         <v>2042.0069999999998</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N34" s="4">
         <v>1212.9639999999999</v>
       </c>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4">
+      <c r="O34" s="4"/>
+      <c r="P34" s="4">
         <v>5328.7160000000003</v>
       </c>
     </row>
-    <row r="34" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="20">
+    <row r="35" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="20">
         <v>2022</v>
       </c>
-      <c r="C34" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="9">
+      <c r="C35" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="9">
         <f t="shared" si="1"/>
         <v>91772.804999999978</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E35" s="7">
         <v>42504.89</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F35" s="7">
         <v>14271.894</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G35" s="7">
         <v>6804.5039999999999</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H35" s="7">
         <v>5796.9490000000005</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I35" s="7">
         <v>3819.4520000000002</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J35" s="7">
         <v>4312.4709999999995</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K35" s="7">
         <v>2349.19</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L35" s="7">
         <v>3770.8559999999998</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M35" s="7">
         <v>1869.663</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N35" s="7">
         <v>1118.5450000000001</v>
       </c>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7">
+      <c r="O35" s="7"/>
+      <c r="P35" s="7">
         <v>5154.390999999976</v>
       </c>
     </row>
-    <row r="35" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="22">
+    <row r="36" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="22">
         <v>2022</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="8">
+      <c r="C36" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="8">
         <f t="shared" si="1"/>
         <v>97475.604000000007</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E36" s="4">
         <v>43589.06</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F36" s="4">
         <v>15805.73</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G36" s="4">
         <v>7474.4720000000007</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H36" s="4">
         <v>6700.8620000000001</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I36" s="4">
         <v>4181.607</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J36" s="4">
         <v>4873.1779999999999</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K36" s="4">
         <v>2656.9369999999999</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L36" s="4">
         <v>3049.7539999999999</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M36" s="4">
         <v>2099.5990000000002</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N36" s="4">
         <v>1350.1109999999999</v>
       </c>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4">
+      <c r="O36" s="4"/>
+      <c r="P36" s="4">
         <v>5694.2940000000135</v>
       </c>
     </row>
-    <row r="36" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="20">
+    <row r="37" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="20">
         <v>2022</v>
       </c>
-      <c r="C36" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="9">
+      <c r="C37" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="9">
         <f t="shared" si="1"/>
         <v>89800.428</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E37" s="7">
         <v>45366.31</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F37" s="7">
         <v>13369.772999999999</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G37" s="7">
         <v>5647.3320000000003</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H37" s="7">
         <v>5270.6120000000001</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I37" s="7">
         <v>3794.5039999999999</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J37" s="7">
         <v>3839.19</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K37" s="7">
         <v>2119.1379999999999</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L37" s="7">
         <v>2576.7370000000001</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M37" s="7">
         <v>1797.6790000000001</v>
       </c>
-      <c r="N36" s="7">
+      <c r="N37" s="7">
         <v>1019.68</v>
       </c>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7">
+      <c r="O37" s="7"/>
+      <c r="P37" s="7">
         <v>4999.4729999999945</v>
       </c>
     </row>
-    <row r="37" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="24">
+    <row r="38" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="24">
         <v>2022</v>
       </c>
-      <c r="C37" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="10">
+      <c r="C38" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="10">
         <f t="shared" si="1"/>
         <v>85046.313999999984</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E38" s="6">
         <v>41649.950000000004</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F38" s="6">
         <v>14466.567999999999</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G38" s="6">
         <v>5084.2289999999994</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H38" s="6">
         <v>5408.1559999999999</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I38" s="6">
         <v>2575.6040000000003</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J38" s="6">
         <v>3171.0789999999997</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K38" s="6">
         <v>2142.4740000000002</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L38" s="6">
         <v>2573.4090000000001</v>
       </c>
-      <c r="M37" s="6">
+      <c r="M38" s="6">
         <v>1939.2370000000001</v>
       </c>
-      <c r="N37" s="6">
+      <c r="N38" s="6">
         <v>1105.0170000000001</v>
       </c>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6">
+      <c r="O38" s="6"/>
+      <c r="P38" s="6">
         <v>4930.590999999964</v>
       </c>
     </row>
-    <row r="38" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="26">
+    <row r="39" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="26">
         <v>2021</v>
       </c>
-      <c r="C38" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="11">
+      <c r="C39" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="11">
         <f t="shared" si="1"/>
         <v>106245.8559999999</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E39" s="12">
         <v>50857.07</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F39" s="12">
         <v>17094.063999999998</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G39" s="12">
         <v>6690.982</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H39" s="12">
         <v>6757.0789999999997</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I39" s="12">
         <v>4772.1049999999996</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J39" s="12">
         <v>4153.6809999999996</v>
       </c>
-      <c r="K38" s="12">
+      <c r="K39" s="12">
         <v>2996.9839999999999</v>
       </c>
-      <c r="L38" s="12">
+      <c r="L39" s="12">
         <v>3411.8760000000002</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M39" s="12">
         <v>2152.6570000000002</v>
       </c>
-      <c r="N38" s="12">
+      <c r="N39" s="12">
         <v>1412.242</v>
       </c>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12">
+      <c r="O39" s="12"/>
+      <c r="P39" s="12">
         <v>5947.115999999909</v>
       </c>
     </row>
-    <row r="39" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="22">
+    <row r="40" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="22">
         <v>2021</v>
       </c>
-      <c r="C39" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="8">
+      <c r="C40" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="8">
         <f t="shared" si="1"/>
         <v>103780.351</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E40" s="4">
         <v>51670.84</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F40" s="4">
         <v>16637.919000000002</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G40" s="4">
         <v>6777.7350000000006</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H40" s="4">
         <v>6088.8860000000004</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I40" s="4">
         <v>4689.4409999999998</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J40" s="4">
         <v>3093.7200000000003</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K40" s="4">
         <v>2801.3710000000001</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L40" s="4">
         <v>3273.163</v>
       </c>
-      <c r="M39" s="4">
+      <c r="M40" s="4">
         <v>2116.31</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N40" s="4">
         <v>1187.3990000000001</v>
       </c>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4">
+      <c r="O40" s="4"/>
+      <c r="P40" s="4">
         <v>5443.5670000000018</v>
       </c>
     </row>
-    <row r="40" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="20">
+    <row r="41" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="20">
         <v>2021</v>
       </c>
-      <c r="C40" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="9">
+      <c r="C41" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="9">
         <f t="shared" si="1"/>
         <v>102011.41899999998</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E41" s="7">
         <v>52512.270000000004</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F41" s="7">
         <v>15934.506000000001</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G41" s="7">
         <v>6335.259</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H41" s="7">
         <v>5545.3950000000004</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I41" s="7">
         <v>4882.7650000000003</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J41" s="7">
         <v>2936.84</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K41" s="7">
         <v>2405.8789999999999</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L41" s="7">
         <v>3272.1130000000003</v>
       </c>
-      <c r="M40" s="7">
+      <c r="M41" s="7">
         <v>1900.828</v>
       </c>
-      <c r="N40" s="7">
+      <c r="N41" s="7">
         <v>1092.5319999999999</v>
       </c>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7">
+      <c r="O41" s="7"/>
+      <c r="P41" s="7">
         <v>5193.0319999999592</v>
       </c>
     </row>
-    <row r="41" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="22">
+    <row r="42" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="22">
         <v>2021</v>
       </c>
-      <c r="C41" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="8">
-        <f t="shared" ref="D41:D72" si="2">SUM(E41:P41)</f>
+      <c r="C42" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="8">
+        <f t="shared" ref="D42:D73" si="2">SUM(E42:P42)</f>
         <v>91178.608999999982</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E42" s="4">
         <v>45915.21</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F42" s="4">
         <v>14692.056</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G42" s="4">
         <v>5728.8209999999999</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H42" s="4">
         <v>5560.4480000000003</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I42" s="4">
         <v>4702.9629999999997</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J42" s="4">
         <v>2102.703</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K42" s="4">
         <v>2272.134</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L42" s="4">
         <v>2868.15</v>
       </c>
-      <c r="M41" s="4">
+      <c r="M42" s="4">
         <v>1735.4590000000001</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N42" s="4">
         <v>1045.8</v>
       </c>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4">
+      <c r="O42" s="4"/>
+      <c r="P42" s="4">
         <v>4554.864999999978</v>
       </c>
     </row>
-    <row r="42" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="20">
+    <row r="43" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="20">
         <v>2021</v>
       </c>
-      <c r="C42" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="9">
+      <c r="C43" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="9">
         <f t="shared" si="2"/>
         <v>92414.208999999988</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E43" s="7">
         <v>46263.56</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F43" s="7">
         <v>15429.054</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G43" s="7">
         <v>5843.6489999999994</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H43" s="7">
         <v>5188.5529999999999</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I43" s="7">
         <v>4997.6589999999997</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J43" s="7">
         <v>1980.7669999999998</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K43" s="7">
         <v>2178.5140000000001</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L43" s="7">
         <v>2985.433</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M43" s="7">
         <v>1919.7950000000001</v>
       </c>
-      <c r="N42" s="7">
+      <c r="N43" s="7">
         <v>1046.1379999999999</v>
       </c>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7">
+      <c r="O43" s="7"/>
+      <c r="P43" s="7">
         <v>4581.0869999999823</v>
       </c>
     </row>
-    <row r="43" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="22">
+    <row r="44" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="22">
         <v>2021</v>
       </c>
-      <c r="C43" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="8">
+      <c r="C44" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="8">
         <f t="shared" si="2"/>
         <v>94998.959000000017</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E44" s="4">
         <v>47535.66</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F44" s="4">
         <v>16396.912</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G44" s="4">
         <v>5814.3230000000003</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H44" s="4">
         <v>5225.7449999999999</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I44" s="4">
         <v>4822.5879999999997</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J44" s="4">
         <v>2417.9939999999997</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K44" s="4">
         <v>2253.5949999999998</v>
       </c>
-      <c r="L43" s="4">
+      <c r="L44" s="4">
         <v>2954.0879999999997</v>
       </c>
-      <c r="M43" s="4">
+      <c r="M44" s="4">
         <v>2019.4090000000001</v>
       </c>
-      <c r="N43" s="4">
+      <c r="N44" s="4">
         <v>989</v>
       </c>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4">
+      <c r="O44" s="4"/>
+      <c r="P44" s="4">
         <v>4569.6450000000086</v>
       </c>
     </row>
-    <row r="44" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="20">
+    <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="20">
         <v>2021</v>
       </c>
-      <c r="C44" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="9">
+      <c r="C45" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="9">
         <f t="shared" si="2"/>
         <v>93150.852999999974</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E45" s="7">
         <v>46381.57</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F45" s="7">
         <v>16321.146999999999</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G45" s="7">
         <v>5643.8950000000004</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H45" s="7">
         <v>5512.8739999999998</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I45" s="7">
         <v>4619.1679999999997</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J45" s="7">
         <v>2265.636</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K45" s="7">
         <v>2051.7060000000001</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L45" s="7">
         <v>2931.884</v>
       </c>
-      <c r="M44" s="7">
+      <c r="M45" s="7">
         <v>1972.1880000000001</v>
       </c>
-      <c r="N44" s="7">
+      <c r="N45" s="7">
         <v>986.39300000000003</v>
       </c>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7">
+      <c r="O45" s="7"/>
+      <c r="P45" s="7">
         <v>4464.3919999999753</v>
       </c>
     </row>
-    <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="22">
+    <row r="46" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="22">
         <v>2021</v>
       </c>
-      <c r="C45" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="8">
+      <c r="C46" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="8">
         <f t="shared" si="2"/>
         <v>91896.881000000023</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E46" s="4">
         <v>46267.280000000006</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F46" s="4">
         <v>16961.302</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G46" s="4">
         <v>5341.201</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H46" s="4">
         <v>5093.9789999999994</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I46" s="4">
         <v>4098.0300000000007</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J46" s="4">
         <v>2317.509</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K46" s="4">
         <v>1839.751</v>
       </c>
-      <c r="L45" s="4">
+      <c r="L46" s="4">
         <v>2917.2539999999999</v>
       </c>
-      <c r="M45" s="4">
+      <c r="M46" s="4">
         <v>1854.6999999999998</v>
       </c>
-      <c r="N45" s="4">
+      <c r="N46" s="4">
         <v>936.20399999999995</v>
       </c>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4">
+      <c r="O46" s="4"/>
+      <c r="P46" s="4">
         <v>4269.6710000000021</v>
       </c>
     </row>
-    <row r="46" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="20">
+    <row r="47" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="20">
         <v>2021</v>
       </c>
-      <c r="C46" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="9">
+      <c r="C47" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="9">
         <f t="shared" si="2"/>
         <v>91124.671000000017</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E47" s="7">
         <v>44958.49</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F47" s="7">
         <v>17353.253000000001</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G47" s="7">
         <v>5074.8539999999994</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H47" s="7">
         <v>5150.7029999999995</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I47" s="7">
         <v>4190.9799999999996</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J47" s="7">
         <v>2711.4180000000001</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K47" s="7">
         <v>2026.221</v>
       </c>
-      <c r="L46" s="7">
+      <c r="L47" s="7">
         <v>2834.6559999999999</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M47" s="7">
         <v>1752.0440000000001</v>
       </c>
-      <c r="N46" s="7">
+      <c r="N47" s="7">
         <v>919.93</v>
       </c>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7">
+      <c r="O47" s="7"/>
+      <c r="P47" s="7">
         <v>4152.1220000000194</v>
       </c>
     </row>
-    <row r="47" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="22">
+    <row r="48" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="22">
         <v>2021</v>
       </c>
-      <c r="C47" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="8">
+      <c r="C48" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="8">
         <f t="shared" si="2"/>
         <v>97804.682000000015</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E48" s="4">
         <v>49200.950000000004</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F48" s="4">
         <v>18513.925000000003</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G48" s="4">
         <v>5394.5290000000005</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H48" s="4">
         <v>5438.8379999999997</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I48" s="4">
         <v>4517.6980000000003</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J48" s="4">
         <v>2272.91</v>
       </c>
-      <c r="K47" s="4">
+      <c r="K48" s="4">
         <v>2051.056</v>
       </c>
-      <c r="L47" s="4">
+      <c r="L48" s="4">
         <v>2950.4749999999999</v>
       </c>
-      <c r="M47" s="4">
+      <c r="M48" s="4">
         <v>1771.0360000000001</v>
       </c>
-      <c r="N47" s="4">
+      <c r="N48" s="4">
         <v>1067.4470000000001</v>
       </c>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4">
+      <c r="O48" s="4"/>
+      <c r="P48" s="4">
         <v>4625.8179999999957</v>
       </c>
     </row>
-    <row r="48" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="20">
+    <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="20">
         <v>2021</v>
       </c>
-      <c r="C48" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="9">
+      <c r="C49" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="9">
         <f t="shared" si="2"/>
         <v>83857.271000000022</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E49" s="7">
         <v>42287.700000000004</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F49" s="7">
         <v>15583.737000000001</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G49" s="7">
         <v>4140.5389999999998</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H49" s="7">
         <v>4531.4269999999997</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I49" s="7">
         <v>3863.7919999999995</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J49" s="7">
         <v>2548.5929999999998</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K49" s="7">
         <v>1805.3239999999998</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L49" s="7">
         <v>2596.5039999999999</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M49" s="7">
         <v>1517.7179999999998</v>
       </c>
-      <c r="N48" s="7">
+      <c r="N49" s="7">
         <v>866.53800000000001</v>
       </c>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7">
+      <c r="O49" s="7"/>
+      <c r="P49" s="7">
         <v>4115.3990000000395</v>
       </c>
     </row>
-    <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="24">
+    <row r="50" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="24">
         <v>2021</v>
       </c>
-      <c r="C49" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="10">
+      <c r="C50" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="10">
         <f t="shared" si="2"/>
         <v>88197.219999999987</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E50" s="6">
         <v>43928.770000000004</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F50" s="6">
         <v>16300.849999999997</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G50" s="6">
         <v>4840.8860000000004</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H50" s="6">
         <v>4794.0879999999997</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I50" s="6">
         <v>4785.6239999999998</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J50" s="6">
         <v>2064.8710000000001</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K50" s="6">
         <v>2034.952</v>
       </c>
-      <c r="L49" s="6">
+      <c r="L50" s="6">
         <v>2453.6999999999998</v>
       </c>
-      <c r="M49" s="6">
+      <c r="M50" s="6">
         <v>1745.922</v>
       </c>
-      <c r="N49" s="6">
+      <c r="N50" s="6">
         <v>918.11799999999994</v>
       </c>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6">
+      <c r="O50" s="6"/>
+      <c r="P50" s="6">
         <v>4329.4389999999794</v>
       </c>
     </row>
-    <row r="50" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="26">
+    <row r="51" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="26">
         <v>2020</v>
       </c>
-      <c r="C50" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="11">
+      <c r="C51" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="11">
         <f t="shared" si="2"/>
         <v>94144.191000000021</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E51" s="12">
         <v>46330.03</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F51" s="12">
         <v>15973.973</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G51" s="12">
         <v>5450.8789999999999</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H51" s="12">
         <v>5488.8649999999998</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I51" s="12">
         <v>5262.348</v>
       </c>
-      <c r="J50" s="12">
+      <c r="J51" s="12">
         <v>1922.278</v>
       </c>
-      <c r="K50" s="12">
+      <c r="K51" s="12">
         <v>2610.1819999999998</v>
       </c>
-      <c r="L50" s="12">
+      <c r="L51" s="12">
         <v>3093.9090000000001</v>
       </c>
-      <c r="M50" s="12">
+      <c r="M51" s="12">
         <v>1870.7370000000001</v>
       </c>
-      <c r="N50" s="12">
+      <c r="N51" s="12">
         <v>1267.98</v>
       </c>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12">
+      <c r="O51" s="12"/>
+      <c r="P51" s="12">
         <v>4873.010000000022</v>
       </c>
     </row>
-    <row r="51" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="22">
+    <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="22">
         <v>2020</v>
       </c>
-      <c r="C51" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="8">
+      <c r="C52" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="8">
         <f t="shared" si="2"/>
         <v>91473.85500000001</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E52" s="4">
         <v>47533.36</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F52" s="4">
         <v>14400.682000000001</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G52" s="4">
         <v>5383.1379999999999</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H52" s="4">
         <v>4958.3670000000002</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I52" s="4">
         <v>4752.6779999999999</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J52" s="4">
         <v>1515.828</v>
       </c>
-      <c r="K51" s="4">
+      <c r="K52" s="4">
         <v>2284.3830000000003</v>
       </c>
-      <c r="L51" s="4">
+      <c r="L52" s="4">
         <v>3066.7379999999998</v>
       </c>
-      <c r="M51" s="4">
+      <c r="M52" s="4">
         <v>1683.905</v>
       </c>
-      <c r="N51" s="4">
+      <c r="N52" s="4">
         <v>1051.925</v>
       </c>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4">
+      <c r="O52" s="4"/>
+      <c r="P52" s="4">
         <v>4842.8510000000106</v>
       </c>
     </row>
-    <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="20">
+    <row r="53" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="20">
         <v>2020</v>
       </c>
-      <c r="C52" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D52" s="9">
+      <c r="C53" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" s="9">
         <f t="shared" si="2"/>
         <v>91662.356999999931</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E53" s="7">
         <v>46625.39</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F53" s="7">
         <v>16134.585999999999</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G53" s="7">
         <v>5479.9110000000001</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H53" s="7">
         <v>4639.0290000000005</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I53" s="7">
         <v>5349.1270000000004</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J53" s="7">
         <v>1260.509</v>
       </c>
-      <c r="K52" s="7">
+      <c r="K53" s="7">
         <v>2199.1950000000002</v>
       </c>
-      <c r="L52" s="7">
+      <c r="L53" s="7">
         <v>3053.64</v>
       </c>
-      <c r="M52" s="7">
+      <c r="M53" s="7">
         <v>1739.095</v>
       </c>
-      <c r="N52" s="7">
+      <c r="N53" s="7">
         <v>943.76300000000003</v>
       </c>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7">
+      <c r="O53" s="7"/>
+      <c r="P53" s="7">
         <v>4238.11199999993</v>
       </c>
     </row>
-    <row r="53" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="22">
+    <row r="54" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="22">
         <v>2020</v>
       </c>
-      <c r="C53" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="8">
+      <c r="C54" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="8">
         <f t="shared" si="2"/>
         <v>77051.781000000032</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E54" s="4">
         <v>38240.839999999997</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F54" s="4">
         <v>14171.219000000001</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G54" s="4">
         <v>4407.3809999999994</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H54" s="4">
         <v>3752.172</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I54" s="4">
         <v>4552.4279999999999</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J54" s="4">
         <v>1079.7190000000001</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K54" s="4">
         <v>1834.0129999999999</v>
       </c>
-      <c r="L53" s="4">
+      <c r="L54" s="4">
         <v>2717.5839999999998</v>
       </c>
-      <c r="M53" s="4">
+      <c r="M54" s="4">
         <v>1835.0609999999999</v>
       </c>
-      <c r="N53" s="4">
+      <c r="N54" s="4">
         <v>788.73500000000001</v>
       </c>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4">
+      <c r="O54" s="4"/>
+      <c r="P54" s="4">
         <v>3672.629000000029</v>
       </c>
     </row>
-    <row r="54" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="20">
+    <row r="55" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="20">
         <v>2020</v>
       </c>
-      <c r="C54" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" s="9">
+      <c r="C55" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="9">
         <f t="shared" si="2"/>
         <v>73243.596999999965</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E55" s="7">
         <v>37945.979999999996</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F55" s="7">
         <v>12325.865999999998</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G55" s="7">
         <v>3948.0789999999997</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H55" s="7">
         <v>3392.7820000000002</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I55" s="7">
         <v>4478.6279999999997</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J55" s="7">
         <v>1011.65</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K55" s="7">
         <v>1714.8619999999999</v>
       </c>
-      <c r="L54" s="7">
+      <c r="L55" s="7">
         <v>2516.4409999999998</v>
       </c>
-      <c r="M54" s="7">
+      <c r="M55" s="7">
         <v>1831.6880000000001</v>
       </c>
-      <c r="N54" s="7">
+      <c r="N55" s="7">
         <v>782.10199999999998</v>
       </c>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7">
+      <c r="O55" s="7"/>
+      <c r="P55" s="7">
         <v>3295.5189999999848</v>
       </c>
     </row>
-    <row r="55" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="22">
+    <row r="56" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="22">
         <v>2020</v>
       </c>
-      <c r="C55" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D55" s="8">
+      <c r="C56" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="8">
         <f t="shared" si="2"/>
         <v>70714.571000000011</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E56" s="4">
         <v>34839.78</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F56" s="4">
         <v>13321.585999999999</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G56" s="4">
         <v>3950.6219999999998</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H56" s="4">
         <v>3725.6490000000003</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I56" s="4">
         <v>3987.5020000000004</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J56" s="4">
         <v>936.46399999999994</v>
       </c>
-      <c r="K55" s="4">
+      <c r="K56" s="4">
         <v>1692.3649999999998</v>
       </c>
-      <c r="L55" s="4">
+      <c r="L56" s="4">
         <v>2403.9839999999999</v>
       </c>
-      <c r="M55" s="4">
+      <c r="M56" s="4">
         <v>1775.4699999999998</v>
       </c>
-      <c r="N55" s="4">
+      <c r="N56" s="4">
         <v>840.952</v>
       </c>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4">
+      <c r="O56" s="4"/>
+      <c r="P56" s="4">
         <v>3240.1970000000092</v>
       </c>
     </row>
-    <row r="56" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="20">
+    <row r="57" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="20">
         <v>2020</v>
       </c>
-      <c r="C56" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="9">
+      <c r="C57" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="9">
         <f t="shared" si="2"/>
         <v>66590.821000000025</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E57" s="7">
         <v>33996.18</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F57" s="7">
         <v>13478.243999999999</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G57" s="7">
         <v>3545.3679999999999</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H57" s="7">
         <v>3224.4189999999999</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I57" s="7">
         <v>3231.3440000000001</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J57" s="7">
         <v>771.17700000000002</v>
       </c>
-      <c r="K56" s="7">
+      <c r="K57" s="7">
         <v>1478.3190000000002</v>
       </c>
-      <c r="L56" s="7">
+      <c r="L57" s="7">
         <v>1821.6129999999998</v>
       </c>
-      <c r="M56" s="7">
+      <c r="M57" s="7">
         <v>1594.6689999999999</v>
       </c>
-      <c r="N56" s="7">
+      <c r="N57" s="7">
         <v>720.39199999999994</v>
       </c>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7">
+      <c r="O57" s="7"/>
+      <c r="P57" s="7">
         <v>2729.0960000000127</v>
       </c>
     </row>
-    <row r="57" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="22">
+    <row r="58" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="22">
         <v>2020</v>
       </c>
-      <c r="C57" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="8">
+      <c r="C58" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="8">
         <f t="shared" si="2"/>
         <v>58590.57</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E58" s="4">
         <v>31229.68</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F58" s="4">
         <v>11236.094000000001</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G58" s="4">
         <v>2744.201</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H58" s="4">
         <v>2746.701</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I58" s="4">
         <v>2540.2469999999998</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J58" s="4">
         <v>612.84699999999998</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K58" s="4">
         <v>1623.547</v>
       </c>
-      <c r="L57" s="4">
+      <c r="L58" s="4">
         <v>1605.3789999999999</v>
       </c>
-      <c r="M57" s="4">
+      <c r="M58" s="4">
         <v>1482.9659999999999</v>
       </c>
-      <c r="N57" s="4">
+      <c r="N58" s="4">
         <v>671.48299999999995</v>
       </c>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4">
+      <c r="O58" s="4"/>
+      <c r="P58" s="4">
         <v>2097.424999999987</v>
       </c>
     </row>
-    <row r="58" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="20">
+    <row r="59" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="20">
         <v>2020</v>
       </c>
-      <c r="C58" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D58" s="9">
+      <c r="C59" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="9">
         <f t="shared" si="2"/>
         <v>51124.868999999999</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E59" s="7">
         <v>25419.52</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F59" s="7">
         <v>11565.216</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G59" s="7">
         <v>2651.4159999999997</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H59" s="7">
         <v>2693.4929999999999</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I59" s="7">
         <v>2126.7669999999998</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J59" s="7">
         <v>551.59</v>
       </c>
-      <c r="K58" s="7">
+      <c r="K59" s="7">
         <v>1334.1680000000001</v>
       </c>
-      <c r="L58" s="7">
+      <c r="L59" s="7">
         <v>1156.8400000000001</v>
       </c>
-      <c r="M58" s="7">
+      <c r="M59" s="7">
         <v>1103.2260000000001</v>
       </c>
-      <c r="N58" s="7">
+      <c r="N59" s="7">
         <v>532.67700000000002</v>
       </c>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7">
+      <c r="O59" s="7"/>
+      <c r="P59" s="7">
         <v>1989.9559999999994</v>
       </c>
     </row>
-    <row r="59" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="22">
+    <row r="60" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="22">
         <v>2020</v>
       </c>
-      <c r="C59" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="8">
+      <c r="C60" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="8">
         <f t="shared" si="2"/>
         <v>79368.52999999997</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E60" s="4">
         <v>42274.520000000004</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F60" s="4">
         <v>14537.343000000001</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G60" s="4">
         <v>4065.893</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H60" s="4">
         <v>3597.8379999999997</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I60" s="4">
         <v>2907.587</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J60" s="4">
         <v>2248.8019999999997</v>
       </c>
-      <c r="K59" s="4">
+      <c r="K60" s="4">
         <v>1787.81</v>
       </c>
-      <c r="L59" s="4">
+      <c r="L60" s="4">
         <v>2068.8739999999998</v>
       </c>
-      <c r="M59" s="4">
+      <c r="M60" s="4">
         <v>1532.5450000000001</v>
       </c>
-      <c r="N59" s="4">
+      <c r="N60" s="4">
         <v>820.50299999999993</v>
       </c>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4">
+      <c r="O60" s="4"/>
+      <c r="P60" s="4">
         <v>3526.8149999999705</v>
       </c>
     </row>
-    <row r="60" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="20">
+    <row r="61" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="20">
         <v>2020</v>
       </c>
-      <c r="C60" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D60" s="9">
+      <c r="C61" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="9">
         <f t="shared" si="2"/>
         <v>75908.510999999955</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E61" s="7">
         <v>42089.659999999996</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F61" s="7">
         <v>11466.815999999999</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G61" s="7">
         <v>3486.42</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H61" s="7">
         <v>3309.0249999999996</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I61" s="7">
         <v>2651.6840000000002</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J61" s="7">
         <v>2759.643</v>
       </c>
-      <c r="K60" s="7">
+      <c r="K61" s="7">
         <v>1653.057</v>
       </c>
-      <c r="L60" s="7">
+      <c r="L61" s="7">
         <v>2319.8409999999999</v>
       </c>
-      <c r="M60" s="7">
+      <c r="M61" s="7">
         <v>1687.9380000000001</v>
       </c>
-      <c r="N60" s="7">
+      <c r="N61" s="7">
         <v>812.35799999999995</v>
       </c>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7">
+      <c r="O61" s="7"/>
+      <c r="P61" s="7">
         <v>3672.068999999979</v>
       </c>
     </row>
-    <row r="61" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="24">
+    <row r="62" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="24">
         <v>2020</v>
       </c>
-      <c r="C61" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61" s="10">
+      <c r="C62" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="10">
         <f t="shared" si="2"/>
         <v>80828.273000000045</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E62" s="6">
         <v>43200.08</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F62" s="6">
         <v>12981.727999999999</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G62" s="6">
         <v>3924.5250000000001</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H62" s="6">
         <v>3616.1279999999997</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I62" s="6">
         <v>2992.5469999999996</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J62" s="6">
         <v>3044.2960000000003</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K62" s="6">
         <v>1792.2229999999997</v>
       </c>
-      <c r="L61" s="6">
+      <c r="L62" s="6">
         <v>2507.0810000000001</v>
       </c>
-      <c r="M61" s="6">
+      <c r="M62" s="6">
         <v>1937.0650000000001</v>
       </c>
-      <c r="N61" s="6">
+      <c r="N62" s="6">
         <v>862.8069999999999</v>
       </c>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6">
+      <c r="O62" s="6"/>
+      <c r="P62" s="6">
         <v>3969.7930000000383</v>
       </c>
     </row>
-    <row r="62" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="26">
+    <row r="63" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="26">
         <v>2019</v>
       </c>
-      <c r="C62" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="D62" s="11">
+      <c r="C63" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="11">
         <f t="shared" si="2"/>
         <v>83400</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E63" s="12">
         <v>48000</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F63" s="12">
         <v>14500</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G63" s="12">
         <v>3700</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H63" s="12">
         <v>2900</v>
       </c>
-      <c r="I62" s="12">
+      <c r="I63" s="12">
         <v>3100</v>
       </c>
-      <c r="J62" s="12">
+      <c r="J63" s="12">
         <v>1900</v>
       </c>
-      <c r="K62" s="12">
+      <c r="K63" s="12">
         <v>3700</v>
       </c>
-      <c r="L62" s="12">
+      <c r="L63" s="12">
         <v>1900</v>
       </c>
-      <c r="M62" s="12">
+      <c r="M63" s="12">
         <v>2600</v>
       </c>
-      <c r="N62" s="12">
+      <c r="N63" s="12">
         <v>1100</v>
       </c>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12">
+      <c r="O63" s="12"/>
+      <c r="P63" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="22">
+    <row r="64" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="22">
         <v>2019</v>
       </c>
-      <c r="C63" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D63" s="8">
+      <c r="C64" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="8">
         <f t="shared" si="2"/>
         <v>83400</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E64" s="4">
         <v>46600</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F64" s="4">
         <v>14700</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G64" s="4">
         <v>4300</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H64" s="4">
         <v>3100</v>
       </c>
-      <c r="I63" s="4">
+      <c r="I64" s="4">
         <v>3100</v>
       </c>
-      <c r="J63" s="4">
+      <c r="J64" s="4">
         <v>2100</v>
       </c>
-      <c r="K63" s="4">
+      <c r="K64" s="4">
         <v>3900</v>
       </c>
-      <c r="L63" s="4">
+      <c r="L64" s="4">
         <v>1800</v>
       </c>
-      <c r="M63" s="4">
+      <c r="M64" s="4">
         <v>2800</v>
       </c>
-      <c r="N63" s="4">
+      <c r="N64" s="4">
         <v>1000</v>
       </c>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4">
+      <c r="O64" s="4"/>
+      <c r="P64" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="20">
+    <row r="65" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="20">
         <v>2019</v>
       </c>
-      <c r="C64" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="9">
+      <c r="C65" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="9">
         <f t="shared" si="2"/>
         <v>90200</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E65" s="7">
         <v>52200</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F65" s="7">
         <v>14900</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G65" s="7">
         <v>4600</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H65" s="7">
         <v>3400</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I65" s="7">
         <v>2700</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J65" s="7">
         <v>2200</v>
       </c>
-      <c r="K64" s="7">
+      <c r="K65" s="7">
         <v>4200</v>
       </c>
-      <c r="L64" s="7">
+      <c r="L65" s="7">
         <v>2000</v>
       </c>
-      <c r="M64" s="7">
+      <c r="M65" s="7">
         <v>3000</v>
       </c>
-      <c r="N64" s="7">
+      <c r="N65" s="7">
         <v>1000</v>
       </c>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7">
+      <c r="O65" s="7"/>
+      <c r="P65" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="22">
+    <row r="66" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="22">
         <v>2019</v>
       </c>
-      <c r="C65" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D65" s="8">
+      <c r="C66" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="8">
         <f t="shared" si="2"/>
         <v>78300</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E66" s="4">
         <v>46000</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F66" s="4">
         <v>12400</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G66" s="4">
         <v>4300</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H66" s="4">
         <v>3000</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I66" s="4">
         <v>2200</v>
       </c>
-      <c r="J65" s="4">
+      <c r="J66" s="4">
         <v>1800</v>
       </c>
-      <c r="K65" s="4">
+      <c r="K66" s="4">
         <v>3600</v>
       </c>
-      <c r="L65" s="4">
+      <c r="L66" s="4">
         <v>1700</v>
       </c>
-      <c r="M65" s="4">
+      <c r="M66" s="4">
         <v>2500</v>
       </c>
-      <c r="N65" s="4">
+      <c r="N66" s="4">
         <v>800</v>
       </c>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4">
+      <c r="O66" s="4"/>
+      <c r="P66" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="20">
+    <row r="67" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="20">
         <v>2019</v>
       </c>
-      <c r="C66" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D66" s="9">
+      <c r="C67" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="9">
         <f t="shared" si="2"/>
         <v>80500</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E67" s="7">
         <v>46500</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F67" s="7">
         <v>12500</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G67" s="7">
         <v>4300</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H67" s="7">
         <v>3400</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I67" s="7">
         <v>2500</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J67" s="7">
         <v>2100</v>
       </c>
-      <c r="K66" s="7">
+      <c r="K67" s="7">
         <v>4100</v>
       </c>
-      <c r="L66" s="7">
+      <c r="L67" s="7">
         <v>1800</v>
       </c>
-      <c r="M66" s="7">
+      <c r="M67" s="7">
         <v>2400</v>
       </c>
-      <c r="N66" s="7">
+      <c r="N67" s="7">
         <v>900</v>
       </c>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7">
+      <c r="O67" s="7"/>
+      <c r="P67" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="22">
+    <row r="68" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="22">
         <v>2019</v>
       </c>
-      <c r="C67" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D67" s="8">
+      <c r="C68" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="8">
         <f t="shared" si="2"/>
         <v>81500</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E68" s="4">
         <v>46600</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F68" s="4">
         <v>13600</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G68" s="4">
         <v>4100</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H68" s="4">
         <v>3000</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I68" s="4">
         <v>2500</v>
       </c>
-      <c r="J67" s="4">
+      <c r="J68" s="4">
         <v>2000</v>
       </c>
-      <c r="K67" s="4">
+      <c r="K68" s="4">
         <v>4200</v>
       </c>
-      <c r="L67" s="4">
+      <c r="L68" s="4">
         <v>2000</v>
       </c>
-      <c r="M67" s="4">
+      <c r="M68" s="4">
         <v>2600</v>
       </c>
-      <c r="N67" s="4">
+      <c r="N68" s="4">
         <v>900</v>
       </c>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4">
+      <c r="O68" s="4"/>
+      <c r="P68" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="20">
+    <row r="69" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="20">
         <v>2019</v>
       </c>
-      <c r="C68" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D68" s="9">
+      <c r="C69" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="9">
         <f t="shared" si="2"/>
         <v>78600</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E69" s="7">
         <v>44200</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F69" s="7">
         <v>13300</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G69" s="7">
         <v>4300</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H69" s="7">
         <v>2900</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I69" s="7">
         <v>2400</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J69" s="7">
         <v>2000</v>
       </c>
-      <c r="K68" s="7">
+      <c r="K69" s="7">
         <v>4300</v>
       </c>
-      <c r="L68" s="7">
+      <c r="L69" s="7">
         <v>2000</v>
       </c>
-      <c r="M68" s="7">
+      <c r="M69" s="7">
         <v>2400</v>
       </c>
-      <c r="N68" s="7">
+      <c r="N69" s="7">
         <v>800</v>
       </c>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7">
+      <c r="O69" s="7"/>
+      <c r="P69" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="22">
+    <row r="70" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="22">
         <v>2019</v>
       </c>
-      <c r="C69" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D69" s="8">
+      <c r="C70" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" s="8">
         <f t="shared" si="2"/>
         <v>81100</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E70" s="4">
         <v>45800</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F70" s="4">
         <v>13000</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G70" s="4">
         <v>4600</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H70" s="4">
         <v>3000</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I70" s="4">
         <v>2600</v>
       </c>
-      <c r="J69" s="4">
+      <c r="J70" s="4">
         <v>2100</v>
       </c>
-      <c r="K69" s="4">
+      <c r="K70" s="4">
         <v>4600</v>
       </c>
-      <c r="L69" s="4">
+      <c r="L70" s="4">
         <v>1900</v>
       </c>
-      <c r="M69" s="4">
+      <c r="M70" s="4">
         <v>2600</v>
       </c>
-      <c r="N69" s="4">
+      <c r="N70" s="4">
         <v>900</v>
       </c>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4">
+      <c r="O70" s="4"/>
+      <c r="P70" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="20">
+    <row r="71" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="20">
         <v>2019</v>
       </c>
-      <c r="C70" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D70" s="9">
+      <c r="C71" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="9">
         <f t="shared" si="2"/>
         <v>79300</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E71" s="7">
         <v>45200</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F71" s="7">
         <v>12800</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G71" s="7">
         <v>4600</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H71" s="7">
         <v>2500</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I71" s="7">
         <v>2600</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J71" s="7">
         <v>2100</v>
       </c>
-      <c r="K70" s="7">
+      <c r="K71" s="7">
         <v>4400</v>
       </c>
-      <c r="L70" s="7">
+      <c r="L71" s="7">
         <v>1800</v>
       </c>
-      <c r="M70" s="7">
+      <c r="M71" s="7">
         <v>2500</v>
       </c>
-      <c r="N70" s="7">
+      <c r="N71" s="7">
         <v>800</v>
       </c>
-      <c r="O70" s="7"/>
-      <c r="P70" s="7">
+      <c r="O71" s="7"/>
+      <c r="P71" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="22">
+    <row r="72" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="22">
         <v>2019</v>
       </c>
-      <c r="C71" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D71" s="8">
+      <c r="C72" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" s="8">
         <f t="shared" si="2"/>
         <v>86500</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E72" s="4">
         <v>49900</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F72" s="4">
         <v>14500</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G72" s="4">
         <v>4300</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H72" s="4">
         <v>3000</v>
       </c>
-      <c r="I71" s="4">
+      <c r="I72" s="4">
         <v>2700</v>
       </c>
-      <c r="J71" s="4">
+      <c r="J72" s="4">
         <v>2000</v>
       </c>
-      <c r="K71" s="4">
+      <c r="K72" s="4">
         <v>5000</v>
       </c>
-      <c r="L71" s="4">
+      <c r="L72" s="4">
         <v>1700</v>
       </c>
-      <c r="M71" s="4">
+      <c r="M72" s="4">
         <v>2500</v>
       </c>
-      <c r="N71" s="4">
+      <c r="N72" s="4">
         <v>900</v>
       </c>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4">
+      <c r="O72" s="4"/>
+      <c r="P72" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="20">
+    <row r="73" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="20">
         <v>2019</v>
       </c>
-      <c r="C72" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D72" s="9">
+      <c r="C73" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="9">
         <f t="shared" si="2"/>
         <v>73300</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E73" s="7">
         <v>41800</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F73" s="7">
         <v>11500</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G73" s="7">
         <v>4200</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H73" s="7">
         <v>2600</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I73" s="7">
         <v>2600</v>
       </c>
-      <c r="J72" s="7">
+      <c r="J73" s="7">
         <v>1900</v>
       </c>
-      <c r="K72" s="7">
+      <c r="K73" s="7">
         <v>4100</v>
       </c>
-      <c r="L72" s="7">
+      <c r="L73" s="7">
         <v>1600</v>
       </c>
-      <c r="M72" s="7">
+      <c r="M73" s="7">
         <v>2300</v>
       </c>
-      <c r="N72" s="7">
+      <c r="N73" s="7">
         <v>700</v>
       </c>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7">
+      <c r="O73" s="7"/>
+      <c r="P73" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="24">
+    <row r="74" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="24">
         <v>2019</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C74" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" s="10">
+        <f t="shared" ref="D74:D86" si="3">SUM(E74:P74)</f>
+        <v>79200</v>
+      </c>
+      <c r="E74" s="6">
+        <v>43500</v>
+      </c>
+      <c r="F74" s="6">
+        <v>13500</v>
+      </c>
+      <c r="G74" s="6">
+        <v>4800</v>
+      </c>
+      <c r="H74" s="6">
+        <v>2900</v>
+      </c>
+      <c r="I74" s="6">
+        <v>2600</v>
+      </c>
+      <c r="J74" s="6">
+        <v>1900</v>
+      </c>
+      <c r="K74" s="6">
+        <v>4500</v>
+      </c>
+      <c r="L74" s="6">
+        <v>2100</v>
+      </c>
+      <c r="M74" s="6">
+        <v>2500</v>
+      </c>
+      <c r="N74" s="6">
+        <v>900</v>
+      </c>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="21">
+        <v>2018</v>
+      </c>
+      <c r="C75" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D73" s="10">
-        <f t="shared" ref="D73:D85" si="3">SUM(E73:P73)</f>
-        <v>79200</v>
-      </c>
-      <c r="E73" s="6">
-        <v>43500</v>
-      </c>
-      <c r="F73" s="6">
-        <v>13500</v>
-      </c>
-      <c r="G73" s="6">
-        <v>4800</v>
-      </c>
-      <c r="H73" s="6">
-        <v>2900</v>
-      </c>
-      <c r="I73" s="6">
-        <v>2600</v>
-      </c>
-      <c r="J73" s="6">
-        <v>1900</v>
-      </c>
-      <c r="K73" s="6">
-        <v>4500</v>
-      </c>
-      <c r="L73" s="6">
-        <v>2100</v>
-      </c>
-      <c r="M73" s="6">
-        <v>2500</v>
-      </c>
-      <c r="N73" s="6">
-        <v>900</v>
-      </c>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="21">
-        <v>2018</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D74" s="9">
+      <c r="D75" s="9">
         <f t="shared" si="3"/>
         <v>85600</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E75" s="7">
         <v>48800</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F75" s="7">
         <v>14700</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G75" s="7">
         <v>4500</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H75" s="7">
         <v>3000</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I75" s="7">
         <v>3300</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J75" s="7">
         <v>1900</v>
       </c>
-      <c r="K74" s="7">
+      <c r="K75" s="7">
         <v>4000</v>
       </c>
-      <c r="L74" s="7">
+      <c r="L75" s="7">
         <v>1900</v>
       </c>
-      <c r="M74" s="7">
+      <c r="M75" s="7">
         <v>2600</v>
       </c>
-      <c r="N74" s="7">
+      <c r="N75" s="7">
         <v>900</v>
       </c>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7">
+      <c r="O75" s="7"/>
+      <c r="P75" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="23">
+    <row r="76" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="23">
         <v>2018</v>
       </c>
-      <c r="C75" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D75" s="8">
+      <c r="C76" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" s="8">
         <f t="shared" si="3"/>
         <v>91600</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E76" s="4">
         <v>52500</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F76" s="4">
         <v>14700</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G76" s="4">
         <v>5200</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H76" s="4">
         <v>3400</v>
       </c>
-      <c r="I75" s="4">
+      <c r="I76" s="4">
         <v>3300</v>
       </c>
-      <c r="J75" s="4">
+      <c r="J76" s="4">
         <v>2300</v>
       </c>
-      <c r="K75" s="4">
+      <c r="K76" s="4">
         <v>4700</v>
       </c>
-      <c r="L75" s="4">
+      <c r="L76" s="4">
         <v>1800</v>
       </c>
-      <c r="M75" s="4">
+      <c r="M76" s="4">
         <v>2800</v>
       </c>
-      <c r="N75" s="4">
+      <c r="N76" s="4">
         <v>900</v>
       </c>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4">
+      <c r="O76" s="4"/>
+      <c r="P76" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="21">
+    <row r="77" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="21">
         <v>2018</v>
       </c>
-      <c r="C76" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D76" s="9">
+      <c r="C77" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" s="9">
         <f t="shared" si="3"/>
         <v>94100</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E77" s="7">
         <v>53200</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F77" s="7">
         <v>15500</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G77" s="7">
         <v>5800</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H77" s="7">
         <v>3400</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I77" s="7">
         <v>2800</v>
       </c>
-      <c r="J76" s="7">
+      <c r="J77" s="7">
         <v>2200</v>
       </c>
-      <c r="K76" s="7">
+      <c r="K77" s="7">
         <v>5600</v>
       </c>
-      <c r="L76" s="7">
+      <c r="L77" s="7">
         <v>1800</v>
       </c>
-      <c r="M76" s="7">
+      <c r="M77" s="7">
         <v>2900</v>
       </c>
-      <c r="N76" s="7">
+      <c r="N77" s="7">
         <v>900</v>
       </c>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7">
+      <c r="O77" s="7"/>
+      <c r="P77" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="23">
+    <row r="78" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="23">
         <v>2018</v>
       </c>
-      <c r="C77" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D77" s="8">
+      <c r="C78" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D78" s="8">
         <f t="shared" si="3"/>
         <v>81400</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E78" s="4">
         <v>46600</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F78" s="4">
         <v>13200</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G78" s="4">
         <v>4800</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H78" s="4">
         <v>2900</v>
       </c>
-      <c r="I77" s="4">
+      <c r="I78" s="4">
         <v>2300</v>
       </c>
-      <c r="J77" s="4">
+      <c r="J78" s="4">
         <v>1900</v>
       </c>
-      <c r="K77" s="4">
+      <c r="K78" s="4">
         <v>5000</v>
       </c>
-      <c r="L77" s="4">
+      <c r="L78" s="4">
         <v>1500</v>
       </c>
-      <c r="M77" s="4">
+      <c r="M78" s="4">
         <v>2400</v>
       </c>
-      <c r="N77" s="4">
+      <c r="N78" s="4">
         <v>800</v>
       </c>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4">
+      <c r="O78" s="4"/>
+      <c r="P78" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="21">
+    <row r="79" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="21">
         <v>2018</v>
       </c>
-      <c r="C78" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78" s="9">
+      <c r="C79" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="9">
         <f t="shared" si="3"/>
         <v>84400</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E79" s="7">
         <v>48300</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F79" s="7">
         <v>12600</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G79" s="7">
         <v>5100</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H79" s="7">
         <v>3500</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I79" s="7">
         <v>2400</v>
       </c>
-      <c r="J78" s="7">
+      <c r="J79" s="7">
         <v>2100</v>
       </c>
-      <c r="K78" s="7">
+      <c r="K79" s="7">
         <v>5700</v>
       </c>
-      <c r="L78" s="7">
+      <c r="L79" s="7">
         <v>1600</v>
       </c>
-      <c r="M78" s="7">
+      <c r="M79" s="7">
         <v>2300</v>
       </c>
-      <c r="N78" s="7">
+      <c r="N79" s="7">
         <v>800</v>
       </c>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7">
+      <c r="O79" s="7"/>
+      <c r="P79" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="23">
+    <row r="80" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="23">
         <v>2018</v>
       </c>
-      <c r="C79" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" s="8">
+      <c r="C80" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="8">
         <f t="shared" si="3"/>
         <v>82200</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E80" s="4">
         <v>49400</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F80" s="4">
         <v>12400</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G80" s="4">
         <v>4200</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H80" s="4">
         <v>3100</v>
       </c>
-      <c r="I79" s="4">
+      <c r="I80" s="4">
         <v>2500</v>
       </c>
-      <c r="J79" s="4">
+      <c r="J80" s="4">
         <v>1900</v>
       </c>
-      <c r="K79" s="4">
+      <c r="K80" s="4">
         <v>4100</v>
       </c>
-      <c r="L79" s="4">
+      <c r="L80" s="4">
         <v>1700</v>
       </c>
-      <c r="M79" s="4">
+      <c r="M80" s="4">
         <v>2100</v>
       </c>
-      <c r="N79" s="4">
+      <c r="N80" s="4">
         <v>800</v>
       </c>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4">
+      <c r="O80" s="4"/>
+      <c r="P80" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="21">
+    <row r="81" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="21">
         <v>2018</v>
       </c>
-      <c r="C80" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" s="9">
+      <c r="C81" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" s="9">
         <f t="shared" si="3"/>
         <v>86500</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E81" s="7">
         <v>51000</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F81" s="7">
         <v>13400</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G81" s="7">
         <v>4500</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H81" s="7">
         <v>3100</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I81" s="7">
         <v>2600</v>
       </c>
-      <c r="J80" s="7">
+      <c r="J81" s="7">
         <v>2000</v>
       </c>
-      <c r="K80" s="7">
+      <c r="K81" s="7">
         <v>5100</v>
       </c>
-      <c r="L80" s="7">
+      <c r="L81" s="7">
         <v>1800</v>
       </c>
-      <c r="M80" s="7">
+      <c r="M81" s="7">
         <v>2100</v>
       </c>
-      <c r="N80" s="7">
+      <c r="N81" s="7">
         <v>900</v>
       </c>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7">
+      <c r="O81" s="7"/>
+      <c r="P81" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="23">
+    <row r="82" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="23">
         <v>2018</v>
       </c>
-      <c r="C81" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D81" s="8">
+      <c r="C82" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="8">
         <f t="shared" si="3"/>
         <v>86200</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E82" s="4">
         <v>49700</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F82" s="4">
         <v>13600</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G82" s="4">
         <v>5000</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H82" s="4">
         <v>3200</v>
       </c>
-      <c r="I81" s="4">
+      <c r="I82" s="4">
         <v>2700</v>
       </c>
-      <c r="J81" s="4">
+      <c r="J82" s="4">
         <v>2300</v>
       </c>
-      <c r="K81" s="4">
+      <c r="K82" s="4">
         <v>4700</v>
       </c>
-      <c r="L81" s="4">
+      <c r="L82" s="4">
         <v>1900</v>
       </c>
-      <c r="M81" s="4">
+      <c r="M82" s="4">
         <v>2200</v>
       </c>
-      <c r="N81" s="4">
+      <c r="N82" s="4">
         <v>900</v>
       </c>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4">
+      <c r="O82" s="4"/>
+      <c r="P82" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="21">
+    <row r="83" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="21">
         <v>2018</v>
       </c>
-      <c r="C82" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D82" s="9">
+      <c r="C83" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="9">
         <f t="shared" si="3"/>
         <v>84500</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E83" s="7">
         <v>49400</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F83" s="7">
         <v>13900</v>
       </c>
-      <c r="G82" s="7">
+      <c r="G83" s="7">
         <v>4500</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H83" s="7">
         <v>2800</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I83" s="7">
         <v>2800</v>
       </c>
-      <c r="J82" s="7">
+      <c r="J83" s="7">
         <v>1900</v>
       </c>
-      <c r="K82" s="7">
+      <c r="K83" s="7">
         <v>4600</v>
       </c>
-      <c r="L82" s="7">
+      <c r="L83" s="7">
         <v>1700</v>
       </c>
-      <c r="M82" s="7">
+      <c r="M83" s="7">
         <v>2000</v>
       </c>
-      <c r="N82" s="7">
+      <c r="N83" s="7">
         <v>900</v>
       </c>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7">
+      <c r="O83" s="7"/>
+      <c r="P83" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="23">
+    <row r="84" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="23">
         <v>2018</v>
       </c>
-      <c r="C83" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D83" s="8">
+      <c r="C84" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" s="8">
         <f t="shared" si="3"/>
         <v>81600</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E84" s="4">
         <v>46000</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F84" s="4">
         <v>16000</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G84" s="4">
         <v>4400</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H84" s="4">
         <v>2900</v>
       </c>
-      <c r="I83" s="4">
+      <c r="I84" s="4">
         <v>2800</v>
       </c>
-      <c r="J83" s="4">
+      <c r="J84" s="4">
         <v>1800</v>
       </c>
-      <c r="K83" s="4">
+      <c r="K84" s="4">
         <v>3500</v>
       </c>
-      <c r="L83" s="4">
+      <c r="L84" s="4">
         <v>1400</v>
       </c>
-      <c r="M83" s="4">
+      <c r="M84" s="4">
         <v>2000</v>
       </c>
-      <c r="N83" s="4">
+      <c r="N84" s="4">
         <v>800</v>
       </c>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4">
+      <c r="O84" s="4"/>
+      <c r="P84" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="21">
+    <row r="85" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="21">
         <v>2018</v>
       </c>
-      <c r="C84" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D84" s="9">
+      <c r="C85" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" s="9">
         <f t="shared" si="3"/>
         <v>74900</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E85" s="7">
         <v>44100</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F85" s="7">
         <v>12100</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G85" s="7">
         <v>4100</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H85" s="7">
         <v>2700</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I85" s="7">
         <v>2700</v>
       </c>
-      <c r="J84" s="7">
+      <c r="J85" s="7">
         <v>2100</v>
       </c>
-      <c r="K84" s="7">
+      <c r="K85" s="7">
         <v>3000</v>
       </c>
-      <c r="L84" s="7">
+      <c r="L85" s="7">
         <v>1500</v>
       </c>
-      <c r="M84" s="7">
+      <c r="M85" s="7">
         <v>1900</v>
       </c>
-      <c r="N84" s="7">
+      <c r="N85" s="7">
         <v>700</v>
       </c>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7">
+      <c r="O85" s="7"/>
+      <c r="P85" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="23">
+    <row r="86" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="23">
         <v>2018</v>
       </c>
-      <c r="C85" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D85" s="8">
+      <c r="C86" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" s="8">
         <f t="shared" si="3"/>
         <v>74300</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E86" s="4">
         <v>42800</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F86" s="4">
         <v>12000</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G86" s="4">
         <v>4100</v>
       </c>
-      <c r="H85" s="4">
+      <c r="H86" s="4">
         <v>2500</v>
       </c>
-      <c r="I85" s="4">
+      <c r="I86" s="4">
         <v>2600</v>
       </c>
-      <c r="J85" s="4">
+      <c r="J86" s="4">
         <v>2300</v>
       </c>
-      <c r="K85" s="4">
+      <c r="K86" s="4">
         <v>3300</v>
       </c>
-      <c r="L85" s="4">
+      <c r="L86" s="4">
         <v>2000</v>
       </c>
-      <c r="M85" s="4">
+      <c r="M86" s="4">
         <v>1900</v>
       </c>
-      <c r="N85" s="4">
+      <c r="N86" s="4">
         <v>800</v>
       </c>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4">
+      <c r="O86" s="4"/>
+      <c r="P86" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B86" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="16"/>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B87" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" s="16"/>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B88" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C87" s="18"/>
-      <c r="P87" s="3"/>
-    </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B88" s="18" t="s">
+      <c r="C88" s="18"/>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B89" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B89" t="s">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B90" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="D95" s="16"/>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D96" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/P_aeropuertos_carga.xlsx
+++ b/P_aeropuertos_carga.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E014D5D3-0827-41BC-8E32-7BAA5C4CE386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68612E3-7869-417C-A031-805AB59ECE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_37" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="34">
   <si>
     <t>Total</t>
   </si>
@@ -137,7 +137,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: septiembre 2024.</t>
+    <t>Actualización: Octubre 2024.</t>
   </si>
 </sst>
 </file>
@@ -151,40 +151,40 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -192,7 +192,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -435,7 +435,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
@@ -488,7 +488,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -525,8 +525,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:P86" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
-  <autoFilter ref="B5:P86" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:P87" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
+  <autoFilter ref="B5:P87" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -560,7 +560,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -568,28 +568,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -598,14 +598,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -780,46 +780,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:P96"/>
+  <dimension ref="B2:P97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="6.8984375" customWidth="1"/>
-    <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.19921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -838,7 +838,7 @@
       <c r="O4" s="29"/>
       <c r="P4" s="29"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
@@ -885,3797 +885,3845 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B6" s="22">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="20">
         <v>2024</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" ref="D6" si="0">SUM(E6:P6)</f>
+        <v>112101.83326999999</v>
+      </c>
+      <c r="E6" s="7">
+        <v>21954.2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>15035.019</v>
+      </c>
+      <c r="G6" s="7">
+        <v>7434.2699999999995</v>
+      </c>
+      <c r="H6" s="7">
+        <v>7376.1170000000002</v>
+      </c>
+      <c r="I6" s="7">
+        <v>3603.3429999999998</v>
+      </c>
+      <c r="J6" s="7">
+        <v>2668.8590000000004</v>
+      </c>
+      <c r="K6" s="7">
+        <v>2486.047</v>
+      </c>
+      <c r="L6" s="7">
+        <v>3482.5789999999997</v>
+      </c>
+      <c r="M6" s="7">
+        <v>2059.6219999999998</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1836.462</v>
+      </c>
+      <c r="O6" s="7">
+        <v>38827.07</v>
+      </c>
+      <c r="P6" s="7">
+        <v>5338.2452699999949</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="8">
-        <f>SUM(E6:P6)</f>
+      <c r="D7" s="8">
+        <f>SUM(E7:P7)</f>
         <v>102256.34403999997</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="4">
         <v>19983</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F7" s="4">
         <v>15121.885</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G7" s="4">
         <v>6653.17</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H7" s="4">
         <v>6096.0540000000001</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I7" s="4">
         <v>3038.8139999999999</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J7" s="4">
         <v>2226.7169999999996</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K7" s="4">
         <v>2083.5909999999999</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L7" s="4">
         <v>2940.2349999999997</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M7" s="4">
         <v>2121.4749999999999</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N7" s="4">
         <v>1691.9869999999999</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O7" s="4">
         <v>35995.97</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P7" s="4">
         <v>4303.4460399999825</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B7" s="20">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="20">
         <v>2024</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C8" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="9">
-        <f>SUM(E7:P7)</f>
+      <c r="D8" s="9">
+        <f>SUM(E8:P8)</f>
         <v>108823.69917000002</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E8" s="7">
         <v>20229.3</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F8" s="7">
         <v>15421.421999999999</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G8" s="7">
         <v>6900.85</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H8" s="7">
         <v>6494.0969999999998</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I8" s="7">
         <v>3427.1890000000003</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J8" s="7">
         <v>2725.0420000000004</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K8" s="7">
         <v>2321.3049999999998</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L8" s="7">
         <v>3155.9950000000003</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M8" s="7">
         <v>2335.154</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N8" s="7">
         <v>1623.2050000000002</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O8" s="7">
         <v>39174.343999999997</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P8" s="7">
         <v>5015.7961700000369</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B8" s="22">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="22">
         <v>2024</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="8">
-        <f t="shared" ref="D8:D10" si="0">SUM(E8:P8)</f>
+      <c r="D9" s="8">
+        <f t="shared" ref="D9:D11" si="1">SUM(E9:P9)</f>
         <v>107882.74128000005</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="4">
         <v>19500.699999999997</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F9" s="4">
         <v>15606.789000000001</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G9" s="4">
         <v>7406.7370000000001</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H9" s="4">
         <v>6133.4809999999998</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I9" s="4">
         <v>3408.8180000000002</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J9" s="4">
         <v>2590.2110000000002</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K9" s="4">
         <v>2370.0729999999999</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L9" s="4">
         <v>3036.741</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M9" s="4">
         <v>2203.3470000000002</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N9" s="4">
         <v>1958.9659999999999</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O9" s="4">
         <v>38531.585999999996</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P9" s="4">
         <v>5135.2922800000515</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B9" s="20">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="20">
         <v>2024</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="9">
-        <f t="shared" si="0"/>
+      <c r="D10" s="9">
+        <f t="shared" si="1"/>
         <v>107278.03736</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E10" s="7">
         <v>19499.3</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F10" s="7">
         <v>14724.419</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G10" s="7">
         <v>7318.848</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H10" s="7">
         <v>6428.241</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I10" s="7">
         <v>3309.4189999999999</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J10" s="7">
         <v>2399.3510000000001</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K10" s="7">
         <v>2148.4209999999998</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L10" s="7">
         <v>3308.527</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M10" s="7">
         <v>2070.7939999999999</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N10" s="7">
         <v>1689.7920000000001</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O10" s="7">
         <v>39593.667999999998</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P10" s="7">
         <v>4787.2573600000051</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B10" s="22">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="22">
         <v>2024</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="8">
-        <f t="shared" si="0"/>
+      <c r="D11" s="8">
+        <f t="shared" si="1"/>
         <v>110767.87444999999</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="4">
         <v>20062</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F11" s="4">
         <v>15321.734</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G11" s="4">
         <v>6842.7150000000001</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H11" s="4">
         <v>6818.1309999999994</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I11" s="4">
         <v>3632.4749999999995</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J11" s="4">
         <v>2865.9740000000002</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K11" s="4">
         <v>2297.306</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L11" s="4">
         <v>3244.5340000000001</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M11" s="4">
         <v>2175.2600000000002</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N11" s="4">
         <v>1778.4730000000002</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O11" s="4">
         <v>40133.834000000003</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P11" s="4">
         <v>5595.438449999996</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B11" s="20">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="20">
         <v>2024</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C12" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="9">
-        <f t="shared" ref="D11:D41" si="1">SUM(E11:P11)</f>
-        <v>105001.11396000002</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D12" s="9">
+        <f t="shared" ref="D12:D42" si="2">SUM(E12:P12)</f>
+        <v>105434.16996000001</v>
+      </c>
+      <c r="E12" s="7">
         <v>18973.3</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F12" s="7">
         <v>13665.344000000001</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G12" s="7">
         <v>6313.32</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H12" s="7">
         <v>6639.4679999999998</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I12" s="7">
         <v>3421.6190000000001</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J12" s="7">
         <v>3106.3360000000002</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K12" s="7">
         <v>2364.4089999999997</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L12" s="7">
         <v>3512.4059999999999</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M12" s="7">
         <v>2156.3200000000002</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N12" s="7">
         <v>1665.7180000000001</v>
       </c>
-      <c r="O11" s="7">
-        <v>38069.884000000005</v>
-      </c>
-      <c r="P11" s="7">
-        <v>5112.9899599999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B12" s="22">
+      <c r="O12" s="7">
+        <v>38502.94</v>
+      </c>
+      <c r="P12" s="7">
+        <v>5112.9899600000072</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="22">
         <v>2024</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="8">
-        <f t="shared" si="1"/>
+      <c r="D13" s="8">
+        <f t="shared" si="2"/>
         <v>104062.29637999996</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E13" s="4">
         <v>19802.7</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F13" s="4">
         <v>14556.685000000001</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G13" s="4">
         <v>5905.6409999999996</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H13" s="4">
         <v>5567.2889999999998</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I13" s="4">
         <v>3144.7429999999999</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J13" s="4">
         <v>3762.2560000000003</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K13" s="4">
         <v>2058.4110000000001</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L13" s="4">
         <v>2935.8180000000002</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M13" s="4">
         <v>1921.692</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N13" s="4">
         <v>1570.1889999999996</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O13" s="4">
         <v>38209.173000000003</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P13" s="4">
         <v>4627.6993799999464</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B13" s="20">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="20">
         <v>2024</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C14" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="9">
-        <f t="shared" si="1"/>
+      <c r="D14" s="9">
+        <f t="shared" si="2"/>
         <v>97004.465000000026</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E14" s="7">
         <v>19063.57</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F14" s="7">
         <v>12825.287</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G14" s="7">
         <v>5709.5619999999999</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H14" s="7">
         <v>6237.3979999999992</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I14" s="7">
         <v>3026.2809999999999</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J14" s="7">
         <v>3371.2139999999999</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K14" s="7">
         <v>2375.6289999999999</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L14" s="7">
         <v>3173.3670000000002</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M14" s="7">
         <v>2052.38</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N14" s="7">
         <v>1593.547</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O14" s="7">
         <v>32860.998999999996</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P14" s="7">
         <v>4715.2310000000243</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B14" s="24">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="24">
         <v>2024</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C15" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="10">
-        <f t="shared" si="1"/>
+      <c r="D15" s="10">
+        <f t="shared" si="2"/>
         <v>97330.675600000075</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="6">
         <v>18369.400000000001</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F15" s="6">
         <v>13351.472999999998</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G15" s="6">
         <v>5884.6970000000001</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H15" s="6">
         <v>5967.9220000000005</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I15" s="6">
         <v>2989.357</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J15" s="6">
         <v>2973.8410000000003</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K15" s="6">
         <v>2268.6259999999997</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L15" s="6">
         <v>2854.8959999999997</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M15" s="6">
         <v>2397.5709999999999</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N15" s="6">
         <v>1825.489</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O15" s="6">
         <v>33787.300999999999</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P15" s="6">
         <v>4660.1026000000729</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B15" s="26">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="26">
         <v>2023</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C16" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="11">
-        <f t="shared" si="1"/>
+      <c r="D16" s="11">
+        <f t="shared" si="2"/>
         <v>104426.30729999999</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E16" s="12">
         <v>20566.599999999999</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F16" s="12">
         <v>13313.805</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G16" s="12">
         <v>5779.5439999999999</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H16" s="12">
         <v>6634.8190000000004</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I16" s="12">
         <v>3186.3519999999999</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J16" s="12">
         <v>3890.0010000000002</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K16" s="12">
         <v>2228.2650000000003</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L16" s="12">
         <v>3022.0309999999999</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M16" s="12">
         <v>2482.5659999999998</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N16" s="12">
         <v>1573.3980000000001</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O16" s="12">
         <v>36496.25</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P16" s="12">
         <v>5252.6762999999974</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B16" s="22">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="22">
         <v>2023</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C17" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="8">
-        <f t="shared" si="1"/>
+      <c r="D17" s="8">
+        <f t="shared" si="2"/>
         <v>105823.25400000002</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E17" s="4">
         <v>20520.5</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F17" s="4">
         <v>14126.735000000001</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G17" s="4">
         <v>6122.6710000000003</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H17" s="4">
         <v>6195.4279999999999</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I17" s="4">
         <v>3286.1129999999998</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J17" s="4">
         <v>3463.6080000000002</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K17" s="4">
         <v>2592.8070000000002</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L17" s="4">
         <v>3439.2550000000001</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M17" s="4">
         <v>2391.259</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N17" s="4">
         <v>1992.0079999999998</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O17" s="4">
         <v>36256.74</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P17" s="4">
         <v>5436.1300000000128</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B17" s="20">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="20">
         <v>2023</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C18" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="9">
-        <f t="shared" si="1"/>
+      <c r="D18" s="9">
+        <f t="shared" si="2"/>
         <v>107132.1866</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E18" s="7">
         <v>20291</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F18" s="7">
         <v>14588.228999999999</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G18" s="7">
         <v>6563.4580000000005</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H18" s="7">
         <v>6490.5720000000001</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I18" s="7">
         <v>3206.3980000000001</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J18" s="7">
         <v>2918.2420000000002</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K18" s="7">
         <v>2583.0619999999999</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L18" s="7">
         <v>3007.05</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M18" s="7">
         <v>2285.1779999999999</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N18" s="7">
         <v>2296.12</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O18" s="7">
         <v>37567.615000000005</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P18" s="7">
         <v>5335.2626000000073</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B18" s="22">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="22">
         <v>2023</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C19" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="8">
-        <f t="shared" si="1"/>
+      <c r="D19" s="8">
+        <f t="shared" si="2"/>
         <v>96344.621599999969</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E19" s="4">
         <v>18890.84</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F19" s="4">
         <v>11939.238000000001</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G19" s="4">
         <v>6448.41</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H19" s="4">
         <v>6941.482</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I19" s="4">
         <v>2997.1009999999997</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J19" s="4">
         <v>2820.8690000000001</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K19" s="4">
         <v>2392.9459999999999</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L19" s="4">
         <v>2689.5440000000003</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M19" s="4">
         <v>2237.8310000000001</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N19" s="4">
         <v>1937.12</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O19" s="4">
         <v>32211.534999999996</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P19" s="4">
         <v>4837.7055999999784</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B19" s="20">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="20">
         <v>2023</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C20" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="9">
-        <f t="shared" si="1"/>
+      <c r="D20" s="9">
+        <f t="shared" si="2"/>
         <v>101340.06099999999</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E20" s="7">
         <v>30758.92</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F20" s="7">
         <v>12635.058999999999</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G20" s="7">
         <v>6735.0630000000001</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H20" s="7">
         <v>7071.5340000000006</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I20" s="7">
         <v>3260.134</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J20" s="7">
         <v>2927.556</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K20" s="7">
         <v>2738.0719999999997</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L20" s="7">
         <v>3079.3420000000001</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M20" s="7">
         <v>2242.9470000000001</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N20" s="7">
         <v>2212.1790000000001</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O20" s="7">
         <v>22653.131999999998</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P20" s="7">
         <v>5026.1229999999987</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B20" s="22">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="22">
         <v>2023</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C21" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="8">
-        <f t="shared" si="1"/>
+      <c r="D21" s="8">
+        <f t="shared" si="2"/>
         <v>99893.349999999977</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E21" s="4">
         <v>42255.99</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F21" s="4">
         <v>13795.428</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G21" s="4">
         <v>6453.2659999999996</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H21" s="4">
         <v>6305.5460000000003</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I21" s="4">
         <v>2850.3670000000002</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J21" s="4">
         <v>2992.5640000000003</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K21" s="4">
         <v>2184.107</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L21" s="4">
         <v>3001.3330000000001</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M21" s="4">
         <v>2136.636</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N21" s="4">
         <v>1665.6389999999999</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O21" s="4">
         <v>12061.946</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P21" s="4">
         <v>4190.5279999999912</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B21" s="20">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="20">
         <v>2023</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C22" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="9">
-        <f t="shared" si="1"/>
+      <c r="D22" s="9">
+        <f t="shared" si="2"/>
         <v>100692.46</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E22" s="7">
         <v>48959.360000000001</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F22" s="7">
         <v>14347.388000000001</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G22" s="7">
         <v>6967.08</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H22" s="7">
         <v>7548.9220000000005</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I22" s="7">
         <v>3319.7</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J22" s="7">
         <v>2985.5720000000001</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K22" s="7">
         <v>2751.5749999999998</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L22" s="7">
         <v>2986.2660000000001</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M22" s="7">
         <v>2130.835</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N22" s="7">
         <v>1363.424</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O22" s="7">
         <v>2657.15</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P22" s="7">
         <v>4675.1880000000074</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B22" s="22">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="22">
         <v>2023</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C23" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="8">
-        <f t="shared" si="1"/>
+      <c r="D23" s="8">
+        <f t="shared" si="2"/>
         <v>98181.257999999987</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E23" s="4">
         <v>50235.43</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F23" s="4">
         <v>13240.904999999999</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G23" s="4">
         <v>6447.4090000000006</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H23" s="4">
         <v>6818.1289999999999</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I23" s="4">
         <v>3168.0129999999999</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J23" s="4">
         <v>3032.7219999999998</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K23" s="4">
         <v>2419.5279999999998</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L23" s="4">
         <v>3039.0519999999997</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M23" s="4">
         <v>2077.337</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N23" s="4">
         <v>1145.9829999999999</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O23" s="4">
         <v>2054.748</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P23" s="4">
         <v>4502.0019999999795</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B23" s="20">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="20">
         <v>2023</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C24" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="9">
-        <f t="shared" si="1"/>
+      <c r="D24" s="9">
+        <f t="shared" si="2"/>
         <v>92574.85</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E24" s="7">
         <v>47367.56</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F24" s="7">
         <v>13553.766</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G24" s="7">
         <v>6046.3230000000003</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H24" s="7">
         <v>5997.2860000000001</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I24" s="7">
         <v>2823</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J24" s="7">
         <v>3201.482</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K24" s="7">
         <v>2103.346</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L24" s="7">
         <v>2699.6509999999998</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M24" s="7">
         <v>1830.1030000000001</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N24" s="7">
         <v>966.625</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O24" s="7">
         <v>1973.069</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P24" s="7">
         <v>4012.6390000000029</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B24" s="22">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="22">
         <v>2023</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C25" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="8">
-        <f t="shared" si="1"/>
+      <c r="D25" s="8">
+        <f t="shared" si="2"/>
         <v>105745.56200000001</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E25" s="4">
         <v>52276.67</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F25" s="4">
         <v>16535.007000000001</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G25" s="4">
         <v>6440.4480000000003</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H25" s="4">
         <v>7445.0419999999995</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I25" s="4">
         <v>3504.6480000000001</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J25" s="4">
         <v>3949.8199999999997</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K25" s="4">
         <v>2498.7659999999996</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L25" s="4">
         <v>3061.4049999999997</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M25" s="4">
         <v>2069.788</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N25" s="4">
         <v>1219.9379999999999</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O25" s="4">
         <v>1776.1070000000002</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P25" s="4">
         <v>4967.9229999999952</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B25" s="20">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="20">
         <v>2023</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C26" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="9">
-        <f t="shared" si="1"/>
+      <c r="D26" s="9">
+        <f t="shared" si="2"/>
         <v>92062.197000000015</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E26" s="7">
         <v>48557.700000000004</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F26" s="7">
         <v>12859.111000000001</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G26" s="7">
         <v>5657.7039999999997</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H26" s="7">
         <v>6269.88</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I26" s="7">
         <v>2992.4319999999998</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J26" s="7">
         <v>3589.6260000000002</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K26" s="7">
         <v>2018.2800000000002</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L26" s="7">
         <v>2591.8669999999997</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M26" s="7">
         <v>1971.3010000000002</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N26" s="7">
         <v>967.20100000000002</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O26" s="7">
         <v>24.785999999999998</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P26" s="7">
         <v>4562.3090000000093</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B26" s="24">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="24">
         <v>2023</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C27" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="10">
-        <f t="shared" si="1"/>
+      <c r="D27" s="10">
+        <f t="shared" si="2"/>
         <v>91861.286999999982</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E27" s="6">
         <v>47206.720000000001</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F27" s="6">
         <v>14071.760999999999</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G27" s="6">
         <v>5308.5119999999997</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H27" s="6">
         <v>6105.5779999999995</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I27" s="6">
         <v>3099.4949999999999</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J27" s="6">
         <v>3049.6080000000002</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K27" s="6">
         <v>2226.4519999999998</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L27" s="6">
         <v>2648.1549999999997</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M27" s="6">
         <v>2170.7359999999999</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N27" s="6">
         <v>1026.6849999999999</v>
       </c>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6">
+      <c r="O27" s="6"/>
+      <c r="P27" s="6">
         <v>4947.5849999999755</v>
       </c>
     </row>
-    <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="26">
+    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="26">
         <v>2022</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C28" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="11">
-        <f t="shared" si="1"/>
+      <c r="D28" s="11">
+        <f t="shared" si="2"/>
         <v>101065.27699999994</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E28" s="12">
         <v>51995.01</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F28" s="12">
         <v>14753.401000000002</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G28" s="12">
         <v>6074.482</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H28" s="12">
         <v>6693.6720000000005</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I28" s="12">
         <v>3610.9369999999999</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J28" s="12">
         <v>3543.056</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K28" s="12">
         <v>2529.5419999999999</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L28" s="12">
         <v>3120.09</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M28" s="12">
         <v>2114.6820000000002</v>
       </c>
-      <c r="N27" s="12">
+      <c r="N28" s="12">
         <v>1202.202</v>
       </c>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12">
+      <c r="O28" s="12"/>
+      <c r="P28" s="12">
         <v>5428.2029999999249</v>
       </c>
     </row>
-    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="22">
+    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="22">
         <v>2022</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C29" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="8">
-        <f t="shared" si="1"/>
+      <c r="D29" s="8">
+        <f t="shared" si="2"/>
         <v>100761.743</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E29" s="4">
         <v>52228.090000000004</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F29" s="4">
         <v>14611.128000000001</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G29" s="4">
         <v>6314.7170000000006</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H29" s="4">
         <v>6174.5390000000007</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I29" s="4">
         <v>3744.3739999999998</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J29" s="4">
         <v>3438.8589999999999</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K29" s="4">
         <v>2565.1889999999999</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L29" s="4">
         <v>3357.0519999999997</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M29" s="4">
         <v>2200.0079999999998</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N29" s="4">
         <v>1152.1139999999998</v>
       </c>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4">
+      <c r="O29" s="4"/>
+      <c r="P29" s="4">
         <v>4975.6730000000007</v>
       </c>
     </row>
-    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="20">
+    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="20">
         <v>2022</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C30" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="9">
-        <f t="shared" si="1"/>
+      <c r="D30" s="9">
+        <f t="shared" si="2"/>
         <v>101815.66400000002</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E30" s="7">
         <v>53850.369999999995</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F30" s="7">
         <v>15184.744000000001</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G30" s="7">
         <v>6463.3790000000008</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H30" s="7">
         <v>5772.1310000000003</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I30" s="7">
         <v>3574.8900000000003</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J30" s="7">
         <v>3573.3429999999998</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K30" s="7">
         <v>2038.558</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L30" s="7">
         <v>2968.2270000000003</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M30" s="7">
         <v>2060.0630000000001</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N30" s="7">
         <v>1283.712</v>
       </c>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7">
+      <c r="O30" s="7"/>
+      <c r="P30" s="7">
         <v>5046.2470000000367</v>
       </c>
     </row>
-    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="22">
+    <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="22">
         <v>2022</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C31" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="8">
-        <f t="shared" si="1"/>
+      <c r="D31" s="8">
+        <f t="shared" si="2"/>
         <v>89334.159999999974</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E31" s="4">
         <v>47061.49</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F31" s="4">
         <v>14479.710999999999</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G31" s="4">
         <v>6202.4430000000002</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H31" s="4">
         <v>5721.7240000000002</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I31" s="4">
         <v>2401.297</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J31" s="4">
         <v>2631.6559999999999</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K31" s="4">
         <v>2465.8180000000002</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L31" s="4">
         <v>2754.2740000000003</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M31" s="4">
         <v>512.15899999999999</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N31" s="4">
         <v>1143.1680000000001</v>
       </c>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4">
+      <c r="O31" s="4"/>
+      <c r="P31" s="4">
         <v>3960.4199999999564</v>
       </c>
     </row>
-    <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="20">
+    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="20">
         <v>2022</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C32" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="9">
-        <f t="shared" si="1"/>
+      <c r="D32" s="9">
+        <f t="shared" si="2"/>
         <v>95278.69100000005</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E32" s="7">
         <v>47746.51</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F32" s="7">
         <v>14115.436000000002</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G32" s="7">
         <v>7015.4850000000006</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H32" s="7">
         <v>6571.5810000000001</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I32" s="7">
         <v>2958.8999999999996</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J32" s="7">
         <v>3531.7309999999998</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K32" s="7">
         <v>2622.4749999999999</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L32" s="7">
         <v>2978.3830000000003</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M32" s="7">
         <v>2025.0970000000002</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N32" s="7">
         <v>1204.242</v>
       </c>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7">
+      <c r="O32" s="7"/>
+      <c r="P32" s="7">
         <v>4508.8510000000351</v>
       </c>
     </row>
-    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="22">
+    <row r="33" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="22">
         <v>2022</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C33" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="8">
-        <f t="shared" si="1"/>
+      <c r="D33" s="8">
+        <f t="shared" si="2"/>
         <v>97785.689999999988</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E33" s="4">
         <v>50063.990000000005</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F33" s="4">
         <v>14860.342999999999</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G33" s="4">
         <v>6623.2259999999997</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H33" s="4">
         <v>5368.71</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I33" s="4">
         <v>3986.607</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J33" s="4">
         <v>4343.424</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K33" s="4">
         <v>2496.5360000000001</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L33" s="4">
         <v>2822.9870000000001</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M33" s="4">
         <v>1943.029</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N33" s="4">
         <v>1117.913</v>
       </c>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4">
+      <c r="O33" s="4"/>
+      <c r="P33" s="4">
         <v>4158.924999999982</v>
       </c>
     </row>
-    <row r="33" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="20">
+    <row r="34" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="20">
         <v>2022</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C34" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="9">
-        <f t="shared" si="1"/>
+      <c r="D34" s="9">
+        <f t="shared" si="2"/>
         <v>98754.335000000006</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E34" s="7">
         <v>46577.189999999995</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F34" s="7">
         <v>15738.313999999998</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G34" s="7">
         <v>7141.8860000000004</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H34" s="7">
         <v>6363.9130000000005</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I34" s="7">
         <v>4263.3530000000001</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J34" s="7">
         <v>3976.6590000000001</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K34" s="7">
         <v>2587.8480000000004</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L34" s="7">
         <v>3419.7529999999997</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M34" s="7">
         <v>2042.5399999999997</v>
       </c>
-      <c r="N33" s="7">
+      <c r="N34" s="7">
         <v>1359.9259999999999</v>
       </c>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7">
+      <c r="O34" s="7"/>
+      <c r="P34" s="7">
         <v>5282.9530000000059</v>
       </c>
     </row>
-    <row r="34" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="22">
+    <row r="35" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="22">
         <v>2022</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C35" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="8">
-        <f t="shared" si="1"/>
+      <c r="D35" s="8">
+        <f t="shared" si="2"/>
         <v>100981.77</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E35" s="4">
         <v>48175.270000000004</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F35" s="4">
         <v>15121.800999999999</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G35" s="4">
         <v>6917.94</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H35" s="4">
         <v>7004.4480000000003</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I35" s="4">
         <v>4293.0200000000004</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J35" s="4">
         <v>4633.1059999999998</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K35" s="4">
         <v>2216.5819999999999</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L35" s="4">
         <v>4035.9160000000002</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M35" s="4">
         <v>2042.0069999999998</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N35" s="4">
         <v>1212.9639999999999</v>
       </c>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4">
+      <c r="O35" s="4"/>
+      <c r="P35" s="4">
         <v>5328.7160000000003</v>
       </c>
     </row>
-    <row r="35" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="20">
+    <row r="36" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="20">
         <v>2022</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C36" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="9">
-        <f t="shared" si="1"/>
+      <c r="D36" s="9">
+        <f t="shared" si="2"/>
         <v>91772.804999999978</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E36" s="7">
         <v>42504.89</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F36" s="7">
         <v>14271.894</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G36" s="7">
         <v>6804.5039999999999</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H36" s="7">
         <v>5796.9490000000005</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I36" s="7">
         <v>3819.4520000000002</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J36" s="7">
         <v>4312.4709999999995</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K36" s="7">
         <v>2349.19</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L36" s="7">
         <v>3770.8559999999998</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M36" s="7">
         <v>1869.663</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N36" s="7">
         <v>1118.5450000000001</v>
       </c>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7">
+      <c r="O36" s="7"/>
+      <c r="P36" s="7">
         <v>5154.390999999976</v>
       </c>
     </row>
-    <row r="36" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="22">
+    <row r="37" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="22">
         <v>2022</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C37" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="8">
-        <f t="shared" si="1"/>
+      <c r="D37" s="8">
+        <f t="shared" si="2"/>
         <v>97475.604000000007</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E37" s="4">
         <v>43589.06</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F37" s="4">
         <v>15805.73</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G37" s="4">
         <v>7474.4720000000007</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H37" s="4">
         <v>6700.8620000000001</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I37" s="4">
         <v>4181.607</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J37" s="4">
         <v>4873.1779999999999</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K37" s="4">
         <v>2656.9369999999999</v>
       </c>
-      <c r="L36" s="4">
+      <c r="L37" s="4">
         <v>3049.7539999999999</v>
       </c>
-      <c r="M36" s="4">
+      <c r="M37" s="4">
         <v>2099.5990000000002</v>
       </c>
-      <c r="N36" s="4">
+      <c r="N37" s="4">
         <v>1350.1109999999999</v>
       </c>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4">
+      <c r="O37" s="4"/>
+      <c r="P37" s="4">
         <v>5694.2940000000135</v>
       </c>
     </row>
-    <row r="37" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="20">
+    <row r="38" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="20">
         <v>2022</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C38" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="9">
-        <f t="shared" si="1"/>
+      <c r="D38" s="9">
+        <f t="shared" si="2"/>
         <v>89800.428</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E38" s="7">
         <v>45366.31</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F38" s="7">
         <v>13369.772999999999</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G38" s="7">
         <v>5647.3320000000003</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H38" s="7">
         <v>5270.6120000000001</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I38" s="7">
         <v>3794.5039999999999</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J38" s="7">
         <v>3839.19</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K38" s="7">
         <v>2119.1379999999999</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L38" s="7">
         <v>2576.7370000000001</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M38" s="7">
         <v>1797.6790000000001</v>
       </c>
-      <c r="N37" s="7">
+      <c r="N38" s="7">
         <v>1019.68</v>
       </c>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7">
+      <c r="O38" s="7"/>
+      <c r="P38" s="7">
         <v>4999.4729999999945</v>
       </c>
     </row>
-    <row r="38" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="24">
+    <row r="39" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="24">
         <v>2022</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C39" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="10">
-        <f t="shared" si="1"/>
+      <c r="D39" s="10">
+        <f t="shared" si="2"/>
         <v>85046.313999999984</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E39" s="6">
         <v>41649.950000000004</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F39" s="6">
         <v>14466.567999999999</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G39" s="6">
         <v>5084.2289999999994</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H39" s="6">
         <v>5408.1559999999999</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I39" s="6">
         <v>2575.6040000000003</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J39" s="6">
         <v>3171.0789999999997</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K39" s="6">
         <v>2142.4740000000002</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L39" s="6">
         <v>2573.4090000000001</v>
       </c>
-      <c r="M38" s="6">
+      <c r="M39" s="6">
         <v>1939.2370000000001</v>
       </c>
-      <c r="N38" s="6">
+      <c r="N39" s="6">
         <v>1105.0170000000001</v>
       </c>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6">
+      <c r="O39" s="6"/>
+      <c r="P39" s="6">
         <v>4930.590999999964</v>
       </c>
     </row>
-    <row r="39" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="26">
+    <row r="40" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="26">
         <v>2021</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C40" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="11">
-        <f t="shared" si="1"/>
+      <c r="D40" s="11">
+        <f t="shared" si="2"/>
         <v>106245.8559999999</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E40" s="12">
         <v>50857.07</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F40" s="12">
         <v>17094.063999999998</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G40" s="12">
         <v>6690.982</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H40" s="12">
         <v>6757.0789999999997</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I40" s="12">
         <v>4772.1049999999996</v>
       </c>
-      <c r="J39" s="12">
+      <c r="J40" s="12">
         <v>4153.6809999999996</v>
       </c>
-      <c r="K39" s="12">
+      <c r="K40" s="12">
         <v>2996.9839999999999</v>
       </c>
-      <c r="L39" s="12">
+      <c r="L40" s="12">
         <v>3411.8760000000002</v>
       </c>
-      <c r="M39" s="12">
+      <c r="M40" s="12">
         <v>2152.6570000000002</v>
       </c>
-      <c r="N39" s="12">
+      <c r="N40" s="12">
         <v>1412.242</v>
       </c>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12">
+      <c r="O40" s="12"/>
+      <c r="P40" s="12">
         <v>5947.115999999909</v>
       </c>
     </row>
-    <row r="40" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="22">
+    <row r="41" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="22">
         <v>2021</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C41" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="8">
-        <f t="shared" si="1"/>
+      <c r="D41" s="8">
+        <f t="shared" si="2"/>
         <v>103780.351</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E41" s="4">
         <v>51670.84</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F41" s="4">
         <v>16637.919000000002</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G41" s="4">
         <v>6777.7350000000006</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H41" s="4">
         <v>6088.8860000000004</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I41" s="4">
         <v>4689.4409999999998</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J41" s="4">
         <v>3093.7200000000003</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K41" s="4">
         <v>2801.3710000000001</v>
       </c>
-      <c r="L40" s="4">
+      <c r="L41" s="4">
         <v>3273.163</v>
       </c>
-      <c r="M40" s="4">
+      <c r="M41" s="4">
         <v>2116.31</v>
       </c>
-      <c r="N40" s="4">
+      <c r="N41" s="4">
         <v>1187.3990000000001</v>
       </c>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4">
+      <c r="O41" s="4"/>
+      <c r="P41" s="4">
         <v>5443.5670000000018</v>
       </c>
     </row>
-    <row r="41" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="20">
+    <row r="42" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="20">
         <v>2021</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C42" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="9">
-        <f t="shared" si="1"/>
+      <c r="D42" s="9">
+        <f t="shared" si="2"/>
         <v>102011.41899999998</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E42" s="7">
         <v>52512.270000000004</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F42" s="7">
         <v>15934.506000000001</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G42" s="7">
         <v>6335.259</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H42" s="7">
         <v>5545.3950000000004</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I42" s="7">
         <v>4882.7650000000003</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J42" s="7">
         <v>2936.84</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K42" s="7">
         <v>2405.8789999999999</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L42" s="7">
         <v>3272.1130000000003</v>
       </c>
-      <c r="M41" s="7">
+      <c r="M42" s="7">
         <v>1900.828</v>
       </c>
-      <c r="N41" s="7">
+      <c r="N42" s="7">
         <v>1092.5319999999999</v>
       </c>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7">
+      <c r="O42" s="7"/>
+      <c r="P42" s="7">
         <v>5193.0319999999592</v>
       </c>
     </row>
-    <row r="42" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="22">
+    <row r="43" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="22">
         <v>2021</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C43" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="8">
-        <f t="shared" ref="D42:D73" si="2">SUM(E42:P42)</f>
+      <c r="D43" s="8">
+        <f t="shared" ref="D43:D74" si="3">SUM(E43:P43)</f>
         <v>91178.608999999982</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E43" s="4">
         <v>45915.21</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F43" s="4">
         <v>14692.056</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G43" s="4">
         <v>5728.8209999999999</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H43" s="4">
         <v>5560.4480000000003</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I43" s="4">
         <v>4702.9629999999997</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J43" s="4">
         <v>2102.703</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K43" s="4">
         <v>2272.134</v>
       </c>
-      <c r="L42" s="4">
+      <c r="L43" s="4">
         <v>2868.15</v>
       </c>
-      <c r="M42" s="4">
+      <c r="M43" s="4">
         <v>1735.4590000000001</v>
       </c>
-      <c r="N42" s="4">
+      <c r="N43" s="4">
         <v>1045.8</v>
       </c>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4">
+      <c r="O43" s="4"/>
+      <c r="P43" s="4">
         <v>4554.864999999978</v>
       </c>
     </row>
-    <row r="43" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="20">
+    <row r="44" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="20">
         <v>2021</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C44" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="9">
-        <f t="shared" si="2"/>
+      <c r="D44" s="9">
+        <f t="shared" si="3"/>
         <v>92414.208999999988</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E44" s="7">
         <v>46263.56</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F44" s="7">
         <v>15429.054</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G44" s="7">
         <v>5843.6489999999994</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H44" s="7">
         <v>5188.5529999999999</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I44" s="7">
         <v>4997.6589999999997</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J44" s="7">
         <v>1980.7669999999998</v>
       </c>
-      <c r="K43" s="7">
+      <c r="K44" s="7">
         <v>2178.5140000000001</v>
       </c>
-      <c r="L43" s="7">
+      <c r="L44" s="7">
         <v>2985.433</v>
       </c>
-      <c r="M43" s="7">
+      <c r="M44" s="7">
         <v>1919.7950000000001</v>
       </c>
-      <c r="N43" s="7">
+      <c r="N44" s="7">
         <v>1046.1379999999999</v>
       </c>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7">
+      <c r="O44" s="7"/>
+      <c r="P44" s="7">
         <v>4581.0869999999823</v>
       </c>
     </row>
-    <row r="44" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="22">
+    <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="22">
         <v>2021</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C45" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="8">
-        <f t="shared" si="2"/>
+      <c r="D45" s="8">
+        <f t="shared" si="3"/>
         <v>94998.959000000017</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E45" s="4">
         <v>47535.66</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F45" s="4">
         <v>16396.912</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G45" s="4">
         <v>5814.3230000000003</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H45" s="4">
         <v>5225.7449999999999</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I45" s="4">
         <v>4822.5879999999997</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J45" s="4">
         <v>2417.9939999999997</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K45" s="4">
         <v>2253.5949999999998</v>
       </c>
-      <c r="L44" s="4">
+      <c r="L45" s="4">
         <v>2954.0879999999997</v>
       </c>
-      <c r="M44" s="4">
+      <c r="M45" s="4">
         <v>2019.4090000000001</v>
       </c>
-      <c r="N44" s="4">
+      <c r="N45" s="4">
         <v>989</v>
       </c>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4">
+      <c r="O45" s="4"/>
+      <c r="P45" s="4">
         <v>4569.6450000000086</v>
       </c>
     </row>
-    <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="20">
+    <row r="46" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="20">
         <v>2021</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C46" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="9">
-        <f t="shared" si="2"/>
+      <c r="D46" s="9">
+        <f t="shared" si="3"/>
         <v>93150.852999999974</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E46" s="7">
         <v>46381.57</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F46" s="7">
         <v>16321.146999999999</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G46" s="7">
         <v>5643.8950000000004</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H46" s="7">
         <v>5512.8739999999998</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I46" s="7">
         <v>4619.1679999999997</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J46" s="7">
         <v>2265.636</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K46" s="7">
         <v>2051.7060000000001</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L46" s="7">
         <v>2931.884</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M46" s="7">
         <v>1972.1880000000001</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N46" s="7">
         <v>986.39300000000003</v>
       </c>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7">
+      <c r="O46" s="7"/>
+      <c r="P46" s="7">
         <v>4464.3919999999753</v>
       </c>
     </row>
-    <row r="46" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="22">
+    <row r="47" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="22">
         <v>2021</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C47" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="8">
-        <f t="shared" si="2"/>
+      <c r="D47" s="8">
+        <f t="shared" si="3"/>
         <v>91896.881000000023</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E47" s="4">
         <v>46267.280000000006</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F47" s="4">
         <v>16961.302</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G47" s="4">
         <v>5341.201</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H47" s="4">
         <v>5093.9789999999994</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I47" s="4">
         <v>4098.0300000000007</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J47" s="4">
         <v>2317.509</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K47" s="4">
         <v>1839.751</v>
       </c>
-      <c r="L46" s="4">
+      <c r="L47" s="4">
         <v>2917.2539999999999</v>
       </c>
-      <c r="M46" s="4">
+      <c r="M47" s="4">
         <v>1854.6999999999998</v>
       </c>
-      <c r="N46" s="4">
+      <c r="N47" s="4">
         <v>936.20399999999995</v>
       </c>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4">
+      <c r="O47" s="4"/>
+      <c r="P47" s="4">
         <v>4269.6710000000021</v>
       </c>
     </row>
-    <row r="47" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="20">
+    <row r="48" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="20">
         <v>2021</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C48" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="9">
-        <f t="shared" si="2"/>
+      <c r="D48" s="9">
+        <f t="shared" si="3"/>
         <v>91124.671000000017</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E48" s="7">
         <v>44958.49</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F48" s="7">
         <v>17353.253000000001</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G48" s="7">
         <v>5074.8539999999994</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H48" s="7">
         <v>5150.7029999999995</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I48" s="7">
         <v>4190.9799999999996</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J48" s="7">
         <v>2711.4180000000001</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K48" s="7">
         <v>2026.221</v>
       </c>
-      <c r="L47" s="7">
+      <c r="L48" s="7">
         <v>2834.6559999999999</v>
       </c>
-      <c r="M47" s="7">
+      <c r="M48" s="7">
         <v>1752.0440000000001</v>
       </c>
-      <c r="N47" s="7">
+      <c r="N48" s="7">
         <v>919.93</v>
       </c>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7">
+      <c r="O48" s="7"/>
+      <c r="P48" s="7">
         <v>4152.1220000000194</v>
       </c>
     </row>
-    <row r="48" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="22">
+    <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="22">
         <v>2021</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C49" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="8">
-        <f t="shared" si="2"/>
+      <c r="D49" s="8">
+        <f t="shared" si="3"/>
         <v>97804.682000000015</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E49" s="4">
         <v>49200.950000000004</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F49" s="4">
         <v>18513.925000000003</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G49" s="4">
         <v>5394.5290000000005</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H49" s="4">
         <v>5438.8379999999997</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I49" s="4">
         <v>4517.6980000000003</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J49" s="4">
         <v>2272.91</v>
       </c>
-      <c r="K48" s="4">
+      <c r="K49" s="4">
         <v>2051.056</v>
       </c>
-      <c r="L48" s="4">
+      <c r="L49" s="4">
         <v>2950.4749999999999</v>
       </c>
-      <c r="M48" s="4">
+      <c r="M49" s="4">
         <v>1771.0360000000001</v>
       </c>
-      <c r="N48" s="4">
+      <c r="N49" s="4">
         <v>1067.4470000000001</v>
       </c>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4">
+      <c r="O49" s="4"/>
+      <c r="P49" s="4">
         <v>4625.8179999999957</v>
       </c>
     </row>
-    <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="20">
+    <row r="50" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="20">
         <v>2021</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C50" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="9">
-        <f t="shared" si="2"/>
+      <c r="D50" s="9">
+        <f t="shared" si="3"/>
         <v>83857.271000000022</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E50" s="7">
         <v>42287.700000000004</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F50" s="7">
         <v>15583.737000000001</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G50" s="7">
         <v>4140.5389999999998</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H50" s="7">
         <v>4531.4269999999997</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I50" s="7">
         <v>3863.7919999999995</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J50" s="7">
         <v>2548.5929999999998</v>
       </c>
-      <c r="K49" s="7">
+      <c r="K50" s="7">
         <v>1805.3239999999998</v>
       </c>
-      <c r="L49" s="7">
+      <c r="L50" s="7">
         <v>2596.5039999999999</v>
       </c>
-      <c r="M49" s="7">
+      <c r="M50" s="7">
         <v>1517.7179999999998</v>
       </c>
-      <c r="N49" s="7">
+      <c r="N50" s="7">
         <v>866.53800000000001</v>
       </c>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7">
+      <c r="O50" s="7"/>
+      <c r="P50" s="7">
         <v>4115.3990000000395</v>
       </c>
     </row>
-    <row r="50" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="24">
+    <row r="51" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="24">
         <v>2021</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C51" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D50" s="10">
-        <f t="shared" si="2"/>
+      <c r="D51" s="10">
+        <f t="shared" si="3"/>
         <v>88197.219999999987</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E51" s="6">
         <v>43928.770000000004</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F51" s="6">
         <v>16300.849999999997</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G51" s="6">
         <v>4840.8860000000004</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H51" s="6">
         <v>4794.0879999999997</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I51" s="6">
         <v>4785.6239999999998</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J51" s="6">
         <v>2064.8710000000001</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K51" s="6">
         <v>2034.952</v>
       </c>
-      <c r="L50" s="6">
+      <c r="L51" s="6">
         <v>2453.6999999999998</v>
       </c>
-      <c r="M50" s="6">
+      <c r="M51" s="6">
         <v>1745.922</v>
       </c>
-      <c r="N50" s="6">
+      <c r="N51" s="6">
         <v>918.11799999999994</v>
       </c>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6">
+      <c r="O51" s="6"/>
+      <c r="P51" s="6">
         <v>4329.4389999999794</v>
       </c>
     </row>
-    <row r="51" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="26">
+    <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="26">
         <v>2020</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C52" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="11">
-        <f t="shared" si="2"/>
+      <c r="D52" s="11">
+        <f t="shared" si="3"/>
         <v>94144.191000000021</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E52" s="12">
         <v>46330.03</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F52" s="12">
         <v>15973.973</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G52" s="12">
         <v>5450.8789999999999</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H52" s="12">
         <v>5488.8649999999998</v>
       </c>
-      <c r="I51" s="12">
+      <c r="I52" s="12">
         <v>5262.348</v>
       </c>
-      <c r="J51" s="12">
+      <c r="J52" s="12">
         <v>1922.278</v>
       </c>
-      <c r="K51" s="12">
+      <c r="K52" s="12">
         <v>2610.1819999999998</v>
       </c>
-      <c r="L51" s="12">
+      <c r="L52" s="12">
         <v>3093.9090000000001</v>
       </c>
-      <c r="M51" s="12">
+      <c r="M52" s="12">
         <v>1870.7370000000001</v>
       </c>
-      <c r="N51" s="12">
+      <c r="N52" s="12">
         <v>1267.98</v>
       </c>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12">
+      <c r="O52" s="12"/>
+      <c r="P52" s="12">
         <v>4873.010000000022</v>
       </c>
     </row>
-    <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="22">
+    <row r="53" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="22">
         <v>2020</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C53" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="8">
-        <f t="shared" si="2"/>
+      <c r="D53" s="8">
+        <f t="shared" si="3"/>
         <v>91473.85500000001</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E53" s="4">
         <v>47533.36</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F53" s="4">
         <v>14400.682000000001</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G53" s="4">
         <v>5383.1379999999999</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H53" s="4">
         <v>4958.3670000000002</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I53" s="4">
         <v>4752.6779999999999</v>
       </c>
-      <c r="J52" s="4">
+      <c r="J53" s="4">
         <v>1515.828</v>
       </c>
-      <c r="K52" s="4">
+      <c r="K53" s="4">
         <v>2284.3830000000003</v>
       </c>
-      <c r="L52" s="4">
+      <c r="L53" s="4">
         <v>3066.7379999999998</v>
       </c>
-      <c r="M52" s="4">
+      <c r="M53" s="4">
         <v>1683.905</v>
       </c>
-      <c r="N52" s="4">
+      <c r="N53" s="4">
         <v>1051.925</v>
       </c>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4">
+      <c r="O53" s="4"/>
+      <c r="P53" s="4">
         <v>4842.8510000000106</v>
       </c>
     </row>
-    <row r="53" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="20">
+    <row r="54" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="20">
         <v>2020</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C54" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="9">
-        <f t="shared" si="2"/>
+      <c r="D54" s="9">
+        <f t="shared" si="3"/>
         <v>91662.356999999931</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E54" s="7">
         <v>46625.39</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F54" s="7">
         <v>16134.585999999999</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G54" s="7">
         <v>5479.9110000000001</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H54" s="7">
         <v>4639.0290000000005</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I54" s="7">
         <v>5349.1270000000004</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J54" s="7">
         <v>1260.509</v>
       </c>
-      <c r="K53" s="7">
+      <c r="K54" s="7">
         <v>2199.1950000000002</v>
       </c>
-      <c r="L53" s="7">
+      <c r="L54" s="7">
         <v>3053.64</v>
       </c>
-      <c r="M53" s="7">
+      <c r="M54" s="7">
         <v>1739.095</v>
       </c>
-      <c r="N53" s="7">
+      <c r="N54" s="7">
         <v>943.76300000000003</v>
       </c>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7">
+      <c r="O54" s="7"/>
+      <c r="P54" s="7">
         <v>4238.11199999993</v>
       </c>
     </row>
-    <row r="54" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="22">
+    <row r="55" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="22">
         <v>2020</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C55" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="8">
-        <f t="shared" si="2"/>
+      <c r="D55" s="8">
+        <f t="shared" si="3"/>
         <v>77051.781000000032</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E55" s="4">
         <v>38240.839999999997</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F55" s="4">
         <v>14171.219000000001</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G55" s="4">
         <v>4407.3809999999994</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H55" s="4">
         <v>3752.172</v>
       </c>
-      <c r="I54" s="4">
+      <c r="I55" s="4">
         <v>4552.4279999999999</v>
       </c>
-      <c r="J54" s="4">
+      <c r="J55" s="4">
         <v>1079.7190000000001</v>
       </c>
-      <c r="K54" s="4">
+      <c r="K55" s="4">
         <v>1834.0129999999999</v>
       </c>
-      <c r="L54" s="4">
+      <c r="L55" s="4">
         <v>2717.5839999999998</v>
       </c>
-      <c r="M54" s="4">
+      <c r="M55" s="4">
         <v>1835.0609999999999</v>
       </c>
-      <c r="N54" s="4">
+      <c r="N55" s="4">
         <v>788.73500000000001</v>
       </c>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4">
+      <c r="O55" s="4"/>
+      <c r="P55" s="4">
         <v>3672.629000000029</v>
       </c>
     </row>
-    <row r="55" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="20">
+    <row r="56" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="20">
         <v>2020</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C56" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="9">
-        <f t="shared" si="2"/>
+      <c r="D56" s="9">
+        <f t="shared" si="3"/>
         <v>73243.596999999965</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E56" s="7">
         <v>37945.979999999996</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F56" s="7">
         <v>12325.865999999998</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G56" s="7">
         <v>3948.0789999999997</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H56" s="7">
         <v>3392.7820000000002</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I56" s="7">
         <v>4478.6279999999997</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J56" s="7">
         <v>1011.65</v>
       </c>
-      <c r="K55" s="7">
+      <c r="K56" s="7">
         <v>1714.8619999999999</v>
       </c>
-      <c r="L55" s="7">
+      <c r="L56" s="7">
         <v>2516.4409999999998</v>
       </c>
-      <c r="M55" s="7">
+      <c r="M56" s="7">
         <v>1831.6880000000001</v>
       </c>
-      <c r="N55" s="7">
+      <c r="N56" s="7">
         <v>782.10199999999998</v>
       </c>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7">
+      <c r="O56" s="7"/>
+      <c r="P56" s="7">
         <v>3295.5189999999848</v>
       </c>
     </row>
-    <row r="56" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="22">
+    <row r="57" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="22">
         <v>2020</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C57" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="8">
-        <f t="shared" si="2"/>
+      <c r="D57" s="8">
+        <f t="shared" si="3"/>
         <v>70714.571000000011</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E57" s="4">
         <v>34839.78</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F57" s="4">
         <v>13321.585999999999</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G57" s="4">
         <v>3950.6219999999998</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H57" s="4">
         <v>3725.6490000000003</v>
       </c>
-      <c r="I56" s="4">
+      <c r="I57" s="4">
         <v>3987.5020000000004</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J57" s="4">
         <v>936.46399999999994</v>
       </c>
-      <c r="K56" s="4">
+      <c r="K57" s="4">
         <v>1692.3649999999998</v>
       </c>
-      <c r="L56" s="4">
+      <c r="L57" s="4">
         <v>2403.9839999999999</v>
       </c>
-      <c r="M56" s="4">
+      <c r="M57" s="4">
         <v>1775.4699999999998</v>
       </c>
-      <c r="N56" s="4">
+      <c r="N57" s="4">
         <v>840.952</v>
       </c>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4">
+      <c r="O57" s="4"/>
+      <c r="P57" s="4">
         <v>3240.1970000000092</v>
       </c>
     </row>
-    <row r="57" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="20">
+    <row r="58" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="20">
         <v>2020</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C58" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="9">
-        <f t="shared" si="2"/>
+      <c r="D58" s="9">
+        <f t="shared" si="3"/>
         <v>66590.821000000025</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E58" s="7">
         <v>33996.18</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F58" s="7">
         <v>13478.243999999999</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G58" s="7">
         <v>3545.3679999999999</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H58" s="7">
         <v>3224.4189999999999</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I58" s="7">
         <v>3231.3440000000001</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J58" s="7">
         <v>771.17700000000002</v>
       </c>
-      <c r="K57" s="7">
+      <c r="K58" s="7">
         <v>1478.3190000000002</v>
       </c>
-      <c r="L57" s="7">
+      <c r="L58" s="7">
         <v>1821.6129999999998</v>
       </c>
-      <c r="M57" s="7">
+      <c r="M58" s="7">
         <v>1594.6689999999999</v>
       </c>
-      <c r="N57" s="7">
+      <c r="N58" s="7">
         <v>720.39199999999994</v>
       </c>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7">
+      <c r="O58" s="7"/>
+      <c r="P58" s="7">
         <v>2729.0960000000127</v>
       </c>
     </row>
-    <row r="58" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="22">
+    <row r="59" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="22">
         <v>2020</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C59" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="8">
-        <f t="shared" si="2"/>
+      <c r="D59" s="8">
+        <f t="shared" si="3"/>
         <v>58590.57</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E59" s="4">
         <v>31229.68</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F59" s="4">
         <v>11236.094000000001</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G59" s="4">
         <v>2744.201</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H59" s="4">
         <v>2746.701</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I59" s="4">
         <v>2540.2469999999998</v>
       </c>
-      <c r="J58" s="4">
+      <c r="J59" s="4">
         <v>612.84699999999998</v>
       </c>
-      <c r="K58" s="4">
+      <c r="K59" s="4">
         <v>1623.547</v>
       </c>
-      <c r="L58" s="4">
+      <c r="L59" s="4">
         <v>1605.3789999999999</v>
       </c>
-      <c r="M58" s="4">
+      <c r="M59" s="4">
         <v>1482.9659999999999</v>
       </c>
-      <c r="N58" s="4">
+      <c r="N59" s="4">
         <v>671.48299999999995</v>
       </c>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4">
+      <c r="O59" s="4"/>
+      <c r="P59" s="4">
         <v>2097.424999999987</v>
       </c>
     </row>
-    <row r="59" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="20">
+    <row r="60" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="20">
         <v>2020</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C60" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D59" s="9">
-        <f t="shared" si="2"/>
+      <c r="D60" s="9">
+        <f t="shared" si="3"/>
         <v>51124.868999999999</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E60" s="7">
         <v>25419.52</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F60" s="7">
         <v>11565.216</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G60" s="7">
         <v>2651.4159999999997</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H60" s="7">
         <v>2693.4929999999999</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I60" s="7">
         <v>2126.7669999999998</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J60" s="7">
         <v>551.59</v>
       </c>
-      <c r="K59" s="7">
+      <c r="K60" s="7">
         <v>1334.1680000000001</v>
       </c>
-      <c r="L59" s="7">
+      <c r="L60" s="7">
         <v>1156.8400000000001</v>
       </c>
-      <c r="M59" s="7">
+      <c r="M60" s="7">
         <v>1103.2260000000001</v>
       </c>
-      <c r="N59" s="7">
+      <c r="N60" s="7">
         <v>532.67700000000002</v>
       </c>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7">
+      <c r="O60" s="7"/>
+      <c r="P60" s="7">
         <v>1989.9559999999994</v>
       </c>
     </row>
-    <row r="60" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="22">
+    <row r="61" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="22">
         <v>2020</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C61" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D60" s="8">
-        <f t="shared" si="2"/>
+      <c r="D61" s="8">
+        <f t="shared" si="3"/>
         <v>79368.52999999997</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E61" s="4">
         <v>42274.520000000004</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F61" s="4">
         <v>14537.343000000001</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G61" s="4">
         <v>4065.893</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H61" s="4">
         <v>3597.8379999999997</v>
       </c>
-      <c r="I60" s="4">
+      <c r="I61" s="4">
         <v>2907.587</v>
       </c>
-      <c r="J60" s="4">
+      <c r="J61" s="4">
         <v>2248.8019999999997</v>
       </c>
-      <c r="K60" s="4">
+      <c r="K61" s="4">
         <v>1787.81</v>
       </c>
-      <c r="L60" s="4">
+      <c r="L61" s="4">
         <v>2068.8739999999998</v>
       </c>
-      <c r="M60" s="4">
+      <c r="M61" s="4">
         <v>1532.5450000000001</v>
       </c>
-      <c r="N60" s="4">
+      <c r="N61" s="4">
         <v>820.50299999999993</v>
       </c>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4">
+      <c r="O61" s="4"/>
+      <c r="P61" s="4">
         <v>3526.8149999999705</v>
       </c>
     </row>
-    <row r="61" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="20">
+    <row r="62" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="20">
         <v>2020</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C62" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D61" s="9">
-        <f t="shared" si="2"/>
+      <c r="D62" s="9">
+        <f t="shared" si="3"/>
         <v>75908.510999999955</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E62" s="7">
         <v>42089.659999999996</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F62" s="7">
         <v>11466.815999999999</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G62" s="7">
         <v>3486.42</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H62" s="7">
         <v>3309.0249999999996</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I62" s="7">
         <v>2651.6840000000002</v>
       </c>
-      <c r="J61" s="7">
+      <c r="J62" s="7">
         <v>2759.643</v>
       </c>
-      <c r="K61" s="7">
+      <c r="K62" s="7">
         <v>1653.057</v>
       </c>
-      <c r="L61" s="7">
+      <c r="L62" s="7">
         <v>2319.8409999999999</v>
       </c>
-      <c r="M61" s="7">
+      <c r="M62" s="7">
         <v>1687.9380000000001</v>
       </c>
-      <c r="N61" s="7">
+      <c r="N62" s="7">
         <v>812.35799999999995</v>
       </c>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7">
+      <c r="O62" s="7"/>
+      <c r="P62" s="7">
         <v>3672.068999999979</v>
       </c>
     </row>
-    <row r="62" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="24">
+    <row r="63" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="24">
         <v>2020</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C63" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D62" s="10">
-        <f t="shared" si="2"/>
+      <c r="D63" s="10">
+        <f t="shared" si="3"/>
         <v>80828.273000000045</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E63" s="6">
         <v>43200.08</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F63" s="6">
         <v>12981.727999999999</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G63" s="6">
         <v>3924.5250000000001</v>
       </c>
-      <c r="H62" s="6">
+      <c r="H63" s="6">
         <v>3616.1279999999997</v>
       </c>
-      <c r="I62" s="6">
+      <c r="I63" s="6">
         <v>2992.5469999999996</v>
       </c>
-      <c r="J62" s="6">
+      <c r="J63" s="6">
         <v>3044.2960000000003</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K63" s="6">
         <v>1792.2229999999997</v>
       </c>
-      <c r="L62" s="6">
+      <c r="L63" s="6">
         <v>2507.0810000000001</v>
       </c>
-      <c r="M62" s="6">
+      <c r="M63" s="6">
         <v>1937.0650000000001</v>
       </c>
-      <c r="N62" s="6">
+      <c r="N63" s="6">
         <v>862.8069999999999</v>
       </c>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6">
+      <c r="O63" s="6"/>
+      <c r="P63" s="6">
         <v>3969.7930000000383</v>
       </c>
     </row>
-    <row r="63" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="26">
+    <row r="64" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="26">
         <v>2019</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C64" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D63" s="11">
-        <f t="shared" si="2"/>
+      <c r="D64" s="11">
+        <f t="shared" si="3"/>
         <v>83400</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E64" s="12">
         <v>48000</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F64" s="12">
         <v>14500</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G64" s="12">
         <v>3700</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H64" s="12">
         <v>2900</v>
       </c>
-      <c r="I63" s="12">
+      <c r="I64" s="12">
         <v>3100</v>
       </c>
-      <c r="J63" s="12">
+      <c r="J64" s="12">
         <v>1900</v>
       </c>
-      <c r="K63" s="12">
+      <c r="K64" s="12">
         <v>3700</v>
       </c>
-      <c r="L63" s="12">
+      <c r="L64" s="12">
         <v>1900</v>
       </c>
-      <c r="M63" s="12">
+      <c r="M64" s="12">
         <v>2600</v>
       </c>
-      <c r="N63" s="12">
+      <c r="N64" s="12">
         <v>1100</v>
       </c>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12">
+      <c r="O64" s="12"/>
+      <c r="P64" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="22">
+    <row r="65" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="22">
         <v>2019</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C65" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="8">
-        <f t="shared" si="2"/>
+      <c r="D65" s="8">
+        <f t="shared" si="3"/>
         <v>83400</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E65" s="4">
         <v>46600</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F65" s="4">
         <v>14700</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G65" s="4">
         <v>4300</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H65" s="4">
         <v>3100</v>
       </c>
-      <c r="I64" s="4">
+      <c r="I65" s="4">
         <v>3100</v>
       </c>
-      <c r="J64" s="4">
+      <c r="J65" s="4">
         <v>2100</v>
       </c>
-      <c r="K64" s="4">
+      <c r="K65" s="4">
         <v>3900</v>
       </c>
-      <c r="L64" s="4">
+      <c r="L65" s="4">
         <v>1800</v>
       </c>
-      <c r="M64" s="4">
+      <c r="M65" s="4">
         <v>2800</v>
       </c>
-      <c r="N64" s="4">
+      <c r="N65" s="4">
         <v>1000</v>
       </c>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4">
+      <c r="O65" s="4"/>
+      <c r="P65" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="20">
+    <row r="66" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="20">
         <v>2019</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C66" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D65" s="9">
-        <f t="shared" si="2"/>
+      <c r="D66" s="9">
+        <f t="shared" si="3"/>
         <v>90200</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E66" s="7">
         <v>52200</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F66" s="7">
         <v>14900</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G66" s="7">
         <v>4600</v>
       </c>
-      <c r="H65" s="7">
+      <c r="H66" s="7">
         <v>3400</v>
       </c>
-      <c r="I65" s="7">
+      <c r="I66" s="7">
         <v>2700</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J66" s="7">
         <v>2200</v>
       </c>
-      <c r="K65" s="7">
+      <c r="K66" s="7">
         <v>4200</v>
       </c>
-      <c r="L65" s="7">
+      <c r="L66" s="7">
         <v>2000</v>
       </c>
-      <c r="M65" s="7">
+      <c r="M66" s="7">
         <v>3000</v>
       </c>
-      <c r="N65" s="7">
+      <c r="N66" s="7">
         <v>1000</v>
       </c>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7">
+      <c r="O66" s="7"/>
+      <c r="P66" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="22">
+    <row r="67" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="22">
         <v>2019</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C67" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D66" s="8">
-        <f t="shared" si="2"/>
+      <c r="D67" s="8">
+        <f t="shared" si="3"/>
         <v>78300</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E67" s="4">
         <v>46000</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F67" s="4">
         <v>12400</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G67" s="4">
         <v>4300</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H67" s="4">
         <v>3000</v>
       </c>
-      <c r="I66" s="4">
+      <c r="I67" s="4">
         <v>2200</v>
       </c>
-      <c r="J66" s="4">
+      <c r="J67" s="4">
         <v>1800</v>
       </c>
-      <c r="K66" s="4">
+      <c r="K67" s="4">
         <v>3600</v>
       </c>
-      <c r="L66" s="4">
+      <c r="L67" s="4">
         <v>1700</v>
       </c>
-      <c r="M66" s="4">
+      <c r="M67" s="4">
         <v>2500</v>
       </c>
-      <c r="N66" s="4">
+      <c r="N67" s="4">
         <v>800</v>
       </c>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4">
+      <c r="O67" s="4"/>
+      <c r="P67" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="20">
+    <row r="68" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="20">
         <v>2019</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C68" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="9">
-        <f t="shared" si="2"/>
+      <c r="D68" s="9">
+        <f t="shared" si="3"/>
         <v>80500</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E68" s="7">
         <v>46500</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F68" s="7">
         <v>12500</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G68" s="7">
         <v>4300</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H68" s="7">
         <v>3400</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I68" s="7">
         <v>2500</v>
       </c>
-      <c r="J67" s="7">
+      <c r="J68" s="7">
         <v>2100</v>
       </c>
-      <c r="K67" s="7">
+      <c r="K68" s="7">
         <v>4100</v>
       </c>
-      <c r="L67" s="7">
+      <c r="L68" s="7">
         <v>1800</v>
       </c>
-      <c r="M67" s="7">
+      <c r="M68" s="7">
         <v>2400</v>
       </c>
-      <c r="N67" s="7">
+      <c r="N68" s="7">
         <v>900</v>
       </c>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7">
+      <c r="O68" s="7"/>
+      <c r="P68" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="22">
+    <row r="69" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="22">
         <v>2019</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="C69" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="8">
-        <f t="shared" si="2"/>
+      <c r="D69" s="8">
+        <f t="shared" si="3"/>
         <v>81500</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E69" s="4">
         <v>46600</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F69" s="4">
         <v>13600</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G69" s="4">
         <v>4100</v>
       </c>
-      <c r="H68" s="4">
+      <c r="H69" s="4">
         <v>3000</v>
       </c>
-      <c r="I68" s="4">
+      <c r="I69" s="4">
         <v>2500</v>
       </c>
-      <c r="J68" s="4">
+      <c r="J69" s="4">
         <v>2000</v>
       </c>
-      <c r="K68" s="4">
+      <c r="K69" s="4">
         <v>4200</v>
       </c>
-      <c r="L68" s="4">
+      <c r="L69" s="4">
         <v>2000</v>
       </c>
-      <c r="M68" s="4">
+      <c r="M69" s="4">
         <v>2600</v>
       </c>
-      <c r="N68" s="4">
+      <c r="N69" s="4">
         <v>900</v>
       </c>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4">
+      <c r="O69" s="4"/>
+      <c r="P69" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="20">
+    <row r="70" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="20">
         <v>2019</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C70" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D69" s="9">
-        <f t="shared" si="2"/>
+      <c r="D70" s="9">
+        <f t="shared" si="3"/>
         <v>78600</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E70" s="7">
         <v>44200</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F70" s="7">
         <v>13300</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G70" s="7">
         <v>4300</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H70" s="7">
         <v>2900</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I70" s="7">
         <v>2400</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J70" s="7">
         <v>2000</v>
       </c>
-      <c r="K69" s="7">
+      <c r="K70" s="7">
         <v>4300</v>
       </c>
-      <c r="L69" s="7">
+      <c r="L70" s="7">
         <v>2000</v>
       </c>
-      <c r="M69" s="7">
+      <c r="M70" s="7">
         <v>2400</v>
       </c>
-      <c r="N69" s="7">
+      <c r="N70" s="7">
         <v>800</v>
       </c>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7">
+      <c r="O70" s="7"/>
+      <c r="P70" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="22">
+    <row r="71" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="22">
         <v>2019</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="C71" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D70" s="8">
-        <f t="shared" si="2"/>
+      <c r="D71" s="8">
+        <f t="shared" si="3"/>
         <v>81100</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E71" s="4">
         <v>45800</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F71" s="4">
         <v>13000</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G71" s="4">
         <v>4600</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H71" s="4">
         <v>3000</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I71" s="4">
         <v>2600</v>
       </c>
-      <c r="J70" s="4">
+      <c r="J71" s="4">
         <v>2100</v>
       </c>
-      <c r="K70" s="4">
+      <c r="K71" s="4">
         <v>4600</v>
       </c>
-      <c r="L70" s="4">
+      <c r="L71" s="4">
         <v>1900</v>
       </c>
-      <c r="M70" s="4">
+      <c r="M71" s="4">
         <v>2600</v>
       </c>
-      <c r="N70" s="4">
+      <c r="N71" s="4">
         <v>900</v>
       </c>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4">
+      <c r="O71" s="4"/>
+      <c r="P71" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="20">
+    <row r="72" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="20">
         <v>2019</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C72" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D71" s="9">
-        <f t="shared" si="2"/>
+      <c r="D72" s="9">
+        <f t="shared" si="3"/>
         <v>79300</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E72" s="7">
         <v>45200</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F72" s="7">
         <v>12800</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G72" s="7">
         <v>4600</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H72" s="7">
         <v>2500</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I72" s="7">
         <v>2600</v>
       </c>
-      <c r="J71" s="7">
+      <c r="J72" s="7">
         <v>2100</v>
       </c>
-      <c r="K71" s="7">
+      <c r="K72" s="7">
         <v>4400</v>
       </c>
-      <c r="L71" s="7">
+      <c r="L72" s="7">
         <v>1800</v>
       </c>
-      <c r="M71" s="7">
+      <c r="M72" s="7">
         <v>2500</v>
       </c>
-      <c r="N71" s="7">
+      <c r="N72" s="7">
         <v>800</v>
       </c>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7">
+      <c r="O72" s="7"/>
+      <c r="P72" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="22">
+    <row r="73" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="22">
         <v>2019</v>
       </c>
-      <c r="C72" s="23" t="s">
+      <c r="C73" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="8">
-        <f t="shared" si="2"/>
-        <v>86500</v>
-      </c>
-      <c r="E72" s="4">
-        <v>49900</v>
-      </c>
-      <c r="F72" s="4">
-        <v>14500</v>
-      </c>
-      <c r="G72" s="4">
-        <v>4300</v>
-      </c>
-      <c r="H72" s="4">
-        <v>3000</v>
-      </c>
-      <c r="I72" s="4">
-        <v>2700</v>
-      </c>
-      <c r="J72" s="4">
-        <v>2000</v>
-      </c>
-      <c r="K72" s="4">
-        <v>5000</v>
-      </c>
-      <c r="L72" s="4">
-        <v>1700</v>
-      </c>
-      <c r="M72" s="4">
-        <v>2500</v>
-      </c>
-      <c r="N72" s="4">
-        <v>900</v>
-      </c>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="20">
-        <v>2019</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D73" s="9">
-        <f t="shared" si="2"/>
-        <v>73300</v>
-      </c>
-      <c r="E73" s="7">
-        <v>41800</v>
-      </c>
-      <c r="F73" s="7">
-        <v>11500</v>
-      </c>
-      <c r="G73" s="7">
-        <v>4200</v>
-      </c>
-      <c r="H73" s="7">
-        <v>2600</v>
-      </c>
-      <c r="I73" s="7">
-        <v>2600</v>
-      </c>
-      <c r="J73" s="7">
-        <v>1900</v>
-      </c>
-      <c r="K73" s="7">
-        <v>4100</v>
-      </c>
-      <c r="L73" s="7">
-        <v>1600</v>
-      </c>
-      <c r="M73" s="7">
-        <v>2300</v>
-      </c>
-      <c r="N73" s="7">
-        <v>700</v>
-      </c>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="24">
-        <v>2019</v>
-      </c>
-      <c r="C74" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D74" s="10">
-        <f t="shared" ref="D74:D86" si="3">SUM(E74:P74)</f>
-        <v>79200</v>
-      </c>
-      <c r="E74" s="6">
-        <v>43500</v>
-      </c>
-      <c r="F74" s="6">
-        <v>13500</v>
-      </c>
-      <c r="G74" s="6">
-        <v>4800</v>
-      </c>
-      <c r="H74" s="6">
-        <v>2900</v>
-      </c>
-      <c r="I74" s="6">
-        <v>2600</v>
-      </c>
-      <c r="J74" s="6">
-        <v>1900</v>
-      </c>
-      <c r="K74" s="6">
-        <v>4500</v>
-      </c>
-      <c r="L74" s="6">
-        <v>2100</v>
-      </c>
-      <c r="M74" s="6">
-        <v>2500</v>
-      </c>
-      <c r="N74" s="6">
-        <v>900</v>
-      </c>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="21">
-        <v>2018</v>
-      </c>
-      <c r="C75" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D75" s="9">
-        <f t="shared" si="3"/>
-        <v>85600</v>
-      </c>
-      <c r="E75" s="7">
-        <v>48800</v>
-      </c>
-      <c r="F75" s="7">
-        <v>14700</v>
-      </c>
-      <c r="G75" s="7">
-        <v>4500</v>
-      </c>
-      <c r="H75" s="7">
-        <v>3000</v>
-      </c>
-      <c r="I75" s="7">
-        <v>3300</v>
-      </c>
-      <c r="J75" s="7">
-        <v>1900</v>
-      </c>
-      <c r="K75" s="7">
-        <v>4000</v>
-      </c>
-      <c r="L75" s="7">
-        <v>1900</v>
-      </c>
-      <c r="M75" s="7">
-        <v>2600</v>
-      </c>
-      <c r="N75" s="7">
-        <v>900</v>
-      </c>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="23">
-        <v>2018</v>
-      </c>
-      <c r="C76" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D76" s="8">
-        <f t="shared" si="3"/>
-        <v>91600</v>
-      </c>
-      <c r="E76" s="4">
-        <v>52500</v>
-      </c>
-      <c r="F76" s="4">
-        <v>14700</v>
-      </c>
-      <c r="G76" s="4">
-        <v>5200</v>
-      </c>
-      <c r="H76" s="4">
-        <v>3400</v>
-      </c>
-      <c r="I76" s="4">
-        <v>3300</v>
-      </c>
-      <c r="J76" s="4">
-        <v>2300</v>
-      </c>
-      <c r="K76" s="4">
-        <v>4700</v>
-      </c>
-      <c r="L76" s="4">
-        <v>1800</v>
-      </c>
-      <c r="M76" s="4">
-        <v>2800</v>
-      </c>
-      <c r="N76" s="4">
-        <v>900</v>
-      </c>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="21">
-        <v>2018</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D77" s="9">
-        <f t="shared" si="3"/>
-        <v>94100</v>
-      </c>
-      <c r="E77" s="7">
-        <v>53200</v>
-      </c>
-      <c r="F77" s="7">
-        <v>15500</v>
-      </c>
-      <c r="G77" s="7">
-        <v>5800</v>
-      </c>
-      <c r="H77" s="7">
-        <v>3400</v>
-      </c>
-      <c r="I77" s="7">
-        <v>2800</v>
-      </c>
-      <c r="J77" s="7">
-        <v>2200</v>
-      </c>
-      <c r="K77" s="7">
-        <v>5600</v>
-      </c>
-      <c r="L77" s="7">
-        <v>1800</v>
-      </c>
-      <c r="M77" s="7">
-        <v>2900</v>
-      </c>
-      <c r="N77" s="7">
-        <v>900</v>
-      </c>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="23">
-        <v>2018</v>
-      </c>
-      <c r="C78" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D78" s="8">
-        <f t="shared" si="3"/>
-        <v>81400</v>
-      </c>
-      <c r="E78" s="4">
-        <v>46600</v>
-      </c>
-      <c r="F78" s="4">
-        <v>13200</v>
-      </c>
-      <c r="G78" s="4">
-        <v>4800</v>
-      </c>
-      <c r="H78" s="4">
-        <v>2900</v>
-      </c>
-      <c r="I78" s="4">
-        <v>2300</v>
-      </c>
-      <c r="J78" s="4">
-        <v>1900</v>
-      </c>
-      <c r="K78" s="4">
-        <v>5000</v>
-      </c>
-      <c r="L78" s="4">
-        <v>1500</v>
-      </c>
-      <c r="M78" s="4">
-        <v>2400</v>
-      </c>
-      <c r="N78" s="4">
-        <v>800</v>
-      </c>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="21">
-        <v>2018</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D79" s="9">
-        <f t="shared" si="3"/>
-        <v>84400</v>
-      </c>
-      <c r="E79" s="7">
-        <v>48300</v>
-      </c>
-      <c r="F79" s="7">
-        <v>12600</v>
-      </c>
-      <c r="G79" s="7">
-        <v>5100</v>
-      </c>
-      <c r="H79" s="7">
-        <v>3500</v>
-      </c>
-      <c r="I79" s="7">
-        <v>2400</v>
-      </c>
-      <c r="J79" s="7">
-        <v>2100</v>
-      </c>
-      <c r="K79" s="7">
-        <v>5700</v>
-      </c>
-      <c r="L79" s="7">
-        <v>1600</v>
-      </c>
-      <c r="M79" s="7">
-        <v>2300</v>
-      </c>
-      <c r="N79" s="7">
-        <v>800</v>
-      </c>
-      <c r="O79" s="7"/>
-      <c r="P79" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="23">
-        <v>2018</v>
-      </c>
-      <c r="C80" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D80" s="8">
-        <f t="shared" si="3"/>
-        <v>82200</v>
-      </c>
-      <c r="E80" s="4">
-        <v>49400</v>
-      </c>
-      <c r="F80" s="4">
-        <v>12400</v>
-      </c>
-      <c r="G80" s="4">
-        <v>4200</v>
-      </c>
-      <c r="H80" s="4">
-        <v>3100</v>
-      </c>
-      <c r="I80" s="4">
-        <v>2500</v>
-      </c>
-      <c r="J80" s="4">
-        <v>1900</v>
-      </c>
-      <c r="K80" s="4">
-        <v>4100</v>
-      </c>
-      <c r="L80" s="4">
-        <v>1700</v>
-      </c>
-      <c r="M80" s="4">
-        <v>2100</v>
-      </c>
-      <c r="N80" s="4">
-        <v>800</v>
-      </c>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="21">
-        <v>2018</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D81" s="9">
+      <c r="D73" s="8">
         <f t="shared" si="3"/>
         <v>86500</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E73" s="4">
+        <v>49900</v>
+      </c>
+      <c r="F73" s="4">
+        <v>14500</v>
+      </c>
+      <c r="G73" s="4">
+        <v>4300</v>
+      </c>
+      <c r="H73" s="4">
+        <v>3000</v>
+      </c>
+      <c r="I73" s="4">
+        <v>2700</v>
+      </c>
+      <c r="J73" s="4">
+        <v>2000</v>
+      </c>
+      <c r="K73" s="4">
+        <v>5000</v>
+      </c>
+      <c r="L73" s="4">
+        <v>1700</v>
+      </c>
+      <c r="M73" s="4">
+        <v>2500</v>
+      </c>
+      <c r="N73" s="4">
+        <v>900</v>
+      </c>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="20">
+        <v>2019</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" s="9">
+        <f t="shared" si="3"/>
+        <v>73300</v>
+      </c>
+      <c r="E74" s="7">
+        <v>41800</v>
+      </c>
+      <c r="F74" s="7">
+        <v>11500</v>
+      </c>
+      <c r="G74" s="7">
+        <v>4200</v>
+      </c>
+      <c r="H74" s="7">
+        <v>2600</v>
+      </c>
+      <c r="I74" s="7">
+        <v>2600</v>
+      </c>
+      <c r="J74" s="7">
+        <v>1900</v>
+      </c>
+      <c r="K74" s="7">
+        <v>4100</v>
+      </c>
+      <c r="L74" s="7">
+        <v>1600</v>
+      </c>
+      <c r="M74" s="7">
+        <v>2300</v>
+      </c>
+      <c r="N74" s="7">
+        <v>700</v>
+      </c>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="24">
+        <v>2019</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="10">
+        <f t="shared" ref="D75:D87" si="4">SUM(E75:P75)</f>
+        <v>79200</v>
+      </c>
+      <c r="E75" s="6">
+        <v>43500</v>
+      </c>
+      <c r="F75" s="6">
+        <v>13500</v>
+      </c>
+      <c r="G75" s="6">
+        <v>4800</v>
+      </c>
+      <c r="H75" s="6">
+        <v>2900</v>
+      </c>
+      <c r="I75" s="6">
+        <v>2600</v>
+      </c>
+      <c r="J75" s="6">
+        <v>1900</v>
+      </c>
+      <c r="K75" s="6">
+        <v>4500</v>
+      </c>
+      <c r="L75" s="6">
+        <v>2100</v>
+      </c>
+      <c r="M75" s="6">
+        <v>2500</v>
+      </c>
+      <c r="N75" s="6">
+        <v>900</v>
+      </c>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="21">
+        <v>2018</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="9">
+        <f t="shared" si="4"/>
+        <v>85600</v>
+      </c>
+      <c r="E76" s="7">
+        <v>48800</v>
+      </c>
+      <c r="F76" s="7">
+        <v>14700</v>
+      </c>
+      <c r="G76" s="7">
+        <v>4500</v>
+      </c>
+      <c r="H76" s="7">
+        <v>3000</v>
+      </c>
+      <c r="I76" s="7">
+        <v>3300</v>
+      </c>
+      <c r="J76" s="7">
+        <v>1900</v>
+      </c>
+      <c r="K76" s="7">
+        <v>4000</v>
+      </c>
+      <c r="L76" s="7">
+        <v>1900</v>
+      </c>
+      <c r="M76" s="7">
+        <v>2600</v>
+      </c>
+      <c r="N76" s="7">
+        <v>900</v>
+      </c>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="23">
+        <v>2018</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="8">
+        <f t="shared" si="4"/>
+        <v>91600</v>
+      </c>
+      <c r="E77" s="4">
+        <v>52500</v>
+      </c>
+      <c r="F77" s="4">
+        <v>14700</v>
+      </c>
+      <c r="G77" s="4">
+        <v>5200</v>
+      </c>
+      <c r="H77" s="4">
+        <v>3400</v>
+      </c>
+      <c r="I77" s="4">
+        <v>3300</v>
+      </c>
+      <c r="J77" s="4">
+        <v>2300</v>
+      </c>
+      <c r="K77" s="4">
+        <v>4700</v>
+      </c>
+      <c r="L77" s="4">
+        <v>1800</v>
+      </c>
+      <c r="M77" s="4">
+        <v>2800</v>
+      </c>
+      <c r="N77" s="4">
+        <v>900</v>
+      </c>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="21">
+        <v>2018</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" s="9">
+        <f t="shared" si="4"/>
+        <v>94100</v>
+      </c>
+      <c r="E78" s="7">
+        <v>53200</v>
+      </c>
+      <c r="F78" s="7">
+        <v>15500</v>
+      </c>
+      <c r="G78" s="7">
+        <v>5800</v>
+      </c>
+      <c r="H78" s="7">
+        <v>3400</v>
+      </c>
+      <c r="I78" s="7">
+        <v>2800</v>
+      </c>
+      <c r="J78" s="7">
+        <v>2200</v>
+      </c>
+      <c r="K78" s="7">
+        <v>5600</v>
+      </c>
+      <c r="L78" s="7">
+        <v>1800</v>
+      </c>
+      <c r="M78" s="7">
+        <v>2900</v>
+      </c>
+      <c r="N78" s="7">
+        <v>900</v>
+      </c>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="23">
+        <v>2018</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D79" s="8">
+        <f t="shared" si="4"/>
+        <v>81400</v>
+      </c>
+      <c r="E79" s="4">
+        <v>46600</v>
+      </c>
+      <c r="F79" s="4">
+        <v>13200</v>
+      </c>
+      <c r="G79" s="4">
+        <v>4800</v>
+      </c>
+      <c r="H79" s="4">
+        <v>2900</v>
+      </c>
+      <c r="I79" s="4">
+        <v>2300</v>
+      </c>
+      <c r="J79" s="4">
+        <v>1900</v>
+      </c>
+      <c r="K79" s="4">
+        <v>5000</v>
+      </c>
+      <c r="L79" s="4">
+        <v>1500</v>
+      </c>
+      <c r="M79" s="4">
+        <v>2400</v>
+      </c>
+      <c r="N79" s="4">
+        <v>800</v>
+      </c>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="21">
+        <v>2018</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="9">
+        <f t="shared" si="4"/>
+        <v>84400</v>
+      </c>
+      <c r="E80" s="7">
+        <v>48300</v>
+      </c>
+      <c r="F80" s="7">
+        <v>12600</v>
+      </c>
+      <c r="G80" s="7">
+        <v>5100</v>
+      </c>
+      <c r="H80" s="7">
+        <v>3500</v>
+      </c>
+      <c r="I80" s="7">
+        <v>2400</v>
+      </c>
+      <c r="J80" s="7">
+        <v>2100</v>
+      </c>
+      <c r="K80" s="7">
+        <v>5700</v>
+      </c>
+      <c r="L80" s="7">
+        <v>1600</v>
+      </c>
+      <c r="M80" s="7">
+        <v>2300</v>
+      </c>
+      <c r="N80" s="7">
+        <v>800</v>
+      </c>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="23">
+        <v>2018</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="8">
+        <f t="shared" si="4"/>
+        <v>82200</v>
+      </c>
+      <c r="E81" s="4">
+        <v>49400</v>
+      </c>
+      <c r="F81" s="4">
+        <v>12400</v>
+      </c>
+      <c r="G81" s="4">
+        <v>4200</v>
+      </c>
+      <c r="H81" s="4">
+        <v>3100</v>
+      </c>
+      <c r="I81" s="4">
+        <v>2500</v>
+      </c>
+      <c r="J81" s="4">
+        <v>1900</v>
+      </c>
+      <c r="K81" s="4">
+        <v>4100</v>
+      </c>
+      <c r="L81" s="4">
+        <v>1700</v>
+      </c>
+      <c r="M81" s="4">
+        <v>2100</v>
+      </c>
+      <c r="N81" s="4">
+        <v>800</v>
+      </c>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="21">
+        <v>2018</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="9">
+        <f t="shared" si="4"/>
+        <v>86500</v>
+      </c>
+      <c r="E82" s="7">
         <v>51000</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F82" s="7">
         <v>13400</v>
       </c>
-      <c r="G81" s="7">
+      <c r="G82" s="7">
         <v>4500</v>
       </c>
-      <c r="H81" s="7">
+      <c r="H82" s="7">
         <v>3100</v>
       </c>
-      <c r="I81" s="7">
+      <c r="I82" s="7">
         <v>2600</v>
       </c>
-      <c r="J81" s="7">
+      <c r="J82" s="7">
         <v>2000</v>
       </c>
-      <c r="K81" s="7">
+      <c r="K82" s="7">
         <v>5100</v>
       </c>
-      <c r="L81" s="7">
+      <c r="L82" s="7">
         <v>1800</v>
       </c>
-      <c r="M81" s="7">
+      <c r="M82" s="7">
         <v>2100</v>
       </c>
-      <c r="N81" s="7">
+      <c r="N82" s="7">
         <v>900</v>
       </c>
-      <c r="O81" s="7"/>
-      <c r="P81" s="7">
+      <c r="O82" s="7"/>
+      <c r="P82" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="23">
+    <row r="83" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="23">
         <v>2018</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C83" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D82" s="8">
-        <f t="shared" si="3"/>
+      <c r="D83" s="8">
+        <f t="shared" si="4"/>
         <v>86200</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E83" s="4">
         <v>49700</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F83" s="4">
         <v>13600</v>
       </c>
-      <c r="G82" s="4">
+      <c r="G83" s="4">
         <v>5000</v>
       </c>
-      <c r="H82" s="4">
+      <c r="H83" s="4">
         <v>3200</v>
       </c>
-      <c r="I82" s="4">
+      <c r="I83" s="4">
         <v>2700</v>
       </c>
-      <c r="J82" s="4">
+      <c r="J83" s="4">
         <v>2300</v>
       </c>
-      <c r="K82" s="4">
+      <c r="K83" s="4">
         <v>4700</v>
       </c>
-      <c r="L82" s="4">
+      <c r="L83" s="4">
         <v>1900</v>
       </c>
-      <c r="M82" s="4">
+      <c r="M83" s="4">
         <v>2200</v>
       </c>
-      <c r="N82" s="4">
+      <c r="N83" s="4">
         <v>900</v>
       </c>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4">
+      <c r="O83" s="4"/>
+      <c r="P83" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="21">
+    <row r="84" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="21">
         <v>2018</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C84" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D83" s="9">
-        <f t="shared" si="3"/>
+      <c r="D84" s="9">
+        <f t="shared" si="4"/>
         <v>84500</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E84" s="7">
         <v>49400</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F84" s="7">
         <v>13900</v>
       </c>
-      <c r="G83" s="7">
+      <c r="G84" s="7">
         <v>4500</v>
       </c>
-      <c r="H83" s="7">
+      <c r="H84" s="7">
         <v>2800</v>
       </c>
-      <c r="I83" s="7">
+      <c r="I84" s="7">
         <v>2800</v>
       </c>
-      <c r="J83" s="7">
+      <c r="J84" s="7">
         <v>1900</v>
       </c>
-      <c r="K83" s="7">
+      <c r="K84" s="7">
         <v>4600</v>
       </c>
-      <c r="L83" s="7">
+      <c r="L84" s="7">
         <v>1700</v>
       </c>
-      <c r="M83" s="7">
+      <c r="M84" s="7">
         <v>2000</v>
       </c>
-      <c r="N83" s="7">
+      <c r="N84" s="7">
         <v>900</v>
       </c>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7">
+      <c r="O84" s="7"/>
+      <c r="P84" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="23">
+    <row r="85" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="23">
         <v>2018</v>
       </c>
-      <c r="C84" s="23" t="s">
+      <c r="C85" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D84" s="8">
-        <f t="shared" si="3"/>
+      <c r="D85" s="8">
+        <f t="shared" si="4"/>
         <v>81600</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E85" s="4">
         <v>46000</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F85" s="4">
         <v>16000</v>
       </c>
-      <c r="G84" s="4">
+      <c r="G85" s="4">
         <v>4400</v>
       </c>
-      <c r="H84" s="4">
+      <c r="H85" s="4">
         <v>2900</v>
       </c>
-      <c r="I84" s="4">
+      <c r="I85" s="4">
         <v>2800</v>
       </c>
-      <c r="J84" s="4">
+      <c r="J85" s="4">
         <v>1800</v>
       </c>
-      <c r="K84" s="4">
+      <c r="K85" s="4">
         <v>3500</v>
       </c>
-      <c r="L84" s="4">
+      <c r="L85" s="4">
         <v>1400</v>
       </c>
-      <c r="M84" s="4">
+      <c r="M85" s="4">
         <v>2000</v>
       </c>
-      <c r="N84" s="4">
+      <c r="N85" s="4">
         <v>800</v>
       </c>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4">
+      <c r="O85" s="4"/>
+      <c r="P85" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="21">
+    <row r="86" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="21">
         <v>2018</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C86" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D85" s="9">
-        <f t="shared" si="3"/>
+      <c r="D86" s="9">
+        <f t="shared" si="4"/>
         <v>74900</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E86" s="7">
         <v>44100</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F86" s="7">
         <v>12100</v>
       </c>
-      <c r="G85" s="7">
+      <c r="G86" s="7">
         <v>4100</v>
       </c>
-      <c r="H85" s="7">
+      <c r="H86" s="7">
         <v>2700</v>
       </c>
-      <c r="I85" s="7">
+      <c r="I86" s="7">
         <v>2700</v>
       </c>
-      <c r="J85" s="7">
+      <c r="J86" s="7">
         <v>2100</v>
       </c>
-      <c r="K85" s="7">
+      <c r="K86" s="7">
         <v>3000</v>
       </c>
-      <c r="L85" s="7">
+      <c r="L86" s="7">
         <v>1500</v>
       </c>
-      <c r="M85" s="7">
+      <c r="M86" s="7">
         <v>1900</v>
       </c>
-      <c r="N85" s="7">
+      <c r="N86" s="7">
         <v>700</v>
       </c>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7">
+      <c r="O86" s="7"/>
+      <c r="P86" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:16" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="23">
+    <row r="87" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="23">
         <v>2018</v>
       </c>
-      <c r="C86" s="23" t="s">
+      <c r="C87" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D86" s="8">
-        <f t="shared" si="3"/>
+      <c r="D87" s="8">
+        <f t="shared" si="4"/>
         <v>74300</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E87" s="4">
         <v>42800</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F87" s="4">
         <v>12000</v>
       </c>
-      <c r="G86" s="4">
+      <c r="G87" s="4">
         <v>4100</v>
       </c>
-      <c r="H86" s="4">
+      <c r="H87" s="4">
         <v>2500</v>
       </c>
-      <c r="I86" s="4">
+      <c r="I87" s="4">
         <v>2600</v>
       </c>
-      <c r="J86" s="4">
+      <c r="J87" s="4">
         <v>2300</v>
       </c>
-      <c r="K86" s="4">
+      <c r="K87" s="4">
         <v>3300</v>
       </c>
-      <c r="L86" s="4">
+      <c r="L87" s="4">
         <v>2000</v>
       </c>
-      <c r="M86" s="4">
+      <c r="M87" s="4">
         <v>1900</v>
       </c>
-      <c r="N86" s="4">
+      <c r="N87" s="4">
         <v>800</v>
       </c>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4">
+      <c r="O87" s="4"/>
+      <c r="P87" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B87" s="16" t="s">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B88" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C87" s="16"/>
-    </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B88" s="16" t="s">
+      <c r="C88" s="16"/>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B89" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="18"/>
-      <c r="P88" s="3"/>
-    </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B89" s="18" t="s">
+      <c r="C89" s="18"/>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B90" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B90" t="s">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="D96" s="16"/>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/P_aeropuertos_carga.xlsx
+++ b/P_aeropuertos_carga.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68612E3-7869-417C-A031-805AB59ECE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F3F3DD-9EF6-4B13-B368-7B2D2DEF8A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_37" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="34">
   <si>
     <t>Total</t>
   </si>
@@ -137,7 +137,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Octubre 2024.</t>
+    <t>Actualización: Noviembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -156,19 +156,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Geomanist"/>
       <family val="2"/>
@@ -182,18 +169,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="minor"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -308,74 +311,25 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -383,43 +337,264 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
@@ -435,23 +610,56 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Geomanist"/>
-        <scheme val="minor"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -475,42 +683,6 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Geomanist"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -525,33 +697,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:P87" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
-  <autoFilter ref="B5:P87" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:P88" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="17" tableBorderDxfId="18">
+  <autoFilter ref="B5:P88" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
-        <filter val="2023"/>
         <filter val="2024"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{8DA3434B-131A-4F9D-BB48-DA35B12E8DD9}" name="Mes" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{86077915-C170-40DA-9DB4-19E81910B485}" name="Total" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{8DA3434B-131A-4F9D-BB48-DA35B12E8DD9}" name="Mes" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{86077915-C170-40DA-9DB4-19E81910B485}" name="Total" dataDxfId="14">
       <calculatedColumnFormula>SUM(E6:P6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="CDMX." dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Guadalajara" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Monterrey" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{A869730C-1719-4A70-8838-10376967FD05}" name="Querétaro" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{523CBB34-1DEE-445B-8474-FD8E64117197}" name="Toluca" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{631795EF-E72C-4257-9376-F3F950D2CD24}" name="Cancún" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{7825E645-762A-41A2-B4FE-F68035B408F7}" name="San Luis Potosí" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{ABE62262-6A70-4763-8581-1FC262023BDA}" name="Tijuana" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{79063C30-2596-43D4-82AD-DC7007BA3E47}" name="Mérida" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{CDE1B9AF-E706-4B29-B603-3DCD26E54911}" name="Hermosillo" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{7769A62F-33B2-412B-9C53-D3B348E11FE5}" name="Santa Lucia" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{3A39F25A-01C8-4C33-9932-0510E508260D}" name="       Otros" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="CDMX." dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Guadalajara" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Monterrey" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{A869730C-1719-4A70-8838-10376967FD05}" name="Querétaro" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{523CBB34-1DEE-445B-8474-FD8E64117197}" name="Toluca" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{631795EF-E72C-4257-9376-F3F950D2CD24}" name="Cancún" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{7825E645-762A-41A2-B4FE-F68035B408F7}" name="San Luis Potosí" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{ABE62262-6A70-4763-8581-1FC262023BDA}" name="Tijuana" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{79063C30-2596-43D4-82AD-DC7007BA3E47}" name="Mérida" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{CDE1B9AF-E706-4B29-B603-3DCD26E54911}" name="Hermosillo" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{7769A62F-33B2-412B-9C53-D3B348E11FE5}" name="Santa Lucia" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{3A39F25A-01C8-4C33-9932-0510E508260D}" name="       Otros" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -780,3956 +951,4005 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:P97"/>
+  <dimension ref="B2:P98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:16" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="28" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="20">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B6" s="12">
         <v>2024</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="14">
+        <f>SUM(E6:P6)</f>
+        <v>108489.79521000001</v>
+      </c>
+      <c r="E6" s="15">
+        <v>20513.3</v>
+      </c>
+      <c r="F6" s="15">
+        <v>14292.029000000002</v>
+      </c>
+      <c r="G6" s="15">
+        <v>6952.0010000000002</v>
+      </c>
+      <c r="H6" s="15">
+        <v>7027.32</v>
+      </c>
+      <c r="I6" s="15">
+        <v>3190.241</v>
+      </c>
+      <c r="J6" s="15">
+        <v>3783.056</v>
+      </c>
+      <c r="K6" s="15">
+        <v>2546.4230000000002</v>
+      </c>
+      <c r="L6" s="15">
+        <v>3625.6490000000003</v>
+      </c>
+      <c r="M6" s="15">
+        <v>2301.3359999999998</v>
+      </c>
+      <c r="N6" s="15">
+        <v>1566.8050000000001</v>
+      </c>
+      <c r="O6" s="15">
+        <v>37606.786999999997</v>
+      </c>
+      <c r="P6" s="15">
+        <v>5084.8482100000183</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B7" s="16">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="9">
-        <f t="shared" ref="D6" si="0">SUM(E6:P6)</f>
+      <c r="D7" s="18">
+        <f t="shared" ref="D7" si="0">SUM(E7:P7)</f>
         <v>112101.83326999999</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E7" s="19">
         <v>21954.2</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F7" s="19">
         <v>15035.019</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G7" s="19">
         <v>7434.2699999999995</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H7" s="19">
         <v>7376.1170000000002</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I7" s="19">
         <v>3603.3429999999998</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J7" s="19">
         <v>2668.8590000000004</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K7" s="19">
         <v>2486.047</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L7" s="19">
         <v>3482.5789999999997</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M7" s="19">
         <v>2059.6219999999998</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N7" s="19">
         <v>1836.462</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O7" s="19">
         <v>38827.07</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P7" s="19">
         <v>5338.2452699999949</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="22">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B8" s="12">
         <v>2024</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="8">
-        <f>SUM(E7:P7)</f>
+      <c r="D8" s="14">
+        <f>SUM(E8:P8)</f>
         <v>102256.34403999997</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E8" s="15">
         <v>19983</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F8" s="15">
         <v>15121.885</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G8" s="15">
         <v>6653.17</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H8" s="15">
         <v>6096.0540000000001</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I8" s="15">
         <v>3038.8139999999999</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J8" s="15">
         <v>2226.7169999999996</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K8" s="15">
         <v>2083.5909999999999</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L8" s="15">
         <v>2940.2349999999997</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M8" s="15">
         <v>2121.4749999999999</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N8" s="15">
         <v>1691.9869999999999</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O8" s="15">
         <v>35995.97</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P8" s="15">
         <v>4303.4460399999825</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="20">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B9" s="16">
         <v>2024</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="9">
-        <f>SUM(E8:P8)</f>
+      <c r="D9" s="18">
+        <f>SUM(E9:P9)</f>
         <v>108823.69917000002</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="19">
         <v>20229.3</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="19">
         <v>15421.421999999999</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G9" s="19">
         <v>6900.85</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H9" s="19">
         <v>6494.0969999999998</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I9" s="19">
         <v>3427.1890000000003</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J9" s="19">
         <v>2725.0420000000004</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K9" s="19">
         <v>2321.3049999999998</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L9" s="19">
         <v>3155.9950000000003</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M9" s="19">
         <v>2335.154</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N9" s="19">
         <v>1623.2050000000002</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O9" s="19">
         <v>39174.343999999997</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P9" s="19">
         <v>5015.7961700000369</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="22">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B10" s="12">
         <v>2024</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="8">
-        <f t="shared" ref="D9:D11" si="1">SUM(E9:P9)</f>
+      <c r="D10" s="14">
+        <f t="shared" ref="D10:D12" si="1">SUM(E10:P10)</f>
         <v>107882.74128000005</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="15">
         <v>19500.699999999997</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F10" s="15">
         <v>15606.789000000001</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G10" s="15">
         <v>7406.7370000000001</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H10" s="15">
         <v>6133.4809999999998</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I10" s="15">
         <v>3408.8180000000002</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J10" s="15">
         <v>2590.2110000000002</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K10" s="15">
         <v>2370.0729999999999</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L10" s="15">
         <v>3036.741</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M10" s="15">
         <v>2203.3470000000002</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N10" s="15">
         <v>1958.9659999999999</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O10" s="15">
         <v>38531.585999999996</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P10" s="15">
         <v>5135.2922800000515</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="20">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B11" s="16">
         <v>2024</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D11" s="18">
         <f t="shared" si="1"/>
-        <v>107278.03736</v>
-      </c>
-      <c r="E10" s="7">
+        <v>106952.98336000003</v>
+      </c>
+      <c r="E11" s="19">
         <v>19499.3</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F11" s="19">
         <v>14724.419</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G11" s="19">
         <v>7318.848</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H11" s="19">
         <v>6428.241</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I11" s="19">
         <v>3309.4189999999999</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J11" s="19">
         <v>2399.3510000000001</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K11" s="19">
         <v>2148.4209999999998</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L11" s="19">
         <v>3308.527</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M11" s="19">
         <v>2070.7939999999999</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N11" s="19">
         <v>1689.7920000000001</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O11" s="19">
         <v>39593.667999999998</v>
       </c>
-      <c r="P10" s="7">
-        <v>4787.2573600000051</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="22">
+      <c r="P11" s="19">
+        <v>4462.203360000025</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B12" s="12">
         <v>2024</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D12" s="14">
         <f t="shared" si="1"/>
-        <v>110767.87444999999</v>
-      </c>
-      <c r="E11" s="4">
+        <v>110411.10745000001</v>
+      </c>
+      <c r="E12" s="15">
         <v>20062</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F12" s="15">
         <v>15321.734</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G12" s="15">
         <v>6842.7150000000001</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H12" s="15">
         <v>6818.1309999999994</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I12" s="15">
         <v>3632.4749999999995</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J12" s="15">
         <v>2865.9740000000002</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K12" s="15">
         <v>2297.306</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L12" s="15">
         <v>3244.5340000000001</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M12" s="15">
         <v>2175.2600000000002</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N12" s="15">
         <v>1778.4730000000002</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O12" s="15">
         <v>40133.834000000003</v>
       </c>
-      <c r="P11" s="4">
-        <v>5595.438449999996</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="20">
+      <c r="P12" s="15">
+        <v>5238.6714500000198</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B13" s="16">
         <v>2024</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="9">
-        <f t="shared" ref="D12:D42" si="2">SUM(E12:P12)</f>
-        <v>105434.16996000001</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D13" s="18">
+        <f t="shared" ref="D13:D43" si="2">SUM(E13:P13)</f>
+        <v>105215.16596</v>
+      </c>
+      <c r="E13" s="19">
         <v>18973.3</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F13" s="19">
         <v>13665.344000000001</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G13" s="19">
         <v>6313.32</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H13" s="19">
         <v>6639.4679999999998</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I13" s="19">
         <v>3421.6190000000001</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J13" s="19">
         <v>3106.3360000000002</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K13" s="19">
         <v>2364.4089999999997</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L13" s="19">
         <v>3512.4059999999999</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M13" s="19">
         <v>2156.3200000000002</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N13" s="19">
         <v>1665.7180000000001</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O13" s="19">
         <v>38502.94</v>
       </c>
-      <c r="P12" s="7">
-        <v>5112.9899600000072</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="22">
+      <c r="P13" s="19">
+        <v>4893.9859599999945</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B14" s="12">
         <v>2024</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D14" s="14">
         <f t="shared" si="2"/>
-        <v>104062.29637999996</v>
-      </c>
-      <c r="E13" s="4">
+        <v>104014.85637999998</v>
+      </c>
+      <c r="E14" s="15">
         <v>19802.7</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F14" s="15">
         <v>14556.685000000001</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G14" s="15">
         <v>5905.6409999999996</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H14" s="15">
         <v>5567.2889999999998</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I14" s="15">
         <v>3144.7429999999999</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J14" s="15">
         <v>3762.2560000000003</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K14" s="15">
         <v>2058.4110000000001</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L14" s="15">
         <v>2935.8180000000002</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M14" s="15">
         <v>1921.692</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N14" s="15">
         <v>1570.1889999999996</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O14" s="15">
         <v>38209.173000000003</v>
       </c>
-      <c r="P13" s="4">
-        <v>4627.6993799999464</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="20">
+      <c r="P14" s="15">
+        <v>4580.2593799999795</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B15" s="16">
         <v>2024</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="18">
         <f t="shared" si="2"/>
-        <v>97004.465000000026</v>
-      </c>
-      <c r="E14" s="7">
+        <v>96832.621000000028</v>
+      </c>
+      <c r="E15" s="19">
         <v>19063.57</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F15" s="19">
         <v>12825.287</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G15" s="19">
         <v>5709.5619999999999</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H15" s="19">
         <v>6237.3979999999992</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I15" s="19">
         <v>3026.2809999999999</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J15" s="19">
         <v>3371.2139999999999</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K15" s="19">
         <v>2375.6289999999999</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L15" s="19">
         <v>3173.3670000000002</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M15" s="19">
         <v>2052.38</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N15" s="19">
         <v>1593.547</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O15" s="19">
         <v>32860.998999999996</v>
       </c>
-      <c r="P14" s="7">
-        <v>4715.2310000000243</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="24">
+      <c r="P15" s="19">
+        <v>4543.3870000000315</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B16" s="20">
         <v>2024</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C16" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D16" s="22">
         <f t="shared" si="2"/>
         <v>97330.675600000075</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="23">
         <v>18369.400000000001</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F16" s="23">
         <v>13351.472999999998</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G16" s="23">
         <v>5884.6970000000001</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H16" s="23">
         <v>5967.9220000000005</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I16" s="23">
         <v>2989.357</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J16" s="23">
         <v>2973.8410000000003</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K16" s="23">
         <v>2268.6259999999997</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L16" s="23">
         <v>2854.8959999999997</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M16" s="23">
         <v>2397.5709999999999</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N16" s="23">
         <v>1825.489</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O16" s="23">
         <v>33787.300999999999</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P16" s="23">
         <v>4660.1026000000729</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="26">
+    <row r="17" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="24">
         <v>2023</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="26">
         <f t="shared" si="2"/>
         <v>104426.30729999999</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E17" s="27">
         <v>20566.599999999999</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F17" s="27">
         <v>13313.805</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G17" s="27">
         <v>5779.5439999999999</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H17" s="27">
         <v>6634.8190000000004</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I17" s="27">
         <v>3186.3519999999999</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J17" s="27">
         <v>3890.0010000000002</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K17" s="27">
         <v>2228.2650000000003</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L17" s="27">
         <v>3022.0309999999999</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M17" s="27">
         <v>2482.5659999999998</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N17" s="27">
         <v>1573.3980000000001</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O17" s="27">
         <v>36496.25</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P17" s="27">
         <v>5252.6762999999974</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="22">
+    <row r="18" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="12">
         <v>2023</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="14">
         <f t="shared" si="2"/>
         <v>105823.25400000002</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="15">
         <v>20520.5</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F18" s="15">
         <v>14126.735000000001</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G18" s="15">
         <v>6122.6710000000003</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H18" s="15">
         <v>6195.4279999999999</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I18" s="15">
         <v>3286.1129999999998</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J18" s="15">
         <v>3463.6080000000002</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K18" s="15">
         <v>2592.8070000000002</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L18" s="15">
         <v>3439.2550000000001</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M18" s="15">
         <v>2391.259</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N18" s="15">
         <v>1992.0079999999998</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O18" s="15">
         <v>36256.74</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P18" s="15">
         <v>5436.1300000000128</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="20">
+    <row r="19" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="16">
         <v>2023</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C19" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D19" s="18">
         <f t="shared" si="2"/>
         <v>107132.1866</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E19" s="19">
         <v>20291</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F19" s="19">
         <v>14588.228999999999</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G19" s="19">
         <v>6563.4580000000005</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H19" s="19">
         <v>6490.5720000000001</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I19" s="19">
         <v>3206.3980000000001</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J19" s="19">
         <v>2918.2420000000002</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K19" s="19">
         <v>2583.0619999999999</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L19" s="19">
         <v>3007.05</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M19" s="19">
         <v>2285.1779999999999</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N19" s="19">
         <v>2296.12</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O19" s="19">
         <v>37567.615000000005</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P19" s="19">
         <v>5335.2626000000073</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="22">
+    <row r="20" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="12">
         <v>2023</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C20" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="14">
         <f t="shared" si="2"/>
         <v>96344.621599999969</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E20" s="15">
         <v>18890.84</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F20" s="15">
         <v>11939.238000000001</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G20" s="15">
         <v>6448.41</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H20" s="15">
         <v>6941.482</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I20" s="15">
         <v>2997.1009999999997</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J20" s="15">
         <v>2820.8690000000001</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K20" s="15">
         <v>2392.9459999999999</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L20" s="15">
         <v>2689.5440000000003</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M20" s="15">
         <v>2237.8310000000001</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N20" s="15">
         <v>1937.12</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O20" s="15">
         <v>32211.534999999996</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P20" s="15">
         <v>4837.7055999999784</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="20">
+    <row r="21" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="16">
         <v>2023</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="18">
         <f t="shared" si="2"/>
         <v>101340.06099999999</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E21" s="19">
         <v>30758.92</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F21" s="19">
         <v>12635.058999999999</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G21" s="19">
         <v>6735.0630000000001</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H21" s="19">
         <v>7071.5340000000006</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I21" s="19">
         <v>3260.134</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J21" s="19">
         <v>2927.556</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K21" s="19">
         <v>2738.0719999999997</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L21" s="19">
         <v>3079.3420000000001</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M21" s="19">
         <v>2242.9470000000001</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N21" s="19">
         <v>2212.1790000000001</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O21" s="19">
         <v>22653.131999999998</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P21" s="19">
         <v>5026.1229999999987</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="22">
+    <row r="22" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="12">
         <v>2023</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="14">
         <f t="shared" si="2"/>
         <v>99893.349999999977</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="15">
         <v>42255.99</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F22" s="15">
         <v>13795.428</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G22" s="15">
         <v>6453.2659999999996</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H22" s="15">
         <v>6305.5460000000003</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I22" s="15">
         <v>2850.3670000000002</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J22" s="15">
         <v>2992.5640000000003</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K22" s="15">
         <v>2184.107</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L22" s="15">
         <v>3001.3330000000001</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M22" s="15">
         <v>2136.636</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N22" s="15">
         <v>1665.6389999999999</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O22" s="15">
         <v>12061.946</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P22" s="15">
         <v>4190.5279999999912</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="20">
+    <row r="23" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="16">
         <v>2023</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C23" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D23" s="18">
         <f t="shared" si="2"/>
         <v>100692.46</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E23" s="19">
         <v>48959.360000000001</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F23" s="19">
         <v>14347.388000000001</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G23" s="19">
         <v>6967.08</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H23" s="19">
         <v>7548.9220000000005</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I23" s="19">
         <v>3319.7</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J23" s="19">
         <v>2985.5720000000001</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K23" s="19">
         <v>2751.5749999999998</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L23" s="19">
         <v>2986.2660000000001</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M23" s="19">
         <v>2130.835</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N23" s="19">
         <v>1363.424</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O23" s="19">
         <v>2657.15</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P23" s="19">
         <v>4675.1880000000074</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="22">
+    <row r="24" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="12">
         <v>2023</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C24" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D24" s="14">
         <f t="shared" si="2"/>
         <v>98181.257999999987</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="15">
         <v>50235.43</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F24" s="15">
         <v>13240.904999999999</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G24" s="15">
         <v>6447.4090000000006</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H24" s="15">
         <v>6818.1289999999999</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I24" s="15">
         <v>3168.0129999999999</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J24" s="15">
         <v>3032.7219999999998</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K24" s="15">
         <v>2419.5279999999998</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L24" s="15">
         <v>3039.0519999999997</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M24" s="15">
         <v>2077.337</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N24" s="15">
         <v>1145.9829999999999</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O24" s="15">
         <v>2054.748</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P24" s="15">
         <v>4502.0019999999795</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="20">
+    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="16">
         <v>2023</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C25" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D25" s="18">
         <f t="shared" si="2"/>
         <v>92574.85</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E25" s="19">
         <v>47367.56</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F25" s="19">
         <v>13553.766</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G25" s="19">
         <v>6046.3230000000003</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H25" s="19">
         <v>5997.2860000000001</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I25" s="19">
         <v>2823</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J25" s="19">
         <v>3201.482</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K25" s="19">
         <v>2103.346</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L25" s="19">
         <v>2699.6509999999998</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M25" s="19">
         <v>1830.1030000000001</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N25" s="19">
         <v>966.625</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O25" s="19">
         <v>1973.069</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P25" s="19">
         <v>4012.6390000000029</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="22">
+    <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="12">
         <v>2023</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C26" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D26" s="14">
         <f t="shared" si="2"/>
         <v>105745.56200000001</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E26" s="15">
         <v>52276.67</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F26" s="15">
         <v>16535.007000000001</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G26" s="15">
         <v>6440.4480000000003</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H26" s="15">
         <v>7445.0419999999995</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I26" s="15">
         <v>3504.6480000000001</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J26" s="15">
         <v>3949.8199999999997</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K26" s="15">
         <v>2498.7659999999996</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L26" s="15">
         <v>3061.4049999999997</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M26" s="15">
         <v>2069.788</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N26" s="15">
         <v>1219.9379999999999</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O26" s="15">
         <v>1776.1070000000002</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P26" s="15">
         <v>4967.9229999999952</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="20">
+    <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="16">
         <v>2023</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C27" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D27" s="18">
         <f t="shared" si="2"/>
         <v>92062.197000000015</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E27" s="19">
         <v>48557.700000000004</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F27" s="19">
         <v>12859.111000000001</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G27" s="19">
         <v>5657.7039999999997</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H27" s="19">
         <v>6269.88</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I27" s="19">
         <v>2992.4319999999998</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J27" s="19">
         <v>3589.6260000000002</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K27" s="19">
         <v>2018.2800000000002</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L27" s="19">
         <v>2591.8669999999997</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M27" s="19">
         <v>1971.3010000000002</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N27" s="19">
         <v>967.20100000000002</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O27" s="19">
         <v>24.785999999999998</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P27" s="19">
         <v>4562.3090000000093</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="24">
+    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="20">
         <v>2023</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C28" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D28" s="22">
         <f t="shared" si="2"/>
         <v>91861.286999999982</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E28" s="23">
         <v>47206.720000000001</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F28" s="23">
         <v>14071.760999999999</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G28" s="23">
         <v>5308.5119999999997</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H28" s="23">
         <v>6105.5779999999995</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I28" s="23">
         <v>3099.4949999999999</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J28" s="23">
         <v>3049.6080000000002</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K28" s="23">
         <v>2226.4519999999998</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L28" s="23">
         <v>2648.1549999999997</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M28" s="23">
         <v>2170.7359999999999</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N28" s="23">
         <v>1026.6849999999999</v>
       </c>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6">
+      <c r="O28" s="23"/>
+      <c r="P28" s="23">
         <v>4947.5849999999755</v>
       </c>
     </row>
-    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="26">
+    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="24">
         <v>2022</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C29" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="26">
         <f t="shared" si="2"/>
         <v>101065.27699999994</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E29" s="27">
         <v>51995.01</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F29" s="27">
         <v>14753.401000000002</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G29" s="27">
         <v>6074.482</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H29" s="27">
         <v>6693.6720000000005</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I29" s="27">
         <v>3610.9369999999999</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J29" s="27">
         <v>3543.056</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K29" s="27">
         <v>2529.5419999999999</v>
       </c>
-      <c r="L28" s="12">
+      <c r="L29" s="27">
         <v>3120.09</v>
       </c>
-      <c r="M28" s="12">
+      <c r="M29" s="27">
         <v>2114.6820000000002</v>
       </c>
-      <c r="N28" s="12">
+      <c r="N29" s="27">
         <v>1202.202</v>
       </c>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12">
+      <c r="O29" s="27"/>
+      <c r="P29" s="27">
         <v>5428.2029999999249</v>
       </c>
     </row>
-    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="22">
+    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="12">
         <v>2022</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C30" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="14">
         <f t="shared" si="2"/>
         <v>100761.743</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E30" s="15">
         <v>52228.090000000004</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F30" s="15">
         <v>14611.128000000001</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G30" s="15">
         <v>6314.7170000000006</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H30" s="15">
         <v>6174.5390000000007</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I30" s="15">
         <v>3744.3739999999998</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J30" s="15">
         <v>3438.8589999999999</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K30" s="15">
         <v>2565.1889999999999</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L30" s="15">
         <v>3357.0519999999997</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M30" s="15">
         <v>2200.0079999999998</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N30" s="15">
         <v>1152.1139999999998</v>
       </c>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4">
+      <c r="O30" s="15"/>
+      <c r="P30" s="15">
         <v>4975.6730000000007</v>
       </c>
     </row>
-    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="20">
+    <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="16">
         <v>2022</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C31" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D31" s="18">
         <f t="shared" si="2"/>
         <v>101815.66400000002</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E31" s="19">
         <v>53850.369999999995</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F31" s="19">
         <v>15184.744000000001</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G31" s="19">
         <v>6463.3790000000008</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H31" s="19">
         <v>5772.1310000000003</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I31" s="19">
         <v>3574.8900000000003</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J31" s="19">
         <v>3573.3429999999998</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K31" s="19">
         <v>2038.558</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L31" s="19">
         <v>2968.2270000000003</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M31" s="19">
         <v>2060.0630000000001</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N31" s="19">
         <v>1283.712</v>
       </c>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7">
+      <c r="O31" s="19"/>
+      <c r="P31" s="19">
         <v>5046.2470000000367</v>
       </c>
     </row>
-    <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="22">
+    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="12">
         <v>2022</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C32" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D32" s="14">
         <f t="shared" si="2"/>
         <v>89334.159999999974</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E32" s="15">
         <v>47061.49</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F32" s="15">
         <v>14479.710999999999</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G32" s="15">
         <v>6202.4430000000002</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H32" s="15">
         <v>5721.7240000000002</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I32" s="15">
         <v>2401.297</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J32" s="15">
         <v>2631.6559999999999</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K32" s="15">
         <v>2465.8180000000002</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L32" s="15">
         <v>2754.2740000000003</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M32" s="15">
         <v>512.15899999999999</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N32" s="15">
         <v>1143.1680000000001</v>
       </c>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4">
+      <c r="O32" s="15"/>
+      <c r="P32" s="15">
         <v>3960.4199999999564</v>
       </c>
     </row>
-    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="20">
+    <row r="33" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="16">
         <v>2022</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C33" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D33" s="18">
         <f t="shared" si="2"/>
         <v>95278.69100000005</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E33" s="19">
         <v>47746.51</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F33" s="19">
         <v>14115.436000000002</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G33" s="19">
         <v>7015.4850000000006</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H33" s="19">
         <v>6571.5810000000001</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I33" s="19">
         <v>2958.8999999999996</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J33" s="19">
         <v>3531.7309999999998</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K33" s="19">
         <v>2622.4749999999999</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L33" s="19">
         <v>2978.3830000000003</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M33" s="19">
         <v>2025.0970000000002</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N33" s="19">
         <v>1204.242</v>
       </c>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7">
+      <c r="O33" s="19"/>
+      <c r="P33" s="19">
         <v>4508.8510000000351</v>
       </c>
     </row>
-    <row r="33" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="22">
+    <row r="34" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="12">
         <v>2022</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D34" s="14">
         <f t="shared" si="2"/>
         <v>97785.689999999988</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E34" s="15">
         <v>50063.990000000005</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F34" s="15">
         <v>14860.342999999999</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G34" s="15">
         <v>6623.2259999999997</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H34" s="15">
         <v>5368.71</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I34" s="15">
         <v>3986.607</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J34" s="15">
         <v>4343.424</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K34" s="15">
         <v>2496.5360000000001</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L34" s="15">
         <v>2822.9870000000001</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M34" s="15">
         <v>1943.029</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N34" s="15">
         <v>1117.913</v>
       </c>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4">
+      <c r="O34" s="15"/>
+      <c r="P34" s="15">
         <v>4158.924999999982</v>
       </c>
     </row>
-    <row r="34" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="20">
+    <row r="35" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="16">
         <v>2022</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C35" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D35" s="18">
         <f t="shared" si="2"/>
         <v>98754.335000000006</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E35" s="19">
         <v>46577.189999999995</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F35" s="19">
         <v>15738.313999999998</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G35" s="19">
         <v>7141.8860000000004</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H35" s="19">
         <v>6363.9130000000005</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I35" s="19">
         <v>4263.3530000000001</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J35" s="19">
         <v>3976.6590000000001</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K35" s="19">
         <v>2587.8480000000004</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L35" s="19">
         <v>3419.7529999999997</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M35" s="19">
         <v>2042.5399999999997</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N35" s="19">
         <v>1359.9259999999999</v>
       </c>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7">
+      <c r="O35" s="19"/>
+      <c r="P35" s="19">
         <v>5282.9530000000059</v>
       </c>
     </row>
-    <row r="35" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="22">
+    <row r="36" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="12">
         <v>2022</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C36" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D36" s="14">
         <f t="shared" si="2"/>
         <v>100981.77</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E36" s="15">
         <v>48175.270000000004</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F36" s="15">
         <v>15121.800999999999</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G36" s="15">
         <v>6917.94</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H36" s="15">
         <v>7004.4480000000003</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I36" s="15">
         <v>4293.0200000000004</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J36" s="15">
         <v>4633.1059999999998</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K36" s="15">
         <v>2216.5819999999999</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L36" s="15">
         <v>4035.9160000000002</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M36" s="15">
         <v>2042.0069999999998</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N36" s="15">
         <v>1212.9639999999999</v>
       </c>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4">
+      <c r="O36" s="15"/>
+      <c r="P36" s="15">
         <v>5328.7160000000003</v>
       </c>
     </row>
-    <row r="36" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="20">
+    <row r="37" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="16">
         <v>2022</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C37" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D37" s="18">
         <f t="shared" si="2"/>
         <v>91772.804999999978</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E37" s="19">
         <v>42504.89</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F37" s="19">
         <v>14271.894</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G37" s="19">
         <v>6804.5039999999999</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H37" s="19">
         <v>5796.9490000000005</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I37" s="19">
         <v>3819.4520000000002</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J37" s="19">
         <v>4312.4709999999995</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K37" s="19">
         <v>2349.19</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L37" s="19">
         <v>3770.8559999999998</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M37" s="19">
         <v>1869.663</v>
       </c>
-      <c r="N36" s="7">
+      <c r="N37" s="19">
         <v>1118.5450000000001</v>
       </c>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7">
+      <c r="O37" s="19"/>
+      <c r="P37" s="19">
         <v>5154.390999999976</v>
       </c>
     </row>
-    <row r="37" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="22">
+    <row r="38" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="12">
         <v>2022</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C38" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D38" s="14">
         <f t="shared" si="2"/>
         <v>97475.604000000007</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E38" s="15">
         <v>43589.06</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F38" s="15">
         <v>15805.73</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G38" s="15">
         <v>7474.4720000000007</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H38" s="15">
         <v>6700.8620000000001</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I38" s="15">
         <v>4181.607</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J38" s="15">
         <v>4873.1779999999999</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K38" s="15">
         <v>2656.9369999999999</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L38" s="15">
         <v>3049.7539999999999</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M38" s="15">
         <v>2099.5990000000002</v>
       </c>
-      <c r="N37" s="4">
+      <c r="N38" s="15">
         <v>1350.1109999999999</v>
       </c>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4">
+      <c r="O38" s="15"/>
+      <c r="P38" s="15">
         <v>5694.2940000000135</v>
       </c>
     </row>
-    <row r="38" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="20">
+    <row r="39" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="16">
         <v>2022</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C39" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="18">
         <f t="shared" si="2"/>
         <v>89800.428</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E39" s="19">
         <v>45366.31</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F39" s="19">
         <v>13369.772999999999</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G39" s="19">
         <v>5647.3320000000003</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H39" s="19">
         <v>5270.6120000000001</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I39" s="19">
         <v>3794.5039999999999</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J39" s="19">
         <v>3839.19</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K39" s="19">
         <v>2119.1379999999999</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L39" s="19">
         <v>2576.7370000000001</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M39" s="19">
         <v>1797.6790000000001</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N39" s="19">
         <v>1019.68</v>
       </c>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7">
+      <c r="O39" s="19"/>
+      <c r="P39" s="19">
         <v>4999.4729999999945</v>
       </c>
     </row>
-    <row r="39" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="24">
+    <row r="40" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="20">
         <v>2022</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C40" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D40" s="22">
         <f t="shared" si="2"/>
         <v>85046.313999999984</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E40" s="23">
         <v>41649.950000000004</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F40" s="23">
         <v>14466.567999999999</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G40" s="23">
         <v>5084.2289999999994</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H40" s="23">
         <v>5408.1559999999999</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I40" s="23">
         <v>2575.6040000000003</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J40" s="23">
         <v>3171.0789999999997</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K40" s="23">
         <v>2142.4740000000002</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L40" s="23">
         <v>2573.4090000000001</v>
       </c>
-      <c r="M39" s="6">
+      <c r="M40" s="23">
         <v>1939.2370000000001</v>
       </c>
-      <c r="N39" s="6">
+      <c r="N40" s="23">
         <v>1105.0170000000001</v>
       </c>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6">
+      <c r="O40" s="23"/>
+      <c r="P40" s="23">
         <v>4930.590999999964</v>
       </c>
     </row>
-    <row r="40" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="26">
+    <row r="41" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="24">
         <v>2021</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C41" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="26">
         <f t="shared" si="2"/>
         <v>106245.8559999999</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E41" s="27">
         <v>50857.07</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F41" s="27">
         <v>17094.063999999998</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G41" s="27">
         <v>6690.982</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H41" s="27">
         <v>6757.0789999999997</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I41" s="27">
         <v>4772.1049999999996</v>
       </c>
-      <c r="J40" s="12">
+      <c r="J41" s="27">
         <v>4153.6809999999996</v>
       </c>
-      <c r="K40" s="12">
+      <c r="K41" s="27">
         <v>2996.9839999999999</v>
       </c>
-      <c r="L40" s="12">
+      <c r="L41" s="27">
         <v>3411.8760000000002</v>
       </c>
-      <c r="M40" s="12">
+      <c r="M41" s="27">
         <v>2152.6570000000002</v>
       </c>
-      <c r="N40" s="12">
+      <c r="N41" s="27">
         <v>1412.242</v>
       </c>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12">
+      <c r="O41" s="27"/>
+      <c r="P41" s="27">
         <v>5947.115999999909</v>
       </c>
     </row>
-    <row r="41" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="22">
+    <row r="42" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="12">
         <v>2021</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C42" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D42" s="14">
         <f t="shared" si="2"/>
         <v>103780.351</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E42" s="15">
         <v>51670.84</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F42" s="15">
         <v>16637.919000000002</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G42" s="15">
         <v>6777.7350000000006</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H42" s="15">
         <v>6088.8860000000004</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I42" s="15">
         <v>4689.4409999999998</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J42" s="15">
         <v>3093.7200000000003</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K42" s="15">
         <v>2801.3710000000001</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L42" s="15">
         <v>3273.163</v>
       </c>
-      <c r="M41" s="4">
+      <c r="M42" s="15">
         <v>2116.31</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N42" s="15">
         <v>1187.3990000000001</v>
       </c>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4">
+      <c r="O42" s="15"/>
+      <c r="P42" s="15">
         <v>5443.5670000000018</v>
       </c>
     </row>
-    <row r="42" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="20">
+    <row r="43" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="16">
         <v>2021</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C43" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D43" s="18">
         <f t="shared" si="2"/>
         <v>102011.41899999998</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E43" s="19">
         <v>52512.270000000004</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F43" s="19">
         <v>15934.506000000001</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G43" s="19">
         <v>6335.259</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H43" s="19">
         <v>5545.3950000000004</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I43" s="19">
         <v>4882.7650000000003</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J43" s="19">
         <v>2936.84</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K43" s="19">
         <v>2405.8789999999999</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L43" s="19">
         <v>3272.1130000000003</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M43" s="19">
         <v>1900.828</v>
       </c>
-      <c r="N42" s="7">
+      <c r="N43" s="19">
         <v>1092.5319999999999</v>
       </c>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7">
+      <c r="O43" s="19"/>
+      <c r="P43" s="19">
         <v>5193.0319999999592</v>
       </c>
     </row>
-    <row r="43" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="22">
+    <row r="44" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="12">
         <v>2021</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C44" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="8">
-        <f t="shared" ref="D43:D74" si="3">SUM(E43:P43)</f>
+      <c r="D44" s="14">
+        <f t="shared" ref="D44:D75" si="3">SUM(E44:P44)</f>
         <v>91178.608999999982</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E44" s="15">
         <v>45915.21</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F44" s="15">
         <v>14692.056</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G44" s="15">
         <v>5728.8209999999999</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H44" s="15">
         <v>5560.4480000000003</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I44" s="15">
         <v>4702.9629999999997</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J44" s="15">
         <v>2102.703</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K44" s="15">
         <v>2272.134</v>
       </c>
-      <c r="L43" s="4">
+      <c r="L44" s="15">
         <v>2868.15</v>
       </c>
-      <c r="M43" s="4">
+      <c r="M44" s="15">
         <v>1735.4590000000001</v>
       </c>
-      <c r="N43" s="4">
+      <c r="N44" s="15">
         <v>1045.8</v>
       </c>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4">
+      <c r="O44" s="15"/>
+      <c r="P44" s="15">
         <v>4554.864999999978</v>
       </c>
     </row>
-    <row r="44" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="20">
+    <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="16">
         <v>2021</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C45" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D45" s="18">
         <f t="shared" si="3"/>
         <v>92414.208999999988</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E45" s="19">
         <v>46263.56</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F45" s="19">
         <v>15429.054</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G45" s="19">
         <v>5843.6489999999994</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H45" s="19">
         <v>5188.5529999999999</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I45" s="19">
         <v>4997.6589999999997</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J45" s="19">
         <v>1980.7669999999998</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K45" s="19">
         <v>2178.5140000000001</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L45" s="19">
         <v>2985.433</v>
       </c>
-      <c r="M44" s="7">
+      <c r="M45" s="19">
         <v>1919.7950000000001</v>
       </c>
-      <c r="N44" s="7">
+      <c r="N45" s="19">
         <v>1046.1379999999999</v>
       </c>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7">
+      <c r="O45" s="19"/>
+      <c r="P45" s="19">
         <v>4581.0869999999823</v>
       </c>
     </row>
-    <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="22">
+    <row r="46" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="12">
         <v>2021</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C46" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D46" s="14">
         <f t="shared" si="3"/>
         <v>94998.959000000017</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E46" s="15">
         <v>47535.66</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F46" s="15">
         <v>16396.912</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G46" s="15">
         <v>5814.3230000000003</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H46" s="15">
         <v>5225.7449999999999</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I46" s="15">
         <v>4822.5879999999997</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J46" s="15">
         <v>2417.9939999999997</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K46" s="15">
         <v>2253.5949999999998</v>
       </c>
-      <c r="L45" s="4">
+      <c r="L46" s="15">
         <v>2954.0879999999997</v>
       </c>
-      <c r="M45" s="4">
+      <c r="M46" s="15">
         <v>2019.4090000000001</v>
       </c>
-      <c r="N45" s="4">
+      <c r="N46" s="15">
         <v>989</v>
       </c>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4">
+      <c r="O46" s="15"/>
+      <c r="P46" s="15">
         <v>4569.6450000000086</v>
       </c>
     </row>
-    <row r="46" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="20">
+    <row r="47" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="16">
         <v>2021</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C47" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D47" s="18">
         <f t="shared" si="3"/>
         <v>93150.852999999974</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E47" s="19">
         <v>46381.57</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F47" s="19">
         <v>16321.146999999999</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G47" s="19">
         <v>5643.8950000000004</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H47" s="19">
         <v>5512.8739999999998</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I47" s="19">
         <v>4619.1679999999997</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J47" s="19">
         <v>2265.636</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K47" s="19">
         <v>2051.7060000000001</v>
       </c>
-      <c r="L46" s="7">
+      <c r="L47" s="19">
         <v>2931.884</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M47" s="19">
         <v>1972.1880000000001</v>
       </c>
-      <c r="N46" s="7">
+      <c r="N47" s="19">
         <v>986.39300000000003</v>
       </c>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7">
+      <c r="O47" s="19"/>
+      <c r="P47" s="19">
         <v>4464.3919999999753</v>
       </c>
     </row>
-    <row r="47" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="22">
+    <row r="48" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="12">
         <v>2021</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C48" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D48" s="14">
         <f t="shared" si="3"/>
         <v>91896.881000000023</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E48" s="15">
         <v>46267.280000000006</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F48" s="15">
         <v>16961.302</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G48" s="15">
         <v>5341.201</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H48" s="15">
         <v>5093.9789999999994</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I48" s="15">
         <v>4098.0300000000007</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J48" s="15">
         <v>2317.509</v>
       </c>
-      <c r="K47" s="4">
+      <c r="K48" s="15">
         <v>1839.751</v>
       </c>
-      <c r="L47" s="4">
+      <c r="L48" s="15">
         <v>2917.2539999999999</v>
       </c>
-      <c r="M47" s="4">
+      <c r="M48" s="15">
         <v>1854.6999999999998</v>
       </c>
-      <c r="N47" s="4">
+      <c r="N48" s="15">
         <v>936.20399999999995</v>
       </c>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4">
+      <c r="O48" s="15"/>
+      <c r="P48" s="15">
         <v>4269.6710000000021</v>
       </c>
     </row>
-    <row r="48" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="20">
+    <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="16">
         <v>2021</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C49" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D49" s="18">
         <f t="shared" si="3"/>
         <v>91124.671000000017</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E49" s="19">
         <v>44958.49</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F49" s="19">
         <v>17353.253000000001</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G49" s="19">
         <v>5074.8539999999994</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H49" s="19">
         <v>5150.7029999999995</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I49" s="19">
         <v>4190.9799999999996</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J49" s="19">
         <v>2711.4180000000001</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K49" s="19">
         <v>2026.221</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L49" s="19">
         <v>2834.6559999999999</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M49" s="19">
         <v>1752.0440000000001</v>
       </c>
-      <c r="N48" s="7">
+      <c r="N49" s="19">
         <v>919.93</v>
       </c>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7">
+      <c r="O49" s="19"/>
+      <c r="P49" s="19">
         <v>4152.1220000000194</v>
       </c>
     </row>
-    <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="22">
+    <row r="50" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="12">
         <v>2021</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C50" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D50" s="14">
         <f t="shared" si="3"/>
         <v>97804.682000000015</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E50" s="15">
         <v>49200.950000000004</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F50" s="15">
         <v>18513.925000000003</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G50" s="15">
         <v>5394.5290000000005</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H50" s="15">
         <v>5438.8379999999997</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I50" s="15">
         <v>4517.6980000000003</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J50" s="15">
         <v>2272.91</v>
       </c>
-      <c r="K49" s="4">
+      <c r="K50" s="15">
         <v>2051.056</v>
       </c>
-      <c r="L49" s="4">
+      <c r="L50" s="15">
         <v>2950.4749999999999</v>
       </c>
-      <c r="M49" s="4">
+      <c r="M50" s="15">
         <v>1771.0360000000001</v>
       </c>
-      <c r="N49" s="4">
+      <c r="N50" s="15">
         <v>1067.4470000000001</v>
       </c>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4">
+      <c r="O50" s="15"/>
+      <c r="P50" s="15">
         <v>4625.8179999999957</v>
       </c>
     </row>
-    <row r="50" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="20">
+    <row r="51" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="16">
         <v>2021</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C51" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D51" s="18">
         <f t="shared" si="3"/>
         <v>83857.271000000022</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E51" s="19">
         <v>42287.700000000004</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F51" s="19">
         <v>15583.737000000001</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G51" s="19">
         <v>4140.5389999999998</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H51" s="19">
         <v>4531.4269999999997</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I51" s="19">
         <v>3863.7919999999995</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J51" s="19">
         <v>2548.5929999999998</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K51" s="19">
         <v>1805.3239999999998</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L51" s="19">
         <v>2596.5039999999999</v>
       </c>
-      <c r="M50" s="7">
+      <c r="M51" s="19">
         <v>1517.7179999999998</v>
       </c>
-      <c r="N50" s="7">
+      <c r="N51" s="19">
         <v>866.53800000000001</v>
       </c>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7">
+      <c r="O51" s="19"/>
+      <c r="P51" s="19">
         <v>4115.3990000000395</v>
       </c>
     </row>
-    <row r="51" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="24">
+    <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="20">
         <v>2021</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C52" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D52" s="22">
         <f t="shared" si="3"/>
         <v>88197.219999999987</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E52" s="23">
         <v>43928.770000000004</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F52" s="23">
         <v>16300.849999999997</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G52" s="23">
         <v>4840.8860000000004</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H52" s="23">
         <v>4794.0879999999997</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I52" s="23">
         <v>4785.6239999999998</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J52" s="23">
         <v>2064.8710000000001</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K52" s="23">
         <v>2034.952</v>
       </c>
-      <c r="L51" s="6">
+      <c r="L52" s="23">
         <v>2453.6999999999998</v>
       </c>
-      <c r="M51" s="6">
+      <c r="M52" s="23">
         <v>1745.922</v>
       </c>
-      <c r="N51" s="6">
+      <c r="N52" s="23">
         <v>918.11799999999994</v>
       </c>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6">
+      <c r="O52" s="23"/>
+      <c r="P52" s="23">
         <v>4329.4389999999794</v>
       </c>
     </row>
-    <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="26">
+    <row r="53" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="24">
         <v>2020</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C53" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="26">
         <f t="shared" si="3"/>
         <v>94144.191000000021</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E53" s="27">
         <v>46330.03</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F53" s="27">
         <v>15973.973</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G53" s="27">
         <v>5450.8789999999999</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H53" s="27">
         <v>5488.8649999999998</v>
       </c>
-      <c r="I52" s="12">
+      <c r="I53" s="27">
         <v>5262.348</v>
       </c>
-      <c r="J52" s="12">
+      <c r="J53" s="27">
         <v>1922.278</v>
       </c>
-      <c r="K52" s="12">
+      <c r="K53" s="27">
         <v>2610.1819999999998</v>
       </c>
-      <c r="L52" s="12">
+      <c r="L53" s="27">
         <v>3093.9090000000001</v>
       </c>
-      <c r="M52" s="12">
+      <c r="M53" s="27">
         <v>1870.7370000000001</v>
       </c>
-      <c r="N52" s="12">
+      <c r="N53" s="27">
         <v>1267.98</v>
       </c>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12">
+      <c r="O53" s="27"/>
+      <c r="P53" s="27">
         <v>4873.010000000022</v>
       </c>
     </row>
-    <row r="53" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="22">
+    <row r="54" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="12">
         <v>2020</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C54" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D54" s="14">
         <f t="shared" si="3"/>
         <v>91473.85500000001</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E54" s="15">
         <v>47533.36</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F54" s="15">
         <v>14400.682000000001</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G54" s="15">
         <v>5383.1379999999999</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H54" s="15">
         <v>4958.3670000000002</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I54" s="15">
         <v>4752.6779999999999</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J54" s="15">
         <v>1515.828</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K54" s="15">
         <v>2284.3830000000003</v>
       </c>
-      <c r="L53" s="4">
+      <c r="L54" s="15">
         <v>3066.7379999999998</v>
       </c>
-      <c r="M53" s="4">
+      <c r="M54" s="15">
         <v>1683.905</v>
       </c>
-      <c r="N53" s="4">
+      <c r="N54" s="15">
         <v>1051.925</v>
       </c>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4">
+      <c r="O54" s="15"/>
+      <c r="P54" s="15">
         <v>4842.8510000000106</v>
       </c>
     </row>
-    <row r="54" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="20">
+    <row r="55" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="16">
         <v>2020</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C55" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D55" s="18">
         <f t="shared" si="3"/>
         <v>91662.356999999931</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E55" s="19">
         <v>46625.39</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F55" s="19">
         <v>16134.585999999999</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G55" s="19">
         <v>5479.9110000000001</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H55" s="19">
         <v>4639.0290000000005</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I55" s="19">
         <v>5349.1270000000004</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J55" s="19">
         <v>1260.509</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K55" s="19">
         <v>2199.1950000000002</v>
       </c>
-      <c r="L54" s="7">
+      <c r="L55" s="19">
         <v>3053.64</v>
       </c>
-      <c r="M54" s="7">
+      <c r="M55" s="19">
         <v>1739.095</v>
       </c>
-      <c r="N54" s="7">
+      <c r="N55" s="19">
         <v>943.76300000000003</v>
       </c>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7">
+      <c r="O55" s="19"/>
+      <c r="P55" s="19">
         <v>4238.11199999993</v>
       </c>
     </row>
-    <row r="55" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="22">
+    <row r="56" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="12">
         <v>2020</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C56" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D56" s="14">
         <f t="shared" si="3"/>
         <v>77051.781000000032</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E56" s="15">
         <v>38240.839999999997</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F56" s="15">
         <v>14171.219000000001</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G56" s="15">
         <v>4407.3809999999994</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H56" s="15">
         <v>3752.172</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I56" s="15">
         <v>4552.4279999999999</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J56" s="15">
         <v>1079.7190000000001</v>
       </c>
-      <c r="K55" s="4">
+      <c r="K56" s="15">
         <v>1834.0129999999999</v>
       </c>
-      <c r="L55" s="4">
+      <c r="L56" s="15">
         <v>2717.5839999999998</v>
       </c>
-      <c r="M55" s="4">
+      <c r="M56" s="15">
         <v>1835.0609999999999</v>
       </c>
-      <c r="N55" s="4">
+      <c r="N56" s="15">
         <v>788.73500000000001</v>
       </c>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4">
+      <c r="O56" s="15"/>
+      <c r="P56" s="15">
         <v>3672.629000000029</v>
       </c>
     </row>
-    <row r="56" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="20">
+    <row r="57" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="16">
         <v>2020</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C57" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D57" s="18">
         <f t="shared" si="3"/>
         <v>73243.596999999965</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E57" s="19">
         <v>37945.979999999996</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F57" s="19">
         <v>12325.865999999998</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G57" s="19">
         <v>3948.0789999999997</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H57" s="19">
         <v>3392.7820000000002</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I57" s="19">
         <v>4478.6279999999997</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J57" s="19">
         <v>1011.65</v>
       </c>
-      <c r="K56" s="7">
+      <c r="K57" s="19">
         <v>1714.8619999999999</v>
       </c>
-      <c r="L56" s="7">
+      <c r="L57" s="19">
         <v>2516.4409999999998</v>
       </c>
-      <c r="M56" s="7">
+      <c r="M57" s="19">
         <v>1831.6880000000001</v>
       </c>
-      <c r="N56" s="7">
+      <c r="N57" s="19">
         <v>782.10199999999998</v>
       </c>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7">
+      <c r="O57" s="19"/>
+      <c r="P57" s="19">
         <v>3295.5189999999848</v>
       </c>
     </row>
-    <row r="57" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="22">
+    <row r="58" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="12">
         <v>2020</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C58" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D58" s="14">
         <f t="shared" si="3"/>
         <v>70714.571000000011</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E58" s="15">
         <v>34839.78</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F58" s="15">
         <v>13321.585999999999</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G58" s="15">
         <v>3950.6219999999998</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H58" s="15">
         <v>3725.6490000000003</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I58" s="15">
         <v>3987.5020000000004</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J58" s="15">
         <v>936.46399999999994</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K58" s="15">
         <v>1692.3649999999998</v>
       </c>
-      <c r="L57" s="4">
+      <c r="L58" s="15">
         <v>2403.9839999999999</v>
       </c>
-      <c r="M57" s="4">
+      <c r="M58" s="15">
         <v>1775.4699999999998</v>
       </c>
-      <c r="N57" s="4">
+      <c r="N58" s="15">
         <v>840.952</v>
       </c>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4">
+      <c r="O58" s="15"/>
+      <c r="P58" s="15">
         <v>3240.1970000000092</v>
       </c>
     </row>
-    <row r="58" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="20">
+    <row r="59" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="16">
         <v>2020</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C59" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D59" s="18">
         <f t="shared" si="3"/>
         <v>66590.821000000025</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E59" s="19">
         <v>33996.18</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F59" s="19">
         <v>13478.243999999999</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G59" s="19">
         <v>3545.3679999999999</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H59" s="19">
         <v>3224.4189999999999</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I59" s="19">
         <v>3231.3440000000001</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J59" s="19">
         <v>771.17700000000002</v>
       </c>
-      <c r="K58" s="7">
+      <c r="K59" s="19">
         <v>1478.3190000000002</v>
       </c>
-      <c r="L58" s="7">
+      <c r="L59" s="19">
         <v>1821.6129999999998</v>
       </c>
-      <c r="M58" s="7">
+      <c r="M59" s="19">
         <v>1594.6689999999999</v>
       </c>
-      <c r="N58" s="7">
+      <c r="N59" s="19">
         <v>720.39199999999994</v>
       </c>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7">
+      <c r="O59" s="19"/>
+      <c r="P59" s="19">
         <v>2729.0960000000127</v>
       </c>
     </row>
-    <row r="59" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="22">
+    <row r="60" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="12">
         <v>2020</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C60" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D60" s="14">
         <f t="shared" si="3"/>
         <v>58590.57</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E60" s="15">
         <v>31229.68</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F60" s="15">
         <v>11236.094000000001</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G60" s="15">
         <v>2744.201</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H60" s="15">
         <v>2746.701</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I60" s="15">
         <v>2540.2469999999998</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J60" s="15">
         <v>612.84699999999998</v>
       </c>
-      <c r="K59" s="4">
+      <c r="K60" s="15">
         <v>1623.547</v>
       </c>
-      <c r="L59" s="4">
+      <c r="L60" s="15">
         <v>1605.3789999999999</v>
       </c>
-      <c r="M59" s="4">
+      <c r="M60" s="15">
         <v>1482.9659999999999</v>
       </c>
-      <c r="N59" s="4">
+      <c r="N60" s="15">
         <v>671.48299999999995</v>
       </c>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4">
+      <c r="O60" s="15"/>
+      <c r="P60" s="15">
         <v>2097.424999999987</v>
       </c>
     </row>
-    <row r="60" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="20">
+    <row r="61" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="16">
         <v>2020</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C61" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D61" s="18">
         <f t="shared" si="3"/>
         <v>51124.868999999999</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E61" s="19">
         <v>25419.52</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F61" s="19">
         <v>11565.216</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G61" s="19">
         <v>2651.4159999999997</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H61" s="19">
         <v>2693.4929999999999</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I61" s="19">
         <v>2126.7669999999998</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J61" s="19">
         <v>551.59</v>
       </c>
-      <c r="K60" s="7">
+      <c r="K61" s="19">
         <v>1334.1680000000001</v>
       </c>
-      <c r="L60" s="7">
+      <c r="L61" s="19">
         <v>1156.8400000000001</v>
       </c>
-      <c r="M60" s="7">
+      <c r="M61" s="19">
         <v>1103.2260000000001</v>
       </c>
-      <c r="N60" s="7">
+      <c r="N61" s="19">
         <v>532.67700000000002</v>
       </c>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7">
+      <c r="O61" s="19"/>
+      <c r="P61" s="19">
         <v>1989.9559999999994</v>
       </c>
     </row>
-    <row r="61" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="22">
+    <row r="62" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="12">
         <v>2020</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C62" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D62" s="14">
         <f t="shared" si="3"/>
         <v>79368.52999999997</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E62" s="15">
         <v>42274.520000000004</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F62" s="15">
         <v>14537.343000000001</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G62" s="15">
         <v>4065.893</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H62" s="15">
         <v>3597.8379999999997</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I62" s="15">
         <v>2907.587</v>
       </c>
-      <c r="J61" s="4">
+      <c r="J62" s="15">
         <v>2248.8019999999997</v>
       </c>
-      <c r="K61" s="4">
+      <c r="K62" s="15">
         <v>1787.81</v>
       </c>
-      <c r="L61" s="4">
+      <c r="L62" s="15">
         <v>2068.8739999999998</v>
       </c>
-      <c r="M61" s="4">
+      <c r="M62" s="15">
         <v>1532.5450000000001</v>
       </c>
-      <c r="N61" s="4">
+      <c r="N62" s="15">
         <v>820.50299999999993</v>
       </c>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4">
+      <c r="O62" s="15"/>
+      <c r="P62" s="15">
         <v>3526.8149999999705</v>
       </c>
     </row>
-    <row r="62" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="20">
+    <row r="63" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="16">
         <v>2020</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C63" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D63" s="18">
         <f t="shared" si="3"/>
         <v>75908.510999999955</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E63" s="19">
         <v>42089.659999999996</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F63" s="19">
         <v>11466.815999999999</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G63" s="19">
         <v>3486.42</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H63" s="19">
         <v>3309.0249999999996</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I63" s="19">
         <v>2651.6840000000002</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J63" s="19">
         <v>2759.643</v>
       </c>
-      <c r="K62" s="7">
+      <c r="K63" s="19">
         <v>1653.057</v>
       </c>
-      <c r="L62" s="7">
+      <c r="L63" s="19">
         <v>2319.8409999999999</v>
       </c>
-      <c r="M62" s="7">
+      <c r="M63" s="19">
         <v>1687.9380000000001</v>
       </c>
-      <c r="N62" s="7">
+      <c r="N63" s="19">
         <v>812.35799999999995</v>
       </c>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7">
+      <c r="O63" s="19"/>
+      <c r="P63" s="19">
         <v>3672.068999999979</v>
       </c>
     </row>
-    <row r="63" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="24">
+    <row r="64" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="20">
         <v>2020</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C64" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D64" s="22">
         <f t="shared" si="3"/>
         <v>80828.273000000045</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E64" s="23">
         <v>43200.08</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F64" s="23">
         <v>12981.727999999999</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G64" s="23">
         <v>3924.5250000000001</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H64" s="23">
         <v>3616.1279999999997</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I64" s="23">
         <v>2992.5469999999996</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J64" s="23">
         <v>3044.2960000000003</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K64" s="23">
         <v>1792.2229999999997</v>
       </c>
-      <c r="L63" s="6">
+      <c r="L64" s="23">
         <v>2507.0810000000001</v>
       </c>
-      <c r="M63" s="6">
+      <c r="M64" s="23">
         <v>1937.0650000000001</v>
       </c>
-      <c r="N63" s="6">
+      <c r="N64" s="23">
         <v>862.8069999999999</v>
       </c>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6">
+      <c r="O64" s="23"/>
+      <c r="P64" s="23">
         <v>3969.7930000000383</v>
       </c>
     </row>
-    <row r="64" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="26">
+    <row r="65" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="24">
         <v>2019</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C65" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="26">
         <f t="shared" si="3"/>
         <v>83400</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E65" s="27">
         <v>48000</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F65" s="27">
         <v>14500</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G65" s="27">
         <v>3700</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H65" s="27">
         <v>2900</v>
       </c>
-      <c r="I64" s="12">
+      <c r="I65" s="27">
         <v>3100</v>
       </c>
-      <c r="J64" s="12">
+      <c r="J65" s="27">
         <v>1900</v>
       </c>
-      <c r="K64" s="12">
+      <c r="K65" s="27">
         <v>3700</v>
       </c>
-      <c r="L64" s="12">
+      <c r="L65" s="27">
         <v>1900</v>
       </c>
-      <c r="M64" s="12">
+      <c r="M65" s="27">
         <v>2600</v>
       </c>
-      <c r="N64" s="12">
+      <c r="N65" s="27">
         <v>1100</v>
       </c>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12">
+      <c r="O65" s="27"/>
+      <c r="P65" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="22">
+    <row r="66" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="12">
         <v>2019</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C66" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D66" s="14">
         <f t="shared" si="3"/>
         <v>83400</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E66" s="15">
         <v>46600</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F66" s="15">
         <v>14700</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G66" s="15">
         <v>4300</v>
       </c>
-      <c r="H65" s="4">
+      <c r="H66" s="15">
         <v>3100</v>
       </c>
-      <c r="I65" s="4">
+      <c r="I66" s="15">
         <v>3100</v>
       </c>
-      <c r="J65" s="4">
+      <c r="J66" s="15">
         <v>2100</v>
       </c>
-      <c r="K65" s="4">
+      <c r="K66" s="15">
         <v>3900</v>
       </c>
-      <c r="L65" s="4">
+      <c r="L66" s="15">
         <v>1800</v>
       </c>
-      <c r="M65" s="4">
+      <c r="M66" s="15">
         <v>2800</v>
       </c>
-      <c r="N65" s="4">
+      <c r="N66" s="15">
         <v>1000</v>
       </c>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4">
+      <c r="O66" s="15"/>
+      <c r="P66" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="20">
+    <row r="67" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="16">
         <v>2019</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C67" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D67" s="18">
         <f t="shared" si="3"/>
         <v>90200</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E67" s="19">
         <v>52200</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F67" s="19">
         <v>14900</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G67" s="19">
         <v>4600</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H67" s="19">
         <v>3400</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I67" s="19">
         <v>2700</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J67" s="19">
         <v>2200</v>
       </c>
-      <c r="K66" s="7">
+      <c r="K67" s="19">
         <v>4200</v>
       </c>
-      <c r="L66" s="7">
+      <c r="L67" s="19">
         <v>2000</v>
       </c>
-      <c r="M66" s="7">
+      <c r="M67" s="19">
         <v>3000</v>
       </c>
-      <c r="N66" s="7">
+      <c r="N67" s="19">
         <v>1000</v>
       </c>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7">
+      <c r="O67" s="19"/>
+      <c r="P67" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="22">
+    <row r="68" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="12">
         <v>2019</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C68" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D68" s="14">
         <f t="shared" si="3"/>
         <v>78300</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E68" s="15">
         <v>46000</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F68" s="15">
         <v>12400</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G68" s="15">
         <v>4300</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H68" s="15">
         <v>3000</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I68" s="15">
         <v>2200</v>
       </c>
-      <c r="J67" s="4">
+      <c r="J68" s="15">
         <v>1800</v>
       </c>
-      <c r="K67" s="4">
+      <c r="K68" s="15">
         <v>3600</v>
       </c>
-      <c r="L67" s="4">
+      <c r="L68" s="15">
         <v>1700</v>
       </c>
-      <c r="M67" s="4">
+      <c r="M68" s="15">
         <v>2500</v>
       </c>
-      <c r="N67" s="4">
+      <c r="N68" s="15">
         <v>800</v>
       </c>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4">
+      <c r="O68" s="15"/>
+      <c r="P68" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="20">
+    <row r="69" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="16">
         <v>2019</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C69" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D69" s="18">
         <f t="shared" si="3"/>
         <v>80500</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E69" s="19">
         <v>46500</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F69" s="19">
         <v>12500</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G69" s="19">
         <v>4300</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H69" s="19">
         <v>3400</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I69" s="19">
         <v>2500</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J69" s="19">
         <v>2100</v>
       </c>
-      <c r="K68" s="7">
+      <c r="K69" s="19">
         <v>4100</v>
       </c>
-      <c r="L68" s="7">
+      <c r="L69" s="19">
         <v>1800</v>
       </c>
-      <c r="M68" s="7">
+      <c r="M69" s="19">
         <v>2400</v>
       </c>
-      <c r="N68" s="7">
+      <c r="N69" s="19">
         <v>900</v>
       </c>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7">
+      <c r="O69" s="19"/>
+      <c r="P69" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="22">
+    <row r="70" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="12">
         <v>2019</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="C70" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D70" s="14">
         <f t="shared" si="3"/>
         <v>81500</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E70" s="15">
         <v>46600</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F70" s="15">
         <v>13600</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G70" s="15">
         <v>4100</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H70" s="15">
         <v>3000</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I70" s="15">
         <v>2500</v>
       </c>
-      <c r="J69" s="4">
+      <c r="J70" s="15">
         <v>2000</v>
       </c>
-      <c r="K69" s="4">
+      <c r="K70" s="15">
         <v>4200</v>
       </c>
-      <c r="L69" s="4">
+      <c r="L70" s="15">
         <v>2000</v>
       </c>
-      <c r="M69" s="4">
+      <c r="M70" s="15">
         <v>2600</v>
       </c>
-      <c r="N69" s="4">
+      <c r="N70" s="15">
         <v>900</v>
       </c>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4">
+      <c r="O70" s="15"/>
+      <c r="P70" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="20">
+    <row r="71" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="16">
         <v>2019</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C71" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D71" s="18">
         <f t="shared" si="3"/>
         <v>78600</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E71" s="19">
         <v>44200</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F71" s="19">
         <v>13300</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G71" s="19">
         <v>4300</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H71" s="19">
         <v>2900</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I71" s="19">
         <v>2400</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J71" s="19">
         <v>2000</v>
       </c>
-      <c r="K70" s="7">
+      <c r="K71" s="19">
         <v>4300</v>
       </c>
-      <c r="L70" s="7">
+      <c r="L71" s="19">
         <v>2000</v>
       </c>
-      <c r="M70" s="7">
+      <c r="M71" s="19">
         <v>2400</v>
       </c>
-      <c r="N70" s="7">
+      <c r="N71" s="19">
         <v>800</v>
       </c>
-      <c r="O70" s="7"/>
-      <c r="P70" s="7">
+      <c r="O71" s="19"/>
+      <c r="P71" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="22">
+    <row r="72" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="12">
         <v>2019</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C72" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D72" s="14">
         <f t="shared" si="3"/>
         <v>81100</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E72" s="15">
         <v>45800</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F72" s="15">
         <v>13000</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G72" s="15">
         <v>4600</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H72" s="15">
         <v>3000</v>
       </c>
-      <c r="I71" s="4">
+      <c r="I72" s="15">
         <v>2600</v>
       </c>
-      <c r="J71" s="4">
+      <c r="J72" s="15">
         <v>2100</v>
       </c>
-      <c r="K71" s="4">
+      <c r="K72" s="15">
         <v>4600</v>
       </c>
-      <c r="L71" s="4">
+      <c r="L72" s="15">
         <v>1900</v>
       </c>
-      <c r="M71" s="4">
+      <c r="M72" s="15">
         <v>2600</v>
       </c>
-      <c r="N71" s="4">
+      <c r="N72" s="15">
         <v>900</v>
       </c>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4">
+      <c r="O72" s="15"/>
+      <c r="P72" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="20">
+    <row r="73" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="16">
         <v>2019</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C73" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D73" s="18">
         <f t="shared" si="3"/>
         <v>79300</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E73" s="19">
         <v>45200</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F73" s="19">
         <v>12800</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G73" s="19">
         <v>4600</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H73" s="19">
         <v>2500</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I73" s="19">
         <v>2600</v>
       </c>
-      <c r="J72" s="7">
+      <c r="J73" s="19">
         <v>2100</v>
       </c>
-      <c r="K72" s="7">
+      <c r="K73" s="19">
         <v>4400</v>
       </c>
-      <c r="L72" s="7">
+      <c r="L73" s="19">
         <v>1800</v>
       </c>
-      <c r="M72" s="7">
+      <c r="M73" s="19">
         <v>2500</v>
       </c>
-      <c r="N72" s="7">
+      <c r="N73" s="19">
         <v>800</v>
       </c>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7">
+      <c r="O73" s="19"/>
+      <c r="P73" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="22">
+    <row r="74" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="12">
         <v>2019</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C74" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D74" s="14">
         <f t="shared" si="3"/>
         <v>86500</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E74" s="15">
         <v>49900</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F74" s="15">
         <v>14500</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G74" s="15">
         <v>4300</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H74" s="15">
         <v>3000</v>
       </c>
-      <c r="I73" s="4">
+      <c r="I74" s="15">
         <v>2700</v>
       </c>
-      <c r="J73" s="4">
+      <c r="J74" s="15">
         <v>2000</v>
       </c>
-      <c r="K73" s="4">
+      <c r="K74" s="15">
         <v>5000</v>
       </c>
-      <c r="L73" s="4">
+      <c r="L74" s="15">
         <v>1700</v>
       </c>
-      <c r="M73" s="4">
+      <c r="M74" s="15">
         <v>2500</v>
       </c>
-      <c r="N73" s="4">
+      <c r="N74" s="15">
         <v>900</v>
       </c>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4">
+      <c r="O74" s="15"/>
+      <c r="P74" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="20">
+    <row r="75" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="16">
         <v>2019</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C75" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D75" s="18">
         <f t="shared" si="3"/>
         <v>73300</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E75" s="19">
         <v>41800</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F75" s="19">
         <v>11500</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G75" s="19">
         <v>4200</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H75" s="19">
         <v>2600</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I75" s="19">
         <v>2600</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J75" s="19">
         <v>1900</v>
       </c>
-      <c r="K74" s="7">
+      <c r="K75" s="19">
         <v>4100</v>
       </c>
-      <c r="L74" s="7">
+      <c r="L75" s="19">
         <v>1600</v>
       </c>
-      <c r="M74" s="7">
+      <c r="M75" s="19">
         <v>2300</v>
       </c>
-      <c r="N74" s="7">
+      <c r="N75" s="19">
         <v>700</v>
       </c>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7">
+      <c r="O75" s="19"/>
+      <c r="P75" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="24">
+    <row r="76" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="20">
         <v>2019</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="C76" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D75" s="10">
-        <f t="shared" ref="D75:D87" si="4">SUM(E75:P75)</f>
+      <c r="D76" s="22">
+        <f t="shared" ref="D76:D88" si="4">SUM(E76:P76)</f>
         <v>79200</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E76" s="23">
         <v>43500</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F76" s="23">
         <v>13500</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G76" s="23">
         <v>4800</v>
       </c>
-      <c r="H75" s="6">
+      <c r="H76" s="23">
         <v>2900</v>
       </c>
-      <c r="I75" s="6">
+      <c r="I76" s="23">
         <v>2600</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J76" s="23">
         <v>1900</v>
       </c>
-      <c r="K75" s="6">
+      <c r="K76" s="23">
         <v>4500</v>
       </c>
-      <c r="L75" s="6">
+      <c r="L76" s="23">
         <v>2100</v>
       </c>
-      <c r="M75" s="6">
+      <c r="M76" s="23">
         <v>2500</v>
       </c>
-      <c r="N75" s="6">
+      <c r="N76" s="23">
         <v>900</v>
       </c>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6">
+      <c r="O76" s="23"/>
+      <c r="P76" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="21">
+    <row r="77" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="17">
         <v>2018</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C77" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D77" s="18">
         <f t="shared" si="4"/>
         <v>85600</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E77" s="19">
         <v>48800</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F77" s="19">
         <v>14700</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G77" s="19">
         <v>4500</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H77" s="19">
         <v>3000</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I77" s="19">
         <v>3300</v>
       </c>
-      <c r="J76" s="7">
+      <c r="J77" s="19">
         <v>1900</v>
       </c>
-      <c r="K76" s="7">
+      <c r="K77" s="19">
         <v>4000</v>
       </c>
-      <c r="L76" s="7">
+      <c r="L77" s="19">
         <v>1900</v>
       </c>
-      <c r="M76" s="7">
+      <c r="M77" s="19">
         <v>2600</v>
       </c>
-      <c r="N76" s="7">
+      <c r="N77" s="19">
         <v>900</v>
       </c>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7">
+      <c r="O77" s="19"/>
+      <c r="P77" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="23">
+    <row r="78" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="13">
         <v>2018</v>
       </c>
-      <c r="C77" s="23" t="s">
+      <c r="C78" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D78" s="14">
         <f t="shared" si="4"/>
         <v>91600</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E78" s="15">
         <v>52500</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F78" s="15">
         <v>14700</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G78" s="15">
         <v>5200</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H78" s="15">
         <v>3400</v>
       </c>
-      <c r="I77" s="4">
+      <c r="I78" s="15">
         <v>3300</v>
       </c>
-      <c r="J77" s="4">
+      <c r="J78" s="15">
         <v>2300</v>
       </c>
-      <c r="K77" s="4">
+      <c r="K78" s="15">
         <v>4700</v>
       </c>
-      <c r="L77" s="4">
+      <c r="L78" s="15">
         <v>1800</v>
       </c>
-      <c r="M77" s="4">
+      <c r="M78" s="15">
         <v>2800</v>
       </c>
-      <c r="N77" s="4">
+      <c r="N78" s="15">
         <v>900</v>
       </c>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4">
+      <c r="O78" s="15"/>
+      <c r="P78" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="21">
+    <row r="79" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="17">
         <v>2018</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C79" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D79" s="18">
         <f t="shared" si="4"/>
         <v>94100</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E79" s="19">
         <v>53200</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F79" s="19">
         <v>15500</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G79" s="19">
         <v>5800</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H79" s="19">
         <v>3400</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I79" s="19">
         <v>2800</v>
       </c>
-      <c r="J78" s="7">
+      <c r="J79" s="19">
         <v>2200</v>
       </c>
-      <c r="K78" s="7">
+      <c r="K79" s="19">
         <v>5600</v>
       </c>
-      <c r="L78" s="7">
+      <c r="L79" s="19">
         <v>1800</v>
       </c>
-      <c r="M78" s="7">
+      <c r="M79" s="19">
         <v>2900</v>
       </c>
-      <c r="N78" s="7">
+      <c r="N79" s="19">
         <v>900</v>
       </c>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7">
+      <c r="O79" s="19"/>
+      <c r="P79" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="23">
+    <row r="80" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="13">
         <v>2018</v>
       </c>
-      <c r="C79" s="23" t="s">
+      <c r="C80" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D80" s="14">
         <f t="shared" si="4"/>
         <v>81400</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E80" s="15">
         <v>46600</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F80" s="15">
         <v>13200</v>
       </c>
-      <c r="G79" s="4">
+      <c r="G80" s="15">
         <v>4800</v>
       </c>
-      <c r="H79" s="4">
+      <c r="H80" s="15">
         <v>2900</v>
       </c>
-      <c r="I79" s="4">
+      <c r="I80" s="15">
         <v>2300</v>
       </c>
-      <c r="J79" s="4">
+      <c r="J80" s="15">
         <v>1900</v>
       </c>
-      <c r="K79" s="4">
+      <c r="K80" s="15">
         <v>5000</v>
       </c>
-      <c r="L79" s="4">
+      <c r="L80" s="15">
         <v>1500</v>
       </c>
-      <c r="M79" s="4">
+      <c r="M80" s="15">
         <v>2400</v>
       </c>
-      <c r="N79" s="4">
+      <c r="N80" s="15">
         <v>800</v>
       </c>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4">
+      <c r="O80" s="15"/>
+      <c r="P80" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="21">
+    <row r="81" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="17">
         <v>2018</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C81" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D81" s="18">
         <f t="shared" si="4"/>
         <v>84400</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E81" s="19">
         <v>48300</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F81" s="19">
         <v>12600</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G81" s="19">
         <v>5100</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H81" s="19">
         <v>3500</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I81" s="19">
         <v>2400</v>
       </c>
-      <c r="J80" s="7">
+      <c r="J81" s="19">
         <v>2100</v>
       </c>
-      <c r="K80" s="7">
+      <c r="K81" s="19">
         <v>5700</v>
       </c>
-      <c r="L80" s="7">
+      <c r="L81" s="19">
         <v>1600</v>
       </c>
-      <c r="M80" s="7">
+      <c r="M81" s="19">
         <v>2300</v>
       </c>
-      <c r="N80" s="7">
+      <c r="N81" s="19">
         <v>800</v>
       </c>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7">
+      <c r="O81" s="19"/>
+      <c r="P81" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="23">
+    <row r="82" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="13">
         <v>2018</v>
       </c>
-      <c r="C81" s="23" t="s">
+      <c r="C82" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D82" s="14">
         <f t="shared" si="4"/>
         <v>82200</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E82" s="15">
         <v>49400</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F82" s="15">
         <v>12400</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G82" s="15">
         <v>4200</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H82" s="15">
         <v>3100</v>
       </c>
-      <c r="I81" s="4">
+      <c r="I82" s="15">
         <v>2500</v>
       </c>
-      <c r="J81" s="4">
+      <c r="J82" s="15">
         <v>1900</v>
       </c>
-      <c r="K81" s="4">
+      <c r="K82" s="15">
         <v>4100</v>
       </c>
-      <c r="L81" s="4">
+      <c r="L82" s="15">
         <v>1700</v>
       </c>
-      <c r="M81" s="4">
+      <c r="M82" s="15">
         <v>2100</v>
       </c>
-      <c r="N81" s="4">
+      <c r="N82" s="15">
         <v>800</v>
       </c>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4">
+      <c r="O82" s="15"/>
+      <c r="P82" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="21">
+    <row r="83" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="17">
         <v>2018</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C83" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D83" s="18">
         <f t="shared" si="4"/>
         <v>86500</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E83" s="19">
         <v>51000</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F83" s="19">
         <v>13400</v>
       </c>
-      <c r="G82" s="7">
+      <c r="G83" s="19">
         <v>4500</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H83" s="19">
         <v>3100</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I83" s="19">
         <v>2600</v>
       </c>
-      <c r="J82" s="7">
+      <c r="J83" s="19">
         <v>2000</v>
       </c>
-      <c r="K82" s="7">
+      <c r="K83" s="19">
         <v>5100</v>
       </c>
-      <c r="L82" s="7">
+      <c r="L83" s="19">
         <v>1800</v>
       </c>
-      <c r="M82" s="7">
+      <c r="M83" s="19">
         <v>2100</v>
       </c>
-      <c r="N82" s="7">
+      <c r="N83" s="19">
         <v>900</v>
       </c>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7">
+      <c r="O83" s="19"/>
+      <c r="P83" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="23">
+    <row r="84" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="13">
         <v>2018</v>
       </c>
-      <c r="C83" s="23" t="s">
+      <c r="C84" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D84" s="14">
         <f t="shared" si="4"/>
         <v>86200</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E84" s="15">
         <v>49700</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F84" s="15">
         <v>13600</v>
       </c>
-      <c r="G83" s="4">
+      <c r="G84" s="15">
         <v>5000</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H84" s="15">
         <v>3200</v>
       </c>
-      <c r="I83" s="4">
+      <c r="I84" s="15">
         <v>2700</v>
       </c>
-      <c r="J83" s="4">
+      <c r="J84" s="15">
         <v>2300</v>
       </c>
-      <c r="K83" s="4">
+      <c r="K84" s="15">
         <v>4700</v>
       </c>
-      <c r="L83" s="4">
+      <c r="L84" s="15">
         <v>1900</v>
       </c>
-      <c r="M83" s="4">
+      <c r="M84" s="15">
         <v>2200</v>
       </c>
-      <c r="N83" s="4">
+      <c r="N84" s="15">
         <v>900</v>
       </c>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4">
+      <c r="O84" s="15"/>
+      <c r="P84" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="21">
+    <row r="85" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="17">
         <v>2018</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C85" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D85" s="18">
         <f t="shared" si="4"/>
         <v>84500</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E85" s="19">
         <v>49400</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F85" s="19">
         <v>13900</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G85" s="19">
         <v>4500</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H85" s="19">
         <v>2800</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I85" s="19">
         <v>2800</v>
       </c>
-      <c r="J84" s="7">
+      <c r="J85" s="19">
         <v>1900</v>
       </c>
-      <c r="K84" s="7">
+      <c r="K85" s="19">
         <v>4600</v>
       </c>
-      <c r="L84" s="7">
+      <c r="L85" s="19">
         <v>1700</v>
       </c>
-      <c r="M84" s="7">
+      <c r="M85" s="19">
         <v>2000</v>
       </c>
-      <c r="N84" s="7">
+      <c r="N85" s="19">
         <v>900</v>
       </c>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7">
+      <c r="O85" s="19"/>
+      <c r="P85" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="23">
+    <row r="86" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="13">
         <v>2018</v>
       </c>
-      <c r="C85" s="23" t="s">
+      <c r="C86" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D86" s="14">
         <f t="shared" si="4"/>
         <v>81600</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E86" s="15">
         <v>46000</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F86" s="15">
         <v>16000</v>
       </c>
-      <c r="G85" s="4">
+      <c r="G86" s="15">
         <v>4400</v>
       </c>
-      <c r="H85" s="4">
+      <c r="H86" s="15">
         <v>2900</v>
       </c>
-      <c r="I85" s="4">
+      <c r="I86" s="15">
         <v>2800</v>
       </c>
-      <c r="J85" s="4">
+      <c r="J86" s="15">
         <v>1800</v>
       </c>
-      <c r="K85" s="4">
+      <c r="K86" s="15">
         <v>3500</v>
       </c>
-      <c r="L85" s="4">
+      <c r="L86" s="15">
         <v>1400</v>
       </c>
-      <c r="M85" s="4">
+      <c r="M86" s="15">
         <v>2000</v>
       </c>
-      <c r="N85" s="4">
+      <c r="N86" s="15">
         <v>800</v>
       </c>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4">
+      <c r="O86" s="15"/>
+      <c r="P86" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="21">
+    <row r="87" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="17">
         <v>2018</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C87" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D87" s="18">
         <f t="shared" si="4"/>
         <v>74900</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E87" s="19">
         <v>44100</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F87" s="19">
         <v>12100</v>
       </c>
-      <c r="G86" s="7">
+      <c r="G87" s="19">
         <v>4100</v>
       </c>
-      <c r="H86" s="7">
+      <c r="H87" s="19">
         <v>2700</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I87" s="19">
         <v>2700</v>
       </c>
-      <c r="J86" s="7">
+      <c r="J87" s="19">
         <v>2100</v>
       </c>
-      <c r="K86" s="7">
+      <c r="K87" s="19">
         <v>3000</v>
       </c>
-      <c r="L86" s="7">
+      <c r="L87" s="19">
         <v>1500</v>
       </c>
-      <c r="M86" s="7">
+      <c r="M87" s="19">
         <v>1900</v>
       </c>
-      <c r="N86" s="7">
+      <c r="N87" s="19">
         <v>700</v>
       </c>
-      <c r="O86" s="7"/>
-      <c r="P86" s="7">
+      <c r="O87" s="19"/>
+      <c r="P87" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="23">
+    <row r="88" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="13">
         <v>2018</v>
       </c>
-      <c r="C87" s="23" t="s">
+      <c r="C88" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D88" s="14">
         <f t="shared" si="4"/>
         <v>74300</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E88" s="15">
         <v>42800</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F88" s="15">
         <v>12000</v>
       </c>
-      <c r="G87" s="4">
+      <c r="G88" s="15">
         <v>4100</v>
       </c>
-      <c r="H87" s="4">
+      <c r="H88" s="15">
         <v>2500</v>
       </c>
-      <c r="I87" s="4">
+      <c r="I88" s="15">
         <v>2600</v>
       </c>
-      <c r="J87" s="4">
+      <c r="J88" s="15">
         <v>2300</v>
       </c>
-      <c r="K87" s="4">
+      <c r="K88" s="15">
         <v>3300</v>
       </c>
-      <c r="L87" s="4">
+      <c r="L88" s="15">
         <v>2000</v>
       </c>
-      <c r="M87" s="4">
+      <c r="M88" s="15">
         <v>1900</v>
       </c>
-      <c r="N87" s="4">
+      <c r="N88" s="15">
         <v>800</v>
       </c>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4">
+      <c r="O88" s="15"/>
+      <c r="P88" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B88" s="16" t="s">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B89" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C88" s="16"/>
-    </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B89" s="16" t="s">
+      <c r="C89" s="28"/>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B90" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C89" s="18"/>
-      <c r="P89" s="3"/>
-    </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B90" s="18" t="s">
+      <c r="C90" s="29"/>
+      <c r="P90" s="30"/>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B91" s="29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B92" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D97" s="16"/>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D98" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E4:P4"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/P_aeropuertos_carga.xlsx
+++ b/P_aeropuertos_carga.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F3F3DD-9EF6-4B13-B368-7B2D2DEF8A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13242AB5-CF08-467B-AA20-36135D2311BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
   <si>
     <t>Total</t>
   </si>
@@ -137,7 +137,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Noviembre 2024.</t>
+    <t>Actualización: Diciembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -331,12 +331,6 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -387,62 +381,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -683,6 +633,56 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -697,8 +697,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:P88" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="17" tableBorderDxfId="18">
-  <autoFilter ref="B5:P88" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:P89" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
+  <autoFilter ref="B5:P89" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -706,23 +706,23 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{8DA3434B-131A-4F9D-BB48-DA35B12E8DD9}" name="Mes" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{86077915-C170-40DA-9DB4-19E81910B485}" name="Total" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="14"/>
+    <tableColumn id="15" xr3:uid="{8DA3434B-131A-4F9D-BB48-DA35B12E8DD9}" name="Mes" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{86077915-C170-40DA-9DB4-19E81910B485}" name="Total" dataDxfId="12">
       <calculatedColumnFormula>SUM(E6:P6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="CDMX." dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Guadalajara" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Monterrey" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{A869730C-1719-4A70-8838-10376967FD05}" name="Querétaro" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{523CBB34-1DEE-445B-8474-FD8E64117197}" name="Toluca" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{631795EF-E72C-4257-9376-F3F950D2CD24}" name="Cancún" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{7825E645-762A-41A2-B4FE-F68035B408F7}" name="San Luis Potosí" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{ABE62262-6A70-4763-8581-1FC262023BDA}" name="Tijuana" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{79063C30-2596-43D4-82AD-DC7007BA3E47}" name="Mérida" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{CDE1B9AF-E706-4B29-B603-3DCD26E54911}" name="Hermosillo" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{7769A62F-33B2-412B-9C53-D3B348E11FE5}" name="Santa Lucia" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{3A39F25A-01C8-4C33-9932-0510E508260D}" name="       Otros" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="CDMX." dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Guadalajara" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Monterrey" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{A869730C-1719-4A70-8838-10376967FD05}" name="Querétaro" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{523CBB34-1DEE-445B-8474-FD8E64117197}" name="Toluca" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{631795EF-E72C-4257-9376-F3F950D2CD24}" name="Cancún" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{7825E645-762A-41A2-B4FE-F68035B408F7}" name="San Luis Potosí" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{ABE62262-6A70-4763-8581-1FC262023BDA}" name="Tijuana" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{79063C30-2596-43D4-82AD-DC7007BA3E47}" name="Mérida" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{CDE1B9AF-E706-4B29-B603-3DCD26E54911}" name="Hermosillo" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{7769A62F-33B2-412B-9C53-D3B348E11FE5}" name="Santa Lucia" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{3A39F25A-01C8-4C33-9932-0510E508260D}" name="       Otros" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -951,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:P98"/>
+  <dimension ref="B2:P99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -995,3955 +995,4003 @@
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B6" s="12">
+      <c r="B6" s="14">
         <v>2024</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="16">
+        <f>SUM(E6:P6)</f>
+        <v>103547.94350000002</v>
+      </c>
+      <c r="E6" s="17">
+        <v>22084.1</v>
+      </c>
+      <c r="F6" s="17">
+        <v>13788.543999999998</v>
+      </c>
+      <c r="G6" s="17">
+        <v>6101.1239999999998</v>
+      </c>
+      <c r="H6" s="17">
+        <v>6605.4089999999997</v>
+      </c>
+      <c r="I6" s="17">
+        <v>2916.9539999999997</v>
+      </c>
+      <c r="J6" s="17">
+        <v>3692.6709999999998</v>
+      </c>
+      <c r="K6" s="17">
+        <v>2180.1759999999999</v>
+      </c>
+      <c r="L6" s="17">
+        <v>3298.9829999999997</v>
+      </c>
+      <c r="M6" s="17">
+        <v>2405.654</v>
+      </c>
+      <c r="N6" s="17">
+        <v>1379.29</v>
+      </c>
+      <c r="O6" s="17">
+        <v>34117.491999999998</v>
+      </c>
+      <c r="P6" s="17">
+        <v>4977.5465000000313</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B7" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="14">
-        <f>SUM(E6:P6)</f>
+      <c r="D7" s="12">
+        <f>SUM(E7:P7)</f>
         <v>108489.79521000001</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E7" s="13">
         <v>20513.3</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F7" s="13">
         <v>14292.029000000002</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G7" s="13">
         <v>6952.0010000000002</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H7" s="13">
         <v>7027.32</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I7" s="13">
         <v>3190.241</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J7" s="13">
         <v>3783.056</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K7" s="13">
         <v>2546.4230000000002</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L7" s="13">
         <v>3625.6490000000003</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M7" s="13">
         <v>2301.3359999999998</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N7" s="13">
         <v>1566.8050000000001</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O7" s="13">
         <v>37606.786999999997</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P7" s="13">
         <v>5084.8482100000183</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B7" s="16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B8" s="14">
         <v>2024</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="18">
-        <f t="shared" ref="D7" si="0">SUM(E7:P7)</f>
+      <c r="D8" s="16">
+        <f t="shared" ref="D8" si="0">SUM(E8:P8)</f>
         <v>112101.83326999999</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E8" s="17">
         <v>21954.2</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F8" s="17">
         <v>15035.019</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G8" s="17">
         <v>7434.2699999999995</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H8" s="17">
         <v>7376.1170000000002</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I8" s="17">
         <v>3603.3429999999998</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J8" s="17">
         <v>2668.8590000000004</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K8" s="17">
         <v>2486.047</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L8" s="17">
         <v>3482.5789999999997</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M8" s="17">
         <v>2059.6219999999998</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N8" s="17">
         <v>1836.462</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O8" s="17">
         <v>38827.07</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P8" s="17">
         <v>5338.2452699999949</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B8" s="12">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B9" s="10">
         <v>2024</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="14">
-        <f>SUM(E8:P8)</f>
+      <c r="D9" s="12">
+        <f>SUM(E9:P9)</f>
         <v>102256.34403999997</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E9" s="13">
         <v>19983</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F9" s="13">
         <v>15121.885</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G9" s="13">
         <v>6653.17</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H9" s="13">
         <v>6096.0540000000001</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I9" s="13">
         <v>3038.8139999999999</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J9" s="13">
         <v>2226.7169999999996</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K9" s="13">
         <v>2083.5909999999999</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L9" s="13">
         <v>2940.2349999999997</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M9" s="13">
         <v>2121.4749999999999</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N9" s="13">
         <v>1691.9869999999999</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O9" s="13">
         <v>35995.97</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P9" s="13">
         <v>4303.4460399999825</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B9" s="16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B10" s="14">
         <v>2024</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="18">
-        <f>SUM(E9:P9)</f>
+      <c r="D10" s="16">
+        <f>SUM(E10:P10)</f>
         <v>108823.69917000002</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E10" s="17">
         <v>20229.3</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F10" s="17">
         <v>15421.421999999999</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G10" s="17">
         <v>6900.85</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H10" s="17">
         <v>6494.0969999999998</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I10" s="17">
         <v>3427.1890000000003</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J10" s="17">
         <v>2725.0420000000004</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K10" s="17">
         <v>2321.3049999999998</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L10" s="17">
         <v>3155.9950000000003</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M10" s="17">
         <v>2335.154</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N10" s="17">
         <v>1623.2050000000002</v>
       </c>
-      <c r="O9" s="19">
+      <c r="O10" s="17">
         <v>39174.343999999997</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P10" s="17">
         <v>5015.7961700000369</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B10" s="12">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B11" s="10">
         <v>2024</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="14">
-        <f t="shared" ref="D10:D12" si="1">SUM(E10:P10)</f>
+      <c r="D11" s="12">
+        <f t="shared" ref="D11:D13" si="1">SUM(E11:P11)</f>
         <v>107882.74128000005</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E11" s="13">
         <v>19500.699999999997</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F11" s="13">
         <v>15606.789000000001</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G11" s="13">
         <v>7406.7370000000001</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H11" s="13">
         <v>6133.4809999999998</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I11" s="13">
         <v>3408.8180000000002</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J11" s="13">
         <v>2590.2110000000002</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K11" s="13">
         <v>2370.0729999999999</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L11" s="13">
         <v>3036.741</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M11" s="13">
         <v>2203.3470000000002</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N11" s="13">
         <v>1958.9659999999999</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O11" s="13">
         <v>38531.585999999996</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P11" s="13">
         <v>5135.2922800000515</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B11" s="16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B12" s="14">
         <v>2024</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D12" s="16">
         <f t="shared" si="1"/>
         <v>106952.98336000003</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E12" s="17">
         <v>19499.3</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F12" s="17">
         <v>14724.419</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G12" s="17">
         <v>7318.848</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H12" s="17">
         <v>6428.241</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I12" s="17">
         <v>3309.4189999999999</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J12" s="17">
         <v>2399.3510000000001</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K12" s="17">
         <v>2148.4209999999998</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L12" s="17">
         <v>3308.527</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M12" s="17">
         <v>2070.7939999999999</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N12" s="17">
         <v>1689.7920000000001</v>
       </c>
-      <c r="O11" s="19">
+      <c r="O12" s="17">
         <v>39593.667999999998</v>
       </c>
-      <c r="P11" s="19">
+      <c r="P12" s="17">
         <v>4462.203360000025</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B12" s="12">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B13" s="10">
         <v>2024</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D13" s="12">
         <f t="shared" si="1"/>
-        <v>110411.10745000001</v>
-      </c>
-      <c r="E12" s="15">
+        <v>110411.98745000002</v>
+      </c>
+      <c r="E13" s="13">
         <v>20062</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F13" s="13">
         <v>15321.734</v>
       </c>
-      <c r="G12" s="15">
-        <v>6842.7150000000001</v>
-      </c>
-      <c r="H12" s="15">
+      <c r="G13" s="13">
+        <v>6843.5949999999993</v>
+      </c>
+      <c r="H13" s="13">
         <v>6818.1309999999994</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I13" s="13">
         <v>3632.4749999999995</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J13" s="13">
         <v>2865.9740000000002</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K13" s="13">
         <v>2297.306</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L13" s="13">
         <v>3244.5340000000001</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M13" s="13">
         <v>2175.2600000000002</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N13" s="13">
         <v>1778.4730000000002</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O13" s="13">
         <v>40133.834000000003</v>
       </c>
-      <c r="P12" s="15">
+      <c r="P13" s="13">
         <v>5238.6714500000198</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B13" s="16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B14" s="14">
         <v>2024</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="18">
-        <f t="shared" ref="D13:D43" si="2">SUM(E13:P13)</f>
+      <c r="D14" s="16">
+        <f t="shared" ref="D14:D44" si="2">SUM(E14:P14)</f>
         <v>105215.16596</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E14" s="17">
         <v>18973.3</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F14" s="17">
         <v>13665.344000000001</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G14" s="17">
         <v>6313.32</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H14" s="17">
         <v>6639.4679999999998</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I14" s="17">
         <v>3421.6190000000001</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J14" s="17">
         <v>3106.3360000000002</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K14" s="17">
         <v>2364.4089999999997</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L14" s="17">
         <v>3512.4059999999999</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M14" s="17">
         <v>2156.3200000000002</v>
       </c>
-      <c r="N13" s="19">
+      <c r="N14" s="17">
         <v>1665.7180000000001</v>
       </c>
-      <c r="O13" s="19">
+      <c r="O14" s="17">
         <v>38502.94</v>
       </c>
-      <c r="P13" s="19">
+      <c r="P14" s="17">
         <v>4893.9859599999945</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="12">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B15" s="10">
         <v>2024</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D15" s="12">
         <f t="shared" si="2"/>
         <v>104014.85637999998</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E15" s="13">
         <v>19802.7</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F15" s="13">
         <v>14556.685000000001</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G15" s="13">
         <v>5905.6409999999996</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H15" s="13">
         <v>5567.2889999999998</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I15" s="13">
         <v>3144.7429999999999</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J15" s="13">
         <v>3762.2560000000003</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K15" s="13">
         <v>2058.4110000000001</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L15" s="13">
         <v>2935.8180000000002</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M15" s="13">
         <v>1921.692</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N15" s="13">
         <v>1570.1889999999996</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O15" s="13">
         <v>38209.173000000003</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P15" s="13">
         <v>4580.2593799999795</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B16" s="14">
         <v>2024</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D16" s="16">
         <f t="shared" si="2"/>
         <v>96832.621000000028</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E16" s="17">
         <v>19063.57</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F16" s="17">
         <v>12825.287</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G16" s="17">
         <v>5709.5619999999999</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H16" s="17">
         <v>6237.3979999999992</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I16" s="17">
         <v>3026.2809999999999</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J16" s="17">
         <v>3371.2139999999999</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K16" s="17">
         <v>2375.6289999999999</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L16" s="17">
         <v>3173.3670000000002</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M16" s="17">
         <v>2052.38</v>
       </c>
-      <c r="N15" s="19">
+      <c r="N16" s="17">
         <v>1593.547</v>
       </c>
-      <c r="O15" s="19">
+      <c r="O16" s="17">
         <v>32860.998999999996</v>
       </c>
-      <c r="P15" s="19">
+      <c r="P16" s="17">
         <v>4543.3870000000315</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B16" s="20">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B17" s="18">
         <v>2024</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D17" s="20">
         <f t="shared" si="2"/>
         <v>97330.675600000075</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E17" s="21">
         <v>18369.400000000001</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F17" s="21">
         <v>13351.472999999998</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G17" s="21">
         <v>5884.6970000000001</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H17" s="21">
         <v>5967.9220000000005</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I17" s="21">
         <v>2989.357</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J17" s="21">
         <v>2973.8410000000003</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K17" s="21">
         <v>2268.6259999999997</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L17" s="21">
         <v>2854.8959999999997</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M17" s="21">
         <v>2397.5709999999999</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N17" s="21">
         <v>1825.489</v>
       </c>
-      <c r="O16" s="23">
+      <c r="O17" s="21">
         <v>33787.300999999999</v>
       </c>
-      <c r="P16" s="23">
+      <c r="P17" s="21">
         <v>4660.1026000000729</v>
       </c>
     </row>
-    <row r="17" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="24">
+    <row r="18" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="22">
         <v>2023</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C18" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D18" s="24">
         <f t="shared" si="2"/>
         <v>104426.30729999999</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E18" s="25">
         <v>20566.599999999999</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F18" s="25">
         <v>13313.805</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G18" s="25">
         <v>5779.5439999999999</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H18" s="25">
         <v>6634.8190000000004</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I18" s="25">
         <v>3186.3519999999999</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J18" s="25">
         <v>3890.0010000000002</v>
       </c>
-      <c r="K17" s="27">
+      <c r="K18" s="25">
         <v>2228.2650000000003</v>
       </c>
-      <c r="L17" s="27">
+      <c r="L18" s="25">
         <v>3022.0309999999999</v>
       </c>
-      <c r="M17" s="27">
+      <c r="M18" s="25">
         <v>2482.5659999999998</v>
       </c>
-      <c r="N17" s="27">
+      <c r="N18" s="25">
         <v>1573.3980000000001</v>
       </c>
-      <c r="O17" s="27">
+      <c r="O18" s="25">
         <v>36496.25</v>
       </c>
-      <c r="P17" s="27">
+      <c r="P18" s="25">
         <v>5252.6762999999974</v>
       </c>
     </row>
-    <row r="18" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="12">
+    <row r="19" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="10">
         <v>2023</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D19" s="12">
         <f t="shared" si="2"/>
         <v>105823.25400000002</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E19" s="13">
         <v>20520.5</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F19" s="13">
         <v>14126.735000000001</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G19" s="13">
         <v>6122.6710000000003</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H19" s="13">
         <v>6195.4279999999999</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I19" s="13">
         <v>3286.1129999999998</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J19" s="13">
         <v>3463.6080000000002</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K19" s="13">
         <v>2592.8070000000002</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L19" s="13">
         <v>3439.2550000000001</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M19" s="13">
         <v>2391.259</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N19" s="13">
         <v>1992.0079999999998</v>
       </c>
-      <c r="O18" s="15">
+      <c r="O19" s="13">
         <v>36256.74</v>
       </c>
-      <c r="P18" s="15">
+      <c r="P19" s="13">
         <v>5436.1300000000128</v>
       </c>
     </row>
-    <row r="19" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="16">
+    <row r="20" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="14">
         <v>2023</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C20" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D20" s="16">
         <f t="shared" si="2"/>
         <v>107132.1866</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E20" s="17">
         <v>20291</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F20" s="17">
         <v>14588.228999999999</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G20" s="17">
         <v>6563.4580000000005</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H20" s="17">
         <v>6490.5720000000001</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I20" s="17">
         <v>3206.3980000000001</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J20" s="17">
         <v>2918.2420000000002</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K20" s="17">
         <v>2583.0619999999999</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L20" s="17">
         <v>3007.05</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M20" s="17">
         <v>2285.1779999999999</v>
       </c>
-      <c r="N19" s="19">
+      <c r="N20" s="17">
         <v>2296.12</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O20" s="17">
         <v>37567.615000000005</v>
       </c>
-      <c r="P19" s="19">
+      <c r="P20" s="17">
         <v>5335.2626000000073</v>
       </c>
     </row>
-    <row r="20" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="12">
+    <row r="21" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="10">
         <v>2023</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D21" s="12">
         <f t="shared" si="2"/>
         <v>96344.621599999969</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E21" s="13">
         <v>18890.84</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F21" s="13">
         <v>11939.238000000001</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G21" s="13">
         <v>6448.41</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H21" s="13">
         <v>6941.482</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I21" s="13">
         <v>2997.1009999999997</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J21" s="13">
         <v>2820.8690000000001</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K21" s="13">
         <v>2392.9459999999999</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L21" s="13">
         <v>2689.5440000000003</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M21" s="13">
         <v>2237.8310000000001</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N21" s="13">
         <v>1937.12</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O21" s="13">
         <v>32211.534999999996</v>
       </c>
-      <c r="P20" s="15">
+      <c r="P21" s="13">
         <v>4837.7055999999784</v>
       </c>
     </row>
-    <row r="21" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="16">
+    <row r="22" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="14">
         <v>2023</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D22" s="16">
         <f t="shared" si="2"/>
         <v>101340.06099999999</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E22" s="17">
         <v>30758.92</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F22" s="17">
         <v>12635.058999999999</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G22" s="17">
         <v>6735.0630000000001</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H22" s="17">
         <v>7071.5340000000006</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I22" s="17">
         <v>3260.134</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J22" s="17">
         <v>2927.556</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K22" s="17">
         <v>2738.0719999999997</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L22" s="17">
         <v>3079.3420000000001</v>
       </c>
-      <c r="M21" s="19">
+      <c r="M22" s="17">
         <v>2242.9470000000001</v>
       </c>
-      <c r="N21" s="19">
+      <c r="N22" s="17">
         <v>2212.1790000000001</v>
       </c>
-      <c r="O21" s="19">
+      <c r="O22" s="17">
         <v>22653.131999999998</v>
       </c>
-      <c r="P21" s="19">
+      <c r="P22" s="17">
         <v>5026.1229999999987</v>
       </c>
     </row>
-    <row r="22" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="12">
+    <row r="23" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="10">
         <v>2023</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D23" s="12">
         <f t="shared" si="2"/>
         <v>99893.349999999977</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E23" s="13">
         <v>42255.99</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F23" s="13">
         <v>13795.428</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G23" s="13">
         <v>6453.2659999999996</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H23" s="13">
         <v>6305.5460000000003</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I23" s="13">
         <v>2850.3670000000002</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J23" s="13">
         <v>2992.5640000000003</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K23" s="13">
         <v>2184.107</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L23" s="13">
         <v>3001.3330000000001</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M23" s="13">
         <v>2136.636</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N23" s="13">
         <v>1665.6389999999999</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O23" s="13">
         <v>12061.946</v>
       </c>
-      <c r="P22" s="15">
+      <c r="P23" s="13">
         <v>4190.5279999999912</v>
       </c>
     </row>
-    <row r="23" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="16">
+    <row r="24" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="14">
         <v>2023</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C24" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D24" s="16">
         <f t="shared" si="2"/>
         <v>100692.46</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E24" s="17">
         <v>48959.360000000001</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F24" s="17">
         <v>14347.388000000001</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G24" s="17">
         <v>6967.08</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H24" s="17">
         <v>7548.9220000000005</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I24" s="17">
         <v>3319.7</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J24" s="17">
         <v>2985.5720000000001</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K24" s="17">
         <v>2751.5749999999998</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L24" s="17">
         <v>2986.2660000000001</v>
       </c>
-      <c r="M23" s="19">
+      <c r="M24" s="17">
         <v>2130.835</v>
       </c>
-      <c r="N23" s="19">
+      <c r="N24" s="17">
         <v>1363.424</v>
       </c>
-      <c r="O23" s="19">
+      <c r="O24" s="17">
         <v>2657.15</v>
       </c>
-      <c r="P23" s="19">
+      <c r="P24" s="17">
         <v>4675.1880000000074</v>
       </c>
     </row>
-    <row r="24" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="12">
+    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="10">
         <v>2023</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D25" s="12">
         <f t="shared" si="2"/>
         <v>98181.257999999987</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E25" s="13">
         <v>50235.43</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F25" s="13">
         <v>13240.904999999999</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G25" s="13">
         <v>6447.4090000000006</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H25" s="13">
         <v>6818.1289999999999</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I25" s="13">
         <v>3168.0129999999999</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J25" s="13">
         <v>3032.7219999999998</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K25" s="13">
         <v>2419.5279999999998</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L25" s="13">
         <v>3039.0519999999997</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M25" s="13">
         <v>2077.337</v>
       </c>
-      <c r="N24" s="15">
+      <c r="N25" s="13">
         <v>1145.9829999999999</v>
       </c>
-      <c r="O24" s="15">
+      <c r="O25" s="13">
         <v>2054.748</v>
       </c>
-      <c r="P24" s="15">
+      <c r="P25" s="13">
         <v>4502.0019999999795</v>
       </c>
     </row>
-    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="16">
+    <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="14">
         <v>2023</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C26" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D26" s="16">
         <f t="shared" si="2"/>
         <v>92574.85</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E26" s="17">
         <v>47367.56</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F26" s="17">
         <v>13553.766</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G26" s="17">
         <v>6046.3230000000003</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H26" s="17">
         <v>5997.2860000000001</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I26" s="17">
         <v>2823</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J26" s="17">
         <v>3201.482</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K26" s="17">
         <v>2103.346</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L26" s="17">
         <v>2699.6509999999998</v>
       </c>
-      <c r="M25" s="19">
+      <c r="M26" s="17">
         <v>1830.1030000000001</v>
       </c>
-      <c r="N25" s="19">
+      <c r="N26" s="17">
         <v>966.625</v>
       </c>
-      <c r="O25" s="19">
+      <c r="O26" s="17">
         <v>1973.069</v>
       </c>
-      <c r="P25" s="19">
+      <c r="P26" s="17">
         <v>4012.6390000000029</v>
       </c>
     </row>
-    <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="12">
+    <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D27" s="12">
         <f t="shared" si="2"/>
         <v>105745.56200000001</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E27" s="13">
         <v>52276.67</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F27" s="13">
         <v>16535.007000000001</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G27" s="13">
         <v>6440.4480000000003</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H27" s="13">
         <v>7445.0419999999995</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I27" s="13">
         <v>3504.6480000000001</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J27" s="13">
         <v>3949.8199999999997</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K27" s="13">
         <v>2498.7659999999996</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L27" s="13">
         <v>3061.4049999999997</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M27" s="13">
         <v>2069.788</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N27" s="13">
         <v>1219.9379999999999</v>
       </c>
-      <c r="O26" s="15">
+      <c r="O27" s="13">
         <v>1776.1070000000002</v>
       </c>
-      <c r="P26" s="15">
+      <c r="P27" s="13">
         <v>4967.9229999999952</v>
       </c>
     </row>
-    <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="16">
+    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="14">
         <v>2023</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C28" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D28" s="16">
         <f t="shared" si="2"/>
         <v>92062.197000000015</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E28" s="17">
         <v>48557.700000000004</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F28" s="17">
         <v>12859.111000000001</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G28" s="17">
         <v>5657.7039999999997</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H28" s="17">
         <v>6269.88</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I28" s="17">
         <v>2992.4319999999998</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J28" s="17">
         <v>3589.6260000000002</v>
       </c>
-      <c r="K27" s="19">
+      <c r="K28" s="17">
         <v>2018.2800000000002</v>
       </c>
-      <c r="L27" s="19">
+      <c r="L28" s="17">
         <v>2591.8669999999997</v>
       </c>
-      <c r="M27" s="19">
+      <c r="M28" s="17">
         <v>1971.3010000000002</v>
       </c>
-      <c r="N27" s="19">
+      <c r="N28" s="17">
         <v>967.20100000000002</v>
       </c>
-      <c r="O27" s="19">
+      <c r="O28" s="17">
         <v>24.785999999999998</v>
       </c>
-      <c r="P27" s="19">
+      <c r="P28" s="17">
         <v>4562.3090000000093</v>
       </c>
     </row>
-    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="20">
+    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="18">
         <v>2023</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C29" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D29" s="20">
         <f t="shared" si="2"/>
         <v>91861.286999999982</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E29" s="21">
         <v>47206.720000000001</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F29" s="21">
         <v>14071.760999999999</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G29" s="21">
         <v>5308.5119999999997</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H29" s="21">
         <v>6105.5779999999995</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I29" s="21">
         <v>3099.4949999999999</v>
       </c>
-      <c r="J28" s="23">
+      <c r="J29" s="21">
         <v>3049.6080000000002</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K29" s="21">
         <v>2226.4519999999998</v>
       </c>
-      <c r="L28" s="23">
+      <c r="L29" s="21">
         <v>2648.1549999999997</v>
       </c>
-      <c r="M28" s="23">
+      <c r="M29" s="21">
         <v>2170.7359999999999</v>
       </c>
-      <c r="N28" s="23">
+      <c r="N29" s="21">
         <v>1026.6849999999999</v>
       </c>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23">
+      <c r="O29" s="21"/>
+      <c r="P29" s="21">
         <v>4947.5849999999755</v>
       </c>
     </row>
-    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="24">
+    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="22">
         <v>2022</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C30" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D30" s="24">
         <f t="shared" si="2"/>
         <v>101065.27699999994</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E30" s="25">
         <v>51995.01</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F30" s="25">
         <v>14753.401000000002</v>
       </c>
-      <c r="G29" s="27">
+      <c r="G30" s="25">
         <v>6074.482</v>
       </c>
-      <c r="H29" s="27">
+      <c r="H30" s="25">
         <v>6693.6720000000005</v>
       </c>
-      <c r="I29" s="27">
+      <c r="I30" s="25">
         <v>3610.9369999999999</v>
       </c>
-      <c r="J29" s="27">
+      <c r="J30" s="25">
         <v>3543.056</v>
       </c>
-      <c r="K29" s="27">
+      <c r="K30" s="25">
         <v>2529.5419999999999</v>
       </c>
-      <c r="L29" s="27">
+      <c r="L30" s="25">
         <v>3120.09</v>
       </c>
-      <c r="M29" s="27">
+      <c r="M30" s="25">
         <v>2114.6820000000002</v>
       </c>
-      <c r="N29" s="27">
+      <c r="N30" s="25">
         <v>1202.202</v>
       </c>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27">
+      <c r="O30" s="25"/>
+      <c r="P30" s="25">
         <v>5428.2029999999249</v>
       </c>
     </row>
-    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="12">
+    <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="10">
         <v>2022</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C31" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D31" s="12">
         <f t="shared" si="2"/>
         <v>100761.743</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E31" s="13">
         <v>52228.090000000004</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F31" s="13">
         <v>14611.128000000001</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G31" s="13">
         <v>6314.7170000000006</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H31" s="13">
         <v>6174.5390000000007</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I31" s="13">
         <v>3744.3739999999998</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J31" s="13">
         <v>3438.8589999999999</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K31" s="13">
         <v>2565.1889999999999</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L31" s="13">
         <v>3357.0519999999997</v>
       </c>
-      <c r="M30" s="15">
+      <c r="M31" s="13">
         <v>2200.0079999999998</v>
       </c>
-      <c r="N30" s="15">
+      <c r="N31" s="13">
         <v>1152.1139999999998</v>
       </c>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15">
+      <c r="O31" s="13"/>
+      <c r="P31" s="13">
         <v>4975.6730000000007</v>
       </c>
     </row>
-    <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="16">
+    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="14">
         <v>2022</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C32" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D32" s="16">
         <f t="shared" si="2"/>
         <v>101815.66400000002</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E32" s="17">
         <v>53850.369999999995</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F32" s="17">
         <v>15184.744000000001</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G32" s="17">
         <v>6463.3790000000008</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H32" s="17">
         <v>5772.1310000000003</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I32" s="17">
         <v>3574.8900000000003</v>
       </c>
-      <c r="J31" s="19">
+      <c r="J32" s="17">
         <v>3573.3429999999998</v>
       </c>
-      <c r="K31" s="19">
+      <c r="K32" s="17">
         <v>2038.558</v>
       </c>
-      <c r="L31" s="19">
+      <c r="L32" s="17">
         <v>2968.2270000000003</v>
       </c>
-      <c r="M31" s="19">
+      <c r="M32" s="17">
         <v>2060.0630000000001</v>
       </c>
-      <c r="N31" s="19">
+      <c r="N32" s="17">
         <v>1283.712</v>
       </c>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19">
+      <c r="O32" s="17"/>
+      <c r="P32" s="17">
         <v>5046.2470000000367</v>
       </c>
     </row>
-    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="12">
+    <row r="33" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="10">
         <v>2022</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C33" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D33" s="12">
         <f t="shared" si="2"/>
         <v>89334.159999999974</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E33" s="13">
         <v>47061.49</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F33" s="13">
         <v>14479.710999999999</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G33" s="13">
         <v>6202.4430000000002</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H33" s="13">
         <v>5721.7240000000002</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I33" s="13">
         <v>2401.297</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J33" s="13">
         <v>2631.6559999999999</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K33" s="13">
         <v>2465.8180000000002</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L33" s="13">
         <v>2754.2740000000003</v>
       </c>
-      <c r="M32" s="15">
+      <c r="M33" s="13">
         <v>512.15899999999999</v>
       </c>
-      <c r="N32" s="15">
+      <c r="N33" s="13">
         <v>1143.1680000000001</v>
       </c>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15">
+      <c r="O33" s="13"/>
+      <c r="P33" s="13">
         <v>3960.4199999999564</v>
       </c>
     </row>
-    <row r="33" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="16">
+    <row r="34" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="14">
         <v>2022</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C34" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D34" s="16">
         <f t="shared" si="2"/>
         <v>95278.69100000005</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E34" s="17">
         <v>47746.51</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F34" s="17">
         <v>14115.436000000002</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G34" s="17">
         <v>7015.4850000000006</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H34" s="17">
         <v>6571.5810000000001</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I34" s="17">
         <v>2958.8999999999996</v>
       </c>
-      <c r="J33" s="19">
+      <c r="J34" s="17">
         <v>3531.7309999999998</v>
       </c>
-      <c r="K33" s="19">
+      <c r="K34" s="17">
         <v>2622.4749999999999</v>
       </c>
-      <c r="L33" s="19">
+      <c r="L34" s="17">
         <v>2978.3830000000003</v>
       </c>
-      <c r="M33" s="19">
+      <c r="M34" s="17">
         <v>2025.0970000000002</v>
       </c>
-      <c r="N33" s="19">
+      <c r="N34" s="17">
         <v>1204.242</v>
       </c>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19">
+      <c r="O34" s="17"/>
+      <c r="P34" s="17">
         <v>4508.8510000000351</v>
       </c>
     </row>
-    <row r="34" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="12">
+    <row r="35" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="10">
         <v>2022</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D35" s="12">
         <f t="shared" si="2"/>
         <v>97785.689999999988</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E35" s="13">
         <v>50063.990000000005</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F35" s="13">
         <v>14860.342999999999</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G35" s="13">
         <v>6623.2259999999997</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H35" s="13">
         <v>5368.71</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I35" s="13">
         <v>3986.607</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J35" s="13">
         <v>4343.424</v>
       </c>
-      <c r="K34" s="15">
+      <c r="K35" s="13">
         <v>2496.5360000000001</v>
       </c>
-      <c r="L34" s="15">
+      <c r="L35" s="13">
         <v>2822.9870000000001</v>
       </c>
-      <c r="M34" s="15">
+      <c r="M35" s="13">
         <v>1943.029</v>
       </c>
-      <c r="N34" s="15">
+      <c r="N35" s="13">
         <v>1117.913</v>
       </c>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15">
+      <c r="O35" s="13"/>
+      <c r="P35" s="13">
         <v>4158.924999999982</v>
       </c>
     </row>
-    <row r="35" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="16">
+    <row r="36" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="14">
         <v>2022</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C36" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D36" s="16">
         <f t="shared" si="2"/>
         <v>98754.335000000006</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E36" s="17">
         <v>46577.189999999995</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F36" s="17">
         <v>15738.313999999998</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G36" s="17">
         <v>7141.8860000000004</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H36" s="17">
         <v>6363.9130000000005</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I36" s="17">
         <v>4263.3530000000001</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J36" s="17">
         <v>3976.6590000000001</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K36" s="17">
         <v>2587.8480000000004</v>
       </c>
-      <c r="L35" s="19">
+      <c r="L36" s="17">
         <v>3419.7529999999997</v>
       </c>
-      <c r="M35" s="19">
+      <c r="M36" s="17">
         <v>2042.5399999999997</v>
       </c>
-      <c r="N35" s="19">
+      <c r="N36" s="17">
         <v>1359.9259999999999</v>
       </c>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19">
+      <c r="O36" s="17"/>
+      <c r="P36" s="17">
         <v>5282.9530000000059</v>
       </c>
     </row>
-    <row r="36" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="12">
+    <row r="37" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="10">
         <v>2022</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C37" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D37" s="12">
         <f t="shared" si="2"/>
         <v>100981.77</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E37" s="13">
         <v>48175.270000000004</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F37" s="13">
         <v>15121.800999999999</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G37" s="13">
         <v>6917.94</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H37" s="13">
         <v>7004.4480000000003</v>
       </c>
-      <c r="I36" s="15">
+      <c r="I37" s="13">
         <v>4293.0200000000004</v>
       </c>
-      <c r="J36" s="15">
+      <c r="J37" s="13">
         <v>4633.1059999999998</v>
       </c>
-      <c r="K36" s="15">
+      <c r="K37" s="13">
         <v>2216.5819999999999</v>
       </c>
-      <c r="L36" s="15">
+      <c r="L37" s="13">
         <v>4035.9160000000002</v>
       </c>
-      <c r="M36" s="15">
+      <c r="M37" s="13">
         <v>2042.0069999999998</v>
       </c>
-      <c r="N36" s="15">
+      <c r="N37" s="13">
         <v>1212.9639999999999</v>
       </c>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15">
+      <c r="O37" s="13"/>
+      <c r="P37" s="13">
         <v>5328.7160000000003</v>
       </c>
     </row>
-    <row r="37" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="16">
+    <row r="38" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="14">
         <v>2022</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C38" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D38" s="16">
         <f t="shared" si="2"/>
         <v>91772.804999999978</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E38" s="17">
         <v>42504.89</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F38" s="17">
         <v>14271.894</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G38" s="17">
         <v>6804.5039999999999</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H38" s="17">
         <v>5796.9490000000005</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I38" s="17">
         <v>3819.4520000000002</v>
       </c>
-      <c r="J37" s="19">
+      <c r="J38" s="17">
         <v>4312.4709999999995</v>
       </c>
-      <c r="K37" s="19">
+      <c r="K38" s="17">
         <v>2349.19</v>
       </c>
-      <c r="L37" s="19">
+      <c r="L38" s="17">
         <v>3770.8559999999998</v>
       </c>
-      <c r="M37" s="19">
+      <c r="M38" s="17">
         <v>1869.663</v>
       </c>
-      <c r="N37" s="19">
+      <c r="N38" s="17">
         <v>1118.5450000000001</v>
       </c>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19">
+      <c r="O38" s="17"/>
+      <c r="P38" s="17">
         <v>5154.390999999976</v>
       </c>
     </row>
-    <row r="38" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="12">
+    <row r="39" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C39" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D39" s="12">
         <f t="shared" si="2"/>
         <v>97475.604000000007</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E39" s="13">
         <v>43589.06</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F39" s="13">
         <v>15805.73</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G39" s="13">
         <v>7474.4720000000007</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H39" s="13">
         <v>6700.8620000000001</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I39" s="13">
         <v>4181.607</v>
       </c>
-      <c r="J38" s="15">
+      <c r="J39" s="13">
         <v>4873.1779999999999</v>
       </c>
-      <c r="K38" s="15">
+      <c r="K39" s="13">
         <v>2656.9369999999999</v>
       </c>
-      <c r="L38" s="15">
+      <c r="L39" s="13">
         <v>3049.7539999999999</v>
       </c>
-      <c r="M38" s="15">
+      <c r="M39" s="13">
         <v>2099.5990000000002</v>
       </c>
-      <c r="N38" s="15">
+      <c r="N39" s="13">
         <v>1350.1109999999999</v>
       </c>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15">
+      <c r="O39" s="13"/>
+      <c r="P39" s="13">
         <v>5694.2940000000135</v>
       </c>
     </row>
-    <row r="39" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="16">
+    <row r="40" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="14">
         <v>2022</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C40" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D40" s="16">
         <f t="shared" si="2"/>
         <v>89800.428</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E40" s="17">
         <v>45366.31</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F40" s="17">
         <v>13369.772999999999</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G40" s="17">
         <v>5647.3320000000003</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H40" s="17">
         <v>5270.6120000000001</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I40" s="17">
         <v>3794.5039999999999</v>
       </c>
-      <c r="J39" s="19">
+      <c r="J40" s="17">
         <v>3839.19</v>
       </c>
-      <c r="K39" s="19">
+      <c r="K40" s="17">
         <v>2119.1379999999999</v>
       </c>
-      <c r="L39" s="19">
+      <c r="L40" s="17">
         <v>2576.7370000000001</v>
       </c>
-      <c r="M39" s="19">
+      <c r="M40" s="17">
         <v>1797.6790000000001</v>
       </c>
-      <c r="N39" s="19">
+      <c r="N40" s="17">
         <v>1019.68</v>
       </c>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19">
+      <c r="O40" s="17"/>
+      <c r="P40" s="17">
         <v>4999.4729999999945</v>
       </c>
     </row>
-    <row r="40" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="20">
+    <row r="41" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="18">
         <v>2022</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C41" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D41" s="20">
         <f t="shared" si="2"/>
         <v>85046.313999999984</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E41" s="21">
         <v>41649.950000000004</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F41" s="21">
         <v>14466.567999999999</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G41" s="21">
         <v>5084.2289999999994</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H41" s="21">
         <v>5408.1559999999999</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I41" s="21">
         <v>2575.6040000000003</v>
       </c>
-      <c r="J40" s="23">
+      <c r="J41" s="21">
         <v>3171.0789999999997</v>
       </c>
-      <c r="K40" s="23">
+      <c r="K41" s="21">
         <v>2142.4740000000002</v>
       </c>
-      <c r="L40" s="23">
+      <c r="L41" s="21">
         <v>2573.4090000000001</v>
       </c>
-      <c r="M40" s="23">
+      <c r="M41" s="21">
         <v>1939.2370000000001</v>
       </c>
-      <c r="N40" s="23">
+      <c r="N41" s="21">
         <v>1105.0170000000001</v>
       </c>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23">
+      <c r="O41" s="21"/>
+      <c r="P41" s="21">
         <v>4930.590999999964</v>
       </c>
     </row>
-    <row r="41" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="24">
+    <row r="42" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="22">
         <v>2021</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C42" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="26">
+      <c r="D42" s="24">
         <f t="shared" si="2"/>
         <v>106245.8559999999</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E42" s="25">
         <v>50857.07</v>
       </c>
-      <c r="F41" s="27">
+      <c r="F42" s="25">
         <v>17094.063999999998</v>
       </c>
-      <c r="G41" s="27">
+      <c r="G42" s="25">
         <v>6690.982</v>
       </c>
-      <c r="H41" s="27">
+      <c r="H42" s="25">
         <v>6757.0789999999997</v>
       </c>
-      <c r="I41" s="27">
+      <c r="I42" s="25">
         <v>4772.1049999999996</v>
       </c>
-      <c r="J41" s="27">
+      <c r="J42" s="25">
         <v>4153.6809999999996</v>
       </c>
-      <c r="K41" s="27">
+      <c r="K42" s="25">
         <v>2996.9839999999999</v>
       </c>
-      <c r="L41" s="27">
+      <c r="L42" s="25">
         <v>3411.8760000000002</v>
       </c>
-      <c r="M41" s="27">
+      <c r="M42" s="25">
         <v>2152.6570000000002</v>
       </c>
-      <c r="N41" s="27">
+      <c r="N42" s="25">
         <v>1412.242</v>
       </c>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27">
+      <c r="O42" s="25"/>
+      <c r="P42" s="25">
         <v>5947.115999999909</v>
       </c>
     </row>
-    <row r="42" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="12">
+    <row r="43" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="10">
         <v>2021</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C43" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D43" s="12">
         <f t="shared" si="2"/>
         <v>103780.351</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E43" s="13">
         <v>51670.84</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F43" s="13">
         <v>16637.919000000002</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G43" s="13">
         <v>6777.7350000000006</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H43" s="13">
         <v>6088.8860000000004</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I43" s="13">
         <v>4689.4409999999998</v>
       </c>
-      <c r="J42" s="15">
+      <c r="J43" s="13">
         <v>3093.7200000000003</v>
       </c>
-      <c r="K42" s="15">
+      <c r="K43" s="13">
         <v>2801.3710000000001</v>
       </c>
-      <c r="L42" s="15">
+      <c r="L43" s="13">
         <v>3273.163</v>
       </c>
-      <c r="M42" s="15">
+      <c r="M43" s="13">
         <v>2116.31</v>
       </c>
-      <c r="N42" s="15">
+      <c r="N43" s="13">
         <v>1187.3990000000001</v>
       </c>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15">
+      <c r="O43" s="13"/>
+      <c r="P43" s="13">
         <v>5443.5670000000018</v>
       </c>
     </row>
-    <row r="43" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="16">
+    <row r="44" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="14">
         <v>2021</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C44" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D44" s="16">
         <f t="shared" si="2"/>
         <v>102011.41899999998</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E44" s="17">
         <v>52512.270000000004</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F44" s="17">
         <v>15934.506000000001</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G44" s="17">
         <v>6335.259</v>
       </c>
-      <c r="H43" s="19">
+      <c r="H44" s="17">
         <v>5545.3950000000004</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I44" s="17">
         <v>4882.7650000000003</v>
       </c>
-      <c r="J43" s="19">
+      <c r="J44" s="17">
         <v>2936.84</v>
       </c>
-      <c r="K43" s="19">
+      <c r="K44" s="17">
         <v>2405.8789999999999</v>
       </c>
-      <c r="L43" s="19">
+      <c r="L44" s="17">
         <v>3272.1130000000003</v>
       </c>
-      <c r="M43" s="19">
+      <c r="M44" s="17">
         <v>1900.828</v>
       </c>
-      <c r="N43" s="19">
+      <c r="N44" s="17">
         <v>1092.5319999999999</v>
       </c>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19">
+      <c r="O44" s="17"/>
+      <c r="P44" s="17">
         <v>5193.0319999999592</v>
       </c>
     </row>
-    <row r="44" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="12">
+    <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="10">
         <v>2021</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C45" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="14">
-        <f t="shared" ref="D44:D75" si="3">SUM(E44:P44)</f>
+      <c r="D45" s="12">
+        <f t="shared" ref="D45:D76" si="3">SUM(E45:P45)</f>
         <v>91178.608999999982</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E45" s="13">
         <v>45915.21</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F45" s="13">
         <v>14692.056</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G45" s="13">
         <v>5728.8209999999999</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H45" s="13">
         <v>5560.4480000000003</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I45" s="13">
         <v>4702.9629999999997</v>
       </c>
-      <c r="J44" s="15">
+      <c r="J45" s="13">
         <v>2102.703</v>
       </c>
-      <c r="K44" s="15">
+      <c r="K45" s="13">
         <v>2272.134</v>
       </c>
-      <c r="L44" s="15">
+      <c r="L45" s="13">
         <v>2868.15</v>
       </c>
-      <c r="M44" s="15">
+      <c r="M45" s="13">
         <v>1735.4590000000001</v>
       </c>
-      <c r="N44" s="15">
+      <c r="N45" s="13">
         <v>1045.8</v>
       </c>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15">
+      <c r="O45" s="13"/>
+      <c r="P45" s="13">
         <v>4554.864999999978</v>
       </c>
     </row>
-    <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="16">
+    <row r="46" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="14">
         <v>2021</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C46" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D46" s="16">
         <f t="shared" si="3"/>
         <v>92414.208999999988</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E46" s="17">
         <v>46263.56</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F46" s="17">
         <v>15429.054</v>
       </c>
-      <c r="G45" s="19">
+      <c r="G46" s="17">
         <v>5843.6489999999994</v>
       </c>
-      <c r="H45" s="19">
+      <c r="H46" s="17">
         <v>5188.5529999999999</v>
       </c>
-      <c r="I45" s="19">
+      <c r="I46" s="17">
         <v>4997.6589999999997</v>
       </c>
-      <c r="J45" s="19">
+      <c r="J46" s="17">
         <v>1980.7669999999998</v>
       </c>
-      <c r="K45" s="19">
+      <c r="K46" s="17">
         <v>2178.5140000000001</v>
       </c>
-      <c r="L45" s="19">
+      <c r="L46" s="17">
         <v>2985.433</v>
       </c>
-      <c r="M45" s="19">
+      <c r="M46" s="17">
         <v>1919.7950000000001</v>
       </c>
-      <c r="N45" s="19">
+      <c r="N46" s="17">
         <v>1046.1379999999999</v>
       </c>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19">
+      <c r="O46" s="17"/>
+      <c r="P46" s="17">
         <v>4581.0869999999823</v>
       </c>
     </row>
-    <row r="46" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="12">
+    <row r="47" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="10">
         <v>2021</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C47" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D47" s="12">
         <f t="shared" si="3"/>
         <v>94998.959000000017</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E47" s="13">
         <v>47535.66</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F47" s="13">
         <v>16396.912</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G47" s="13">
         <v>5814.3230000000003</v>
       </c>
-      <c r="H46" s="15">
+      <c r="H47" s="13">
         <v>5225.7449999999999</v>
       </c>
-      <c r="I46" s="15">
+      <c r="I47" s="13">
         <v>4822.5879999999997</v>
       </c>
-      <c r="J46" s="15">
+      <c r="J47" s="13">
         <v>2417.9939999999997</v>
       </c>
-      <c r="K46" s="15">
+      <c r="K47" s="13">
         <v>2253.5949999999998</v>
       </c>
-      <c r="L46" s="15">
+      <c r="L47" s="13">
         <v>2954.0879999999997</v>
       </c>
-      <c r="M46" s="15">
+      <c r="M47" s="13">
         <v>2019.4090000000001</v>
       </c>
-      <c r="N46" s="15">
+      <c r="N47" s="13">
         <v>989</v>
       </c>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15">
+      <c r="O47" s="13"/>
+      <c r="P47" s="13">
         <v>4569.6450000000086</v>
       </c>
     </row>
-    <row r="47" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="16">
+    <row r="48" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="14">
         <v>2021</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C48" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D48" s="16">
         <f t="shared" si="3"/>
         <v>93150.852999999974</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E48" s="17">
         <v>46381.57</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F48" s="17">
         <v>16321.146999999999</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G48" s="17">
         <v>5643.8950000000004</v>
       </c>
-      <c r="H47" s="19">
+      <c r="H48" s="17">
         <v>5512.8739999999998</v>
       </c>
-      <c r="I47" s="19">
+      <c r="I48" s="17">
         <v>4619.1679999999997</v>
       </c>
-      <c r="J47" s="19">
+      <c r="J48" s="17">
         <v>2265.636</v>
       </c>
-      <c r="K47" s="19">
+      <c r="K48" s="17">
         <v>2051.7060000000001</v>
       </c>
-      <c r="L47" s="19">
+      <c r="L48" s="17">
         <v>2931.884</v>
       </c>
-      <c r="M47" s="19">
+      <c r="M48" s="17">
         <v>1972.1880000000001</v>
       </c>
-      <c r="N47" s="19">
+      <c r="N48" s="17">
         <v>986.39300000000003</v>
       </c>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19">
+      <c r="O48" s="17"/>
+      <c r="P48" s="17">
         <v>4464.3919999999753</v>
       </c>
     </row>
-    <row r="48" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="12">
+    <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="10">
         <v>2021</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C49" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D49" s="12">
         <f t="shared" si="3"/>
         <v>91896.881000000023</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E49" s="13">
         <v>46267.280000000006</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F49" s="13">
         <v>16961.302</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G49" s="13">
         <v>5341.201</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H49" s="13">
         <v>5093.9789999999994</v>
       </c>
-      <c r="I48" s="15">
+      <c r="I49" s="13">
         <v>4098.0300000000007</v>
       </c>
-      <c r="J48" s="15">
+      <c r="J49" s="13">
         <v>2317.509</v>
       </c>
-      <c r="K48" s="15">
+      <c r="K49" s="13">
         <v>1839.751</v>
       </c>
-      <c r="L48" s="15">
+      <c r="L49" s="13">
         <v>2917.2539999999999</v>
       </c>
-      <c r="M48" s="15">
+      <c r="M49" s="13">
         <v>1854.6999999999998</v>
       </c>
-      <c r="N48" s="15">
+      <c r="N49" s="13">
         <v>936.20399999999995</v>
       </c>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15">
+      <c r="O49" s="13"/>
+      <c r="P49" s="13">
         <v>4269.6710000000021</v>
       </c>
     </row>
-    <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="16">
+    <row r="50" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="14">
         <v>2021</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C50" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D50" s="16">
         <f t="shared" si="3"/>
         <v>91124.671000000017</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E50" s="17">
         <v>44958.49</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F50" s="17">
         <v>17353.253000000001</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G50" s="17">
         <v>5074.8539999999994</v>
       </c>
-      <c r="H49" s="19">
+      <c r="H50" s="17">
         <v>5150.7029999999995</v>
       </c>
-      <c r="I49" s="19">
+      <c r="I50" s="17">
         <v>4190.9799999999996</v>
       </c>
-      <c r="J49" s="19">
+      <c r="J50" s="17">
         <v>2711.4180000000001</v>
       </c>
-      <c r="K49" s="19">
+      <c r="K50" s="17">
         <v>2026.221</v>
       </c>
-      <c r="L49" s="19">
+      <c r="L50" s="17">
         <v>2834.6559999999999</v>
       </c>
-      <c r="M49" s="19">
+      <c r="M50" s="17">
         <v>1752.0440000000001</v>
       </c>
-      <c r="N49" s="19">
+      <c r="N50" s="17">
         <v>919.93</v>
       </c>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19">
+      <c r="O50" s="17"/>
+      <c r="P50" s="17">
         <v>4152.1220000000194</v>
       </c>
     </row>
-    <row r="50" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="12">
+    <row r="51" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C51" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D51" s="12">
         <f t="shared" si="3"/>
         <v>97804.682000000015</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E51" s="13">
         <v>49200.950000000004</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F51" s="13">
         <v>18513.925000000003</v>
       </c>
-      <c r="G50" s="15">
+      <c r="G51" s="13">
         <v>5394.5290000000005</v>
       </c>
-      <c r="H50" s="15">
+      <c r="H51" s="13">
         <v>5438.8379999999997</v>
       </c>
-      <c r="I50" s="15">
+      <c r="I51" s="13">
         <v>4517.6980000000003</v>
       </c>
-      <c r="J50" s="15">
+      <c r="J51" s="13">
         <v>2272.91</v>
       </c>
-      <c r="K50" s="15">
+      <c r="K51" s="13">
         <v>2051.056</v>
       </c>
-      <c r="L50" s="15">
+      <c r="L51" s="13">
         <v>2950.4749999999999</v>
       </c>
-      <c r="M50" s="15">
+      <c r="M51" s="13">
         <v>1771.0360000000001</v>
       </c>
-      <c r="N50" s="15">
+      <c r="N51" s="13">
         <v>1067.4470000000001</v>
       </c>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15">
+      <c r="O51" s="13"/>
+      <c r="P51" s="13">
         <v>4625.8179999999957</v>
       </c>
     </row>
-    <row r="51" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="16">
+    <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="14">
         <v>2021</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C52" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D52" s="16">
         <f t="shared" si="3"/>
         <v>83857.271000000022</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E52" s="17">
         <v>42287.700000000004</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F52" s="17">
         <v>15583.737000000001</v>
       </c>
-      <c r="G51" s="19">
+      <c r="G52" s="17">
         <v>4140.5389999999998</v>
       </c>
-      <c r="H51" s="19">
+      <c r="H52" s="17">
         <v>4531.4269999999997</v>
       </c>
-      <c r="I51" s="19">
+      <c r="I52" s="17">
         <v>3863.7919999999995</v>
       </c>
-      <c r="J51" s="19">
+      <c r="J52" s="17">
         <v>2548.5929999999998</v>
       </c>
-      <c r="K51" s="19">
+      <c r="K52" s="17">
         <v>1805.3239999999998</v>
       </c>
-      <c r="L51" s="19">
+      <c r="L52" s="17">
         <v>2596.5039999999999</v>
       </c>
-      <c r="M51" s="19">
+      <c r="M52" s="17">
         <v>1517.7179999999998</v>
       </c>
-      <c r="N51" s="19">
+      <c r="N52" s="17">
         <v>866.53800000000001</v>
       </c>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19">
+      <c r="O52" s="17"/>
+      <c r="P52" s="17">
         <v>4115.3990000000395</v>
       </c>
     </row>
-    <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="20">
+    <row r="53" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="18">
         <v>2021</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C53" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D53" s="20">
         <f t="shared" si="3"/>
         <v>88197.219999999987</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E53" s="21">
         <v>43928.770000000004</v>
       </c>
-      <c r="F52" s="23">
+      <c r="F53" s="21">
         <v>16300.849999999997</v>
       </c>
-      <c r="G52" s="23">
+      <c r="G53" s="21">
         <v>4840.8860000000004</v>
       </c>
-      <c r="H52" s="23">
+      <c r="H53" s="21">
         <v>4794.0879999999997</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I53" s="21">
         <v>4785.6239999999998</v>
       </c>
-      <c r="J52" s="23">
+      <c r="J53" s="21">
         <v>2064.8710000000001</v>
       </c>
-      <c r="K52" s="23">
+      <c r="K53" s="21">
         <v>2034.952</v>
       </c>
-      <c r="L52" s="23">
+      <c r="L53" s="21">
         <v>2453.6999999999998</v>
       </c>
-      <c r="M52" s="23">
+      <c r="M53" s="21">
         <v>1745.922</v>
       </c>
-      <c r="N52" s="23">
+      <c r="N53" s="21">
         <v>918.11799999999994</v>
       </c>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23">
+      <c r="O53" s="21"/>
+      <c r="P53" s="21">
         <v>4329.4389999999794</v>
       </c>
     </row>
-    <row r="53" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="24">
+    <row r="54" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="22">
         <v>2020</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C54" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D53" s="26">
+      <c r="D54" s="24">
         <f t="shared" si="3"/>
         <v>94144.191000000021</v>
       </c>
-      <c r="E53" s="27">
+      <c r="E54" s="25">
         <v>46330.03</v>
       </c>
-      <c r="F53" s="27">
+      <c r="F54" s="25">
         <v>15973.973</v>
       </c>
-      <c r="G53" s="27">
+      <c r="G54" s="25">
         <v>5450.8789999999999</v>
       </c>
-      <c r="H53" s="27">
+      <c r="H54" s="25">
         <v>5488.8649999999998</v>
       </c>
-      <c r="I53" s="27">
+      <c r="I54" s="25">
         <v>5262.348</v>
       </c>
-      <c r="J53" s="27">
+      <c r="J54" s="25">
         <v>1922.278</v>
       </c>
-      <c r="K53" s="27">
+      <c r="K54" s="25">
         <v>2610.1819999999998</v>
       </c>
-      <c r="L53" s="27">
+      <c r="L54" s="25">
         <v>3093.9090000000001</v>
       </c>
-      <c r="M53" s="27">
+      <c r="M54" s="25">
         <v>1870.7370000000001</v>
       </c>
-      <c r="N53" s="27">
+      <c r="N54" s="25">
         <v>1267.98</v>
       </c>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27">
+      <c r="O54" s="25"/>
+      <c r="P54" s="25">
         <v>4873.010000000022</v>
       </c>
     </row>
-    <row r="54" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="12">
+    <row r="55" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="10">
         <v>2020</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C55" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D55" s="12">
         <f t="shared" si="3"/>
         <v>91473.85500000001</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E55" s="13">
         <v>47533.36</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F55" s="13">
         <v>14400.682000000001</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G55" s="13">
         <v>5383.1379999999999</v>
       </c>
-      <c r="H54" s="15">
+      <c r="H55" s="13">
         <v>4958.3670000000002</v>
       </c>
-      <c r="I54" s="15">
+      <c r="I55" s="13">
         <v>4752.6779999999999</v>
       </c>
-      <c r="J54" s="15">
+      <c r="J55" s="13">
         <v>1515.828</v>
       </c>
-      <c r="K54" s="15">
+      <c r="K55" s="13">
         <v>2284.3830000000003</v>
       </c>
-      <c r="L54" s="15">
+      <c r="L55" s="13">
         <v>3066.7379999999998</v>
       </c>
-      <c r="M54" s="15">
+      <c r="M55" s="13">
         <v>1683.905</v>
       </c>
-      <c r="N54" s="15">
+      <c r="N55" s="13">
         <v>1051.925</v>
       </c>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15">
+      <c r="O55" s="13"/>
+      <c r="P55" s="13">
         <v>4842.8510000000106</v>
       </c>
     </row>
-    <row r="55" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="16">
+    <row r="56" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="14">
         <v>2020</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C56" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D56" s="16">
         <f t="shared" si="3"/>
         <v>91662.356999999931</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E56" s="17">
         <v>46625.39</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F56" s="17">
         <v>16134.585999999999</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G56" s="17">
         <v>5479.9110000000001</v>
       </c>
-      <c r="H55" s="19">
+      <c r="H56" s="17">
         <v>4639.0290000000005</v>
       </c>
-      <c r="I55" s="19">
+      <c r="I56" s="17">
         <v>5349.1270000000004</v>
       </c>
-      <c r="J55" s="19">
+      <c r="J56" s="17">
         <v>1260.509</v>
       </c>
-      <c r="K55" s="19">
+      <c r="K56" s="17">
         <v>2199.1950000000002</v>
       </c>
-      <c r="L55" s="19">
+      <c r="L56" s="17">
         <v>3053.64</v>
       </c>
-      <c r="M55" s="19">
+      <c r="M56" s="17">
         <v>1739.095</v>
       </c>
-      <c r="N55" s="19">
+      <c r="N56" s="17">
         <v>943.76300000000003</v>
       </c>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19">
+      <c r="O56" s="17"/>
+      <c r="P56" s="17">
         <v>4238.11199999993</v>
       </c>
     </row>
-    <row r="56" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="12">
+    <row r="57" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="10">
         <v>2020</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C57" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D57" s="12">
         <f t="shared" si="3"/>
         <v>77051.781000000032</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E57" s="13">
         <v>38240.839999999997</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F57" s="13">
         <v>14171.219000000001</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G57" s="13">
         <v>4407.3809999999994</v>
       </c>
-      <c r="H56" s="15">
+      <c r="H57" s="13">
         <v>3752.172</v>
       </c>
-      <c r="I56" s="15">
+      <c r="I57" s="13">
         <v>4552.4279999999999</v>
       </c>
-      <c r="J56" s="15">
+      <c r="J57" s="13">
         <v>1079.7190000000001</v>
       </c>
-      <c r="K56" s="15">
+      <c r="K57" s="13">
         <v>1834.0129999999999</v>
       </c>
-      <c r="L56" s="15">
+      <c r="L57" s="13">
         <v>2717.5839999999998</v>
       </c>
-      <c r="M56" s="15">
+      <c r="M57" s="13">
         <v>1835.0609999999999</v>
       </c>
-      <c r="N56" s="15">
+      <c r="N57" s="13">
         <v>788.73500000000001</v>
       </c>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15">
+      <c r="O57" s="13"/>
+      <c r="P57" s="13">
         <v>3672.629000000029</v>
       </c>
     </row>
-    <row r="57" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="16">
+    <row r="58" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="14">
         <v>2020</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C58" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D58" s="16">
         <f t="shared" si="3"/>
         <v>73243.596999999965</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E58" s="17">
         <v>37945.979999999996</v>
       </c>
-      <c r="F57" s="19">
+      <c r="F58" s="17">
         <v>12325.865999999998</v>
       </c>
-      <c r="G57" s="19">
+      <c r="G58" s="17">
         <v>3948.0789999999997</v>
       </c>
-      <c r="H57" s="19">
+      <c r="H58" s="17">
         <v>3392.7820000000002</v>
       </c>
-      <c r="I57" s="19">
+      <c r="I58" s="17">
         <v>4478.6279999999997</v>
       </c>
-      <c r="J57" s="19">
+      <c r="J58" s="17">
         <v>1011.65</v>
       </c>
-      <c r="K57" s="19">
+      <c r="K58" s="17">
         <v>1714.8619999999999</v>
       </c>
-      <c r="L57" s="19">
+      <c r="L58" s="17">
         <v>2516.4409999999998</v>
       </c>
-      <c r="M57" s="19">
+      <c r="M58" s="17">
         <v>1831.6880000000001</v>
       </c>
-      <c r="N57" s="19">
+      <c r="N58" s="17">
         <v>782.10199999999998</v>
       </c>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19">
+      <c r="O58" s="17"/>
+      <c r="P58" s="17">
         <v>3295.5189999999848</v>
       </c>
     </row>
-    <row r="58" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="12">
+    <row r="59" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="10">
         <v>2020</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C59" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D59" s="12">
         <f t="shared" si="3"/>
         <v>70714.571000000011</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E59" s="13">
         <v>34839.78</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F59" s="13">
         <v>13321.585999999999</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G59" s="13">
         <v>3950.6219999999998</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H59" s="13">
         <v>3725.6490000000003</v>
       </c>
-      <c r="I58" s="15">
+      <c r="I59" s="13">
         <v>3987.5020000000004</v>
       </c>
-      <c r="J58" s="15">
+      <c r="J59" s="13">
         <v>936.46399999999994</v>
       </c>
-      <c r="K58" s="15">
+      <c r="K59" s="13">
         <v>1692.3649999999998</v>
       </c>
-      <c r="L58" s="15">
+      <c r="L59" s="13">
         <v>2403.9839999999999</v>
       </c>
-      <c r="M58" s="15">
+      <c r="M59" s="13">
         <v>1775.4699999999998</v>
       </c>
-      <c r="N58" s="15">
+      <c r="N59" s="13">
         <v>840.952</v>
       </c>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15">
+      <c r="O59" s="13"/>
+      <c r="P59" s="13">
         <v>3240.1970000000092</v>
       </c>
     </row>
-    <row r="59" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="16">
+    <row r="60" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="14">
         <v>2020</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C60" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D60" s="16">
         <f t="shared" si="3"/>
         <v>66590.821000000025</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E60" s="17">
         <v>33996.18</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F60" s="17">
         <v>13478.243999999999</v>
       </c>
-      <c r="G59" s="19">
+      <c r="G60" s="17">
         <v>3545.3679999999999</v>
       </c>
-      <c r="H59" s="19">
+      <c r="H60" s="17">
         <v>3224.4189999999999</v>
       </c>
-      <c r="I59" s="19">
+      <c r="I60" s="17">
         <v>3231.3440000000001</v>
       </c>
-      <c r="J59" s="19">
+      <c r="J60" s="17">
         <v>771.17700000000002</v>
       </c>
-      <c r="K59" s="19">
+      <c r="K60" s="17">
         <v>1478.3190000000002</v>
       </c>
-      <c r="L59" s="19">
+      <c r="L60" s="17">
         <v>1821.6129999999998</v>
       </c>
-      <c r="M59" s="19">
+      <c r="M60" s="17">
         <v>1594.6689999999999</v>
       </c>
-      <c r="N59" s="19">
+      <c r="N60" s="17">
         <v>720.39199999999994</v>
       </c>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19">
+      <c r="O60" s="17"/>
+      <c r="P60" s="17">
         <v>2729.0960000000127</v>
       </c>
     </row>
-    <row r="60" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="12">
+    <row r="61" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="10">
         <v>2020</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C61" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D61" s="12">
         <f t="shared" si="3"/>
         <v>58590.57</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E61" s="13">
         <v>31229.68</v>
       </c>
-      <c r="F60" s="15">
+      <c r="F61" s="13">
         <v>11236.094000000001</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G61" s="13">
         <v>2744.201</v>
       </c>
-      <c r="H60" s="15">
+      <c r="H61" s="13">
         <v>2746.701</v>
       </c>
-      <c r="I60" s="15">
+      <c r="I61" s="13">
         <v>2540.2469999999998</v>
       </c>
-      <c r="J60" s="15">
+      <c r="J61" s="13">
         <v>612.84699999999998</v>
       </c>
-      <c r="K60" s="15">
+      <c r="K61" s="13">
         <v>1623.547</v>
       </c>
-      <c r="L60" s="15">
+      <c r="L61" s="13">
         <v>1605.3789999999999</v>
       </c>
-      <c r="M60" s="15">
+      <c r="M61" s="13">
         <v>1482.9659999999999</v>
       </c>
-      <c r="N60" s="15">
+      <c r="N61" s="13">
         <v>671.48299999999995</v>
       </c>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15">
+      <c r="O61" s="13"/>
+      <c r="P61" s="13">
         <v>2097.424999999987</v>
       </c>
     </row>
-    <row r="61" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="16">
+    <row r="62" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="14">
         <v>2020</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C62" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D62" s="16">
         <f t="shared" si="3"/>
         <v>51124.868999999999</v>
       </c>
-      <c r="E61" s="19">
+      <c r="E62" s="17">
         <v>25419.52</v>
       </c>
-      <c r="F61" s="19">
+      <c r="F62" s="17">
         <v>11565.216</v>
       </c>
-      <c r="G61" s="19">
+      <c r="G62" s="17">
         <v>2651.4159999999997</v>
       </c>
-      <c r="H61" s="19">
+      <c r="H62" s="17">
         <v>2693.4929999999999</v>
       </c>
-      <c r="I61" s="19">
+      <c r="I62" s="17">
         <v>2126.7669999999998</v>
       </c>
-      <c r="J61" s="19">
+      <c r="J62" s="17">
         <v>551.59</v>
       </c>
-      <c r="K61" s="19">
+      <c r="K62" s="17">
         <v>1334.1680000000001</v>
       </c>
-      <c r="L61" s="19">
+      <c r="L62" s="17">
         <v>1156.8400000000001</v>
       </c>
-      <c r="M61" s="19">
+      <c r="M62" s="17">
         <v>1103.2260000000001</v>
       </c>
-      <c r="N61" s="19">
+      <c r="N62" s="17">
         <v>532.67700000000002</v>
       </c>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19">
+      <c r="O62" s="17"/>
+      <c r="P62" s="17">
         <v>1989.9559999999994</v>
       </c>
     </row>
-    <row r="62" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="12">
+    <row r="63" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C63" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D63" s="12">
         <f t="shared" si="3"/>
         <v>79368.52999999997</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E63" s="13">
         <v>42274.520000000004</v>
       </c>
-      <c r="F62" s="15">
+      <c r="F63" s="13">
         <v>14537.343000000001</v>
       </c>
-      <c r="G62" s="15">
+      <c r="G63" s="13">
         <v>4065.893</v>
       </c>
-      <c r="H62" s="15">
+      <c r="H63" s="13">
         <v>3597.8379999999997</v>
       </c>
-      <c r="I62" s="15">
+      <c r="I63" s="13">
         <v>2907.587</v>
       </c>
-      <c r="J62" s="15">
+      <c r="J63" s="13">
         <v>2248.8019999999997</v>
       </c>
-      <c r="K62" s="15">
+      <c r="K63" s="13">
         <v>1787.81</v>
       </c>
-      <c r="L62" s="15">
+      <c r="L63" s="13">
         <v>2068.8739999999998</v>
       </c>
-      <c r="M62" s="15">
+      <c r="M63" s="13">
         <v>1532.5450000000001</v>
       </c>
-      <c r="N62" s="15">
+      <c r="N63" s="13">
         <v>820.50299999999993</v>
       </c>
-      <c r="O62" s="15"/>
-      <c r="P62" s="15">
+      <c r="O63" s="13"/>
+      <c r="P63" s="13">
         <v>3526.8149999999705</v>
       </c>
     </row>
-    <row r="63" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="16">
+    <row r="64" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="14">
         <v>2020</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C64" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="18">
+      <c r="D64" s="16">
         <f t="shared" si="3"/>
         <v>75908.510999999955</v>
       </c>
-      <c r="E63" s="19">
+      <c r="E64" s="17">
         <v>42089.659999999996</v>
       </c>
-      <c r="F63" s="19">
+      <c r="F64" s="17">
         <v>11466.815999999999</v>
       </c>
-      <c r="G63" s="19">
+      <c r="G64" s="17">
         <v>3486.42</v>
       </c>
-      <c r="H63" s="19">
+      <c r="H64" s="17">
         <v>3309.0249999999996</v>
       </c>
-      <c r="I63" s="19">
+      <c r="I64" s="17">
         <v>2651.6840000000002</v>
       </c>
-      <c r="J63" s="19">
+      <c r="J64" s="17">
         <v>2759.643</v>
       </c>
-      <c r="K63" s="19">
+      <c r="K64" s="17">
         <v>1653.057</v>
       </c>
-      <c r="L63" s="19">
+      <c r="L64" s="17">
         <v>2319.8409999999999</v>
       </c>
-      <c r="M63" s="19">
+      <c r="M64" s="17">
         <v>1687.9380000000001</v>
       </c>
-      <c r="N63" s="19">
+      <c r="N64" s="17">
         <v>812.35799999999995</v>
       </c>
-      <c r="O63" s="19"/>
-      <c r="P63" s="19">
+      <c r="O64" s="17"/>
+      <c r="P64" s="17">
         <v>3672.068999999979</v>
       </c>
     </row>
-    <row r="64" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="20">
+    <row r="65" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="18">
         <v>2020</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C65" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="22">
+      <c r="D65" s="20">
         <f t="shared" si="3"/>
         <v>80828.273000000045</v>
       </c>
-      <c r="E64" s="23">
+      <c r="E65" s="21">
         <v>43200.08</v>
       </c>
-      <c r="F64" s="23">
+      <c r="F65" s="21">
         <v>12981.727999999999</v>
       </c>
-      <c r="G64" s="23">
+      <c r="G65" s="21">
         <v>3924.5250000000001</v>
       </c>
-      <c r="H64" s="23">
+      <c r="H65" s="21">
         <v>3616.1279999999997</v>
       </c>
-      <c r="I64" s="23">
+      <c r="I65" s="21">
         <v>2992.5469999999996</v>
       </c>
-      <c r="J64" s="23">
+      <c r="J65" s="21">
         <v>3044.2960000000003</v>
       </c>
-      <c r="K64" s="23">
+      <c r="K65" s="21">
         <v>1792.2229999999997</v>
       </c>
-      <c r="L64" s="23">
+      <c r="L65" s="21">
         <v>2507.0810000000001</v>
       </c>
-      <c r="M64" s="23">
+      <c r="M65" s="21">
         <v>1937.0650000000001</v>
       </c>
-      <c r="N64" s="23">
+      <c r="N65" s="21">
         <v>862.8069999999999</v>
       </c>
-      <c r="O64" s="23"/>
-      <c r="P64" s="23">
+      <c r="O65" s="21"/>
+      <c r="P65" s="21">
         <v>3969.7930000000383</v>
       </c>
     </row>
-    <row r="65" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="24">
+    <row r="66" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="22">
         <v>2019</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C66" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D65" s="26">
+      <c r="D66" s="24">
         <f t="shared" si="3"/>
         <v>83400</v>
       </c>
-      <c r="E65" s="27">
+      <c r="E66" s="25">
         <v>48000</v>
       </c>
-      <c r="F65" s="27">
+      <c r="F66" s="25">
         <v>14500</v>
       </c>
-      <c r="G65" s="27">
+      <c r="G66" s="25">
         <v>3700</v>
       </c>
-      <c r="H65" s="27">
+      <c r="H66" s="25">
         <v>2900</v>
       </c>
-      <c r="I65" s="27">
+      <c r="I66" s="25">
         <v>3100</v>
       </c>
-      <c r="J65" s="27">
+      <c r="J66" s="25">
         <v>1900</v>
       </c>
-      <c r="K65" s="27">
+      <c r="K66" s="25">
         <v>3700</v>
       </c>
-      <c r="L65" s="27">
+      <c r="L66" s="25">
         <v>1900</v>
       </c>
-      <c r="M65" s="27">
+      <c r="M66" s="25">
         <v>2600</v>
       </c>
-      <c r="N65" s="27">
+      <c r="N66" s="25">
         <v>1100</v>
       </c>
-      <c r="O65" s="27"/>
-      <c r="P65" s="27">
+      <c r="O66" s="25"/>
+      <c r="P66" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="12">
+    <row r="67" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="10">
         <v>2019</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C67" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D67" s="12">
         <f t="shared" si="3"/>
         <v>83400</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E67" s="13">
         <v>46600</v>
       </c>
-      <c r="F66" s="15">
+      <c r="F67" s="13">
         <v>14700</v>
       </c>
-      <c r="G66" s="15">
+      <c r="G67" s="13">
         <v>4300</v>
       </c>
-      <c r="H66" s="15">
+      <c r="H67" s="13">
         <v>3100</v>
       </c>
-      <c r="I66" s="15">
+      <c r="I67" s="13">
         <v>3100</v>
       </c>
-      <c r="J66" s="15">
+      <c r="J67" s="13">
         <v>2100</v>
       </c>
-      <c r="K66" s="15">
+      <c r="K67" s="13">
         <v>3900</v>
       </c>
-      <c r="L66" s="15">
+      <c r="L67" s="13">
         <v>1800</v>
       </c>
-      <c r="M66" s="15">
+      <c r="M67" s="13">
         <v>2800</v>
       </c>
-      <c r="N66" s="15">
+      <c r="N67" s="13">
         <v>1000</v>
       </c>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15">
+      <c r="O67" s="13"/>
+      <c r="P67" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="16">
+    <row r="68" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="14">
         <v>2019</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C68" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D68" s="16">
         <f t="shared" si="3"/>
         <v>90200</v>
       </c>
-      <c r="E67" s="19">
+      <c r="E68" s="17">
         <v>52200</v>
       </c>
-      <c r="F67" s="19">
+      <c r="F68" s="17">
         <v>14900</v>
       </c>
-      <c r="G67" s="19">
+      <c r="G68" s="17">
         <v>4600</v>
       </c>
-      <c r="H67" s="19">
+      <c r="H68" s="17">
         <v>3400</v>
       </c>
-      <c r="I67" s="19">
+      <c r="I68" s="17">
         <v>2700</v>
       </c>
-      <c r="J67" s="19">
+      <c r="J68" s="17">
         <v>2200</v>
       </c>
-      <c r="K67" s="19">
+      <c r="K68" s="17">
         <v>4200</v>
       </c>
-      <c r="L67" s="19">
+      <c r="L68" s="17">
         <v>2000</v>
       </c>
-      <c r="M67" s="19">
+      <c r="M68" s="17">
         <v>3000</v>
       </c>
-      <c r="N67" s="19">
+      <c r="N68" s="17">
         <v>1000</v>
       </c>
-      <c r="O67" s="19"/>
-      <c r="P67" s="19">
+      <c r="O68" s="17"/>
+      <c r="P68" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="12">
+    <row r="69" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="10">
         <v>2019</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C69" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D69" s="12">
         <f t="shared" si="3"/>
         <v>78300</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E69" s="13">
         <v>46000</v>
       </c>
-      <c r="F68" s="15">
+      <c r="F69" s="13">
         <v>12400</v>
       </c>
-      <c r="G68" s="15">
+      <c r="G69" s="13">
         <v>4300</v>
       </c>
-      <c r="H68" s="15">
+      <c r="H69" s="13">
         <v>3000</v>
       </c>
-      <c r="I68" s="15">
+      <c r="I69" s="13">
         <v>2200</v>
       </c>
-      <c r="J68" s="15">
+      <c r="J69" s="13">
         <v>1800</v>
       </c>
-      <c r="K68" s="15">
+      <c r="K69" s="13">
         <v>3600</v>
       </c>
-      <c r="L68" s="15">
+      <c r="L69" s="13">
         <v>1700</v>
       </c>
-      <c r="M68" s="15">
+      <c r="M69" s="13">
         <v>2500</v>
       </c>
-      <c r="N68" s="15">
+      <c r="N69" s="13">
         <v>800</v>
       </c>
-      <c r="O68" s="15"/>
-      <c r="P68" s="15">
+      <c r="O69" s="13"/>
+      <c r="P69" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="16">
+    <row r="70" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="14">
         <v>2019</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C70" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D70" s="16">
         <f t="shared" si="3"/>
         <v>80500</v>
       </c>
-      <c r="E69" s="19">
+      <c r="E70" s="17">
         <v>46500</v>
       </c>
-      <c r="F69" s="19">
+      <c r="F70" s="17">
         <v>12500</v>
       </c>
-      <c r="G69" s="19">
+      <c r="G70" s="17">
         <v>4300</v>
       </c>
-      <c r="H69" s="19">
+      <c r="H70" s="17">
         <v>3400</v>
       </c>
-      <c r="I69" s="19">
+      <c r="I70" s="17">
         <v>2500</v>
       </c>
-      <c r="J69" s="19">
+      <c r="J70" s="17">
         <v>2100</v>
       </c>
-      <c r="K69" s="19">
+      <c r="K70" s="17">
         <v>4100</v>
       </c>
-      <c r="L69" s="19">
+      <c r="L70" s="17">
         <v>1800</v>
       </c>
-      <c r="M69" s="19">
+      <c r="M70" s="17">
         <v>2400</v>
       </c>
-      <c r="N69" s="19">
+      <c r="N70" s="17">
         <v>900</v>
       </c>
-      <c r="O69" s="19"/>
-      <c r="P69" s="19">
+      <c r="O70" s="17"/>
+      <c r="P70" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="12">
+    <row r="71" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="10">
         <v>2019</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C71" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D71" s="12">
         <f t="shared" si="3"/>
         <v>81500</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E71" s="13">
         <v>46600</v>
       </c>
-      <c r="F70" s="15">
+      <c r="F71" s="13">
         <v>13600</v>
       </c>
-      <c r="G70" s="15">
+      <c r="G71" s="13">
         <v>4100</v>
       </c>
-      <c r="H70" s="15">
+      <c r="H71" s="13">
         <v>3000</v>
       </c>
-      <c r="I70" s="15">
+      <c r="I71" s="13">
         <v>2500</v>
       </c>
-      <c r="J70" s="15">
+      <c r="J71" s="13">
         <v>2000</v>
       </c>
-      <c r="K70" s="15">
+      <c r="K71" s="13">
         <v>4200</v>
       </c>
-      <c r="L70" s="15">
+      <c r="L71" s="13">
         <v>2000</v>
       </c>
-      <c r="M70" s="15">
+      <c r="M71" s="13">
         <v>2600</v>
       </c>
-      <c r="N70" s="15">
+      <c r="N71" s="13">
         <v>900</v>
       </c>
-      <c r="O70" s="15"/>
-      <c r="P70" s="15">
+      <c r="O71" s="13"/>
+      <c r="P71" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="16">
+    <row r="72" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="14">
         <v>2019</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C72" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="18">
+      <c r="D72" s="16">
         <f t="shared" si="3"/>
         <v>78600</v>
       </c>
-      <c r="E71" s="19">
+      <c r="E72" s="17">
         <v>44200</v>
       </c>
-      <c r="F71" s="19">
+      <c r="F72" s="17">
         <v>13300</v>
       </c>
-      <c r="G71" s="19">
+      <c r="G72" s="17">
         <v>4300</v>
       </c>
-      <c r="H71" s="19">
+      <c r="H72" s="17">
         <v>2900</v>
       </c>
-      <c r="I71" s="19">
+      <c r="I72" s="17">
         <v>2400</v>
       </c>
-      <c r="J71" s="19">
+      <c r="J72" s="17">
         <v>2000</v>
       </c>
-      <c r="K71" s="19">
+      <c r="K72" s="17">
         <v>4300</v>
       </c>
-      <c r="L71" s="19">
+      <c r="L72" s="17">
         <v>2000</v>
       </c>
-      <c r="M71" s="19">
+      <c r="M72" s="17">
         <v>2400</v>
       </c>
-      <c r="N71" s="19">
+      <c r="N72" s="17">
         <v>800</v>
       </c>
-      <c r="O71" s="19"/>
-      <c r="P71" s="19">
+      <c r="O72" s="17"/>
+      <c r="P72" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="12">
+    <row r="73" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="10">
         <v>2019</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C73" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D73" s="12">
         <f t="shared" si="3"/>
         <v>81100</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E73" s="13">
         <v>45800</v>
       </c>
-      <c r="F72" s="15">
+      <c r="F73" s="13">
         <v>13000</v>
       </c>
-      <c r="G72" s="15">
+      <c r="G73" s="13">
         <v>4600</v>
       </c>
-      <c r="H72" s="15">
+      <c r="H73" s="13">
         <v>3000</v>
       </c>
-      <c r="I72" s="15">
+      <c r="I73" s="13">
         <v>2600</v>
       </c>
-      <c r="J72" s="15">
+      <c r="J73" s="13">
         <v>2100</v>
       </c>
-      <c r="K72" s="15">
+      <c r="K73" s="13">
         <v>4600</v>
       </c>
-      <c r="L72" s="15">
+      <c r="L73" s="13">
         <v>1900</v>
       </c>
-      <c r="M72" s="15">
+      <c r="M73" s="13">
         <v>2600</v>
       </c>
-      <c r="N72" s="15">
+      <c r="N73" s="13">
         <v>900</v>
       </c>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15">
+      <c r="O73" s="13"/>
+      <c r="P73" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="16">
+    <row r="74" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="14">
         <v>2019</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C74" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D73" s="18">
+      <c r="D74" s="16">
         <f t="shared" si="3"/>
         <v>79300</v>
       </c>
-      <c r="E73" s="19">
+      <c r="E74" s="17">
         <v>45200</v>
       </c>
-      <c r="F73" s="19">
+      <c r="F74" s="17">
         <v>12800</v>
       </c>
-      <c r="G73" s="19">
+      <c r="G74" s="17">
         <v>4600</v>
       </c>
-      <c r="H73" s="19">
+      <c r="H74" s="17">
         <v>2500</v>
       </c>
-      <c r="I73" s="19">
+      <c r="I74" s="17">
         <v>2600</v>
       </c>
-      <c r="J73" s="19">
+      <c r="J74" s="17">
         <v>2100</v>
       </c>
-      <c r="K73" s="19">
+      <c r="K74" s="17">
         <v>4400</v>
       </c>
-      <c r="L73" s="19">
+      <c r="L74" s="17">
         <v>1800</v>
       </c>
-      <c r="M73" s="19">
+      <c r="M74" s="17">
         <v>2500</v>
       </c>
-      <c r="N73" s="19">
+      <c r="N74" s="17">
         <v>800</v>
       </c>
-      <c r="O73" s="19"/>
-      <c r="P73" s="19">
+      <c r="O74" s="17"/>
+      <c r="P74" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="12">
+    <row r="75" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C75" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D75" s="12">
         <f t="shared" si="3"/>
         <v>86500</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E75" s="13">
         <v>49900</v>
       </c>
-      <c r="F74" s="15">
+      <c r="F75" s="13">
         <v>14500</v>
       </c>
-      <c r="G74" s="15">
+      <c r="G75" s="13">
         <v>4300</v>
       </c>
-      <c r="H74" s="15">
+      <c r="H75" s="13">
         <v>3000</v>
       </c>
-      <c r="I74" s="15">
+      <c r="I75" s="13">
         <v>2700</v>
       </c>
-      <c r="J74" s="15">
+      <c r="J75" s="13">
         <v>2000</v>
       </c>
-      <c r="K74" s="15">
+      <c r="K75" s="13">
         <v>5000</v>
       </c>
-      <c r="L74" s="15">
+      <c r="L75" s="13">
         <v>1700</v>
       </c>
-      <c r="M74" s="15">
+      <c r="M75" s="13">
         <v>2500</v>
       </c>
-      <c r="N74" s="15">
+      <c r="N75" s="13">
         <v>900</v>
       </c>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15">
+      <c r="O75" s="13"/>
+      <c r="P75" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="16">
+    <row r="76" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="14">
         <v>2019</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C76" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="18">
+      <c r="D76" s="16">
         <f t="shared" si="3"/>
         <v>73300</v>
       </c>
-      <c r="E75" s="19">
+      <c r="E76" s="17">
         <v>41800</v>
       </c>
-      <c r="F75" s="19">
+      <c r="F76" s="17">
         <v>11500</v>
       </c>
-      <c r="G75" s="19">
+      <c r="G76" s="17">
         <v>4200</v>
       </c>
-      <c r="H75" s="19">
+      <c r="H76" s="17">
         <v>2600</v>
       </c>
-      <c r="I75" s="19">
+      <c r="I76" s="17">
         <v>2600</v>
       </c>
-      <c r="J75" s="19">
+      <c r="J76" s="17">
         <v>1900</v>
       </c>
-      <c r="K75" s="19">
+      <c r="K76" s="17">
         <v>4100</v>
       </c>
-      <c r="L75" s="19">
+      <c r="L76" s="17">
         <v>1600</v>
       </c>
-      <c r="M75" s="19">
+      <c r="M76" s="17">
         <v>2300</v>
       </c>
-      <c r="N75" s="19">
+      <c r="N76" s="17">
         <v>700</v>
       </c>
-      <c r="O75" s="19"/>
-      <c r="P75" s="19">
+      <c r="O76" s="17"/>
+      <c r="P76" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="20">
+    <row r="77" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="18">
         <v>2019</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C77" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D76" s="22">
-        <f t="shared" ref="D76:D88" si="4">SUM(E76:P76)</f>
+      <c r="D77" s="20">
+        <f t="shared" ref="D77:D89" si="4">SUM(E77:P77)</f>
         <v>79200</v>
       </c>
-      <c r="E76" s="23">
+      <c r="E77" s="21">
         <v>43500</v>
       </c>
-      <c r="F76" s="23">
+      <c r="F77" s="21">
         <v>13500</v>
       </c>
-      <c r="G76" s="23">
+      <c r="G77" s="21">
         <v>4800</v>
       </c>
-      <c r="H76" s="23">
+      <c r="H77" s="21">
         <v>2900</v>
       </c>
-      <c r="I76" s="23">
+      <c r="I77" s="21">
         <v>2600</v>
       </c>
-      <c r="J76" s="23">
+      <c r="J77" s="21">
         <v>1900</v>
       </c>
-      <c r="K76" s="23">
+      <c r="K77" s="21">
         <v>4500</v>
       </c>
-      <c r="L76" s="23">
+      <c r="L77" s="21">
         <v>2100</v>
       </c>
-      <c r="M76" s="23">
+      <c r="M77" s="21">
         <v>2500</v>
       </c>
-      <c r="N76" s="23">
+      <c r="N77" s="21">
         <v>900</v>
       </c>
-      <c r="O76" s="23"/>
-      <c r="P76" s="23">
+      <c r="O77" s="21"/>
+      <c r="P77" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="17">
+    <row r="78" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="15">
         <v>2018</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C78" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="18">
+      <c r="D78" s="16">
         <f t="shared" si="4"/>
         <v>85600</v>
       </c>
-      <c r="E77" s="19">
+      <c r="E78" s="17">
         <v>48800</v>
       </c>
-      <c r="F77" s="19">
+      <c r="F78" s="17">
         <v>14700</v>
       </c>
-      <c r="G77" s="19">
+      <c r="G78" s="17">
         <v>4500</v>
       </c>
-      <c r="H77" s="19">
+      <c r="H78" s="17">
         <v>3000</v>
       </c>
-      <c r="I77" s="19">
+      <c r="I78" s="17">
         <v>3300</v>
       </c>
-      <c r="J77" s="19">
+      <c r="J78" s="17">
         <v>1900</v>
       </c>
-      <c r="K77" s="19">
+      <c r="K78" s="17">
         <v>4000</v>
       </c>
-      <c r="L77" s="19">
+      <c r="L78" s="17">
         <v>1900</v>
       </c>
-      <c r="M77" s="19">
+      <c r="M78" s="17">
         <v>2600</v>
       </c>
-      <c r="N77" s="19">
+      <c r="N78" s="17">
         <v>900</v>
       </c>
-      <c r="O77" s="19"/>
-      <c r="P77" s="19">
+      <c r="O78" s="17"/>
+      <c r="P78" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="13">
+    <row r="79" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="11">
         <v>2018</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C79" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D79" s="12">
         <f t="shared" si="4"/>
         <v>91600</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E79" s="13">
         <v>52500</v>
       </c>
-      <c r="F78" s="15">
+      <c r="F79" s="13">
         <v>14700</v>
       </c>
-      <c r="G78" s="15">
+      <c r="G79" s="13">
         <v>5200</v>
       </c>
-      <c r="H78" s="15">
+      <c r="H79" s="13">
         <v>3400</v>
       </c>
-      <c r="I78" s="15">
+      <c r="I79" s="13">
         <v>3300</v>
       </c>
-      <c r="J78" s="15">
+      <c r="J79" s="13">
         <v>2300</v>
       </c>
-      <c r="K78" s="15">
+      <c r="K79" s="13">
         <v>4700</v>
       </c>
-      <c r="L78" s="15">
+      <c r="L79" s="13">
         <v>1800</v>
       </c>
-      <c r="M78" s="15">
+      <c r="M79" s="13">
         <v>2800</v>
       </c>
-      <c r="N78" s="15">
+      <c r="N79" s="13">
         <v>900</v>
       </c>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15">
+      <c r="O79" s="13"/>
+      <c r="P79" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="17">
+    <row r="80" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="15">
         <v>2018</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C80" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="18">
+      <c r="D80" s="16">
         <f t="shared" si="4"/>
         <v>94100</v>
       </c>
-      <c r="E79" s="19">
+      <c r="E80" s="17">
         <v>53200</v>
       </c>
-      <c r="F79" s="19">
+      <c r="F80" s="17">
         <v>15500</v>
       </c>
-      <c r="G79" s="19">
+      <c r="G80" s="17">
         <v>5800</v>
       </c>
-      <c r="H79" s="19">
+      <c r="H80" s="17">
         <v>3400</v>
       </c>
-      <c r="I79" s="19">
+      <c r="I80" s="17">
         <v>2800</v>
       </c>
-      <c r="J79" s="19">
+      <c r="J80" s="17">
         <v>2200</v>
       </c>
-      <c r="K79" s="19">
+      <c r="K80" s="17">
         <v>5600</v>
       </c>
-      <c r="L79" s="19">
+      <c r="L80" s="17">
         <v>1800</v>
       </c>
-      <c r="M79" s="19">
+      <c r="M80" s="17">
         <v>2900</v>
       </c>
-      <c r="N79" s="19">
+      <c r="N80" s="17">
         <v>900</v>
       </c>
-      <c r="O79" s="19"/>
-      <c r="P79" s="19">
+      <c r="O80" s="17"/>
+      <c r="P80" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="13">
+    <row r="81" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="11">
         <v>2018</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C81" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D81" s="12">
         <f t="shared" si="4"/>
         <v>81400</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E81" s="13">
         <v>46600</v>
       </c>
-      <c r="F80" s="15">
+      <c r="F81" s="13">
         <v>13200</v>
       </c>
-      <c r="G80" s="15">
+      <c r="G81" s="13">
         <v>4800</v>
       </c>
-      <c r="H80" s="15">
+      <c r="H81" s="13">
         <v>2900</v>
       </c>
-      <c r="I80" s="15">
+      <c r="I81" s="13">
         <v>2300</v>
       </c>
-      <c r="J80" s="15">
+      <c r="J81" s="13">
         <v>1900</v>
       </c>
-      <c r="K80" s="15">
+      <c r="K81" s="13">
         <v>5000</v>
       </c>
-      <c r="L80" s="15">
+      <c r="L81" s="13">
         <v>1500</v>
       </c>
-      <c r="M80" s="15">
+      <c r="M81" s="13">
         <v>2400</v>
       </c>
-      <c r="N80" s="15">
+      <c r="N81" s="13">
         <v>800</v>
       </c>
-      <c r="O80" s="15"/>
-      <c r="P80" s="15">
+      <c r="O81" s="13"/>
+      <c r="P81" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="17">
+    <row r="82" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="15">
         <v>2018</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C82" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D81" s="18">
+      <c r="D82" s="16">
         <f t="shared" si="4"/>
         <v>84400</v>
       </c>
-      <c r="E81" s="19">
+      <c r="E82" s="17">
         <v>48300</v>
       </c>
-      <c r="F81" s="19">
+      <c r="F82" s="17">
         <v>12600</v>
       </c>
-      <c r="G81" s="19">
+      <c r="G82" s="17">
         <v>5100</v>
       </c>
-      <c r="H81" s="19">
+      <c r="H82" s="17">
         <v>3500</v>
       </c>
-      <c r="I81" s="19">
+      <c r="I82" s="17">
         <v>2400</v>
       </c>
-      <c r="J81" s="19">
+      <c r="J82" s="17">
         <v>2100</v>
       </c>
-      <c r="K81" s="19">
+      <c r="K82" s="17">
         <v>5700</v>
       </c>
-      <c r="L81" s="19">
+      <c r="L82" s="17">
         <v>1600</v>
       </c>
-      <c r="M81" s="19">
+      <c r="M82" s="17">
         <v>2300</v>
       </c>
-      <c r="N81" s="19">
+      <c r="N82" s="17">
         <v>800</v>
       </c>
-      <c r="O81" s="19"/>
-      <c r="P81" s="19">
+      <c r="O82" s="17"/>
+      <c r="P82" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="13">
+    <row r="83" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="11">
         <v>2018</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C83" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D83" s="12">
         <f t="shared" si="4"/>
         <v>82200</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E83" s="13">
         <v>49400</v>
       </c>
-      <c r="F82" s="15">
+      <c r="F83" s="13">
         <v>12400</v>
       </c>
-      <c r="G82" s="15">
+      <c r="G83" s="13">
         <v>4200</v>
       </c>
-      <c r="H82" s="15">
+      <c r="H83" s="13">
         <v>3100</v>
       </c>
-      <c r="I82" s="15">
+      <c r="I83" s="13">
         <v>2500</v>
       </c>
-      <c r="J82" s="15">
+      <c r="J83" s="13">
         <v>1900</v>
       </c>
-      <c r="K82" s="15">
+      <c r="K83" s="13">
         <v>4100</v>
       </c>
-      <c r="L82" s="15">
+      <c r="L83" s="13">
         <v>1700</v>
       </c>
-      <c r="M82" s="15">
+      <c r="M83" s="13">
         <v>2100</v>
       </c>
-      <c r="N82" s="15">
+      <c r="N83" s="13">
         <v>800</v>
       </c>
-      <c r="O82" s="15"/>
-      <c r="P82" s="15">
+      <c r="O83" s="13"/>
+      <c r="P83" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="17">
+    <row r="84" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="15">
         <v>2018</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C84" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D83" s="18">
+      <c r="D84" s="16">
         <f t="shared" si="4"/>
         <v>86500</v>
       </c>
-      <c r="E83" s="19">
+      <c r="E84" s="17">
         <v>51000</v>
       </c>
-      <c r="F83" s="19">
+      <c r="F84" s="17">
         <v>13400</v>
       </c>
-      <c r="G83" s="19">
+      <c r="G84" s="17">
         <v>4500</v>
       </c>
-      <c r="H83" s="19">
+      <c r="H84" s="17">
         <v>3100</v>
       </c>
-      <c r="I83" s="19">
+      <c r="I84" s="17">
         <v>2600</v>
       </c>
-      <c r="J83" s="19">
+      <c r="J84" s="17">
         <v>2000</v>
       </c>
-      <c r="K83" s="19">
+      <c r="K84" s="17">
         <v>5100</v>
       </c>
-      <c r="L83" s="19">
+      <c r="L84" s="17">
         <v>1800</v>
       </c>
-      <c r="M83" s="19">
+      <c r="M84" s="17">
         <v>2100</v>
       </c>
-      <c r="N83" s="19">
+      <c r="N84" s="17">
         <v>900</v>
       </c>
-      <c r="O83" s="19"/>
-      <c r="P83" s="19">
+      <c r="O84" s="17"/>
+      <c r="P84" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="13">
+    <row r="85" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="11">
         <v>2018</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C85" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D85" s="12">
         <f t="shared" si="4"/>
         <v>86200</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E85" s="13">
         <v>49700</v>
       </c>
-      <c r="F84" s="15">
+      <c r="F85" s="13">
         <v>13600</v>
       </c>
-      <c r="G84" s="15">
+      <c r="G85" s="13">
         <v>5000</v>
       </c>
-      <c r="H84" s="15">
+      <c r="H85" s="13">
         <v>3200</v>
       </c>
-      <c r="I84" s="15">
+      <c r="I85" s="13">
         <v>2700</v>
       </c>
-      <c r="J84" s="15">
+      <c r="J85" s="13">
         <v>2300</v>
       </c>
-      <c r="K84" s="15">
+      <c r="K85" s="13">
         <v>4700</v>
       </c>
-      <c r="L84" s="15">
+      <c r="L85" s="13">
         <v>1900</v>
       </c>
-      <c r="M84" s="15">
+      <c r="M85" s="13">
         <v>2200</v>
       </c>
-      <c r="N84" s="15">
+      <c r="N85" s="13">
         <v>900</v>
       </c>
-      <c r="O84" s="15"/>
-      <c r="P84" s="15">
+      <c r="O85" s="13"/>
+      <c r="P85" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="17">
+    <row r="86" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="15">
         <v>2018</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="C86" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D85" s="18">
+      <c r="D86" s="16">
         <f t="shared" si="4"/>
         <v>84500</v>
       </c>
-      <c r="E85" s="19">
+      <c r="E86" s="17">
         <v>49400</v>
       </c>
-      <c r="F85" s="19">
+      <c r="F86" s="17">
         <v>13900</v>
       </c>
-      <c r="G85" s="19">
+      <c r="G86" s="17">
         <v>4500</v>
       </c>
-      <c r="H85" s="19">
+      <c r="H86" s="17">
         <v>2800</v>
       </c>
-      <c r="I85" s="19">
+      <c r="I86" s="17">
         <v>2800</v>
       </c>
-      <c r="J85" s="19">
+      <c r="J86" s="17">
         <v>1900</v>
       </c>
-      <c r="K85" s="19">
+      <c r="K86" s="17">
         <v>4600</v>
       </c>
-      <c r="L85" s="19">
+      <c r="L86" s="17">
         <v>1700</v>
       </c>
-      <c r="M85" s="19">
+      <c r="M86" s="17">
         <v>2000</v>
       </c>
-      <c r="N85" s="19">
+      <c r="N86" s="17">
         <v>900</v>
       </c>
-      <c r="O85" s="19"/>
-      <c r="P85" s="19">
+      <c r="O86" s="17"/>
+      <c r="P86" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="13">
+    <row r="87" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="11">
         <v>2018</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C87" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D87" s="12">
         <f t="shared" si="4"/>
         <v>81600</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E87" s="13">
         <v>46000</v>
       </c>
-      <c r="F86" s="15">
+      <c r="F87" s="13">
         <v>16000</v>
       </c>
-      <c r="G86" s="15">
+      <c r="G87" s="13">
         <v>4400</v>
       </c>
-      <c r="H86" s="15">
+      <c r="H87" s="13">
         <v>2900</v>
       </c>
-      <c r="I86" s="15">
+      <c r="I87" s="13">
         <v>2800</v>
       </c>
-      <c r="J86" s="15">
+      <c r="J87" s="13">
         <v>1800</v>
       </c>
-      <c r="K86" s="15">
+      <c r="K87" s="13">
         <v>3500</v>
       </c>
-      <c r="L86" s="15">
+      <c r="L87" s="13">
         <v>1400</v>
       </c>
-      <c r="M86" s="15">
+      <c r="M87" s="13">
         <v>2000</v>
       </c>
-      <c r="N86" s="15">
+      <c r="N87" s="13">
         <v>800</v>
       </c>
-      <c r="O86" s="15"/>
-      <c r="P86" s="15">
+      <c r="O87" s="13"/>
+      <c r="P87" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="17">
+    <row r="88" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="15">
         <v>2018</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C88" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D87" s="18">
+      <c r="D88" s="16">
         <f t="shared" si="4"/>
         <v>74900</v>
       </c>
-      <c r="E87" s="19">
+      <c r="E88" s="17">
         <v>44100</v>
       </c>
-      <c r="F87" s="19">
+      <c r="F88" s="17">
         <v>12100</v>
       </c>
-      <c r="G87" s="19">
+      <c r="G88" s="17">
         <v>4100</v>
       </c>
-      <c r="H87" s="19">
+      <c r="H88" s="17">
         <v>2700</v>
       </c>
-      <c r="I87" s="19">
+      <c r="I88" s="17">
         <v>2700</v>
       </c>
-      <c r="J87" s="19">
+      <c r="J88" s="17">
         <v>2100</v>
       </c>
-      <c r="K87" s="19">
+      <c r="K88" s="17">
         <v>3000</v>
       </c>
-      <c r="L87" s="19">
+      <c r="L88" s="17">
         <v>1500</v>
       </c>
-      <c r="M87" s="19">
+      <c r="M88" s="17">
         <v>1900</v>
       </c>
-      <c r="N87" s="19">
+      <c r="N88" s="17">
         <v>700</v>
       </c>
-      <c r="O87" s="19"/>
-      <c r="P87" s="19">
+      <c r="O88" s="17"/>
+      <c r="P88" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="13">
+    <row r="89" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="11">
         <v>2018</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C89" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D89" s="12">
         <f t="shared" si="4"/>
         <v>74300</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E89" s="13">
         <v>42800</v>
       </c>
-      <c r="F88" s="15">
+      <c r="F89" s="13">
         <v>12000</v>
       </c>
-      <c r="G88" s="15">
+      <c r="G89" s="13">
         <v>4100</v>
       </c>
-      <c r="H88" s="15">
+      <c r="H89" s="13">
         <v>2500</v>
       </c>
-      <c r="I88" s="15">
+      <c r="I89" s="13">
         <v>2600</v>
       </c>
-      <c r="J88" s="15">
+      <c r="J89" s="13">
         <v>2300</v>
       </c>
-      <c r="K88" s="15">
+      <c r="K89" s="13">
         <v>3300</v>
       </c>
-      <c r="L88" s="15">
+      <c r="L89" s="13">
         <v>2000</v>
       </c>
-      <c r="M88" s="15">
+      <c r="M89" s="13">
         <v>1900</v>
       </c>
-      <c r="N88" s="15">
+      <c r="N89" s="13">
         <v>800</v>
       </c>
-      <c r="O88" s="15"/>
-      <c r="P88" s="15">
+      <c r="O89" s="13"/>
+      <c r="P89" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B89" s="28" t="s">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B90" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C89" s="28"/>
-    </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B90" s="28" t="s">
+      <c r="C90" s="26"/>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B91" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C90" s="29"/>
-      <c r="P90" s="30"/>
-    </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B91" s="29" t="s">
+      <c r="C91" s="27"/>
+      <c r="P91" s="28"/>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B92" s="27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B92" s="3" t="s">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B93" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D98" s="28"/>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D99" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/P_aeropuertos_carga.xlsx
+++ b/P_aeropuertos_carga.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13242AB5-CF08-467B-AA20-36135D2311BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B883A693-BE88-4EEA-84C1-1E04F5C83D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="34">
   <si>
     <t>Total</t>
   </si>
@@ -137,7 +137,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Diciembre 2024.</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -225,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -308,12 +308,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -387,6 +411,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -697,11 +729,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:P89" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
-  <autoFilter ref="B5:P89" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:P90" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
+  <autoFilter ref="B5:P90" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
+        <filter val="2025"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -951,9 +984,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:P99"/>
+  <dimension ref="B2:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1058,3940 +1091,3988 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B6" s="14">
+      <c r="B6" s="31">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="33">
+        <f>SUM(E6:P6)</f>
+        <v>91555.306729999982</v>
+      </c>
+      <c r="E6" s="34">
+        <v>19159.400000000001</v>
+      </c>
+      <c r="F6" s="34">
+        <v>13714.98</v>
+      </c>
+      <c r="G6" s="34">
+        <v>5611.4270000000006</v>
+      </c>
+      <c r="H6" s="34">
+        <v>6455.491</v>
+      </c>
+      <c r="I6" s="34">
+        <v>2783.7079999999996</v>
+      </c>
+      <c r="J6" s="34">
+        <v>2789.2219999999998</v>
+      </c>
+      <c r="K6" s="34">
+        <v>2082.837</v>
+      </c>
+      <c r="L6" s="34">
+        <v>2958.125</v>
+      </c>
+      <c r="M6" s="34">
+        <v>2088.444</v>
+      </c>
+      <c r="N6" s="34">
+        <v>1595.182</v>
+      </c>
+      <c r="O6" s="34">
+        <v>27764.467000000001</v>
+      </c>
+      <c r="P6" s="34">
+        <v>4552.0237299999771</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B7" s="14">
         <v>2024</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="16">
-        <f>SUM(E6:P6)</f>
+      <c r="D7" s="16">
+        <f>SUM(E7:P7)</f>
         <v>103547.94350000002</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E7" s="17">
         <v>22084.1</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F7" s="17">
         <v>13788.543999999998</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G7" s="17">
         <v>6101.1239999999998</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H7" s="17">
         <v>6605.4089999999997</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I7" s="17">
         <v>2916.9539999999997</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J7" s="17">
         <v>3692.6709999999998</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K7" s="17">
         <v>2180.1759999999999</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L7" s="17">
         <v>3298.9829999999997</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M7" s="17">
         <v>2405.654</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N7" s="17">
         <v>1379.29</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O7" s="17">
         <v>34117.491999999998</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P7" s="17">
         <v>4977.5465000000313</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B7" s="10">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B8" s="10">
         <v>2024</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="12">
-        <f>SUM(E7:P7)</f>
+      <c r="D8" s="12">
+        <f>SUM(E8:P8)</f>
         <v>108489.79521000001</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E8" s="13">
         <v>20513.3</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F8" s="13">
         <v>14292.029000000002</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G8" s="13">
         <v>6952.0010000000002</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H8" s="13">
         <v>7027.32</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I8" s="13">
         <v>3190.241</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J8" s="13">
         <v>3783.056</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K8" s="13">
         <v>2546.4230000000002</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L8" s="13">
         <v>3625.6490000000003</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M8" s="13">
         <v>2301.3359999999998</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N8" s="13">
         <v>1566.8050000000001</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O8" s="13">
         <v>37606.786999999997</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P8" s="13">
         <v>5084.8482100000183</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B8" s="14">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B9" s="14">
         <v>2024</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="16">
-        <f t="shared" ref="D8" si="0">SUM(E8:P8)</f>
+      <c r="D9" s="16">
+        <f t="shared" ref="D9" si="0">SUM(E9:P9)</f>
         <v>112101.83326999999</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E9" s="17">
         <v>21954.2</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F9" s="17">
         <v>15035.019</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G9" s="17">
         <v>7434.2699999999995</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H9" s="17">
         <v>7376.1170000000002</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I9" s="17">
         <v>3603.3429999999998</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J9" s="17">
         <v>2668.8590000000004</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K9" s="17">
         <v>2486.047</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L9" s="17">
         <v>3482.5789999999997</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M9" s="17">
         <v>2059.6219999999998</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N9" s="17">
         <v>1836.462</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O9" s="17">
         <v>38827.07</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P9" s="17">
         <v>5338.2452699999949</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B9" s="10">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B10" s="10">
         <v>2024</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="12">
-        <f>SUM(E9:P9)</f>
+      <c r="D10" s="12">
+        <f>SUM(E10:P10)</f>
         <v>102256.34403999997</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E10" s="13">
         <v>19983</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F10" s="13">
         <v>15121.885</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G10" s="13">
         <v>6653.17</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H10" s="13">
         <v>6096.0540000000001</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I10" s="13">
         <v>3038.8139999999999</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J10" s="13">
         <v>2226.7169999999996</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K10" s="13">
         <v>2083.5909999999999</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L10" s="13">
         <v>2940.2349999999997</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M10" s="13">
         <v>2121.4749999999999</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N10" s="13">
         <v>1691.9869999999999</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O10" s="13">
         <v>35995.97</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P10" s="13">
         <v>4303.4460399999825</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B10" s="14">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B11" s="14">
         <v>2024</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="16">
-        <f>SUM(E10:P10)</f>
+      <c r="D11" s="16">
+        <f>SUM(E11:P11)</f>
         <v>108823.69917000002</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E11" s="17">
         <v>20229.3</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F11" s="17">
         <v>15421.421999999999</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G11" s="17">
         <v>6900.85</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H11" s="17">
         <v>6494.0969999999998</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I11" s="17">
         <v>3427.1890000000003</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J11" s="17">
         <v>2725.0420000000004</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K11" s="17">
         <v>2321.3049999999998</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L11" s="17">
         <v>3155.9950000000003</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M11" s="17">
         <v>2335.154</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N11" s="17">
         <v>1623.2050000000002</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O11" s="17">
         <v>39174.343999999997</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P11" s="17">
         <v>5015.7961700000369</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B11" s="10">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B12" s="10">
         <v>2024</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="12">
-        <f t="shared" ref="D11:D13" si="1">SUM(E11:P11)</f>
+      <c r="D12" s="12">
+        <f t="shared" ref="D12:D14" si="1">SUM(E12:P12)</f>
         <v>107882.74128000005</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E12" s="13">
         <v>19500.699999999997</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F12" s="13">
         <v>15606.789000000001</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G12" s="13">
         <v>7406.7370000000001</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H12" s="13">
         <v>6133.4809999999998</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I12" s="13">
         <v>3408.8180000000002</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J12" s="13">
         <v>2590.2110000000002</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K12" s="13">
         <v>2370.0729999999999</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L12" s="13">
         <v>3036.741</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M12" s="13">
         <v>2203.3470000000002</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N12" s="13">
         <v>1958.9659999999999</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O12" s="13">
         <v>38531.585999999996</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P12" s="13">
         <v>5135.2922800000515</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B12" s="14">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B13" s="14">
         <v>2024</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D13" s="16">
         <f t="shared" si="1"/>
         <v>106952.98336000003</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E13" s="17">
         <v>19499.3</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F13" s="17">
         <v>14724.419</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G13" s="17">
         <v>7318.848</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H13" s="17">
         <v>6428.241</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I13" s="17">
         <v>3309.4189999999999</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J13" s="17">
         <v>2399.3510000000001</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K13" s="17">
         <v>2148.4209999999998</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L13" s="17">
         <v>3308.527</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M13" s="17">
         <v>2070.7939999999999</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N13" s="17">
         <v>1689.7920000000001</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O13" s="17">
         <v>39593.667999999998</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P13" s="17">
         <v>4462.203360000025</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B13" s="10">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D14" s="12">
         <f t="shared" si="1"/>
         <v>110411.98745000002</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E14" s="13">
         <v>20062</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F14" s="13">
         <v>15321.734</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G14" s="13">
         <v>6843.5949999999993</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H14" s="13">
         <v>6818.1309999999994</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I14" s="13">
         <v>3632.4749999999995</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J14" s="13">
         <v>2865.9740000000002</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K14" s="13">
         <v>2297.306</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L14" s="13">
         <v>3244.5340000000001</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M14" s="13">
         <v>2175.2600000000002</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N14" s="13">
         <v>1778.4730000000002</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O14" s="13">
         <v>40133.834000000003</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P14" s="13">
         <v>5238.6714500000198</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="14">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B15" s="14">
         <v>2024</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="16">
-        <f t="shared" ref="D14:D44" si="2">SUM(E14:P14)</f>
+      <c r="D15" s="16">
+        <f t="shared" ref="D15:D45" si="2">SUM(E15:P15)</f>
         <v>105215.16596</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E15" s="17">
         <v>18973.3</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F15" s="17">
         <v>13665.344000000001</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G15" s="17">
         <v>6313.32</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H15" s="17">
         <v>6639.4679999999998</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I15" s="17">
         <v>3421.6190000000001</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J15" s="17">
         <v>3106.3360000000002</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K15" s="17">
         <v>2364.4089999999997</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L15" s="17">
         <v>3512.4059999999999</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M15" s="17">
         <v>2156.3200000000002</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N15" s="17">
         <v>1665.7180000000001</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O15" s="17">
         <v>38502.94</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P15" s="17">
         <v>4893.9859599999945</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="10">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B16" s="10">
         <v>2024</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D16" s="12">
         <f t="shared" si="2"/>
         <v>104014.85637999998</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E16" s="13">
         <v>19802.7</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>14556.685000000001</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G16" s="13">
         <v>5905.6409999999996</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H16" s="13">
         <v>5567.2889999999998</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I16" s="13">
         <v>3144.7429999999999</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J16" s="13">
         <v>3762.2560000000003</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K16" s="13">
         <v>2058.4110000000001</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L16" s="13">
         <v>2935.8180000000002</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M16" s="13">
         <v>1921.692</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N16" s="13">
         <v>1570.1889999999996</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O16" s="13">
         <v>38209.173000000003</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P16" s="13">
         <v>4580.2593799999795</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B16" s="14">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B17" s="14">
         <v>2024</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D17" s="16">
         <f t="shared" si="2"/>
         <v>96832.621000000028</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E17" s="17">
         <v>19063.57</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F17" s="17">
         <v>12825.287</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G17" s="17">
         <v>5709.5619999999999</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H17" s="17">
         <v>6237.3979999999992</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I17" s="17">
         <v>3026.2809999999999</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J17" s="17">
         <v>3371.2139999999999</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K17" s="17">
         <v>2375.6289999999999</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L17" s="17">
         <v>3173.3670000000002</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M17" s="17">
         <v>2052.38</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N17" s="17">
         <v>1593.547</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O17" s="17">
         <v>32860.998999999996</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P17" s="17">
         <v>4543.3870000000315</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B17" s="18">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B18" s="18">
         <v>2024</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C18" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D18" s="20">
         <f t="shared" si="2"/>
         <v>97330.675600000075</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E18" s="21">
         <v>18369.400000000001</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F18" s="21">
         <v>13351.472999999998</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G18" s="21">
         <v>5884.6970000000001</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H18" s="21">
         <v>5967.9220000000005</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I18" s="21">
         <v>2989.357</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J18" s="21">
         <v>2973.8410000000003</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K18" s="21">
         <v>2268.6259999999997</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L18" s="21">
         <v>2854.8959999999997</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M18" s="21">
         <v>2397.5709999999999</v>
       </c>
-      <c r="N17" s="21">
+      <c r="N18" s="21">
         <v>1825.489</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O18" s="21">
         <v>33787.300999999999</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P18" s="21">
         <v>4660.1026000000729</v>
       </c>
     </row>
-    <row r="18" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="22">
+    <row r="19" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="22">
         <v>2023</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C19" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D19" s="24">
         <f t="shared" si="2"/>
         <v>104426.30729999999</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E19" s="25">
         <v>20566.599999999999</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F19" s="25">
         <v>13313.805</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G19" s="25">
         <v>5779.5439999999999</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H19" s="25">
         <v>6634.8190000000004</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I19" s="25">
         <v>3186.3519999999999</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J19" s="25">
         <v>3890.0010000000002</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K19" s="25">
         <v>2228.2650000000003</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L19" s="25">
         <v>3022.0309999999999</v>
       </c>
-      <c r="M18" s="25">
+      <c r="M19" s="25">
         <v>2482.5659999999998</v>
       </c>
-      <c r="N18" s="25">
+      <c r="N19" s="25">
         <v>1573.3980000000001</v>
       </c>
-      <c r="O18" s="25">
+      <c r="O19" s="25">
         <v>36496.25</v>
       </c>
-      <c r="P18" s="25">
+      <c r="P19" s="25">
         <v>5252.6762999999974</v>
       </c>
     </row>
-    <row r="19" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="10">
+    <row r="20" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="10">
         <v>2023</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D20" s="12">
         <f t="shared" si="2"/>
         <v>105823.25400000002</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E20" s="13">
         <v>20520.5</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F20" s="13">
         <v>14126.735000000001</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G20" s="13">
         <v>6122.6710000000003</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H20" s="13">
         <v>6195.4279999999999</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I20" s="13">
         <v>3286.1129999999998</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J20" s="13">
         <v>3463.6080000000002</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K20" s="13">
         <v>2592.8070000000002</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L20" s="13">
         <v>3439.2550000000001</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M20" s="13">
         <v>2391.259</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N20" s="13">
         <v>1992.0079999999998</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O20" s="13">
         <v>36256.74</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P20" s="13">
         <v>5436.1300000000128</v>
       </c>
     </row>
-    <row r="20" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="14">
+    <row r="21" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="14">
         <v>2023</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C21" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D21" s="16">
         <f t="shared" si="2"/>
         <v>107132.1866</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E21" s="17">
         <v>20291</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F21" s="17">
         <v>14588.228999999999</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G21" s="17">
         <v>6563.4580000000005</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H21" s="17">
         <v>6490.5720000000001</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I21" s="17">
         <v>3206.3980000000001</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J21" s="17">
         <v>2918.2420000000002</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K21" s="17">
         <v>2583.0619999999999</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L21" s="17">
         <v>3007.05</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M21" s="17">
         <v>2285.1779999999999</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N21" s="17">
         <v>2296.12</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O21" s="17">
         <v>37567.615000000005</v>
       </c>
-      <c r="P20" s="17">
+      <c r="P21" s="17">
         <v>5335.2626000000073</v>
       </c>
     </row>
-    <row r="21" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="10">
+    <row r="22" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="10">
         <v>2023</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D22" s="12">
         <f t="shared" si="2"/>
         <v>96344.621599999969</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E22" s="13">
         <v>18890.84</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="13">
         <v>11939.238000000001</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G22" s="13">
         <v>6448.41</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H22" s="13">
         <v>6941.482</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I22" s="13">
         <v>2997.1009999999997</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J22" s="13">
         <v>2820.8690000000001</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K22" s="13">
         <v>2392.9459999999999</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L22" s="13">
         <v>2689.5440000000003</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M22" s="13">
         <v>2237.8310000000001</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N22" s="13">
         <v>1937.12</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O22" s="13">
         <v>32211.534999999996</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P22" s="13">
         <v>4837.7055999999784</v>
       </c>
     </row>
-    <row r="22" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="14">
+    <row r="23" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="14">
         <v>2023</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D23" s="16">
         <f t="shared" si="2"/>
         <v>101340.06099999999</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E23" s="17">
         <v>30758.92</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F23" s="17">
         <v>12635.058999999999</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G23" s="17">
         <v>6735.0630000000001</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H23" s="17">
         <v>7071.5340000000006</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I23" s="17">
         <v>3260.134</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J23" s="17">
         <v>2927.556</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K23" s="17">
         <v>2738.0719999999997</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L23" s="17">
         <v>3079.3420000000001</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M23" s="17">
         <v>2242.9470000000001</v>
       </c>
-      <c r="N22" s="17">
+      <c r="N23" s="17">
         <v>2212.1790000000001</v>
       </c>
-      <c r="O22" s="17">
+      <c r="O23" s="17">
         <v>22653.131999999998</v>
       </c>
-      <c r="P22" s="17">
+      <c r="P23" s="17">
         <v>5026.1229999999987</v>
       </c>
     </row>
-    <row r="23" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="10">
+    <row r="24" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="10">
         <v>2023</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D24" s="12">
         <f t="shared" si="2"/>
         <v>99893.349999999977</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E24" s="13">
         <v>42255.99</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F24" s="13">
         <v>13795.428</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G24" s="13">
         <v>6453.2659999999996</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H24" s="13">
         <v>6305.5460000000003</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I24" s="13">
         <v>2850.3670000000002</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J24" s="13">
         <v>2992.5640000000003</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K24" s="13">
         <v>2184.107</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L24" s="13">
         <v>3001.3330000000001</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M24" s="13">
         <v>2136.636</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N24" s="13">
         <v>1665.6389999999999</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O24" s="13">
         <v>12061.946</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P24" s="13">
         <v>4190.5279999999912</v>
       </c>
     </row>
-    <row r="24" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="14">
+    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="14">
         <v>2023</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C25" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D25" s="16">
         <f t="shared" si="2"/>
         <v>100692.46</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E25" s="17">
         <v>48959.360000000001</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F25" s="17">
         <v>14347.388000000001</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G25" s="17">
         <v>6967.08</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H25" s="17">
         <v>7548.9220000000005</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I25" s="17">
         <v>3319.7</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J25" s="17">
         <v>2985.5720000000001</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K25" s="17">
         <v>2751.5749999999998</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L25" s="17">
         <v>2986.2660000000001</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M25" s="17">
         <v>2130.835</v>
       </c>
-      <c r="N24" s="17">
+      <c r="N25" s="17">
         <v>1363.424</v>
       </c>
-      <c r="O24" s="17">
+      <c r="O25" s="17">
         <v>2657.15</v>
       </c>
-      <c r="P24" s="17">
+      <c r="P25" s="17">
         <v>4675.1880000000074</v>
       </c>
     </row>
-    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="10">
+    <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D26" s="12">
         <f t="shared" si="2"/>
         <v>98181.257999999987</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E26" s="13">
         <v>50235.43</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="13">
         <v>13240.904999999999</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G26" s="13">
         <v>6447.4090000000006</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H26" s="13">
         <v>6818.1289999999999</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I26" s="13">
         <v>3168.0129999999999</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J26" s="13">
         <v>3032.7219999999998</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K26" s="13">
         <v>2419.5279999999998</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L26" s="13">
         <v>3039.0519999999997</v>
       </c>
-      <c r="M25" s="13">
+      <c r="M26" s="13">
         <v>2077.337</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N26" s="13">
         <v>1145.9829999999999</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O26" s="13">
         <v>2054.748</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P26" s="13">
         <v>4502.0019999999795</v>
       </c>
     </row>
-    <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="14">
+    <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="14">
         <v>2023</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C27" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D27" s="16">
         <f t="shared" si="2"/>
         <v>92574.85</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E27" s="17">
         <v>47367.56</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F27" s="17">
         <v>13553.766</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G27" s="17">
         <v>6046.3230000000003</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H27" s="17">
         <v>5997.2860000000001</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I27" s="17">
         <v>2823</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J27" s="17">
         <v>3201.482</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K27" s="17">
         <v>2103.346</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L27" s="17">
         <v>2699.6509999999998</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M27" s="17">
         <v>1830.1030000000001</v>
       </c>
-      <c r="N26" s="17">
+      <c r="N27" s="17">
         <v>966.625</v>
       </c>
-      <c r="O26" s="17">
+      <c r="O27" s="17">
         <v>1973.069</v>
       </c>
-      <c r="P26" s="17">
+      <c r="P27" s="17">
         <v>4012.6390000000029</v>
       </c>
     </row>
-    <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="10">
+    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D28" s="12">
         <f t="shared" si="2"/>
         <v>105745.56200000001</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="13">
         <v>52276.67</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="13">
         <v>16535.007000000001</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G28" s="13">
         <v>6440.4480000000003</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H28" s="13">
         <v>7445.0419999999995</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I28" s="13">
         <v>3504.6480000000001</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J28" s="13">
         <v>3949.8199999999997</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K28" s="13">
         <v>2498.7659999999996</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L28" s="13">
         <v>3061.4049999999997</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M28" s="13">
         <v>2069.788</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N28" s="13">
         <v>1219.9379999999999</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O28" s="13">
         <v>1776.1070000000002</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P28" s="13">
         <v>4967.9229999999952</v>
       </c>
     </row>
-    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="14">
+    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="14">
         <v>2023</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D29" s="16">
         <f t="shared" si="2"/>
         <v>92062.197000000015</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E29" s="17">
         <v>48557.700000000004</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F29" s="17">
         <v>12859.111000000001</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G29" s="17">
         <v>5657.7039999999997</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H29" s="17">
         <v>6269.88</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I29" s="17">
         <v>2992.4319999999998</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J29" s="17">
         <v>3589.6260000000002</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K29" s="17">
         <v>2018.2800000000002</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L29" s="17">
         <v>2591.8669999999997</v>
       </c>
-      <c r="M28" s="17">
+      <c r="M29" s="17">
         <v>1971.3010000000002</v>
       </c>
-      <c r="N28" s="17">
+      <c r="N29" s="17">
         <v>967.20100000000002</v>
       </c>
-      <c r="O28" s="17">
+      <c r="O29" s="17">
         <v>24.785999999999998</v>
       </c>
-      <c r="P28" s="17">
+      <c r="P29" s="17">
         <v>4562.3090000000093</v>
       </c>
     </row>
-    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="18">
+    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="18">
         <v>2023</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C30" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D30" s="20">
         <f t="shared" si="2"/>
         <v>91861.286999999982</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E30" s="21">
         <v>47206.720000000001</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F30" s="21">
         <v>14071.760999999999</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G30" s="21">
         <v>5308.5119999999997</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H30" s="21">
         <v>6105.5779999999995</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I30" s="21">
         <v>3099.4949999999999</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J30" s="21">
         <v>3049.6080000000002</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K30" s="21">
         <v>2226.4519999999998</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L30" s="21">
         <v>2648.1549999999997</v>
       </c>
-      <c r="M29" s="21">
+      <c r="M30" s="21">
         <v>2170.7359999999999</v>
       </c>
-      <c r="N29" s="21">
+      <c r="N30" s="21">
         <v>1026.6849999999999</v>
       </c>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21">
+      <c r="O30" s="21"/>
+      <c r="P30" s="21">
         <v>4947.5849999999755</v>
       </c>
     </row>
-    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="22">
+    <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="22">
         <v>2022</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C31" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D31" s="24">
         <f t="shared" si="2"/>
         <v>101065.27699999994</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E31" s="25">
         <v>51995.01</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F31" s="25">
         <v>14753.401000000002</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G31" s="25">
         <v>6074.482</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H31" s="25">
         <v>6693.6720000000005</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I31" s="25">
         <v>3610.9369999999999</v>
       </c>
-      <c r="J30" s="25">
+      <c r="J31" s="25">
         <v>3543.056</v>
       </c>
-      <c r="K30" s="25">
+      <c r="K31" s="25">
         <v>2529.5419999999999</v>
       </c>
-      <c r="L30" s="25">
+      <c r="L31" s="25">
         <v>3120.09</v>
       </c>
-      <c r="M30" s="25">
+      <c r="M31" s="25">
         <v>2114.6820000000002</v>
       </c>
-      <c r="N30" s="25">
+      <c r="N31" s="25">
         <v>1202.202</v>
       </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25">
+      <c r="O31" s="25"/>
+      <c r="P31" s="25">
         <v>5428.2029999999249</v>
       </c>
     </row>
-    <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="10">
+    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="10">
         <v>2022</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D32" s="12">
         <f t="shared" si="2"/>
         <v>100761.743</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E32" s="13">
         <v>52228.090000000004</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F32" s="13">
         <v>14611.128000000001</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G32" s="13">
         <v>6314.7170000000006</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H32" s="13">
         <v>6174.5390000000007</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I32" s="13">
         <v>3744.3739999999998</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J32" s="13">
         <v>3438.8589999999999</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K32" s="13">
         <v>2565.1889999999999</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L32" s="13">
         <v>3357.0519999999997</v>
       </c>
-      <c r="M31" s="13">
+      <c r="M32" s="13">
         <v>2200.0079999999998</v>
       </c>
-      <c r="N31" s="13">
+      <c r="N32" s="13">
         <v>1152.1139999999998</v>
       </c>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13">
+      <c r="O32" s="13"/>
+      <c r="P32" s="13">
         <v>4975.6730000000007</v>
       </c>
     </row>
-    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="14">
+    <row r="33" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="14">
         <v>2022</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C33" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D33" s="16">
         <f t="shared" si="2"/>
         <v>101815.66400000002</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E33" s="17">
         <v>53850.369999999995</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F33" s="17">
         <v>15184.744000000001</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G33" s="17">
         <v>6463.3790000000008</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H33" s="17">
         <v>5772.1310000000003</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I33" s="17">
         <v>3574.8900000000003</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J33" s="17">
         <v>3573.3429999999998</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K33" s="17">
         <v>2038.558</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L33" s="17">
         <v>2968.2270000000003</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M33" s="17">
         <v>2060.0630000000001</v>
       </c>
-      <c r="N32" s="17">
+      <c r="N33" s="17">
         <v>1283.712</v>
       </c>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17">
+      <c r="O33" s="17"/>
+      <c r="P33" s="17">
         <v>5046.2470000000367</v>
       </c>
     </row>
-    <row r="33" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="10">
+    <row r="34" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="10">
         <v>2022</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D34" s="12">
         <f t="shared" si="2"/>
         <v>89334.159999999974</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E34" s="13">
         <v>47061.49</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F34" s="13">
         <v>14479.710999999999</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G34" s="13">
         <v>6202.4430000000002</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H34" s="13">
         <v>5721.7240000000002</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I34" s="13">
         <v>2401.297</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J34" s="13">
         <v>2631.6559999999999</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K34" s="13">
         <v>2465.8180000000002</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L34" s="13">
         <v>2754.2740000000003</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M34" s="13">
         <v>512.15899999999999</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N34" s="13">
         <v>1143.1680000000001</v>
       </c>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13">
+      <c r="O34" s="13"/>
+      <c r="P34" s="13">
         <v>3960.4199999999564</v>
       </c>
     </row>
-    <row r="34" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="14">
+    <row r="35" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="14">
         <v>2022</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C35" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D35" s="16">
         <f t="shared" si="2"/>
         <v>95278.69100000005</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E35" s="17">
         <v>47746.51</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F35" s="17">
         <v>14115.436000000002</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G35" s="17">
         <v>7015.4850000000006</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H35" s="17">
         <v>6571.5810000000001</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I35" s="17">
         <v>2958.8999999999996</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J35" s="17">
         <v>3531.7309999999998</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K35" s="17">
         <v>2622.4749999999999</v>
       </c>
-      <c r="L34" s="17">
+      <c r="L35" s="17">
         <v>2978.3830000000003</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M35" s="17">
         <v>2025.0970000000002</v>
       </c>
-      <c r="N34" s="17">
+      <c r="N35" s="17">
         <v>1204.242</v>
       </c>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17">
+      <c r="O35" s="17"/>
+      <c r="P35" s="17">
         <v>4508.8510000000351</v>
       </c>
     </row>
-    <row r="35" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="10">
+    <row r="36" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="10">
         <v>2022</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D36" s="12">
         <f t="shared" si="2"/>
         <v>97785.689999999988</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E36" s="13">
         <v>50063.990000000005</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F36" s="13">
         <v>14860.342999999999</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G36" s="13">
         <v>6623.2259999999997</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H36" s="13">
         <v>5368.71</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I36" s="13">
         <v>3986.607</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J36" s="13">
         <v>4343.424</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K36" s="13">
         <v>2496.5360000000001</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L36" s="13">
         <v>2822.9870000000001</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M36" s="13">
         <v>1943.029</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N36" s="13">
         <v>1117.913</v>
       </c>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13">
+      <c r="O36" s="13"/>
+      <c r="P36" s="13">
         <v>4158.924999999982</v>
       </c>
     </row>
-    <row r="36" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="14">
+    <row r="37" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="14">
         <v>2022</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C37" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D37" s="16">
         <f t="shared" si="2"/>
         <v>98754.335000000006</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E37" s="17">
         <v>46577.189999999995</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F37" s="17">
         <v>15738.313999999998</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G37" s="17">
         <v>7141.8860000000004</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H37" s="17">
         <v>6363.9130000000005</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I37" s="17">
         <v>4263.3530000000001</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J37" s="17">
         <v>3976.6590000000001</v>
       </c>
-      <c r="K36" s="17">
+      <c r="K37" s="17">
         <v>2587.8480000000004</v>
       </c>
-      <c r="L36" s="17">
+      <c r="L37" s="17">
         <v>3419.7529999999997</v>
       </c>
-      <c r="M36" s="17">
+      <c r="M37" s="17">
         <v>2042.5399999999997</v>
       </c>
-      <c r="N36" s="17">
+      <c r="N37" s="17">
         <v>1359.9259999999999</v>
       </c>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17">
+      <c r="O37" s="17"/>
+      <c r="P37" s="17">
         <v>5282.9530000000059</v>
       </c>
     </row>
-    <row r="37" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="10">
+    <row r="38" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D38" s="12">
         <f t="shared" si="2"/>
         <v>100981.77</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E38" s="13">
         <v>48175.270000000004</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F38" s="13">
         <v>15121.800999999999</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G38" s="13">
         <v>6917.94</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H38" s="13">
         <v>7004.4480000000003</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I38" s="13">
         <v>4293.0200000000004</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J38" s="13">
         <v>4633.1059999999998</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K38" s="13">
         <v>2216.5819999999999</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L38" s="13">
         <v>4035.9160000000002</v>
       </c>
-      <c r="M37" s="13">
+      <c r="M38" s="13">
         <v>2042.0069999999998</v>
       </c>
-      <c r="N37" s="13">
+      <c r="N38" s="13">
         <v>1212.9639999999999</v>
       </c>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13">
+      <c r="O38" s="13"/>
+      <c r="P38" s="13">
         <v>5328.7160000000003</v>
       </c>
     </row>
-    <row r="38" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="14">
+    <row r="39" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="14">
         <v>2022</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C39" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D39" s="16">
         <f t="shared" si="2"/>
         <v>91772.804999999978</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E39" s="17">
         <v>42504.89</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F39" s="17">
         <v>14271.894</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G39" s="17">
         <v>6804.5039999999999</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H39" s="17">
         <v>5796.9490000000005</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I39" s="17">
         <v>3819.4520000000002</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J39" s="17">
         <v>4312.4709999999995</v>
       </c>
-      <c r="K38" s="17">
+      <c r="K39" s="17">
         <v>2349.19</v>
       </c>
-      <c r="L38" s="17">
+      <c r="L39" s="17">
         <v>3770.8559999999998</v>
       </c>
-      <c r="M38" s="17">
+      <c r="M39" s="17">
         <v>1869.663</v>
       </c>
-      <c r="N38" s="17">
+      <c r="N39" s="17">
         <v>1118.5450000000001</v>
       </c>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17">
+      <c r="O39" s="17"/>
+      <c r="P39" s="17">
         <v>5154.390999999976</v>
       </c>
     </row>
-    <row r="39" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="10">
+    <row r="40" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D40" s="12">
         <f t="shared" si="2"/>
         <v>97475.604000000007</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="13">
         <v>43589.06</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="13">
         <v>15805.73</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G40" s="13">
         <v>7474.4720000000007</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H40" s="13">
         <v>6700.8620000000001</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I40" s="13">
         <v>4181.607</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J40" s="13">
         <v>4873.1779999999999</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K40" s="13">
         <v>2656.9369999999999</v>
       </c>
-      <c r="L39" s="13">
+      <c r="L40" s="13">
         <v>3049.7539999999999</v>
       </c>
-      <c r="M39" s="13">
+      <c r="M40" s="13">
         <v>2099.5990000000002</v>
       </c>
-      <c r="N39" s="13">
+      <c r="N40" s="13">
         <v>1350.1109999999999</v>
       </c>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13">
+      <c r="O40" s="13"/>
+      <c r="P40" s="13">
         <v>5694.2940000000135</v>
       </c>
     </row>
-    <row r="40" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="14">
+    <row r="41" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="14">
         <v>2022</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C41" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D41" s="16">
         <f t="shared" si="2"/>
         <v>89800.428</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E41" s="17">
         <v>45366.31</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F41" s="17">
         <v>13369.772999999999</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G41" s="17">
         <v>5647.3320000000003</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H41" s="17">
         <v>5270.6120000000001</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I41" s="17">
         <v>3794.5039999999999</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J41" s="17">
         <v>3839.19</v>
       </c>
-      <c r="K40" s="17">
+      <c r="K41" s="17">
         <v>2119.1379999999999</v>
       </c>
-      <c r="L40" s="17">
+      <c r="L41" s="17">
         <v>2576.7370000000001</v>
       </c>
-      <c r="M40" s="17">
+      <c r="M41" s="17">
         <v>1797.6790000000001</v>
       </c>
-      <c r="N40" s="17">
+      <c r="N41" s="17">
         <v>1019.68</v>
       </c>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17">
+      <c r="O41" s="17"/>
+      <c r="P41" s="17">
         <v>4999.4729999999945</v>
       </c>
     </row>
-    <row r="41" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="18">
+    <row r="42" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="18">
         <v>2022</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C42" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D42" s="20">
         <f t="shared" si="2"/>
         <v>85046.313999999984</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E42" s="21">
         <v>41649.950000000004</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F42" s="21">
         <v>14466.567999999999</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G42" s="21">
         <v>5084.2289999999994</v>
       </c>
-      <c r="H41" s="21">
+      <c r="H42" s="21">
         <v>5408.1559999999999</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I42" s="21">
         <v>2575.6040000000003</v>
       </c>
-      <c r="J41" s="21">
+      <c r="J42" s="21">
         <v>3171.0789999999997</v>
       </c>
-      <c r="K41" s="21">
+      <c r="K42" s="21">
         <v>2142.4740000000002</v>
       </c>
-      <c r="L41" s="21">
+      <c r="L42" s="21">
         <v>2573.4090000000001</v>
       </c>
-      <c r="M41" s="21">
+      <c r="M42" s="21">
         <v>1939.2370000000001</v>
       </c>
-      <c r="N41" s="21">
+      <c r="N42" s="21">
         <v>1105.0170000000001</v>
       </c>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21">
+      <c r="O42" s="21"/>
+      <c r="P42" s="21">
         <v>4930.590999999964</v>
       </c>
     </row>
-    <row r="42" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="22">
+    <row r="43" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="22">
         <v>2021</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C43" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="24">
+      <c r="D43" s="24">
         <f t="shared" si="2"/>
         <v>106245.8559999999</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E43" s="25">
         <v>50857.07</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F43" s="25">
         <v>17094.063999999998</v>
       </c>
-      <c r="G42" s="25">
+      <c r="G43" s="25">
         <v>6690.982</v>
       </c>
-      <c r="H42" s="25">
+      <c r="H43" s="25">
         <v>6757.0789999999997</v>
       </c>
-      <c r="I42" s="25">
+      <c r="I43" s="25">
         <v>4772.1049999999996</v>
       </c>
-      <c r="J42" s="25">
+      <c r="J43" s="25">
         <v>4153.6809999999996</v>
       </c>
-      <c r="K42" s="25">
+      <c r="K43" s="25">
         <v>2996.9839999999999</v>
       </c>
-      <c r="L42" s="25">
+      <c r="L43" s="25">
         <v>3411.8760000000002</v>
       </c>
-      <c r="M42" s="25">
+      <c r="M43" s="25">
         <v>2152.6570000000002</v>
       </c>
-      <c r="N42" s="25">
+      <c r="N43" s="25">
         <v>1412.242</v>
       </c>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25">
+      <c r="O43" s="25"/>
+      <c r="P43" s="25">
         <v>5947.115999999909</v>
       </c>
     </row>
-    <row r="43" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="10">
+    <row r="44" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="10">
         <v>2021</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C44" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D44" s="12">
         <f t="shared" si="2"/>
         <v>103780.351</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E44" s="13">
         <v>51670.84</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F44" s="13">
         <v>16637.919000000002</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G44" s="13">
         <v>6777.7350000000006</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H44" s="13">
         <v>6088.8860000000004</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I44" s="13">
         <v>4689.4409999999998</v>
       </c>
-      <c r="J43" s="13">
+      <c r="J44" s="13">
         <v>3093.7200000000003</v>
       </c>
-      <c r="K43" s="13">
+      <c r="K44" s="13">
         <v>2801.3710000000001</v>
       </c>
-      <c r="L43" s="13">
+      <c r="L44" s="13">
         <v>3273.163</v>
       </c>
-      <c r="M43" s="13">
+      <c r="M44" s="13">
         <v>2116.31</v>
       </c>
-      <c r="N43" s="13">
+      <c r="N44" s="13">
         <v>1187.3990000000001</v>
       </c>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13">
+      <c r="O44" s="13"/>
+      <c r="P44" s="13">
         <v>5443.5670000000018</v>
       </c>
     </row>
-    <row r="44" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="14">
+    <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="14">
         <v>2021</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C45" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D45" s="16">
         <f t="shared" si="2"/>
         <v>102011.41899999998</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E45" s="17">
         <v>52512.270000000004</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F45" s="17">
         <v>15934.506000000001</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G45" s="17">
         <v>6335.259</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H45" s="17">
         <v>5545.3950000000004</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I45" s="17">
         <v>4882.7650000000003</v>
       </c>
-      <c r="J44" s="17">
+      <c r="J45" s="17">
         <v>2936.84</v>
       </c>
-      <c r="K44" s="17">
+      <c r="K45" s="17">
         <v>2405.8789999999999</v>
       </c>
-      <c r="L44" s="17">
+      <c r="L45" s="17">
         <v>3272.1130000000003</v>
       </c>
-      <c r="M44" s="17">
+      <c r="M45" s="17">
         <v>1900.828</v>
       </c>
-      <c r="N44" s="17">
+      <c r="N45" s="17">
         <v>1092.5319999999999</v>
       </c>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17">
+      <c r="O45" s="17"/>
+      <c r="P45" s="17">
         <v>5193.0319999999592</v>
       </c>
     </row>
-    <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="10">
+    <row r="46" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="10">
         <v>2021</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C46" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="12">
-        <f t="shared" ref="D45:D76" si="3">SUM(E45:P45)</f>
+      <c r="D46" s="12">
+        <f t="shared" ref="D46:D77" si="3">SUM(E46:P46)</f>
         <v>91178.608999999982</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E46" s="13">
         <v>45915.21</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F46" s="13">
         <v>14692.056</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G46" s="13">
         <v>5728.8209999999999</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H46" s="13">
         <v>5560.4480000000003</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I46" s="13">
         <v>4702.9629999999997</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J46" s="13">
         <v>2102.703</v>
       </c>
-      <c r="K45" s="13">
+      <c r="K46" s="13">
         <v>2272.134</v>
       </c>
-      <c r="L45" s="13">
+      <c r="L46" s="13">
         <v>2868.15</v>
       </c>
-      <c r="M45" s="13">
+      <c r="M46" s="13">
         <v>1735.4590000000001</v>
       </c>
-      <c r="N45" s="13">
+      <c r="N46" s="13">
         <v>1045.8</v>
       </c>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13">
+      <c r="O46" s="13"/>
+      <c r="P46" s="13">
         <v>4554.864999999978</v>
       </c>
     </row>
-    <row r="46" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="14">
+    <row r="47" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="14">
         <v>2021</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C47" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D47" s="16">
         <f t="shared" si="3"/>
         <v>92414.208999999988</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E47" s="17">
         <v>46263.56</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F47" s="17">
         <v>15429.054</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G47" s="17">
         <v>5843.6489999999994</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H47" s="17">
         <v>5188.5529999999999</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I47" s="17">
         <v>4997.6589999999997</v>
       </c>
-      <c r="J46" s="17">
+      <c r="J47" s="17">
         <v>1980.7669999999998</v>
       </c>
-      <c r="K46" s="17">
+      <c r="K47" s="17">
         <v>2178.5140000000001</v>
       </c>
-      <c r="L46" s="17">
+      <c r="L47" s="17">
         <v>2985.433</v>
       </c>
-      <c r="M46" s="17">
+      <c r="M47" s="17">
         <v>1919.7950000000001</v>
       </c>
-      <c r="N46" s="17">
+      <c r="N47" s="17">
         <v>1046.1379999999999</v>
       </c>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17">
+      <c r="O47" s="17"/>
+      <c r="P47" s="17">
         <v>4581.0869999999823</v>
       </c>
     </row>
-    <row r="47" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="10">
+    <row r="48" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="10">
         <v>2021</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D48" s="12">
         <f t="shared" si="3"/>
         <v>94998.959000000017</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E48" s="13">
         <v>47535.66</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F48" s="13">
         <v>16396.912</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G48" s="13">
         <v>5814.3230000000003</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H48" s="13">
         <v>5225.7449999999999</v>
       </c>
-      <c r="I47" s="13">
+      <c r="I48" s="13">
         <v>4822.5879999999997</v>
       </c>
-      <c r="J47" s="13">
+      <c r="J48" s="13">
         <v>2417.9939999999997</v>
       </c>
-      <c r="K47" s="13">
+      <c r="K48" s="13">
         <v>2253.5949999999998</v>
       </c>
-      <c r="L47" s="13">
+      <c r="L48" s="13">
         <v>2954.0879999999997</v>
       </c>
-      <c r="M47" s="13">
+      <c r="M48" s="13">
         <v>2019.4090000000001</v>
       </c>
-      <c r="N47" s="13">
+      <c r="N48" s="13">
         <v>989</v>
       </c>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13">
+      <c r="O48" s="13"/>
+      <c r="P48" s="13">
         <v>4569.6450000000086</v>
       </c>
     </row>
-    <row r="48" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="14">
+    <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="14">
         <v>2021</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C49" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D49" s="16">
         <f t="shared" si="3"/>
         <v>93150.852999999974</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E49" s="17">
         <v>46381.57</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F49" s="17">
         <v>16321.146999999999</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G49" s="17">
         <v>5643.8950000000004</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H49" s="17">
         <v>5512.8739999999998</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I49" s="17">
         <v>4619.1679999999997</v>
       </c>
-      <c r="J48" s="17">
+      <c r="J49" s="17">
         <v>2265.636</v>
       </c>
-      <c r="K48" s="17">
+      <c r="K49" s="17">
         <v>2051.7060000000001</v>
       </c>
-      <c r="L48" s="17">
+      <c r="L49" s="17">
         <v>2931.884</v>
       </c>
-      <c r="M48" s="17">
+      <c r="M49" s="17">
         <v>1972.1880000000001</v>
       </c>
-      <c r="N48" s="17">
+      <c r="N49" s="17">
         <v>986.39300000000003</v>
       </c>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17">
+      <c r="O49" s="17"/>
+      <c r="P49" s="17">
         <v>4464.3919999999753</v>
       </c>
     </row>
-    <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="10">
+    <row r="50" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D50" s="12">
         <f t="shared" si="3"/>
         <v>91896.881000000023</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E50" s="13">
         <v>46267.280000000006</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F50" s="13">
         <v>16961.302</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G50" s="13">
         <v>5341.201</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H50" s="13">
         <v>5093.9789999999994</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I50" s="13">
         <v>4098.0300000000007</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J50" s="13">
         <v>2317.509</v>
       </c>
-      <c r="K49" s="13">
+      <c r="K50" s="13">
         <v>1839.751</v>
       </c>
-      <c r="L49" s="13">
+      <c r="L50" s="13">
         <v>2917.2539999999999</v>
       </c>
-      <c r="M49" s="13">
+      <c r="M50" s="13">
         <v>1854.6999999999998</v>
       </c>
-      <c r="N49" s="13">
+      <c r="N50" s="13">
         <v>936.20399999999995</v>
       </c>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13">
+      <c r="O50" s="13"/>
+      <c r="P50" s="13">
         <v>4269.6710000000021</v>
       </c>
     </row>
-    <row r="50" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="14">
+    <row r="51" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="14">
         <v>2021</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C51" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D51" s="16">
         <f t="shared" si="3"/>
         <v>91124.671000000017</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E51" s="17">
         <v>44958.49</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F51" s="17">
         <v>17353.253000000001</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G51" s="17">
         <v>5074.8539999999994</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H51" s="17">
         <v>5150.7029999999995</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I51" s="17">
         <v>4190.9799999999996</v>
       </c>
-      <c r="J50" s="17">
+      <c r="J51" s="17">
         <v>2711.4180000000001</v>
       </c>
-      <c r="K50" s="17">
+      <c r="K51" s="17">
         <v>2026.221</v>
       </c>
-      <c r="L50" s="17">
+      <c r="L51" s="17">
         <v>2834.6559999999999</v>
       </c>
-      <c r="M50" s="17">
+      <c r="M51" s="17">
         <v>1752.0440000000001</v>
       </c>
-      <c r="N50" s="17">
+      <c r="N51" s="17">
         <v>919.93</v>
       </c>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17">
+      <c r="O51" s="17"/>
+      <c r="P51" s="17">
         <v>4152.1220000000194</v>
       </c>
     </row>
-    <row r="51" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="10">
+    <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D52" s="12">
         <f t="shared" si="3"/>
         <v>97804.682000000015</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E52" s="13">
         <v>49200.950000000004</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="13">
         <v>18513.925000000003</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G52" s="13">
         <v>5394.5290000000005</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H52" s="13">
         <v>5438.8379999999997</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I52" s="13">
         <v>4517.6980000000003</v>
       </c>
-      <c r="J51" s="13">
+      <c r="J52" s="13">
         <v>2272.91</v>
       </c>
-      <c r="K51" s="13">
+      <c r="K52" s="13">
         <v>2051.056</v>
       </c>
-      <c r="L51" s="13">
+      <c r="L52" s="13">
         <v>2950.4749999999999</v>
       </c>
-      <c r="M51" s="13">
+      <c r="M52" s="13">
         <v>1771.0360000000001</v>
       </c>
-      <c r="N51" s="13">
+      <c r="N52" s="13">
         <v>1067.4470000000001</v>
       </c>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13">
+      <c r="O52" s="13"/>
+      <c r="P52" s="13">
         <v>4625.8179999999957</v>
       </c>
     </row>
-    <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="14">
+    <row r="53" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="14">
         <v>2021</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C53" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D53" s="16">
         <f t="shared" si="3"/>
         <v>83857.271000000022</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E53" s="17">
         <v>42287.700000000004</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F53" s="17">
         <v>15583.737000000001</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G53" s="17">
         <v>4140.5389999999998</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H53" s="17">
         <v>4531.4269999999997</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I53" s="17">
         <v>3863.7919999999995</v>
       </c>
-      <c r="J52" s="17">
+      <c r="J53" s="17">
         <v>2548.5929999999998</v>
       </c>
-      <c r="K52" s="17">
+      <c r="K53" s="17">
         <v>1805.3239999999998</v>
       </c>
-      <c r="L52" s="17">
+      <c r="L53" s="17">
         <v>2596.5039999999999</v>
       </c>
-      <c r="M52" s="17">
+      <c r="M53" s="17">
         <v>1517.7179999999998</v>
       </c>
-      <c r="N52" s="17">
+      <c r="N53" s="17">
         <v>866.53800000000001</v>
       </c>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17">
+      <c r="O53" s="17"/>
+      <c r="P53" s="17">
         <v>4115.3990000000395</v>
       </c>
     </row>
-    <row r="53" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="18">
+    <row r="54" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="18">
         <v>2021</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C54" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D54" s="20">
         <f t="shared" si="3"/>
         <v>88197.219999999987</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E54" s="21">
         <v>43928.770000000004</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F54" s="21">
         <v>16300.849999999997</v>
       </c>
-      <c r="G53" s="21">
+      <c r="G54" s="21">
         <v>4840.8860000000004</v>
       </c>
-      <c r="H53" s="21">
+      <c r="H54" s="21">
         <v>4794.0879999999997</v>
       </c>
-      <c r="I53" s="21">
+      <c r="I54" s="21">
         <v>4785.6239999999998</v>
       </c>
-      <c r="J53" s="21">
+      <c r="J54" s="21">
         <v>2064.8710000000001</v>
       </c>
-      <c r="K53" s="21">
+      <c r="K54" s="21">
         <v>2034.952</v>
       </c>
-      <c r="L53" s="21">
+      <c r="L54" s="21">
         <v>2453.6999999999998</v>
       </c>
-      <c r="M53" s="21">
+      <c r="M54" s="21">
         <v>1745.922</v>
       </c>
-      <c r="N53" s="21">
+      <c r="N54" s="21">
         <v>918.11799999999994</v>
       </c>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21">
+      <c r="O54" s="21"/>
+      <c r="P54" s="21">
         <v>4329.4389999999794</v>
       </c>
     </row>
-    <row r="54" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="22">
+    <row r="55" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="22">
         <v>2020</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C55" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="24">
+      <c r="D55" s="24">
         <f t="shared" si="3"/>
         <v>94144.191000000021</v>
       </c>
-      <c r="E54" s="25">
+      <c r="E55" s="25">
         <v>46330.03</v>
       </c>
-      <c r="F54" s="25">
+      <c r="F55" s="25">
         <v>15973.973</v>
       </c>
-      <c r="G54" s="25">
+      <c r="G55" s="25">
         <v>5450.8789999999999</v>
       </c>
-      <c r="H54" s="25">
+      <c r="H55" s="25">
         <v>5488.8649999999998</v>
       </c>
-      <c r="I54" s="25">
+      <c r="I55" s="25">
         <v>5262.348</v>
       </c>
-      <c r="J54" s="25">
+      <c r="J55" s="25">
         <v>1922.278</v>
       </c>
-      <c r="K54" s="25">
+      <c r="K55" s="25">
         <v>2610.1819999999998</v>
       </c>
-      <c r="L54" s="25">
+      <c r="L55" s="25">
         <v>3093.9090000000001</v>
       </c>
-      <c r="M54" s="25">
+      <c r="M55" s="25">
         <v>1870.7370000000001</v>
       </c>
-      <c r="N54" s="25">
+      <c r="N55" s="25">
         <v>1267.98</v>
       </c>
-      <c r="O54" s="25"/>
-      <c r="P54" s="25">
+      <c r="O55" s="25"/>
+      <c r="P55" s="25">
         <v>4873.010000000022</v>
       </c>
     </row>
-    <row r="55" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="10">
+    <row r="56" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="10">
         <v>2020</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C56" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D56" s="12">
         <f t="shared" si="3"/>
         <v>91473.85500000001</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E56" s="13">
         <v>47533.36</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F56" s="13">
         <v>14400.682000000001</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G56" s="13">
         <v>5383.1379999999999</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H56" s="13">
         <v>4958.3670000000002</v>
       </c>
-      <c r="I55" s="13">
+      <c r="I56" s="13">
         <v>4752.6779999999999</v>
       </c>
-      <c r="J55" s="13">
+      <c r="J56" s="13">
         <v>1515.828</v>
       </c>
-      <c r="K55" s="13">
+      <c r="K56" s="13">
         <v>2284.3830000000003</v>
       </c>
-      <c r="L55" s="13">
+      <c r="L56" s="13">
         <v>3066.7379999999998</v>
       </c>
-      <c r="M55" s="13">
+      <c r="M56" s="13">
         <v>1683.905</v>
       </c>
-      <c r="N55" s="13">
+      <c r="N56" s="13">
         <v>1051.925</v>
       </c>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13">
+      <c r="O56" s="13"/>
+      <c r="P56" s="13">
         <v>4842.8510000000106</v>
       </c>
     </row>
-    <row r="56" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="14">
+    <row r="57" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="14">
         <v>2020</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C57" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D57" s="16">
         <f t="shared" si="3"/>
         <v>91662.356999999931</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E57" s="17">
         <v>46625.39</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F57" s="17">
         <v>16134.585999999999</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G57" s="17">
         <v>5479.9110000000001</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H57" s="17">
         <v>4639.0290000000005</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I57" s="17">
         <v>5349.1270000000004</v>
       </c>
-      <c r="J56" s="17">
+      <c r="J57" s="17">
         <v>1260.509</v>
       </c>
-      <c r="K56" s="17">
+      <c r="K57" s="17">
         <v>2199.1950000000002</v>
       </c>
-      <c r="L56" s="17">
+      <c r="L57" s="17">
         <v>3053.64</v>
       </c>
-      <c r="M56" s="17">
+      <c r="M57" s="17">
         <v>1739.095</v>
       </c>
-      <c r="N56" s="17">
+      <c r="N57" s="17">
         <v>943.76300000000003</v>
       </c>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17">
+      <c r="O57" s="17"/>
+      <c r="P57" s="17">
         <v>4238.11199999993</v>
       </c>
     </row>
-    <row r="57" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="10">
+    <row r="58" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="10">
         <v>2020</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C58" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D58" s="12">
         <f t="shared" si="3"/>
         <v>77051.781000000032</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E58" s="13">
         <v>38240.839999999997</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F58" s="13">
         <v>14171.219000000001</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G58" s="13">
         <v>4407.3809999999994</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H58" s="13">
         <v>3752.172</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I58" s="13">
         <v>4552.4279999999999</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J58" s="13">
         <v>1079.7190000000001</v>
       </c>
-      <c r="K57" s="13">
+      <c r="K58" s="13">
         <v>1834.0129999999999</v>
       </c>
-      <c r="L57" s="13">
+      <c r="L58" s="13">
         <v>2717.5839999999998</v>
       </c>
-      <c r="M57" s="13">
+      <c r="M58" s="13">
         <v>1835.0609999999999</v>
       </c>
-      <c r="N57" s="13">
+      <c r="N58" s="13">
         <v>788.73500000000001</v>
       </c>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13">
+      <c r="O58" s="13"/>
+      <c r="P58" s="13">
         <v>3672.629000000029</v>
       </c>
     </row>
-    <row r="58" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="14">
+    <row r="59" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="14">
         <v>2020</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C59" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D59" s="16">
         <f t="shared" si="3"/>
         <v>73243.596999999965</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E59" s="17">
         <v>37945.979999999996</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F59" s="17">
         <v>12325.865999999998</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G59" s="17">
         <v>3948.0789999999997</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H59" s="17">
         <v>3392.7820000000002</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I59" s="17">
         <v>4478.6279999999997</v>
       </c>
-      <c r="J58" s="17">
+      <c r="J59" s="17">
         <v>1011.65</v>
       </c>
-      <c r="K58" s="17">
+      <c r="K59" s="17">
         <v>1714.8619999999999</v>
       </c>
-      <c r="L58" s="17">
+      <c r="L59" s="17">
         <v>2516.4409999999998</v>
       </c>
-      <c r="M58" s="17">
+      <c r="M59" s="17">
         <v>1831.6880000000001</v>
       </c>
-      <c r="N58" s="17">
+      <c r="N59" s="17">
         <v>782.10199999999998</v>
       </c>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17">
+      <c r="O59" s="17"/>
+      <c r="P59" s="17">
         <v>3295.5189999999848</v>
       </c>
     </row>
-    <row r="59" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="10">
+    <row r="60" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="10">
         <v>2020</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D60" s="12">
         <f t="shared" si="3"/>
         <v>70714.571000000011</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E60" s="13">
         <v>34839.78</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F60" s="13">
         <v>13321.585999999999</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G60" s="13">
         <v>3950.6219999999998</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H60" s="13">
         <v>3725.6490000000003</v>
       </c>
-      <c r="I59" s="13">
+      <c r="I60" s="13">
         <v>3987.5020000000004</v>
       </c>
-      <c r="J59" s="13">
+      <c r="J60" s="13">
         <v>936.46399999999994</v>
       </c>
-      <c r="K59" s="13">
+      <c r="K60" s="13">
         <v>1692.3649999999998</v>
       </c>
-      <c r="L59" s="13">
+      <c r="L60" s="13">
         <v>2403.9839999999999</v>
       </c>
-      <c r="M59" s="13">
+      <c r="M60" s="13">
         <v>1775.4699999999998</v>
       </c>
-      <c r="N59" s="13">
+      <c r="N60" s="13">
         <v>840.952</v>
       </c>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13">
+      <c r="O60" s="13"/>
+      <c r="P60" s="13">
         <v>3240.1970000000092</v>
       </c>
     </row>
-    <row r="60" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="14">
+    <row r="61" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="14">
         <v>2020</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C61" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D61" s="16">
         <f t="shared" si="3"/>
         <v>66590.821000000025</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E61" s="17">
         <v>33996.18</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F61" s="17">
         <v>13478.243999999999</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G61" s="17">
         <v>3545.3679999999999</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H61" s="17">
         <v>3224.4189999999999</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I61" s="17">
         <v>3231.3440000000001</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J61" s="17">
         <v>771.17700000000002</v>
       </c>
-      <c r="K60" s="17">
+      <c r="K61" s="17">
         <v>1478.3190000000002</v>
       </c>
-      <c r="L60" s="17">
+      <c r="L61" s="17">
         <v>1821.6129999999998</v>
       </c>
-      <c r="M60" s="17">
+      <c r="M61" s="17">
         <v>1594.6689999999999</v>
       </c>
-      <c r="N60" s="17">
+      <c r="N61" s="17">
         <v>720.39199999999994</v>
       </c>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17">
+      <c r="O61" s="17"/>
+      <c r="P61" s="17">
         <v>2729.0960000000127</v>
       </c>
     </row>
-    <row r="61" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="10">
+    <row r="62" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C62" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D62" s="12">
         <f t="shared" si="3"/>
         <v>58590.57</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E62" s="13">
         <v>31229.68</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F62" s="13">
         <v>11236.094000000001</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G62" s="13">
         <v>2744.201</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H62" s="13">
         <v>2746.701</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I62" s="13">
         <v>2540.2469999999998</v>
       </c>
-      <c r="J61" s="13">
+      <c r="J62" s="13">
         <v>612.84699999999998</v>
       </c>
-      <c r="K61" s="13">
+      <c r="K62" s="13">
         <v>1623.547</v>
       </c>
-      <c r="L61" s="13">
+      <c r="L62" s="13">
         <v>1605.3789999999999</v>
       </c>
-      <c r="M61" s="13">
+      <c r="M62" s="13">
         <v>1482.9659999999999</v>
       </c>
-      <c r="N61" s="13">
+      <c r="N62" s="13">
         <v>671.48299999999995</v>
       </c>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13">
+      <c r="O62" s="13"/>
+      <c r="P62" s="13">
         <v>2097.424999999987</v>
       </c>
     </row>
-    <row r="62" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="14">
+    <row r="63" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="14">
         <v>2020</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C63" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D63" s="16">
         <f t="shared" si="3"/>
         <v>51124.868999999999</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E63" s="17">
         <v>25419.52</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F63" s="17">
         <v>11565.216</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G63" s="17">
         <v>2651.4159999999997</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H63" s="17">
         <v>2693.4929999999999</v>
       </c>
-      <c r="I62" s="17">
+      <c r="I63" s="17">
         <v>2126.7669999999998</v>
       </c>
-      <c r="J62" s="17">
+      <c r="J63" s="17">
         <v>551.59</v>
       </c>
-      <c r="K62" s="17">
+      <c r="K63" s="17">
         <v>1334.1680000000001</v>
       </c>
-      <c r="L62" s="17">
+      <c r="L63" s="17">
         <v>1156.8400000000001</v>
       </c>
-      <c r="M62" s="17">
+      <c r="M63" s="17">
         <v>1103.2260000000001</v>
       </c>
-      <c r="N62" s="17">
+      <c r="N63" s="17">
         <v>532.67700000000002</v>
       </c>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17">
+      <c r="O63" s="17"/>
+      <c r="P63" s="17">
         <v>1989.9559999999994</v>
       </c>
     </row>
-    <row r="63" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="10">
+    <row r="64" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C64" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D64" s="12">
         <f t="shared" si="3"/>
         <v>79368.52999999997</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E64" s="13">
         <v>42274.520000000004</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F64" s="13">
         <v>14537.343000000001</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G64" s="13">
         <v>4065.893</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H64" s="13">
         <v>3597.8379999999997</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I64" s="13">
         <v>2907.587</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J64" s="13">
         <v>2248.8019999999997</v>
       </c>
-      <c r="K63" s="13">
+      <c r="K64" s="13">
         <v>1787.81</v>
       </c>
-      <c r="L63" s="13">
+      <c r="L64" s="13">
         <v>2068.8739999999998</v>
       </c>
-      <c r="M63" s="13">
+      <c r="M64" s="13">
         <v>1532.5450000000001</v>
       </c>
-      <c r="N63" s="13">
+      <c r="N64" s="13">
         <v>820.50299999999993</v>
       </c>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13">
+      <c r="O64" s="13"/>
+      <c r="P64" s="13">
         <v>3526.8149999999705</v>
       </c>
     </row>
-    <row r="64" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="14">
+    <row r="65" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="14">
         <v>2020</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C65" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D65" s="16">
         <f t="shared" si="3"/>
         <v>75908.510999999955</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E65" s="17">
         <v>42089.659999999996</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F65" s="17">
         <v>11466.815999999999</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G65" s="17">
         <v>3486.42</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H65" s="17">
         <v>3309.0249999999996</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I65" s="17">
         <v>2651.6840000000002</v>
       </c>
-      <c r="J64" s="17">
+      <c r="J65" s="17">
         <v>2759.643</v>
       </c>
-      <c r="K64" s="17">
+      <c r="K65" s="17">
         <v>1653.057</v>
       </c>
-      <c r="L64" s="17">
+      <c r="L65" s="17">
         <v>2319.8409999999999</v>
       </c>
-      <c r="M64" s="17">
+      <c r="M65" s="17">
         <v>1687.9380000000001</v>
       </c>
-      <c r="N64" s="17">
+      <c r="N65" s="17">
         <v>812.35799999999995</v>
       </c>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17">
+      <c r="O65" s="17"/>
+      <c r="P65" s="17">
         <v>3672.068999999979</v>
       </c>
     </row>
-    <row r="65" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="18">
+    <row r="66" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="18">
         <v>2020</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C66" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="20">
+      <c r="D66" s="20">
         <f t="shared" si="3"/>
         <v>80828.273000000045</v>
       </c>
-      <c r="E65" s="21">
+      <c r="E66" s="21">
         <v>43200.08</v>
       </c>
-      <c r="F65" s="21">
+      <c r="F66" s="21">
         <v>12981.727999999999</v>
       </c>
-      <c r="G65" s="21">
+      <c r="G66" s="21">
         <v>3924.5250000000001</v>
       </c>
-      <c r="H65" s="21">
+      <c r="H66" s="21">
         <v>3616.1279999999997</v>
       </c>
-      <c r="I65" s="21">
+      <c r="I66" s="21">
         <v>2992.5469999999996</v>
       </c>
-      <c r="J65" s="21">
+      <c r="J66" s="21">
         <v>3044.2960000000003</v>
       </c>
-      <c r="K65" s="21">
+      <c r="K66" s="21">
         <v>1792.2229999999997</v>
       </c>
-      <c r="L65" s="21">
+      <c r="L66" s="21">
         <v>2507.0810000000001</v>
       </c>
-      <c r="M65" s="21">
+      <c r="M66" s="21">
         <v>1937.0650000000001</v>
       </c>
-      <c r="N65" s="21">
+      <c r="N66" s="21">
         <v>862.8069999999999</v>
       </c>
-      <c r="O65" s="21"/>
-      <c r="P65" s="21">
+      <c r="O66" s="21"/>
+      <c r="P66" s="21">
         <v>3969.7930000000383</v>
       </c>
     </row>
-    <row r="66" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="22">
+    <row r="67" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="22">
         <v>2019</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C67" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="24">
+      <c r="D67" s="24">
         <f t="shared" si="3"/>
         <v>83400</v>
       </c>
-      <c r="E66" s="25">
+      <c r="E67" s="25">
         <v>48000</v>
       </c>
-      <c r="F66" s="25">
+      <c r="F67" s="25">
         <v>14500</v>
       </c>
-      <c r="G66" s="25">
+      <c r="G67" s="25">
         <v>3700</v>
       </c>
-      <c r="H66" s="25">
+      <c r="H67" s="25">
         <v>2900</v>
       </c>
-      <c r="I66" s="25">
+      <c r="I67" s="25">
         <v>3100</v>
       </c>
-      <c r="J66" s="25">
+      <c r="J67" s="25">
         <v>1900</v>
       </c>
-      <c r="K66" s="25">
+      <c r="K67" s="25">
         <v>3700</v>
       </c>
-      <c r="L66" s="25">
+      <c r="L67" s="25">
         <v>1900</v>
       </c>
-      <c r="M66" s="25">
+      <c r="M67" s="25">
         <v>2600</v>
       </c>
-      <c r="N66" s="25">
+      <c r="N67" s="25">
         <v>1100</v>
       </c>
-      <c r="O66" s="25"/>
-      <c r="P66" s="25">
+      <c r="O67" s="25"/>
+      <c r="P67" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="10">
+    <row r="68" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="10">
         <v>2019</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C68" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D68" s="12">
         <f t="shared" si="3"/>
         <v>83400</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E68" s="13">
         <v>46600</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F68" s="13">
         <v>14700</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G68" s="13">
         <v>4300</v>
       </c>
-      <c r="H67" s="13">
+      <c r="H68" s="13">
         <v>3100</v>
       </c>
-      <c r="I67" s="13">
+      <c r="I68" s="13">
         <v>3100</v>
       </c>
-      <c r="J67" s="13">
+      <c r="J68" s="13">
         <v>2100</v>
       </c>
-      <c r="K67" s="13">
+      <c r="K68" s="13">
         <v>3900</v>
       </c>
-      <c r="L67" s="13">
+      <c r="L68" s="13">
         <v>1800</v>
       </c>
-      <c r="M67" s="13">
+      <c r="M68" s="13">
         <v>2800</v>
       </c>
-      <c r="N67" s="13">
+      <c r="N68" s="13">
         <v>1000</v>
       </c>
-      <c r="O67" s="13"/>
-      <c r="P67" s="13">
+      <c r="O68" s="13"/>
+      <c r="P68" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="14">
+    <row r="69" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="14">
         <v>2019</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C69" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D69" s="16">
         <f t="shared" si="3"/>
         <v>90200</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E69" s="17">
         <v>52200</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F69" s="17">
         <v>14900</v>
       </c>
-      <c r="G68" s="17">
+      <c r="G69" s="17">
         <v>4600</v>
       </c>
-      <c r="H68" s="17">
+      <c r="H69" s="17">
         <v>3400</v>
       </c>
-      <c r="I68" s="17">
+      <c r="I69" s="17">
         <v>2700</v>
       </c>
-      <c r="J68" s="17">
+      <c r="J69" s="17">
         <v>2200</v>
       </c>
-      <c r="K68" s="17">
+      <c r="K69" s="17">
         <v>4200</v>
       </c>
-      <c r="L68" s="17">
+      <c r="L69" s="17">
         <v>2000</v>
       </c>
-      <c r="M68" s="17">
+      <c r="M69" s="17">
         <v>3000</v>
       </c>
-      <c r="N68" s="17">
+      <c r="N69" s="17">
         <v>1000</v>
       </c>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17">
+      <c r="O69" s="17"/>
+      <c r="P69" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="10">
+    <row r="70" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="10">
         <v>2019</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C70" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D70" s="12">
         <f t="shared" si="3"/>
         <v>78300</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E70" s="13">
         <v>46000</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F70" s="13">
         <v>12400</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G70" s="13">
         <v>4300</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H70" s="13">
         <v>3000</v>
       </c>
-      <c r="I69" s="13">
+      <c r="I70" s="13">
         <v>2200</v>
       </c>
-      <c r="J69" s="13">
+      <c r="J70" s="13">
         <v>1800</v>
       </c>
-      <c r="K69" s="13">
+      <c r="K70" s="13">
         <v>3600</v>
       </c>
-      <c r="L69" s="13">
+      <c r="L70" s="13">
         <v>1700</v>
       </c>
-      <c r="M69" s="13">
+      <c r="M70" s="13">
         <v>2500</v>
       </c>
-      <c r="N69" s="13">
+      <c r="N70" s="13">
         <v>800</v>
       </c>
-      <c r="O69" s="13"/>
-      <c r="P69" s="13">
+      <c r="O70" s="13"/>
+      <c r="P70" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="14">
+    <row r="71" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="14">
         <v>2019</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C71" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D71" s="16">
         <f t="shared" si="3"/>
         <v>80500</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E71" s="17">
         <v>46500</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F71" s="17">
         <v>12500</v>
       </c>
-      <c r="G70" s="17">
+      <c r="G71" s="17">
         <v>4300</v>
       </c>
-      <c r="H70" s="17">
+      <c r="H71" s="17">
         <v>3400</v>
       </c>
-      <c r="I70" s="17">
+      <c r="I71" s="17">
         <v>2500</v>
       </c>
-      <c r="J70" s="17">
+      <c r="J71" s="17">
         <v>2100</v>
       </c>
-      <c r="K70" s="17">
+      <c r="K71" s="17">
         <v>4100</v>
       </c>
-      <c r="L70" s="17">
+      <c r="L71" s="17">
         <v>1800</v>
       </c>
-      <c r="M70" s="17">
+      <c r="M71" s="17">
         <v>2400</v>
       </c>
-      <c r="N70" s="17">
+      <c r="N71" s="17">
         <v>900</v>
       </c>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17">
+      <c r="O71" s="17"/>
+      <c r="P71" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="10">
+    <row r="72" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="10">
         <v>2019</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C72" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D72" s="12">
         <f t="shared" si="3"/>
         <v>81500</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E72" s="13">
         <v>46600</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F72" s="13">
         <v>13600</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G72" s="13">
         <v>4100</v>
       </c>
-      <c r="H71" s="13">
+      <c r="H72" s="13">
         <v>3000</v>
       </c>
-      <c r="I71" s="13">
+      <c r="I72" s="13">
         <v>2500</v>
       </c>
-      <c r="J71" s="13">
+      <c r="J72" s="13">
         <v>2000</v>
       </c>
-      <c r="K71" s="13">
+      <c r="K72" s="13">
         <v>4200</v>
       </c>
-      <c r="L71" s="13">
+      <c r="L72" s="13">
         <v>2000</v>
       </c>
-      <c r="M71" s="13">
+      <c r="M72" s="13">
         <v>2600</v>
       </c>
-      <c r="N71" s="13">
+      <c r="N72" s="13">
         <v>900</v>
       </c>
-      <c r="O71" s="13"/>
-      <c r="P71" s="13">
+      <c r="O72" s="13"/>
+      <c r="P72" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="14">
+    <row r="73" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="14">
         <v>2019</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C73" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D73" s="16">
         <f t="shared" si="3"/>
         <v>78600</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E73" s="17">
         <v>44200</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F73" s="17">
         <v>13300</v>
       </c>
-      <c r="G72" s="17">
+      <c r="G73" s="17">
         <v>4300</v>
       </c>
-      <c r="H72" s="17">
+      <c r="H73" s="17">
         <v>2900</v>
       </c>
-      <c r="I72" s="17">
+      <c r="I73" s="17">
         <v>2400</v>
       </c>
-      <c r="J72" s="17">
+      <c r="J73" s="17">
         <v>2000</v>
       </c>
-      <c r="K72" s="17">
+      <c r="K73" s="17">
         <v>4300</v>
       </c>
-      <c r="L72" s="17">
+      <c r="L73" s="17">
         <v>2000</v>
       </c>
-      <c r="M72" s="17">
+      <c r="M73" s="17">
         <v>2400</v>
       </c>
-      <c r="N72" s="17">
+      <c r="N73" s="17">
         <v>800</v>
       </c>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17">
+      <c r="O73" s="17"/>
+      <c r="P73" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="10">
+    <row r="74" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C74" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D74" s="12">
         <f t="shared" si="3"/>
         <v>81100</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E74" s="13">
         <v>45800</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F74" s="13">
         <v>13000</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G74" s="13">
         <v>4600</v>
       </c>
-      <c r="H73" s="13">
+      <c r="H74" s="13">
         <v>3000</v>
       </c>
-      <c r="I73" s="13">
+      <c r="I74" s="13">
         <v>2600</v>
       </c>
-      <c r="J73" s="13">
+      <c r="J74" s="13">
         <v>2100</v>
       </c>
-      <c r="K73" s="13">
+      <c r="K74" s="13">
         <v>4600</v>
       </c>
-      <c r="L73" s="13">
+      <c r="L74" s="13">
         <v>1900</v>
       </c>
-      <c r="M73" s="13">
+      <c r="M74" s="13">
         <v>2600</v>
       </c>
-      <c r="N73" s="13">
+      <c r="N74" s="13">
         <v>900</v>
       </c>
-      <c r="O73" s="13"/>
-      <c r="P73" s="13">
+      <c r="O74" s="13"/>
+      <c r="P74" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="14">
+    <row r="75" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="14">
         <v>2019</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C75" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D75" s="16">
         <f t="shared" si="3"/>
         <v>79300</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E75" s="17">
         <v>45200</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F75" s="17">
         <v>12800</v>
       </c>
-      <c r="G74" s="17">
+      <c r="G75" s="17">
         <v>4600</v>
       </c>
-      <c r="H74" s="17">
+      <c r="H75" s="17">
         <v>2500</v>
       </c>
-      <c r="I74" s="17">
+      <c r="I75" s="17">
         <v>2600</v>
       </c>
-      <c r="J74" s="17">
+      <c r="J75" s="17">
         <v>2100</v>
       </c>
-      <c r="K74" s="17">
+      <c r="K75" s="17">
         <v>4400</v>
       </c>
-      <c r="L74" s="17">
+      <c r="L75" s="17">
         <v>1800</v>
       </c>
-      <c r="M74" s="17">
+      <c r="M75" s="17">
         <v>2500</v>
       </c>
-      <c r="N74" s="17">
+      <c r="N75" s="17">
         <v>800</v>
       </c>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17">
+      <c r="O75" s="17"/>
+      <c r="P75" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="10">
+    <row r="76" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C76" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D76" s="12">
         <f t="shared" si="3"/>
         <v>86500</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E76" s="13">
         <v>49900</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F76" s="13">
         <v>14500</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G76" s="13">
         <v>4300</v>
       </c>
-      <c r="H75" s="13">
+      <c r="H76" s="13">
         <v>3000</v>
       </c>
-      <c r="I75" s="13">
+      <c r="I76" s="13">
         <v>2700</v>
       </c>
-      <c r="J75" s="13">
+      <c r="J76" s="13">
         <v>2000</v>
       </c>
-      <c r="K75" s="13">
+      <c r="K76" s="13">
         <v>5000</v>
       </c>
-      <c r="L75" s="13">
+      <c r="L76" s="13">
         <v>1700</v>
       </c>
-      <c r="M75" s="13">
+      <c r="M76" s="13">
         <v>2500</v>
       </c>
-      <c r="N75" s="13">
+      <c r="N76" s="13">
         <v>900</v>
       </c>
-      <c r="O75" s="13"/>
-      <c r="P75" s="13">
+      <c r="O76" s="13"/>
+      <c r="P76" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="14">
+    <row r="77" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="14">
         <v>2019</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C77" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D77" s="16">
         <f t="shared" si="3"/>
         <v>73300</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E77" s="17">
         <v>41800</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F77" s="17">
         <v>11500</v>
       </c>
-      <c r="G76" s="17">
+      <c r="G77" s="17">
         <v>4200</v>
       </c>
-      <c r="H76" s="17">
+      <c r="H77" s="17">
         <v>2600</v>
       </c>
-      <c r="I76" s="17">
+      <c r="I77" s="17">
         <v>2600</v>
       </c>
-      <c r="J76" s="17">
+      <c r="J77" s="17">
         <v>1900</v>
       </c>
-      <c r="K76" s="17">
+      <c r="K77" s="17">
         <v>4100</v>
       </c>
-      <c r="L76" s="17">
+      <c r="L77" s="17">
         <v>1600</v>
       </c>
-      <c r="M76" s="17">
+      <c r="M77" s="17">
         <v>2300</v>
       </c>
-      <c r="N76" s="17">
+      <c r="N77" s="17">
         <v>700</v>
       </c>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17">
+      <c r="O77" s="17"/>
+      <c r="P77" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="18">
+    <row r="78" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="18">
         <v>2019</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="C78" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D77" s="20">
-        <f t="shared" ref="D77:D89" si="4">SUM(E77:P77)</f>
+      <c r="D78" s="20">
+        <f t="shared" ref="D78:D90" si="4">SUM(E78:P78)</f>
         <v>79200</v>
       </c>
-      <c r="E77" s="21">
+      <c r="E78" s="21">
         <v>43500</v>
       </c>
-      <c r="F77" s="21">
+      <c r="F78" s="21">
         <v>13500</v>
       </c>
-      <c r="G77" s="21">
+      <c r="G78" s="21">
         <v>4800</v>
       </c>
-      <c r="H77" s="21">
+      <c r="H78" s="21">
         <v>2900</v>
       </c>
-      <c r="I77" s="21">
+      <c r="I78" s="21">
         <v>2600</v>
       </c>
-      <c r="J77" s="21">
+      <c r="J78" s="21">
         <v>1900</v>
       </c>
-      <c r="K77" s="21">
+      <c r="K78" s="21">
         <v>4500</v>
       </c>
-      <c r="L77" s="21">
+      <c r="L78" s="21">
         <v>2100</v>
       </c>
-      <c r="M77" s="21">
+      <c r="M78" s="21">
         <v>2500</v>
       </c>
-      <c r="N77" s="21">
+      <c r="N78" s="21">
         <v>900</v>
       </c>
-      <c r="O77" s="21"/>
-      <c r="P77" s="21">
+      <c r="O78" s="21"/>
+      <c r="P78" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="15">
+    <row r="79" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="15">
         <v>2018</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C79" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D78" s="16">
+      <c r="D79" s="16">
         <f t="shared" si="4"/>
         <v>85600</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E79" s="17">
         <v>48800</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F79" s="17">
         <v>14700</v>
       </c>
-      <c r="G78" s="17">
+      <c r="G79" s="17">
         <v>4500</v>
       </c>
-      <c r="H78" s="17">
+      <c r="H79" s="17">
         <v>3000</v>
       </c>
-      <c r="I78" s="17">
+      <c r="I79" s="17">
         <v>3300</v>
       </c>
-      <c r="J78" s="17">
+      <c r="J79" s="17">
         <v>1900</v>
       </c>
-      <c r="K78" s="17">
+      <c r="K79" s="17">
         <v>4000</v>
       </c>
-      <c r="L78" s="17">
+      <c r="L79" s="17">
         <v>1900</v>
       </c>
-      <c r="M78" s="17">
+      <c r="M79" s="17">
         <v>2600</v>
       </c>
-      <c r="N78" s="17">
+      <c r="N79" s="17">
         <v>900</v>
       </c>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17">
+      <c r="O79" s="17"/>
+      <c r="P79" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="11">
+    <row r="80" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="11">
         <v>2018</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C80" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D80" s="12">
         <f t="shared" si="4"/>
         <v>91600</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E80" s="13">
         <v>52500</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F80" s="13">
         <v>14700</v>
       </c>
-      <c r="G79" s="13">
+      <c r="G80" s="13">
         <v>5200</v>
       </c>
-      <c r="H79" s="13">
+      <c r="H80" s="13">
         <v>3400</v>
       </c>
-      <c r="I79" s="13">
+      <c r="I80" s="13">
         <v>3300</v>
       </c>
-      <c r="J79" s="13">
+      <c r="J80" s="13">
         <v>2300</v>
       </c>
-      <c r="K79" s="13">
+      <c r="K80" s="13">
         <v>4700</v>
       </c>
-      <c r="L79" s="13">
+      <c r="L80" s="13">
         <v>1800</v>
       </c>
-      <c r="M79" s="13">
+      <c r="M80" s="13">
         <v>2800</v>
       </c>
-      <c r="N79" s="13">
+      <c r="N80" s="13">
         <v>900</v>
       </c>
-      <c r="O79" s="13"/>
-      <c r="P79" s="13">
+      <c r="O80" s="13"/>
+      <c r="P80" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="15">
+    <row r="81" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="15">
         <v>2018</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C81" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D80" s="16">
+      <c r="D81" s="16">
         <f t="shared" si="4"/>
         <v>94100</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E81" s="17">
         <v>53200</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F81" s="17">
         <v>15500</v>
       </c>
-      <c r="G80" s="17">
+      <c r="G81" s="17">
         <v>5800</v>
       </c>
-      <c r="H80" s="17">
+      <c r="H81" s="17">
         <v>3400</v>
       </c>
-      <c r="I80" s="17">
+      <c r="I81" s="17">
         <v>2800</v>
       </c>
-      <c r="J80" s="17">
+      <c r="J81" s="17">
         <v>2200</v>
       </c>
-      <c r="K80" s="17">
+      <c r="K81" s="17">
         <v>5600</v>
       </c>
-      <c r="L80" s="17">
+      <c r="L81" s="17">
         <v>1800</v>
       </c>
-      <c r="M80" s="17">
+      <c r="M81" s="17">
         <v>2900</v>
       </c>
-      <c r="N80" s="17">
+      <c r="N81" s="17">
         <v>900</v>
       </c>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17">
+      <c r="O81" s="17"/>
+      <c r="P81" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="11">
+    <row r="82" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="11">
         <v>2018</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C82" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D82" s="12">
         <f t="shared" si="4"/>
         <v>81400</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E82" s="13">
         <v>46600</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F82" s="13">
         <v>13200</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G82" s="13">
         <v>4800</v>
       </c>
-      <c r="H81" s="13">
+      <c r="H82" s="13">
         <v>2900</v>
       </c>
-      <c r="I81" s="13">
+      <c r="I82" s="13">
         <v>2300</v>
       </c>
-      <c r="J81" s="13">
+      <c r="J82" s="13">
         <v>1900</v>
       </c>
-      <c r="K81" s="13">
+      <c r="K82" s="13">
         <v>5000</v>
       </c>
-      <c r="L81" s="13">
+      <c r="L82" s="13">
         <v>1500</v>
       </c>
-      <c r="M81" s="13">
+      <c r="M82" s="13">
         <v>2400</v>
       </c>
-      <c r="N81" s="13">
+      <c r="N82" s="13">
         <v>800</v>
       </c>
-      <c r="O81" s="13"/>
-      <c r="P81" s="13">
+      <c r="O82" s="13"/>
+      <c r="P82" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="15">
+    <row r="83" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="15">
         <v>2018</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C83" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D83" s="16">
         <f t="shared" si="4"/>
         <v>84400</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E83" s="17">
         <v>48300</v>
       </c>
-      <c r="F82" s="17">
+      <c r="F83" s="17">
         <v>12600</v>
       </c>
-      <c r="G82" s="17">
+      <c r="G83" s="17">
         <v>5100</v>
       </c>
-      <c r="H82" s="17">
+      <c r="H83" s="17">
         <v>3500</v>
       </c>
-      <c r="I82" s="17">
+      <c r="I83" s="17">
         <v>2400</v>
       </c>
-      <c r="J82" s="17">
+      <c r="J83" s="17">
         <v>2100</v>
       </c>
-      <c r="K82" s="17">
+      <c r="K83" s="17">
         <v>5700</v>
       </c>
-      <c r="L82" s="17">
+      <c r="L83" s="17">
         <v>1600</v>
       </c>
-      <c r="M82" s="17">
+      <c r="M83" s="17">
         <v>2300</v>
       </c>
-      <c r="N82" s="17">
+      <c r="N83" s="17">
         <v>800</v>
       </c>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17">
+      <c r="O83" s="17"/>
+      <c r="P83" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="11">
+    <row r="84" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="11">
         <v>2018</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C84" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D84" s="12">
         <f t="shared" si="4"/>
         <v>82200</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E84" s="13">
         <v>49400</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F84" s="13">
         <v>12400</v>
       </c>
-      <c r="G83" s="13">
+      <c r="G84" s="13">
         <v>4200</v>
       </c>
-      <c r="H83" s="13">
+      <c r="H84" s="13">
         <v>3100</v>
       </c>
-      <c r="I83" s="13">
+      <c r="I84" s="13">
         <v>2500</v>
       </c>
-      <c r="J83" s="13">
+      <c r="J84" s="13">
         <v>1900</v>
       </c>
-      <c r="K83" s="13">
+      <c r="K84" s="13">
         <v>4100</v>
       </c>
-      <c r="L83" s="13">
+      <c r="L84" s="13">
         <v>1700</v>
       </c>
-      <c r="M83" s="13">
+      <c r="M84" s="13">
         <v>2100</v>
       </c>
-      <c r="N83" s="13">
+      <c r="N84" s="13">
         <v>800</v>
       </c>
-      <c r="O83" s="13"/>
-      <c r="P83" s="13">
+      <c r="O84" s="13"/>
+      <c r="P84" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="15">
+    <row r="85" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="15">
         <v>2018</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C85" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D84" s="16">
+      <c r="D85" s="16">
         <f t="shared" si="4"/>
         <v>86500</v>
       </c>
-      <c r="E84" s="17">
+      <c r="E85" s="17">
         <v>51000</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F85" s="17">
         <v>13400</v>
       </c>
-      <c r="G84" s="17">
+      <c r="G85" s="17">
         <v>4500</v>
       </c>
-      <c r="H84" s="17">
+      <c r="H85" s="17">
         <v>3100</v>
       </c>
-      <c r="I84" s="17">
+      <c r="I85" s="17">
         <v>2600</v>
       </c>
-      <c r="J84" s="17">
+      <c r="J85" s="17">
         <v>2000</v>
       </c>
-      <c r="K84" s="17">
+      <c r="K85" s="17">
         <v>5100</v>
       </c>
-      <c r="L84" s="17">
+      <c r="L85" s="17">
         <v>1800</v>
       </c>
-      <c r="M84" s="17">
+      <c r="M85" s="17">
         <v>2100</v>
       </c>
-      <c r="N84" s="17">
+      <c r="N85" s="17">
         <v>900</v>
       </c>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17">
+      <c r="O85" s="17"/>
+      <c r="P85" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="11">
+    <row r="86" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="11">
         <v>2018</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C86" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D86" s="12">
         <f t="shared" si="4"/>
         <v>86200</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E86" s="13">
         <v>49700</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F86" s="13">
         <v>13600</v>
       </c>
-      <c r="G85" s="13">
+      <c r="G86" s="13">
         <v>5000</v>
       </c>
-      <c r="H85" s="13">
+      <c r="H86" s="13">
         <v>3200</v>
       </c>
-      <c r="I85" s="13">
+      <c r="I86" s="13">
         <v>2700</v>
       </c>
-      <c r="J85" s="13">
+      <c r="J86" s="13">
         <v>2300</v>
       </c>
-      <c r="K85" s="13">
+      <c r="K86" s="13">
         <v>4700</v>
       </c>
-      <c r="L85" s="13">
+      <c r="L86" s="13">
         <v>1900</v>
       </c>
-      <c r="M85" s="13">
+      <c r="M86" s="13">
         <v>2200</v>
       </c>
-      <c r="N85" s="13">
+      <c r="N86" s="13">
         <v>900</v>
       </c>
-      <c r="O85" s="13"/>
-      <c r="P85" s="13">
+      <c r="O86" s="13"/>
+      <c r="P86" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="15">
+    <row r="87" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="15">
         <v>2018</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C87" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D86" s="16">
+      <c r="D87" s="16">
         <f t="shared" si="4"/>
         <v>84500</v>
       </c>
-      <c r="E86" s="17">
+      <c r="E87" s="17">
         <v>49400</v>
       </c>
-      <c r="F86" s="17">
+      <c r="F87" s="17">
         <v>13900</v>
       </c>
-      <c r="G86" s="17">
+      <c r="G87" s="17">
         <v>4500</v>
       </c>
-      <c r="H86" s="17">
+      <c r="H87" s="17">
         <v>2800</v>
       </c>
-      <c r="I86" s="17">
+      <c r="I87" s="17">
         <v>2800</v>
       </c>
-      <c r="J86" s="17">
+      <c r="J87" s="17">
         <v>1900</v>
       </c>
-      <c r="K86" s="17">
+      <c r="K87" s="17">
         <v>4600</v>
       </c>
-      <c r="L86" s="17">
+      <c r="L87" s="17">
         <v>1700</v>
       </c>
-      <c r="M86" s="17">
+      <c r="M87" s="17">
         <v>2000</v>
       </c>
-      <c r="N86" s="17">
+      <c r="N87" s="17">
         <v>900</v>
       </c>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17">
+      <c r="O87" s="17"/>
+      <c r="P87" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="11">
+    <row r="88" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="11">
         <v>2018</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C88" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D88" s="12">
         <f t="shared" si="4"/>
         <v>81600</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E88" s="13">
         <v>46000</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F88" s="13">
         <v>16000</v>
       </c>
-      <c r="G87" s="13">
+      <c r="G88" s="13">
         <v>4400</v>
       </c>
-      <c r="H87" s="13">
+      <c r="H88" s="13">
         <v>2900</v>
       </c>
-      <c r="I87" s="13">
+      <c r="I88" s="13">
         <v>2800</v>
       </c>
-      <c r="J87" s="13">
+      <c r="J88" s="13">
         <v>1800</v>
       </c>
-      <c r="K87" s="13">
+      <c r="K88" s="13">
         <v>3500</v>
       </c>
-      <c r="L87" s="13">
+      <c r="L88" s="13">
         <v>1400</v>
       </c>
-      <c r="M87" s="13">
+      <c r="M88" s="13">
         <v>2000</v>
       </c>
-      <c r="N87" s="13">
+      <c r="N88" s="13">
         <v>800</v>
       </c>
-      <c r="O87" s="13"/>
-      <c r="P87" s="13">
+      <c r="O88" s="13"/>
+      <c r="P88" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="15">
+    <row r="89" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="15">
         <v>2018</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C89" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D88" s="16">
+      <c r="D89" s="16">
         <f t="shared" si="4"/>
         <v>74900</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E89" s="17">
         <v>44100</v>
       </c>
-      <c r="F88" s="17">
+      <c r="F89" s="17">
         <v>12100</v>
       </c>
-      <c r="G88" s="17">
+      <c r="G89" s="17">
         <v>4100</v>
       </c>
-      <c r="H88" s="17">
+      <c r="H89" s="17">
         <v>2700</v>
       </c>
-      <c r="I88" s="17">
+      <c r="I89" s="17">
         <v>2700</v>
       </c>
-      <c r="J88" s="17">
+      <c r="J89" s="17">
         <v>2100</v>
       </c>
-      <c r="K88" s="17">
+      <c r="K89" s="17">
         <v>3000</v>
       </c>
-      <c r="L88" s="17">
+      <c r="L89" s="17">
         <v>1500</v>
       </c>
-      <c r="M88" s="17">
+      <c r="M89" s="17">
         <v>1900</v>
       </c>
-      <c r="N88" s="17">
+      <c r="N89" s="17">
         <v>700</v>
       </c>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17">
+      <c r="O89" s="17"/>
+      <c r="P89" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="11">
+    <row r="90" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="11">
         <v>2018</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C90" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D90" s="12">
         <f t="shared" si="4"/>
         <v>74300</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E90" s="13">
         <v>42800</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F90" s="13">
         <v>12000</v>
       </c>
-      <c r="G89" s="13">
+      <c r="G90" s="13">
         <v>4100</v>
       </c>
-      <c r="H89" s="13">
+      <c r="H90" s="13">
         <v>2500</v>
       </c>
-      <c r="I89" s="13">
+      <c r="I90" s="13">
         <v>2600</v>
       </c>
-      <c r="J89" s="13">
+      <c r="J90" s="13">
         <v>2300</v>
       </c>
-      <c r="K89" s="13">
+      <c r="K90" s="13">
         <v>3300</v>
       </c>
-      <c r="L89" s="13">
+      <c r="L90" s="13">
         <v>2000</v>
       </c>
-      <c r="M89" s="13">
+      <c r="M90" s="13">
         <v>1900</v>
       </c>
-      <c r="N89" s="13">
+      <c r="N90" s="13">
         <v>800</v>
       </c>
-      <c r="O89" s="13"/>
-      <c r="P89" s="13">
+      <c r="O90" s="13"/>
+      <c r="P90" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B90" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C90" s="26"/>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B91" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91" s="26"/>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B92" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="27"/>
-      <c r="P91" s="28"/>
-    </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B92" s="27" t="s">
+      <c r="C92" s="27"/>
+      <c r="P92" s="28"/>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B93" s="27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B93" s="3" t="s">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B94" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D99" s="26"/>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D100" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/P_aeropuertos_carga.xlsx
+++ b/P_aeropuertos_carga.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B883A693-BE88-4EEA-84C1-1E04F5C83D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3366F2-3CE3-4130-9245-010319BBB21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_37" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="34">
   <si>
     <t>Total</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Nota:  El orden de aparición de los aeropuertos, podría modificarse de acuerdo al reporte proporcionado por la dependencia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   El aeropuerto Felipe Ángeles, Inició operaciones el 21 de marzo de 2022.</t>
   </si>
   <si>
     <t>Año</t>
@@ -137,7 +134,10 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t>Actualización: Febrero 2025.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  El aeropuerto Felipe Ángeles, Inició operaciones el 21 de marzo de 2022.</t>
   </si>
 </sst>
 </file>
@@ -147,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,7 +225,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -308,36 +308,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -411,14 +387,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -646,7 +614,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -729,8 +697,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:P90" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
-  <autoFilter ref="B5:P90" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:P91" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
+  <autoFilter ref="B5:P91" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -984,13 +952,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:P100"/>
+  <dimension ref="B2:P122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="2" width="7.125" style="3" customWidth="1"/>
@@ -1010,21 +978,21 @@
     <col min="17" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:16" ht="18">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:16">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:16">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1043,12 +1011,12 @@
       <c r="O4" s="30"/>
       <c r="P4" s="30"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:16">
       <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>0</v>
@@ -1057,4022 +1025,4226 @@
         <v>3</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="M5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B6" s="31">
+    <row r="6" spans="2:16">
+      <c r="B6" s="14">
         <v>2025</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="16">
+        <f>SUM(E6:P6)</f>
+        <v>86641.775010000041</v>
+      </c>
+      <c r="E6" s="17">
+        <v>19575.670000000002</v>
+      </c>
+      <c r="F6" s="17">
+        <v>11798.751</v>
+      </c>
+      <c r="G6" s="17">
+        <v>5379.473</v>
+      </c>
+      <c r="H6" s="17">
+        <v>4961.049</v>
+      </c>
+      <c r="I6" s="17">
+        <v>2432.8789999999999</v>
+      </c>
+      <c r="J6" s="17">
+        <v>3241.0389999999998</v>
+      </c>
+      <c r="K6" s="17">
+        <v>1841.1139999999998</v>
+      </c>
+      <c r="L6" s="17">
+        <v>2859.4220000000005</v>
+      </c>
+      <c r="M6" s="17">
+        <v>1847.1349999999998</v>
+      </c>
+      <c r="N6" s="17">
+        <v>1648.6580000000001</v>
+      </c>
+      <c r="O6" s="17">
+        <v>26628.777010000002</v>
+      </c>
+      <c r="P6" s="17">
+        <v>4427.8080000000273</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="18">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="20">
+        <f>SUM(E7:P7)</f>
+        <v>91555.306729999982</v>
+      </c>
+      <c r="E7" s="21">
+        <v>19159.400000000001</v>
+      </c>
+      <c r="F7" s="21">
+        <v>13714.98</v>
+      </c>
+      <c r="G7" s="21">
+        <v>5611.4270000000006</v>
+      </c>
+      <c r="H7" s="21">
+        <v>6455.491</v>
+      </c>
+      <c r="I7" s="21">
+        <v>2783.7079999999996</v>
+      </c>
+      <c r="J7" s="21">
+        <v>2789.2219999999998</v>
+      </c>
+      <c r="K7" s="21">
+        <v>2082.837</v>
+      </c>
+      <c r="L7" s="21">
+        <v>2958.125</v>
+      </c>
+      <c r="M7" s="21">
+        <v>2088.444</v>
+      </c>
+      <c r="N7" s="21">
+        <v>1595.182</v>
+      </c>
+      <c r="O7" s="21">
+        <v>27764.467000000001</v>
+      </c>
+      <c r="P7" s="21">
+        <v>4552.0237299999771</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="14">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="33">
-        <f>SUM(E6:P6)</f>
-        <v>91555.306729999982</v>
-      </c>
-      <c r="E6" s="34">
-        <v>19159.400000000001</v>
-      </c>
-      <c r="F6" s="34">
-        <v>13714.98</v>
-      </c>
-      <c r="G6" s="34">
-        <v>5611.4270000000006</v>
-      </c>
-      <c r="H6" s="34">
-        <v>6455.491</v>
-      </c>
-      <c r="I6" s="34">
-        <v>2783.7079999999996</v>
-      </c>
-      <c r="J6" s="34">
-        <v>2789.2219999999998</v>
-      </c>
-      <c r="K6" s="34">
-        <v>2082.837</v>
-      </c>
-      <c r="L6" s="34">
-        <v>2958.125</v>
-      </c>
-      <c r="M6" s="34">
-        <v>2088.444</v>
-      </c>
-      <c r="N6" s="34">
-        <v>1595.182</v>
-      </c>
-      <c r="O6" s="34">
-        <v>27764.467000000001</v>
-      </c>
-      <c r="P6" s="34">
-        <v>4552.0237299999771</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B7" s="14">
+      <c r="D8" s="16">
+        <f>SUM(E8:P8)</f>
+        <v>103547.94350000002</v>
+      </c>
+      <c r="E8" s="17">
+        <v>22084.1</v>
+      </c>
+      <c r="F8" s="17">
+        <v>13788.543999999998</v>
+      </c>
+      <c r="G8" s="17">
+        <v>6101.1239999999998</v>
+      </c>
+      <c r="H8" s="17">
+        <v>6605.4089999999997</v>
+      </c>
+      <c r="I8" s="17">
+        <v>2916.9539999999997</v>
+      </c>
+      <c r="J8" s="17">
+        <v>3692.6709999999998</v>
+      </c>
+      <c r="K8" s="17">
+        <v>2180.1759999999999</v>
+      </c>
+      <c r="L8" s="17">
+        <v>3298.9829999999997</v>
+      </c>
+      <c r="M8" s="17">
+        <v>2405.654</v>
+      </c>
+      <c r="N8" s="17">
+        <v>1379.29</v>
+      </c>
+      <c r="O8" s="17">
+        <v>34117.491999999998</v>
+      </c>
+      <c r="P8" s="17">
+        <v>4977.5465000000313</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="10">
         <v>2024</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="16">
-        <f>SUM(E7:P7)</f>
-        <v>103547.94350000002</v>
-      </c>
-      <c r="E7" s="17">
-        <v>22084.1</v>
-      </c>
-      <c r="F7" s="17">
-        <v>13788.543999999998</v>
-      </c>
-      <c r="G7" s="17">
-        <v>6101.1239999999998</v>
-      </c>
-      <c r="H7" s="17">
-        <v>6605.4089999999997</v>
-      </c>
-      <c r="I7" s="17">
-        <v>2916.9539999999997</v>
-      </c>
-      <c r="J7" s="17">
-        <v>3692.6709999999998</v>
-      </c>
-      <c r="K7" s="17">
-        <v>2180.1759999999999</v>
-      </c>
-      <c r="L7" s="17">
-        <v>3298.9829999999997</v>
-      </c>
-      <c r="M7" s="17">
-        <v>2405.654</v>
-      </c>
-      <c r="N7" s="17">
-        <v>1379.29</v>
-      </c>
-      <c r="O7" s="17">
-        <v>34117.491999999998</v>
-      </c>
-      <c r="P7" s="17">
-        <v>4977.5465000000313</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B8" s="10">
+      <c r="D9" s="12">
+        <f>SUM(E9:P9)</f>
+        <v>108489.79521000001</v>
+      </c>
+      <c r="E9" s="13">
+        <v>20513.3</v>
+      </c>
+      <c r="F9" s="13">
+        <v>14292.029000000002</v>
+      </c>
+      <c r="G9" s="13">
+        <v>6952.0010000000002</v>
+      </c>
+      <c r="H9" s="13">
+        <v>7027.32</v>
+      </c>
+      <c r="I9" s="13">
+        <v>3190.241</v>
+      </c>
+      <c r="J9" s="13">
+        <v>3783.056</v>
+      </c>
+      <c r="K9" s="13">
+        <v>2546.4230000000002</v>
+      </c>
+      <c r="L9" s="13">
+        <v>3625.6490000000003</v>
+      </c>
+      <c r="M9" s="13">
+        <v>2301.3359999999998</v>
+      </c>
+      <c r="N9" s="13">
+        <v>1566.8050000000001</v>
+      </c>
+      <c r="O9" s="13">
+        <v>37606.786999999997</v>
+      </c>
+      <c r="P9" s="13">
+        <v>5084.8482100000183</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="14">
         <v>2024</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="12">
-        <f>SUM(E8:P8)</f>
-        <v>108489.79521000001</v>
-      </c>
-      <c r="E8" s="13">
-        <v>20513.3</v>
-      </c>
-      <c r="F8" s="13">
-        <v>14292.029000000002</v>
-      </c>
-      <c r="G8" s="13">
-        <v>6952.0010000000002</v>
-      </c>
-      <c r="H8" s="13">
-        <v>7027.32</v>
-      </c>
-      <c r="I8" s="13">
-        <v>3190.241</v>
-      </c>
-      <c r="J8" s="13">
-        <v>3783.056</v>
-      </c>
-      <c r="K8" s="13">
-        <v>2546.4230000000002</v>
-      </c>
-      <c r="L8" s="13">
-        <v>3625.6490000000003</v>
-      </c>
-      <c r="M8" s="13">
-        <v>2301.3359999999998</v>
-      </c>
-      <c r="N8" s="13">
-        <v>1566.8050000000001</v>
-      </c>
-      <c r="O8" s="13">
-        <v>37606.786999999997</v>
-      </c>
-      <c r="P8" s="13">
-        <v>5084.8482100000183</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B9" s="14">
+      <c r="D10" s="16">
+        <f t="shared" ref="D10" si="0">SUM(E10:P10)</f>
+        <v>112101.83326999999</v>
+      </c>
+      <c r="E10" s="17">
+        <v>21954.2</v>
+      </c>
+      <c r="F10" s="17">
+        <v>15035.019</v>
+      </c>
+      <c r="G10" s="17">
+        <v>7434.2699999999995</v>
+      </c>
+      <c r="H10" s="17">
+        <v>7376.1170000000002</v>
+      </c>
+      <c r="I10" s="17">
+        <v>3603.3429999999998</v>
+      </c>
+      <c r="J10" s="17">
+        <v>2668.8590000000004</v>
+      </c>
+      <c r="K10" s="17">
+        <v>2486.047</v>
+      </c>
+      <c r="L10" s="17">
+        <v>3482.5789999999997</v>
+      </c>
+      <c r="M10" s="17">
+        <v>2059.6219999999998</v>
+      </c>
+      <c r="N10" s="17">
+        <v>1836.462</v>
+      </c>
+      <c r="O10" s="17">
+        <v>38827.07</v>
+      </c>
+      <c r="P10" s="17">
+        <v>5338.2452699999949</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="10">
         <v>2024</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="16">
-        <f t="shared" ref="D9" si="0">SUM(E9:P9)</f>
-        <v>112101.83326999999</v>
-      </c>
-      <c r="E9" s="17">
-        <v>21954.2</v>
-      </c>
-      <c r="F9" s="17">
-        <v>15035.019</v>
-      </c>
-      <c r="G9" s="17">
-        <v>7434.2699999999995</v>
-      </c>
-      <c r="H9" s="17">
-        <v>7376.1170000000002</v>
-      </c>
-      <c r="I9" s="17">
-        <v>3603.3429999999998</v>
-      </c>
-      <c r="J9" s="17">
-        <v>2668.8590000000004</v>
-      </c>
-      <c r="K9" s="17">
-        <v>2486.047</v>
-      </c>
-      <c r="L9" s="17">
-        <v>3482.5789999999997</v>
-      </c>
-      <c r="M9" s="17">
-        <v>2059.6219999999998</v>
-      </c>
-      <c r="N9" s="17">
-        <v>1836.462</v>
-      </c>
-      <c r="O9" s="17">
-        <v>38827.07</v>
-      </c>
-      <c r="P9" s="17">
-        <v>5338.2452699999949</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B10" s="10">
+      <c r="D11" s="12">
+        <f>SUM(E11:P11)</f>
+        <v>102256.34403999997</v>
+      </c>
+      <c r="E11" s="13">
+        <v>19983</v>
+      </c>
+      <c r="F11" s="13">
+        <v>15121.885</v>
+      </c>
+      <c r="G11" s="13">
+        <v>6653.17</v>
+      </c>
+      <c r="H11" s="13">
+        <v>6096.0540000000001</v>
+      </c>
+      <c r="I11" s="13">
+        <v>3038.8139999999999</v>
+      </c>
+      <c r="J11" s="13">
+        <v>2226.7169999999996</v>
+      </c>
+      <c r="K11" s="13">
+        <v>2083.5909999999999</v>
+      </c>
+      <c r="L11" s="13">
+        <v>2940.2349999999997</v>
+      </c>
+      <c r="M11" s="13">
+        <v>2121.4749999999999</v>
+      </c>
+      <c r="N11" s="13">
+        <v>1691.9869999999999</v>
+      </c>
+      <c r="O11" s="13">
+        <v>35995.97</v>
+      </c>
+      <c r="P11" s="13">
+        <v>4303.4460399999825</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" s="14">
         <v>2024</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="12">
-        <f>SUM(E10:P10)</f>
-        <v>102256.34403999997</v>
-      </c>
-      <c r="E10" s="13">
-        <v>19983</v>
-      </c>
-      <c r="F10" s="13">
-        <v>15121.885</v>
-      </c>
-      <c r="G10" s="13">
-        <v>6653.17</v>
-      </c>
-      <c r="H10" s="13">
-        <v>6096.0540000000001</v>
-      </c>
-      <c r="I10" s="13">
-        <v>3038.8139999999999</v>
-      </c>
-      <c r="J10" s="13">
-        <v>2226.7169999999996</v>
-      </c>
-      <c r="K10" s="13">
-        <v>2083.5909999999999</v>
-      </c>
-      <c r="L10" s="13">
-        <v>2940.2349999999997</v>
-      </c>
-      <c r="M10" s="13">
-        <v>2121.4749999999999</v>
-      </c>
-      <c r="N10" s="13">
-        <v>1691.9869999999999</v>
-      </c>
-      <c r="O10" s="13">
-        <v>35995.97</v>
-      </c>
-      <c r="P10" s="13">
-        <v>4303.4460399999825</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B11" s="14">
+      <c r="C12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="16">
+        <f>SUM(E12:P12)</f>
+        <v>108823.69917000002</v>
+      </c>
+      <c r="E12" s="17">
+        <v>20229.3</v>
+      </c>
+      <c r="F12" s="17">
+        <v>15421.421999999999</v>
+      </c>
+      <c r="G12" s="17">
+        <v>6900.85</v>
+      </c>
+      <c r="H12" s="17">
+        <v>6494.0969999999998</v>
+      </c>
+      <c r="I12" s="17">
+        <v>3427.1890000000003</v>
+      </c>
+      <c r="J12" s="17">
+        <v>2725.0420000000004</v>
+      </c>
+      <c r="K12" s="17">
+        <v>2321.3049999999998</v>
+      </c>
+      <c r="L12" s="17">
+        <v>3155.9950000000003</v>
+      </c>
+      <c r="M12" s="17">
+        <v>2335.154</v>
+      </c>
+      <c r="N12" s="17">
+        <v>1623.2050000000002</v>
+      </c>
+      <c r="O12" s="17">
+        <v>39174.343999999997</v>
+      </c>
+      <c r="P12" s="17">
+        <v>5015.7961700000369</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" s="10">
         <v>2024</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="16">
-        <f>SUM(E11:P11)</f>
-        <v>108823.69917000002</v>
-      </c>
-      <c r="E11" s="17">
-        <v>20229.3</v>
-      </c>
-      <c r="F11" s="17">
-        <v>15421.421999999999</v>
-      </c>
-      <c r="G11" s="17">
-        <v>6900.85</v>
-      </c>
-      <c r="H11" s="17">
-        <v>6494.0969999999998</v>
-      </c>
-      <c r="I11" s="17">
-        <v>3427.1890000000003</v>
-      </c>
-      <c r="J11" s="17">
-        <v>2725.0420000000004</v>
-      </c>
-      <c r="K11" s="17">
-        <v>2321.3049999999998</v>
-      </c>
-      <c r="L11" s="17">
-        <v>3155.9950000000003</v>
-      </c>
-      <c r="M11" s="17">
-        <v>2335.154</v>
-      </c>
-      <c r="N11" s="17">
-        <v>1623.2050000000002</v>
-      </c>
-      <c r="O11" s="17">
-        <v>39174.343999999997</v>
-      </c>
-      <c r="P11" s="17">
-        <v>5015.7961700000369</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B12" s="10">
+      <c r="D13" s="12">
+        <f t="shared" ref="D13:D15" si="1">SUM(E13:P13)</f>
+        <v>107882.74128000005</v>
+      </c>
+      <c r="E13" s="13">
+        <v>19500.699999999997</v>
+      </c>
+      <c r="F13" s="13">
+        <v>15606.789000000001</v>
+      </c>
+      <c r="G13" s="13">
+        <v>7406.7370000000001</v>
+      </c>
+      <c r="H13" s="13">
+        <v>6133.4809999999998</v>
+      </c>
+      <c r="I13" s="13">
+        <v>3408.8180000000002</v>
+      </c>
+      <c r="J13" s="13">
+        <v>2590.2110000000002</v>
+      </c>
+      <c r="K13" s="13">
+        <v>2370.0729999999999</v>
+      </c>
+      <c r="L13" s="13">
+        <v>3036.741</v>
+      </c>
+      <c r="M13" s="13">
+        <v>2203.3470000000002</v>
+      </c>
+      <c r="N13" s="13">
+        <v>1958.9659999999999</v>
+      </c>
+      <c r="O13" s="13">
+        <v>38531.585999999996</v>
+      </c>
+      <c r="P13" s="13">
+        <v>5135.2922800000515</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="14">
         <v>2024</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="12">
-        <f t="shared" ref="D12:D14" si="1">SUM(E12:P12)</f>
-        <v>107882.74128000005</v>
-      </c>
-      <c r="E12" s="13">
-        <v>19500.699999999997</v>
-      </c>
-      <c r="F12" s="13">
-        <v>15606.789000000001</v>
-      </c>
-      <c r="G12" s="13">
-        <v>7406.7370000000001</v>
-      </c>
-      <c r="H12" s="13">
-        <v>6133.4809999999998</v>
-      </c>
-      <c r="I12" s="13">
-        <v>3408.8180000000002</v>
-      </c>
-      <c r="J12" s="13">
-        <v>2590.2110000000002</v>
-      </c>
-      <c r="K12" s="13">
-        <v>2370.0729999999999</v>
-      </c>
-      <c r="L12" s="13">
-        <v>3036.741</v>
-      </c>
-      <c r="M12" s="13">
-        <v>2203.3470000000002</v>
-      </c>
-      <c r="N12" s="13">
-        <v>1958.9659999999999</v>
-      </c>
-      <c r="O12" s="13">
-        <v>38531.585999999996</v>
-      </c>
-      <c r="P12" s="13">
-        <v>5135.2922800000515</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B13" s="14">
-        <v>2024</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="16">
+      <c r="D14" s="16">
         <f t="shared" si="1"/>
         <v>106952.98336000003</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E14" s="17">
         <v>19499.3</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F14" s="17">
         <v>14724.419</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G14" s="17">
         <v>7318.848</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H14" s="17">
         <v>6428.241</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I14" s="17">
         <v>3309.4189999999999</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J14" s="17">
         <v>2399.3510000000001</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K14" s="17">
         <v>2148.4209999999998</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L14" s="17">
         <v>3308.527</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M14" s="17">
         <v>2070.7939999999999</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N14" s="17">
         <v>1689.7920000000001</v>
       </c>
-      <c r="O13" s="17">
+      <c r="O14" s="17">
         <v>39593.667999999998</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P14" s="17">
         <v>4462.203360000025</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B14" s="10">
+    <row r="15" spans="2:16">
+      <c r="B15" s="10">
         <v>2024</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="C15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="12">
         <f t="shared" si="1"/>
         <v>110411.98745000002</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E15" s="13">
         <v>20062</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F15" s="13">
         <v>15321.734</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G15" s="13">
         <v>6843.5949999999993</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H15" s="13">
         <v>6818.1309999999994</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I15" s="13">
         <v>3632.4749999999995</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J15" s="13">
         <v>2865.9740000000002</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K15" s="13">
         <v>2297.306</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L15" s="13">
         <v>3244.5340000000001</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M15" s="13">
         <v>2175.2600000000002</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N15" s="13">
         <v>1778.4730000000002</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O15" s="13">
         <v>40133.834000000003</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P15" s="13">
         <v>5238.6714500000198</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B15" s="14">
+    <row r="16" spans="2:16">
+      <c r="B16" s="14">
         <v>2024</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C16" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" ref="D16:D46" si="2">SUM(E16:P16)</f>
+        <v>105215.16596</v>
+      </c>
+      <c r="E16" s="17">
+        <v>18973.3</v>
+      </c>
+      <c r="F16" s="17">
+        <v>13665.344000000001</v>
+      </c>
+      <c r="G16" s="17">
+        <v>6313.32</v>
+      </c>
+      <c r="H16" s="17">
+        <v>6639.4679999999998</v>
+      </c>
+      <c r="I16" s="17">
+        <v>3421.6190000000001</v>
+      </c>
+      <c r="J16" s="17">
+        <v>3106.3360000000002</v>
+      </c>
+      <c r="K16" s="17">
+        <v>2364.4089999999997</v>
+      </c>
+      <c r="L16" s="17">
+        <v>3512.4059999999999</v>
+      </c>
+      <c r="M16" s="17">
+        <v>2156.3200000000002</v>
+      </c>
+      <c r="N16" s="17">
+        <v>1665.7180000000001</v>
+      </c>
+      <c r="O16" s="17">
+        <v>38502.94</v>
+      </c>
+      <c r="P16" s="17">
+        <v>4893.9859599999945</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="16">
-        <f t="shared" ref="D15:D45" si="2">SUM(E15:P15)</f>
-        <v>105215.16596</v>
-      </c>
-      <c r="E15" s="17">
-        <v>18973.3</v>
-      </c>
-      <c r="F15" s="17">
-        <v>13665.344000000001</v>
-      </c>
-      <c r="G15" s="17">
-        <v>6313.32</v>
-      </c>
-      <c r="H15" s="17">
-        <v>6639.4679999999998</v>
-      </c>
-      <c r="I15" s="17">
-        <v>3421.6190000000001</v>
-      </c>
-      <c r="J15" s="17">
-        <v>3106.3360000000002</v>
-      </c>
-      <c r="K15" s="17">
-        <v>2364.4089999999997</v>
-      </c>
-      <c r="L15" s="17">
-        <v>3512.4059999999999</v>
-      </c>
-      <c r="M15" s="17">
-        <v>2156.3200000000002</v>
-      </c>
-      <c r="N15" s="17">
-        <v>1665.7180000000001</v>
-      </c>
-      <c r="O15" s="17">
-        <v>38502.94</v>
-      </c>
-      <c r="P15" s="17">
-        <v>4893.9859599999945</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B16" s="10">
-        <v>2024</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="12">
+      <c r="D17" s="12">
         <f t="shared" si="2"/>
         <v>104014.85637999998</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E17" s="13">
         <v>19802.7</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="13">
         <v>14556.685000000001</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G17" s="13">
         <v>5905.6409999999996</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H17" s="13">
         <v>5567.2889999999998</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I17" s="13">
         <v>3144.7429999999999</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J17" s="13">
         <v>3762.2560000000003</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K17" s="13">
         <v>2058.4110000000001</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L17" s="13">
         <v>2935.8180000000002</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M17" s="13">
         <v>1921.692</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N17" s="13">
         <v>1570.1889999999996</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O17" s="13">
         <v>38209.173000000003</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P17" s="13">
         <v>4580.2593799999795</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B17" s="14">
+    <row r="18" spans="2:16">
+      <c r="B18" s="14">
         <v>2024</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="16">
+      <c r="C18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="16">
         <f t="shared" si="2"/>
         <v>96832.621000000028</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E18" s="17">
         <v>19063.57</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F18" s="17">
         <v>12825.287</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G18" s="17">
         <v>5709.5619999999999</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H18" s="17">
         <v>6237.3979999999992</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I18" s="17">
         <v>3026.2809999999999</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J18" s="17">
         <v>3371.2139999999999</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K18" s="17">
         <v>2375.6289999999999</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L18" s="17">
         <v>3173.3670000000002</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M18" s="17">
         <v>2052.38</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N18" s="17">
         <v>1593.547</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O18" s="17">
         <v>32860.998999999996</v>
       </c>
-      <c r="P17" s="17">
+      <c r="P18" s="17">
         <v>4543.3870000000315</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B18" s="18">
+    <row r="19" spans="2:16">
+      <c r="B19" s="18">
         <v>2024</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="20">
+      <c r="C19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="20">
         <f t="shared" si="2"/>
         <v>97330.675600000075</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E19" s="21">
         <v>18369.400000000001</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F19" s="21">
         <v>13351.472999999998</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G19" s="21">
         <v>5884.6970000000001</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H19" s="21">
         <v>5967.9220000000005</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I19" s="21">
         <v>2989.357</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J19" s="21">
         <v>2973.8410000000003</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K19" s="21">
         <v>2268.6259999999997</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L19" s="21">
         <v>2854.8959999999997</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M19" s="21">
         <v>2397.5709999999999</v>
       </c>
-      <c r="N18" s="21">
+      <c r="N19" s="21">
         <v>1825.489</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O19" s="21">
         <v>33787.300999999999</v>
       </c>
-      <c r="P18" s="21">
+      <c r="P19" s="21">
         <v>4660.1026000000729</v>
       </c>
     </row>
-    <row r="19" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="22">
+    <row r="20" spans="2:16" hidden="1">
+      <c r="B20" s="22">
         <v>2023</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="24">
+      <c r="C20" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="24">
         <f t="shared" si="2"/>
         <v>104426.30729999999</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E20" s="25">
         <v>20566.599999999999</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F20" s="25">
         <v>13313.805</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G20" s="25">
         <v>5779.5439999999999</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H20" s="25">
         <v>6634.8190000000004</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I20" s="25">
         <v>3186.3519999999999</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J20" s="25">
         <v>3890.0010000000002</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K20" s="25">
         <v>2228.2650000000003</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L20" s="25">
         <v>3022.0309999999999</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M20" s="25">
         <v>2482.5659999999998</v>
       </c>
-      <c r="N19" s="25">
+      <c r="N20" s="25">
         <v>1573.3980000000001</v>
       </c>
-      <c r="O19" s="25">
+      <c r="O20" s="25">
         <v>36496.25</v>
       </c>
-      <c r="P19" s="25">
+      <c r="P20" s="25">
         <v>5252.6762999999974</v>
       </c>
     </row>
-    <row r="20" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="10">
+    <row r="21" spans="2:16" hidden="1">
+      <c r="B21" s="10">
         <v>2023</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="12">
+      <c r="C21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="12">
         <f t="shared" si="2"/>
         <v>105823.25400000002</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E21" s="13">
         <v>20520.5</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F21" s="13">
         <v>14126.735000000001</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G21" s="13">
         <v>6122.6710000000003</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H21" s="13">
         <v>6195.4279999999999</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I21" s="13">
         <v>3286.1129999999998</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J21" s="13">
         <v>3463.6080000000002</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K21" s="13">
         <v>2592.8070000000002</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L21" s="13">
         <v>3439.2550000000001</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M21" s="13">
         <v>2391.259</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N21" s="13">
         <v>1992.0079999999998</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O21" s="13">
         <v>36256.74</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P21" s="13">
         <v>5436.1300000000128</v>
       </c>
     </row>
-    <row r="21" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="14">
+    <row r="22" spans="2:16" hidden="1">
+      <c r="B22" s="14">
         <v>2023</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="16">
+      <c r="C22" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="16">
         <f t="shared" si="2"/>
         <v>107132.1866</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E22" s="17">
         <v>20291</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F22" s="17">
         <v>14588.228999999999</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G22" s="17">
         <v>6563.4580000000005</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H22" s="17">
         <v>6490.5720000000001</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I22" s="17">
         <v>3206.3980000000001</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J22" s="17">
         <v>2918.2420000000002</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K22" s="17">
         <v>2583.0619999999999</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L22" s="17">
         <v>3007.05</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M22" s="17">
         <v>2285.1779999999999</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N22" s="17">
         <v>2296.12</v>
       </c>
-      <c r="O21" s="17">
+      <c r="O22" s="17">
         <v>37567.615000000005</v>
       </c>
-      <c r="P21" s="17">
+      <c r="P22" s="17">
         <v>5335.2626000000073</v>
       </c>
     </row>
-    <row r="22" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="10">
+    <row r="23" spans="2:16" hidden="1">
+      <c r="B23" s="10">
         <v>2023</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="12">
+      <c r="C23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="12">
         <f t="shared" si="2"/>
         <v>96344.621599999969</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E23" s="13">
         <v>18890.84</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="13">
         <v>11939.238000000001</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G23" s="13">
         <v>6448.41</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H23" s="13">
         <v>6941.482</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I23" s="13">
         <v>2997.1009999999997</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J23" s="13">
         <v>2820.8690000000001</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K23" s="13">
         <v>2392.9459999999999</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L23" s="13">
         <v>2689.5440000000003</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M23" s="13">
         <v>2237.8310000000001</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N23" s="13">
         <v>1937.12</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O23" s="13">
         <v>32211.534999999996</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P23" s="13">
         <v>4837.7055999999784</v>
       </c>
     </row>
-    <row r="23" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="14">
+    <row r="24" spans="2:16" hidden="1">
+      <c r="B24" s="14">
         <v>2023</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="16">
+      <c r="C24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="16">
         <f t="shared" si="2"/>
         <v>101340.06099999999</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E24" s="17">
         <v>30758.92</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F24" s="17">
         <v>12635.058999999999</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G24" s="17">
         <v>6735.0630000000001</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H24" s="17">
         <v>7071.5340000000006</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I24" s="17">
         <v>3260.134</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J24" s="17">
         <v>2927.556</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K24" s="17">
         <v>2738.0719999999997</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L24" s="17">
         <v>3079.3420000000001</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M24" s="17">
         <v>2242.9470000000001</v>
       </c>
-      <c r="N23" s="17">
+      <c r="N24" s="17">
         <v>2212.1790000000001</v>
       </c>
-      <c r="O23" s="17">
+      <c r="O24" s="17">
         <v>22653.131999999998</v>
       </c>
-      <c r="P23" s="17">
+      <c r="P24" s="17">
         <v>5026.1229999999987</v>
       </c>
     </row>
-    <row r="24" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="10">
+    <row r="25" spans="2:16" hidden="1">
+      <c r="B25" s="10">
         <v>2023</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="12">
+      <c r="C25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="12">
         <f t="shared" si="2"/>
         <v>99893.349999999977</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E25" s="13">
         <v>42255.99</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F25" s="13">
         <v>13795.428</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G25" s="13">
         <v>6453.2659999999996</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H25" s="13">
         <v>6305.5460000000003</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I25" s="13">
         <v>2850.3670000000002</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J25" s="13">
         <v>2992.5640000000003</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K25" s="13">
         <v>2184.107</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L25" s="13">
         <v>3001.3330000000001</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M25" s="13">
         <v>2136.636</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N25" s="13">
         <v>1665.6389999999999</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O25" s="13">
         <v>12061.946</v>
       </c>
-      <c r="P24" s="13">
+      <c r="P25" s="13">
         <v>4190.5279999999912</v>
       </c>
     </row>
-    <row r="25" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="14">
+    <row r="26" spans="2:16" hidden="1">
+      <c r="B26" s="14">
         <v>2023</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="16">
+      <c r="C26" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="16">
         <f t="shared" si="2"/>
         <v>100692.46</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E26" s="17">
         <v>48959.360000000001</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F26" s="17">
         <v>14347.388000000001</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G26" s="17">
         <v>6967.08</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H26" s="17">
         <v>7548.9220000000005</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I26" s="17">
         <v>3319.7</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J26" s="17">
         <v>2985.5720000000001</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K26" s="17">
         <v>2751.5749999999998</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L26" s="17">
         <v>2986.2660000000001</v>
       </c>
-      <c r="M25" s="17">
+      <c r="M26" s="17">
         <v>2130.835</v>
       </c>
-      <c r="N25" s="17">
+      <c r="N26" s="17">
         <v>1363.424</v>
       </c>
-      <c r="O25" s="17">
+      <c r="O26" s="17">
         <v>2657.15</v>
       </c>
-      <c r="P25" s="17">
+      <c r="P26" s="17">
         <v>4675.1880000000074</v>
       </c>
     </row>
-    <row r="26" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="10">
+    <row r="27" spans="2:16" hidden="1">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="12">
+      <c r="C27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="12">
         <f t="shared" si="2"/>
         <v>98181.257999999987</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E27" s="13">
         <v>50235.43</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="13">
         <v>13240.904999999999</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G27" s="13">
         <v>6447.4090000000006</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H27" s="13">
         <v>6818.1289999999999</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I27" s="13">
         <v>3168.0129999999999</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J27" s="13">
         <v>3032.7219999999998</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K27" s="13">
         <v>2419.5279999999998</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L27" s="13">
         <v>3039.0519999999997</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M27" s="13">
         <v>2077.337</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N27" s="13">
         <v>1145.9829999999999</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O27" s="13">
         <v>2054.748</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P27" s="13">
         <v>4502.0019999999795</v>
       </c>
     </row>
-    <row r="27" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="14">
+    <row r="28" spans="2:16" hidden="1">
+      <c r="B28" s="14">
         <v>2023</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="16">
+      <c r="C28" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="16">
         <f t="shared" si="2"/>
         <v>92574.85</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E28" s="17">
         <v>47367.56</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F28" s="17">
         <v>13553.766</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G28" s="17">
         <v>6046.3230000000003</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H28" s="17">
         <v>5997.2860000000001</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I28" s="17">
         <v>2823</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J28" s="17">
         <v>3201.482</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K28" s="17">
         <v>2103.346</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L28" s="17">
         <v>2699.6509999999998</v>
       </c>
-      <c r="M27" s="17">
+      <c r="M28" s="17">
         <v>1830.1030000000001</v>
       </c>
-      <c r="N27" s="17">
+      <c r="N28" s="17">
         <v>966.625</v>
       </c>
-      <c r="O27" s="17">
+      <c r="O28" s="17">
         <v>1973.069</v>
       </c>
-      <c r="P27" s="17">
+      <c r="P28" s="17">
         <v>4012.6390000000029</v>
       </c>
     </row>
-    <row r="28" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="10">
+    <row r="29" spans="2:16" hidden="1">
+      <c r="B29" s="10">
         <v>2023</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="12">
+      <c r="C29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="12">
         <f t="shared" si="2"/>
         <v>105745.56200000001</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E29" s="13">
         <v>52276.67</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="13">
         <v>16535.007000000001</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G29" s="13">
         <v>6440.4480000000003</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H29" s="13">
         <v>7445.0419999999995</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I29" s="13">
         <v>3504.6480000000001</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J29" s="13">
         <v>3949.8199999999997</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K29" s="13">
         <v>2498.7659999999996</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L29" s="13">
         <v>3061.4049999999997</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M29" s="13">
         <v>2069.788</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N29" s="13">
         <v>1219.9379999999999</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O29" s="13">
         <v>1776.1070000000002</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P29" s="13">
         <v>4967.9229999999952</v>
       </c>
     </row>
-    <row r="29" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="14">
+    <row r="30" spans="2:16" hidden="1">
+      <c r="B30" s="14">
         <v>2023</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="16">
+      <c r="C30" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="16">
         <f t="shared" si="2"/>
         <v>92062.197000000015</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E30" s="17">
         <v>48557.700000000004</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F30" s="17">
         <v>12859.111000000001</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G30" s="17">
         <v>5657.7039999999997</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H30" s="17">
         <v>6269.88</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I30" s="17">
         <v>2992.4319999999998</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J30" s="17">
         <v>3589.6260000000002</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K30" s="17">
         <v>2018.2800000000002</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L30" s="17">
         <v>2591.8669999999997</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M30" s="17">
         <v>1971.3010000000002</v>
       </c>
-      <c r="N29" s="17">
+      <c r="N30" s="17">
         <v>967.20100000000002</v>
       </c>
-      <c r="O29" s="17">
+      <c r="O30" s="17">
         <v>24.785999999999998</v>
       </c>
-      <c r="P29" s="17">
+      <c r="P30" s="17">
         <v>4562.3090000000093</v>
       </c>
     </row>
-    <row r="30" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="18">
+    <row r="31" spans="2:16" hidden="1">
+      <c r="B31" s="18">
         <v>2023</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="20">
+      <c r="C31" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="20">
         <f t="shared" si="2"/>
         <v>91861.286999999982</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E31" s="21">
         <v>47206.720000000001</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F31" s="21">
         <v>14071.760999999999</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G31" s="21">
         <v>5308.5119999999997</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H31" s="21">
         <v>6105.5779999999995</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I31" s="21">
         <v>3099.4949999999999</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J31" s="21">
         <v>3049.6080000000002</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K31" s="21">
         <v>2226.4519999999998</v>
       </c>
-      <c r="L30" s="21">
+      <c r="L31" s="21">
         <v>2648.1549999999997</v>
       </c>
-      <c r="M30" s="21">
+      <c r="M31" s="21">
         <v>2170.7359999999999</v>
       </c>
-      <c r="N30" s="21">
+      <c r="N31" s="21">
         <v>1026.6849999999999</v>
       </c>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21">
+      <c r="O31" s="21"/>
+      <c r="P31" s="21">
         <v>4947.5849999999755</v>
       </c>
     </row>
-    <row r="31" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="22">
+    <row r="32" spans="2:16" hidden="1">
+      <c r="B32" s="22">
         <v>2022</v>
       </c>
-      <c r="C31" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="24">
+      <c r="C32" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="24">
         <f t="shared" si="2"/>
         <v>101065.27699999994</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E32" s="25">
         <v>51995.01</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F32" s="25">
         <v>14753.401000000002</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G32" s="25">
         <v>6074.482</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H32" s="25">
         <v>6693.6720000000005</v>
       </c>
-      <c r="I31" s="25">
+      <c r="I32" s="25">
         <v>3610.9369999999999</v>
       </c>
-      <c r="J31" s="25">
+      <c r="J32" s="25">
         <v>3543.056</v>
       </c>
-      <c r="K31" s="25">
+      <c r="K32" s="25">
         <v>2529.5419999999999</v>
       </c>
-      <c r="L31" s="25">
+      <c r="L32" s="25">
         <v>3120.09</v>
       </c>
-      <c r="M31" s="25">
+      <c r="M32" s="25">
         <v>2114.6820000000002</v>
       </c>
-      <c r="N31" s="25">
+      <c r="N32" s="25">
         <v>1202.202</v>
       </c>
-      <c r="O31" s="25"/>
-      <c r="P31" s="25">
+      <c r="O32" s="25"/>
+      <c r="P32" s="25">
         <v>5428.2029999999249</v>
       </c>
     </row>
-    <row r="32" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="10">
+    <row r="33" spans="2:16" hidden="1">
+      <c r="B33" s="10">
         <v>2022</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="12">
+      <c r="C33" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="12">
         <f t="shared" si="2"/>
         <v>100761.743</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E33" s="13">
         <v>52228.090000000004</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F33" s="13">
         <v>14611.128000000001</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G33" s="13">
         <v>6314.7170000000006</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H33" s="13">
         <v>6174.5390000000007</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I33" s="13">
         <v>3744.3739999999998</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J33" s="13">
         <v>3438.8589999999999</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K33" s="13">
         <v>2565.1889999999999</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L33" s="13">
         <v>3357.0519999999997</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M33" s="13">
         <v>2200.0079999999998</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N33" s="13">
         <v>1152.1139999999998</v>
       </c>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13">
+      <c r="O33" s="13"/>
+      <c r="P33" s="13">
         <v>4975.6730000000007</v>
       </c>
     </row>
-    <row r="33" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="14">
+    <row r="34" spans="2:16" hidden="1">
+      <c r="B34" s="14">
         <v>2022</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="16">
+      <c r="C34" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="16">
         <f t="shared" si="2"/>
         <v>101815.66400000002</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E34" s="17">
         <v>53850.369999999995</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F34" s="17">
         <v>15184.744000000001</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G34" s="17">
         <v>6463.3790000000008</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H34" s="17">
         <v>5772.1310000000003</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I34" s="17">
         <v>3574.8900000000003</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J34" s="17">
         <v>3573.3429999999998</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K34" s="17">
         <v>2038.558</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L34" s="17">
         <v>2968.2270000000003</v>
       </c>
-      <c r="M33" s="17">
+      <c r="M34" s="17">
         <v>2060.0630000000001</v>
       </c>
-      <c r="N33" s="17">
+      <c r="N34" s="17">
         <v>1283.712</v>
       </c>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17">
+      <c r="O34" s="17"/>
+      <c r="P34" s="17">
         <v>5046.2470000000367</v>
       </c>
     </row>
-    <row r="34" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="10">
+    <row r="35" spans="2:16" hidden="1">
+      <c r="B35" s="10">
         <v>2022</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="12">
+      <c r="C35" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="12">
         <f t="shared" si="2"/>
         <v>89334.159999999974</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E35" s="13">
         <v>47061.49</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F35" s="13">
         <v>14479.710999999999</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G35" s="13">
         <v>6202.4430000000002</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H35" s="13">
         <v>5721.7240000000002</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I35" s="13">
         <v>2401.297</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J35" s="13">
         <v>2631.6559999999999</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K35" s="13">
         <v>2465.8180000000002</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L35" s="13">
         <v>2754.2740000000003</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M35" s="13">
         <v>512.15899999999999</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N35" s="13">
         <v>1143.1680000000001</v>
       </c>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13">
+      <c r="O35" s="13"/>
+      <c r="P35" s="13">
         <v>3960.4199999999564</v>
       </c>
     </row>
-    <row r="35" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="14">
+    <row r="36" spans="2:16" hidden="1">
+      <c r="B36" s="14">
         <v>2022</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="16">
+      <c r="C36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="16">
         <f t="shared" si="2"/>
         <v>95278.69100000005</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E36" s="17">
         <v>47746.51</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F36" s="17">
         <v>14115.436000000002</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G36" s="17">
         <v>7015.4850000000006</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H36" s="17">
         <v>6571.5810000000001</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I36" s="17">
         <v>2958.8999999999996</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J36" s="17">
         <v>3531.7309999999998</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K36" s="17">
         <v>2622.4749999999999</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L36" s="17">
         <v>2978.3830000000003</v>
       </c>
-      <c r="M35" s="17">
+      <c r="M36" s="17">
         <v>2025.0970000000002</v>
       </c>
-      <c r="N35" s="17">
+      <c r="N36" s="17">
         <v>1204.242</v>
       </c>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17">
+      <c r="O36" s="17"/>
+      <c r="P36" s="17">
         <v>4508.8510000000351</v>
       </c>
     </row>
-    <row r="36" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="10">
+    <row r="37" spans="2:16" hidden="1">
+      <c r="B37" s="10">
         <v>2022</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="12">
+      <c r="C37" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="12">
         <f t="shared" si="2"/>
         <v>97785.689999999988</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E37" s="13">
         <v>50063.990000000005</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F37" s="13">
         <v>14860.342999999999</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G37" s="13">
         <v>6623.2259999999997</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H37" s="13">
         <v>5368.71</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I37" s="13">
         <v>3986.607</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J37" s="13">
         <v>4343.424</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K37" s="13">
         <v>2496.5360000000001</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L37" s="13">
         <v>2822.9870000000001</v>
       </c>
-      <c r="M36" s="13">
+      <c r="M37" s="13">
         <v>1943.029</v>
       </c>
-      <c r="N36" s="13">
+      <c r="N37" s="13">
         <v>1117.913</v>
       </c>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13">
+      <c r="O37" s="13"/>
+      <c r="P37" s="13">
         <v>4158.924999999982</v>
       </c>
     </row>
-    <row r="37" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="14">
+    <row r="38" spans="2:16" hidden="1">
+      <c r="B38" s="14">
         <v>2022</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="16">
+      <c r="C38" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="16">
         <f t="shared" si="2"/>
         <v>98754.335000000006</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E38" s="17">
         <v>46577.189999999995</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F38" s="17">
         <v>15738.313999999998</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G38" s="17">
         <v>7141.8860000000004</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H38" s="17">
         <v>6363.9130000000005</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I38" s="17">
         <v>4263.3530000000001</v>
       </c>
-      <c r="J37" s="17">
+      <c r="J38" s="17">
         <v>3976.6590000000001</v>
       </c>
-      <c r="K37" s="17">
+      <c r="K38" s="17">
         <v>2587.8480000000004</v>
       </c>
-      <c r="L37" s="17">
+      <c r="L38" s="17">
         <v>3419.7529999999997</v>
       </c>
-      <c r="M37" s="17">
+      <c r="M38" s="17">
         <v>2042.5399999999997</v>
       </c>
-      <c r="N37" s="17">
+      <c r="N38" s="17">
         <v>1359.9259999999999</v>
       </c>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17">
+      <c r="O38" s="17"/>
+      <c r="P38" s="17">
         <v>5282.9530000000059</v>
       </c>
     </row>
-    <row r="38" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="10">
+    <row r="39" spans="2:16" hidden="1">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="12">
+      <c r="C39" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="12">
         <f t="shared" si="2"/>
         <v>100981.77</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E39" s="13">
         <v>48175.270000000004</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F39" s="13">
         <v>15121.800999999999</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G39" s="13">
         <v>6917.94</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H39" s="13">
         <v>7004.4480000000003</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I39" s="13">
         <v>4293.0200000000004</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J39" s="13">
         <v>4633.1059999999998</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K39" s="13">
         <v>2216.5819999999999</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L39" s="13">
         <v>4035.9160000000002</v>
       </c>
-      <c r="M38" s="13">
+      <c r="M39" s="13">
         <v>2042.0069999999998</v>
       </c>
-      <c r="N38" s="13">
+      <c r="N39" s="13">
         <v>1212.9639999999999</v>
       </c>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13">
+      <c r="O39" s="13"/>
+      <c r="P39" s="13">
         <v>5328.7160000000003</v>
       </c>
     </row>
-    <row r="39" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="14">
+    <row r="40" spans="2:16" hidden="1">
+      <c r="B40" s="14">
         <v>2022</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="16">
+      <c r="C40" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="16">
         <f t="shared" si="2"/>
         <v>91772.804999999978</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E40" s="17">
         <v>42504.89</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F40" s="17">
         <v>14271.894</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G40" s="17">
         <v>6804.5039999999999</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H40" s="17">
         <v>5796.9490000000005</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I40" s="17">
         <v>3819.4520000000002</v>
       </c>
-      <c r="J39" s="17">
+      <c r="J40" s="17">
         <v>4312.4709999999995</v>
       </c>
-      <c r="K39" s="17">
+      <c r="K40" s="17">
         <v>2349.19</v>
       </c>
-      <c r="L39" s="17">
+      <c r="L40" s="17">
         <v>3770.8559999999998</v>
       </c>
-      <c r="M39" s="17">
+      <c r="M40" s="17">
         <v>1869.663</v>
       </c>
-      <c r="N39" s="17">
+      <c r="N40" s="17">
         <v>1118.5450000000001</v>
       </c>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17">
+      <c r="O40" s="17"/>
+      <c r="P40" s="17">
         <v>5154.390999999976</v>
       </c>
     </row>
-    <row r="40" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="10">
+    <row r="41" spans="2:16" hidden="1">
+      <c r="B41" s="10">
         <v>2022</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="12">
+      <c r="C41" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="12">
         <f t="shared" si="2"/>
         <v>97475.604000000007</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E41" s="13">
         <v>43589.06</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="13">
         <v>15805.73</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G41" s="13">
         <v>7474.4720000000007</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H41" s="13">
         <v>6700.8620000000001</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I41" s="13">
         <v>4181.607</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J41" s="13">
         <v>4873.1779999999999</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K41" s="13">
         <v>2656.9369999999999</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L41" s="13">
         <v>3049.7539999999999</v>
       </c>
-      <c r="M40" s="13">
+      <c r="M41" s="13">
         <v>2099.5990000000002</v>
       </c>
-      <c r="N40" s="13">
+      <c r="N41" s="13">
         <v>1350.1109999999999</v>
       </c>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13">
+      <c r="O41" s="13"/>
+      <c r="P41" s="13">
         <v>5694.2940000000135</v>
       </c>
     </row>
-    <row r="41" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="14">
+    <row r="42" spans="2:16" hidden="1">
+      <c r="B42" s="14">
         <v>2022</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="16">
+      <c r="C42" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="16">
         <f t="shared" si="2"/>
         <v>89800.428</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E42" s="17">
         <v>45366.31</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F42" s="17">
         <v>13369.772999999999</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G42" s="17">
         <v>5647.3320000000003</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H42" s="17">
         <v>5270.6120000000001</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I42" s="17">
         <v>3794.5039999999999</v>
       </c>
-      <c r="J41" s="17">
+      <c r="J42" s="17">
         <v>3839.19</v>
       </c>
-      <c r="K41" s="17">
+      <c r="K42" s="17">
         <v>2119.1379999999999</v>
       </c>
-      <c r="L41" s="17">
+      <c r="L42" s="17">
         <v>2576.7370000000001</v>
       </c>
-      <c r="M41" s="17">
+      <c r="M42" s="17">
         <v>1797.6790000000001</v>
       </c>
-      <c r="N41" s="17">
+      <c r="N42" s="17">
         <v>1019.68</v>
       </c>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17">
+      <c r="O42" s="17"/>
+      <c r="P42" s="17">
         <v>4999.4729999999945</v>
       </c>
     </row>
-    <row r="42" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="18">
+    <row r="43" spans="2:16" hidden="1">
+      <c r="B43" s="18">
         <v>2022</v>
       </c>
-      <c r="C42" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="20">
+      <c r="C43" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="20">
         <f t="shared" si="2"/>
         <v>85046.313999999984</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E43" s="21">
         <v>41649.950000000004</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F43" s="21">
         <v>14466.567999999999</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G43" s="21">
         <v>5084.2289999999994</v>
       </c>
-      <c r="H42" s="21">
+      <c r="H43" s="21">
         <v>5408.1559999999999</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I43" s="21">
         <v>2575.6040000000003</v>
       </c>
-      <c r="J42" s="21">
+      <c r="J43" s="21">
         <v>3171.0789999999997</v>
       </c>
-      <c r="K42" s="21">
+      <c r="K43" s="21">
         <v>2142.4740000000002</v>
       </c>
-      <c r="L42" s="21">
+      <c r="L43" s="21">
         <v>2573.4090000000001</v>
       </c>
-      <c r="M42" s="21">
+      <c r="M43" s="21">
         <v>1939.2370000000001</v>
       </c>
-      <c r="N42" s="21">
+      <c r="N43" s="21">
         <v>1105.0170000000001</v>
       </c>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21">
+      <c r="O43" s="21"/>
+      <c r="P43" s="21">
         <v>4930.590999999964</v>
       </c>
     </row>
-    <row r="43" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="22">
+    <row r="44" spans="2:16" hidden="1">
+      <c r="B44" s="22">
         <v>2021</v>
       </c>
-      <c r="C43" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="24">
+      <c r="C44" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="24">
         <f t="shared" si="2"/>
         <v>106245.8559999999</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E44" s="25">
         <v>50857.07</v>
       </c>
-      <c r="F43" s="25">
+      <c r="F44" s="25">
         <v>17094.063999999998</v>
       </c>
-      <c r="G43" s="25">
+      <c r="G44" s="25">
         <v>6690.982</v>
       </c>
-      <c r="H43" s="25">
+      <c r="H44" s="25">
         <v>6757.0789999999997</v>
       </c>
-      <c r="I43" s="25">
+      <c r="I44" s="25">
         <v>4772.1049999999996</v>
       </c>
-      <c r="J43" s="25">
+      <c r="J44" s="25">
         <v>4153.6809999999996</v>
       </c>
-      <c r="K43" s="25">
+      <c r="K44" s="25">
         <v>2996.9839999999999</v>
       </c>
-      <c r="L43" s="25">
+      <c r="L44" s="25">
         <v>3411.8760000000002</v>
       </c>
-      <c r="M43" s="25">
+      <c r="M44" s="25">
         <v>2152.6570000000002</v>
       </c>
-      <c r="N43" s="25">
+      <c r="N44" s="25">
         <v>1412.242</v>
       </c>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25">
+      <c r="O44" s="25"/>
+      <c r="P44" s="25">
         <v>5947.115999999909</v>
       </c>
     </row>
-    <row r="44" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="10">
+    <row r="45" spans="2:16" hidden="1">
+      <c r="B45" s="10">
         <v>2021</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="12">
+      <c r="C45" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="12">
         <f t="shared" si="2"/>
         <v>103780.351</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E45" s="13">
         <v>51670.84</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F45" s="13">
         <v>16637.919000000002</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G45" s="13">
         <v>6777.7350000000006</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H45" s="13">
         <v>6088.8860000000004</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I45" s="13">
         <v>4689.4409999999998</v>
       </c>
-      <c r="J44" s="13">
+      <c r="J45" s="13">
         <v>3093.7200000000003</v>
       </c>
-      <c r="K44" s="13">
+      <c r="K45" s="13">
         <v>2801.3710000000001</v>
       </c>
-      <c r="L44" s="13">
+      <c r="L45" s="13">
         <v>3273.163</v>
       </c>
-      <c r="M44" s="13">
+      <c r="M45" s="13">
         <v>2116.31</v>
       </c>
-      <c r="N44" s="13">
+      <c r="N45" s="13">
         <v>1187.3990000000001</v>
       </c>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13">
+      <c r="O45" s="13"/>
+      <c r="P45" s="13">
         <v>5443.5670000000018</v>
       </c>
     </row>
-    <row r="45" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="14">
+    <row r="46" spans="2:16" hidden="1">
+      <c r="B46" s="14">
         <v>2021</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="16">
+      <c r="C46" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="16">
         <f t="shared" si="2"/>
         <v>102011.41899999998</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E46" s="17">
         <v>52512.270000000004</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F46" s="17">
         <v>15934.506000000001</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G46" s="17">
         <v>6335.259</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H46" s="17">
         <v>5545.3950000000004</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I46" s="17">
         <v>4882.7650000000003</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J46" s="17">
         <v>2936.84</v>
       </c>
-      <c r="K45" s="17">
+      <c r="K46" s="17">
         <v>2405.8789999999999</v>
       </c>
-      <c r="L45" s="17">
+      <c r="L46" s="17">
         <v>3272.1130000000003</v>
       </c>
-      <c r="M45" s="17">
+      <c r="M46" s="17">
         <v>1900.828</v>
       </c>
-      <c r="N45" s="17">
+      <c r="N46" s="17">
         <v>1092.5319999999999</v>
       </c>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17">
+      <c r="O46" s="17"/>
+      <c r="P46" s="17">
         <v>5193.0319999999592</v>
       </c>
     </row>
-    <row r="46" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="10">
+    <row r="47" spans="2:16" hidden="1">
+      <c r="B47" s="10">
         <v>2021</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="12">
-        <f t="shared" ref="D46:D77" si="3">SUM(E46:P46)</f>
+      <c r="C47" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="12">
+        <f t="shared" ref="D47:D78" si="3">SUM(E47:P47)</f>
         <v>91178.608999999982</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E47" s="13">
         <v>45915.21</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F47" s="13">
         <v>14692.056</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G47" s="13">
         <v>5728.8209999999999</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H47" s="13">
         <v>5560.4480000000003</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I47" s="13">
         <v>4702.9629999999997</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J47" s="13">
         <v>2102.703</v>
       </c>
-      <c r="K46" s="13">
+      <c r="K47" s="13">
         <v>2272.134</v>
       </c>
-      <c r="L46" s="13">
+      <c r="L47" s="13">
         <v>2868.15</v>
       </c>
-      <c r="M46" s="13">
+      <c r="M47" s="13">
         <v>1735.4590000000001</v>
       </c>
-      <c r="N46" s="13">
+      <c r="N47" s="13">
         <v>1045.8</v>
       </c>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13">
+      <c r="O47" s="13"/>
+      <c r="P47" s="13">
         <v>4554.864999999978</v>
       </c>
     </row>
-    <row r="47" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="14">
+    <row r="48" spans="2:16" hidden="1">
+      <c r="B48" s="14">
         <v>2021</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="16">
+      <c r="C48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="16">
         <f t="shared" si="3"/>
         <v>92414.208999999988</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E48" s="17">
         <v>46263.56</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F48" s="17">
         <v>15429.054</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G48" s="17">
         <v>5843.6489999999994</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H48" s="17">
         <v>5188.5529999999999</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I48" s="17">
         <v>4997.6589999999997</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J48" s="17">
         <v>1980.7669999999998</v>
       </c>
-      <c r="K47" s="17">
+      <c r="K48" s="17">
         <v>2178.5140000000001</v>
       </c>
-      <c r="L47" s="17">
+      <c r="L48" s="17">
         <v>2985.433</v>
       </c>
-      <c r="M47" s="17">
+      <c r="M48" s="17">
         <v>1919.7950000000001</v>
       </c>
-      <c r="N47" s="17">
+      <c r="N48" s="17">
         <v>1046.1379999999999</v>
       </c>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17">
+      <c r="O48" s="17"/>
+      <c r="P48" s="17">
         <v>4581.0869999999823</v>
       </c>
     </row>
-    <row r="48" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="10">
+    <row r="49" spans="2:16" hidden="1">
+      <c r="B49" s="10">
         <v>2021</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="12">
+      <c r="C49" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="12">
         <f t="shared" si="3"/>
         <v>94998.959000000017</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E49" s="13">
         <v>47535.66</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F49" s="13">
         <v>16396.912</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G49" s="13">
         <v>5814.3230000000003</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H49" s="13">
         <v>5225.7449999999999</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I49" s="13">
         <v>4822.5879999999997</v>
       </c>
-      <c r="J48" s="13">
+      <c r="J49" s="13">
         <v>2417.9939999999997</v>
       </c>
-      <c r="K48" s="13">
+      <c r="K49" s="13">
         <v>2253.5949999999998</v>
       </c>
-      <c r="L48" s="13">
+      <c r="L49" s="13">
         <v>2954.0879999999997</v>
       </c>
-      <c r="M48" s="13">
+      <c r="M49" s="13">
         <v>2019.4090000000001</v>
       </c>
-      <c r="N48" s="13">
+      <c r="N49" s="13">
         <v>989</v>
       </c>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13">
+      <c r="O49" s="13"/>
+      <c r="P49" s="13">
         <v>4569.6450000000086</v>
       </c>
     </row>
-    <row r="49" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="14">
+    <row r="50" spans="2:16" hidden="1">
+      <c r="B50" s="14">
         <v>2021</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="16">
+      <c r="C50" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="16">
         <f t="shared" si="3"/>
         <v>93150.852999999974</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E50" s="17">
         <v>46381.57</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F50" s="17">
         <v>16321.146999999999</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G50" s="17">
         <v>5643.8950000000004</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H50" s="17">
         <v>5512.8739999999998</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I50" s="17">
         <v>4619.1679999999997</v>
       </c>
-      <c r="J49" s="17">
+      <c r="J50" s="17">
         <v>2265.636</v>
       </c>
-      <c r="K49" s="17">
+      <c r="K50" s="17">
         <v>2051.7060000000001</v>
       </c>
-      <c r="L49" s="17">
+      <c r="L50" s="17">
         <v>2931.884</v>
       </c>
-      <c r="M49" s="17">
+      <c r="M50" s="17">
         <v>1972.1880000000001</v>
       </c>
-      <c r="N49" s="17">
+      <c r="N50" s="17">
         <v>986.39300000000003</v>
       </c>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17">
+      <c r="O50" s="17"/>
+      <c r="P50" s="17">
         <v>4464.3919999999753</v>
       </c>
     </row>
-    <row r="50" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="10">
+    <row r="51" spans="2:16" hidden="1">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="12">
+      <c r="C51" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="12">
         <f t="shared" si="3"/>
         <v>91896.881000000023</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E51" s="13">
         <v>46267.280000000006</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F51" s="13">
         <v>16961.302</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G51" s="13">
         <v>5341.201</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H51" s="13">
         <v>5093.9789999999994</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I51" s="13">
         <v>4098.0300000000007</v>
       </c>
-      <c r="J50" s="13">
+      <c r="J51" s="13">
         <v>2317.509</v>
       </c>
-      <c r="K50" s="13">
+      <c r="K51" s="13">
         <v>1839.751</v>
       </c>
-      <c r="L50" s="13">
+      <c r="L51" s="13">
         <v>2917.2539999999999</v>
       </c>
-      <c r="M50" s="13">
+      <c r="M51" s="13">
         <v>1854.6999999999998</v>
       </c>
-      <c r="N50" s="13">
+      <c r="N51" s="13">
         <v>936.20399999999995</v>
       </c>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13">
+      <c r="O51" s="13"/>
+      <c r="P51" s="13">
         <v>4269.6710000000021</v>
       </c>
     </row>
-    <row r="51" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="14">
+    <row r="52" spans="2:16" hidden="1">
+      <c r="B52" s="14">
         <v>2021</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" s="16">
+      <c r="C52" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="16">
         <f t="shared" si="3"/>
         <v>91124.671000000017</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E52" s="17">
         <v>44958.49</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F52" s="17">
         <v>17353.253000000001</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G52" s="17">
         <v>5074.8539999999994</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H52" s="17">
         <v>5150.7029999999995</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I52" s="17">
         <v>4190.9799999999996</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J52" s="17">
         <v>2711.4180000000001</v>
       </c>
-      <c r="K51" s="17">
+      <c r="K52" s="17">
         <v>2026.221</v>
       </c>
-      <c r="L51" s="17">
+      <c r="L52" s="17">
         <v>2834.6559999999999</v>
       </c>
-      <c r="M51" s="17">
+      <c r="M52" s="17">
         <v>1752.0440000000001</v>
       </c>
-      <c r="N51" s="17">
+      <c r="N52" s="17">
         <v>919.93</v>
       </c>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17">
+      <c r="O52" s="17"/>
+      <c r="P52" s="17">
         <v>4152.1220000000194</v>
       </c>
     </row>
-    <row r="52" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="10">
+    <row r="53" spans="2:16" hidden="1">
+      <c r="B53" s="10">
         <v>2021</v>
       </c>
-      <c r="C52" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52" s="12">
+      <c r="C53" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="12">
         <f t="shared" si="3"/>
         <v>97804.682000000015</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E53" s="13">
         <v>49200.950000000004</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="13">
         <v>18513.925000000003</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G53" s="13">
         <v>5394.5290000000005</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H53" s="13">
         <v>5438.8379999999997</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I53" s="13">
         <v>4517.6980000000003</v>
       </c>
-      <c r="J52" s="13">
+      <c r="J53" s="13">
         <v>2272.91</v>
       </c>
-      <c r="K52" s="13">
+      <c r="K53" s="13">
         <v>2051.056</v>
       </c>
-      <c r="L52" s="13">
+      <c r="L53" s="13">
         <v>2950.4749999999999</v>
       </c>
-      <c r="M52" s="13">
+      <c r="M53" s="13">
         <v>1771.0360000000001</v>
       </c>
-      <c r="N52" s="13">
+      <c r="N53" s="13">
         <v>1067.4470000000001</v>
       </c>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13">
+      <c r="O53" s="13"/>
+      <c r="P53" s="13">
         <v>4625.8179999999957</v>
       </c>
     </row>
-    <row r="53" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="14">
+    <row r="54" spans="2:16" hidden="1">
+      <c r="B54" s="14">
         <v>2021</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="16">
+      <c r="C54" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="16">
         <f t="shared" si="3"/>
         <v>83857.271000000022</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E54" s="17">
         <v>42287.700000000004</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F54" s="17">
         <v>15583.737000000001</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G54" s="17">
         <v>4140.5389999999998</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H54" s="17">
         <v>4531.4269999999997</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I54" s="17">
         <v>3863.7919999999995</v>
       </c>
-      <c r="J53" s="17">
+      <c r="J54" s="17">
         <v>2548.5929999999998</v>
       </c>
-      <c r="K53" s="17">
+      <c r="K54" s="17">
         <v>1805.3239999999998</v>
       </c>
-      <c r="L53" s="17">
+      <c r="L54" s="17">
         <v>2596.5039999999999</v>
       </c>
-      <c r="M53" s="17">
+      <c r="M54" s="17">
         <v>1517.7179999999998</v>
       </c>
-      <c r="N53" s="17">
+      <c r="N54" s="17">
         <v>866.53800000000001</v>
       </c>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17">
+      <c r="O54" s="17"/>
+      <c r="P54" s="17">
         <v>4115.3990000000395</v>
       </c>
     </row>
-    <row r="54" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="18">
+    <row r="55" spans="2:16" hidden="1">
+      <c r="B55" s="18">
         <v>2021</v>
       </c>
-      <c r="C54" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="20">
+      <c r="C55" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="20">
         <f t="shared" si="3"/>
         <v>88197.219999999987</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E55" s="21">
         <v>43928.770000000004</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F55" s="21">
         <v>16300.849999999997</v>
       </c>
-      <c r="G54" s="21">
+      <c r="G55" s="21">
         <v>4840.8860000000004</v>
       </c>
-      <c r="H54" s="21">
+      <c r="H55" s="21">
         <v>4794.0879999999997</v>
       </c>
-      <c r="I54" s="21">
+      <c r="I55" s="21">
         <v>4785.6239999999998</v>
       </c>
-      <c r="J54" s="21">
+      <c r="J55" s="21">
         <v>2064.8710000000001</v>
       </c>
-      <c r="K54" s="21">
+      <c r="K55" s="21">
         <v>2034.952</v>
       </c>
-      <c r="L54" s="21">
+      <c r="L55" s="21">
         <v>2453.6999999999998</v>
       </c>
-      <c r="M54" s="21">
+      <c r="M55" s="21">
         <v>1745.922</v>
       </c>
-      <c r="N54" s="21">
+      <c r="N55" s="21">
         <v>918.11799999999994</v>
       </c>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21">
+      <c r="O55" s="21"/>
+      <c r="P55" s="21">
         <v>4329.4389999999794</v>
       </c>
     </row>
-    <row r="55" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="22">
+    <row r="56" spans="2:16" hidden="1">
+      <c r="B56" s="22">
         <v>2020</v>
       </c>
-      <c r="C55" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" s="24">
+      <c r="C56" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="24">
         <f t="shared" si="3"/>
         <v>94144.191000000021</v>
       </c>
-      <c r="E55" s="25">
+      <c r="E56" s="25">
         <v>46330.03</v>
       </c>
-      <c r="F55" s="25">
+      <c r="F56" s="25">
         <v>15973.973</v>
       </c>
-      <c r="G55" s="25">
+      <c r="G56" s="25">
         <v>5450.8789999999999</v>
       </c>
-      <c r="H55" s="25">
+      <c r="H56" s="25">
         <v>5488.8649999999998</v>
       </c>
-      <c r="I55" s="25">
+      <c r="I56" s="25">
         <v>5262.348</v>
       </c>
-      <c r="J55" s="25">
+      <c r="J56" s="25">
         <v>1922.278</v>
       </c>
-      <c r="K55" s="25">
+      <c r="K56" s="25">
         <v>2610.1819999999998</v>
       </c>
-      <c r="L55" s="25">
+      <c r="L56" s="25">
         <v>3093.9090000000001</v>
       </c>
-      <c r="M55" s="25">
+      <c r="M56" s="25">
         <v>1870.7370000000001</v>
       </c>
-      <c r="N55" s="25">
+      <c r="N56" s="25">
         <v>1267.98</v>
       </c>
-      <c r="O55" s="25"/>
-      <c r="P55" s="25">
+      <c r="O56" s="25"/>
+      <c r="P56" s="25">
         <v>4873.010000000022</v>
       </c>
     </row>
-    <row r="56" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="10">
+    <row r="57" spans="2:16" hidden="1">
+      <c r="B57" s="10">
         <v>2020</v>
       </c>
-      <c r="C56" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="12">
+      <c r="C57" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="12">
         <f t="shared" si="3"/>
         <v>91473.85500000001</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E57" s="13">
         <v>47533.36</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F57" s="13">
         <v>14400.682000000001</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G57" s="13">
         <v>5383.1379999999999</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H57" s="13">
         <v>4958.3670000000002</v>
       </c>
-      <c r="I56" s="13">
+      <c r="I57" s="13">
         <v>4752.6779999999999</v>
       </c>
-      <c r="J56" s="13">
+      <c r="J57" s="13">
         <v>1515.828</v>
       </c>
-      <c r="K56" s="13">
+      <c r="K57" s="13">
         <v>2284.3830000000003</v>
       </c>
-      <c r="L56" s="13">
+      <c r="L57" s="13">
         <v>3066.7379999999998</v>
       </c>
-      <c r="M56" s="13">
+      <c r="M57" s="13">
         <v>1683.905</v>
       </c>
-      <c r="N56" s="13">
+      <c r="N57" s="13">
         <v>1051.925</v>
       </c>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13">
+      <c r="O57" s="13"/>
+      <c r="P57" s="13">
         <v>4842.8510000000106</v>
       </c>
     </row>
-    <row r="57" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="14">
+    <row r="58" spans="2:16" hidden="1">
+      <c r="B58" s="14">
         <v>2020</v>
       </c>
-      <c r="C57" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" s="16">
+      <c r="C58" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="16">
         <f t="shared" si="3"/>
         <v>91662.356999999931</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E58" s="17">
         <v>46625.39</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F58" s="17">
         <v>16134.585999999999</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G58" s="17">
         <v>5479.9110000000001</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H58" s="17">
         <v>4639.0290000000005</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I58" s="17">
         <v>5349.1270000000004</v>
       </c>
-      <c r="J57" s="17">
+      <c r="J58" s="17">
         <v>1260.509</v>
       </c>
-      <c r="K57" s="17">
+      <c r="K58" s="17">
         <v>2199.1950000000002</v>
       </c>
-      <c r="L57" s="17">
+      <c r="L58" s="17">
         <v>3053.64</v>
       </c>
-      <c r="M57" s="17">
+      <c r="M58" s="17">
         <v>1739.095</v>
       </c>
-      <c r="N57" s="17">
+      <c r="N58" s="17">
         <v>943.76300000000003</v>
       </c>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17">
+      <c r="O58" s="17"/>
+      <c r="P58" s="17">
         <v>4238.11199999993</v>
       </c>
     </row>
-    <row r="58" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="10">
+    <row r="59" spans="2:16" hidden="1">
+      <c r="B59" s="10">
         <v>2020</v>
       </c>
-      <c r="C58" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D58" s="12">
+      <c r="C59" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="12">
         <f t="shared" si="3"/>
         <v>77051.781000000032</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E59" s="13">
         <v>38240.839999999997</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F59" s="13">
         <v>14171.219000000001</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G59" s="13">
         <v>4407.3809999999994</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H59" s="13">
         <v>3752.172</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I59" s="13">
         <v>4552.4279999999999</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J59" s="13">
         <v>1079.7190000000001</v>
       </c>
-      <c r="K58" s="13">
+      <c r="K59" s="13">
         <v>1834.0129999999999</v>
       </c>
-      <c r="L58" s="13">
+      <c r="L59" s="13">
         <v>2717.5839999999998</v>
       </c>
-      <c r="M58" s="13">
+      <c r="M59" s="13">
         <v>1835.0609999999999</v>
       </c>
-      <c r="N58" s="13">
+      <c r="N59" s="13">
         <v>788.73500000000001</v>
       </c>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13">
+      <c r="O59" s="13"/>
+      <c r="P59" s="13">
         <v>3672.629000000029</v>
       </c>
     </row>
-    <row r="59" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="14">
+    <row r="60" spans="2:16" hidden="1">
+      <c r="B60" s="14">
         <v>2020</v>
       </c>
-      <c r="C59" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="16">
+      <c r="C60" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="16">
         <f t="shared" si="3"/>
         <v>73243.596999999965</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E60" s="17">
         <v>37945.979999999996</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F60" s="17">
         <v>12325.865999999998</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G60" s="17">
         <v>3948.0789999999997</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H60" s="17">
         <v>3392.7820000000002</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I60" s="17">
         <v>4478.6279999999997</v>
       </c>
-      <c r="J59" s="17">
+      <c r="J60" s="17">
         <v>1011.65</v>
       </c>
-      <c r="K59" s="17">
+      <c r="K60" s="17">
         <v>1714.8619999999999</v>
       </c>
-      <c r="L59" s="17">
+      <c r="L60" s="17">
         <v>2516.4409999999998</v>
       </c>
-      <c r="M59" s="17">
+      <c r="M60" s="17">
         <v>1831.6880000000001</v>
       </c>
-      <c r="N59" s="17">
+      <c r="N60" s="17">
         <v>782.10199999999998</v>
       </c>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17">
+      <c r="O60" s="17"/>
+      <c r="P60" s="17">
         <v>3295.5189999999848</v>
       </c>
     </row>
-    <row r="60" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="10">
+    <row r="61" spans="2:16" hidden="1">
+      <c r="B61" s="10">
         <v>2020</v>
       </c>
-      <c r="C60" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="12">
+      <c r="C61" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="12">
         <f t="shared" si="3"/>
         <v>70714.571000000011</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E61" s="13">
         <v>34839.78</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F61" s="13">
         <v>13321.585999999999</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G61" s="13">
         <v>3950.6219999999998</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H61" s="13">
         <v>3725.6490000000003</v>
       </c>
-      <c r="I60" s="13">
+      <c r="I61" s="13">
         <v>3987.5020000000004</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J61" s="13">
         <v>936.46399999999994</v>
       </c>
-      <c r="K60" s="13">
+      <c r="K61" s="13">
         <v>1692.3649999999998</v>
       </c>
-      <c r="L60" s="13">
+      <c r="L61" s="13">
         <v>2403.9839999999999</v>
       </c>
-      <c r="M60" s="13">
+      <c r="M61" s="13">
         <v>1775.4699999999998</v>
       </c>
-      <c r="N60" s="13">
+      <c r="N61" s="13">
         <v>840.952</v>
       </c>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13">
+      <c r="O61" s="13"/>
+      <c r="P61" s="13">
         <v>3240.1970000000092</v>
       </c>
     </row>
-    <row r="61" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="14">
+    <row r="62" spans="2:16" hidden="1">
+      <c r="B62" s="14">
         <v>2020</v>
       </c>
-      <c r="C61" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="16">
+      <c r="C62" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="16">
         <f t="shared" si="3"/>
         <v>66590.821000000025</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E62" s="17">
         <v>33996.18</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F62" s="17">
         <v>13478.243999999999</v>
       </c>
-      <c r="G61" s="17">
+      <c r="G62" s="17">
         <v>3545.3679999999999</v>
       </c>
-      <c r="H61" s="17">
+      <c r="H62" s="17">
         <v>3224.4189999999999</v>
       </c>
-      <c r="I61" s="17">
+      <c r="I62" s="17">
         <v>3231.3440000000001</v>
       </c>
-      <c r="J61" s="17">
+      <c r="J62" s="17">
         <v>771.17700000000002</v>
       </c>
-      <c r="K61" s="17">
+      <c r="K62" s="17">
         <v>1478.3190000000002</v>
       </c>
-      <c r="L61" s="17">
+      <c r="L62" s="17">
         <v>1821.6129999999998</v>
       </c>
-      <c r="M61" s="17">
+      <c r="M62" s="17">
         <v>1594.6689999999999</v>
       </c>
-      <c r="N61" s="17">
+      <c r="N62" s="17">
         <v>720.39199999999994</v>
       </c>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17">
+      <c r="O62" s="17"/>
+      <c r="P62" s="17">
         <v>2729.0960000000127</v>
       </c>
     </row>
-    <row r="62" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="10">
+    <row r="63" spans="2:16" hidden="1">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" s="12">
+      <c r="C63" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="12">
         <f t="shared" si="3"/>
         <v>58590.57</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E63" s="13">
         <v>31229.68</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F63" s="13">
         <v>11236.094000000001</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G63" s="13">
         <v>2744.201</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H63" s="13">
         <v>2746.701</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I63" s="13">
         <v>2540.2469999999998</v>
       </c>
-      <c r="J62" s="13">
+      <c r="J63" s="13">
         <v>612.84699999999998</v>
       </c>
-      <c r="K62" s="13">
+      <c r="K63" s="13">
         <v>1623.547</v>
       </c>
-      <c r="L62" s="13">
+      <c r="L63" s="13">
         <v>1605.3789999999999</v>
       </c>
-      <c r="M62" s="13">
+      <c r="M63" s="13">
         <v>1482.9659999999999</v>
       </c>
-      <c r="N62" s="13">
+      <c r="N63" s="13">
         <v>671.48299999999995</v>
       </c>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13">
+      <c r="O63" s="13"/>
+      <c r="P63" s="13">
         <v>2097.424999999987</v>
       </c>
     </row>
-    <row r="63" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="14">
+    <row r="64" spans="2:16" hidden="1">
+      <c r="B64" s="14">
         <v>2020</v>
       </c>
-      <c r="C63" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" s="16">
+      <c r="C64" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="16">
         <f t="shared" si="3"/>
         <v>51124.868999999999</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E64" s="17">
         <v>25419.52</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F64" s="17">
         <v>11565.216</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G64" s="17">
         <v>2651.4159999999997</v>
       </c>
-      <c r="H63" s="17">
+      <c r="H64" s="17">
         <v>2693.4929999999999</v>
       </c>
-      <c r="I63" s="17">
+      <c r="I64" s="17">
         <v>2126.7669999999998</v>
       </c>
-      <c r="J63" s="17">
+      <c r="J64" s="17">
         <v>551.59</v>
       </c>
-      <c r="K63" s="17">
+      <c r="K64" s="17">
         <v>1334.1680000000001</v>
       </c>
-      <c r="L63" s="17">
+      <c r="L64" s="17">
         <v>1156.8400000000001</v>
       </c>
-      <c r="M63" s="17">
+      <c r="M64" s="17">
         <v>1103.2260000000001</v>
       </c>
-      <c r="N63" s="17">
+      <c r="N64" s="17">
         <v>532.67700000000002</v>
       </c>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17">
+      <c r="O64" s="17"/>
+      <c r="P64" s="17">
         <v>1989.9559999999994</v>
       </c>
     </row>
-    <row r="64" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="10">
+    <row r="65" spans="2:16" hidden="1">
+      <c r="B65" s="10">
         <v>2020</v>
       </c>
-      <c r="C64" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D64" s="12">
+      <c r="C65" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="12">
         <f t="shared" si="3"/>
         <v>79368.52999999997</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E65" s="13">
         <v>42274.520000000004</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F65" s="13">
         <v>14537.343000000001</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G65" s="13">
         <v>4065.893</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H65" s="13">
         <v>3597.8379999999997</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I65" s="13">
         <v>2907.587</v>
       </c>
-      <c r="J64" s="13">
+      <c r="J65" s="13">
         <v>2248.8019999999997</v>
       </c>
-      <c r="K64" s="13">
+      <c r="K65" s="13">
         <v>1787.81</v>
       </c>
-      <c r="L64" s="13">
+      <c r="L65" s="13">
         <v>2068.8739999999998</v>
       </c>
-      <c r="M64" s="13">
+      <c r="M65" s="13">
         <v>1532.5450000000001</v>
       </c>
-      <c r="N64" s="13">
+      <c r="N65" s="13">
         <v>820.50299999999993</v>
       </c>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13">
+      <c r="O65" s="13"/>
+      <c r="P65" s="13">
         <v>3526.8149999999705</v>
       </c>
     </row>
-    <row r="65" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="14">
+    <row r="66" spans="2:16" hidden="1">
+      <c r="B66" s="14">
         <v>2020</v>
       </c>
-      <c r="C65" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D65" s="16">
+      <c r="C66" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="16">
         <f t="shared" si="3"/>
         <v>75908.510999999955</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E66" s="17">
         <v>42089.659999999996</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F66" s="17">
         <v>11466.815999999999</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G66" s="17">
         <v>3486.42</v>
       </c>
-      <c r="H65" s="17">
+      <c r="H66" s="17">
         <v>3309.0249999999996</v>
       </c>
-      <c r="I65" s="17">
+      <c r="I66" s="17">
         <v>2651.6840000000002</v>
       </c>
-      <c r="J65" s="17">
+      <c r="J66" s="17">
         <v>2759.643</v>
       </c>
-      <c r="K65" s="17">
+      <c r="K66" s="17">
         <v>1653.057</v>
       </c>
-      <c r="L65" s="17">
+      <c r="L66" s="17">
         <v>2319.8409999999999</v>
       </c>
-      <c r="M65" s="17">
+      <c r="M66" s="17">
         <v>1687.9380000000001</v>
       </c>
-      <c r="N65" s="17">
+      <c r="N66" s="17">
         <v>812.35799999999995</v>
       </c>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17">
+      <c r="O66" s="17"/>
+      <c r="P66" s="17">
         <v>3672.068999999979</v>
       </c>
     </row>
-    <row r="66" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="18">
+    <row r="67" spans="2:16" hidden="1">
+      <c r="B67" s="18">
         <v>2020</v>
       </c>
-      <c r="C66" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D66" s="20">
+      <c r="C67" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="20">
         <f t="shared" si="3"/>
         <v>80828.273000000045</v>
       </c>
-      <c r="E66" s="21">
+      <c r="E67" s="21">
         <v>43200.08</v>
       </c>
-      <c r="F66" s="21">
+      <c r="F67" s="21">
         <v>12981.727999999999</v>
       </c>
-      <c r="G66" s="21">
+      <c r="G67" s="21">
         <v>3924.5250000000001</v>
       </c>
-      <c r="H66" s="21">
+      <c r="H67" s="21">
         <v>3616.1279999999997</v>
       </c>
-      <c r="I66" s="21">
+      <c r="I67" s="21">
         <v>2992.5469999999996</v>
       </c>
-      <c r="J66" s="21">
+      <c r="J67" s="21">
         <v>3044.2960000000003</v>
       </c>
-      <c r="K66" s="21">
+      <c r="K67" s="21">
         <v>1792.2229999999997</v>
       </c>
-      <c r="L66" s="21">
+      <c r="L67" s="21">
         <v>2507.0810000000001</v>
       </c>
-      <c r="M66" s="21">
+      <c r="M67" s="21">
         <v>1937.0650000000001</v>
       </c>
-      <c r="N66" s="21">
+      <c r="N67" s="21">
         <v>862.8069999999999</v>
       </c>
-      <c r="O66" s="21"/>
-      <c r="P66" s="21">
+      <c r="O67" s="21"/>
+      <c r="P67" s="21">
         <v>3969.7930000000383</v>
       </c>
     </row>
-    <row r="67" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="22">
+    <row r="68" spans="2:16" hidden="1">
+      <c r="B68" s="22">
         <v>2019</v>
       </c>
-      <c r="C67" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D67" s="24">
+      <c r="C68" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="24">
         <f t="shared" si="3"/>
         <v>83400</v>
       </c>
-      <c r="E67" s="25">
+      <c r="E68" s="25">
         <v>48000</v>
       </c>
-      <c r="F67" s="25">
+      <c r="F68" s="25">
         <v>14500</v>
       </c>
-      <c r="G67" s="25">
+      <c r="G68" s="25">
         <v>3700</v>
       </c>
-      <c r="H67" s="25">
+      <c r="H68" s="25">
         <v>2900</v>
       </c>
-      <c r="I67" s="25">
+      <c r="I68" s="25">
         <v>3100</v>
       </c>
-      <c r="J67" s="25">
+      <c r="J68" s="25">
         <v>1900</v>
       </c>
-      <c r="K67" s="25">
+      <c r="K68" s="25">
         <v>3700</v>
       </c>
-      <c r="L67" s="25">
+      <c r="L68" s="25">
         <v>1900</v>
       </c>
-      <c r="M67" s="25">
+      <c r="M68" s="25">
         <v>2600</v>
       </c>
-      <c r="N67" s="25">
+      <c r="N68" s="25">
         <v>1100</v>
       </c>
-      <c r="O67" s="25"/>
-      <c r="P67" s="25">
+      <c r="O68" s="25"/>
+      <c r="P68" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="10">
+    <row r="69" spans="2:16" hidden="1">
+      <c r="B69" s="10">
         <v>2019</v>
       </c>
-      <c r="C68" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D68" s="12">
+      <c r="C69" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="12">
         <f t="shared" si="3"/>
         <v>83400</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E69" s="13">
         <v>46600</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F69" s="13">
         <v>14700</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G69" s="13">
         <v>4300</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H69" s="13">
         <v>3100</v>
       </c>
-      <c r="I68" s="13">
+      <c r="I69" s="13">
         <v>3100</v>
       </c>
-      <c r="J68" s="13">
+      <c r="J69" s="13">
         <v>2100</v>
       </c>
-      <c r="K68" s="13">
+      <c r="K69" s="13">
         <v>3900</v>
       </c>
-      <c r="L68" s="13">
+      <c r="L69" s="13">
         <v>1800</v>
       </c>
-      <c r="M68" s="13">
+      <c r="M69" s="13">
         <v>2800</v>
       </c>
-      <c r="N68" s="13">
+      <c r="N69" s="13">
         <v>1000</v>
       </c>
-      <c r="O68" s="13"/>
-      <c r="P68" s="13">
+      <c r="O69" s="13"/>
+      <c r="P69" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="14">
+    <row r="70" spans="2:16" hidden="1">
+      <c r="B70" s="14">
         <v>2019</v>
       </c>
-      <c r="C69" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D69" s="16">
+      <c r="C70" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="16">
         <f t="shared" si="3"/>
         <v>90200</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E70" s="17">
         <v>52200</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F70" s="17">
         <v>14900</v>
       </c>
-      <c r="G69" s="17">
+      <c r="G70" s="17">
         <v>4600</v>
       </c>
-      <c r="H69" s="17">
+      <c r="H70" s="17">
         <v>3400</v>
       </c>
-      <c r="I69" s="17">
+      <c r="I70" s="17">
         <v>2700</v>
       </c>
-      <c r="J69" s="17">
+      <c r="J70" s="17">
         <v>2200</v>
       </c>
-      <c r="K69" s="17">
+      <c r="K70" s="17">
         <v>4200</v>
       </c>
-      <c r="L69" s="17">
+      <c r="L70" s="17">
         <v>2000</v>
       </c>
-      <c r="M69" s="17">
+      <c r="M70" s="17">
         <v>3000</v>
       </c>
-      <c r="N69" s="17">
+      <c r="N70" s="17">
         <v>1000</v>
       </c>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17">
+      <c r="O70" s="17"/>
+      <c r="P70" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="10">
+    <row r="71" spans="2:16" hidden="1">
+      <c r="B71" s="10">
         <v>2019</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D70" s="12">
+      <c r="C71" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" s="12">
         <f t="shared" si="3"/>
         <v>78300</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E71" s="13">
         <v>46000</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F71" s="13">
         <v>12400</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G71" s="13">
         <v>4300</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H71" s="13">
         <v>3000</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I71" s="13">
         <v>2200</v>
       </c>
-      <c r="J70" s="13">
+      <c r="J71" s="13">
         <v>1800</v>
       </c>
-      <c r="K70" s="13">
+      <c r="K71" s="13">
         <v>3600</v>
       </c>
-      <c r="L70" s="13">
+      <c r="L71" s="13">
         <v>1700</v>
       </c>
-      <c r="M70" s="13">
+      <c r="M71" s="13">
         <v>2500</v>
       </c>
-      <c r="N70" s="13">
+      <c r="N71" s="13">
         <v>800</v>
       </c>
-      <c r="O70" s="13"/>
-      <c r="P70" s="13">
+      <c r="O71" s="13"/>
+      <c r="P71" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="14">
+    <row r="72" spans="2:16" hidden="1">
+      <c r="B72" s="14">
         <v>2019</v>
       </c>
-      <c r="C71" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="16">
+      <c r="C72" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="16">
         <f t="shared" si="3"/>
         <v>80500</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E72" s="17">
         <v>46500</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F72" s="17">
         <v>12500</v>
       </c>
-      <c r="G71" s="17">
+      <c r="G72" s="17">
         <v>4300</v>
       </c>
-      <c r="H71" s="17">
+      <c r="H72" s="17">
         <v>3400</v>
       </c>
-      <c r="I71" s="17">
+      <c r="I72" s="17">
         <v>2500</v>
       </c>
-      <c r="J71" s="17">
+      <c r="J72" s="17">
         <v>2100</v>
       </c>
-      <c r="K71" s="17">
+      <c r="K72" s="17">
         <v>4100</v>
       </c>
-      <c r="L71" s="17">
+      <c r="L72" s="17">
         <v>1800</v>
       </c>
-      <c r="M71" s="17">
+      <c r="M72" s="17">
         <v>2400</v>
       </c>
-      <c r="N71" s="17">
+      <c r="N72" s="17">
         <v>900</v>
       </c>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17">
+      <c r="O72" s="17"/>
+      <c r="P72" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="10">
+    <row r="73" spans="2:16" hidden="1">
+      <c r="B73" s="10">
         <v>2019</v>
       </c>
-      <c r="C72" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D72" s="12">
+      <c r="C73" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="12">
         <f t="shared" si="3"/>
         <v>81500</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E73" s="13">
         <v>46600</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F73" s="13">
         <v>13600</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G73" s="13">
         <v>4100</v>
       </c>
-      <c r="H72" s="13">
+      <c r="H73" s="13">
         <v>3000</v>
       </c>
-      <c r="I72" s="13">
+      <c r="I73" s="13">
         <v>2500</v>
       </c>
-      <c r="J72" s="13">
+      <c r="J73" s="13">
         <v>2000</v>
       </c>
-      <c r="K72" s="13">
+      <c r="K73" s="13">
         <v>4200</v>
       </c>
-      <c r="L72" s="13">
+      <c r="L73" s="13">
         <v>2000</v>
       </c>
-      <c r="M72" s="13">
+      <c r="M73" s="13">
         <v>2600</v>
       </c>
-      <c r="N72" s="13">
+      <c r="N73" s="13">
         <v>900</v>
       </c>
-      <c r="O72" s="13"/>
-      <c r="P72" s="13">
+      <c r="O73" s="13"/>
+      <c r="P73" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="14">
+    <row r="74" spans="2:16" hidden="1">
+      <c r="B74" s="14">
         <v>2019</v>
       </c>
-      <c r="C73" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D73" s="16">
+      <c r="C74" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="16">
         <f t="shared" si="3"/>
         <v>78600</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E74" s="17">
         <v>44200</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F74" s="17">
         <v>13300</v>
       </c>
-      <c r="G73" s="17">
+      <c r="G74" s="17">
         <v>4300</v>
       </c>
-      <c r="H73" s="17">
+      <c r="H74" s="17">
         <v>2900</v>
       </c>
-      <c r="I73" s="17">
+      <c r="I74" s="17">
         <v>2400</v>
       </c>
-      <c r="J73" s="17">
+      <c r="J74" s="17">
         <v>2000</v>
       </c>
-      <c r="K73" s="17">
+      <c r="K74" s="17">
         <v>4300</v>
       </c>
-      <c r="L73" s="17">
+      <c r="L74" s="17">
         <v>2000</v>
       </c>
-      <c r="M73" s="17">
+      <c r="M74" s="17">
         <v>2400</v>
       </c>
-      <c r="N73" s="17">
+      <c r="N74" s="17">
         <v>800</v>
       </c>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17">
+      <c r="O74" s="17"/>
+      <c r="P74" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="10">
+    <row r="75" spans="2:16" hidden="1">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D74" s="12">
+      <c r="C75" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="12">
         <f t="shared" si="3"/>
         <v>81100</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E75" s="13">
         <v>45800</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F75" s="13">
         <v>13000</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G75" s="13">
         <v>4600</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H75" s="13">
         <v>3000</v>
       </c>
-      <c r="I74" s="13">
+      <c r="I75" s="13">
         <v>2600</v>
       </c>
-      <c r="J74" s="13">
+      <c r="J75" s="13">
         <v>2100</v>
       </c>
-      <c r="K74" s="13">
+      <c r="K75" s="13">
         <v>4600</v>
       </c>
-      <c r="L74" s="13">
+      <c r="L75" s="13">
         <v>1900</v>
       </c>
-      <c r="M74" s="13">
+      <c r="M75" s="13">
         <v>2600</v>
       </c>
-      <c r="N74" s="13">
+      <c r="N75" s="13">
         <v>900</v>
       </c>
-      <c r="O74" s="13"/>
-      <c r="P74" s="13">
+      <c r="O75" s="13"/>
+      <c r="P75" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="14">
+    <row r="76" spans="2:16" hidden="1">
+      <c r="B76" s="14">
         <v>2019</v>
       </c>
-      <c r="C75" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D75" s="16">
+      <c r="C76" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="16">
         <f t="shared" si="3"/>
         <v>79300</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E76" s="17">
         <v>45200</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F76" s="17">
         <v>12800</v>
       </c>
-      <c r="G75" s="17">
+      <c r="G76" s="17">
         <v>4600</v>
       </c>
-      <c r="H75" s="17">
+      <c r="H76" s="17">
         <v>2500</v>
       </c>
-      <c r="I75" s="17">
+      <c r="I76" s="17">
         <v>2600</v>
       </c>
-      <c r="J75" s="17">
+      <c r="J76" s="17">
         <v>2100</v>
       </c>
-      <c r="K75" s="17">
+      <c r="K76" s="17">
         <v>4400</v>
       </c>
-      <c r="L75" s="17">
+      <c r="L76" s="17">
         <v>1800</v>
       </c>
-      <c r="M75" s="17">
+      <c r="M76" s="17">
         <v>2500</v>
       </c>
-      <c r="N75" s="17">
+      <c r="N76" s="17">
         <v>800</v>
       </c>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17">
+      <c r="O76" s="17"/>
+      <c r="P76" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="10">
+    <row r="77" spans="2:16" hidden="1">
+      <c r="B77" s="10">
         <v>2019</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D76" s="12">
+      <c r="C77" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="12">
         <f t="shared" si="3"/>
         <v>86500</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E77" s="13">
         <v>49900</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F77" s="13">
         <v>14500</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G77" s="13">
         <v>4300</v>
       </c>
-      <c r="H76" s="13">
+      <c r="H77" s="13">
         <v>3000</v>
       </c>
-      <c r="I76" s="13">
+      <c r="I77" s="13">
         <v>2700</v>
       </c>
-      <c r="J76" s="13">
+      <c r="J77" s="13">
         <v>2000</v>
       </c>
-      <c r="K76" s="13">
+      <c r="K77" s="13">
         <v>5000</v>
       </c>
-      <c r="L76" s="13">
+      <c r="L77" s="13">
         <v>1700</v>
       </c>
-      <c r="M76" s="13">
+      <c r="M77" s="13">
         <v>2500</v>
       </c>
-      <c r="N76" s="13">
+      <c r="N77" s="13">
         <v>900</v>
       </c>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13">
+      <c r="O77" s="13"/>
+      <c r="P77" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="14">
+    <row r="78" spans="2:16" hidden="1">
+      <c r="B78" s="14">
         <v>2019</v>
       </c>
-      <c r="C77" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D77" s="16">
+      <c r="C78" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="16">
         <f t="shared" si="3"/>
         <v>73300</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E78" s="17">
         <v>41800</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F78" s="17">
         <v>11500</v>
       </c>
-      <c r="G77" s="17">
+      <c r="G78" s="17">
         <v>4200</v>
       </c>
-      <c r="H77" s="17">
+      <c r="H78" s="17">
         <v>2600</v>
       </c>
-      <c r="I77" s="17">
+      <c r="I78" s="17">
         <v>2600</v>
       </c>
-      <c r="J77" s="17">
+      <c r="J78" s="17">
         <v>1900</v>
       </c>
-      <c r="K77" s="17">
+      <c r="K78" s="17">
         <v>4100</v>
       </c>
-      <c r="L77" s="17">
+      <c r="L78" s="17">
         <v>1600</v>
       </c>
-      <c r="M77" s="17">
+      <c r="M78" s="17">
         <v>2300</v>
       </c>
-      <c r="N77" s="17">
+      <c r="N78" s="17">
         <v>700</v>
       </c>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17">
+      <c r="O78" s="17"/>
+      <c r="P78" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="18">
+    <row r="79" spans="2:16" hidden="1">
+      <c r="B79" s="18">
         <v>2019</v>
       </c>
-      <c r="C78" s="19" t="s">
+      <c r="C79" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" s="20">
+        <f t="shared" ref="D79:D91" si="4">SUM(E79:P79)</f>
+        <v>79200</v>
+      </c>
+      <c r="E79" s="21">
+        <v>43500</v>
+      </c>
+      <c r="F79" s="21">
+        <v>13500</v>
+      </c>
+      <c r="G79" s="21">
+        <v>4800</v>
+      </c>
+      <c r="H79" s="21">
+        <v>2900</v>
+      </c>
+      <c r="I79" s="21">
+        <v>2600</v>
+      </c>
+      <c r="J79" s="21">
+        <v>1900</v>
+      </c>
+      <c r="K79" s="21">
+        <v>4500</v>
+      </c>
+      <c r="L79" s="21">
+        <v>2100</v>
+      </c>
+      <c r="M79" s="21">
+        <v>2500</v>
+      </c>
+      <c r="N79" s="21">
+        <v>900</v>
+      </c>
+      <c r="O79" s="21"/>
+      <c r="P79" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" hidden="1">
+      <c r="B80" s="15">
+        <v>2018</v>
+      </c>
+      <c r="C80" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D78" s="20">
-        <f t="shared" ref="D78:D90" si="4">SUM(E78:P78)</f>
-        <v>79200</v>
-      </c>
-      <c r="E78" s="21">
-        <v>43500</v>
-      </c>
-      <c r="F78" s="21">
-        <v>13500</v>
-      </c>
-      <c r="G78" s="21">
-        <v>4800</v>
-      </c>
-      <c r="H78" s="21">
-        <v>2900</v>
-      </c>
-      <c r="I78" s="21">
-        <v>2600</v>
-      </c>
-      <c r="J78" s="21">
-        <v>1900</v>
-      </c>
-      <c r="K78" s="21">
-        <v>4500</v>
-      </c>
-      <c r="L78" s="21">
-        <v>2100</v>
-      </c>
-      <c r="M78" s="21">
-        <v>2500</v>
-      </c>
-      <c r="N78" s="21">
-        <v>900</v>
-      </c>
-      <c r="O78" s="21"/>
-      <c r="P78" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="15">
-        <v>2018</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D79" s="16">
+      <c r="D80" s="16">
         <f t="shared" si="4"/>
         <v>85600</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E80" s="17">
         <v>48800</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F80" s="17">
         <v>14700</v>
       </c>
-      <c r="G79" s="17">
+      <c r="G80" s="17">
         <v>4500</v>
       </c>
-      <c r="H79" s="17">
+      <c r="H80" s="17">
         <v>3000</v>
       </c>
-      <c r="I79" s="17">
+      <c r="I80" s="17">
         <v>3300</v>
       </c>
-      <c r="J79" s="17">
+      <c r="J80" s="17">
         <v>1900</v>
       </c>
-      <c r="K79" s="17">
+      <c r="K80" s="17">
         <v>4000</v>
       </c>
-      <c r="L79" s="17">
+      <c r="L80" s="17">
         <v>1900</v>
       </c>
-      <c r="M79" s="17">
+      <c r="M80" s="17">
         <v>2600</v>
       </c>
-      <c r="N79" s="17">
+      <c r="N80" s="17">
         <v>900</v>
       </c>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17">
+      <c r="O80" s="17"/>
+      <c r="P80" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="11">
+    <row r="81" spans="2:16" hidden="1">
+      <c r="B81" s="11">
         <v>2018</v>
       </c>
-      <c r="C80" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D80" s="12">
+      <c r="C81" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="12">
         <f t="shared" si="4"/>
         <v>91600</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E81" s="13">
         <v>52500</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F81" s="13">
         <v>14700</v>
       </c>
-      <c r="G80" s="13">
+      <c r="G81" s="13">
         <v>5200</v>
       </c>
-      <c r="H80" s="13">
+      <c r="H81" s="13">
         <v>3400</v>
       </c>
-      <c r="I80" s="13">
+      <c r="I81" s="13">
         <v>3300</v>
       </c>
-      <c r="J80" s="13">
+      <c r="J81" s="13">
         <v>2300</v>
       </c>
-      <c r="K80" s="13">
+      <c r="K81" s="13">
         <v>4700</v>
       </c>
-      <c r="L80" s="13">
+      <c r="L81" s="13">
         <v>1800</v>
       </c>
-      <c r="M80" s="13">
+      <c r="M81" s="13">
         <v>2800</v>
       </c>
-      <c r="N80" s="13">
+      <c r="N81" s="13">
         <v>900</v>
       </c>
-      <c r="O80" s="13"/>
-      <c r="P80" s="13">
+      <c r="O81" s="13"/>
+      <c r="P81" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="15">
+    <row r="82" spans="2:16" hidden="1">
+      <c r="B82" s="15">
         <v>2018</v>
       </c>
-      <c r="C81" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D81" s="16">
+      <c r="C82" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" s="16">
         <f t="shared" si="4"/>
         <v>94100</v>
       </c>
-      <c r="E81" s="17">
+      <c r="E82" s="17">
         <v>53200</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F82" s="17">
         <v>15500</v>
       </c>
-      <c r="G81" s="17">
+      <c r="G82" s="17">
         <v>5800</v>
       </c>
-      <c r="H81" s="17">
+      <c r="H82" s="17">
         <v>3400</v>
       </c>
-      <c r="I81" s="17">
+      <c r="I82" s="17">
         <v>2800</v>
       </c>
-      <c r="J81" s="17">
+      <c r="J82" s="17">
         <v>2200</v>
       </c>
-      <c r="K81" s="17">
+      <c r="K82" s="17">
         <v>5600</v>
       </c>
-      <c r="L81" s="17">
+      <c r="L82" s="17">
         <v>1800</v>
       </c>
-      <c r="M81" s="17">
+      <c r="M82" s="17">
         <v>2900</v>
       </c>
-      <c r="N81" s="17">
+      <c r="N82" s="17">
         <v>900</v>
       </c>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17">
+      <c r="O82" s="17"/>
+      <c r="P82" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="11">
+    <row r="83" spans="2:16" hidden="1">
+      <c r="B83" s="11">
         <v>2018</v>
       </c>
-      <c r="C82" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D82" s="12">
+      <c r="C83" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D83" s="12">
         <f t="shared" si="4"/>
         <v>81400</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E83" s="13">
         <v>46600</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F83" s="13">
         <v>13200</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G83" s="13">
         <v>4800</v>
       </c>
-      <c r="H82" s="13">
+      <c r="H83" s="13">
         <v>2900</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I83" s="13">
         <v>2300</v>
       </c>
-      <c r="J82" s="13">
+      <c r="J83" s="13">
         <v>1900</v>
       </c>
-      <c r="K82" s="13">
+      <c r="K83" s="13">
         <v>5000</v>
       </c>
-      <c r="L82" s="13">
+      <c r="L83" s="13">
         <v>1500</v>
       </c>
-      <c r="M82" s="13">
+      <c r="M83" s="13">
         <v>2400</v>
       </c>
-      <c r="N82" s="13">
+      <c r="N83" s="13">
         <v>800</v>
       </c>
-      <c r="O82" s="13"/>
-      <c r="P82" s="13">
+      <c r="O83" s="13"/>
+      <c r="P83" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="15">
+    <row r="84" spans="2:16" hidden="1">
+      <c r="B84" s="15">
         <v>2018</v>
       </c>
-      <c r="C83" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="16">
+      <c r="C84" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="16">
         <f t="shared" si="4"/>
         <v>84400</v>
       </c>
-      <c r="E83" s="17">
+      <c r="E84" s="17">
         <v>48300</v>
       </c>
-      <c r="F83" s="17">
+      <c r="F84" s="17">
         <v>12600</v>
       </c>
-      <c r="G83" s="17">
+      <c r="G84" s="17">
         <v>5100</v>
       </c>
-      <c r="H83" s="17">
+      <c r="H84" s="17">
         <v>3500</v>
       </c>
-      <c r="I83" s="17">
+      <c r="I84" s="17">
         <v>2400</v>
       </c>
-      <c r="J83" s="17">
+      <c r="J84" s="17">
         <v>2100</v>
       </c>
-      <c r="K83" s="17">
+      <c r="K84" s="17">
         <v>5700</v>
       </c>
-      <c r="L83" s="17">
+      <c r="L84" s="17">
         <v>1600</v>
       </c>
-      <c r="M83" s="17">
+      <c r="M84" s="17">
         <v>2300</v>
       </c>
-      <c r="N83" s="17">
+      <c r="N84" s="17">
         <v>800</v>
       </c>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17">
+      <c r="O84" s="17"/>
+      <c r="P84" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="11">
+    <row r="85" spans="2:16" hidden="1">
+      <c r="B85" s="11">
         <v>2018</v>
       </c>
-      <c r="C84" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D84" s="12">
+      <c r="C85" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="12">
         <f t="shared" si="4"/>
         <v>82200</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E85" s="13">
         <v>49400</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F85" s="13">
         <v>12400</v>
       </c>
-      <c r="G84" s="13">
+      <c r="G85" s="13">
         <v>4200</v>
       </c>
-      <c r="H84" s="13">
+      <c r="H85" s="13">
         <v>3100</v>
       </c>
-      <c r="I84" s="13">
+      <c r="I85" s="13">
         <v>2500</v>
       </c>
-      <c r="J84" s="13">
+      <c r="J85" s="13">
         <v>1900</v>
       </c>
-      <c r="K84" s="13">
+      <c r="K85" s="13">
         <v>4100</v>
       </c>
-      <c r="L84" s="13">
+      <c r="L85" s="13">
         <v>1700</v>
       </c>
-      <c r="M84" s="13">
+      <c r="M85" s="13">
         <v>2100</v>
       </c>
-      <c r="N84" s="13">
+      <c r="N85" s="13">
         <v>800</v>
       </c>
-      <c r="O84" s="13"/>
-      <c r="P84" s="13">
+      <c r="O85" s="13"/>
+      <c r="P85" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="15">
+    <row r="86" spans="2:16" hidden="1">
+      <c r="B86" s="15">
         <v>2018</v>
       </c>
-      <c r="C85" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D85" s="16">
+      <c r="C86" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="16">
         <f t="shared" si="4"/>
         <v>86500</v>
       </c>
-      <c r="E85" s="17">
+      <c r="E86" s="17">
         <v>51000</v>
       </c>
-      <c r="F85" s="17">
+      <c r="F86" s="17">
         <v>13400</v>
       </c>
-      <c r="G85" s="17">
+      <c r="G86" s="17">
         <v>4500</v>
       </c>
-      <c r="H85" s="17">
+      <c r="H86" s="17">
         <v>3100</v>
       </c>
-      <c r="I85" s="17">
+      <c r="I86" s="17">
         <v>2600</v>
       </c>
-      <c r="J85" s="17">
+      <c r="J86" s="17">
         <v>2000</v>
       </c>
-      <c r="K85" s="17">
+      <c r="K86" s="17">
         <v>5100</v>
       </c>
-      <c r="L85" s="17">
+      <c r="L86" s="17">
         <v>1800</v>
       </c>
-      <c r="M85" s="17">
+      <c r="M86" s="17">
         <v>2100</v>
       </c>
-      <c r="N85" s="17">
+      <c r="N86" s="17">
         <v>900</v>
       </c>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17">
+      <c r="O86" s="17"/>
+      <c r="P86" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="11">
+    <row r="87" spans="2:16" hidden="1">
+      <c r="B87" s="11">
         <v>2018</v>
       </c>
-      <c r="C86" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D86" s="12">
+      <c r="C87" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="12">
         <f t="shared" si="4"/>
         <v>86200</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E87" s="13">
         <v>49700</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F87" s="13">
         <v>13600</v>
       </c>
-      <c r="G86" s="13">
+      <c r="G87" s="13">
         <v>5000</v>
       </c>
-      <c r="H86" s="13">
+      <c r="H87" s="13">
         <v>3200</v>
       </c>
-      <c r="I86" s="13">
+      <c r="I87" s="13">
         <v>2700</v>
       </c>
-      <c r="J86" s="13">
+      <c r="J87" s="13">
         <v>2300</v>
       </c>
-      <c r="K86" s="13">
+      <c r="K87" s="13">
         <v>4700</v>
       </c>
-      <c r="L86" s="13">
+      <c r="L87" s="13">
         <v>1900</v>
       </c>
-      <c r="M86" s="13">
+      <c r="M87" s="13">
         <v>2200</v>
       </c>
-      <c r="N86" s="13">
+      <c r="N87" s="13">
         <v>900</v>
       </c>
-      <c r="O86" s="13"/>
-      <c r="P86" s="13">
+      <c r="O87" s="13"/>
+      <c r="P87" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="15">
+    <row r="88" spans="2:16" hidden="1">
+      <c r="B88" s="15">
         <v>2018</v>
       </c>
-      <c r="C87" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D87" s="16">
+      <c r="C88" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" s="16">
         <f t="shared" si="4"/>
         <v>84500</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E88" s="17">
         <v>49400</v>
       </c>
-      <c r="F87" s="17">
+      <c r="F88" s="17">
         <v>13900</v>
       </c>
-      <c r="G87" s="17">
+      <c r="G88" s="17">
         <v>4500</v>
       </c>
-      <c r="H87" s="17">
+      <c r="H88" s="17">
         <v>2800</v>
       </c>
-      <c r="I87" s="17">
+      <c r="I88" s="17">
         <v>2800</v>
       </c>
-      <c r="J87" s="17">
+      <c r="J88" s="17">
         <v>1900</v>
       </c>
-      <c r="K87" s="17">
+      <c r="K88" s="17">
         <v>4600</v>
       </c>
-      <c r="L87" s="17">
+      <c r="L88" s="17">
         <v>1700</v>
       </c>
-      <c r="M87" s="17">
+      <c r="M88" s="17">
         <v>2000</v>
       </c>
-      <c r="N87" s="17">
+      <c r="N88" s="17">
         <v>900</v>
       </c>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17">
+      <c r="O88" s="17"/>
+      <c r="P88" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="11">
+    <row r="89" spans="2:16" hidden="1">
+      <c r="B89" s="11">
         <v>2018</v>
       </c>
-      <c r="C88" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D88" s="12">
+      <c r="C89" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="12">
         <f t="shared" si="4"/>
         <v>81600</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E89" s="13">
         <v>46000</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F89" s="13">
         <v>16000</v>
       </c>
-      <c r="G88" s="13">
+      <c r="G89" s="13">
         <v>4400</v>
       </c>
-      <c r="H88" s="13">
+      <c r="H89" s="13">
         <v>2900</v>
       </c>
-      <c r="I88" s="13">
+      <c r="I89" s="13">
         <v>2800</v>
       </c>
-      <c r="J88" s="13">
+      <c r="J89" s="13">
         <v>1800</v>
       </c>
-      <c r="K88" s="13">
+      <c r="K89" s="13">
         <v>3500</v>
       </c>
-      <c r="L88" s="13">
+      <c r="L89" s="13">
         <v>1400</v>
       </c>
-      <c r="M88" s="13">
+      <c r="M89" s="13">
         <v>2000</v>
       </c>
-      <c r="N88" s="13">
+      <c r="N89" s="13">
         <v>800</v>
       </c>
-      <c r="O88" s="13"/>
-      <c r="P88" s="13">
+      <c r="O89" s="13"/>
+      <c r="P89" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="15">
+    <row r="90" spans="2:16" hidden="1">
+      <c r="B90" s="15">
         <v>2018</v>
       </c>
-      <c r="C89" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D89" s="16">
+      <c r="C90" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" s="16">
         <f t="shared" si="4"/>
         <v>74900</v>
       </c>
-      <c r="E89" s="17">
+      <c r="E90" s="17">
         <v>44100</v>
       </c>
-      <c r="F89" s="17">
+      <c r="F90" s="17">
         <v>12100</v>
       </c>
-      <c r="G89" s="17">
+      <c r="G90" s="17">
         <v>4100</v>
       </c>
-      <c r="H89" s="17">
+      <c r="H90" s="17">
         <v>2700</v>
       </c>
-      <c r="I89" s="17">
+      <c r="I90" s="17">
         <v>2700</v>
       </c>
-      <c r="J89" s="17">
+      <c r="J90" s="17">
         <v>2100</v>
       </c>
-      <c r="K89" s="17">
+      <c r="K90" s="17">
         <v>3000</v>
       </c>
-      <c r="L89" s="17">
+      <c r="L90" s="17">
         <v>1500</v>
       </c>
-      <c r="M89" s="17">
+      <c r="M90" s="17">
         <v>1900</v>
       </c>
-      <c r="N89" s="17">
+      <c r="N90" s="17">
         <v>700</v>
       </c>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17">
+      <c r="O90" s="17"/>
+      <c r="P90" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:16" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="11">
+    <row r="91" spans="2:16" hidden="1">
+      <c r="B91" s="11">
         <v>2018</v>
       </c>
-      <c r="C90" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D90" s="12">
+      <c r="C91" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" s="12">
         <f t="shared" si="4"/>
         <v>74300</v>
       </c>
-      <c r="E90" s="13">
+      <c r="E91" s="13">
         <v>42800</v>
       </c>
-      <c r="F90" s="13">
+      <c r="F91" s="13">
         <v>12000</v>
       </c>
-      <c r="G90" s="13">
+      <c r="G91" s="13">
         <v>4100</v>
       </c>
-      <c r="H90" s="13">
+      <c r="H91" s="13">
         <v>2500</v>
       </c>
-      <c r="I90" s="13">
+      <c r="I91" s="13">
         <v>2600</v>
       </c>
-      <c r="J90" s="13">
+      <c r="J91" s="13">
         <v>2300</v>
       </c>
-      <c r="K90" s="13">
+      <c r="K91" s="13">
         <v>3300</v>
       </c>
-      <c r="L90" s="13">
+      <c r="L91" s="13">
         <v>2000</v>
       </c>
-      <c r="M90" s="13">
+      <c r="M91" s="13">
         <v>1900</v>
       </c>
-      <c r="N90" s="13">
+      <c r="N91" s="13">
         <v>800</v>
       </c>
-      <c r="O90" s="13"/>
-      <c r="P90" s="13">
+      <c r="O91" s="13"/>
+      <c r="P91" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B91" s="26" t="s">
+    <row r="92" spans="2:16">
+      <c r="B92" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" s="26"/>
+    </row>
+    <row r="93" spans="2:16">
+      <c r="B93" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="27"/>
+      <c r="P93" s="28"/>
+    </row>
+    <row r="94" spans="2:16">
+      <c r="B94" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C91" s="26"/>
-    </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B92" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" s="27"/>
-      <c r="P92" s="28"/>
-    </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B93" s="27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B94" s="3" t="s">
+    </row>
+    <row r="95" spans="2:16">
+      <c r="B95" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D100" s="26"/>
+    <row r="101" spans="4:16">
+      <c r="D101" s="26"/>
+    </row>
+    <row r="111" spans="4:16">
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+    </row>
+    <row r="112" spans="4:16">
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+    </row>
+    <row r="113" spans="6:16">
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+    </row>
+    <row r="114" spans="6:16">
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+    </row>
+    <row r="115" spans="6:16">
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+    </row>
+    <row r="116" spans="6:16">
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+    </row>
+    <row r="117" spans="6:16">
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+    </row>
+    <row r="118" spans="6:16">
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+    </row>
+    <row r="119" spans="6:16">
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+    </row>
+    <row r="120" spans="6:16">
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+    </row>
+    <row r="121" spans="6:16">
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
+      <c r="P121" s="2"/>
+    </row>
+    <row r="122" spans="6:16">
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
+      <c r="P122" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/P_aeropuertos_carga.xlsx
+++ b/P_aeropuertos_carga.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3366F2-3CE3-4130-9245-010319BBB21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952CC810-0A89-458A-A96D-02100571E1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_37" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="34">
   <si>
     <t>Total</t>
   </si>
@@ -134,10 +134,10 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Febrero 2025.</t>
+    <t xml:space="preserve">  El aeropuerto Felipe Ángeles, Inició operaciones el 21 de marzo de 2022.</t>
   </si>
   <si>
-    <t xml:space="preserve">  El aeropuerto Felipe Ángeles, Inició operaciones el 21 de marzo de 2022.</t>
+    <t>Actualización: Marzo 2025.</t>
   </si>
 </sst>
 </file>
@@ -697,8 +697,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:P91" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
-  <autoFilter ref="B5:P91" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:P92" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
+  <autoFilter ref="B5:P92" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -952,7 +952,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:P122"/>
+  <dimension ref="B2:P123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1059,4049 +1059,4084 @@
       </c>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="14">
+      <c r="B6" s="10">
         <v>2025</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="12">
+        <f>SUM(E6:P6)</f>
+        <v>104081.79550000002</v>
+      </c>
+      <c r="E6" s="13">
+        <v>22582</v>
+      </c>
+      <c r="F6" s="13">
+        <v>14543.918000000001</v>
+      </c>
+      <c r="G6" s="13">
+        <v>6624.4359999999997</v>
+      </c>
+      <c r="H6" s="13">
+        <v>7070.3890000000001</v>
+      </c>
+      <c r="I6" s="13">
+        <v>2837.4380000000001</v>
+      </c>
+      <c r="J6" s="13">
+        <v>4035.1100000000006</v>
+      </c>
+      <c r="K6" s="13">
+        <v>1969.5269999999998</v>
+      </c>
+      <c r="L6" s="13">
+        <v>2985.9570000000003</v>
+      </c>
+      <c r="M6" s="13">
+        <v>1984.1370000000002</v>
+      </c>
+      <c r="N6" s="13">
+        <v>1609.2139999999999</v>
+      </c>
+      <c r="O6" s="13">
+        <v>33154.97</v>
+      </c>
+      <c r="P6" s="13">
+        <v>4684.6995000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="14">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="16">
-        <f>SUM(E6:P6)</f>
-        <v>86641.775010000041</v>
-      </c>
-      <c r="E6" s="17">
+      <c r="D7" s="16">
+        <f>SUM(E7:P7)</f>
+        <v>86641.77502000003</v>
+      </c>
+      <c r="E7" s="17">
         <v>19575.670000000002</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F7" s="17">
         <v>11798.751</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G7" s="17">
         <v>5379.473</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H7" s="17">
         <v>4961.049</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I7" s="17">
         <v>2432.8789999999999</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J7" s="17">
         <v>3241.0389999999998</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K7" s="17">
         <v>1841.1139999999998</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L7" s="17">
         <v>2859.4220000000005</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M7" s="17">
         <v>1847.1349999999998</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N7" s="17">
         <v>1648.6580000000001</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O7" s="17">
         <v>26628.777010000002</v>
       </c>
-      <c r="P6" s="17">
-        <v>4427.8080000000273</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16">
-      <c r="B7" s="18">
+      <c r="P7" s="17">
+        <v>4427.8080100000279</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="18">
         <v>2025</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="20">
-        <f>SUM(E7:P7)</f>
+      <c r="D8" s="20">
+        <f>SUM(E8:P8)</f>
         <v>91555.306729999982</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E8" s="21">
         <v>19159.400000000001</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F8" s="21">
         <v>13714.98</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G8" s="21">
         <v>5611.4270000000006</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H8" s="21">
         <v>6455.491</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I8" s="21">
         <v>2783.7079999999996</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J8" s="21">
         <v>2789.2219999999998</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K8" s="21">
         <v>2082.837</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L8" s="21">
         <v>2958.125</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M8" s="21">
         <v>2088.444</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N8" s="21">
         <v>1595.182</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O8" s="21">
         <v>27764.467000000001</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P8" s="21">
         <v>4552.0237299999771</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="14">
+    <row r="9" spans="2:16">
+      <c r="B9" s="14">
         <v>2024</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="16">
-        <f>SUM(E8:P8)</f>
+      <c r="D9" s="16">
+        <f>SUM(E9:P9)</f>
         <v>103547.94350000002</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E9" s="17">
         <v>22084.1</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F9" s="17">
         <v>13788.543999999998</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G9" s="17">
         <v>6101.1239999999998</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H9" s="17">
         <v>6605.4089999999997</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I9" s="17">
         <v>2916.9539999999997</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J9" s="17">
         <v>3692.6709999999998</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K9" s="17">
         <v>2180.1759999999999</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L9" s="17">
         <v>3298.9829999999997</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M9" s="17">
         <v>2405.654</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N9" s="17">
         <v>1379.29</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O9" s="17">
         <v>34117.491999999998</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P9" s="17">
         <v>4977.5465000000313</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="10">
+    <row r="10" spans="2:16">
+      <c r="B10" s="10">
         <v>2024</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="12">
-        <f>SUM(E9:P9)</f>
+      <c r="D10" s="12">
+        <f>SUM(E10:P10)</f>
         <v>108489.79521000001</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E10" s="13">
         <v>20513.3</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F10" s="13">
         <v>14292.029000000002</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G10" s="13">
         <v>6952.0010000000002</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H10" s="13">
         <v>7027.32</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I10" s="13">
         <v>3190.241</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J10" s="13">
         <v>3783.056</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K10" s="13">
         <v>2546.4230000000002</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L10" s="13">
         <v>3625.6490000000003</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M10" s="13">
         <v>2301.3359999999998</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N10" s="13">
         <v>1566.8050000000001</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O10" s="13">
         <v>37606.786999999997</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P10" s="13">
         <v>5084.8482100000183</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="14">
+    <row r="11" spans="2:16">
+      <c r="B11" s="14">
         <v>2024</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="16">
-        <f t="shared" ref="D10" si="0">SUM(E10:P10)</f>
+      <c r="D11" s="16">
+        <f t="shared" ref="D11" si="0">SUM(E11:P11)</f>
         <v>112101.83326999999</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E11" s="17">
         <v>21954.2</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F11" s="17">
         <v>15035.019</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G11" s="17">
         <v>7434.2699999999995</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H11" s="17">
         <v>7376.1170000000002</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I11" s="17">
         <v>3603.3429999999998</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J11" s="17">
         <v>2668.8590000000004</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K11" s="17">
         <v>2486.047</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L11" s="17">
         <v>3482.5789999999997</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M11" s="17">
         <v>2059.6219999999998</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N11" s="17">
         <v>1836.462</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O11" s="17">
         <v>38827.07</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P11" s="17">
         <v>5338.2452699999949</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="10">
+    <row r="12" spans="2:16">
+      <c r="B12" s="10">
         <v>2024</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="12">
-        <f>SUM(E11:P11)</f>
+      <c r="D12" s="12">
+        <f>SUM(E12:P12)</f>
         <v>102256.34403999997</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E12" s="13">
         <v>19983</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F12" s="13">
         <v>15121.885</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G12" s="13">
         <v>6653.17</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H12" s="13">
         <v>6096.0540000000001</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I12" s="13">
         <v>3038.8139999999999</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J12" s="13">
         <v>2226.7169999999996</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K12" s="13">
         <v>2083.5909999999999</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L12" s="13">
         <v>2940.2349999999997</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M12" s="13">
         <v>2121.4749999999999</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N12" s="13">
         <v>1691.9869999999999</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O12" s="13">
         <v>35995.97</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P12" s="13">
         <v>4303.4460399999825</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="14">
+    <row r="13" spans="2:16">
+      <c r="B13" s="14">
         <v>2024</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="16">
-        <f>SUM(E12:P12)</f>
+      <c r="D13" s="16">
+        <f>SUM(E13:P13)</f>
         <v>108823.69917000002</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E13" s="17">
         <v>20229.3</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F13" s="17">
         <v>15421.421999999999</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G13" s="17">
         <v>6900.85</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H13" s="17">
         <v>6494.0969999999998</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I13" s="17">
         <v>3427.1890000000003</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J13" s="17">
         <v>2725.0420000000004</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K13" s="17">
         <v>2321.3049999999998</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L13" s="17">
         <v>3155.9950000000003</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M13" s="17">
         <v>2335.154</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N13" s="17">
         <v>1623.2050000000002</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O13" s="17">
         <v>39174.343999999997</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P13" s="17">
         <v>5015.7961700000369</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="10">
+    <row r="14" spans="2:16">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="12">
-        <f t="shared" ref="D13:D15" si="1">SUM(E13:P13)</f>
+      <c r="D14" s="12">
+        <f t="shared" ref="D14:D16" si="1">SUM(E14:P14)</f>
         <v>107882.74128000005</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E14" s="13">
         <v>19500.699999999997</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F14" s="13">
         <v>15606.789000000001</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G14" s="13">
         <v>7406.7370000000001</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H14" s="13">
         <v>6133.4809999999998</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I14" s="13">
         <v>3408.8180000000002</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J14" s="13">
         <v>2590.2110000000002</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K14" s="13">
         <v>2370.0729999999999</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L14" s="13">
         <v>3036.741</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M14" s="13">
         <v>2203.3470000000002</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N14" s="13">
         <v>1958.9659999999999</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O14" s="13">
         <v>38531.585999999996</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P14" s="13">
         <v>5135.2922800000515</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
-      <c r="B14" s="14">
+    <row r="15" spans="2:16">
+      <c r="B15" s="14">
         <v>2024</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D15" s="16">
         <f t="shared" si="1"/>
         <v>106952.98336000003</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E15" s="17">
         <v>19499.3</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F15" s="17">
         <v>14724.419</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G15" s="17">
         <v>7318.848</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H15" s="17">
         <v>6428.241</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I15" s="17">
         <v>3309.4189999999999</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J15" s="17">
         <v>2399.3510000000001</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K15" s="17">
         <v>2148.4209999999998</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L15" s="17">
         <v>3308.527</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M15" s="17">
         <v>2070.7939999999999</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N15" s="17">
         <v>1689.7920000000001</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O15" s="17">
         <v>39593.667999999998</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P15" s="17">
         <v>4462.203360000025</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="10">
+    <row r="16" spans="2:16">
+      <c r="B16" s="10">
         <v>2024</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D16" s="12">
         <f t="shared" si="1"/>
         <v>110411.98745000002</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E16" s="13">
         <v>20062</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>15321.734</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G16" s="13">
         <v>6843.5949999999993</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H16" s="13">
         <v>6818.1309999999994</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I16" s="13">
         <v>3632.4749999999995</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J16" s="13">
         <v>2865.9740000000002</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K16" s="13">
         <v>2297.306</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L16" s="13">
         <v>3244.5340000000001</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M16" s="13">
         <v>2175.2600000000002</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N16" s="13">
         <v>1778.4730000000002</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O16" s="13">
         <v>40133.834000000003</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P16" s="13">
         <v>5238.6714500000198</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="14">
+    <row r="17" spans="2:16">
+      <c r="B17" s="14">
         <v>2024</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="16">
-        <f t="shared" ref="D16:D46" si="2">SUM(E16:P16)</f>
+      <c r="D17" s="16">
+        <f t="shared" ref="D17:D47" si="2">SUM(E17:P17)</f>
         <v>105215.16596</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E17" s="17">
         <v>18973.3</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F17" s="17">
         <v>13665.344000000001</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G17" s="17">
         <v>6313.32</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H17" s="17">
         <v>6639.4679999999998</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I17" s="17">
         <v>3421.6190000000001</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J17" s="17">
         <v>3106.3360000000002</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K17" s="17">
         <v>2364.4089999999997</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L17" s="17">
         <v>3512.4059999999999</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M17" s="17">
         <v>2156.3200000000002</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N17" s="17">
         <v>1665.7180000000001</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O17" s="17">
         <v>38502.94</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P17" s="17">
         <v>4893.9859599999945</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="10">
+    <row r="18" spans="2:16">
+      <c r="B18" s="10">
         <v>2024</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D18" s="12">
         <f t="shared" si="2"/>
         <v>104014.85637999998</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E18" s="13">
         <v>19802.7</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F18" s="13">
         <v>14556.685000000001</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G18" s="13">
         <v>5905.6409999999996</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H18" s="13">
         <v>5567.2889999999998</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I18" s="13">
         <v>3144.7429999999999</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J18" s="13">
         <v>3762.2560000000003</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K18" s="13">
         <v>2058.4110000000001</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L18" s="13">
         <v>2935.8180000000002</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M18" s="13">
         <v>1921.692</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N18" s="13">
         <v>1570.1889999999996</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O18" s="13">
         <v>38209.173000000003</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P18" s="13">
         <v>4580.2593799999795</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="14">
+    <row r="19" spans="2:16">
+      <c r="B19" s="14">
         <v>2024</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D19" s="16">
         <f t="shared" si="2"/>
         <v>96832.621000000028</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E19" s="17">
         <v>19063.57</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F19" s="17">
         <v>12825.287</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G19" s="17">
         <v>5709.5619999999999</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H19" s="17">
         <v>6237.3979999999992</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I19" s="17">
         <v>3026.2809999999999</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J19" s="17">
         <v>3371.2139999999999</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K19" s="17">
         <v>2375.6289999999999</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L19" s="17">
         <v>3173.3670000000002</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M19" s="17">
         <v>2052.38</v>
       </c>
-      <c r="N18" s="17">
+      <c r="N19" s="17">
         <v>1593.547</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O19" s="17">
         <v>32860.998999999996</v>
       </c>
-      <c r="P18" s="17">
+      <c r="P19" s="17">
         <v>4543.3870000000315</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
-      <c r="B19" s="18">
+    <row r="20" spans="2:16">
+      <c r="B20" s="18">
         <v>2024</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C20" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D20" s="20">
         <f t="shared" si="2"/>
         <v>97330.675600000075</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E20" s="21">
         <v>18369.400000000001</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F20" s="21">
         <v>13351.472999999998</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G20" s="21">
         <v>5884.6970000000001</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H20" s="21">
         <v>5967.9220000000005</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I20" s="21">
         <v>2989.357</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J20" s="21">
         <v>2973.8410000000003</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K20" s="21">
         <v>2268.6259999999997</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L20" s="21">
         <v>2854.8959999999997</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M20" s="21">
         <v>2397.5709999999999</v>
       </c>
-      <c r="N19" s="21">
+      <c r="N20" s="21">
         <v>1825.489</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O20" s="21">
         <v>33787.300999999999</v>
       </c>
-      <c r="P19" s="21">
+      <c r="P20" s="21">
         <v>4660.1026000000729</v>
       </c>
     </row>
-    <row r="20" spans="2:16" hidden="1">
-      <c r="B20" s="22">
+    <row r="21" spans="2:16" hidden="1">
+      <c r="B21" s="22">
         <v>2023</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C21" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D21" s="24">
         <f t="shared" si="2"/>
         <v>104426.30729999999</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E21" s="25">
         <v>20566.599999999999</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F21" s="25">
         <v>13313.805</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G21" s="25">
         <v>5779.5439999999999</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H21" s="25">
         <v>6634.8190000000004</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I21" s="25">
         <v>3186.3519999999999</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J21" s="25">
         <v>3890.0010000000002</v>
       </c>
-      <c r="K20" s="25">
+      <c r="K21" s="25">
         <v>2228.2650000000003</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L21" s="25">
         <v>3022.0309999999999</v>
       </c>
-      <c r="M20" s="25">
+      <c r="M21" s="25">
         <v>2482.5659999999998</v>
       </c>
-      <c r="N20" s="25">
+      <c r="N21" s="25">
         <v>1573.3980000000001</v>
       </c>
-      <c r="O20" s="25">
+      <c r="O21" s="25">
         <v>36496.25</v>
       </c>
-      <c r="P20" s="25">
+      <c r="P21" s="25">
         <v>5252.6762999999974</v>
       </c>
     </row>
-    <row r="21" spans="2:16" hidden="1">
-      <c r="B21" s="10">
+    <row r="22" spans="2:16" hidden="1">
+      <c r="B22" s="10">
         <v>2023</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D22" s="12">
         <f t="shared" si="2"/>
         <v>105823.25400000002</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E22" s="13">
         <v>20520.5</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="13">
         <v>14126.735000000001</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G22" s="13">
         <v>6122.6710000000003</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H22" s="13">
         <v>6195.4279999999999</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I22" s="13">
         <v>3286.1129999999998</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J22" s="13">
         <v>3463.6080000000002</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K22" s="13">
         <v>2592.8070000000002</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L22" s="13">
         <v>3439.2550000000001</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M22" s="13">
         <v>2391.259</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N22" s="13">
         <v>1992.0079999999998</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O22" s="13">
         <v>36256.74</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P22" s="13">
         <v>5436.1300000000128</v>
       </c>
     </row>
-    <row r="22" spans="2:16" hidden="1">
-      <c r="B22" s="14">
+    <row r="23" spans="2:16" hidden="1">
+      <c r="B23" s="14">
         <v>2023</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D23" s="16">
         <f t="shared" si="2"/>
         <v>107132.1866</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E23" s="17">
         <v>20291</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F23" s="17">
         <v>14588.228999999999</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G23" s="17">
         <v>6563.4580000000005</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H23" s="17">
         <v>6490.5720000000001</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I23" s="17">
         <v>3206.3980000000001</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J23" s="17">
         <v>2918.2420000000002</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K23" s="17">
         <v>2583.0619999999999</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L23" s="17">
         <v>3007.05</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M23" s="17">
         <v>2285.1779999999999</v>
       </c>
-      <c r="N22" s="17">
+      <c r="N23" s="17">
         <v>2296.12</v>
       </c>
-      <c r="O22" s="17">
+      <c r="O23" s="17">
         <v>37567.615000000005</v>
       </c>
-      <c r="P22" s="17">
+      <c r="P23" s="17">
         <v>5335.2626000000073</v>
       </c>
     </row>
-    <row r="23" spans="2:16" hidden="1">
-      <c r="B23" s="10">
+    <row r="24" spans="2:16" hidden="1">
+      <c r="B24" s="10">
         <v>2023</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D24" s="12">
         <f t="shared" si="2"/>
         <v>96344.621599999969</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E24" s="13">
         <v>18890.84</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F24" s="13">
         <v>11939.238000000001</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G24" s="13">
         <v>6448.41</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H24" s="13">
         <v>6941.482</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I24" s="13">
         <v>2997.1009999999997</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J24" s="13">
         <v>2820.8690000000001</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K24" s="13">
         <v>2392.9459999999999</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L24" s="13">
         <v>2689.5440000000003</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M24" s="13">
         <v>2237.8310000000001</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N24" s="13">
         <v>1937.12</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O24" s="13">
         <v>32211.534999999996</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P24" s="13">
         <v>4837.7055999999784</v>
       </c>
     </row>
-    <row r="24" spans="2:16" hidden="1">
-      <c r="B24" s="14">
+    <row r="25" spans="2:16" hidden="1">
+      <c r="B25" s="14">
         <v>2023</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C25" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D25" s="16">
         <f t="shared" si="2"/>
         <v>101340.06099999999</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E25" s="17">
         <v>30758.92</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F25" s="17">
         <v>12635.058999999999</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G25" s="17">
         <v>6735.0630000000001</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H25" s="17">
         <v>7071.5340000000006</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I25" s="17">
         <v>3260.134</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J25" s="17">
         <v>2927.556</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K25" s="17">
         <v>2738.0719999999997</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L25" s="17">
         <v>3079.3420000000001</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M25" s="17">
         <v>2242.9470000000001</v>
       </c>
-      <c r="N24" s="17">
+      <c r="N25" s="17">
         <v>2212.1790000000001</v>
       </c>
-      <c r="O24" s="17">
+      <c r="O25" s="17">
         <v>22653.131999999998</v>
       </c>
-      <c r="P24" s="17">
+      <c r="P25" s="17">
         <v>5026.1229999999987</v>
       </c>
     </row>
-    <row r="25" spans="2:16" hidden="1">
-      <c r="B25" s="10">
+    <row r="26" spans="2:16" hidden="1">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D26" s="12">
         <f t="shared" si="2"/>
         <v>99893.349999999977</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E26" s="13">
         <v>42255.99</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="13">
         <v>13795.428</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G26" s="13">
         <v>6453.2659999999996</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H26" s="13">
         <v>6305.5460000000003</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I26" s="13">
         <v>2850.3670000000002</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J26" s="13">
         <v>2992.5640000000003</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K26" s="13">
         <v>2184.107</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L26" s="13">
         <v>3001.3330000000001</v>
       </c>
-      <c r="M25" s="13">
+      <c r="M26" s="13">
         <v>2136.636</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N26" s="13">
         <v>1665.6389999999999</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O26" s="13">
         <v>12061.946</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P26" s="13">
         <v>4190.5279999999912</v>
       </c>
     </row>
-    <row r="26" spans="2:16" hidden="1">
-      <c r="B26" s="14">
+    <row r="27" spans="2:16" hidden="1">
+      <c r="B27" s="14">
         <v>2023</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C27" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D27" s="16">
         <f t="shared" si="2"/>
         <v>100692.46</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E27" s="17">
         <v>48959.360000000001</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F27" s="17">
         <v>14347.388000000001</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G27" s="17">
         <v>6967.08</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H27" s="17">
         <v>7548.9220000000005</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I27" s="17">
         <v>3319.7</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J27" s="17">
         <v>2985.5720000000001</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K27" s="17">
         <v>2751.5749999999998</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L27" s="17">
         <v>2986.2660000000001</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M27" s="17">
         <v>2130.835</v>
       </c>
-      <c r="N26" s="17">
+      <c r="N27" s="17">
         <v>1363.424</v>
       </c>
-      <c r="O26" s="17">
+      <c r="O27" s="17">
         <v>2657.15</v>
       </c>
-      <c r="P26" s="17">
+      <c r="P27" s="17">
         <v>4675.1880000000074</v>
       </c>
     </row>
-    <row r="27" spans="2:16" hidden="1">
-      <c r="B27" s="10">
+    <row r="28" spans="2:16" hidden="1">
+      <c r="B28" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D28" s="12">
         <f t="shared" si="2"/>
         <v>98181.257999999987</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="13">
         <v>50235.43</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="13">
         <v>13240.904999999999</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G28" s="13">
         <v>6447.4090000000006</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H28" s="13">
         <v>6818.1289999999999</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I28" s="13">
         <v>3168.0129999999999</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J28" s="13">
         <v>3032.7219999999998</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K28" s="13">
         <v>2419.5279999999998</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L28" s="13">
         <v>3039.0519999999997</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M28" s="13">
         <v>2077.337</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N28" s="13">
         <v>1145.9829999999999</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O28" s="13">
         <v>2054.748</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P28" s="13">
         <v>4502.0019999999795</v>
       </c>
     </row>
-    <row r="28" spans="2:16" hidden="1">
-      <c r="B28" s="14">
+    <row r="29" spans="2:16" hidden="1">
+      <c r="B29" s="14">
         <v>2023</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D29" s="16">
         <f t="shared" si="2"/>
         <v>92574.85</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E29" s="17">
         <v>47367.56</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F29" s="17">
         <v>13553.766</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G29" s="17">
         <v>6046.3230000000003</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H29" s="17">
         <v>5997.2860000000001</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I29" s="17">
         <v>2823</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J29" s="17">
         <v>3201.482</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K29" s="17">
         <v>2103.346</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L29" s="17">
         <v>2699.6509999999998</v>
       </c>
-      <c r="M28" s="17">
+      <c r="M29" s="17">
         <v>1830.1030000000001</v>
       </c>
-      <c r="N28" s="17">
+      <c r="N29" s="17">
         <v>966.625</v>
       </c>
-      <c r="O28" s="17">
+      <c r="O29" s="17">
         <v>1973.069</v>
       </c>
-      <c r="P28" s="17">
+      <c r="P29" s="17">
         <v>4012.6390000000029</v>
       </c>
     </row>
-    <row r="29" spans="2:16" hidden="1">
-      <c r="B29" s="10">
+    <row r="30" spans="2:16" hidden="1">
+      <c r="B30" s="10">
         <v>2023</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D30" s="12">
         <f t="shared" si="2"/>
         <v>105745.56200000001</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E30" s="13">
         <v>52276.67</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F30" s="13">
         <v>16535.007000000001</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G30" s="13">
         <v>6440.4480000000003</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H30" s="13">
         <v>7445.0419999999995</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I30" s="13">
         <v>3504.6480000000001</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J30" s="13">
         <v>3949.8199999999997</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K30" s="13">
         <v>2498.7659999999996</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L30" s="13">
         <v>3061.4049999999997</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M30" s="13">
         <v>2069.788</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N30" s="13">
         <v>1219.9379999999999</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O30" s="13">
         <v>1776.1070000000002</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P30" s="13">
         <v>4967.9229999999952</v>
       </c>
     </row>
-    <row r="30" spans="2:16" hidden="1">
-      <c r="B30" s="14">
+    <row r="31" spans="2:16" hidden="1">
+      <c r="B31" s="14">
         <v>2023</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C31" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D31" s="16">
         <f t="shared" si="2"/>
         <v>92062.197000000015</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E31" s="17">
         <v>48557.700000000004</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F31" s="17">
         <v>12859.111000000001</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G31" s="17">
         <v>5657.7039999999997</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H31" s="17">
         <v>6269.88</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I31" s="17">
         <v>2992.4319999999998</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J31" s="17">
         <v>3589.6260000000002</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K31" s="17">
         <v>2018.2800000000002</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L31" s="17">
         <v>2591.8669999999997</v>
       </c>
-      <c r="M30" s="17">
+      <c r="M31" s="17">
         <v>1971.3010000000002</v>
       </c>
-      <c r="N30" s="17">
+      <c r="N31" s="17">
         <v>967.20100000000002</v>
       </c>
-      <c r="O30" s="17">
+      <c r="O31" s="17">
         <v>24.785999999999998</v>
       </c>
-      <c r="P30" s="17">
+      <c r="P31" s="17">
         <v>4562.3090000000093</v>
       </c>
     </row>
-    <row r="31" spans="2:16" hidden="1">
-      <c r="B31" s="18">
+    <row r="32" spans="2:16" hidden="1">
+      <c r="B32" s="18">
         <v>2023</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C32" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D32" s="20">
         <f t="shared" si="2"/>
         <v>91861.286999999982</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E32" s="21">
         <v>47206.720000000001</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F32" s="21">
         <v>14071.760999999999</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G32" s="21">
         <v>5308.5119999999997</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H32" s="21">
         <v>6105.5779999999995</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I32" s="21">
         <v>3099.4949999999999</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J32" s="21">
         <v>3049.6080000000002</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K32" s="21">
         <v>2226.4519999999998</v>
       </c>
-      <c r="L31" s="21">
+      <c r="L32" s="21">
         <v>2648.1549999999997</v>
       </c>
-      <c r="M31" s="21">
+      <c r="M32" s="21">
         <v>2170.7359999999999</v>
       </c>
-      <c r="N31" s="21">
+      <c r="N32" s="21">
         <v>1026.6849999999999</v>
       </c>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21">
+      <c r="O32" s="21"/>
+      <c r="P32" s="21">
         <v>4947.5849999999755</v>
       </c>
     </row>
-    <row r="32" spans="2:16" hidden="1">
-      <c r="B32" s="22">
+    <row r="33" spans="2:16" hidden="1">
+      <c r="B33" s="22">
         <v>2022</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C33" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D33" s="24">
         <f t="shared" si="2"/>
         <v>101065.27699999994</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E33" s="25">
         <v>51995.01</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F33" s="25">
         <v>14753.401000000002</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G33" s="25">
         <v>6074.482</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H33" s="25">
         <v>6693.6720000000005</v>
       </c>
-      <c r="I32" s="25">
+      <c r="I33" s="25">
         <v>3610.9369999999999</v>
       </c>
-      <c r="J32" s="25">
+      <c r="J33" s="25">
         <v>3543.056</v>
       </c>
-      <c r="K32" s="25">
+      <c r="K33" s="25">
         <v>2529.5419999999999</v>
       </c>
-      <c r="L32" s="25">
+      <c r="L33" s="25">
         <v>3120.09</v>
       </c>
-      <c r="M32" s="25">
+      <c r="M33" s="25">
         <v>2114.6820000000002</v>
       </c>
-      <c r="N32" s="25">
+      <c r="N33" s="25">
         <v>1202.202</v>
       </c>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25">
+      <c r="O33" s="25"/>
+      <c r="P33" s="25">
         <v>5428.2029999999249</v>
       </c>
     </row>
-    <row r="33" spans="2:16" hidden="1">
-      <c r="B33" s="10">
+    <row r="34" spans="2:16" hidden="1">
+      <c r="B34" s="10">
         <v>2022</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D34" s="12">
         <f t="shared" si="2"/>
         <v>100761.743</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E34" s="13">
         <v>52228.090000000004</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F34" s="13">
         <v>14611.128000000001</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G34" s="13">
         <v>6314.7170000000006</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H34" s="13">
         <v>6174.5390000000007</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I34" s="13">
         <v>3744.3739999999998</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J34" s="13">
         <v>3438.8589999999999</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K34" s="13">
         <v>2565.1889999999999</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L34" s="13">
         <v>3357.0519999999997</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M34" s="13">
         <v>2200.0079999999998</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N34" s="13">
         <v>1152.1139999999998</v>
       </c>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13">
+      <c r="O34" s="13"/>
+      <c r="P34" s="13">
         <v>4975.6730000000007</v>
       </c>
     </row>
-    <row r="34" spans="2:16" hidden="1">
-      <c r="B34" s="14">
+    <row r="35" spans="2:16" hidden="1">
+      <c r="B35" s="14">
         <v>2022</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C35" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D35" s="16">
         <f t="shared" si="2"/>
         <v>101815.66400000002</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E35" s="17">
         <v>53850.369999999995</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F35" s="17">
         <v>15184.744000000001</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G35" s="17">
         <v>6463.3790000000008</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H35" s="17">
         <v>5772.1310000000003</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I35" s="17">
         <v>3574.8900000000003</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J35" s="17">
         <v>3573.3429999999998</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K35" s="17">
         <v>2038.558</v>
       </c>
-      <c r="L34" s="17">
+      <c r="L35" s="17">
         <v>2968.2270000000003</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M35" s="17">
         <v>2060.0630000000001</v>
       </c>
-      <c r="N34" s="17">
+      <c r="N35" s="17">
         <v>1283.712</v>
       </c>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17">
+      <c r="O35" s="17"/>
+      <c r="P35" s="17">
         <v>5046.2470000000367</v>
       </c>
     </row>
-    <row r="35" spans="2:16" hidden="1">
-      <c r="B35" s="10">
+    <row r="36" spans="2:16" hidden="1">
+      <c r="B36" s="10">
         <v>2022</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D36" s="12">
         <f t="shared" si="2"/>
         <v>89334.159999999974</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E36" s="13">
         <v>47061.49</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F36" s="13">
         <v>14479.710999999999</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G36" s="13">
         <v>6202.4430000000002</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H36" s="13">
         <v>5721.7240000000002</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I36" s="13">
         <v>2401.297</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J36" s="13">
         <v>2631.6559999999999</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K36" s="13">
         <v>2465.8180000000002</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L36" s="13">
         <v>2754.2740000000003</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M36" s="13">
         <v>512.15899999999999</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N36" s="13">
         <v>1143.1680000000001</v>
       </c>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13">
+      <c r="O36" s="13"/>
+      <c r="P36" s="13">
         <v>3960.4199999999564</v>
       </c>
     </row>
-    <row r="36" spans="2:16" hidden="1">
-      <c r="B36" s="14">
+    <row r="37" spans="2:16" hidden="1">
+      <c r="B37" s="14">
         <v>2022</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C37" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D37" s="16">
         <f t="shared" si="2"/>
         <v>95278.69100000005</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E37" s="17">
         <v>47746.51</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F37" s="17">
         <v>14115.436000000002</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G37" s="17">
         <v>7015.4850000000006</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H37" s="17">
         <v>6571.5810000000001</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I37" s="17">
         <v>2958.8999999999996</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J37" s="17">
         <v>3531.7309999999998</v>
       </c>
-      <c r="K36" s="17">
+      <c r="K37" s="17">
         <v>2622.4749999999999</v>
       </c>
-      <c r="L36" s="17">
+      <c r="L37" s="17">
         <v>2978.3830000000003</v>
       </c>
-      <c r="M36" s="17">
+      <c r="M37" s="17">
         <v>2025.0970000000002</v>
       </c>
-      <c r="N36" s="17">
+      <c r="N37" s="17">
         <v>1204.242</v>
       </c>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17">
+      <c r="O37" s="17"/>
+      <c r="P37" s="17">
         <v>4508.8510000000351</v>
       </c>
     </row>
-    <row r="37" spans="2:16" hidden="1">
-      <c r="B37" s="10">
+    <row r="38" spans="2:16" hidden="1">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D38" s="12">
         <f t="shared" si="2"/>
         <v>97785.689999999988</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E38" s="13">
         <v>50063.990000000005</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F38" s="13">
         <v>14860.342999999999</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G38" s="13">
         <v>6623.2259999999997</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H38" s="13">
         <v>5368.71</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I38" s="13">
         <v>3986.607</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J38" s="13">
         <v>4343.424</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K38" s="13">
         <v>2496.5360000000001</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L38" s="13">
         <v>2822.9870000000001</v>
       </c>
-      <c r="M37" s="13">
+      <c r="M38" s="13">
         <v>1943.029</v>
       </c>
-      <c r="N37" s="13">
+      <c r="N38" s="13">
         <v>1117.913</v>
       </c>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13">
+      <c r="O38" s="13"/>
+      <c r="P38" s="13">
         <v>4158.924999999982</v>
       </c>
     </row>
-    <row r="38" spans="2:16" hidden="1">
-      <c r="B38" s="14">
+    <row r="39" spans="2:16" hidden="1">
+      <c r="B39" s="14">
         <v>2022</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C39" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D39" s="16">
         <f t="shared" si="2"/>
         <v>98754.335000000006</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E39" s="17">
         <v>46577.189999999995</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F39" s="17">
         <v>15738.313999999998</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G39" s="17">
         <v>7141.8860000000004</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H39" s="17">
         <v>6363.9130000000005</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I39" s="17">
         <v>4263.3530000000001</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J39" s="17">
         <v>3976.6590000000001</v>
       </c>
-      <c r="K38" s="17">
+      <c r="K39" s="17">
         <v>2587.8480000000004</v>
       </c>
-      <c r="L38" s="17">
+      <c r="L39" s="17">
         <v>3419.7529999999997</v>
       </c>
-      <c r="M38" s="17">
+      <c r="M39" s="17">
         <v>2042.5399999999997</v>
       </c>
-      <c r="N38" s="17">
+      <c r="N39" s="17">
         <v>1359.9259999999999</v>
       </c>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17">
+      <c r="O39" s="17"/>
+      <c r="P39" s="17">
         <v>5282.9530000000059</v>
       </c>
     </row>
-    <row r="39" spans="2:16" hidden="1">
-      <c r="B39" s="10">
+    <row r="40" spans="2:16" hidden="1">
+      <c r="B40" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D40" s="12">
         <f t="shared" si="2"/>
         <v>100981.77</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="13">
         <v>48175.270000000004</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="13">
         <v>15121.800999999999</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G40" s="13">
         <v>6917.94</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H40" s="13">
         <v>7004.4480000000003</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I40" s="13">
         <v>4293.0200000000004</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J40" s="13">
         <v>4633.1059999999998</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K40" s="13">
         <v>2216.5819999999999</v>
       </c>
-      <c r="L39" s="13">
+      <c r="L40" s="13">
         <v>4035.9160000000002</v>
       </c>
-      <c r="M39" s="13">
+      <c r="M40" s="13">
         <v>2042.0069999999998</v>
       </c>
-      <c r="N39" s="13">
+      <c r="N40" s="13">
         <v>1212.9639999999999</v>
       </c>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13">
+      <c r="O40" s="13"/>
+      <c r="P40" s="13">
         <v>5328.7160000000003</v>
       </c>
     </row>
-    <row r="40" spans="2:16" hidden="1">
-      <c r="B40" s="14">
+    <row r="41" spans="2:16" hidden="1">
+      <c r="B41" s="14">
         <v>2022</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C41" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D41" s="16">
         <f t="shared" si="2"/>
         <v>91772.804999999978</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E41" s="17">
         <v>42504.89</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F41" s="17">
         <v>14271.894</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G41" s="17">
         <v>6804.5039999999999</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H41" s="17">
         <v>5796.9490000000005</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I41" s="17">
         <v>3819.4520000000002</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J41" s="17">
         <v>4312.4709999999995</v>
       </c>
-      <c r="K40" s="17">
+      <c r="K41" s="17">
         <v>2349.19</v>
       </c>
-      <c r="L40" s="17">
+      <c r="L41" s="17">
         <v>3770.8559999999998</v>
       </c>
-      <c r="M40" s="17">
+      <c r="M41" s="17">
         <v>1869.663</v>
       </c>
-      <c r="N40" s="17">
+      <c r="N41" s="17">
         <v>1118.5450000000001</v>
       </c>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17">
+      <c r="O41" s="17"/>
+      <c r="P41" s="17">
         <v>5154.390999999976</v>
       </c>
     </row>
-    <row r="41" spans="2:16" hidden="1">
-      <c r="B41" s="10">
+    <row r="42" spans="2:16" hidden="1">
+      <c r="B42" s="10">
         <v>2022</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C42" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D42" s="12">
         <f t="shared" si="2"/>
         <v>97475.604000000007</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E42" s="13">
         <v>43589.06</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F42" s="13">
         <v>15805.73</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G42" s="13">
         <v>7474.4720000000007</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H42" s="13">
         <v>6700.8620000000001</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I42" s="13">
         <v>4181.607</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J42" s="13">
         <v>4873.1779999999999</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K42" s="13">
         <v>2656.9369999999999</v>
       </c>
-      <c r="L41" s="13">
+      <c r="L42" s="13">
         <v>3049.7539999999999</v>
       </c>
-      <c r="M41" s="13">
+      <c r="M42" s="13">
         <v>2099.5990000000002</v>
       </c>
-      <c r="N41" s="13">
+      <c r="N42" s="13">
         <v>1350.1109999999999</v>
       </c>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13">
+      <c r="O42" s="13"/>
+      <c r="P42" s="13">
         <v>5694.2940000000135</v>
       </c>
     </row>
-    <row r="42" spans="2:16" hidden="1">
-      <c r="B42" s="14">
+    <row r="43" spans="2:16" hidden="1">
+      <c r="B43" s="14">
         <v>2022</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C43" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D43" s="16">
         <f t="shared" si="2"/>
         <v>89800.428</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E43" s="17">
         <v>45366.31</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F43" s="17">
         <v>13369.772999999999</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G43" s="17">
         <v>5647.3320000000003</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H43" s="17">
         <v>5270.6120000000001</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I43" s="17">
         <v>3794.5039999999999</v>
       </c>
-      <c r="J42" s="17">
+      <c r="J43" s="17">
         <v>3839.19</v>
       </c>
-      <c r="K42" s="17">
+      <c r="K43" s="17">
         <v>2119.1379999999999</v>
       </c>
-      <c r="L42" s="17">
+      <c r="L43" s="17">
         <v>2576.7370000000001</v>
       </c>
-      <c r="M42" s="17">
+      <c r="M43" s="17">
         <v>1797.6790000000001</v>
       </c>
-      <c r="N42" s="17">
+      <c r="N43" s="17">
         <v>1019.68</v>
       </c>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17">
+      <c r="O43" s="17"/>
+      <c r="P43" s="17">
         <v>4999.4729999999945</v>
       </c>
     </row>
-    <row r="43" spans="2:16" hidden="1">
-      <c r="B43" s="18">
+    <row r="44" spans="2:16" hidden="1">
+      <c r="B44" s="18">
         <v>2022</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C44" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D44" s="20">
         <f t="shared" si="2"/>
         <v>85046.313999999984</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E44" s="21">
         <v>41649.950000000004</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F44" s="21">
         <v>14466.567999999999</v>
       </c>
-      <c r="G43" s="21">
+      <c r="G44" s="21">
         <v>5084.2289999999994</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H44" s="21">
         <v>5408.1559999999999</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I44" s="21">
         <v>2575.6040000000003</v>
       </c>
-      <c r="J43" s="21">
+      <c r="J44" s="21">
         <v>3171.0789999999997</v>
       </c>
-      <c r="K43" s="21">
+      <c r="K44" s="21">
         <v>2142.4740000000002</v>
       </c>
-      <c r="L43" s="21">
+      <c r="L44" s="21">
         <v>2573.4090000000001</v>
       </c>
-      <c r="M43" s="21">
+      <c r="M44" s="21">
         <v>1939.2370000000001</v>
       </c>
-      <c r="N43" s="21">
+      <c r="N44" s="21">
         <v>1105.0170000000001</v>
       </c>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21">
+      <c r="O44" s="21"/>
+      <c r="P44" s="21">
         <v>4930.590999999964</v>
       </c>
     </row>
-    <row r="44" spans="2:16" hidden="1">
-      <c r="B44" s="22">
+    <row r="45" spans="2:16" hidden="1">
+      <c r="B45" s="22">
         <v>2021</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C45" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="24">
+      <c r="D45" s="24">
         <f t="shared" si="2"/>
         <v>106245.8559999999</v>
       </c>
-      <c r="E44" s="25">
+      <c r="E45" s="25">
         <v>50857.07</v>
       </c>
-      <c r="F44" s="25">
+      <c r="F45" s="25">
         <v>17094.063999999998</v>
       </c>
-      <c r="G44" s="25">
+      <c r="G45" s="25">
         <v>6690.982</v>
       </c>
-      <c r="H44" s="25">
+      <c r="H45" s="25">
         <v>6757.0789999999997</v>
       </c>
-      <c r="I44" s="25">
+      <c r="I45" s="25">
         <v>4772.1049999999996</v>
       </c>
-      <c r="J44" s="25">
+      <c r="J45" s="25">
         <v>4153.6809999999996</v>
       </c>
-      <c r="K44" s="25">
+      <c r="K45" s="25">
         <v>2996.9839999999999</v>
       </c>
-      <c r="L44" s="25">
+      <c r="L45" s="25">
         <v>3411.8760000000002</v>
       </c>
-      <c r="M44" s="25">
+      <c r="M45" s="25">
         <v>2152.6570000000002</v>
       </c>
-      <c r="N44" s="25">
+      <c r="N45" s="25">
         <v>1412.242</v>
       </c>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25">
+      <c r="O45" s="25"/>
+      <c r="P45" s="25">
         <v>5947.115999999909</v>
       </c>
     </row>
-    <row r="45" spans="2:16" hidden="1">
-      <c r="B45" s="10">
+    <row r="46" spans="2:16" hidden="1">
+      <c r="B46" s="10">
         <v>2021</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C46" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D46" s="12">
         <f t="shared" si="2"/>
         <v>103780.351</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E46" s="13">
         <v>51670.84</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F46" s="13">
         <v>16637.919000000002</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G46" s="13">
         <v>6777.7350000000006</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H46" s="13">
         <v>6088.8860000000004</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I46" s="13">
         <v>4689.4409999999998</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J46" s="13">
         <v>3093.7200000000003</v>
       </c>
-      <c r="K45" s="13">
+      <c r="K46" s="13">
         <v>2801.3710000000001</v>
       </c>
-      <c r="L45" s="13">
+      <c r="L46" s="13">
         <v>3273.163</v>
       </c>
-      <c r="M45" s="13">
+      <c r="M46" s="13">
         <v>2116.31</v>
       </c>
-      <c r="N45" s="13">
+      <c r="N46" s="13">
         <v>1187.3990000000001</v>
       </c>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13">
+      <c r="O46" s="13"/>
+      <c r="P46" s="13">
         <v>5443.5670000000018</v>
       </c>
     </row>
-    <row r="46" spans="2:16" hidden="1">
-      <c r="B46" s="14">
+    <row r="47" spans="2:16" hidden="1">
+      <c r="B47" s="14">
         <v>2021</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C47" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D47" s="16">
         <f t="shared" si="2"/>
         <v>102011.41899999998</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E47" s="17">
         <v>52512.270000000004</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F47" s="17">
         <v>15934.506000000001</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G47" s="17">
         <v>6335.259</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H47" s="17">
         <v>5545.3950000000004</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I47" s="17">
         <v>4882.7650000000003</v>
       </c>
-      <c r="J46" s="17">
+      <c r="J47" s="17">
         <v>2936.84</v>
       </c>
-      <c r="K46" s="17">
+      <c r="K47" s="17">
         <v>2405.8789999999999</v>
       </c>
-      <c r="L46" s="17">
+      <c r="L47" s="17">
         <v>3272.1130000000003</v>
       </c>
-      <c r="M46" s="17">
+      <c r="M47" s="17">
         <v>1900.828</v>
       </c>
-      <c r="N46" s="17">
+      <c r="N47" s="17">
         <v>1092.5319999999999</v>
       </c>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17">
+      <c r="O47" s="17"/>
+      <c r="P47" s="17">
         <v>5193.0319999999592</v>
       </c>
     </row>
-    <row r="47" spans="2:16" hidden="1">
-      <c r="B47" s="10">
+    <row r="48" spans="2:16" hidden="1">
+      <c r="B48" s="10">
         <v>2021</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="12">
-        <f t="shared" ref="D47:D78" si="3">SUM(E47:P47)</f>
+      <c r="D48" s="12">
+        <f t="shared" ref="D48:D79" si="3">SUM(E48:P48)</f>
         <v>91178.608999999982</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E48" s="13">
         <v>45915.21</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F48" s="13">
         <v>14692.056</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G48" s="13">
         <v>5728.8209999999999</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H48" s="13">
         <v>5560.4480000000003</v>
       </c>
-      <c r="I47" s="13">
+      <c r="I48" s="13">
         <v>4702.9629999999997</v>
       </c>
-      <c r="J47" s="13">
+      <c r="J48" s="13">
         <v>2102.703</v>
       </c>
-      <c r="K47" s="13">
+      <c r="K48" s="13">
         <v>2272.134</v>
       </c>
-      <c r="L47" s="13">
+      <c r="L48" s="13">
         <v>2868.15</v>
       </c>
-      <c r="M47" s="13">
+      <c r="M48" s="13">
         <v>1735.4590000000001</v>
       </c>
-      <c r="N47" s="13">
+      <c r="N48" s="13">
         <v>1045.8</v>
       </c>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13">
+      <c r="O48" s="13"/>
+      <c r="P48" s="13">
         <v>4554.864999999978</v>
       </c>
     </row>
-    <row r="48" spans="2:16" hidden="1">
-      <c r="B48" s="14">
+    <row r="49" spans="2:16" hidden="1">
+      <c r="B49" s="14">
         <v>2021</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C49" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D49" s="16">
         <f t="shared" si="3"/>
         <v>92414.208999999988</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E49" s="17">
         <v>46263.56</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F49" s="17">
         <v>15429.054</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G49" s="17">
         <v>5843.6489999999994</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H49" s="17">
         <v>5188.5529999999999</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I49" s="17">
         <v>4997.6589999999997</v>
       </c>
-      <c r="J48" s="17">
+      <c r="J49" s="17">
         <v>1980.7669999999998</v>
       </c>
-      <c r="K48" s="17">
+      <c r="K49" s="17">
         <v>2178.5140000000001</v>
       </c>
-      <c r="L48" s="17">
+      <c r="L49" s="17">
         <v>2985.433</v>
       </c>
-      <c r="M48" s="17">
+      <c r="M49" s="17">
         <v>1919.7950000000001</v>
       </c>
-      <c r="N48" s="17">
+      <c r="N49" s="17">
         <v>1046.1379999999999</v>
       </c>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17">
+      <c r="O49" s="17"/>
+      <c r="P49" s="17">
         <v>4581.0869999999823</v>
       </c>
     </row>
-    <row r="49" spans="2:16" hidden="1">
-      <c r="B49" s="10">
+    <row r="50" spans="2:16" hidden="1">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D50" s="12">
         <f t="shared" si="3"/>
         <v>94998.959000000017</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E50" s="13">
         <v>47535.66</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F50" s="13">
         <v>16396.912</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G50" s="13">
         <v>5814.3230000000003</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H50" s="13">
         <v>5225.7449999999999</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I50" s="13">
         <v>4822.5879999999997</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J50" s="13">
         <v>2417.9939999999997</v>
       </c>
-      <c r="K49" s="13">
+      <c r="K50" s="13">
         <v>2253.5949999999998</v>
       </c>
-      <c r="L49" s="13">
+      <c r="L50" s="13">
         <v>2954.0879999999997</v>
       </c>
-      <c r="M49" s="13">
+      <c r="M50" s="13">
         <v>2019.4090000000001</v>
       </c>
-      <c r="N49" s="13">
+      <c r="N50" s="13">
         <v>989</v>
       </c>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13">
+      <c r="O50" s="13"/>
+      <c r="P50" s="13">
         <v>4569.6450000000086</v>
       </c>
     </row>
-    <row r="50" spans="2:16" hidden="1">
-      <c r="B50" s="14">
+    <row r="51" spans="2:16" hidden="1">
+      <c r="B51" s="14">
         <v>2021</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C51" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D51" s="16">
         <f t="shared" si="3"/>
         <v>93150.852999999974</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E51" s="17">
         <v>46381.57</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F51" s="17">
         <v>16321.146999999999</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G51" s="17">
         <v>5643.8950000000004</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H51" s="17">
         <v>5512.8739999999998</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I51" s="17">
         <v>4619.1679999999997</v>
       </c>
-      <c r="J50" s="17">
+      <c r="J51" s="17">
         <v>2265.636</v>
       </c>
-      <c r="K50" s="17">
+      <c r="K51" s="17">
         <v>2051.7060000000001</v>
       </c>
-      <c r="L50" s="17">
+      <c r="L51" s="17">
         <v>2931.884</v>
       </c>
-      <c r="M50" s="17">
+      <c r="M51" s="17">
         <v>1972.1880000000001</v>
       </c>
-      <c r="N50" s="17">
+      <c r="N51" s="17">
         <v>986.39300000000003</v>
       </c>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17">
+      <c r="O51" s="17"/>
+      <c r="P51" s="17">
         <v>4464.3919999999753</v>
       </c>
     </row>
-    <row r="51" spans="2:16" hidden="1">
-      <c r="B51" s="10">
+    <row r="52" spans="2:16" hidden="1">
+      <c r="B52" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D52" s="12">
         <f t="shared" si="3"/>
         <v>91896.881000000023</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E52" s="13">
         <v>46267.280000000006</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="13">
         <v>16961.302</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G52" s="13">
         <v>5341.201</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H52" s="13">
         <v>5093.9789999999994</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I52" s="13">
         <v>4098.0300000000007</v>
       </c>
-      <c r="J51" s="13">
+      <c r="J52" s="13">
         <v>2317.509</v>
       </c>
-      <c r="K51" s="13">
+      <c r="K52" s="13">
         <v>1839.751</v>
       </c>
-      <c r="L51" s="13">
+      <c r="L52" s="13">
         <v>2917.2539999999999</v>
       </c>
-      <c r="M51" s="13">
+      <c r="M52" s="13">
         <v>1854.6999999999998</v>
       </c>
-      <c r="N51" s="13">
+      <c r="N52" s="13">
         <v>936.20399999999995</v>
       </c>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13">
+      <c r="O52" s="13"/>
+      <c r="P52" s="13">
         <v>4269.6710000000021</v>
       </c>
     </row>
-    <row r="52" spans="2:16" hidden="1">
-      <c r="B52" s="14">
+    <row r="53" spans="2:16" hidden="1">
+      <c r="B53" s="14">
         <v>2021</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C53" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D53" s="16">
         <f t="shared" si="3"/>
         <v>91124.671000000017</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E53" s="17">
         <v>44958.49</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F53" s="17">
         <v>17353.253000000001</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G53" s="17">
         <v>5074.8539999999994</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H53" s="17">
         <v>5150.7029999999995</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I53" s="17">
         <v>4190.9799999999996</v>
       </c>
-      <c r="J52" s="17">
+      <c r="J53" s="17">
         <v>2711.4180000000001</v>
       </c>
-      <c r="K52" s="17">
+      <c r="K53" s="17">
         <v>2026.221</v>
       </c>
-      <c r="L52" s="17">
+      <c r="L53" s="17">
         <v>2834.6559999999999</v>
       </c>
-      <c r="M52" s="17">
+      <c r="M53" s="17">
         <v>1752.0440000000001</v>
       </c>
-      <c r="N52" s="17">
+      <c r="N53" s="17">
         <v>919.93</v>
       </c>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17">
+      <c r="O53" s="17"/>
+      <c r="P53" s="17">
         <v>4152.1220000000194</v>
       </c>
     </row>
-    <row r="53" spans="2:16" hidden="1">
-      <c r="B53" s="10">
+    <row r="54" spans="2:16" hidden="1">
+      <c r="B54" s="10">
         <v>2021</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C54" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D54" s="12">
         <f t="shared" si="3"/>
         <v>97804.682000000015</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E54" s="13">
         <v>49200.950000000004</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F54" s="13">
         <v>18513.925000000003</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G54" s="13">
         <v>5394.5290000000005</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H54" s="13">
         <v>5438.8379999999997</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I54" s="13">
         <v>4517.6980000000003</v>
       </c>
-      <c r="J53" s="13">
+      <c r="J54" s="13">
         <v>2272.91</v>
       </c>
-      <c r="K53" s="13">
+      <c r="K54" s="13">
         <v>2051.056</v>
       </c>
-      <c r="L53" s="13">
+      <c r="L54" s="13">
         <v>2950.4749999999999</v>
       </c>
-      <c r="M53" s="13">
+      <c r="M54" s="13">
         <v>1771.0360000000001</v>
       </c>
-      <c r="N53" s="13">
+      <c r="N54" s="13">
         <v>1067.4470000000001</v>
       </c>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13">
+      <c r="O54" s="13"/>
+      <c r="P54" s="13">
         <v>4625.8179999999957</v>
       </c>
     </row>
-    <row r="54" spans="2:16" hidden="1">
-      <c r="B54" s="14">
+    <row r="55" spans="2:16" hidden="1">
+      <c r="B55" s="14">
         <v>2021</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C55" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D55" s="16">
         <f t="shared" si="3"/>
         <v>83857.271000000022</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E55" s="17">
         <v>42287.700000000004</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F55" s="17">
         <v>15583.737000000001</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G55" s="17">
         <v>4140.5389999999998</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H55" s="17">
         <v>4531.4269999999997</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I55" s="17">
         <v>3863.7919999999995</v>
       </c>
-      <c r="J54" s="17">
+      <c r="J55" s="17">
         <v>2548.5929999999998</v>
       </c>
-      <c r="K54" s="17">
+      <c r="K55" s="17">
         <v>1805.3239999999998</v>
       </c>
-      <c r="L54" s="17">
+      <c r="L55" s="17">
         <v>2596.5039999999999</v>
       </c>
-      <c r="M54" s="17">
+      <c r="M55" s="17">
         <v>1517.7179999999998</v>
       </c>
-      <c r="N54" s="17">
+      <c r="N55" s="17">
         <v>866.53800000000001</v>
       </c>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17">
+      <c r="O55" s="17"/>
+      <c r="P55" s="17">
         <v>4115.3990000000395</v>
       </c>
     </row>
-    <row r="55" spans="2:16" hidden="1">
-      <c r="B55" s="18">
+    <row r="56" spans="2:16" hidden="1">
+      <c r="B56" s="18">
         <v>2021</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C56" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D56" s="20">
         <f t="shared" si="3"/>
         <v>88197.219999999987</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E56" s="21">
         <v>43928.770000000004</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F56" s="21">
         <v>16300.849999999997</v>
       </c>
-      <c r="G55" s="21">
+      <c r="G56" s="21">
         <v>4840.8860000000004</v>
       </c>
-      <c r="H55" s="21">
+      <c r="H56" s="21">
         <v>4794.0879999999997</v>
       </c>
-      <c r="I55" s="21">
+      <c r="I56" s="21">
         <v>4785.6239999999998</v>
       </c>
-      <c r="J55" s="21">
+      <c r="J56" s="21">
         <v>2064.8710000000001</v>
       </c>
-      <c r="K55" s="21">
+      <c r="K56" s="21">
         <v>2034.952</v>
       </c>
-      <c r="L55" s="21">
+      <c r="L56" s="21">
         <v>2453.6999999999998</v>
       </c>
-      <c r="M55" s="21">
+      <c r="M56" s="21">
         <v>1745.922</v>
       </c>
-      <c r="N55" s="21">
+      <c r="N56" s="21">
         <v>918.11799999999994</v>
       </c>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21">
+      <c r="O56" s="21"/>
+      <c r="P56" s="21">
         <v>4329.4389999999794</v>
       </c>
     </row>
-    <row r="56" spans="2:16" hidden="1">
-      <c r="B56" s="22">
+    <row r="57" spans="2:16" hidden="1">
+      <c r="B57" s="22">
         <v>2020</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C57" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D56" s="24">
+      <c r="D57" s="24">
         <f t="shared" si="3"/>
         <v>94144.191000000021</v>
       </c>
-      <c r="E56" s="25">
+      <c r="E57" s="25">
         <v>46330.03</v>
       </c>
-      <c r="F56" s="25">
+      <c r="F57" s="25">
         <v>15973.973</v>
       </c>
-      <c r="G56" s="25">
+      <c r="G57" s="25">
         <v>5450.8789999999999</v>
       </c>
-      <c r="H56" s="25">
+      <c r="H57" s="25">
         <v>5488.8649999999998</v>
       </c>
-      <c r="I56" s="25">
+      <c r="I57" s="25">
         <v>5262.348</v>
       </c>
-      <c r="J56" s="25">
+      <c r="J57" s="25">
         <v>1922.278</v>
       </c>
-      <c r="K56" s="25">
+      <c r="K57" s="25">
         <v>2610.1819999999998</v>
       </c>
-      <c r="L56" s="25">
+      <c r="L57" s="25">
         <v>3093.9090000000001</v>
       </c>
-      <c r="M56" s="25">
+      <c r="M57" s="25">
         <v>1870.7370000000001</v>
       </c>
-      <c r="N56" s="25">
+      <c r="N57" s="25">
         <v>1267.98</v>
       </c>
-      <c r="O56" s="25"/>
-      <c r="P56" s="25">
+      <c r="O57" s="25"/>
+      <c r="P57" s="25">
         <v>4873.010000000022</v>
       </c>
     </row>
-    <row r="57" spans="2:16" hidden="1">
-      <c r="B57" s="10">
+    <row r="58" spans="2:16" hidden="1">
+      <c r="B58" s="10">
         <v>2020</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C58" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D58" s="12">
         <f t="shared" si="3"/>
         <v>91473.85500000001</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E58" s="13">
         <v>47533.36</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F58" s="13">
         <v>14400.682000000001</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G58" s="13">
         <v>5383.1379999999999</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H58" s="13">
         <v>4958.3670000000002</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I58" s="13">
         <v>4752.6779999999999</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J58" s="13">
         <v>1515.828</v>
       </c>
-      <c r="K57" s="13">
+      <c r="K58" s="13">
         <v>2284.3830000000003</v>
       </c>
-      <c r="L57" s="13">
+      <c r="L58" s="13">
         <v>3066.7379999999998</v>
       </c>
-      <c r="M57" s="13">
+      <c r="M58" s="13">
         <v>1683.905</v>
       </c>
-      <c r="N57" s="13">
+      <c r="N58" s="13">
         <v>1051.925</v>
       </c>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13">
+      <c r="O58" s="13"/>
+      <c r="P58" s="13">
         <v>4842.8510000000106</v>
       </c>
     </row>
-    <row r="58" spans="2:16" hidden="1">
-      <c r="B58" s="14">
+    <row r="59" spans="2:16" hidden="1">
+      <c r="B59" s="14">
         <v>2020</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C59" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D59" s="16">
         <f t="shared" si="3"/>
         <v>91662.356999999931</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E59" s="17">
         <v>46625.39</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F59" s="17">
         <v>16134.585999999999</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G59" s="17">
         <v>5479.9110000000001</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H59" s="17">
         <v>4639.0290000000005</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I59" s="17">
         <v>5349.1270000000004</v>
       </c>
-      <c r="J58" s="17">
+      <c r="J59" s="17">
         <v>1260.509</v>
       </c>
-      <c r="K58" s="17">
+      <c r="K59" s="17">
         <v>2199.1950000000002</v>
       </c>
-      <c r="L58" s="17">
+      <c r="L59" s="17">
         <v>3053.64</v>
       </c>
-      <c r="M58" s="17">
+      <c r="M59" s="17">
         <v>1739.095</v>
       </c>
-      <c r="N58" s="17">
+      <c r="N59" s="17">
         <v>943.76300000000003</v>
       </c>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17">
+      <c r="O59" s="17"/>
+      <c r="P59" s="17">
         <v>4238.11199999993</v>
       </c>
     </row>
-    <row r="59" spans="2:16" hidden="1">
-      <c r="B59" s="10">
+    <row r="60" spans="2:16" hidden="1">
+      <c r="B60" s="10">
         <v>2020</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D60" s="12">
         <f t="shared" si="3"/>
         <v>77051.781000000032</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E60" s="13">
         <v>38240.839999999997</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F60" s="13">
         <v>14171.219000000001</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G60" s="13">
         <v>4407.3809999999994</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H60" s="13">
         <v>3752.172</v>
       </c>
-      <c r="I59" s="13">
+      <c r="I60" s="13">
         <v>4552.4279999999999</v>
       </c>
-      <c r="J59" s="13">
+      <c r="J60" s="13">
         <v>1079.7190000000001</v>
       </c>
-      <c r="K59" s="13">
+      <c r="K60" s="13">
         <v>1834.0129999999999</v>
       </c>
-      <c r="L59" s="13">
+      <c r="L60" s="13">
         <v>2717.5839999999998</v>
       </c>
-      <c r="M59" s="13">
+      <c r="M60" s="13">
         <v>1835.0609999999999</v>
       </c>
-      <c r="N59" s="13">
+      <c r="N60" s="13">
         <v>788.73500000000001</v>
       </c>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13">
+      <c r="O60" s="13"/>
+      <c r="P60" s="13">
         <v>3672.629000000029</v>
       </c>
     </row>
-    <row r="60" spans="2:16" hidden="1">
-      <c r="B60" s="14">
+    <row r="61" spans="2:16" hidden="1">
+      <c r="B61" s="14">
         <v>2020</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C61" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D61" s="16">
         <f t="shared" si="3"/>
         <v>73243.596999999965</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E61" s="17">
         <v>37945.979999999996</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F61" s="17">
         <v>12325.865999999998</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G61" s="17">
         <v>3948.0789999999997</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H61" s="17">
         <v>3392.7820000000002</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I61" s="17">
         <v>4478.6279999999997</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J61" s="17">
         <v>1011.65</v>
       </c>
-      <c r="K60" s="17">
+      <c r="K61" s="17">
         <v>1714.8619999999999</v>
       </c>
-      <c r="L60" s="17">
+      <c r="L61" s="17">
         <v>2516.4409999999998</v>
       </c>
-      <c r="M60" s="17">
+      <c r="M61" s="17">
         <v>1831.6880000000001</v>
       </c>
-      <c r="N60" s="17">
+      <c r="N61" s="17">
         <v>782.10199999999998</v>
       </c>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17">
+      <c r="O61" s="17"/>
+      <c r="P61" s="17">
         <v>3295.5189999999848</v>
       </c>
     </row>
-    <row r="61" spans="2:16" hidden="1">
-      <c r="B61" s="10">
+    <row r="62" spans="2:16" hidden="1">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C62" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D62" s="12">
         <f t="shared" si="3"/>
         <v>70714.571000000011</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E62" s="13">
         <v>34839.78</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F62" s="13">
         <v>13321.585999999999</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G62" s="13">
         <v>3950.6219999999998</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H62" s="13">
         <v>3725.6490000000003</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I62" s="13">
         <v>3987.5020000000004</v>
       </c>
-      <c r="J61" s="13">
+      <c r="J62" s="13">
         <v>936.46399999999994</v>
       </c>
-      <c r="K61" s="13">
+      <c r="K62" s="13">
         <v>1692.3649999999998</v>
       </c>
-      <c r="L61" s="13">
+      <c r="L62" s="13">
         <v>2403.9839999999999</v>
       </c>
-      <c r="M61" s="13">
+      <c r="M62" s="13">
         <v>1775.4699999999998</v>
       </c>
-      <c r="N61" s="13">
+      <c r="N62" s="13">
         <v>840.952</v>
       </c>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13">
+      <c r="O62" s="13"/>
+      <c r="P62" s="13">
         <v>3240.1970000000092</v>
       </c>
     </row>
-    <row r="62" spans="2:16" hidden="1">
-      <c r="B62" s="14">
+    <row r="63" spans="2:16" hidden="1">
+      <c r="B63" s="14">
         <v>2020</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C63" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D63" s="16">
         <f t="shared" si="3"/>
         <v>66590.821000000025</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E63" s="17">
         <v>33996.18</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F63" s="17">
         <v>13478.243999999999</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G63" s="17">
         <v>3545.3679999999999</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H63" s="17">
         <v>3224.4189999999999</v>
       </c>
-      <c r="I62" s="17">
+      <c r="I63" s="17">
         <v>3231.3440000000001</v>
       </c>
-      <c r="J62" s="17">
+      <c r="J63" s="17">
         <v>771.17700000000002</v>
       </c>
-      <c r="K62" s="17">
+      <c r="K63" s="17">
         <v>1478.3190000000002</v>
       </c>
-      <c r="L62" s="17">
+      <c r="L63" s="17">
         <v>1821.6129999999998</v>
       </c>
-      <c r="M62" s="17">
+      <c r="M63" s="17">
         <v>1594.6689999999999</v>
       </c>
-      <c r="N62" s="17">
+      <c r="N63" s="17">
         <v>720.39199999999994</v>
       </c>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17">
+      <c r="O63" s="17"/>
+      <c r="P63" s="17">
         <v>2729.0960000000127</v>
       </c>
     </row>
-    <row r="63" spans="2:16" hidden="1">
-      <c r="B63" s="10">
+    <row r="64" spans="2:16" hidden="1">
+      <c r="B64" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C64" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D64" s="12">
         <f t="shared" si="3"/>
         <v>58590.57</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E64" s="13">
         <v>31229.68</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F64" s="13">
         <v>11236.094000000001</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G64" s="13">
         <v>2744.201</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H64" s="13">
         <v>2746.701</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I64" s="13">
         <v>2540.2469999999998</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J64" s="13">
         <v>612.84699999999998</v>
       </c>
-      <c r="K63" s="13">
+      <c r="K64" s="13">
         <v>1623.547</v>
       </c>
-      <c r="L63" s="13">
+      <c r="L64" s="13">
         <v>1605.3789999999999</v>
       </c>
-      <c r="M63" s="13">
+      <c r="M64" s="13">
         <v>1482.9659999999999</v>
       </c>
-      <c r="N63" s="13">
+      <c r="N64" s="13">
         <v>671.48299999999995</v>
       </c>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13">
+      <c r="O64" s="13"/>
+      <c r="P64" s="13">
         <v>2097.424999999987</v>
       </c>
     </row>
-    <row r="64" spans="2:16" hidden="1">
-      <c r="B64" s="14">
+    <row r="65" spans="2:16" hidden="1">
+      <c r="B65" s="14">
         <v>2020</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C65" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D65" s="16">
         <f t="shared" si="3"/>
         <v>51124.868999999999</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E65" s="17">
         <v>25419.52</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F65" s="17">
         <v>11565.216</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G65" s="17">
         <v>2651.4159999999997</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H65" s="17">
         <v>2693.4929999999999</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I65" s="17">
         <v>2126.7669999999998</v>
       </c>
-      <c r="J64" s="17">
+      <c r="J65" s="17">
         <v>551.59</v>
       </c>
-      <c r="K64" s="17">
+      <c r="K65" s="17">
         <v>1334.1680000000001</v>
       </c>
-      <c r="L64" s="17">
+      <c r="L65" s="17">
         <v>1156.8400000000001</v>
       </c>
-      <c r="M64" s="17">
+      <c r="M65" s="17">
         <v>1103.2260000000001</v>
       </c>
-      <c r="N64" s="17">
+      <c r="N65" s="17">
         <v>532.67700000000002</v>
       </c>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17">
+      <c r="O65" s="17"/>
+      <c r="P65" s="17">
         <v>1989.9559999999994</v>
       </c>
     </row>
-    <row r="65" spans="2:16" hidden="1">
-      <c r="B65" s="10">
+    <row r="66" spans="2:16" hidden="1">
+      <c r="B66" s="10">
         <v>2020</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C66" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D66" s="12">
         <f t="shared" si="3"/>
         <v>79368.52999999997</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E66" s="13">
         <v>42274.520000000004</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F66" s="13">
         <v>14537.343000000001</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G66" s="13">
         <v>4065.893</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H66" s="13">
         <v>3597.8379999999997</v>
       </c>
-      <c r="I65" s="13">
+      <c r="I66" s="13">
         <v>2907.587</v>
       </c>
-      <c r="J65" s="13">
+      <c r="J66" s="13">
         <v>2248.8019999999997</v>
       </c>
-      <c r="K65" s="13">
+      <c r="K66" s="13">
         <v>1787.81</v>
       </c>
-      <c r="L65" s="13">
+      <c r="L66" s="13">
         <v>2068.8739999999998</v>
       </c>
-      <c r="M65" s="13">
+      <c r="M66" s="13">
         <v>1532.5450000000001</v>
       </c>
-      <c r="N65" s="13">
+      <c r="N66" s="13">
         <v>820.50299999999993</v>
       </c>
-      <c r="O65" s="13"/>
-      <c r="P65" s="13">
+      <c r="O66" s="13"/>
+      <c r="P66" s="13">
         <v>3526.8149999999705</v>
       </c>
     </row>
-    <row r="66" spans="2:16" hidden="1">
-      <c r="B66" s="14">
+    <row r="67" spans="2:16" hidden="1">
+      <c r="B67" s="14">
         <v>2020</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C67" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D67" s="16">
         <f t="shared" si="3"/>
         <v>75908.510999999955</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E67" s="17">
         <v>42089.659999999996</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F67" s="17">
         <v>11466.815999999999</v>
       </c>
-      <c r="G66" s="17">
+      <c r="G67" s="17">
         <v>3486.42</v>
       </c>
-      <c r="H66" s="17">
+      <c r="H67" s="17">
         <v>3309.0249999999996</v>
       </c>
-      <c r="I66" s="17">
+      <c r="I67" s="17">
         <v>2651.6840000000002</v>
       </c>
-      <c r="J66" s="17">
+      <c r="J67" s="17">
         <v>2759.643</v>
       </c>
-      <c r="K66" s="17">
+      <c r="K67" s="17">
         <v>1653.057</v>
       </c>
-      <c r="L66" s="17">
+      <c r="L67" s="17">
         <v>2319.8409999999999</v>
       </c>
-      <c r="M66" s="17">
+      <c r="M67" s="17">
         <v>1687.9380000000001</v>
       </c>
-      <c r="N66" s="17">
+      <c r="N67" s="17">
         <v>812.35799999999995</v>
       </c>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17">
+      <c r="O67" s="17"/>
+      <c r="P67" s="17">
         <v>3672.068999999979</v>
       </c>
     </row>
-    <row r="67" spans="2:16" hidden="1">
-      <c r="B67" s="18">
+    <row r="68" spans="2:16" hidden="1">
+      <c r="B68" s="18">
         <v>2020</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C68" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D68" s="20">
         <f t="shared" si="3"/>
         <v>80828.273000000045</v>
       </c>
-      <c r="E67" s="21">
+      <c r="E68" s="21">
         <v>43200.08</v>
       </c>
-      <c r="F67" s="21">
+      <c r="F68" s="21">
         <v>12981.727999999999</v>
       </c>
-      <c r="G67" s="21">
+      <c r="G68" s="21">
         <v>3924.5250000000001</v>
       </c>
-      <c r="H67" s="21">
+      <c r="H68" s="21">
         <v>3616.1279999999997</v>
       </c>
-      <c r="I67" s="21">
+      <c r="I68" s="21">
         <v>2992.5469999999996</v>
       </c>
-      <c r="J67" s="21">
+      <c r="J68" s="21">
         <v>3044.2960000000003</v>
       </c>
-      <c r="K67" s="21">
+      <c r="K68" s="21">
         <v>1792.2229999999997</v>
       </c>
-      <c r="L67" s="21">
+      <c r="L68" s="21">
         <v>2507.0810000000001</v>
       </c>
-      <c r="M67" s="21">
+      <c r="M68" s="21">
         <v>1937.0650000000001</v>
       </c>
-      <c r="N67" s="21">
+      <c r="N68" s="21">
         <v>862.8069999999999</v>
       </c>
-      <c r="O67" s="21"/>
-      <c r="P67" s="21">
+      <c r="O68" s="21"/>
+      <c r="P68" s="21">
         <v>3969.7930000000383</v>
       </c>
     </row>
-    <row r="68" spans="2:16" hidden="1">
-      <c r="B68" s="22">
+    <row r="69" spans="2:16" hidden="1">
+      <c r="B69" s="22">
         <v>2019</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="C69" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D68" s="24">
+      <c r="D69" s="24">
         <f t="shared" si="3"/>
         <v>83400</v>
       </c>
-      <c r="E68" s="25">
+      <c r="E69" s="25">
         <v>48000</v>
       </c>
-      <c r="F68" s="25">
+      <c r="F69" s="25">
         <v>14500</v>
       </c>
-      <c r="G68" s="25">
+      <c r="G69" s="25">
         <v>3700</v>
       </c>
-      <c r="H68" s="25">
+      <c r="H69" s="25">
         <v>2900</v>
       </c>
-      <c r="I68" s="25">
+      <c r="I69" s="25">
         <v>3100</v>
       </c>
-      <c r="J68" s="25">
+      <c r="J69" s="25">
         <v>1900</v>
       </c>
-      <c r="K68" s="25">
+      <c r="K69" s="25">
         <v>3700</v>
       </c>
-      <c r="L68" s="25">
+      <c r="L69" s="25">
         <v>1900</v>
       </c>
-      <c r="M68" s="25">
+      <c r="M69" s="25">
         <v>2600</v>
       </c>
-      <c r="N68" s="25">
+      <c r="N69" s="25">
         <v>1100</v>
       </c>
-      <c r="O68" s="25"/>
-      <c r="P68" s="25">
+      <c r="O69" s="25"/>
+      <c r="P69" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:16" hidden="1">
-      <c r="B69" s="10">
+    <row r="70" spans="2:16" hidden="1">
+      <c r="B70" s="10">
         <v>2019</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C70" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D70" s="12">
         <f t="shared" si="3"/>
         <v>83400</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E70" s="13">
         <v>46600</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F70" s="13">
         <v>14700</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G70" s="13">
         <v>4300</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H70" s="13">
         <v>3100</v>
       </c>
-      <c r="I69" s="13">
+      <c r="I70" s="13">
         <v>3100</v>
       </c>
-      <c r="J69" s="13">
+      <c r="J70" s="13">
         <v>2100</v>
       </c>
-      <c r="K69" s="13">
+      <c r="K70" s="13">
         <v>3900</v>
       </c>
-      <c r="L69" s="13">
+      <c r="L70" s="13">
         <v>1800</v>
       </c>
-      <c r="M69" s="13">
+      <c r="M70" s="13">
         <v>2800</v>
       </c>
-      <c r="N69" s="13">
+      <c r="N70" s="13">
         <v>1000</v>
       </c>
-      <c r="O69" s="13"/>
-      <c r="P69" s="13">
+      <c r="O70" s="13"/>
+      <c r="P70" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:16" hidden="1">
-      <c r="B70" s="14">
+    <row r="71" spans="2:16" hidden="1">
+      <c r="B71" s="14">
         <v>2019</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C71" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D71" s="16">
         <f t="shared" si="3"/>
         <v>90200</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E71" s="17">
         <v>52200</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F71" s="17">
         <v>14900</v>
       </c>
-      <c r="G70" s="17">
+      <c r="G71" s="17">
         <v>4600</v>
       </c>
-      <c r="H70" s="17">
+      <c r="H71" s="17">
         <v>3400</v>
       </c>
-      <c r="I70" s="17">
+      <c r="I71" s="17">
         <v>2700</v>
       </c>
-      <c r="J70" s="17">
+      <c r="J71" s="17">
         <v>2200</v>
       </c>
-      <c r="K70" s="17">
+      <c r="K71" s="17">
         <v>4200</v>
       </c>
-      <c r="L70" s="17">
+      <c r="L71" s="17">
         <v>2000</v>
       </c>
-      <c r="M70" s="17">
+      <c r="M71" s="17">
         <v>3000</v>
       </c>
-      <c r="N70" s="17">
+      <c r="N71" s="17">
         <v>1000</v>
       </c>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17">
+      <c r="O71" s="17"/>
+      <c r="P71" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:16" hidden="1">
-      <c r="B71" s="10">
+    <row r="72" spans="2:16" hidden="1">
+      <c r="B72" s="10">
         <v>2019</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C72" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D72" s="12">
         <f t="shared" si="3"/>
         <v>78300</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E72" s="13">
         <v>46000</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F72" s="13">
         <v>12400</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G72" s="13">
         <v>4300</v>
       </c>
-      <c r="H71" s="13">
+      <c r="H72" s="13">
         <v>3000</v>
       </c>
-      <c r="I71" s="13">
+      <c r="I72" s="13">
         <v>2200</v>
       </c>
-      <c r="J71" s="13">
+      <c r="J72" s="13">
         <v>1800</v>
       </c>
-      <c r="K71" s="13">
+      <c r="K72" s="13">
         <v>3600</v>
       </c>
-      <c r="L71" s="13">
+      <c r="L72" s="13">
         <v>1700</v>
       </c>
-      <c r="M71" s="13">
+      <c r="M72" s="13">
         <v>2500</v>
       </c>
-      <c r="N71" s="13">
+      <c r="N72" s="13">
         <v>800</v>
       </c>
-      <c r="O71" s="13"/>
-      <c r="P71" s="13">
+      <c r="O72" s="13"/>
+      <c r="P72" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:16" hidden="1">
-      <c r="B72" s="14">
+    <row r="73" spans="2:16" hidden="1">
+      <c r="B73" s="14">
         <v>2019</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C73" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D73" s="16">
         <f t="shared" si="3"/>
         <v>80500</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E73" s="17">
         <v>46500</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F73" s="17">
         <v>12500</v>
       </c>
-      <c r="G72" s="17">
+      <c r="G73" s="17">
         <v>4300</v>
       </c>
-      <c r="H72" s="17">
+      <c r="H73" s="17">
         <v>3400</v>
       </c>
-      <c r="I72" s="17">
+      <c r="I73" s="17">
         <v>2500</v>
       </c>
-      <c r="J72" s="17">
+      <c r="J73" s="17">
         <v>2100</v>
       </c>
-      <c r="K72" s="17">
+      <c r="K73" s="17">
         <v>4100</v>
       </c>
-      <c r="L72" s="17">
+      <c r="L73" s="17">
         <v>1800</v>
       </c>
-      <c r="M72" s="17">
+      <c r="M73" s="17">
         <v>2400</v>
       </c>
-      <c r="N72" s="17">
+      <c r="N73" s="17">
         <v>900</v>
       </c>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17">
+      <c r="O73" s="17"/>
+      <c r="P73" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:16" hidden="1">
-      <c r="B73" s="10">
+    <row r="74" spans="2:16" hidden="1">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C74" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D74" s="12">
         <f t="shared" si="3"/>
         <v>81500</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E74" s="13">
         <v>46600</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F74" s="13">
         <v>13600</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G74" s="13">
         <v>4100</v>
       </c>
-      <c r="H73" s="13">
+      <c r="H74" s="13">
         <v>3000</v>
       </c>
-      <c r="I73" s="13">
+      <c r="I74" s="13">
         <v>2500</v>
       </c>
-      <c r="J73" s="13">
+      <c r="J74" s="13">
         <v>2000</v>
       </c>
-      <c r="K73" s="13">
+      <c r="K74" s="13">
         <v>4200</v>
       </c>
-      <c r="L73" s="13">
+      <c r="L74" s="13">
         <v>2000</v>
       </c>
-      <c r="M73" s="13">
+      <c r="M74" s="13">
         <v>2600</v>
       </c>
-      <c r="N73" s="13">
+      <c r="N74" s="13">
         <v>900</v>
       </c>
-      <c r="O73" s="13"/>
-      <c r="P73" s="13">
+      <c r="O74" s="13"/>
+      <c r="P74" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:16" hidden="1">
-      <c r="B74" s="14">
+    <row r="75" spans="2:16" hidden="1">
+      <c r="B75" s="14">
         <v>2019</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C75" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D75" s="16">
         <f t="shared" si="3"/>
         <v>78600</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E75" s="17">
         <v>44200</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F75" s="17">
         <v>13300</v>
       </c>
-      <c r="G74" s="17">
+      <c r="G75" s="17">
         <v>4300</v>
       </c>
-      <c r="H74" s="17">
+      <c r="H75" s="17">
         <v>2900</v>
       </c>
-      <c r="I74" s="17">
+      <c r="I75" s="17">
         <v>2400</v>
       </c>
-      <c r="J74" s="17">
+      <c r="J75" s="17">
         <v>2000</v>
       </c>
-      <c r="K74" s="17">
+      <c r="K75" s="17">
         <v>4300</v>
       </c>
-      <c r="L74" s="17">
+      <c r="L75" s="17">
         <v>2000</v>
       </c>
-      <c r="M74" s="17">
+      <c r="M75" s="17">
         <v>2400</v>
       </c>
-      <c r="N74" s="17">
+      <c r="N75" s="17">
         <v>800</v>
       </c>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17">
+      <c r="O75" s="17"/>
+      <c r="P75" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:16" hidden="1">
-      <c r="B75" s="10">
+    <row r="76" spans="2:16" hidden="1">
+      <c r="B76" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C76" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D76" s="12">
         <f t="shared" si="3"/>
         <v>81100</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E76" s="13">
         <v>45800</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F76" s="13">
         <v>13000</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G76" s="13">
         <v>4600</v>
       </c>
-      <c r="H75" s="13">
+      <c r="H76" s="13">
         <v>3000</v>
       </c>
-      <c r="I75" s="13">
+      <c r="I76" s="13">
         <v>2600</v>
       </c>
-      <c r="J75" s="13">
+      <c r="J76" s="13">
         <v>2100</v>
       </c>
-      <c r="K75" s="13">
+      <c r="K76" s="13">
         <v>4600</v>
       </c>
-      <c r="L75" s="13">
+      <c r="L76" s="13">
         <v>1900</v>
       </c>
-      <c r="M75" s="13">
+      <c r="M76" s="13">
         <v>2600</v>
       </c>
-      <c r="N75" s="13">
+      <c r="N76" s="13">
         <v>900</v>
       </c>
-      <c r="O75" s="13"/>
-      <c r="P75" s="13">
+      <c r="O76" s="13"/>
+      <c r="P76" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:16" hidden="1">
-      <c r="B76" s="14">
+    <row r="77" spans="2:16" hidden="1">
+      <c r="B77" s="14">
         <v>2019</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C77" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D77" s="16">
         <f t="shared" si="3"/>
         <v>79300</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E77" s="17">
         <v>45200</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F77" s="17">
         <v>12800</v>
       </c>
-      <c r="G76" s="17">
+      <c r="G77" s="17">
         <v>4600</v>
       </c>
-      <c r="H76" s="17">
+      <c r="H77" s="17">
         <v>2500</v>
       </c>
-      <c r="I76" s="17">
+      <c r="I77" s="17">
         <v>2600</v>
       </c>
-      <c r="J76" s="17">
+      <c r="J77" s="17">
         <v>2100</v>
       </c>
-      <c r="K76" s="17">
+      <c r="K77" s="17">
         <v>4400</v>
       </c>
-      <c r="L76" s="17">
+      <c r="L77" s="17">
         <v>1800</v>
       </c>
-      <c r="M76" s="17">
+      <c r="M77" s="17">
         <v>2500</v>
       </c>
-      <c r="N76" s="17">
+      <c r="N77" s="17">
         <v>800</v>
       </c>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17">
+      <c r="O77" s="17"/>
+      <c r="P77" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:16" hidden="1">
-      <c r="B77" s="10">
+    <row r="78" spans="2:16" hidden="1">
+      <c r="B78" s="10">
         <v>2019</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C78" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D78" s="12">
         <f t="shared" si="3"/>
         <v>86500</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E78" s="13">
         <v>49900</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F78" s="13">
         <v>14500</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G78" s="13">
         <v>4300</v>
       </c>
-      <c r="H77" s="13">
+      <c r="H78" s="13">
         <v>3000</v>
       </c>
-      <c r="I77" s="13">
+      <c r="I78" s="13">
         <v>2700</v>
       </c>
-      <c r="J77" s="13">
+      <c r="J78" s="13">
         <v>2000</v>
       </c>
-      <c r="K77" s="13">
+      <c r="K78" s="13">
         <v>5000</v>
       </c>
-      <c r="L77" s="13">
+      <c r="L78" s="13">
         <v>1700</v>
       </c>
-      <c r="M77" s="13">
+      <c r="M78" s="13">
         <v>2500</v>
       </c>
-      <c r="N77" s="13">
+      <c r="N78" s="13">
         <v>900</v>
       </c>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13">
+      <c r="O78" s="13"/>
+      <c r="P78" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:16" hidden="1">
-      <c r="B78" s="14">
+    <row r="79" spans="2:16" hidden="1">
+      <c r="B79" s="14">
         <v>2019</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C79" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D78" s="16">
+      <c r="D79" s="16">
         <f t="shared" si="3"/>
         <v>73300</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E79" s="17">
         <v>41800</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F79" s="17">
         <v>11500</v>
       </c>
-      <c r="G78" s="17">
+      <c r="G79" s="17">
         <v>4200</v>
       </c>
-      <c r="H78" s="17">
+      <c r="H79" s="17">
         <v>2600</v>
       </c>
-      <c r="I78" s="17">
+      <c r="I79" s="17">
         <v>2600</v>
       </c>
-      <c r="J78" s="17">
+      <c r="J79" s="17">
         <v>1900</v>
       </c>
-      <c r="K78" s="17">
+      <c r="K79" s="17">
         <v>4100</v>
       </c>
-      <c r="L78" s="17">
+      <c r="L79" s="17">
         <v>1600</v>
       </c>
-      <c r="M78" s="17">
+      <c r="M79" s="17">
         <v>2300</v>
       </c>
-      <c r="N78" s="17">
+      <c r="N79" s="17">
         <v>700</v>
       </c>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17">
+      <c r="O79" s="17"/>
+      <c r="P79" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:16" hidden="1">
-      <c r="B79" s="18">
+    <row r="80" spans="2:16" hidden="1">
+      <c r="B80" s="18">
         <v>2019</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C80" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D79" s="20">
-        <f t="shared" ref="D79:D91" si="4">SUM(E79:P79)</f>
+      <c r="D80" s="20">
+        <f t="shared" ref="D80:D92" si="4">SUM(E80:P80)</f>
         <v>79200</v>
       </c>
-      <c r="E79" s="21">
+      <c r="E80" s="21">
         <v>43500</v>
       </c>
-      <c r="F79" s="21">
+      <c r="F80" s="21">
         <v>13500</v>
       </c>
-      <c r="G79" s="21">
+      <c r="G80" s="21">
         <v>4800</v>
       </c>
-      <c r="H79" s="21">
+      <c r="H80" s="21">
         <v>2900</v>
       </c>
-      <c r="I79" s="21">
+      <c r="I80" s="21">
         <v>2600</v>
       </c>
-      <c r="J79" s="21">
+      <c r="J80" s="21">
         <v>1900</v>
       </c>
-      <c r="K79" s="21">
+      <c r="K80" s="21">
         <v>4500</v>
       </c>
-      <c r="L79" s="21">
+      <c r="L80" s="21">
         <v>2100</v>
       </c>
-      <c r="M79" s="21">
+      <c r="M80" s="21">
         <v>2500</v>
       </c>
-      <c r="N79" s="21">
+      <c r="N80" s="21">
         <v>900</v>
       </c>
-      <c r="O79" s="21"/>
-      <c r="P79" s="21">
+      <c r="O80" s="21"/>
+      <c r="P80" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:16" hidden="1">
-      <c r="B80" s="15">
+    <row r="81" spans="2:16" hidden="1">
+      <c r="B81" s="15">
         <v>2018</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C81" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D80" s="16">
+      <c r="D81" s="16">
         <f t="shared" si="4"/>
         <v>85600</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E81" s="17">
         <v>48800</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F81" s="17">
         <v>14700</v>
       </c>
-      <c r="G80" s="17">
+      <c r="G81" s="17">
         <v>4500</v>
       </c>
-      <c r="H80" s="17">
+      <c r="H81" s="17">
         <v>3000</v>
       </c>
-      <c r="I80" s="17">
+      <c r="I81" s="17">
         <v>3300</v>
       </c>
-      <c r="J80" s="17">
+      <c r="J81" s="17">
         <v>1900</v>
       </c>
-      <c r="K80" s="17">
+      <c r="K81" s="17">
         <v>4000</v>
       </c>
-      <c r="L80" s="17">
+      <c r="L81" s="17">
         <v>1900</v>
       </c>
-      <c r="M80" s="17">
+      <c r="M81" s="17">
         <v>2600</v>
       </c>
-      <c r="N80" s="17">
+      <c r="N81" s="17">
         <v>900</v>
       </c>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17">
+      <c r="O81" s="17"/>
+      <c r="P81" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:16" hidden="1">
-      <c r="B81" s="11">
+    <row r="82" spans="2:16" hidden="1">
+      <c r="B82" s="11">
         <v>2018</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C82" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D82" s="12">
         <f t="shared" si="4"/>
         <v>91600</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E82" s="13">
         <v>52500</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F82" s="13">
         <v>14700</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G82" s="13">
         <v>5200</v>
       </c>
-      <c r="H81" s="13">
+      <c r="H82" s="13">
         <v>3400</v>
       </c>
-      <c r="I81" s="13">
+      <c r="I82" s="13">
         <v>3300</v>
       </c>
-      <c r="J81" s="13">
+      <c r="J82" s="13">
         <v>2300</v>
       </c>
-      <c r="K81" s="13">
+      <c r="K82" s="13">
         <v>4700</v>
       </c>
-      <c r="L81" s="13">
+      <c r="L82" s="13">
         <v>1800</v>
       </c>
-      <c r="M81" s="13">
+      <c r="M82" s="13">
         <v>2800</v>
       </c>
-      <c r="N81" s="13">
+      <c r="N82" s="13">
         <v>900</v>
       </c>
-      <c r="O81" s="13"/>
-      <c r="P81" s="13">
+      <c r="O82" s="13"/>
+      <c r="P82" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:16" hidden="1">
-      <c r="B82" s="15">
+    <row r="83" spans="2:16" hidden="1">
+      <c r="B83" s="15">
         <v>2018</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C83" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D83" s="16">
         <f t="shared" si="4"/>
         <v>94100</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E83" s="17">
         <v>53200</v>
       </c>
-      <c r="F82" s="17">
+      <c r="F83" s="17">
         <v>15500</v>
       </c>
-      <c r="G82" s="17">
+      <c r="G83" s="17">
         <v>5800</v>
       </c>
-      <c r="H82" s="17">
+      <c r="H83" s="17">
         <v>3400</v>
       </c>
-      <c r="I82" s="17">
+      <c r="I83" s="17">
         <v>2800</v>
       </c>
-      <c r="J82" s="17">
+      <c r="J83" s="17">
         <v>2200</v>
       </c>
-      <c r="K82" s="17">
+      <c r="K83" s="17">
         <v>5600</v>
       </c>
-      <c r="L82" s="17">
+      <c r="L83" s="17">
         <v>1800</v>
       </c>
-      <c r="M82" s="17">
+      <c r="M83" s="17">
         <v>2900</v>
       </c>
-      <c r="N82" s="17">
+      <c r="N83" s="17">
         <v>900</v>
       </c>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17">
+      <c r="O83" s="17"/>
+      <c r="P83" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:16" hidden="1">
-      <c r="B83" s="11">
+    <row r="84" spans="2:16" hidden="1">
+      <c r="B84" s="11">
         <v>2018</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C84" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D84" s="12">
         <f t="shared" si="4"/>
         <v>81400</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E84" s="13">
         <v>46600</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F84" s="13">
         <v>13200</v>
       </c>
-      <c r="G83" s="13">
+      <c r="G84" s="13">
         <v>4800</v>
       </c>
-      <c r="H83" s="13">
+      <c r="H84" s="13">
         <v>2900</v>
       </c>
-      <c r="I83" s="13">
+      <c r="I84" s="13">
         <v>2300</v>
       </c>
-      <c r="J83" s="13">
+      <c r="J84" s="13">
         <v>1900</v>
       </c>
-      <c r="K83" s="13">
+      <c r="K84" s="13">
         <v>5000</v>
       </c>
-      <c r="L83" s="13">
+      <c r="L84" s="13">
         <v>1500</v>
       </c>
-      <c r="M83" s="13">
+      <c r="M84" s="13">
         <v>2400</v>
       </c>
-      <c r="N83" s="13">
+      <c r="N84" s="13">
         <v>800</v>
       </c>
-      <c r="O83" s="13"/>
-      <c r="P83" s="13">
+      <c r="O84" s="13"/>
+      <c r="P84" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:16" hidden="1">
-      <c r="B84" s="15">
+    <row r="85" spans="2:16" hidden="1">
+      <c r="B85" s="15">
         <v>2018</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C85" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="16">
+      <c r="D85" s="16">
         <f t="shared" si="4"/>
         <v>84400</v>
       </c>
-      <c r="E84" s="17">
+      <c r="E85" s="17">
         <v>48300</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F85" s="17">
         <v>12600</v>
       </c>
-      <c r="G84" s="17">
+      <c r="G85" s="17">
         <v>5100</v>
       </c>
-      <c r="H84" s="17">
+      <c r="H85" s="17">
         <v>3500</v>
       </c>
-      <c r="I84" s="17">
+      <c r="I85" s="17">
         <v>2400</v>
       </c>
-      <c r="J84" s="17">
+      <c r="J85" s="17">
         <v>2100</v>
       </c>
-      <c r="K84" s="17">
+      <c r="K85" s="17">
         <v>5700</v>
       </c>
-      <c r="L84" s="17">
+      <c r="L85" s="17">
         <v>1600</v>
       </c>
-      <c r="M84" s="17">
+      <c r="M85" s="17">
         <v>2300</v>
       </c>
-      <c r="N84" s="17">
+      <c r="N85" s="17">
         <v>800</v>
       </c>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17">
+      <c r="O85" s="17"/>
+      <c r="P85" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:16" hidden="1">
-      <c r="B85" s="11">
+    <row r="86" spans="2:16" hidden="1">
+      <c r="B86" s="11">
         <v>2018</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C86" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D86" s="12">
         <f t="shared" si="4"/>
         <v>82200</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E86" s="13">
         <v>49400</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F86" s="13">
         <v>12400</v>
       </c>
-      <c r="G85" s="13">
+      <c r="G86" s="13">
         <v>4200</v>
       </c>
-      <c r="H85" s="13">
+      <c r="H86" s="13">
         <v>3100</v>
       </c>
-      <c r="I85" s="13">
+      <c r="I86" s="13">
         <v>2500</v>
       </c>
-      <c r="J85" s="13">
+      <c r="J86" s="13">
         <v>1900</v>
       </c>
-      <c r="K85" s="13">
+      <c r="K86" s="13">
         <v>4100</v>
       </c>
-      <c r="L85" s="13">
+      <c r="L86" s="13">
         <v>1700</v>
       </c>
-      <c r="M85" s="13">
+      <c r="M86" s="13">
         <v>2100</v>
       </c>
-      <c r="N85" s="13">
+      <c r="N86" s="13">
         <v>800</v>
       </c>
-      <c r="O85" s="13"/>
-      <c r="P85" s="13">
+      <c r="O86" s="13"/>
+      <c r="P86" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:16" hidden="1">
-      <c r="B86" s="15">
+    <row r="87" spans="2:16" hidden="1">
+      <c r="B87" s="15">
         <v>2018</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C87" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="16">
+      <c r="D87" s="16">
         <f t="shared" si="4"/>
         <v>86500</v>
       </c>
-      <c r="E86" s="17">
+      <c r="E87" s="17">
         <v>51000</v>
       </c>
-      <c r="F86" s="17">
+      <c r="F87" s="17">
         <v>13400</v>
       </c>
-      <c r="G86" s="17">
+      <c r="G87" s="17">
         <v>4500</v>
       </c>
-      <c r="H86" s="17">
+      <c r="H87" s="17">
         <v>3100</v>
       </c>
-      <c r="I86" s="17">
+      <c r="I87" s="17">
         <v>2600</v>
       </c>
-      <c r="J86" s="17">
+      <c r="J87" s="17">
         <v>2000</v>
       </c>
-      <c r="K86" s="17">
+      <c r="K87" s="17">
         <v>5100</v>
       </c>
-      <c r="L86" s="17">
+      <c r="L87" s="17">
         <v>1800</v>
       </c>
-      <c r="M86" s="17">
+      <c r="M87" s="17">
         <v>2100</v>
       </c>
-      <c r="N86" s="17">
+      <c r="N87" s="17">
         <v>900</v>
       </c>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17">
+      <c r="O87" s="17"/>
+      <c r="P87" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:16" hidden="1">
-      <c r="B87" s="11">
+    <row r="88" spans="2:16" hidden="1">
+      <c r="B88" s="11">
         <v>2018</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C88" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D88" s="12">
         <f t="shared" si="4"/>
         <v>86200</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E88" s="13">
         <v>49700</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F88" s="13">
         <v>13600</v>
       </c>
-      <c r="G87" s="13">
+      <c r="G88" s="13">
         <v>5000</v>
       </c>
-      <c r="H87" s="13">
+      <c r="H88" s="13">
         <v>3200</v>
       </c>
-      <c r="I87" s="13">
+      <c r="I88" s="13">
         <v>2700</v>
       </c>
-      <c r="J87" s="13">
+      <c r="J88" s="13">
         <v>2300</v>
       </c>
-      <c r="K87" s="13">
+      <c r="K88" s="13">
         <v>4700</v>
       </c>
-      <c r="L87" s="13">
+      <c r="L88" s="13">
         <v>1900</v>
       </c>
-      <c r="M87" s="13">
+      <c r="M88" s="13">
         <v>2200</v>
       </c>
-      <c r="N87" s="13">
+      <c r="N88" s="13">
         <v>900</v>
       </c>
-      <c r="O87" s="13"/>
-      <c r="P87" s="13">
+      <c r="O88" s="13"/>
+      <c r="P88" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:16" hidden="1">
-      <c r="B88" s="15">
+    <row r="89" spans="2:16" hidden="1">
+      <c r="B89" s="15">
         <v>2018</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C89" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="16">
+      <c r="D89" s="16">
         <f t="shared" si="4"/>
         <v>84500</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E89" s="17">
         <v>49400</v>
       </c>
-      <c r="F88" s="17">
+      <c r="F89" s="17">
         <v>13900</v>
       </c>
-      <c r="G88" s="17">
+      <c r="G89" s="17">
         <v>4500</v>
       </c>
-      <c r="H88" s="17">
+      <c r="H89" s="17">
         <v>2800</v>
       </c>
-      <c r="I88" s="17">
+      <c r="I89" s="17">
         <v>2800</v>
       </c>
-      <c r="J88" s="17">
+      <c r="J89" s="17">
         <v>1900</v>
       </c>
-      <c r="K88" s="17">
+      <c r="K89" s="17">
         <v>4600</v>
       </c>
-      <c r="L88" s="17">
+      <c r="L89" s="17">
         <v>1700</v>
       </c>
-      <c r="M88" s="17">
+      <c r="M89" s="17">
         <v>2000</v>
       </c>
-      <c r="N88" s="17">
+      <c r="N89" s="17">
         <v>900</v>
       </c>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17">
+      <c r="O89" s="17"/>
+      <c r="P89" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:16" hidden="1">
-      <c r="B89" s="11">
+    <row r="90" spans="2:16" hidden="1">
+      <c r="B90" s="11">
         <v>2018</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C90" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D90" s="12">
         <f t="shared" si="4"/>
         <v>81600</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E90" s="13">
         <v>46000</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F90" s="13">
         <v>16000</v>
       </c>
-      <c r="G89" s="13">
+      <c r="G90" s="13">
         <v>4400</v>
       </c>
-      <c r="H89" s="13">
+      <c r="H90" s="13">
         <v>2900</v>
       </c>
-      <c r="I89" s="13">
+      <c r="I90" s="13">
         <v>2800</v>
       </c>
-      <c r="J89" s="13">
+      <c r="J90" s="13">
         <v>1800</v>
       </c>
-      <c r="K89" s="13">
+      <c r="K90" s="13">
         <v>3500</v>
       </c>
-      <c r="L89" s="13">
+      <c r="L90" s="13">
         <v>1400</v>
       </c>
-      <c r="M89" s="13">
+      <c r="M90" s="13">
         <v>2000</v>
       </c>
-      <c r="N89" s="13">
+      <c r="N90" s="13">
         <v>800</v>
       </c>
-      <c r="O89" s="13"/>
-      <c r="P89" s="13">
+      <c r="O90" s="13"/>
+      <c r="P90" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:16" hidden="1">
-      <c r="B90" s="15">
+    <row r="91" spans="2:16" hidden="1">
+      <c r="B91" s="15">
         <v>2018</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C91" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="16">
+      <c r="D91" s="16">
         <f t="shared" si="4"/>
         <v>74900</v>
       </c>
-      <c r="E90" s="17">
+      <c r="E91" s="17">
         <v>44100</v>
       </c>
-      <c r="F90" s="17">
+      <c r="F91" s="17">
         <v>12100</v>
       </c>
-      <c r="G90" s="17">
+      <c r="G91" s="17">
         <v>4100</v>
       </c>
-      <c r="H90" s="17">
+      <c r="H91" s="17">
         <v>2700</v>
       </c>
-      <c r="I90" s="17">
+      <c r="I91" s="17">
         <v>2700</v>
       </c>
-      <c r="J90" s="17">
+      <c r="J91" s="17">
         <v>2100</v>
       </c>
-      <c r="K90" s="17">
+      <c r="K91" s="17">
         <v>3000</v>
       </c>
-      <c r="L90" s="17">
+      <c r="L91" s="17">
         <v>1500</v>
       </c>
-      <c r="M90" s="17">
+      <c r="M91" s="17">
         <v>1900</v>
       </c>
-      <c r="N90" s="17">
+      <c r="N91" s="17">
         <v>700</v>
       </c>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17">
+      <c r="O91" s="17"/>
+      <c r="P91" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:16" hidden="1">
-      <c r="B91" s="11">
+    <row r="92" spans="2:16" hidden="1">
+      <c r="B92" s="11">
         <v>2018</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C92" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D92" s="12">
         <f t="shared" si="4"/>
         <v>74300</v>
       </c>
-      <c r="E91" s="13">
+      <c r="E92" s="13">
         <v>42800</v>
       </c>
-      <c r="F91" s="13">
+      <c r="F92" s="13">
         <v>12000</v>
       </c>
-      <c r="G91" s="13">
+      <c r="G92" s="13">
         <v>4100</v>
       </c>
-      <c r="H91" s="13">
+      <c r="H92" s="13">
         <v>2500</v>
       </c>
-      <c r="I91" s="13">
+      <c r="I92" s="13">
         <v>2600</v>
       </c>
-      <c r="J91" s="13">
+      <c r="J92" s="13">
         <v>2300</v>
       </c>
-      <c r="K91" s="13">
+      <c r="K92" s="13">
         <v>3300</v>
       </c>
-      <c r="L91" s="13">
+      <c r="L92" s="13">
         <v>2000</v>
       </c>
-      <c r="M91" s="13">
+      <c r="M92" s="13">
         <v>1900</v>
       </c>
-      <c r="N91" s="13">
+      <c r="N92" s="13">
         <v>800</v>
       </c>
-      <c r="O91" s="13"/>
-      <c r="P91" s="13">
+      <c r="O92" s="13"/>
+      <c r="P92" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:16">
-      <c r="B92" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C92" s="26"/>
     </row>
     <row r="93" spans="2:16">
       <c r="B93" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93" s="26"/>
+    </row>
+    <row r="94" spans="2:16">
+      <c r="B94" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="27"/>
-      <c r="P93" s="28"/>
-    </row>
-    <row r="94" spans="2:16">
-      <c r="B94" s="27" t="s">
-        <v>33</v>
-      </c>
+      <c r="C94" s="27"/>
+      <c r="P94" s="28"/>
     </row>
     <row r="95" spans="2:16">
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16">
+      <c r="B96" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="4:16">
-      <c r="D101" s="26"/>
-    </row>
-    <row r="111" spans="4:16">
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
-      <c r="P111" s="2"/>
+    <row r="102" spans="4:16">
+      <c r="D102" s="26"/>
     </row>
     <row r="112" spans="4:16">
       <c r="F112" s="2"/>
@@ -5246,6 +5281,19 @@
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
     </row>
+    <row r="123" spans="6:16">
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+      <c r="P123" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E4:P4"/>

--- a/P_aeropuertos_carga.xlsx
+++ b/P_aeropuertos_carga.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952CC810-0A89-458A-A96D-02100571E1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ECB4AC-15CB-4F31-8F13-8B9DDE4AA2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_37" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="34">
   <si>
     <t>Total</t>
   </si>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">  El aeropuerto Felipe Ángeles, Inició operaciones el 21 de marzo de 2022.</t>
   </si>
   <si>
-    <t>Actualización: Marzo 2025.</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
 </sst>
 </file>
@@ -697,8 +697,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:P92" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
-  <autoFilter ref="B5:P92" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:P93" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
+  <autoFilter ref="B5:P93" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -952,7 +952,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:P123"/>
+  <dimension ref="B2:P124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1059,4097 +1059,4132 @@
       </c>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="10">
+      <c r="B6" s="14">
         <v>2025</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="16">
+        <f>SUM(E6:P6)</f>
+        <v>96473.226409999974</v>
+      </c>
+      <c r="E6" s="17">
+        <v>19824.5</v>
+      </c>
+      <c r="F6" s="17">
+        <v>14014.14</v>
+      </c>
+      <c r="G6" s="17">
+        <v>6218.076</v>
+      </c>
+      <c r="H6" s="17">
+        <v>6345.7909999999993</v>
+      </c>
+      <c r="I6" s="17">
+        <v>2665.0520000000001</v>
+      </c>
+      <c r="J6" s="17">
+        <v>3097.6140000000005</v>
+      </c>
+      <c r="K6" s="17">
+        <v>2098.7640000000001</v>
+      </c>
+      <c r="L6" s="17">
+        <v>3027.6949999999997</v>
+      </c>
+      <c r="M6" s="17">
+        <v>1980.6879999999999</v>
+      </c>
+      <c r="N6" s="17">
+        <v>1276.962</v>
+      </c>
+      <c r="O6" s="17">
+        <v>30785.671000000002</v>
+      </c>
+      <c r="P6" s="17">
+        <v>5138.273409999968</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="10">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="12">
-        <f>SUM(E6:P6)</f>
+      <c r="D7" s="12">
+        <f>SUM(E7:P7)</f>
         <v>104081.79550000002</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E7" s="13">
         <v>22582</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F7" s="13">
         <v>14543.918000000001</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G7" s="13">
         <v>6624.4359999999997</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H7" s="13">
         <v>7070.3890000000001</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I7" s="13">
         <v>2837.4380000000001</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J7" s="13">
         <v>4035.1100000000006</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K7" s="13">
         <v>1969.5269999999998</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L7" s="13">
         <v>2985.9570000000003</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M7" s="13">
         <v>1984.1370000000002</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N7" s="13">
         <v>1609.2139999999999</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O7" s="13">
         <v>33154.97</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P7" s="13">
         <v>4684.6995000000006</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
-      <c r="B7" s="14">
+    <row r="8" spans="2:16">
+      <c r="B8" s="14">
         <v>2025</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="16">
-        <f>SUM(E7:P7)</f>
+      <c r="D8" s="16">
+        <f>SUM(E8:P8)</f>
         <v>86641.77502000003</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E8" s="17">
         <v>19575.670000000002</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F8" s="17">
         <v>11798.751</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G8" s="17">
         <v>5379.473</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H8" s="17">
         <v>4961.049</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I8" s="17">
         <v>2432.8789999999999</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J8" s="17">
         <v>3241.0389999999998</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K8" s="17">
         <v>1841.1139999999998</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L8" s="17">
         <v>2859.4220000000005</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M8" s="17">
         <v>1847.1349999999998</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N8" s="17">
         <v>1648.6580000000001</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O8" s="17">
         <v>26628.777010000002</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P8" s="17">
         <v>4427.8080100000279</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="18">
+    <row r="9" spans="2:16">
+      <c r="B9" s="18">
         <v>2025</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="20">
-        <f>SUM(E8:P8)</f>
+      <c r="D9" s="20">
+        <f>SUM(E9:P9)</f>
         <v>91555.306729999982</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E9" s="21">
         <v>19159.400000000001</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F9" s="21">
         <v>13714.98</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G9" s="21">
         <v>5611.4270000000006</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H9" s="21">
         <v>6455.491</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I9" s="21">
         <v>2783.7079999999996</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J9" s="21">
         <v>2789.2219999999998</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K9" s="21">
         <v>2082.837</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L9" s="21">
         <v>2958.125</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M9" s="21">
         <v>2088.444</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N9" s="21">
         <v>1595.182</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O9" s="21">
         <v>27764.467000000001</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P9" s="21">
         <v>4552.0237299999771</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="14">
+    <row r="10" spans="2:16">
+      <c r="B10" s="14">
         <v>2024</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="16">
-        <f>SUM(E9:P9)</f>
+      <c r="D10" s="16">
+        <f>SUM(E10:P10)</f>
         <v>103547.94350000002</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E10" s="17">
         <v>22084.1</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F10" s="17">
         <v>13788.543999999998</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G10" s="17">
         <v>6101.1239999999998</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H10" s="17">
         <v>6605.4089999999997</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I10" s="17">
         <v>2916.9539999999997</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J10" s="17">
         <v>3692.6709999999998</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K10" s="17">
         <v>2180.1759999999999</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L10" s="17">
         <v>3298.9829999999997</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M10" s="17">
         <v>2405.654</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N10" s="17">
         <v>1379.29</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O10" s="17">
         <v>34117.491999999998</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P10" s="17">
         <v>4977.5465000000313</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="10">
+    <row r="11" spans="2:16">
+      <c r="B11" s="10">
         <v>2024</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="12">
-        <f>SUM(E10:P10)</f>
+      <c r="D11" s="12">
+        <f>SUM(E11:P11)</f>
         <v>108489.79521000001</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E11" s="13">
         <v>20513.3</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F11" s="13">
         <v>14292.029000000002</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G11" s="13">
         <v>6952.0010000000002</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H11" s="13">
         <v>7027.32</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I11" s="13">
         <v>3190.241</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J11" s="13">
         <v>3783.056</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K11" s="13">
         <v>2546.4230000000002</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L11" s="13">
         <v>3625.6490000000003</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M11" s="13">
         <v>2301.3359999999998</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N11" s="13">
         <v>1566.8050000000001</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O11" s="13">
         <v>37606.786999999997</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P11" s="13">
         <v>5084.8482100000183</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="14">
+    <row r="12" spans="2:16">
+      <c r="B12" s="14">
         <v>2024</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="16">
-        <f t="shared" ref="D11" si="0">SUM(E11:P11)</f>
+      <c r="D12" s="16">
+        <f t="shared" ref="D12" si="0">SUM(E12:P12)</f>
         <v>112101.83326999999</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E12" s="17">
         <v>21954.2</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F12" s="17">
         <v>15035.019</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G12" s="17">
         <v>7434.2699999999995</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H12" s="17">
         <v>7376.1170000000002</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I12" s="17">
         <v>3603.3429999999998</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J12" s="17">
         <v>2668.8590000000004</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K12" s="17">
         <v>2486.047</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L12" s="17">
         <v>3482.5789999999997</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M12" s="17">
         <v>2059.6219999999998</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N12" s="17">
         <v>1836.462</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O12" s="17">
         <v>38827.07</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P12" s="17">
         <v>5338.2452699999949</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="10">
+    <row r="13" spans="2:16">
+      <c r="B13" s="10">
         <v>2024</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="12">
-        <f>SUM(E12:P12)</f>
+      <c r="D13" s="12">
+        <f>SUM(E13:P13)</f>
         <v>102256.34403999997</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E13" s="13">
         <v>19983</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F13" s="13">
         <v>15121.885</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G13" s="13">
         <v>6653.17</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H13" s="13">
         <v>6096.0540000000001</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I13" s="13">
         <v>3038.8139999999999</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J13" s="13">
         <v>2226.7169999999996</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K13" s="13">
         <v>2083.5909999999999</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L13" s="13">
         <v>2940.2349999999997</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M13" s="13">
         <v>2121.4749999999999</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N13" s="13">
         <v>1691.9869999999999</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O13" s="13">
         <v>35995.97</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P13" s="13">
         <v>4303.4460399999825</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="14">
+    <row r="14" spans="2:16">
+      <c r="B14" s="14">
         <v>2024</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="16">
-        <f>SUM(E13:P13)</f>
+      <c r="D14" s="16">
+        <f>SUM(E14:P14)</f>
         <v>108823.69917000002</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E14" s="17">
         <v>20229.3</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F14" s="17">
         <v>15421.421999999999</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G14" s="17">
         <v>6900.85</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H14" s="17">
         <v>6494.0969999999998</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I14" s="17">
         <v>3427.1890000000003</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J14" s="17">
         <v>2725.0420000000004</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K14" s="17">
         <v>2321.3049999999998</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L14" s="17">
         <v>3155.9950000000003</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M14" s="17">
         <v>2335.154</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N14" s="17">
         <v>1623.2050000000002</v>
       </c>
-      <c r="O13" s="17">
+      <c r="O14" s="17">
         <v>39174.343999999997</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P14" s="17">
         <v>5015.7961700000369</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
-      <c r="B14" s="10">
+    <row r="15" spans="2:16">
+      <c r="B15" s="10">
         <v>2024</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="12">
-        <f t="shared" ref="D14:D16" si="1">SUM(E14:P14)</f>
+      <c r="D15" s="12">
+        <f t="shared" ref="D15:D17" si="1">SUM(E15:P15)</f>
         <v>107882.74128000005</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E15" s="13">
         <v>19500.699999999997</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F15" s="13">
         <v>15606.789000000001</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G15" s="13">
         <v>7406.7370000000001</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H15" s="13">
         <v>6133.4809999999998</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I15" s="13">
         <v>3408.8180000000002</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J15" s="13">
         <v>2590.2110000000002</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K15" s="13">
         <v>2370.0729999999999</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L15" s="13">
         <v>3036.741</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M15" s="13">
         <v>2203.3470000000002</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N15" s="13">
         <v>1958.9659999999999</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O15" s="13">
         <v>38531.585999999996</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P15" s="13">
         <v>5135.2922800000515</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="14">
+    <row r="16" spans="2:16">
+      <c r="B16" s="14">
         <v>2024</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D16" s="16">
         <f t="shared" si="1"/>
         <v>106952.98336000003</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E16" s="17">
         <v>19499.3</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F16" s="17">
         <v>14724.419</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G16" s="17">
         <v>7318.848</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H16" s="17">
         <v>6428.241</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I16" s="17">
         <v>3309.4189999999999</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J16" s="17">
         <v>2399.3510000000001</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K16" s="17">
         <v>2148.4209999999998</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L16" s="17">
         <v>3308.527</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M16" s="17">
         <v>2070.7939999999999</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N16" s="17">
         <v>1689.7920000000001</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O16" s="17">
         <v>39593.667999999998</v>
       </c>
-      <c r="P15" s="17">
+      <c r="P16" s="17">
         <v>4462.203360000025</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="10">
+    <row r="17" spans="2:16">
+      <c r="B17" s="10">
         <v>2024</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D17" s="12">
         <f t="shared" si="1"/>
         <v>110411.98745000002</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E17" s="13">
         <v>20062</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="13">
         <v>15321.734</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G17" s="13">
         <v>6843.5949999999993</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H17" s="13">
         <v>6818.1309999999994</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I17" s="13">
         <v>3632.4749999999995</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J17" s="13">
         <v>2865.9740000000002</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K17" s="13">
         <v>2297.306</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L17" s="13">
         <v>3244.5340000000001</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M17" s="13">
         <v>2175.2600000000002</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N17" s="13">
         <v>1778.4730000000002</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O17" s="13">
         <v>40133.834000000003</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P17" s="13">
         <v>5238.6714500000198</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="14">
+    <row r="18" spans="2:16">
+      <c r="B18" s="14">
         <v>2024</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="16">
-        <f t="shared" ref="D17:D47" si="2">SUM(E17:P17)</f>
+      <c r="D18" s="16">
+        <f t="shared" ref="D18:D48" si="2">SUM(E18:P18)</f>
         <v>105215.16596</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E18" s="17">
         <v>18973.3</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F18" s="17">
         <v>13665.344000000001</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G18" s="17">
         <v>6313.32</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H18" s="17">
         <v>6639.4679999999998</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I18" s="17">
         <v>3421.6190000000001</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J18" s="17">
         <v>3106.3360000000002</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K18" s="17">
         <v>2364.4089999999997</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L18" s="17">
         <v>3512.4059999999999</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M18" s="17">
         <v>2156.3200000000002</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N18" s="17">
         <v>1665.7180000000001</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O18" s="17">
         <v>38502.94</v>
       </c>
-      <c r="P17" s="17">
+      <c r="P18" s="17">
         <v>4893.9859599999945</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="10">
+    <row r="19" spans="2:16">
+      <c r="B19" s="10">
         <v>2024</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D19" s="12">
         <f t="shared" si="2"/>
         <v>104014.85637999998</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E19" s="13">
         <v>19802.7</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F19" s="13">
         <v>14556.685000000001</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G19" s="13">
         <v>5905.6409999999996</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H19" s="13">
         <v>5567.2889999999998</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I19" s="13">
         <v>3144.7429999999999</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J19" s="13">
         <v>3762.2560000000003</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K19" s="13">
         <v>2058.4110000000001</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L19" s="13">
         <v>2935.8180000000002</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M19" s="13">
         <v>1921.692</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N19" s="13">
         <v>1570.1889999999996</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O19" s="13">
         <v>38209.173000000003</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P19" s="13">
         <v>4580.2593799999795</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
-      <c r="B19" s="14">
+    <row r="20" spans="2:16">
+      <c r="B20" s="14">
         <v>2024</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C20" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D20" s="16">
         <f t="shared" si="2"/>
         <v>96832.621000000028</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E20" s="17">
         <v>19063.57</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F20" s="17">
         <v>12825.287</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G20" s="17">
         <v>5709.5619999999999</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H20" s="17">
         <v>6237.3979999999992</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I20" s="17">
         <v>3026.2809999999999</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J20" s="17">
         <v>3371.2139999999999</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K20" s="17">
         <v>2375.6289999999999</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L20" s="17">
         <v>3173.3670000000002</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M20" s="17">
         <v>2052.38</v>
       </c>
-      <c r="N19" s="17">
+      <c r="N20" s="17">
         <v>1593.547</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O20" s="17">
         <v>32860.998999999996</v>
       </c>
-      <c r="P19" s="17">
+      <c r="P20" s="17">
         <v>4543.3870000000315</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
-      <c r="B20" s="18">
+    <row r="21" spans="2:16">
+      <c r="B21" s="18">
         <v>2024</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C21" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D21" s="20">
         <f t="shared" si="2"/>
         <v>97330.675600000075</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E21" s="21">
         <v>18369.400000000001</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F21" s="21">
         <v>13351.472999999998</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G21" s="21">
         <v>5884.6970000000001</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H21" s="21">
         <v>5967.9220000000005</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I21" s="21">
         <v>2989.357</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J21" s="21">
         <v>2973.8410000000003</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K21" s="21">
         <v>2268.6259999999997</v>
       </c>
-      <c r="L20" s="21">
+      <c r="L21" s="21">
         <v>2854.8959999999997</v>
       </c>
-      <c r="M20" s="21">
+      <c r="M21" s="21">
         <v>2397.5709999999999</v>
       </c>
-      <c r="N20" s="21">
+      <c r="N21" s="21">
         <v>1825.489</v>
       </c>
-      <c r="O20" s="21">
+      <c r="O21" s="21">
         <v>33787.300999999999</v>
       </c>
-      <c r="P20" s="21">
+      <c r="P21" s="21">
         <v>4660.1026000000729</v>
       </c>
     </row>
-    <row r="21" spans="2:16" hidden="1">
-      <c r="B21" s="22">
+    <row r="22" spans="2:16" hidden="1">
+      <c r="B22" s="22">
         <v>2023</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C22" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D22" s="24">
         <f t="shared" si="2"/>
         <v>104426.30729999999</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E22" s="25">
         <v>20566.599999999999</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F22" s="25">
         <v>13313.805</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G22" s="25">
         <v>5779.5439999999999</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H22" s="25">
         <v>6634.8190000000004</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I22" s="25">
         <v>3186.3519999999999</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J22" s="25">
         <v>3890.0010000000002</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K22" s="25">
         <v>2228.2650000000003</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L22" s="25">
         <v>3022.0309999999999</v>
       </c>
-      <c r="M21" s="25">
+      <c r="M22" s="25">
         <v>2482.5659999999998</v>
       </c>
-      <c r="N21" s="25">
+      <c r="N22" s="25">
         <v>1573.3980000000001</v>
       </c>
-      <c r="O21" s="25">
+      <c r="O22" s="25">
         <v>36496.25</v>
       </c>
-      <c r="P21" s="25">
+      <c r="P22" s="25">
         <v>5252.6762999999974</v>
       </c>
     </row>
-    <row r="22" spans="2:16" hidden="1">
-      <c r="B22" s="10">
+    <row r="23" spans="2:16" hidden="1">
+      <c r="B23" s="10">
         <v>2023</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D23" s="12">
         <f t="shared" si="2"/>
         <v>105823.25400000002</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E23" s="13">
         <v>20520.5</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="13">
         <v>14126.735000000001</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G23" s="13">
         <v>6122.6710000000003</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H23" s="13">
         <v>6195.4279999999999</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I23" s="13">
         <v>3286.1129999999998</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J23" s="13">
         <v>3463.6080000000002</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K23" s="13">
         <v>2592.8070000000002</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L23" s="13">
         <v>3439.2550000000001</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M23" s="13">
         <v>2391.259</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N23" s="13">
         <v>1992.0079999999998</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O23" s="13">
         <v>36256.74</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P23" s="13">
         <v>5436.1300000000128</v>
       </c>
     </row>
-    <row r="23" spans="2:16" hidden="1">
-      <c r="B23" s="14">
+    <row r="24" spans="2:16" hidden="1">
+      <c r="B24" s="14">
         <v>2023</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C24" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D24" s="16">
         <f t="shared" si="2"/>
         <v>107132.1866</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E24" s="17">
         <v>20291</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F24" s="17">
         <v>14588.228999999999</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G24" s="17">
         <v>6563.4580000000005</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H24" s="17">
         <v>6490.5720000000001</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I24" s="17">
         <v>3206.3980000000001</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J24" s="17">
         <v>2918.2420000000002</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K24" s="17">
         <v>2583.0619999999999</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L24" s="17">
         <v>3007.05</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M24" s="17">
         <v>2285.1779999999999</v>
       </c>
-      <c r="N23" s="17">
+      <c r="N24" s="17">
         <v>2296.12</v>
       </c>
-      <c r="O23" s="17">
+      <c r="O24" s="17">
         <v>37567.615000000005</v>
       </c>
-      <c r="P23" s="17">
+      <c r="P24" s="17">
         <v>5335.2626000000073</v>
       </c>
     </row>
-    <row r="24" spans="2:16" hidden="1">
-      <c r="B24" s="10">
+    <row r="25" spans="2:16" hidden="1">
+      <c r="B25" s="10">
         <v>2023</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D25" s="12">
         <f t="shared" si="2"/>
         <v>96344.621599999969</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E25" s="13">
         <v>18890.84</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F25" s="13">
         <v>11939.238000000001</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G25" s="13">
         <v>6448.41</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H25" s="13">
         <v>6941.482</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I25" s="13">
         <v>2997.1009999999997</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J25" s="13">
         <v>2820.8690000000001</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K25" s="13">
         <v>2392.9459999999999</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L25" s="13">
         <v>2689.5440000000003</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M25" s="13">
         <v>2237.8310000000001</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N25" s="13">
         <v>1937.12</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O25" s="13">
         <v>32211.534999999996</v>
       </c>
-      <c r="P24" s="13">
+      <c r="P25" s="13">
         <v>4837.7055999999784</v>
       </c>
     </row>
-    <row r="25" spans="2:16" hidden="1">
-      <c r="B25" s="14">
+    <row r="26" spans="2:16" hidden="1">
+      <c r="B26" s="14">
         <v>2023</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C26" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D26" s="16">
         <f t="shared" si="2"/>
         <v>101340.06099999999</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E26" s="17">
         <v>30758.92</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F26" s="17">
         <v>12635.058999999999</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G26" s="17">
         <v>6735.0630000000001</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H26" s="17">
         <v>7071.5340000000006</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I26" s="17">
         <v>3260.134</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J26" s="17">
         <v>2927.556</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K26" s="17">
         <v>2738.0719999999997</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L26" s="17">
         <v>3079.3420000000001</v>
       </c>
-      <c r="M25" s="17">
+      <c r="M26" s="17">
         <v>2242.9470000000001</v>
       </c>
-      <c r="N25" s="17">
+      <c r="N26" s="17">
         <v>2212.1790000000001</v>
       </c>
-      <c r="O25" s="17">
+      <c r="O26" s="17">
         <v>22653.131999999998</v>
       </c>
-      <c r="P25" s="17">
+      <c r="P26" s="17">
         <v>5026.1229999999987</v>
       </c>
     </row>
-    <row r="26" spans="2:16" hidden="1">
-      <c r="B26" s="10">
+    <row r="27" spans="2:16" hidden="1">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D27" s="12">
         <f t="shared" si="2"/>
         <v>99893.349999999977</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E27" s="13">
         <v>42255.99</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="13">
         <v>13795.428</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G27" s="13">
         <v>6453.2659999999996</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H27" s="13">
         <v>6305.5460000000003</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I27" s="13">
         <v>2850.3670000000002</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J27" s="13">
         <v>2992.5640000000003</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K27" s="13">
         <v>2184.107</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L27" s="13">
         <v>3001.3330000000001</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M27" s="13">
         <v>2136.636</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N27" s="13">
         <v>1665.6389999999999</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O27" s="13">
         <v>12061.946</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P27" s="13">
         <v>4190.5279999999912</v>
       </c>
     </row>
-    <row r="27" spans="2:16" hidden="1">
-      <c r="B27" s="14">
+    <row r="28" spans="2:16" hidden="1">
+      <c r="B28" s="14">
         <v>2023</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D28" s="16">
         <f t="shared" si="2"/>
         <v>100692.46</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E28" s="17">
         <v>48959.360000000001</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F28" s="17">
         <v>14347.388000000001</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G28" s="17">
         <v>6967.08</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H28" s="17">
         <v>7548.9220000000005</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I28" s="17">
         <v>3319.7</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J28" s="17">
         <v>2985.5720000000001</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K28" s="17">
         <v>2751.5749999999998</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L28" s="17">
         <v>2986.2660000000001</v>
       </c>
-      <c r="M27" s="17">
+      <c r="M28" s="17">
         <v>2130.835</v>
       </c>
-      <c r="N27" s="17">
+      <c r="N28" s="17">
         <v>1363.424</v>
       </c>
-      <c r="O27" s="17">
+      <c r="O28" s="17">
         <v>2657.15</v>
       </c>
-      <c r="P27" s="17">
+      <c r="P28" s="17">
         <v>4675.1880000000074</v>
       </c>
     </row>
-    <row r="28" spans="2:16" hidden="1">
-      <c r="B28" s="10">
+    <row r="29" spans="2:16" hidden="1">
+      <c r="B29" s="10">
         <v>2023</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D29" s="12">
         <f t="shared" si="2"/>
         <v>98181.257999999987</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E29" s="13">
         <v>50235.43</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="13">
         <v>13240.904999999999</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G29" s="13">
         <v>6447.4090000000006</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H29" s="13">
         <v>6818.1289999999999</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I29" s="13">
         <v>3168.0129999999999</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J29" s="13">
         <v>3032.7219999999998</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K29" s="13">
         <v>2419.5279999999998</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L29" s="13">
         <v>3039.0519999999997</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M29" s="13">
         <v>2077.337</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N29" s="13">
         <v>1145.9829999999999</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O29" s="13">
         <v>2054.748</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P29" s="13">
         <v>4502.0019999999795</v>
       </c>
     </row>
-    <row r="29" spans="2:16" hidden="1">
-      <c r="B29" s="14">
+    <row r="30" spans="2:16" hidden="1">
+      <c r="B30" s="14">
         <v>2023</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C30" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D30" s="16">
         <f t="shared" si="2"/>
         <v>92574.85</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E30" s="17">
         <v>47367.56</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F30" s="17">
         <v>13553.766</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G30" s="17">
         <v>6046.3230000000003</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H30" s="17">
         <v>5997.2860000000001</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I30" s="17">
         <v>2823</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J30" s="17">
         <v>3201.482</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K30" s="17">
         <v>2103.346</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L30" s="17">
         <v>2699.6509999999998</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M30" s="17">
         <v>1830.1030000000001</v>
       </c>
-      <c r="N29" s="17">
+      <c r="N30" s="17">
         <v>966.625</v>
       </c>
-      <c r="O29" s="17">
+      <c r="O30" s="17">
         <v>1973.069</v>
       </c>
-      <c r="P29" s="17">
+      <c r="P30" s="17">
         <v>4012.6390000000029</v>
       </c>
     </row>
-    <row r="30" spans="2:16" hidden="1">
-      <c r="B30" s="10">
+    <row r="31" spans="2:16" hidden="1">
+      <c r="B31" s="10">
         <v>2023</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D31" s="12">
         <f t="shared" si="2"/>
         <v>105745.56200000001</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E31" s="13">
         <v>52276.67</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F31" s="13">
         <v>16535.007000000001</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G31" s="13">
         <v>6440.4480000000003</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H31" s="13">
         <v>7445.0419999999995</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I31" s="13">
         <v>3504.6480000000001</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J31" s="13">
         <v>3949.8199999999997</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K31" s="13">
         <v>2498.7659999999996</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L31" s="13">
         <v>3061.4049999999997</v>
       </c>
-      <c r="M30" s="13">
+      <c r="M31" s="13">
         <v>2069.788</v>
       </c>
-      <c r="N30" s="13">
+      <c r="N31" s="13">
         <v>1219.9379999999999</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O31" s="13">
         <v>1776.1070000000002</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P31" s="13">
         <v>4967.9229999999952</v>
       </c>
     </row>
-    <row r="31" spans="2:16" hidden="1">
-      <c r="B31" s="14">
+    <row r="32" spans="2:16" hidden="1">
+      <c r="B32" s="14">
         <v>2023</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C32" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D32" s="16">
         <f t="shared" si="2"/>
         <v>92062.197000000015</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E32" s="17">
         <v>48557.700000000004</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F32" s="17">
         <v>12859.111000000001</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G32" s="17">
         <v>5657.7039999999997</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H32" s="17">
         <v>6269.88</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I32" s="17">
         <v>2992.4319999999998</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J32" s="17">
         <v>3589.6260000000002</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K32" s="17">
         <v>2018.2800000000002</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L32" s="17">
         <v>2591.8669999999997</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M32" s="17">
         <v>1971.3010000000002</v>
       </c>
-      <c r="N31" s="17">
+      <c r="N32" s="17">
         <v>967.20100000000002</v>
       </c>
-      <c r="O31" s="17">
+      <c r="O32" s="17">
         <v>24.785999999999998</v>
       </c>
-      <c r="P31" s="17">
+      <c r="P32" s="17">
         <v>4562.3090000000093</v>
       </c>
     </row>
-    <row r="32" spans="2:16" hidden="1">
-      <c r="B32" s="18">
+    <row r="33" spans="2:16" hidden="1">
+      <c r="B33" s="18">
         <v>2023</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C33" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D33" s="20">
         <f t="shared" si="2"/>
         <v>91861.286999999982</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E33" s="21">
         <v>47206.720000000001</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F33" s="21">
         <v>14071.760999999999</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G33" s="21">
         <v>5308.5119999999997</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H33" s="21">
         <v>6105.5779999999995</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I33" s="21">
         <v>3099.4949999999999</v>
       </c>
-      <c r="J32" s="21">
+      <c r="J33" s="21">
         <v>3049.6080000000002</v>
       </c>
-      <c r="K32" s="21">
+      <c r="K33" s="21">
         <v>2226.4519999999998</v>
       </c>
-      <c r="L32" s="21">
+      <c r="L33" s="21">
         <v>2648.1549999999997</v>
       </c>
-      <c r="M32" s="21">
+      <c r="M33" s="21">
         <v>2170.7359999999999</v>
       </c>
-      <c r="N32" s="21">
+      <c r="N33" s="21">
         <v>1026.6849999999999</v>
       </c>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21">
+      <c r="O33" s="21"/>
+      <c r="P33" s="21">
         <v>4947.5849999999755</v>
       </c>
     </row>
-    <row r="33" spans="2:16" hidden="1">
-      <c r="B33" s="22">
+    <row r="34" spans="2:16" hidden="1">
+      <c r="B34" s="22">
         <v>2022</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C34" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D34" s="24">
         <f t="shared" si="2"/>
         <v>101065.27699999994</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E34" s="25">
         <v>51995.01</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F34" s="25">
         <v>14753.401000000002</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G34" s="25">
         <v>6074.482</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H34" s="25">
         <v>6693.6720000000005</v>
       </c>
-      <c r="I33" s="25">
+      <c r="I34" s="25">
         <v>3610.9369999999999</v>
       </c>
-      <c r="J33" s="25">
+      <c r="J34" s="25">
         <v>3543.056</v>
       </c>
-      <c r="K33" s="25">
+      <c r="K34" s="25">
         <v>2529.5419999999999</v>
       </c>
-      <c r="L33" s="25">
+      <c r="L34" s="25">
         <v>3120.09</v>
       </c>
-      <c r="M33" s="25">
+      <c r="M34" s="25">
         <v>2114.6820000000002</v>
       </c>
-      <c r="N33" s="25">
+      <c r="N34" s="25">
         <v>1202.202</v>
       </c>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25">
+      <c r="O34" s="25"/>
+      <c r="P34" s="25">
         <v>5428.2029999999249</v>
       </c>
     </row>
-    <row r="34" spans="2:16" hidden="1">
-      <c r="B34" s="10">
+    <row r="35" spans="2:16" hidden="1">
+      <c r="B35" s="10">
         <v>2022</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D35" s="12">
         <f t="shared" si="2"/>
         <v>100761.743</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E35" s="13">
         <v>52228.090000000004</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F35" s="13">
         <v>14611.128000000001</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G35" s="13">
         <v>6314.7170000000006</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H35" s="13">
         <v>6174.5390000000007</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I35" s="13">
         <v>3744.3739999999998</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J35" s="13">
         <v>3438.8589999999999</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K35" s="13">
         <v>2565.1889999999999</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L35" s="13">
         <v>3357.0519999999997</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M35" s="13">
         <v>2200.0079999999998</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N35" s="13">
         <v>1152.1139999999998</v>
       </c>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13">
+      <c r="O35" s="13"/>
+      <c r="P35" s="13">
         <v>4975.6730000000007</v>
       </c>
     </row>
-    <row r="35" spans="2:16" hidden="1">
-      <c r="B35" s="14">
+    <row r="36" spans="2:16" hidden="1">
+      <c r="B36" s="14">
         <v>2022</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C36" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D36" s="16">
         <f t="shared" si="2"/>
         <v>101815.66400000002</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E36" s="17">
         <v>53850.369999999995</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F36" s="17">
         <v>15184.744000000001</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G36" s="17">
         <v>6463.3790000000008</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H36" s="17">
         <v>5772.1310000000003</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I36" s="17">
         <v>3574.8900000000003</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J36" s="17">
         <v>3573.3429999999998</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K36" s="17">
         <v>2038.558</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L36" s="17">
         <v>2968.2270000000003</v>
       </c>
-      <c r="M35" s="17">
+      <c r="M36" s="17">
         <v>2060.0630000000001</v>
       </c>
-      <c r="N35" s="17">
+      <c r="N36" s="17">
         <v>1283.712</v>
       </c>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17">
+      <c r="O36" s="17"/>
+      <c r="P36" s="17">
         <v>5046.2470000000367</v>
       </c>
     </row>
-    <row r="36" spans="2:16" hidden="1">
-      <c r="B36" s="10">
+    <row r="37" spans="2:16" hidden="1">
+      <c r="B37" s="10">
         <v>2022</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D37" s="12">
         <f t="shared" si="2"/>
         <v>89334.159999999974</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E37" s="13">
         <v>47061.49</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F37" s="13">
         <v>14479.710999999999</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G37" s="13">
         <v>6202.4430000000002</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H37" s="13">
         <v>5721.7240000000002</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I37" s="13">
         <v>2401.297</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J37" s="13">
         <v>2631.6559999999999</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K37" s="13">
         <v>2465.8180000000002</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L37" s="13">
         <v>2754.2740000000003</v>
       </c>
-      <c r="M36" s="13">
+      <c r="M37" s="13">
         <v>512.15899999999999</v>
       </c>
-      <c r="N36" s="13">
+      <c r="N37" s="13">
         <v>1143.1680000000001</v>
       </c>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13">
+      <c r="O37" s="13"/>
+      <c r="P37" s="13">
         <v>3960.4199999999564</v>
       </c>
     </row>
-    <row r="37" spans="2:16" hidden="1">
-      <c r="B37" s="14">
+    <row r="38" spans="2:16" hidden="1">
+      <c r="B38" s="14">
         <v>2022</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C38" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D38" s="16">
         <f t="shared" si="2"/>
         <v>95278.69100000005</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E38" s="17">
         <v>47746.51</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F38" s="17">
         <v>14115.436000000002</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G38" s="17">
         <v>7015.4850000000006</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H38" s="17">
         <v>6571.5810000000001</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I38" s="17">
         <v>2958.8999999999996</v>
       </c>
-      <c r="J37" s="17">
+      <c r="J38" s="17">
         <v>3531.7309999999998</v>
       </c>
-      <c r="K37" s="17">
+      <c r="K38" s="17">
         <v>2622.4749999999999</v>
       </c>
-      <c r="L37" s="17">
+      <c r="L38" s="17">
         <v>2978.3830000000003</v>
       </c>
-      <c r="M37" s="17">
+      <c r="M38" s="17">
         <v>2025.0970000000002</v>
       </c>
-      <c r="N37" s="17">
+      <c r="N38" s="17">
         <v>1204.242</v>
       </c>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17">
+      <c r="O38" s="17"/>
+      <c r="P38" s="17">
         <v>4508.8510000000351</v>
       </c>
     </row>
-    <row r="38" spans="2:16" hidden="1">
-      <c r="B38" s="10">
+    <row r="39" spans="2:16" hidden="1">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D39" s="12">
         <f t="shared" si="2"/>
         <v>97785.689999999988</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E39" s="13">
         <v>50063.990000000005</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F39" s="13">
         <v>14860.342999999999</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G39" s="13">
         <v>6623.2259999999997</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H39" s="13">
         <v>5368.71</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I39" s="13">
         <v>3986.607</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J39" s="13">
         <v>4343.424</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K39" s="13">
         <v>2496.5360000000001</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L39" s="13">
         <v>2822.9870000000001</v>
       </c>
-      <c r="M38" s="13">
+      <c r="M39" s="13">
         <v>1943.029</v>
       </c>
-      <c r="N38" s="13">
+      <c r="N39" s="13">
         <v>1117.913</v>
       </c>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13">
+      <c r="O39" s="13"/>
+      <c r="P39" s="13">
         <v>4158.924999999982</v>
       </c>
     </row>
-    <row r="39" spans="2:16" hidden="1">
-      <c r="B39" s="14">
+    <row r="40" spans="2:16" hidden="1">
+      <c r="B40" s="14">
         <v>2022</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C40" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D40" s="16">
         <f t="shared" si="2"/>
         <v>98754.335000000006</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E40" s="17">
         <v>46577.189999999995</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F40" s="17">
         <v>15738.313999999998</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G40" s="17">
         <v>7141.8860000000004</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H40" s="17">
         <v>6363.9130000000005</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I40" s="17">
         <v>4263.3530000000001</v>
       </c>
-      <c r="J39" s="17">
+      <c r="J40" s="17">
         <v>3976.6590000000001</v>
       </c>
-      <c r="K39" s="17">
+      <c r="K40" s="17">
         <v>2587.8480000000004</v>
       </c>
-      <c r="L39" s="17">
+      <c r="L40" s="17">
         <v>3419.7529999999997</v>
       </c>
-      <c r="M39" s="17">
+      <c r="M40" s="17">
         <v>2042.5399999999997</v>
       </c>
-      <c r="N39" s="17">
+      <c r="N40" s="17">
         <v>1359.9259999999999</v>
       </c>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17">
+      <c r="O40" s="17"/>
+      <c r="P40" s="17">
         <v>5282.9530000000059</v>
       </c>
     </row>
-    <row r="40" spans="2:16" hidden="1">
-      <c r="B40" s="10">
+    <row r="41" spans="2:16" hidden="1">
+      <c r="B41" s="10">
         <v>2022</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D41" s="12">
         <f t="shared" si="2"/>
         <v>100981.77</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E41" s="13">
         <v>48175.270000000004</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="13">
         <v>15121.800999999999</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G41" s="13">
         <v>6917.94</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H41" s="13">
         <v>7004.4480000000003</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I41" s="13">
         <v>4293.0200000000004</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J41" s="13">
         <v>4633.1059999999998</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K41" s="13">
         <v>2216.5819999999999</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L41" s="13">
         <v>4035.9160000000002</v>
       </c>
-      <c r="M40" s="13">
+      <c r="M41" s="13">
         <v>2042.0069999999998</v>
       </c>
-      <c r="N40" s="13">
+      <c r="N41" s="13">
         <v>1212.9639999999999</v>
       </c>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13">
+      <c r="O41" s="13"/>
+      <c r="P41" s="13">
         <v>5328.7160000000003</v>
       </c>
     </row>
-    <row r="41" spans="2:16" hidden="1">
-      <c r="B41" s="14">
+    <row r="42" spans="2:16" hidden="1">
+      <c r="B42" s="14">
         <v>2022</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C42" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D42" s="16">
         <f t="shared" si="2"/>
         <v>91772.804999999978</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E42" s="17">
         <v>42504.89</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F42" s="17">
         <v>14271.894</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G42" s="17">
         <v>6804.5039999999999</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H42" s="17">
         <v>5796.9490000000005</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I42" s="17">
         <v>3819.4520000000002</v>
       </c>
-      <c r="J41" s="17">
+      <c r="J42" s="17">
         <v>4312.4709999999995</v>
       </c>
-      <c r="K41" s="17">
+      <c r="K42" s="17">
         <v>2349.19</v>
       </c>
-      <c r="L41" s="17">
+      <c r="L42" s="17">
         <v>3770.8559999999998</v>
       </c>
-      <c r="M41" s="17">
+      <c r="M42" s="17">
         <v>1869.663</v>
       </c>
-      <c r="N41" s="17">
+      <c r="N42" s="17">
         <v>1118.5450000000001</v>
       </c>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17">
+      <c r="O42" s="17"/>
+      <c r="P42" s="17">
         <v>5154.390999999976</v>
       </c>
     </row>
-    <row r="42" spans="2:16" hidden="1">
-      <c r="B42" s="10">
+    <row r="43" spans="2:16" hidden="1">
+      <c r="B43" s="10">
         <v>2022</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C43" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D43" s="12">
         <f t="shared" si="2"/>
         <v>97475.604000000007</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E43" s="13">
         <v>43589.06</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F43" s="13">
         <v>15805.73</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G43" s="13">
         <v>7474.4720000000007</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H43" s="13">
         <v>6700.8620000000001</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I43" s="13">
         <v>4181.607</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J43" s="13">
         <v>4873.1779999999999</v>
       </c>
-      <c r="K42" s="13">
+      <c r="K43" s="13">
         <v>2656.9369999999999</v>
       </c>
-      <c r="L42" s="13">
+      <c r="L43" s="13">
         <v>3049.7539999999999</v>
       </c>
-      <c r="M42" s="13">
+      <c r="M43" s="13">
         <v>2099.5990000000002</v>
       </c>
-      <c r="N42" s="13">
+      <c r="N43" s="13">
         <v>1350.1109999999999</v>
       </c>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13">
+      <c r="O43" s="13"/>
+      <c r="P43" s="13">
         <v>5694.2940000000135</v>
       </c>
     </row>
-    <row r="43" spans="2:16" hidden="1">
-      <c r="B43" s="14">
+    <row r="44" spans="2:16" hidden="1">
+      <c r="B44" s="14">
         <v>2022</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C44" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D44" s="16">
         <f t="shared" si="2"/>
         <v>89800.428</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E44" s="17">
         <v>45366.31</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F44" s="17">
         <v>13369.772999999999</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G44" s="17">
         <v>5647.3320000000003</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H44" s="17">
         <v>5270.6120000000001</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I44" s="17">
         <v>3794.5039999999999</v>
       </c>
-      <c r="J43" s="17">
+      <c r="J44" s="17">
         <v>3839.19</v>
       </c>
-      <c r="K43" s="17">
+      <c r="K44" s="17">
         <v>2119.1379999999999</v>
       </c>
-      <c r="L43" s="17">
+      <c r="L44" s="17">
         <v>2576.7370000000001</v>
       </c>
-      <c r="M43" s="17">
+      <c r="M44" s="17">
         <v>1797.6790000000001</v>
       </c>
-      <c r="N43" s="17">
+      <c r="N44" s="17">
         <v>1019.68</v>
       </c>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17">
+      <c r="O44" s="17"/>
+      <c r="P44" s="17">
         <v>4999.4729999999945</v>
       </c>
     </row>
-    <row r="44" spans="2:16" hidden="1">
-      <c r="B44" s="18">
+    <row r="45" spans="2:16" hidden="1">
+      <c r="B45" s="18">
         <v>2022</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C45" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D45" s="20">
         <f t="shared" si="2"/>
         <v>85046.313999999984</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E45" s="21">
         <v>41649.950000000004</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F45" s="21">
         <v>14466.567999999999</v>
       </c>
-      <c r="G44" s="21">
+      <c r="G45" s="21">
         <v>5084.2289999999994</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H45" s="21">
         <v>5408.1559999999999</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I45" s="21">
         <v>2575.6040000000003</v>
       </c>
-      <c r="J44" s="21">
+      <c r="J45" s="21">
         <v>3171.0789999999997</v>
       </c>
-      <c r="K44" s="21">
+      <c r="K45" s="21">
         <v>2142.4740000000002</v>
       </c>
-      <c r="L44" s="21">
+      <c r="L45" s="21">
         <v>2573.4090000000001</v>
       </c>
-      <c r="M44" s="21">
+      <c r="M45" s="21">
         <v>1939.2370000000001</v>
       </c>
-      <c r="N44" s="21">
+      <c r="N45" s="21">
         <v>1105.0170000000001</v>
       </c>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21">
+      <c r="O45" s="21"/>
+      <c r="P45" s="21">
         <v>4930.590999999964</v>
       </c>
     </row>
-    <row r="45" spans="2:16" hidden="1">
-      <c r="B45" s="22">
+    <row r="46" spans="2:16" hidden="1">
+      <c r="B46" s="22">
         <v>2021</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C46" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="24">
+      <c r="D46" s="24">
         <f t="shared" si="2"/>
         <v>106245.8559999999</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E46" s="25">
         <v>50857.07</v>
       </c>
-      <c r="F45" s="25">
+      <c r="F46" s="25">
         <v>17094.063999999998</v>
       </c>
-      <c r="G45" s="25">
+      <c r="G46" s="25">
         <v>6690.982</v>
       </c>
-      <c r="H45" s="25">
+      <c r="H46" s="25">
         <v>6757.0789999999997</v>
       </c>
-      <c r="I45" s="25">
+      <c r="I46" s="25">
         <v>4772.1049999999996</v>
       </c>
-      <c r="J45" s="25">
+      <c r="J46" s="25">
         <v>4153.6809999999996</v>
       </c>
-      <c r="K45" s="25">
+      <c r="K46" s="25">
         <v>2996.9839999999999</v>
       </c>
-      <c r="L45" s="25">
+      <c r="L46" s="25">
         <v>3411.8760000000002</v>
       </c>
-      <c r="M45" s="25">
+      <c r="M46" s="25">
         <v>2152.6570000000002</v>
       </c>
-      <c r="N45" s="25">
+      <c r="N46" s="25">
         <v>1412.242</v>
       </c>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25">
+      <c r="O46" s="25"/>
+      <c r="P46" s="25">
         <v>5947.115999999909</v>
       </c>
     </row>
-    <row r="46" spans="2:16" hidden="1">
-      <c r="B46" s="10">
+    <row r="47" spans="2:16" hidden="1">
+      <c r="B47" s="10">
         <v>2021</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D47" s="12">
         <f t="shared" si="2"/>
         <v>103780.351</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E47" s="13">
         <v>51670.84</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F47" s="13">
         <v>16637.919000000002</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G47" s="13">
         <v>6777.7350000000006</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H47" s="13">
         <v>6088.8860000000004</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I47" s="13">
         <v>4689.4409999999998</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J47" s="13">
         <v>3093.7200000000003</v>
       </c>
-      <c r="K46" s="13">
+      <c r="K47" s="13">
         <v>2801.3710000000001</v>
       </c>
-      <c r="L46" s="13">
+      <c r="L47" s="13">
         <v>3273.163</v>
       </c>
-      <c r="M46" s="13">
+      <c r="M47" s="13">
         <v>2116.31</v>
       </c>
-      <c r="N46" s="13">
+      <c r="N47" s="13">
         <v>1187.3990000000001</v>
       </c>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13">
+      <c r="O47" s="13"/>
+      <c r="P47" s="13">
         <v>5443.5670000000018</v>
       </c>
     </row>
-    <row r="47" spans="2:16" hidden="1">
-      <c r="B47" s="14">
+    <row r="48" spans="2:16" hidden="1">
+      <c r="B48" s="14">
         <v>2021</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C48" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D48" s="16">
         <f t="shared" si="2"/>
         <v>102011.41899999998</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E48" s="17">
         <v>52512.270000000004</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F48" s="17">
         <v>15934.506000000001</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G48" s="17">
         <v>6335.259</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H48" s="17">
         <v>5545.3950000000004</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I48" s="17">
         <v>4882.7650000000003</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J48" s="17">
         <v>2936.84</v>
       </c>
-      <c r="K47" s="17">
+      <c r="K48" s="17">
         <v>2405.8789999999999</v>
       </c>
-      <c r="L47" s="17">
+      <c r="L48" s="17">
         <v>3272.1130000000003</v>
       </c>
-      <c r="M47" s="17">
+      <c r="M48" s="17">
         <v>1900.828</v>
       </c>
-      <c r="N47" s="17">
+      <c r="N48" s="17">
         <v>1092.5319999999999</v>
       </c>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17">
+      <c r="O48" s="17"/>
+      <c r="P48" s="17">
         <v>5193.0319999999592</v>
       </c>
     </row>
-    <row r="48" spans="2:16" hidden="1">
-      <c r="B48" s="10">
+    <row r="49" spans="2:16" hidden="1">
+      <c r="B49" s="10">
         <v>2021</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C49" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="12">
-        <f t="shared" ref="D48:D79" si="3">SUM(E48:P48)</f>
+      <c r="D49" s="12">
+        <f t="shared" ref="D49:D80" si="3">SUM(E49:P49)</f>
         <v>91178.608999999982</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E49" s="13">
         <v>45915.21</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F49" s="13">
         <v>14692.056</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G49" s="13">
         <v>5728.8209999999999</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H49" s="13">
         <v>5560.4480000000003</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I49" s="13">
         <v>4702.9629999999997</v>
       </c>
-      <c r="J48" s="13">
+      <c r="J49" s="13">
         <v>2102.703</v>
       </c>
-      <c r="K48" s="13">
+      <c r="K49" s="13">
         <v>2272.134</v>
       </c>
-      <c r="L48" s="13">
+      <c r="L49" s="13">
         <v>2868.15</v>
       </c>
-      <c r="M48" s="13">
+      <c r="M49" s="13">
         <v>1735.4590000000001</v>
       </c>
-      <c r="N48" s="13">
+      <c r="N49" s="13">
         <v>1045.8</v>
       </c>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13">
+      <c r="O49" s="13"/>
+      <c r="P49" s="13">
         <v>4554.864999999978</v>
       </c>
     </row>
-    <row r="49" spans="2:16" hidden="1">
-      <c r="B49" s="14">
+    <row r="50" spans="2:16" hidden="1">
+      <c r="B50" s="14">
         <v>2021</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C50" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D50" s="16">
         <f t="shared" si="3"/>
         <v>92414.208999999988</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E50" s="17">
         <v>46263.56</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F50" s="17">
         <v>15429.054</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G50" s="17">
         <v>5843.6489999999994</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H50" s="17">
         <v>5188.5529999999999</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I50" s="17">
         <v>4997.6589999999997</v>
       </c>
-      <c r="J49" s="17">
+      <c r="J50" s="17">
         <v>1980.7669999999998</v>
       </c>
-      <c r="K49" s="17">
+      <c r="K50" s="17">
         <v>2178.5140000000001</v>
       </c>
-      <c r="L49" s="17">
+      <c r="L50" s="17">
         <v>2985.433</v>
       </c>
-      <c r="M49" s="17">
+      <c r="M50" s="17">
         <v>1919.7950000000001</v>
       </c>
-      <c r="N49" s="17">
+      <c r="N50" s="17">
         <v>1046.1379999999999</v>
       </c>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17">
+      <c r="O50" s="17"/>
+      <c r="P50" s="17">
         <v>4581.0869999999823</v>
       </c>
     </row>
-    <row r="50" spans="2:16" hidden="1">
-      <c r="B50" s="10">
+    <row r="51" spans="2:16" hidden="1">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D51" s="12">
         <f t="shared" si="3"/>
         <v>94998.959000000017</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E51" s="13">
         <v>47535.66</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F51" s="13">
         <v>16396.912</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G51" s="13">
         <v>5814.3230000000003</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H51" s="13">
         <v>5225.7449999999999</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I51" s="13">
         <v>4822.5879999999997</v>
       </c>
-      <c r="J50" s="13">
+      <c r="J51" s="13">
         <v>2417.9939999999997</v>
       </c>
-      <c r="K50" s="13">
+      <c r="K51" s="13">
         <v>2253.5949999999998</v>
       </c>
-      <c r="L50" s="13">
+      <c r="L51" s="13">
         <v>2954.0879999999997</v>
       </c>
-      <c r="M50" s="13">
+      <c r="M51" s="13">
         <v>2019.4090000000001</v>
       </c>
-      <c r="N50" s="13">
+      <c r="N51" s="13">
         <v>989</v>
       </c>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13">
+      <c r="O51" s="13"/>
+      <c r="P51" s="13">
         <v>4569.6450000000086</v>
       </c>
     </row>
-    <row r="51" spans="2:16" hidden="1">
-      <c r="B51" s="14">
+    <row r="52" spans="2:16" hidden="1">
+      <c r="B52" s="14">
         <v>2021</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C52" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D52" s="16">
         <f t="shared" si="3"/>
         <v>93150.852999999974</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E52" s="17">
         <v>46381.57</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F52" s="17">
         <v>16321.146999999999</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G52" s="17">
         <v>5643.8950000000004</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H52" s="17">
         <v>5512.8739999999998</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I52" s="17">
         <v>4619.1679999999997</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J52" s="17">
         <v>2265.636</v>
       </c>
-      <c r="K51" s="17">
+      <c r="K52" s="17">
         <v>2051.7060000000001</v>
       </c>
-      <c r="L51" s="17">
+      <c r="L52" s="17">
         <v>2931.884</v>
       </c>
-      <c r="M51" s="17">
+      <c r="M52" s="17">
         <v>1972.1880000000001</v>
       </c>
-      <c r="N51" s="17">
+      <c r="N52" s="17">
         <v>986.39300000000003</v>
       </c>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17">
+      <c r="O52" s="17"/>
+      <c r="P52" s="17">
         <v>4464.3919999999753</v>
       </c>
     </row>
-    <row r="52" spans="2:16" hidden="1">
-      <c r="B52" s="10">
+    <row r="53" spans="2:16" hidden="1">
+      <c r="B53" s="10">
         <v>2021</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C53" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D53" s="12">
         <f t="shared" si="3"/>
         <v>91896.881000000023</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E53" s="13">
         <v>46267.280000000006</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="13">
         <v>16961.302</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G53" s="13">
         <v>5341.201</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H53" s="13">
         <v>5093.9789999999994</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I53" s="13">
         <v>4098.0300000000007</v>
       </c>
-      <c r="J52" s="13">
+      <c r="J53" s="13">
         <v>2317.509</v>
       </c>
-      <c r="K52" s="13">
+      <c r="K53" s="13">
         <v>1839.751</v>
       </c>
-      <c r="L52" s="13">
+      <c r="L53" s="13">
         <v>2917.2539999999999</v>
       </c>
-      <c r="M52" s="13">
+      <c r="M53" s="13">
         <v>1854.6999999999998</v>
       </c>
-      <c r="N52" s="13">
+      <c r="N53" s="13">
         <v>936.20399999999995</v>
       </c>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13">
+      <c r="O53" s="13"/>
+      <c r="P53" s="13">
         <v>4269.6710000000021</v>
       </c>
     </row>
-    <row r="53" spans="2:16" hidden="1">
-      <c r="B53" s="14">
+    <row r="54" spans="2:16" hidden="1">
+      <c r="B54" s="14">
         <v>2021</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C54" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D54" s="16">
         <f t="shared" si="3"/>
         <v>91124.671000000017</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E54" s="17">
         <v>44958.49</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F54" s="17">
         <v>17353.253000000001</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G54" s="17">
         <v>5074.8539999999994</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H54" s="17">
         <v>5150.7029999999995</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I54" s="17">
         <v>4190.9799999999996</v>
       </c>
-      <c r="J53" s="17">
+      <c r="J54" s="17">
         <v>2711.4180000000001</v>
       </c>
-      <c r="K53" s="17">
+      <c r="K54" s="17">
         <v>2026.221</v>
       </c>
-      <c r="L53" s="17">
+      <c r="L54" s="17">
         <v>2834.6559999999999</v>
       </c>
-      <c r="M53" s="17">
+      <c r="M54" s="17">
         <v>1752.0440000000001</v>
       </c>
-      <c r="N53" s="17">
+      <c r="N54" s="17">
         <v>919.93</v>
       </c>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17">
+      <c r="O54" s="17"/>
+      <c r="P54" s="17">
         <v>4152.1220000000194</v>
       </c>
     </row>
-    <row r="54" spans="2:16" hidden="1">
-      <c r="B54" s="10">
+    <row r="55" spans="2:16" hidden="1">
+      <c r="B55" s="10">
         <v>2021</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C55" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D55" s="12">
         <f t="shared" si="3"/>
         <v>97804.682000000015</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E55" s="13">
         <v>49200.950000000004</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F55" s="13">
         <v>18513.925000000003</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G55" s="13">
         <v>5394.5290000000005</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H55" s="13">
         <v>5438.8379999999997</v>
       </c>
-      <c r="I54" s="13">
+      <c r="I55" s="13">
         <v>4517.6980000000003</v>
       </c>
-      <c r="J54" s="13">
+      <c r="J55" s="13">
         <v>2272.91</v>
       </c>
-      <c r="K54" s="13">
+      <c r="K55" s="13">
         <v>2051.056</v>
       </c>
-      <c r="L54" s="13">
+      <c r="L55" s="13">
         <v>2950.4749999999999</v>
       </c>
-      <c r="M54" s="13">
+      <c r="M55" s="13">
         <v>1771.0360000000001</v>
       </c>
-      <c r="N54" s="13">
+      <c r="N55" s="13">
         <v>1067.4470000000001</v>
       </c>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13">
+      <c r="O55" s="13"/>
+      <c r="P55" s="13">
         <v>4625.8179999999957</v>
       </c>
     </row>
-    <row r="55" spans="2:16" hidden="1">
-      <c r="B55" s="14">
+    <row r="56" spans="2:16" hidden="1">
+      <c r="B56" s="14">
         <v>2021</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C56" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D56" s="16">
         <f t="shared" si="3"/>
         <v>83857.271000000022</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E56" s="17">
         <v>42287.700000000004</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F56" s="17">
         <v>15583.737000000001</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G56" s="17">
         <v>4140.5389999999998</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H56" s="17">
         <v>4531.4269999999997</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I56" s="17">
         <v>3863.7919999999995</v>
       </c>
-      <c r="J55" s="17">
+      <c r="J56" s="17">
         <v>2548.5929999999998</v>
       </c>
-      <c r="K55" s="17">
+      <c r="K56" s="17">
         <v>1805.3239999999998</v>
       </c>
-      <c r="L55" s="17">
+      <c r="L56" s="17">
         <v>2596.5039999999999</v>
       </c>
-      <c r="M55" s="17">
+      <c r="M56" s="17">
         <v>1517.7179999999998</v>
       </c>
-      <c r="N55" s="17">
+      <c r="N56" s="17">
         <v>866.53800000000001</v>
       </c>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17">
+      <c r="O56" s="17"/>
+      <c r="P56" s="17">
         <v>4115.3990000000395</v>
       </c>
     </row>
-    <row r="56" spans="2:16" hidden="1">
-      <c r="B56" s="18">
+    <row r="57" spans="2:16" hidden="1">
+      <c r="B57" s="18">
         <v>2021</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C57" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D57" s="20">
         <f t="shared" si="3"/>
         <v>88197.219999999987</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E57" s="21">
         <v>43928.770000000004</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F57" s="21">
         <v>16300.849999999997</v>
       </c>
-      <c r="G56" s="21">
+      <c r="G57" s="21">
         <v>4840.8860000000004</v>
       </c>
-      <c r="H56" s="21">
+      <c r="H57" s="21">
         <v>4794.0879999999997</v>
       </c>
-      <c r="I56" s="21">
+      <c r="I57" s="21">
         <v>4785.6239999999998</v>
       </c>
-      <c r="J56" s="21">
+      <c r="J57" s="21">
         <v>2064.8710000000001</v>
       </c>
-      <c r="K56" s="21">
+      <c r="K57" s="21">
         <v>2034.952</v>
       </c>
-      <c r="L56" s="21">
+      <c r="L57" s="21">
         <v>2453.6999999999998</v>
       </c>
-      <c r="M56" s="21">
+      <c r="M57" s="21">
         <v>1745.922</v>
       </c>
-      <c r="N56" s="21">
+      <c r="N57" s="21">
         <v>918.11799999999994</v>
       </c>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21">
+      <c r="O57" s="21"/>
+      <c r="P57" s="21">
         <v>4329.4389999999794</v>
       </c>
     </row>
-    <row r="57" spans="2:16" hidden="1">
-      <c r="B57" s="22">
+    <row r="58" spans="2:16" hidden="1">
+      <c r="B58" s="22">
         <v>2020</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C58" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D57" s="24">
+      <c r="D58" s="24">
         <f t="shared" si="3"/>
         <v>94144.191000000021</v>
       </c>
-      <c r="E57" s="25">
+      <c r="E58" s="25">
         <v>46330.03</v>
       </c>
-      <c r="F57" s="25">
+      <c r="F58" s="25">
         <v>15973.973</v>
       </c>
-      <c r="G57" s="25">
+      <c r="G58" s="25">
         <v>5450.8789999999999</v>
       </c>
-      <c r="H57" s="25">
+      <c r="H58" s="25">
         <v>5488.8649999999998</v>
       </c>
-      <c r="I57" s="25">
+      <c r="I58" s="25">
         <v>5262.348</v>
       </c>
-      <c r="J57" s="25">
+      <c r="J58" s="25">
         <v>1922.278</v>
       </c>
-      <c r="K57" s="25">
+      <c r="K58" s="25">
         <v>2610.1819999999998</v>
       </c>
-      <c r="L57" s="25">
+      <c r="L58" s="25">
         <v>3093.9090000000001</v>
       </c>
-      <c r="M57" s="25">
+      <c r="M58" s="25">
         <v>1870.7370000000001</v>
       </c>
-      <c r="N57" s="25">
+      <c r="N58" s="25">
         <v>1267.98</v>
       </c>
-      <c r="O57" s="25"/>
-      <c r="P57" s="25">
+      <c r="O58" s="25"/>
+      <c r="P58" s="25">
         <v>4873.010000000022</v>
       </c>
     </row>
-    <row r="58" spans="2:16" hidden="1">
-      <c r="B58" s="10">
+    <row r="59" spans="2:16" hidden="1">
+      <c r="B59" s="10">
         <v>2020</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C59" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D59" s="12">
         <f t="shared" si="3"/>
         <v>91473.85500000001</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E59" s="13">
         <v>47533.36</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F59" s="13">
         <v>14400.682000000001</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G59" s="13">
         <v>5383.1379999999999</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H59" s="13">
         <v>4958.3670000000002</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I59" s="13">
         <v>4752.6779999999999</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J59" s="13">
         <v>1515.828</v>
       </c>
-      <c r="K58" s="13">
+      <c r="K59" s="13">
         <v>2284.3830000000003</v>
       </c>
-      <c r="L58" s="13">
+      <c r="L59" s="13">
         <v>3066.7379999999998</v>
       </c>
-      <c r="M58" s="13">
+      <c r="M59" s="13">
         <v>1683.905</v>
       </c>
-      <c r="N58" s="13">
+      <c r="N59" s="13">
         <v>1051.925</v>
       </c>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13">
+      <c r="O59" s="13"/>
+      <c r="P59" s="13">
         <v>4842.8510000000106</v>
       </c>
     </row>
-    <row r="59" spans="2:16" hidden="1">
-      <c r="B59" s="14">
+    <row r="60" spans="2:16" hidden="1">
+      <c r="B60" s="14">
         <v>2020</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C60" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D60" s="16">
         <f t="shared" si="3"/>
         <v>91662.356999999931</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E60" s="17">
         <v>46625.39</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F60" s="17">
         <v>16134.585999999999</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G60" s="17">
         <v>5479.9110000000001</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H60" s="17">
         <v>4639.0290000000005</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I60" s="17">
         <v>5349.1270000000004</v>
       </c>
-      <c r="J59" s="17">
+      <c r="J60" s="17">
         <v>1260.509</v>
       </c>
-      <c r="K59" s="17">
+      <c r="K60" s="17">
         <v>2199.1950000000002</v>
       </c>
-      <c r="L59" s="17">
+      <c r="L60" s="17">
         <v>3053.64</v>
       </c>
-      <c r="M59" s="17">
+      <c r="M60" s="17">
         <v>1739.095</v>
       </c>
-      <c r="N59" s="17">
+      <c r="N60" s="17">
         <v>943.76300000000003</v>
       </c>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17">
+      <c r="O60" s="17"/>
+      <c r="P60" s="17">
         <v>4238.11199999993</v>
       </c>
     </row>
-    <row r="60" spans="2:16" hidden="1">
-      <c r="B60" s="10">
+    <row r="61" spans="2:16" hidden="1">
+      <c r="B61" s="10">
         <v>2020</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C61" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D61" s="12">
         <f t="shared" si="3"/>
         <v>77051.781000000032</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E61" s="13">
         <v>38240.839999999997</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F61" s="13">
         <v>14171.219000000001</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G61" s="13">
         <v>4407.3809999999994</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H61" s="13">
         <v>3752.172</v>
       </c>
-      <c r="I60" s="13">
+      <c r="I61" s="13">
         <v>4552.4279999999999</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J61" s="13">
         <v>1079.7190000000001</v>
       </c>
-      <c r="K60" s="13">
+      <c r="K61" s="13">
         <v>1834.0129999999999</v>
       </c>
-      <c r="L60" s="13">
+      <c r="L61" s="13">
         <v>2717.5839999999998</v>
       </c>
-      <c r="M60" s="13">
+      <c r="M61" s="13">
         <v>1835.0609999999999</v>
       </c>
-      <c r="N60" s="13">
+      <c r="N61" s="13">
         <v>788.73500000000001</v>
       </c>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13">
+      <c r="O61" s="13"/>
+      <c r="P61" s="13">
         <v>3672.629000000029</v>
       </c>
     </row>
-    <row r="61" spans="2:16" hidden="1">
-      <c r="B61" s="14">
+    <row r="62" spans="2:16" hidden="1">
+      <c r="B62" s="14">
         <v>2020</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C62" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D62" s="16">
         <f t="shared" si="3"/>
         <v>73243.596999999965</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E62" s="17">
         <v>37945.979999999996</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F62" s="17">
         <v>12325.865999999998</v>
       </c>
-      <c r="G61" s="17">
+      <c r="G62" s="17">
         <v>3948.0789999999997</v>
       </c>
-      <c r="H61" s="17">
+      <c r="H62" s="17">
         <v>3392.7820000000002</v>
       </c>
-      <c r="I61" s="17">
+      <c r="I62" s="17">
         <v>4478.6279999999997</v>
       </c>
-      <c r="J61" s="17">
+      <c r="J62" s="17">
         <v>1011.65</v>
       </c>
-      <c r="K61" s="17">
+      <c r="K62" s="17">
         <v>1714.8619999999999</v>
       </c>
-      <c r="L61" s="17">
+      <c r="L62" s="17">
         <v>2516.4409999999998</v>
       </c>
-      <c r="M61" s="17">
+      <c r="M62" s="17">
         <v>1831.6880000000001</v>
       </c>
-      <c r="N61" s="17">
+      <c r="N62" s="17">
         <v>782.10199999999998</v>
       </c>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17">
+      <c r="O62" s="17"/>
+      <c r="P62" s="17">
         <v>3295.5189999999848</v>
       </c>
     </row>
-    <row r="62" spans="2:16" hidden="1">
-      <c r="B62" s="10">
+    <row r="63" spans="2:16" hidden="1">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C63" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D63" s="12">
         <f t="shared" si="3"/>
         <v>70714.571000000011</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E63" s="13">
         <v>34839.78</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F63" s="13">
         <v>13321.585999999999</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G63" s="13">
         <v>3950.6219999999998</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H63" s="13">
         <v>3725.6490000000003</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I63" s="13">
         <v>3987.5020000000004</v>
       </c>
-      <c r="J62" s="13">
+      <c r="J63" s="13">
         <v>936.46399999999994</v>
       </c>
-      <c r="K62" s="13">
+      <c r="K63" s="13">
         <v>1692.3649999999998</v>
       </c>
-      <c r="L62" s="13">
+      <c r="L63" s="13">
         <v>2403.9839999999999</v>
       </c>
-      <c r="M62" s="13">
+      <c r="M63" s="13">
         <v>1775.4699999999998</v>
       </c>
-      <c r="N62" s="13">
+      <c r="N63" s="13">
         <v>840.952</v>
       </c>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13">
+      <c r="O63" s="13"/>
+      <c r="P63" s="13">
         <v>3240.1970000000092</v>
       </c>
     </row>
-    <row r="63" spans="2:16" hidden="1">
-      <c r="B63" s="14">
+    <row r="64" spans="2:16" hidden="1">
+      <c r="B64" s="14">
         <v>2020</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C64" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D64" s="16">
         <f t="shared" si="3"/>
         <v>66590.821000000025</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E64" s="17">
         <v>33996.18</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F64" s="17">
         <v>13478.243999999999</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G64" s="17">
         <v>3545.3679999999999</v>
       </c>
-      <c r="H63" s="17">
+      <c r="H64" s="17">
         <v>3224.4189999999999</v>
       </c>
-      <c r="I63" s="17">
+      <c r="I64" s="17">
         <v>3231.3440000000001</v>
       </c>
-      <c r="J63" s="17">
+      <c r="J64" s="17">
         <v>771.17700000000002</v>
       </c>
-      <c r="K63" s="17">
+      <c r="K64" s="17">
         <v>1478.3190000000002</v>
       </c>
-      <c r="L63" s="17">
+      <c r="L64" s="17">
         <v>1821.6129999999998</v>
       </c>
-      <c r="M63" s="17">
+      <c r="M64" s="17">
         <v>1594.6689999999999</v>
       </c>
-      <c r="N63" s="17">
+      <c r="N64" s="17">
         <v>720.39199999999994</v>
       </c>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17">
+      <c r="O64" s="17"/>
+      <c r="P64" s="17">
         <v>2729.0960000000127</v>
       </c>
     </row>
-    <row r="64" spans="2:16" hidden="1">
-      <c r="B64" s="10">
+    <row r="65" spans="2:16" hidden="1">
+      <c r="B65" s="10">
         <v>2020</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C65" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D65" s="12">
         <f t="shared" si="3"/>
         <v>58590.57</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E65" s="13">
         <v>31229.68</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F65" s="13">
         <v>11236.094000000001</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G65" s="13">
         <v>2744.201</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H65" s="13">
         <v>2746.701</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I65" s="13">
         <v>2540.2469999999998</v>
       </c>
-      <c r="J64" s="13">
+      <c r="J65" s="13">
         <v>612.84699999999998</v>
       </c>
-      <c r="K64" s="13">
+      <c r="K65" s="13">
         <v>1623.547</v>
       </c>
-      <c r="L64" s="13">
+      <c r="L65" s="13">
         <v>1605.3789999999999</v>
       </c>
-      <c r="M64" s="13">
+      <c r="M65" s="13">
         <v>1482.9659999999999</v>
       </c>
-      <c r="N64" s="13">
+      <c r="N65" s="13">
         <v>671.48299999999995</v>
       </c>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13">
+      <c r="O65" s="13"/>
+      <c r="P65" s="13">
         <v>2097.424999999987</v>
       </c>
     </row>
-    <row r="65" spans="2:16" hidden="1">
-      <c r="B65" s="14">
+    <row r="66" spans="2:16" hidden="1">
+      <c r="B66" s="14">
         <v>2020</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C66" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D66" s="16">
         <f t="shared" si="3"/>
         <v>51124.868999999999</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E66" s="17">
         <v>25419.52</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F66" s="17">
         <v>11565.216</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G66" s="17">
         <v>2651.4159999999997</v>
       </c>
-      <c r="H65" s="17">
+      <c r="H66" s="17">
         <v>2693.4929999999999</v>
       </c>
-      <c r="I65" s="17">
+      <c r="I66" s="17">
         <v>2126.7669999999998</v>
       </c>
-      <c r="J65" s="17">
+      <c r="J66" s="17">
         <v>551.59</v>
       </c>
-      <c r="K65" s="17">
+      <c r="K66" s="17">
         <v>1334.1680000000001</v>
       </c>
-      <c r="L65" s="17">
+      <c r="L66" s="17">
         <v>1156.8400000000001</v>
       </c>
-      <c r="M65" s="17">
+      <c r="M66" s="17">
         <v>1103.2260000000001</v>
       </c>
-      <c r="N65" s="17">
+      <c r="N66" s="17">
         <v>532.67700000000002</v>
       </c>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17">
+      <c r="O66" s="17"/>
+      <c r="P66" s="17">
         <v>1989.9559999999994</v>
       </c>
     </row>
-    <row r="66" spans="2:16" hidden="1">
-      <c r="B66" s="10">
+    <row r="67" spans="2:16" hidden="1">
+      <c r="B67" s="10">
         <v>2020</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C67" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D67" s="12">
         <f t="shared" si="3"/>
         <v>79368.52999999997</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E67" s="13">
         <v>42274.520000000004</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F67" s="13">
         <v>14537.343000000001</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G67" s="13">
         <v>4065.893</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H67" s="13">
         <v>3597.8379999999997</v>
       </c>
-      <c r="I66" s="13">
+      <c r="I67" s="13">
         <v>2907.587</v>
       </c>
-      <c r="J66" s="13">
+      <c r="J67" s="13">
         <v>2248.8019999999997</v>
       </c>
-      <c r="K66" s="13">
+      <c r="K67" s="13">
         <v>1787.81</v>
       </c>
-      <c r="L66" s="13">
+      <c r="L67" s="13">
         <v>2068.8739999999998</v>
       </c>
-      <c r="M66" s="13">
+      <c r="M67" s="13">
         <v>1532.5450000000001</v>
       </c>
-      <c r="N66" s="13">
+      <c r="N67" s="13">
         <v>820.50299999999993</v>
       </c>
-      <c r="O66" s="13"/>
-      <c r="P66" s="13">
+      <c r="O67" s="13"/>
+      <c r="P67" s="13">
         <v>3526.8149999999705</v>
       </c>
     </row>
-    <row r="67" spans="2:16" hidden="1">
-      <c r="B67" s="14">
+    <row r="68" spans="2:16" hidden="1">
+      <c r="B68" s="14">
         <v>2020</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C68" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D68" s="16">
         <f t="shared" si="3"/>
         <v>75908.510999999955</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E68" s="17">
         <v>42089.659999999996</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F68" s="17">
         <v>11466.815999999999</v>
       </c>
-      <c r="G67" s="17">
+      <c r="G68" s="17">
         <v>3486.42</v>
       </c>
-      <c r="H67" s="17">
+      <c r="H68" s="17">
         <v>3309.0249999999996</v>
       </c>
-      <c r="I67" s="17">
+      <c r="I68" s="17">
         <v>2651.6840000000002</v>
       </c>
-      <c r="J67" s="17">
+      <c r="J68" s="17">
         <v>2759.643</v>
       </c>
-      <c r="K67" s="17">
+      <c r="K68" s="17">
         <v>1653.057</v>
       </c>
-      <c r="L67" s="17">
+      <c r="L68" s="17">
         <v>2319.8409999999999</v>
       </c>
-      <c r="M67" s="17">
+      <c r="M68" s="17">
         <v>1687.9380000000001</v>
       </c>
-      <c r="N67" s="17">
+      <c r="N68" s="17">
         <v>812.35799999999995</v>
       </c>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17">
+      <c r="O68" s="17"/>
+      <c r="P68" s="17">
         <v>3672.068999999979</v>
       </c>
     </row>
-    <row r="68" spans="2:16" hidden="1">
-      <c r="B68" s="18">
+    <row r="69" spans="2:16" hidden="1">
+      <c r="B69" s="18">
         <v>2020</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C69" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D69" s="20">
         <f t="shared" si="3"/>
         <v>80828.273000000045</v>
       </c>
-      <c r="E68" s="21">
+      <c r="E69" s="21">
         <v>43200.08</v>
       </c>
-      <c r="F68" s="21">
+      <c r="F69" s="21">
         <v>12981.727999999999</v>
       </c>
-      <c r="G68" s="21">
+      <c r="G69" s="21">
         <v>3924.5250000000001</v>
       </c>
-      <c r="H68" s="21">
+      <c r="H69" s="21">
         <v>3616.1279999999997</v>
       </c>
-      <c r="I68" s="21">
+      <c r="I69" s="21">
         <v>2992.5469999999996</v>
       </c>
-      <c r="J68" s="21">
+      <c r="J69" s="21">
         <v>3044.2960000000003</v>
       </c>
-      <c r="K68" s="21">
+      <c r="K69" s="21">
         <v>1792.2229999999997</v>
       </c>
-      <c r="L68" s="21">
+      <c r="L69" s="21">
         <v>2507.0810000000001</v>
       </c>
-      <c r="M68" s="21">
+      <c r="M69" s="21">
         <v>1937.0650000000001</v>
       </c>
-      <c r="N68" s="21">
+      <c r="N69" s="21">
         <v>862.8069999999999</v>
       </c>
-      <c r="O68" s="21"/>
-      <c r="P68" s="21">
+      <c r="O69" s="21"/>
+      <c r="P69" s="21">
         <v>3969.7930000000383</v>
       </c>
     </row>
-    <row r="69" spans="2:16" hidden="1">
-      <c r="B69" s="22">
+    <row r="70" spans="2:16" hidden="1">
+      <c r="B70" s="22">
         <v>2019</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="C70" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D69" s="24">
+      <c r="D70" s="24">
         <f t="shared" si="3"/>
         <v>83400</v>
       </c>
-      <c r="E69" s="25">
+      <c r="E70" s="25">
         <v>48000</v>
       </c>
-      <c r="F69" s="25">
+      <c r="F70" s="25">
         <v>14500</v>
       </c>
-      <c r="G69" s="25">
+      <c r="G70" s="25">
         <v>3700</v>
       </c>
-      <c r="H69" s="25">
+      <c r="H70" s="25">
         <v>2900</v>
       </c>
-      <c r="I69" s="25">
+      <c r="I70" s="25">
         <v>3100</v>
       </c>
-      <c r="J69" s="25">
+      <c r="J70" s="25">
         <v>1900</v>
       </c>
-      <c r="K69" s="25">
+      <c r="K70" s="25">
         <v>3700</v>
       </c>
-      <c r="L69" s="25">
+      <c r="L70" s="25">
         <v>1900</v>
       </c>
-      <c r="M69" s="25">
+      <c r="M70" s="25">
         <v>2600</v>
       </c>
-      <c r="N69" s="25">
+      <c r="N70" s="25">
         <v>1100</v>
       </c>
-      <c r="O69" s="25"/>
-      <c r="P69" s="25">
+      <c r="O70" s="25"/>
+      <c r="P70" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:16" hidden="1">
-      <c r="B70" s="10">
+    <row r="71" spans="2:16" hidden="1">
+      <c r="B71" s="10">
         <v>2019</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C71" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D71" s="12">
         <f t="shared" si="3"/>
         <v>83400</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E71" s="13">
         <v>46600</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F71" s="13">
         <v>14700</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G71" s="13">
         <v>4300</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H71" s="13">
         <v>3100</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I71" s="13">
         <v>3100</v>
       </c>
-      <c r="J70" s="13">
+      <c r="J71" s="13">
         <v>2100</v>
       </c>
-      <c r="K70" s="13">
+      <c r="K71" s="13">
         <v>3900</v>
       </c>
-      <c r="L70" s="13">
+      <c r="L71" s="13">
         <v>1800</v>
       </c>
-      <c r="M70" s="13">
+      <c r="M71" s="13">
         <v>2800</v>
       </c>
-      <c r="N70" s="13">
+      <c r="N71" s="13">
         <v>1000</v>
       </c>
-      <c r="O70" s="13"/>
-      <c r="P70" s="13">
+      <c r="O71" s="13"/>
+      <c r="P71" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:16" hidden="1">
-      <c r="B71" s="14">
+    <row r="72" spans="2:16" hidden="1">
+      <c r="B72" s="14">
         <v>2019</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C72" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D72" s="16">
         <f t="shared" si="3"/>
         <v>90200</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E72" s="17">
         <v>52200</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F72" s="17">
         <v>14900</v>
       </c>
-      <c r="G71" s="17">
+      <c r="G72" s="17">
         <v>4600</v>
       </c>
-      <c r="H71" s="17">
+      <c r="H72" s="17">
         <v>3400</v>
       </c>
-      <c r="I71" s="17">
+      <c r="I72" s="17">
         <v>2700</v>
       </c>
-      <c r="J71" s="17">
+      <c r="J72" s="17">
         <v>2200</v>
       </c>
-      <c r="K71" s="17">
+      <c r="K72" s="17">
         <v>4200</v>
       </c>
-      <c r="L71" s="17">
+      <c r="L72" s="17">
         <v>2000</v>
       </c>
-      <c r="M71" s="17">
+      <c r="M72" s="17">
         <v>3000</v>
       </c>
-      <c r="N71" s="17">
+      <c r="N72" s="17">
         <v>1000</v>
       </c>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17">
+      <c r="O72" s="17"/>
+      <c r="P72" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:16" hidden="1">
-      <c r="B72" s="10">
+    <row r="73" spans="2:16" hidden="1">
+      <c r="B73" s="10">
         <v>2019</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C73" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D73" s="12">
         <f t="shared" si="3"/>
         <v>78300</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E73" s="13">
         <v>46000</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F73" s="13">
         <v>12400</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G73" s="13">
         <v>4300</v>
       </c>
-      <c r="H72" s="13">
+      <c r="H73" s="13">
         <v>3000</v>
       </c>
-      <c r="I72" s="13">
+      <c r="I73" s="13">
         <v>2200</v>
       </c>
-      <c r="J72" s="13">
+      <c r="J73" s="13">
         <v>1800</v>
       </c>
-      <c r="K72" s="13">
+      <c r="K73" s="13">
         <v>3600</v>
       </c>
-      <c r="L72" s="13">
+      <c r="L73" s="13">
         <v>1700</v>
       </c>
-      <c r="M72" s="13">
+      <c r="M73" s="13">
         <v>2500</v>
       </c>
-      <c r="N72" s="13">
+      <c r="N73" s="13">
         <v>800</v>
       </c>
-      <c r="O72" s="13"/>
-      <c r="P72" s="13">
+      <c r="O73" s="13"/>
+      <c r="P73" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:16" hidden="1">
-      <c r="B73" s="14">
+    <row r="74" spans="2:16" hidden="1">
+      <c r="B74" s="14">
         <v>2019</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C74" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="16">
+      <c r="D74" s="16">
         <f t="shared" si="3"/>
         <v>80500</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E74" s="17">
         <v>46500</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F74" s="17">
         <v>12500</v>
       </c>
-      <c r="G73" s="17">
+      <c r="G74" s="17">
         <v>4300</v>
       </c>
-      <c r="H73" s="17">
+      <c r="H74" s="17">
         <v>3400</v>
       </c>
-      <c r="I73" s="17">
+      <c r="I74" s="17">
         <v>2500</v>
       </c>
-      <c r="J73" s="17">
+      <c r="J74" s="17">
         <v>2100</v>
       </c>
-      <c r="K73" s="17">
+      <c r="K74" s="17">
         <v>4100</v>
       </c>
-      <c r="L73" s="17">
+      <c r="L74" s="17">
         <v>1800</v>
       </c>
-      <c r="M73" s="17">
+      <c r="M74" s="17">
         <v>2400</v>
       </c>
-      <c r="N73" s="17">
+      <c r="N74" s="17">
         <v>900</v>
       </c>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17">
+      <c r="O74" s="17"/>
+      <c r="P74" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:16" hidden="1">
-      <c r="B74" s="10">
+    <row r="75" spans="2:16" hidden="1">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C75" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D75" s="12">
         <f t="shared" si="3"/>
         <v>81500</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E75" s="13">
         <v>46600</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F75" s="13">
         <v>13600</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G75" s="13">
         <v>4100</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H75" s="13">
         <v>3000</v>
       </c>
-      <c r="I74" s="13">
+      <c r="I75" s="13">
         <v>2500</v>
       </c>
-      <c r="J74" s="13">
+      <c r="J75" s="13">
         <v>2000</v>
       </c>
-      <c r="K74" s="13">
+      <c r="K75" s="13">
         <v>4200</v>
       </c>
-      <c r="L74" s="13">
+      <c r="L75" s="13">
         <v>2000</v>
       </c>
-      <c r="M74" s="13">
+      <c r="M75" s="13">
         <v>2600</v>
       </c>
-      <c r="N74" s="13">
+      <c r="N75" s="13">
         <v>900</v>
       </c>
-      <c r="O74" s="13"/>
-      <c r="P74" s="13">
+      <c r="O75" s="13"/>
+      <c r="P75" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:16" hidden="1">
-      <c r="B75" s="14">
+    <row r="76" spans="2:16" hidden="1">
+      <c r="B76" s="14">
         <v>2019</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C76" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D76" s="16">
         <f t="shared" si="3"/>
         <v>78600</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E76" s="17">
         <v>44200</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F76" s="17">
         <v>13300</v>
       </c>
-      <c r="G75" s="17">
+      <c r="G76" s="17">
         <v>4300</v>
       </c>
-      <c r="H75" s="17">
+      <c r="H76" s="17">
         <v>2900</v>
       </c>
-      <c r="I75" s="17">
+      <c r="I76" s="17">
         <v>2400</v>
       </c>
-      <c r="J75" s="17">
+      <c r="J76" s="17">
         <v>2000</v>
       </c>
-      <c r="K75" s="17">
+      <c r="K76" s="17">
         <v>4300</v>
       </c>
-      <c r="L75" s="17">
+      <c r="L76" s="17">
         <v>2000</v>
       </c>
-      <c r="M75" s="17">
+      <c r="M76" s="17">
         <v>2400</v>
       </c>
-      <c r="N75" s="17">
+      <c r="N76" s="17">
         <v>800</v>
       </c>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17">
+      <c r="O76" s="17"/>
+      <c r="P76" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:16" hidden="1">
-      <c r="B76" s="10">
+    <row r="77" spans="2:16" hidden="1">
+      <c r="B77" s="10">
         <v>2019</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C77" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D77" s="12">
         <f t="shared" si="3"/>
         <v>81100</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E77" s="13">
         <v>45800</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F77" s="13">
         <v>13000</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G77" s="13">
         <v>4600</v>
       </c>
-      <c r="H76" s="13">
+      <c r="H77" s="13">
         <v>3000</v>
       </c>
-      <c r="I76" s="13">
+      <c r="I77" s="13">
         <v>2600</v>
       </c>
-      <c r="J76" s="13">
+      <c r="J77" s="13">
         <v>2100</v>
       </c>
-      <c r="K76" s="13">
+      <c r="K77" s="13">
         <v>4600</v>
       </c>
-      <c r="L76" s="13">
+      <c r="L77" s="13">
         <v>1900</v>
       </c>
-      <c r="M76" s="13">
+      <c r="M77" s="13">
         <v>2600</v>
       </c>
-      <c r="N76" s="13">
+      <c r="N77" s="13">
         <v>900</v>
       </c>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13">
+      <c r="O77" s="13"/>
+      <c r="P77" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:16" hidden="1">
-      <c r="B77" s="14">
+    <row r="78" spans="2:16" hidden="1">
+      <c r="B78" s="14">
         <v>2019</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C78" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D78" s="16">
         <f t="shared" si="3"/>
         <v>79300</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E78" s="17">
         <v>45200</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F78" s="17">
         <v>12800</v>
       </c>
-      <c r="G77" s="17">
+      <c r="G78" s="17">
         <v>4600</v>
       </c>
-      <c r="H77" s="17">
+      <c r="H78" s="17">
         <v>2500</v>
       </c>
-      <c r="I77" s="17">
+      <c r="I78" s="17">
         <v>2600</v>
       </c>
-      <c r="J77" s="17">
+      <c r="J78" s="17">
         <v>2100</v>
       </c>
-      <c r="K77" s="17">
+      <c r="K78" s="17">
         <v>4400</v>
       </c>
-      <c r="L77" s="17">
+      <c r="L78" s="17">
         <v>1800</v>
       </c>
-      <c r="M77" s="17">
+      <c r="M78" s="17">
         <v>2500</v>
       </c>
-      <c r="N77" s="17">
+      <c r="N78" s="17">
         <v>800</v>
       </c>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17">
+      <c r="O78" s="17"/>
+      <c r="P78" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:16" hidden="1">
-      <c r="B78" s="10">
+    <row r="79" spans="2:16" hidden="1">
+      <c r="B79" s="10">
         <v>2019</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C79" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D79" s="12">
         <f t="shared" si="3"/>
         <v>86500</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E79" s="13">
         <v>49900</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F79" s="13">
         <v>14500</v>
       </c>
-      <c r="G78" s="13">
+      <c r="G79" s="13">
         <v>4300</v>
       </c>
-      <c r="H78" s="13">
+      <c r="H79" s="13">
         <v>3000</v>
       </c>
-      <c r="I78" s="13">
+      <c r="I79" s="13">
         <v>2700</v>
       </c>
-      <c r="J78" s="13">
+      <c r="J79" s="13">
         <v>2000</v>
       </c>
-      <c r="K78" s="13">
+      <c r="K79" s="13">
         <v>5000</v>
       </c>
-      <c r="L78" s="13">
+      <c r="L79" s="13">
         <v>1700</v>
       </c>
-      <c r="M78" s="13">
+      <c r="M79" s="13">
         <v>2500</v>
       </c>
-      <c r="N78" s="13">
+      <c r="N79" s="13">
         <v>900</v>
       </c>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13">
+      <c r="O79" s="13"/>
+      <c r="P79" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:16" hidden="1">
-      <c r="B79" s="14">
+    <row r="80" spans="2:16" hidden="1">
+      <c r="B80" s="14">
         <v>2019</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C80" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D79" s="16">
+      <c r="D80" s="16">
         <f t="shared" si="3"/>
         <v>73300</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E80" s="17">
         <v>41800</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F80" s="17">
         <v>11500</v>
       </c>
-      <c r="G79" s="17">
+      <c r="G80" s="17">
         <v>4200</v>
       </c>
-      <c r="H79" s="17">
+      <c r="H80" s="17">
         <v>2600</v>
       </c>
-      <c r="I79" s="17">
+      <c r="I80" s="17">
         <v>2600</v>
       </c>
-      <c r="J79" s="17">
+      <c r="J80" s="17">
         <v>1900</v>
       </c>
-      <c r="K79" s="17">
+      <c r="K80" s="17">
         <v>4100</v>
       </c>
-      <c r="L79" s="17">
+      <c r="L80" s="17">
         <v>1600</v>
       </c>
-      <c r="M79" s="17">
+      <c r="M80" s="17">
         <v>2300</v>
       </c>
-      <c r="N79" s="17">
+      <c r="N80" s="17">
         <v>700</v>
       </c>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17">
+      <c r="O80" s="17"/>
+      <c r="P80" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:16" hidden="1">
-      <c r="B80" s="18">
+    <row r="81" spans="2:16" hidden="1">
+      <c r="B81" s="18">
         <v>2019</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C81" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D80" s="20">
-        <f t="shared" ref="D80:D92" si="4">SUM(E80:P80)</f>
+      <c r="D81" s="20">
+        <f t="shared" ref="D81:D93" si="4">SUM(E81:P81)</f>
         <v>79200</v>
       </c>
-      <c r="E80" s="21">
+      <c r="E81" s="21">
         <v>43500</v>
       </c>
-      <c r="F80" s="21">
+      <c r="F81" s="21">
         <v>13500</v>
       </c>
-      <c r="G80" s="21">
+      <c r="G81" s="21">
         <v>4800</v>
       </c>
-      <c r="H80" s="21">
+      <c r="H81" s="21">
         <v>2900</v>
       </c>
-      <c r="I80" s="21">
+      <c r="I81" s="21">
         <v>2600</v>
       </c>
-      <c r="J80" s="21">
+      <c r="J81" s="21">
         <v>1900</v>
       </c>
-      <c r="K80" s="21">
+      <c r="K81" s="21">
         <v>4500</v>
       </c>
-      <c r="L80" s="21">
+      <c r="L81" s="21">
         <v>2100</v>
       </c>
-      <c r="M80" s="21">
+      <c r="M81" s="21">
         <v>2500</v>
       </c>
-      <c r="N80" s="21">
+      <c r="N81" s="21">
         <v>900</v>
       </c>
-      <c r="O80" s="21"/>
-      <c r="P80" s="21">
+      <c r="O81" s="21"/>
+      <c r="P81" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:16" hidden="1">
-      <c r="B81" s="15">
+    <row r="82" spans="2:16" hidden="1">
+      <c r="B82" s="15">
         <v>2018</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C82" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="16">
+      <c r="D82" s="16">
         <f t="shared" si="4"/>
         <v>85600</v>
       </c>
-      <c r="E81" s="17">
+      <c r="E82" s="17">
         <v>48800</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F82" s="17">
         <v>14700</v>
       </c>
-      <c r="G81" s="17">
+      <c r="G82" s="17">
         <v>4500</v>
       </c>
-      <c r="H81" s="17">
+      <c r="H82" s="17">
         <v>3000</v>
       </c>
-      <c r="I81" s="17">
+      <c r="I82" s="17">
         <v>3300</v>
       </c>
-      <c r="J81" s="17">
+      <c r="J82" s="17">
         <v>1900</v>
       </c>
-      <c r="K81" s="17">
+      <c r="K82" s="17">
         <v>4000</v>
       </c>
-      <c r="L81" s="17">
+      <c r="L82" s="17">
         <v>1900</v>
       </c>
-      <c r="M81" s="17">
+      <c r="M82" s="17">
         <v>2600</v>
       </c>
-      <c r="N81" s="17">
+      <c r="N82" s="17">
         <v>900</v>
       </c>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17">
+      <c r="O82" s="17"/>
+      <c r="P82" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:16" hidden="1">
-      <c r="B82" s="11">
+    <row r="83" spans="2:16" hidden="1">
+      <c r="B83" s="11">
         <v>2018</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C83" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D83" s="12">
         <f t="shared" si="4"/>
         <v>91600</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E83" s="13">
         <v>52500</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F83" s="13">
         <v>14700</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G83" s="13">
         <v>5200</v>
       </c>
-      <c r="H82" s="13">
+      <c r="H83" s="13">
         <v>3400</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I83" s="13">
         <v>3300</v>
       </c>
-      <c r="J82" s="13">
+      <c r="J83" s="13">
         <v>2300</v>
       </c>
-      <c r="K82" s="13">
+      <c r="K83" s="13">
         <v>4700</v>
       </c>
-      <c r="L82" s="13">
+      <c r="L83" s="13">
         <v>1800</v>
       </c>
-      <c r="M82" s="13">
+      <c r="M83" s="13">
         <v>2800</v>
       </c>
-      <c r="N82" s="13">
+      <c r="N83" s="13">
         <v>900</v>
       </c>
-      <c r="O82" s="13"/>
-      <c r="P82" s="13">
+      <c r="O83" s="13"/>
+      <c r="P83" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:16" hidden="1">
-      <c r="B83" s="15">
+    <row r="84" spans="2:16" hidden="1">
+      <c r="B84" s="15">
         <v>2018</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C84" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D83" s="16">
+      <c r="D84" s="16">
         <f t="shared" si="4"/>
         <v>94100</v>
       </c>
-      <c r="E83" s="17">
+      <c r="E84" s="17">
         <v>53200</v>
       </c>
-      <c r="F83" s="17">
+      <c r="F84" s="17">
         <v>15500</v>
       </c>
-      <c r="G83" s="17">
+      <c r="G84" s="17">
         <v>5800</v>
       </c>
-      <c r="H83" s="17">
+      <c r="H84" s="17">
         <v>3400</v>
       </c>
-      <c r="I83" s="17">
+      <c r="I84" s="17">
         <v>2800</v>
       </c>
-      <c r="J83" s="17">
+      <c r="J84" s="17">
         <v>2200</v>
       </c>
-      <c r="K83" s="17">
+      <c r="K84" s="17">
         <v>5600</v>
       </c>
-      <c r="L83" s="17">
+      <c r="L84" s="17">
         <v>1800</v>
       </c>
-      <c r="M83" s="17">
+      <c r="M84" s="17">
         <v>2900</v>
       </c>
-      <c r="N83" s="17">
+      <c r="N84" s="17">
         <v>900</v>
       </c>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17">
+      <c r="O84" s="17"/>
+      <c r="P84" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:16" hidden="1">
-      <c r="B84" s="11">
+    <row r="85" spans="2:16" hidden="1">
+      <c r="B85" s="11">
         <v>2018</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C85" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D85" s="12">
         <f t="shared" si="4"/>
         <v>81400</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E85" s="13">
         <v>46600</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F85" s="13">
         <v>13200</v>
       </c>
-      <c r="G84" s="13">
+      <c r="G85" s="13">
         <v>4800</v>
       </c>
-      <c r="H84" s="13">
+      <c r="H85" s="13">
         <v>2900</v>
       </c>
-      <c r="I84" s="13">
+      <c r="I85" s="13">
         <v>2300</v>
       </c>
-      <c r="J84" s="13">
+      <c r="J85" s="13">
         <v>1900</v>
       </c>
-      <c r="K84" s="13">
+      <c r="K85" s="13">
         <v>5000</v>
       </c>
-      <c r="L84" s="13">
+      <c r="L85" s="13">
         <v>1500</v>
       </c>
-      <c r="M84" s="13">
+      <c r="M85" s="13">
         <v>2400</v>
       </c>
-      <c r="N84" s="13">
+      <c r="N85" s="13">
         <v>800</v>
       </c>
-      <c r="O84" s="13"/>
-      <c r="P84" s="13">
+      <c r="O85" s="13"/>
+      <c r="P85" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:16" hidden="1">
-      <c r="B85" s="15">
+    <row r="86" spans="2:16" hidden="1">
+      <c r="B86" s="15">
         <v>2018</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C86" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D85" s="16">
+      <c r="D86" s="16">
         <f t="shared" si="4"/>
         <v>84400</v>
       </c>
-      <c r="E85" s="17">
+      <c r="E86" s="17">
         <v>48300</v>
       </c>
-      <c r="F85" s="17">
+      <c r="F86" s="17">
         <v>12600</v>
       </c>
-      <c r="G85" s="17">
+      <c r="G86" s="17">
         <v>5100</v>
       </c>
-      <c r="H85" s="17">
+      <c r="H86" s="17">
         <v>3500</v>
       </c>
-      <c r="I85" s="17">
+      <c r="I86" s="17">
         <v>2400</v>
       </c>
-      <c r="J85" s="17">
+      <c r="J86" s="17">
         <v>2100</v>
       </c>
-      <c r="K85" s="17">
+      <c r="K86" s="17">
         <v>5700</v>
       </c>
-      <c r="L85" s="17">
+      <c r="L86" s="17">
         <v>1600</v>
       </c>
-      <c r="M85" s="17">
+      <c r="M86" s="17">
         <v>2300</v>
       </c>
-      <c r="N85" s="17">
+      <c r="N86" s="17">
         <v>800</v>
       </c>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17">
+      <c r="O86" s="17"/>
+      <c r="P86" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:16" hidden="1">
-      <c r="B86" s="11">
+    <row r="87" spans="2:16" hidden="1">
+      <c r="B87" s="11">
         <v>2018</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C87" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D87" s="12">
         <f t="shared" si="4"/>
         <v>82200</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E87" s="13">
         <v>49400</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F87" s="13">
         <v>12400</v>
       </c>
-      <c r="G86" s="13">
+      <c r="G87" s="13">
         <v>4200</v>
       </c>
-      <c r="H86" s="13">
+      <c r="H87" s="13">
         <v>3100</v>
       </c>
-      <c r="I86" s="13">
+      <c r="I87" s="13">
         <v>2500</v>
       </c>
-      <c r="J86" s="13">
+      <c r="J87" s="13">
         <v>1900</v>
       </c>
-      <c r="K86" s="13">
+      <c r="K87" s="13">
         <v>4100</v>
       </c>
-      <c r="L86" s="13">
+      <c r="L87" s="13">
         <v>1700</v>
       </c>
-      <c r="M86" s="13">
+      <c r="M87" s="13">
         <v>2100</v>
       </c>
-      <c r="N86" s="13">
+      <c r="N87" s="13">
         <v>800</v>
       </c>
-      <c r="O86" s="13"/>
-      <c r="P86" s="13">
+      <c r="O87" s="13"/>
+      <c r="P87" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:16" hidden="1">
-      <c r="B87" s="15">
+    <row r="88" spans="2:16" hidden="1">
+      <c r="B88" s="15">
         <v>2018</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C88" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D87" s="16">
+      <c r="D88" s="16">
         <f t="shared" si="4"/>
         <v>86500</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E88" s="17">
         <v>51000</v>
       </c>
-      <c r="F87" s="17">
+      <c r="F88" s="17">
         <v>13400</v>
       </c>
-      <c r="G87" s="17">
+      <c r="G88" s="17">
         <v>4500</v>
       </c>
-      <c r="H87" s="17">
+      <c r="H88" s="17">
         <v>3100</v>
       </c>
-      <c r="I87" s="17">
+      <c r="I88" s="17">
         <v>2600</v>
       </c>
-      <c r="J87" s="17">
+      <c r="J88" s="17">
         <v>2000</v>
       </c>
-      <c r="K87" s="17">
+      <c r="K88" s="17">
         <v>5100</v>
       </c>
-      <c r="L87" s="17">
+      <c r="L88" s="17">
         <v>1800</v>
       </c>
-      <c r="M87" s="17">
+      <c r="M88" s="17">
         <v>2100</v>
       </c>
-      <c r="N87" s="17">
+      <c r="N88" s="17">
         <v>900</v>
       </c>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17">
+      <c r="O88" s="17"/>
+      <c r="P88" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:16" hidden="1">
-      <c r="B88" s="11">
+    <row r="89" spans="2:16" hidden="1">
+      <c r="B89" s="11">
         <v>2018</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C89" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D89" s="12">
         <f t="shared" si="4"/>
         <v>86200</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E89" s="13">
         <v>49700</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F89" s="13">
         <v>13600</v>
       </c>
-      <c r="G88" s="13">
+      <c r="G89" s="13">
         <v>5000</v>
       </c>
-      <c r="H88" s="13">
+      <c r="H89" s="13">
         <v>3200</v>
       </c>
-      <c r="I88" s="13">
+      <c r="I89" s="13">
         <v>2700</v>
       </c>
-      <c r="J88" s="13">
+      <c r="J89" s="13">
         <v>2300</v>
       </c>
-      <c r="K88" s="13">
+      <c r="K89" s="13">
         <v>4700</v>
       </c>
-      <c r="L88" s="13">
+      <c r="L89" s="13">
         <v>1900</v>
       </c>
-      <c r="M88" s="13">
+      <c r="M89" s="13">
         <v>2200</v>
       </c>
-      <c r="N88" s="13">
+      <c r="N89" s="13">
         <v>900</v>
       </c>
-      <c r="O88" s="13"/>
-      <c r="P88" s="13">
+      <c r="O89" s="13"/>
+      <c r="P89" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:16" hidden="1">
-      <c r="B89" s="15">
+    <row r="90" spans="2:16" hidden="1">
+      <c r="B90" s="15">
         <v>2018</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C90" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D89" s="16">
+      <c r="D90" s="16">
         <f t="shared" si="4"/>
         <v>84500</v>
       </c>
-      <c r="E89" s="17">
+      <c r="E90" s="17">
         <v>49400</v>
       </c>
-      <c r="F89" s="17">
+      <c r="F90" s="17">
         <v>13900</v>
       </c>
-      <c r="G89" s="17">
+      <c r="G90" s="17">
         <v>4500</v>
       </c>
-      <c r="H89" s="17">
+      <c r="H90" s="17">
         <v>2800</v>
       </c>
-      <c r="I89" s="17">
+      <c r="I90" s="17">
         <v>2800</v>
       </c>
-      <c r="J89" s="17">
+      <c r="J90" s="17">
         <v>1900</v>
       </c>
-      <c r="K89" s="17">
+      <c r="K90" s="17">
         <v>4600</v>
       </c>
-      <c r="L89" s="17">
+      <c r="L90" s="17">
         <v>1700</v>
       </c>
-      <c r="M89" s="17">
+      <c r="M90" s="17">
         <v>2000</v>
       </c>
-      <c r="N89" s="17">
+      <c r="N90" s="17">
         <v>900</v>
       </c>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17">
+      <c r="O90" s="17"/>
+      <c r="P90" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:16" hidden="1">
-      <c r="B90" s="11">
+    <row r="91" spans="2:16" hidden="1">
+      <c r="B91" s="11">
         <v>2018</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C91" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D90" s="12">
+      <c r="D91" s="12">
         <f t="shared" si="4"/>
         <v>81600</v>
       </c>
-      <c r="E90" s="13">
+      <c r="E91" s="13">
         <v>46000</v>
       </c>
-      <c r="F90" s="13">
+      <c r="F91" s="13">
         <v>16000</v>
       </c>
-      <c r="G90" s="13">
+      <c r="G91" s="13">
         <v>4400</v>
       </c>
-      <c r="H90" s="13">
+      <c r="H91" s="13">
         <v>2900</v>
       </c>
-      <c r="I90" s="13">
+      <c r="I91" s="13">
         <v>2800</v>
       </c>
-      <c r="J90" s="13">
+      <c r="J91" s="13">
         <v>1800</v>
       </c>
-      <c r="K90" s="13">
+      <c r="K91" s="13">
         <v>3500</v>
       </c>
-      <c r="L90" s="13">
+      <c r="L91" s="13">
         <v>1400</v>
       </c>
-      <c r="M90" s="13">
+      <c r="M91" s="13">
         <v>2000</v>
       </c>
-      <c r="N90" s="13">
+      <c r="N91" s="13">
         <v>800</v>
       </c>
-      <c r="O90" s="13"/>
-      <c r="P90" s="13">
+      <c r="O91" s="13"/>
+      <c r="P91" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:16" hidden="1">
-      <c r="B91" s="15">
+    <row r="92" spans="2:16" hidden="1">
+      <c r="B92" s="15">
         <v>2018</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C92" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D91" s="16">
+      <c r="D92" s="16">
         <f t="shared" si="4"/>
         <v>74900</v>
       </c>
-      <c r="E91" s="17">
+      <c r="E92" s="17">
         <v>44100</v>
       </c>
-      <c r="F91" s="17">
+      <c r="F92" s="17">
         <v>12100</v>
       </c>
-      <c r="G91" s="17">
+      <c r="G92" s="17">
         <v>4100</v>
       </c>
-      <c r="H91" s="17">
+      <c r="H92" s="17">
         <v>2700</v>
       </c>
-      <c r="I91" s="17">
+      <c r="I92" s="17">
         <v>2700</v>
       </c>
-      <c r="J91" s="17">
+      <c r="J92" s="17">
         <v>2100</v>
       </c>
-      <c r="K91" s="17">
+      <c r="K92" s="17">
         <v>3000</v>
       </c>
-      <c r="L91" s="17">
+      <c r="L92" s="17">
         <v>1500</v>
       </c>
-      <c r="M91" s="17">
+      <c r="M92" s="17">
         <v>1900</v>
       </c>
-      <c r="N91" s="17">
+      <c r="N92" s="17">
         <v>700</v>
       </c>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17">
+      <c r="O92" s="17"/>
+      <c r="P92" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:16" hidden="1">
-      <c r="B92" s="11">
+    <row r="93" spans="2:16" hidden="1">
+      <c r="B93" s="11">
         <v>2018</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C93" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D92" s="12">
+      <c r="D93" s="12">
         <f t="shared" si="4"/>
         <v>74300</v>
       </c>
-      <c r="E92" s="13">
+      <c r="E93" s="13">
         <v>42800</v>
       </c>
-      <c r="F92" s="13">
+      <c r="F93" s="13">
         <v>12000</v>
       </c>
-      <c r="G92" s="13">
+      <c r="G93" s="13">
         <v>4100</v>
       </c>
-      <c r="H92" s="13">
+      <c r="H93" s="13">
         <v>2500</v>
       </c>
-      <c r="I92" s="13">
+      <c r="I93" s="13">
         <v>2600</v>
       </c>
-      <c r="J92" s="13">
+      <c r="J93" s="13">
         <v>2300</v>
       </c>
-      <c r="K92" s="13">
+      <c r="K93" s="13">
         <v>3300</v>
       </c>
-      <c r="L92" s="13">
+      <c r="L93" s="13">
         <v>2000</v>
       </c>
-      <c r="M92" s="13">
+      <c r="M93" s="13">
         <v>1900</v>
       </c>
-      <c r="N92" s="13">
+      <c r="N93" s="13">
         <v>800</v>
       </c>
-      <c r="O92" s="13"/>
-      <c r="P92" s="13">
+      <c r="O93" s="13"/>
+      <c r="P93" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:16">
-      <c r="B93" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C93" s="26"/>
     </row>
     <row r="94" spans="2:16">
       <c r="B94" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" s="26"/>
+    </row>
+    <row r="95" spans="2:16">
+      <c r="B95" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C94" s="27"/>
-      <c r="P94" s="28"/>
-    </row>
-    <row r="95" spans="2:16">
-      <c r="B95" s="27" t="s">
+      <c r="C95" s="27"/>
+      <c r="P95" s="28"/>
+    </row>
+    <row r="96" spans="2:16">
+      <c r="B96" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="2:16">
-      <c r="B96" s="3" t="s">
+    <row r="97" spans="2:4">
+      <c r="B97" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="4:16">
-      <c r="D102" s="26"/>
-    </row>
-    <row r="112" spans="4:16">
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
-      <c r="P112" s="2"/>
+    <row r="103" spans="2:4">
+      <c r="D103" s="26"/>
     </row>
     <row r="113" spans="6:16">
       <c r="F113" s="2"/>
@@ -5294,6 +5329,19 @@
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
     </row>
+    <row r="124" spans="6:16">
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E4:P4"/>

--- a/P_aeropuertos_carga.xlsx
+++ b/P_aeropuertos_carga.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ECB4AC-15CB-4F31-8F13-8B9DDE4AA2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC32FB0-A2DF-4766-ABDC-71542CB8A444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_37" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="34">
   <si>
     <t>Total</t>
   </si>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">  El aeropuerto Felipe Ángeles, Inició operaciones el 21 de marzo de 2022.</t>
   </si>
   <si>
-    <t>Actualización: Abril 2025.</t>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
@@ -697,8 +697,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:P93" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
-  <autoFilter ref="B5:P93" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:P95" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
+  <autoFilter ref="B5:P95" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -952,7 +952,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:P124"/>
+  <dimension ref="B2:P126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1063,47 +1063,47 @@
         <v>2025</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="16">
         <f>SUM(E6:P6)</f>
-        <v>96473.226409999974</v>
+        <v>107138.81800000001</v>
       </c>
       <c r="E6" s="17">
-        <v>19824.5</v>
+        <v>20433.3</v>
       </c>
       <c r="F6" s="17">
-        <v>14014.14</v>
+        <v>16625.118000000002</v>
       </c>
       <c r="G6" s="17">
-        <v>6218.076</v>
+        <v>6596.4850000000006</v>
       </c>
       <c r="H6" s="17">
-        <v>6345.7909999999993</v>
+        <v>6812.4170000000004</v>
       </c>
       <c r="I6" s="17">
-        <v>2665.0520000000001</v>
+        <v>2357.59</v>
       </c>
       <c r="J6" s="17">
-        <v>3097.6140000000005</v>
+        <v>2522.7240000000002</v>
       </c>
       <c r="K6" s="17">
-        <v>2098.7640000000001</v>
+        <v>2703.8649999999998</v>
       </c>
       <c r="L6" s="17">
-        <v>3027.6949999999997</v>
+        <v>3099.7750000000001</v>
       </c>
       <c r="M6" s="17">
-        <v>1980.6879999999999</v>
+        <v>2005.2020000000002</v>
       </c>
       <c r="N6" s="17">
-        <v>1276.962</v>
+        <v>1281.922</v>
       </c>
       <c r="O6" s="17">
-        <v>30785.671000000002</v>
+        <v>37708.072</v>
       </c>
       <c r="P6" s="17">
-        <v>5138.273409999968</v>
+        <v>4992.3480000000072</v>
       </c>
     </row>
     <row r="7" spans="2:16">
@@ -1111,47 +1111,47 @@
         <v>2025</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="12">
         <f>SUM(E7:P7)</f>
-        <v>104081.79550000002</v>
+        <v>102570.24307</v>
       </c>
       <c r="E7" s="13">
-        <v>22582</v>
+        <v>20291.14</v>
       </c>
       <c r="F7" s="13">
-        <v>14543.918000000001</v>
+        <v>14833.268</v>
       </c>
       <c r="G7" s="13">
-        <v>6624.4359999999997</v>
+        <v>6631.2019999999993</v>
       </c>
       <c r="H7" s="13">
-        <v>7070.3890000000001</v>
+        <v>6835.67</v>
       </c>
       <c r="I7" s="13">
-        <v>2837.4380000000001</v>
+        <v>2432.4679999999998</v>
       </c>
       <c r="J7" s="13">
-        <v>4035.1100000000006</v>
+        <v>2759.1390000000001</v>
       </c>
       <c r="K7" s="13">
-        <v>1969.5269999999998</v>
+        <v>2410.489</v>
       </c>
       <c r="L7" s="13">
-        <v>2985.9570000000003</v>
+        <v>3221.7449999999999</v>
       </c>
       <c r="M7" s="13">
-        <v>1984.1370000000002</v>
+        <v>2006.0029999999997</v>
       </c>
       <c r="N7" s="13">
-        <v>1609.2139999999999</v>
+        <v>1384.4360000000001</v>
       </c>
       <c r="O7" s="13">
-        <v>33154.97</v>
+        <v>34190.595999999998</v>
       </c>
       <c r="P7" s="13">
-        <v>4684.6995000000006</v>
+        <v>5574.0870700000041</v>
       </c>
     </row>
     <row r="8" spans="2:16">
@@ -1159,191 +1159,191 @@
         <v>2025</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="16">
-        <f>SUM(E8:P8)</f>
-        <v>86641.77502000003</v>
+        <f t="shared" ref="D8:D13" si="0">SUM(E8:P8)</f>
+        <v>96473.226409999974</v>
       </c>
       <c r="E8" s="17">
-        <v>19575.670000000002</v>
+        <v>19824.5</v>
       </c>
       <c r="F8" s="17">
-        <v>11798.751</v>
+        <v>14014.14</v>
       </c>
       <c r="G8" s="17">
-        <v>5379.473</v>
+        <v>6218.076</v>
       </c>
       <c r="H8" s="17">
-        <v>4961.049</v>
+        <v>6345.7909999999993</v>
       </c>
       <c r="I8" s="17">
-        <v>2432.8789999999999</v>
+        <v>2665.0520000000001</v>
       </c>
       <c r="J8" s="17">
-        <v>3241.0389999999998</v>
+        <v>3097.6140000000005</v>
       </c>
       <c r="K8" s="17">
-        <v>1841.1139999999998</v>
+        <v>2098.7640000000001</v>
       </c>
       <c r="L8" s="17">
-        <v>2859.4220000000005</v>
+        <v>3027.6949999999997</v>
       </c>
       <c r="M8" s="17">
-        <v>1847.1349999999998</v>
+        <v>1980.6879999999999</v>
       </c>
       <c r="N8" s="17">
-        <v>1648.6580000000001</v>
+        <v>1276.962</v>
       </c>
       <c r="O8" s="17">
-        <v>26628.777010000002</v>
+        <v>30785.671000000002</v>
       </c>
       <c r="P8" s="17">
-        <v>4427.8080100000279</v>
+        <v>5138.273409999968</v>
       </c>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="18">
+      <c r="B9" s="10">
         <v>2025</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="20">
-        <f>SUM(E9:P9)</f>
-        <v>91555.306729999982</v>
-      </c>
-      <c r="E9" s="21">
-        <v>19159.400000000001</v>
-      </c>
-      <c r="F9" s="21">
-        <v>13714.98</v>
-      </c>
-      <c r="G9" s="21">
-        <v>5611.4270000000006</v>
-      </c>
-      <c r="H9" s="21">
-        <v>6455.491</v>
-      </c>
-      <c r="I9" s="21">
-        <v>2783.7079999999996</v>
-      </c>
-      <c r="J9" s="21">
-        <v>2789.2219999999998</v>
-      </c>
-      <c r="K9" s="21">
-        <v>2082.837</v>
-      </c>
-      <c r="L9" s="21">
-        <v>2958.125</v>
-      </c>
-      <c r="M9" s="21">
-        <v>2088.444</v>
-      </c>
-      <c r="N9" s="21">
-        <v>1595.182</v>
-      </c>
-      <c r="O9" s="21">
-        <v>27764.467000000001</v>
-      </c>
-      <c r="P9" s="21">
-        <v>4552.0237299999771</v>
+      <c r="C9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="0"/>
+        <v>104081.79550000002</v>
+      </c>
+      <c r="E9" s="13">
+        <v>22582</v>
+      </c>
+      <c r="F9" s="13">
+        <v>14543.918000000001</v>
+      </c>
+      <c r="G9" s="13">
+        <v>6624.4359999999997</v>
+      </c>
+      <c r="H9" s="13">
+        <v>7070.3890000000001</v>
+      </c>
+      <c r="I9" s="13">
+        <v>2837.4380000000001</v>
+      </c>
+      <c r="J9" s="13">
+        <v>4035.1100000000006</v>
+      </c>
+      <c r="K9" s="13">
+        <v>1969.5269999999998</v>
+      </c>
+      <c r="L9" s="13">
+        <v>2985.9570000000003</v>
+      </c>
+      <c r="M9" s="13">
+        <v>1984.1370000000002</v>
+      </c>
+      <c r="N9" s="13">
+        <v>1609.2139999999999</v>
+      </c>
+      <c r="O9" s="13">
+        <v>33154.97</v>
+      </c>
+      <c r="P9" s="13">
+        <v>4684.6995000000006</v>
       </c>
     </row>
     <row r="10" spans="2:16">
       <c r="B10" s="14">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="16">
-        <f>SUM(E10:P10)</f>
-        <v>103547.94350000002</v>
+        <f t="shared" si="0"/>
+        <v>86641.77502000003</v>
       </c>
       <c r="E10" s="17">
-        <v>22084.1</v>
+        <v>19575.670000000002</v>
       </c>
       <c r="F10" s="17">
-        <v>13788.543999999998</v>
+        <v>11798.751</v>
       </c>
       <c r="G10" s="17">
-        <v>6101.1239999999998</v>
+        <v>5379.473</v>
       </c>
       <c r="H10" s="17">
-        <v>6605.4089999999997</v>
+        <v>4961.049</v>
       </c>
       <c r="I10" s="17">
-        <v>2916.9539999999997</v>
+        <v>2432.8789999999999</v>
       </c>
       <c r="J10" s="17">
-        <v>3692.6709999999998</v>
+        <v>3241.0389999999998</v>
       </c>
       <c r="K10" s="17">
-        <v>2180.1759999999999</v>
+        <v>1841.1139999999998</v>
       </c>
       <c r="L10" s="17">
-        <v>3298.9829999999997</v>
+        <v>2859.4220000000005</v>
       </c>
       <c r="M10" s="17">
-        <v>2405.654</v>
+        <v>1847.1349999999998</v>
       </c>
       <c r="N10" s="17">
-        <v>1379.29</v>
+        <v>1648.6580000000001</v>
       </c>
       <c r="O10" s="17">
-        <v>34117.491999999998</v>
+        <v>26628.777010000002</v>
       </c>
       <c r="P10" s="17">
-        <v>4977.5465000000313</v>
+        <v>4427.8080100000279</v>
       </c>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="10">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="12">
-        <f>SUM(E11:P11)</f>
-        <v>108489.79521000001</v>
-      </c>
-      <c r="E11" s="13">
-        <v>20513.3</v>
-      </c>
-      <c r="F11" s="13">
-        <v>14292.029000000002</v>
-      </c>
-      <c r="G11" s="13">
-        <v>6952.0010000000002</v>
-      </c>
-      <c r="H11" s="13">
-        <v>7027.32</v>
-      </c>
-      <c r="I11" s="13">
-        <v>3190.241</v>
-      </c>
-      <c r="J11" s="13">
-        <v>3783.056</v>
-      </c>
-      <c r="K11" s="13">
-        <v>2546.4230000000002</v>
-      </c>
-      <c r="L11" s="13">
-        <v>3625.6490000000003</v>
-      </c>
-      <c r="M11" s="13">
-        <v>2301.3359999999998</v>
-      </c>
-      <c r="N11" s="13">
-        <v>1566.8050000000001</v>
-      </c>
-      <c r="O11" s="13">
-        <v>37606.786999999997</v>
-      </c>
-      <c r="P11" s="13">
-        <v>5084.8482100000183</v>
+      <c r="B11" s="18">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="20">
+        <f t="shared" si="0"/>
+        <v>91555.306729999982</v>
+      </c>
+      <c r="E11" s="21">
+        <v>19159.400000000001</v>
+      </c>
+      <c r="F11" s="21">
+        <v>13714.98</v>
+      </c>
+      <c r="G11" s="21">
+        <v>5611.4270000000006</v>
+      </c>
+      <c r="H11" s="21">
+        <v>6455.491</v>
+      </c>
+      <c r="I11" s="21">
+        <v>2783.7079999999996</v>
+      </c>
+      <c r="J11" s="21">
+        <v>2789.2219999999998</v>
+      </c>
+      <c r="K11" s="21">
+        <v>2082.837</v>
+      </c>
+      <c r="L11" s="21">
+        <v>2958.125</v>
+      </c>
+      <c r="M11" s="21">
+        <v>2088.444</v>
+      </c>
+      <c r="N11" s="21">
+        <v>1595.182</v>
+      </c>
+      <c r="O11" s="21">
+        <v>27764.467000000001</v>
+      </c>
+      <c r="P11" s="21">
+        <v>4552.0237299999771</v>
       </c>
     </row>
     <row r="12" spans="2:16">
@@ -1351,47 +1351,47 @@
         <v>2024</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="16">
-        <f t="shared" ref="D12" si="0">SUM(E12:P12)</f>
-        <v>112101.83326999999</v>
+        <f t="shared" si="0"/>
+        <v>103547.94350000002</v>
       </c>
       <c r="E12" s="17">
-        <v>21954.2</v>
+        <v>22084.1</v>
       </c>
       <c r="F12" s="17">
-        <v>15035.019</v>
+        <v>13788.543999999998</v>
       </c>
       <c r="G12" s="17">
-        <v>7434.2699999999995</v>
+        <v>6101.1239999999998</v>
       </c>
       <c r="H12" s="17">
-        <v>7376.1170000000002</v>
+        <v>6605.4089999999997</v>
       </c>
       <c r="I12" s="17">
-        <v>3603.3429999999998</v>
+        <v>2916.9539999999997</v>
       </c>
       <c r="J12" s="17">
-        <v>2668.8590000000004</v>
+        <v>3692.6709999999998</v>
       </c>
       <c r="K12" s="17">
-        <v>2486.047</v>
+        <v>2180.1759999999999</v>
       </c>
       <c r="L12" s="17">
-        <v>3482.5789999999997</v>
+        <v>3298.9829999999997</v>
       </c>
       <c r="M12" s="17">
-        <v>2059.6219999999998</v>
+        <v>2405.654</v>
       </c>
       <c r="N12" s="17">
-        <v>1836.462</v>
+        <v>1379.29</v>
       </c>
       <c r="O12" s="17">
-        <v>38827.07</v>
+        <v>34117.491999999998</v>
       </c>
       <c r="P12" s="17">
-        <v>5338.2452699999949</v>
+        <v>4977.5465000000313</v>
       </c>
     </row>
     <row r="13" spans="2:16">
@@ -1399,47 +1399,47 @@
         <v>2024</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="12">
-        <f>SUM(E13:P13)</f>
-        <v>102256.34403999997</v>
+        <f t="shared" si="0"/>
+        <v>108489.79521000001</v>
       </c>
       <c r="E13" s="13">
-        <v>19983</v>
+        <v>20513.3</v>
       </c>
       <c r="F13" s="13">
-        <v>15121.885</v>
+        <v>14292.029000000002</v>
       </c>
       <c r="G13" s="13">
-        <v>6653.17</v>
+        <v>6952.0010000000002</v>
       </c>
       <c r="H13" s="13">
-        <v>6096.0540000000001</v>
+        <v>7027.32</v>
       </c>
       <c r="I13" s="13">
-        <v>3038.8139999999999</v>
+        <v>3190.241</v>
       </c>
       <c r="J13" s="13">
-        <v>2226.7169999999996</v>
+        <v>3783.056</v>
       </c>
       <c r="K13" s="13">
-        <v>2083.5909999999999</v>
+        <v>2546.4230000000002</v>
       </c>
       <c r="L13" s="13">
-        <v>2940.2349999999997</v>
+        <v>3625.6490000000003</v>
       </c>
       <c r="M13" s="13">
-        <v>2121.4749999999999</v>
+        <v>2301.3359999999998</v>
       </c>
       <c r="N13" s="13">
-        <v>1691.9869999999999</v>
+        <v>1566.8050000000001</v>
       </c>
       <c r="O13" s="13">
-        <v>35995.97</v>
+        <v>37606.786999999997</v>
       </c>
       <c r="P13" s="13">
-        <v>4303.4460399999825</v>
+        <v>5084.8482100000183</v>
       </c>
     </row>
     <row r="14" spans="2:16">
@@ -1447,47 +1447,47 @@
         <v>2024</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D14" s="16">
-        <f>SUM(E14:P14)</f>
-        <v>108823.69917000002</v>
+        <f t="shared" ref="D14" si="1">SUM(E14:P14)</f>
+        <v>112101.83326999999</v>
       </c>
       <c r="E14" s="17">
-        <v>20229.3</v>
+        <v>21954.2</v>
       </c>
       <c r="F14" s="17">
-        <v>15421.421999999999</v>
+        <v>15035.019</v>
       </c>
       <c r="G14" s="17">
-        <v>6900.85</v>
+        <v>7434.2699999999995</v>
       </c>
       <c r="H14" s="17">
-        <v>6494.0969999999998</v>
+        <v>7376.1170000000002</v>
       </c>
       <c r="I14" s="17">
-        <v>3427.1890000000003</v>
+        <v>3603.3429999999998</v>
       </c>
       <c r="J14" s="17">
-        <v>2725.0420000000004</v>
+        <v>2668.8590000000004</v>
       </c>
       <c r="K14" s="17">
-        <v>2321.3049999999998</v>
+        <v>2486.047</v>
       </c>
       <c r="L14" s="17">
-        <v>3155.9950000000003</v>
+        <v>3482.5789999999997</v>
       </c>
       <c r="M14" s="17">
-        <v>2335.154</v>
+        <v>2059.6219999999998</v>
       </c>
       <c r="N14" s="17">
-        <v>1623.2050000000002</v>
+        <v>1836.462</v>
       </c>
       <c r="O14" s="17">
-        <v>39174.343999999997</v>
+        <v>38827.07</v>
       </c>
       <c r="P14" s="17">
-        <v>5015.7961700000369</v>
+        <v>5338.2452699999949</v>
       </c>
     </row>
     <row r="15" spans="2:16">
@@ -1495,47 +1495,47 @@
         <v>2024</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D15" s="12">
-        <f t="shared" ref="D15:D17" si="1">SUM(E15:P15)</f>
-        <v>107882.74128000005</v>
+        <f>SUM(E15:P15)</f>
+        <v>102256.34403999997</v>
       </c>
       <c r="E15" s="13">
-        <v>19500.699999999997</v>
+        <v>19983</v>
       </c>
       <c r="F15" s="13">
-        <v>15606.789000000001</v>
+        <v>15121.885</v>
       </c>
       <c r="G15" s="13">
-        <v>7406.7370000000001</v>
+        <v>6653.17</v>
       </c>
       <c r="H15" s="13">
-        <v>6133.4809999999998</v>
+        <v>6096.0540000000001</v>
       </c>
       <c r="I15" s="13">
-        <v>3408.8180000000002</v>
+        <v>3038.8139999999999</v>
       </c>
       <c r="J15" s="13">
-        <v>2590.2110000000002</v>
+        <v>2226.7169999999996</v>
       </c>
       <c r="K15" s="13">
-        <v>2370.0729999999999</v>
+        <v>2083.5909999999999</v>
       </c>
       <c r="L15" s="13">
-        <v>3036.741</v>
+        <v>2940.2349999999997</v>
       </c>
       <c r="M15" s="13">
-        <v>2203.3470000000002</v>
+        <v>2121.4749999999999</v>
       </c>
       <c r="N15" s="13">
-        <v>1958.9659999999999</v>
+        <v>1691.9869999999999</v>
       </c>
       <c r="O15" s="13">
-        <v>38531.585999999996</v>
+        <v>35995.97</v>
       </c>
       <c r="P15" s="13">
-        <v>5135.2922800000515</v>
+        <v>4303.4460399999825</v>
       </c>
     </row>
     <row r="16" spans="2:16">
@@ -1543,47 +1543,47 @@
         <v>2024</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="16">
-        <f t="shared" si="1"/>
-        <v>106952.98336000003</v>
+        <f>SUM(E16:P16)</f>
+        <v>108823.69917000002</v>
       </c>
       <c r="E16" s="17">
-        <v>19499.3</v>
+        <v>20229.3</v>
       </c>
       <c r="F16" s="17">
-        <v>14724.419</v>
+        <v>15421.421999999999</v>
       </c>
       <c r="G16" s="17">
-        <v>7318.848</v>
+        <v>6900.85</v>
       </c>
       <c r="H16" s="17">
-        <v>6428.241</v>
+        <v>6494.0969999999998</v>
       </c>
       <c r="I16" s="17">
-        <v>3309.4189999999999</v>
+        <v>3427.1890000000003</v>
       </c>
       <c r="J16" s="17">
-        <v>2399.3510000000001</v>
+        <v>2725.0420000000004</v>
       </c>
       <c r="K16" s="17">
-        <v>2148.4209999999998</v>
+        <v>2321.3049999999998</v>
       </c>
       <c r="L16" s="17">
-        <v>3308.527</v>
+        <v>3155.9950000000003</v>
       </c>
       <c r="M16" s="17">
-        <v>2070.7939999999999</v>
+        <v>2335.154</v>
       </c>
       <c r="N16" s="17">
-        <v>1689.7920000000001</v>
+        <v>1623.2050000000002</v>
       </c>
       <c r="O16" s="17">
-        <v>39593.667999999998</v>
+        <v>39174.343999999997</v>
       </c>
       <c r="P16" s="17">
-        <v>4462.203360000025</v>
+        <v>5015.7961700000369</v>
       </c>
     </row>
     <row r="17" spans="2:16">
@@ -1591,47 +1591,47 @@
         <v>2024</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="12">
-        <f t="shared" si="1"/>
-        <v>110411.98745000002</v>
+        <f t="shared" ref="D17:D19" si="2">SUM(E17:P17)</f>
+        <v>107882.74128000005</v>
       </c>
       <c r="E17" s="13">
-        <v>20062</v>
+        <v>19500.699999999997</v>
       </c>
       <c r="F17" s="13">
-        <v>15321.734</v>
+        <v>15606.789000000001</v>
       </c>
       <c r="G17" s="13">
-        <v>6843.5949999999993</v>
+        <v>7406.7370000000001</v>
       </c>
       <c r="H17" s="13">
-        <v>6818.1309999999994</v>
+        <v>6133.4809999999998</v>
       </c>
       <c r="I17" s="13">
-        <v>3632.4749999999995</v>
+        <v>3408.8180000000002</v>
       </c>
       <c r="J17" s="13">
-        <v>2865.9740000000002</v>
+        <v>2590.2110000000002</v>
       </c>
       <c r="K17" s="13">
-        <v>2297.306</v>
+        <v>2370.0729999999999</v>
       </c>
       <c r="L17" s="13">
-        <v>3244.5340000000001</v>
+        <v>3036.741</v>
       </c>
       <c r="M17" s="13">
-        <v>2175.2600000000002</v>
+        <v>2203.3470000000002</v>
       </c>
       <c r="N17" s="13">
-        <v>1778.4730000000002</v>
+        <v>1958.9659999999999</v>
       </c>
       <c r="O17" s="13">
-        <v>40133.834000000003</v>
+        <v>38531.585999999996</v>
       </c>
       <c r="P17" s="13">
-        <v>5238.6714500000198</v>
+        <v>5135.2922800000515</v>
       </c>
     </row>
     <row r="18" spans="2:16">
@@ -1639,47 +1639,47 @@
         <v>2024</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" s="16">
-        <f t="shared" ref="D18:D48" si="2">SUM(E18:P18)</f>
-        <v>105215.16596</v>
+        <f t="shared" si="2"/>
+        <v>106952.98336000003</v>
       </c>
       <c r="E18" s="17">
-        <v>18973.3</v>
+        <v>19499.3</v>
       </c>
       <c r="F18" s="17">
-        <v>13665.344000000001</v>
+        <v>14724.419</v>
       </c>
       <c r="G18" s="17">
-        <v>6313.32</v>
+        <v>7318.848</v>
       </c>
       <c r="H18" s="17">
-        <v>6639.4679999999998</v>
+        <v>6428.241</v>
       </c>
       <c r="I18" s="17">
-        <v>3421.6190000000001</v>
+        <v>3309.4189999999999</v>
       </c>
       <c r="J18" s="17">
-        <v>3106.3360000000002</v>
+        <v>2399.3510000000001</v>
       </c>
       <c r="K18" s="17">
-        <v>2364.4089999999997</v>
+        <v>2148.4209999999998</v>
       </c>
       <c r="L18" s="17">
-        <v>3512.4059999999999</v>
+        <v>3308.527</v>
       </c>
       <c r="M18" s="17">
-        <v>2156.3200000000002</v>
+        <v>2070.7939999999999</v>
       </c>
       <c r="N18" s="17">
-        <v>1665.7180000000001</v>
+        <v>1689.7920000000001</v>
       </c>
       <c r="O18" s="17">
-        <v>38502.94</v>
+        <v>39593.667999999998</v>
       </c>
       <c r="P18" s="17">
-        <v>4893.9859599999945</v>
+        <v>4462.203360000025</v>
       </c>
     </row>
     <row r="19" spans="2:16">
@@ -1687,47 +1687,47 @@
         <v>2024</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D19" s="12">
         <f t="shared" si="2"/>
-        <v>104014.85637999998</v>
+        <v>110411.98745000002</v>
       </c>
       <c r="E19" s="13">
-        <v>19802.7</v>
+        <v>20062</v>
       </c>
       <c r="F19" s="13">
-        <v>14556.685000000001</v>
+        <v>15321.734</v>
       </c>
       <c r="G19" s="13">
-        <v>5905.6409999999996</v>
+        <v>6843.5949999999993</v>
       </c>
       <c r="H19" s="13">
-        <v>5567.2889999999998</v>
+        <v>6818.1309999999994</v>
       </c>
       <c r="I19" s="13">
-        <v>3144.7429999999999</v>
+        <v>3632.4749999999995</v>
       </c>
       <c r="J19" s="13">
-        <v>3762.2560000000003</v>
+        <v>2865.9740000000002</v>
       </c>
       <c r="K19" s="13">
-        <v>2058.4110000000001</v>
+        <v>2297.306</v>
       </c>
       <c r="L19" s="13">
-        <v>2935.8180000000002</v>
+        <v>3244.5340000000001</v>
       </c>
       <c r="M19" s="13">
-        <v>1921.692</v>
+        <v>2175.2600000000002</v>
       </c>
       <c r="N19" s="13">
-        <v>1570.1889999999996</v>
+        <v>1778.4730000000002</v>
       </c>
       <c r="O19" s="13">
-        <v>38209.173000000003</v>
+        <v>40133.834000000003</v>
       </c>
       <c r="P19" s="13">
-        <v>4580.2593799999795</v>
+        <v>5238.6714500000198</v>
       </c>
     </row>
     <row r="20" spans="2:16">
@@ -1735,239 +1735,239 @@
         <v>2024</v>
       </c>
       <c r="C20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="16">
+        <f t="shared" ref="D20:D50" si="3">SUM(E20:P20)</f>
+        <v>105215.16596</v>
+      </c>
+      <c r="E20" s="17">
+        <v>18973.3</v>
+      </c>
+      <c r="F20" s="17">
+        <v>13665.344000000001</v>
+      </c>
+      <c r="G20" s="17">
+        <v>6313.32</v>
+      </c>
+      <c r="H20" s="17">
+        <v>6639.4679999999998</v>
+      </c>
+      <c r="I20" s="17">
+        <v>3421.6190000000001</v>
+      </c>
+      <c r="J20" s="17">
+        <v>3106.3360000000002</v>
+      </c>
+      <c r="K20" s="17">
+        <v>2364.4089999999997</v>
+      </c>
+      <c r="L20" s="17">
+        <v>3512.4059999999999</v>
+      </c>
+      <c r="M20" s="17">
+        <v>2156.3200000000002</v>
+      </c>
+      <c r="N20" s="17">
+        <v>1665.7180000000001</v>
+      </c>
+      <c r="O20" s="17">
+        <v>38502.94</v>
+      </c>
+      <c r="P20" s="17">
+        <v>4893.9859599999945</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="12">
+        <f t="shared" si="3"/>
+        <v>104014.85637999998</v>
+      </c>
+      <c r="E21" s="13">
+        <v>19802.7</v>
+      </c>
+      <c r="F21" s="13">
+        <v>14556.685000000001</v>
+      </c>
+      <c r="G21" s="13">
+        <v>5905.6409999999996</v>
+      </c>
+      <c r="H21" s="13">
+        <v>5567.2889999999998</v>
+      </c>
+      <c r="I21" s="13">
+        <v>3144.7429999999999</v>
+      </c>
+      <c r="J21" s="13">
+        <v>3762.2560000000003</v>
+      </c>
+      <c r="K21" s="13">
+        <v>2058.4110000000001</v>
+      </c>
+      <c r="L21" s="13">
+        <v>2935.8180000000002</v>
+      </c>
+      <c r="M21" s="13">
+        <v>1921.692</v>
+      </c>
+      <c r="N21" s="13">
+        <v>1570.1889999999996</v>
+      </c>
+      <c r="O21" s="13">
+        <v>38209.173000000003</v>
+      </c>
+      <c r="P21" s="13">
+        <v>4580.2593799999795</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="14">
+        <v>2024</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="16">
-        <f t="shared" si="2"/>
-        <v>96832.621000000028</v>
-      </c>
-      <c r="E20" s="17">
+      <c r="D22" s="16">
+        <f t="shared" si="3"/>
+        <v>96832.64800000003</v>
+      </c>
+      <c r="E22" s="17">
         <v>19063.57</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F22" s="17">
         <v>12825.287</v>
       </c>
-      <c r="G20" s="17">
-        <v>5709.5619999999999</v>
-      </c>
-      <c r="H20" s="17">
+      <c r="G22" s="17">
+        <v>5709.5889999999999</v>
+      </c>
+      <c r="H22" s="17">
         <v>6237.3979999999992</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I22" s="17">
         <v>3026.2809999999999</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J22" s="17">
         <v>3371.2139999999999</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K22" s="17">
         <v>2375.6289999999999</v>
       </c>
-      <c r="L20" s="17">
-        <v>3173.3670000000002</v>
-      </c>
-      <c r="M20" s="17">
+      <c r="L22" s="17">
+        <v>3173.3669999999997</v>
+      </c>
+      <c r="M22" s="17">
         <v>2052.38</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N22" s="17">
         <v>1593.547</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O22" s="17">
         <v>32860.998999999996</v>
       </c>
-      <c r="P20" s="17">
+      <c r="P22" s="17">
         <v>4543.3870000000315</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
-      <c r="B21" s="18">
+    <row r="23" spans="2:16">
+      <c r="B23" s="18">
         <v>2024</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C23" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="20">
-        <f t="shared" si="2"/>
-        <v>97330.675600000075</v>
-      </c>
-      <c r="E21" s="21">
+      <c r="D23" s="20">
+        <f t="shared" si="3"/>
+        <v>97055.650600000066</v>
+      </c>
+      <c r="E23" s="21">
         <v>18369.400000000001</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F23" s="21">
         <v>13351.472999999998</v>
       </c>
-      <c r="G21" s="21">
-        <v>5884.6970000000001</v>
-      </c>
-      <c r="H21" s="21">
+      <c r="G23" s="21">
+        <v>5885.9059999999999</v>
+      </c>
+      <c r="H23" s="21">
         <v>5967.9220000000005</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I23" s="21">
         <v>2989.357</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J23" s="21">
         <v>2973.8410000000003</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K23" s="21">
         <v>2268.6259999999997</v>
       </c>
-      <c r="L21" s="21">
+      <c r="L23" s="21">
         <v>2854.8959999999997</v>
       </c>
-      <c r="M21" s="21">
+      <c r="M23" s="21">
         <v>2397.5709999999999</v>
       </c>
-      <c r="N21" s="21">
+      <c r="N23" s="21">
         <v>1825.489</v>
       </c>
-      <c r="O21" s="21">
+      <c r="O23" s="21">
         <v>33787.300999999999</v>
       </c>
-      <c r="P21" s="21">
-        <v>4660.1026000000729</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" hidden="1">
-      <c r="B22" s="22">
+      <c r="P23" s="21">
+        <v>4383.8686000000562</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" hidden="1">
+      <c r="B24" s="22">
         <v>2023</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C24" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="24">
-        <f t="shared" si="2"/>
+      <c r="D24" s="24">
+        <f t="shared" si="3"/>
         <v>104426.30729999999</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E24" s="25">
         <v>20566.599999999999</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F24" s="25">
         <v>13313.805</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G24" s="25">
         <v>5779.5439999999999</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H24" s="25">
         <v>6634.8190000000004</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I24" s="25">
         <v>3186.3519999999999</v>
       </c>
-      <c r="J22" s="25">
+      <c r="J24" s="25">
         <v>3890.0010000000002</v>
       </c>
-      <c r="K22" s="25">
+      <c r="K24" s="25">
         <v>2228.2650000000003</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L24" s="25">
         <v>3022.0309999999999</v>
       </c>
-      <c r="M22" s="25">
+      <c r="M24" s="25">
         <v>2482.5659999999998</v>
       </c>
-      <c r="N22" s="25">
+      <c r="N24" s="25">
         <v>1573.3980000000001</v>
       </c>
-      <c r="O22" s="25">
+      <c r="O24" s="25">
         <v>36496.25</v>
       </c>
-      <c r="P22" s="25">
+      <c r="P24" s="25">
         <v>5252.6762999999974</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" hidden="1">
-      <c r="B23" s="10">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="12">
-        <f t="shared" si="2"/>
-        <v>105823.25400000002</v>
-      </c>
-      <c r="E23" s="13">
-        <v>20520.5</v>
-      </c>
-      <c r="F23" s="13">
-        <v>14126.735000000001</v>
-      </c>
-      <c r="G23" s="13">
-        <v>6122.6710000000003</v>
-      </c>
-      <c r="H23" s="13">
-        <v>6195.4279999999999</v>
-      </c>
-      <c r="I23" s="13">
-        <v>3286.1129999999998</v>
-      </c>
-      <c r="J23" s="13">
-        <v>3463.6080000000002</v>
-      </c>
-      <c r="K23" s="13">
-        <v>2592.8070000000002</v>
-      </c>
-      <c r="L23" s="13">
-        <v>3439.2550000000001</v>
-      </c>
-      <c r="M23" s="13">
-        <v>2391.259</v>
-      </c>
-      <c r="N23" s="13">
-        <v>1992.0079999999998</v>
-      </c>
-      <c r="O23" s="13">
-        <v>36256.74</v>
-      </c>
-      <c r="P23" s="13">
-        <v>5436.1300000000128</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" hidden="1">
-      <c r="B24" s="14">
-        <v>2023</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="16">
-        <f t="shared" si="2"/>
-        <v>107132.1866</v>
-      </c>
-      <c r="E24" s="17">
-        <v>20291</v>
-      </c>
-      <c r="F24" s="17">
-        <v>14588.228999999999</v>
-      </c>
-      <c r="G24" s="17">
-        <v>6563.4580000000005</v>
-      </c>
-      <c r="H24" s="17">
-        <v>6490.5720000000001</v>
-      </c>
-      <c r="I24" s="17">
-        <v>3206.3980000000001</v>
-      </c>
-      <c r="J24" s="17">
-        <v>2918.2420000000002</v>
-      </c>
-      <c r="K24" s="17">
-        <v>2583.0619999999999</v>
-      </c>
-      <c r="L24" s="17">
-        <v>3007.05</v>
-      </c>
-      <c r="M24" s="17">
-        <v>2285.1779999999999</v>
-      </c>
-      <c r="N24" s="17">
-        <v>2296.12</v>
-      </c>
-      <c r="O24" s="17">
-        <v>37567.615000000005</v>
-      </c>
-      <c r="P24" s="17">
-        <v>5335.2626000000073</v>
       </c>
     </row>
     <row r="25" spans="2:16" hidden="1">
@@ -1975,47 +1975,47 @@
         <v>2023</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25" s="12">
-        <f t="shared" si="2"/>
-        <v>96344.621599999969</v>
+        <f t="shared" si="3"/>
+        <v>106410.00600000001</v>
       </c>
       <c r="E25" s="13">
-        <v>18890.84</v>
+        <v>20520.5</v>
       </c>
       <c r="F25" s="13">
-        <v>11939.238000000001</v>
+        <v>14126.735000000001</v>
       </c>
       <c r="G25" s="13">
-        <v>6448.41</v>
+        <v>6122.6710000000003</v>
       </c>
       <c r="H25" s="13">
-        <v>6941.482</v>
+        <v>6195.4279999999999</v>
       </c>
       <c r="I25" s="13">
-        <v>2997.1009999999997</v>
+        <v>3286.1129999999998</v>
       </c>
       <c r="J25" s="13">
-        <v>2820.8690000000001</v>
+        <v>3463.6080000000002</v>
       </c>
       <c r="K25" s="13">
-        <v>2392.9459999999999</v>
+        <v>2592.8070000000002</v>
       </c>
       <c r="L25" s="13">
-        <v>2689.5440000000003</v>
+        <v>3439.2550000000001</v>
       </c>
       <c r="M25" s="13">
-        <v>2237.8310000000001</v>
+        <v>2391.259</v>
       </c>
       <c r="N25" s="13">
-        <v>1937.12</v>
+        <v>1992.0079999999998</v>
       </c>
       <c r="O25" s="13">
-        <v>32211.534999999996</v>
+        <v>36843.491999999998</v>
       </c>
       <c r="P25" s="13">
-        <v>4837.7055999999784</v>
+        <v>5436.1300000000128</v>
       </c>
     </row>
     <row r="26" spans="2:16" hidden="1">
@@ -2023,47 +2023,47 @@
         <v>2023</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D26" s="16">
-        <f t="shared" si="2"/>
-        <v>101340.06099999999</v>
+        <f t="shared" si="3"/>
+        <v>107132.1866</v>
       </c>
       <c r="E26" s="17">
-        <v>30758.92</v>
+        <v>20291</v>
       </c>
       <c r="F26" s="17">
-        <v>12635.058999999999</v>
+        <v>14588.228999999999</v>
       </c>
       <c r="G26" s="17">
-        <v>6735.0630000000001</v>
+        <v>6563.4580000000005</v>
       </c>
       <c r="H26" s="17">
-        <v>7071.5340000000006</v>
+        <v>6490.5720000000001</v>
       </c>
       <c r="I26" s="17">
-        <v>3260.134</v>
+        <v>3206.3980000000001</v>
       </c>
       <c r="J26" s="17">
-        <v>2927.556</v>
+        <v>2918.2420000000002</v>
       </c>
       <c r="K26" s="17">
-        <v>2738.0719999999997</v>
+        <v>2583.0619999999999</v>
       </c>
       <c r="L26" s="17">
-        <v>3079.3420000000001</v>
+        <v>3007.05</v>
       </c>
       <c r="M26" s="17">
-        <v>2242.9470000000001</v>
+        <v>2285.1779999999999</v>
       </c>
       <c r="N26" s="17">
-        <v>2212.1790000000001</v>
+        <v>2296.12</v>
       </c>
       <c r="O26" s="17">
-        <v>22653.131999999998</v>
+        <v>37567.615000000005</v>
       </c>
       <c r="P26" s="17">
-        <v>5026.1229999999987</v>
+        <v>5335.2626000000073</v>
       </c>
     </row>
     <row r="27" spans="2:16" hidden="1">
@@ -2071,47 +2071,47 @@
         <v>2023</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D27" s="12">
-        <f t="shared" si="2"/>
-        <v>99893.349999999977</v>
+        <f t="shared" si="3"/>
+        <v>96344.621599999969</v>
       </c>
       <c r="E27" s="13">
-        <v>42255.99</v>
+        <v>18890.84</v>
       </c>
       <c r="F27" s="13">
-        <v>13795.428</v>
+        <v>11939.238000000001</v>
       </c>
       <c r="G27" s="13">
-        <v>6453.2659999999996</v>
+        <v>6448.41</v>
       </c>
       <c r="H27" s="13">
-        <v>6305.5460000000003</v>
+        <v>6941.482</v>
       </c>
       <c r="I27" s="13">
-        <v>2850.3670000000002</v>
+        <v>2997.1009999999997</v>
       </c>
       <c r="J27" s="13">
-        <v>2992.5640000000003</v>
+        <v>2820.8690000000001</v>
       </c>
       <c r="K27" s="13">
-        <v>2184.107</v>
+        <v>2392.9459999999999</v>
       </c>
       <c r="L27" s="13">
-        <v>3001.3330000000001</v>
+        <v>2689.5440000000003</v>
       </c>
       <c r="M27" s="13">
-        <v>2136.636</v>
+        <v>2237.8310000000001</v>
       </c>
       <c r="N27" s="13">
-        <v>1665.6389999999999</v>
+        <v>1937.12</v>
       </c>
       <c r="O27" s="13">
-        <v>12061.946</v>
+        <v>32211.534999999996</v>
       </c>
       <c r="P27" s="13">
-        <v>4190.5279999999912</v>
+        <v>4837.7055999999784</v>
       </c>
     </row>
     <row r="28" spans="2:16" hidden="1">
@@ -2119,47 +2119,47 @@
         <v>2023</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D28" s="16">
-        <f t="shared" si="2"/>
-        <v>100692.46</v>
+        <f t="shared" si="3"/>
+        <v>101340.06099999999</v>
       </c>
       <c r="E28" s="17">
-        <v>48959.360000000001</v>
+        <v>30758.92</v>
       </c>
       <c r="F28" s="17">
-        <v>14347.388000000001</v>
+        <v>12635.058999999999</v>
       </c>
       <c r="G28" s="17">
-        <v>6967.08</v>
+        <v>6735.0630000000001</v>
       </c>
       <c r="H28" s="17">
-        <v>7548.9220000000005</v>
+        <v>7071.5340000000006</v>
       </c>
       <c r="I28" s="17">
-        <v>3319.7</v>
+        <v>3260.134</v>
       </c>
       <c r="J28" s="17">
-        <v>2985.5720000000001</v>
+        <v>2927.556</v>
       </c>
       <c r="K28" s="17">
-        <v>2751.5749999999998</v>
+        <v>2738.0719999999997</v>
       </c>
       <c r="L28" s="17">
-        <v>2986.2660000000001</v>
+        <v>3079.3420000000001</v>
       </c>
       <c r="M28" s="17">
-        <v>2130.835</v>
+        <v>2242.9470000000001</v>
       </c>
       <c r="N28" s="17">
-        <v>1363.424</v>
+        <v>2212.1790000000001</v>
       </c>
       <c r="O28" s="17">
-        <v>2657.15</v>
+        <v>22653.131999999998</v>
       </c>
       <c r="P28" s="17">
-        <v>4675.1880000000074</v>
+        <v>5026.1229999999987</v>
       </c>
     </row>
     <row r="29" spans="2:16" hidden="1">
@@ -2167,47 +2167,47 @@
         <v>2023</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D29" s="12">
-        <f t="shared" si="2"/>
-        <v>98181.257999999987</v>
+        <f t="shared" si="3"/>
+        <v>99893.349999999977</v>
       </c>
       <c r="E29" s="13">
-        <v>50235.43</v>
+        <v>42255.99</v>
       </c>
       <c r="F29" s="13">
-        <v>13240.904999999999</v>
+        <v>13795.428</v>
       </c>
       <c r="G29" s="13">
-        <v>6447.4090000000006</v>
+        <v>6453.2659999999996</v>
       </c>
       <c r="H29" s="13">
-        <v>6818.1289999999999</v>
+        <v>6305.5460000000003</v>
       </c>
       <c r="I29" s="13">
-        <v>3168.0129999999999</v>
+        <v>2850.3670000000002</v>
       </c>
       <c r="J29" s="13">
-        <v>3032.7219999999998</v>
+        <v>2992.5640000000003</v>
       </c>
       <c r="K29" s="13">
-        <v>2419.5279999999998</v>
+        <v>2184.107</v>
       </c>
       <c r="L29" s="13">
-        <v>3039.0519999999997</v>
+        <v>3001.3330000000001</v>
       </c>
       <c r="M29" s="13">
-        <v>2077.337</v>
+        <v>2136.636</v>
       </c>
       <c r="N29" s="13">
-        <v>1145.9829999999999</v>
+        <v>1665.6389999999999</v>
       </c>
       <c r="O29" s="13">
-        <v>2054.748</v>
+        <v>12061.946</v>
       </c>
       <c r="P29" s="13">
-        <v>4502.0019999999795</v>
+        <v>4190.5279999999912</v>
       </c>
     </row>
     <row r="30" spans="2:16" hidden="1">
@@ -2215,47 +2215,47 @@
         <v>2023</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D30" s="16">
-        <f t="shared" si="2"/>
-        <v>92574.85</v>
+        <f t="shared" si="3"/>
+        <v>100692.46</v>
       </c>
       <c r="E30" s="17">
-        <v>47367.56</v>
+        <v>48959.360000000001</v>
       </c>
       <c r="F30" s="17">
-        <v>13553.766</v>
+        <v>14347.388000000001</v>
       </c>
       <c r="G30" s="17">
-        <v>6046.3230000000003</v>
+        <v>6967.08</v>
       </c>
       <c r="H30" s="17">
-        <v>5997.2860000000001</v>
+        <v>7548.9220000000005</v>
       </c>
       <c r="I30" s="17">
-        <v>2823</v>
+        <v>3319.7</v>
       </c>
       <c r="J30" s="17">
-        <v>3201.482</v>
+        <v>2985.5720000000001</v>
       </c>
       <c r="K30" s="17">
-        <v>2103.346</v>
+        <v>2751.5749999999998</v>
       </c>
       <c r="L30" s="17">
-        <v>2699.6509999999998</v>
+        <v>2986.2660000000001</v>
       </c>
       <c r="M30" s="17">
-        <v>1830.1030000000001</v>
+        <v>2130.835</v>
       </c>
       <c r="N30" s="17">
-        <v>966.625</v>
+        <v>1363.424</v>
       </c>
       <c r="O30" s="17">
-        <v>1973.069</v>
+        <v>2657.15</v>
       </c>
       <c r="P30" s="17">
-        <v>4012.6390000000029</v>
+        <v>4675.1880000000074</v>
       </c>
     </row>
     <row r="31" spans="2:16" hidden="1">
@@ -2263,47 +2263,47 @@
         <v>2023</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D31" s="12">
-        <f t="shared" si="2"/>
-        <v>105745.56200000001</v>
+        <f t="shared" si="3"/>
+        <v>98181.257999999987</v>
       </c>
       <c r="E31" s="13">
-        <v>52276.67</v>
+        <v>50235.43</v>
       </c>
       <c r="F31" s="13">
-        <v>16535.007000000001</v>
+        <v>13240.904999999999</v>
       </c>
       <c r="G31" s="13">
-        <v>6440.4480000000003</v>
+        <v>6447.4090000000006</v>
       </c>
       <c r="H31" s="13">
-        <v>7445.0419999999995</v>
+        <v>6818.1289999999999</v>
       </c>
       <c r="I31" s="13">
-        <v>3504.6480000000001</v>
+        <v>3168.0129999999999</v>
       </c>
       <c r="J31" s="13">
-        <v>3949.8199999999997</v>
+        <v>3032.7219999999998</v>
       </c>
       <c r="K31" s="13">
-        <v>2498.7659999999996</v>
+        <v>2419.5279999999998</v>
       </c>
       <c r="L31" s="13">
-        <v>3061.4049999999997</v>
+        <v>3039.0519999999997</v>
       </c>
       <c r="M31" s="13">
-        <v>2069.788</v>
+        <v>2077.337</v>
       </c>
       <c r="N31" s="13">
-        <v>1219.9379999999999</v>
+        <v>1145.9829999999999</v>
       </c>
       <c r="O31" s="13">
-        <v>1776.1070000000002</v>
+        <v>2054.748</v>
       </c>
       <c r="P31" s="13">
-        <v>4967.9229999999952</v>
+        <v>4502.0019999999795</v>
       </c>
     </row>
     <row r="32" spans="2:16" hidden="1">
@@ -2311,231 +2311,239 @@
         <v>2023</v>
       </c>
       <c r="C32" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="16">
+        <f t="shared" si="3"/>
+        <v>92574.85</v>
+      </c>
+      <c r="E32" s="17">
+        <v>47367.56</v>
+      </c>
+      <c r="F32" s="17">
+        <v>13553.766</v>
+      </c>
+      <c r="G32" s="17">
+        <v>6046.3230000000003</v>
+      </c>
+      <c r="H32" s="17">
+        <v>5997.2860000000001</v>
+      </c>
+      <c r="I32" s="17">
+        <v>2823</v>
+      </c>
+      <c r="J32" s="17">
+        <v>3201.482</v>
+      </c>
+      <c r="K32" s="17">
+        <v>2103.346</v>
+      </c>
+      <c r="L32" s="17">
+        <v>2699.6509999999998</v>
+      </c>
+      <c r="M32" s="17">
+        <v>1830.1030000000001</v>
+      </c>
+      <c r="N32" s="17">
+        <v>966.625</v>
+      </c>
+      <c r="O32" s="17">
+        <v>1973.069</v>
+      </c>
+      <c r="P32" s="17">
+        <v>4012.6390000000029</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" hidden="1">
+      <c r="B33" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="12">
+        <f t="shared" si="3"/>
+        <v>105745.56200000001</v>
+      </c>
+      <c r="E33" s="13">
+        <v>52276.67</v>
+      </c>
+      <c r="F33" s="13">
+        <v>16535.007000000001</v>
+      </c>
+      <c r="G33" s="13">
+        <v>6440.4480000000003</v>
+      </c>
+      <c r="H33" s="13">
+        <v>7445.0419999999995</v>
+      </c>
+      <c r="I33" s="13">
+        <v>3504.6480000000001</v>
+      </c>
+      <c r="J33" s="13">
+        <v>3949.8199999999997</v>
+      </c>
+      <c r="K33" s="13">
+        <v>2498.7659999999996</v>
+      </c>
+      <c r="L33" s="13">
+        <v>3061.4049999999997</v>
+      </c>
+      <c r="M33" s="13">
+        <v>2069.788</v>
+      </c>
+      <c r="N33" s="13">
+        <v>1219.9379999999999</v>
+      </c>
+      <c r="O33" s="13">
+        <v>1776.1070000000002</v>
+      </c>
+      <c r="P33" s="13">
+        <v>4967.9229999999952</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" hidden="1">
+      <c r="B34" s="14">
+        <v>2023</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="16">
-        <f t="shared" si="2"/>
+      <c r="D34" s="16">
+        <f t="shared" si="3"/>
         <v>92062.197000000015</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E34" s="17">
         <v>48557.700000000004</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F34" s="17">
         <v>12859.111000000001</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G34" s="17">
         <v>5657.7039999999997</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H34" s="17">
         <v>6269.88</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I34" s="17">
         <v>2992.4319999999998</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J34" s="17">
         <v>3589.6260000000002</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K34" s="17">
         <v>2018.2800000000002</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L34" s="17">
         <v>2591.8669999999997</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M34" s="17">
         <v>1971.3010000000002</v>
       </c>
-      <c r="N32" s="17">
+      <c r="N34" s="17">
         <v>967.20100000000002</v>
       </c>
-      <c r="O32" s="17">
+      <c r="O34" s="17">
         <v>24.785999999999998</v>
       </c>
-      <c r="P32" s="17">
+      <c r="P34" s="17">
         <v>4562.3090000000093</v>
       </c>
     </row>
-    <row r="33" spans="2:16" hidden="1">
-      <c r="B33" s="18">
+    <row r="35" spans="2:16" hidden="1">
+      <c r="B35" s="18">
         <v>2023</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C35" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="20">
-        <f t="shared" si="2"/>
+      <c r="D35" s="20">
+        <f t="shared" si="3"/>
         <v>91861.286999999982</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E35" s="21">
         <v>47206.720000000001</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F35" s="21">
         <v>14071.760999999999</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G35" s="21">
         <v>5308.5119999999997</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H35" s="21">
         <v>6105.5779999999995</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I35" s="21">
         <v>3099.4949999999999</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J35" s="21">
         <v>3049.6080000000002</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K35" s="21">
         <v>2226.4519999999998</v>
       </c>
-      <c r="L33" s="21">
+      <c r="L35" s="21">
         <v>2648.1549999999997</v>
       </c>
-      <c r="M33" s="21">
+      <c r="M35" s="21">
         <v>2170.7359999999999</v>
       </c>
-      <c r="N33" s="21">
+      <c r="N35" s="21">
         <v>1026.6849999999999</v>
       </c>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21">
+      <c r="O35" s="21">
+        <v>0</v>
+      </c>
+      <c r="P35" s="21">
         <v>4947.5849999999755</v>
       </c>
     </row>
-    <row r="34" spans="2:16" hidden="1">
-      <c r="B34" s="22">
+    <row r="36" spans="2:16" hidden="1">
+      <c r="B36" s="22">
         <v>2022</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C36" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="24">
-        <f t="shared" si="2"/>
+      <c r="D36" s="24">
+        <f t="shared" si="3"/>
         <v>101065.27699999994</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E36" s="25">
         <v>51995.01</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F36" s="25">
         <v>14753.401000000002</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G36" s="25">
         <v>6074.482</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H36" s="25">
         <v>6693.6720000000005</v>
       </c>
-      <c r="I34" s="25">
+      <c r="I36" s="25">
         <v>3610.9369999999999</v>
       </c>
-      <c r="J34" s="25">
+      <c r="J36" s="25">
         <v>3543.056</v>
       </c>
-      <c r="K34" s="25">
+      <c r="K36" s="25">
         <v>2529.5419999999999</v>
       </c>
-      <c r="L34" s="25">
+      <c r="L36" s="25">
         <v>3120.09</v>
       </c>
-      <c r="M34" s="25">
+      <c r="M36" s="25">
         <v>2114.6820000000002</v>
       </c>
-      <c r="N34" s="25">
+      <c r="N36" s="25">
         <v>1202.202</v>
       </c>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25">
+      <c r="O36" s="25">
+        <v>0</v>
+      </c>
+      <c r="P36" s="25">
         <v>5428.2029999999249</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" hidden="1">
-      <c r="B35" s="10">
-        <v>2022</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="12">
-        <f t="shared" si="2"/>
-        <v>100761.743</v>
-      </c>
-      <c r="E35" s="13">
-        <v>52228.090000000004</v>
-      </c>
-      <c r="F35" s="13">
-        <v>14611.128000000001</v>
-      </c>
-      <c r="G35" s="13">
-        <v>6314.7170000000006</v>
-      </c>
-      <c r="H35" s="13">
-        <v>6174.5390000000007</v>
-      </c>
-      <c r="I35" s="13">
-        <v>3744.3739999999998</v>
-      </c>
-      <c r="J35" s="13">
-        <v>3438.8589999999999</v>
-      </c>
-      <c r="K35" s="13">
-        <v>2565.1889999999999</v>
-      </c>
-      <c r="L35" s="13">
-        <v>3357.0519999999997</v>
-      </c>
-      <c r="M35" s="13">
-        <v>2200.0079999999998</v>
-      </c>
-      <c r="N35" s="13">
-        <v>1152.1139999999998</v>
-      </c>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13">
-        <v>4975.6730000000007</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" hidden="1">
-      <c r="B36" s="14">
-        <v>2022</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="16">
-        <f t="shared" si="2"/>
-        <v>101815.66400000002</v>
-      </c>
-      <c r="E36" s="17">
-        <v>53850.369999999995</v>
-      </c>
-      <c r="F36" s="17">
-        <v>15184.744000000001</v>
-      </c>
-      <c r="G36" s="17">
-        <v>6463.3790000000008</v>
-      </c>
-      <c r="H36" s="17">
-        <v>5772.1310000000003</v>
-      </c>
-      <c r="I36" s="17">
-        <v>3574.8900000000003</v>
-      </c>
-      <c r="J36" s="17">
-        <v>3573.3429999999998</v>
-      </c>
-      <c r="K36" s="17">
-        <v>2038.558</v>
-      </c>
-      <c r="L36" s="17">
-        <v>2968.2270000000003</v>
-      </c>
-      <c r="M36" s="17">
-        <v>2060.0630000000001</v>
-      </c>
-      <c r="N36" s="17">
-        <v>1283.712</v>
-      </c>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17">
-        <v>5046.2470000000367</v>
       </c>
     </row>
     <row r="37" spans="2:16" hidden="1">
@@ -2543,45 +2551,47 @@
         <v>2022</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D37" s="12">
-        <f t="shared" si="2"/>
-        <v>89334.159999999974</v>
+        <f t="shared" si="3"/>
+        <v>100761.743</v>
       </c>
       <c r="E37" s="13">
-        <v>47061.49</v>
+        <v>52228.090000000004</v>
       </c>
       <c r="F37" s="13">
-        <v>14479.710999999999</v>
+        <v>14611.128000000001</v>
       </c>
       <c r="G37" s="13">
-        <v>6202.4430000000002</v>
+        <v>6314.7170000000006</v>
       </c>
       <c r="H37" s="13">
-        <v>5721.7240000000002</v>
+        <v>6174.5390000000007</v>
       </c>
       <c r="I37" s="13">
-        <v>2401.297</v>
+        <v>3744.3739999999998</v>
       </c>
       <c r="J37" s="13">
-        <v>2631.6559999999999</v>
+        <v>3438.8589999999999</v>
       </c>
       <c r="K37" s="13">
-        <v>2465.8180000000002</v>
+        <v>2565.1889999999999</v>
       </c>
       <c r="L37" s="13">
-        <v>2754.2740000000003</v>
+        <v>3357.0519999999997</v>
       </c>
       <c r="M37" s="13">
-        <v>512.15899999999999</v>
+        <v>2200.0079999999998</v>
       </c>
       <c r="N37" s="13">
-        <v>1143.1680000000001</v>
-      </c>
-      <c r="O37" s="13"/>
+        <v>1152.1139999999998</v>
+      </c>
+      <c r="O37" s="13">
+        <v>0</v>
+      </c>
       <c r="P37" s="13">
-        <v>3960.4199999999564</v>
+        <v>4975.6730000000007</v>
       </c>
     </row>
     <row r="38" spans="2:16" hidden="1">
@@ -2589,45 +2599,47 @@
         <v>2022</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D38" s="16">
-        <f t="shared" si="2"/>
-        <v>95278.69100000005</v>
+        <f t="shared" si="3"/>
+        <v>101815.66400000002</v>
       </c>
       <c r="E38" s="17">
-        <v>47746.51</v>
+        <v>53850.369999999995</v>
       </c>
       <c r="F38" s="17">
-        <v>14115.436000000002</v>
+        <v>15184.744000000001</v>
       </c>
       <c r="G38" s="17">
-        <v>7015.4850000000006</v>
+        <v>6463.3790000000008</v>
       </c>
       <c r="H38" s="17">
-        <v>6571.5810000000001</v>
+        <v>5772.1310000000003</v>
       </c>
       <c r="I38" s="17">
-        <v>2958.8999999999996</v>
+        <v>3574.8900000000003</v>
       </c>
       <c r="J38" s="17">
-        <v>3531.7309999999998</v>
+        <v>3573.3429999999998</v>
       </c>
       <c r="K38" s="17">
-        <v>2622.4749999999999</v>
+        <v>2038.558</v>
       </c>
       <c r="L38" s="17">
-        <v>2978.3830000000003</v>
+        <v>2968.2270000000003</v>
       </c>
       <c r="M38" s="17">
-        <v>2025.0970000000002</v>
+        <v>2060.0630000000001</v>
       </c>
       <c r="N38" s="17">
-        <v>1204.242</v>
-      </c>
-      <c r="O38" s="17"/>
+        <v>1283.712</v>
+      </c>
+      <c r="O38" s="17">
+        <v>0</v>
+      </c>
       <c r="P38" s="17">
-        <v>4508.8510000000351</v>
+        <v>5046.2470000000367</v>
       </c>
     </row>
     <row r="39" spans="2:16" hidden="1">
@@ -2635,45 +2647,47 @@
         <v>2022</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D39" s="12">
-        <f t="shared" si="2"/>
-        <v>97785.689999999988</v>
+        <f t="shared" si="3"/>
+        <v>89334.159999999974</v>
       </c>
       <c r="E39" s="13">
-        <v>50063.990000000005</v>
+        <v>47061.49</v>
       </c>
       <c r="F39" s="13">
-        <v>14860.342999999999</v>
+        <v>14479.710999999999</v>
       </c>
       <c r="G39" s="13">
-        <v>6623.2259999999997</v>
+        <v>6202.4430000000002</v>
       </c>
       <c r="H39" s="13">
-        <v>5368.71</v>
+        <v>5721.7240000000002</v>
       </c>
       <c r="I39" s="13">
-        <v>3986.607</v>
+        <v>2401.297</v>
       </c>
       <c r="J39" s="13">
-        <v>4343.424</v>
+        <v>2631.6559999999999</v>
       </c>
       <c r="K39" s="13">
-        <v>2496.5360000000001</v>
+        <v>2465.8180000000002</v>
       </c>
       <c r="L39" s="13">
-        <v>2822.9870000000001</v>
+        <v>2754.2740000000003</v>
       </c>
       <c r="M39" s="13">
-        <v>1943.029</v>
+        <v>512.15899999999999</v>
       </c>
       <c r="N39" s="13">
-        <v>1117.913</v>
-      </c>
-      <c r="O39" s="13"/>
+        <v>1143.1680000000001</v>
+      </c>
+      <c r="O39" s="13">
+        <v>0</v>
+      </c>
       <c r="P39" s="13">
-        <v>4158.924999999982</v>
+        <v>3960.4199999999564</v>
       </c>
     </row>
     <row r="40" spans="2:16" hidden="1">
@@ -2681,45 +2695,47 @@
         <v>2022</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D40" s="16">
-        <f t="shared" si="2"/>
-        <v>98754.335000000006</v>
+        <f t="shared" si="3"/>
+        <v>95278.69100000005</v>
       </c>
       <c r="E40" s="17">
-        <v>46577.189999999995</v>
+        <v>47746.51</v>
       </c>
       <c r="F40" s="17">
-        <v>15738.313999999998</v>
+        <v>14115.436000000002</v>
       </c>
       <c r="G40" s="17">
-        <v>7141.8860000000004</v>
+        <v>7015.4850000000006</v>
       </c>
       <c r="H40" s="17">
-        <v>6363.9130000000005</v>
+        <v>6571.5810000000001</v>
       </c>
       <c r="I40" s="17">
-        <v>4263.3530000000001</v>
+        <v>2958.8999999999996</v>
       </c>
       <c r="J40" s="17">
-        <v>3976.6590000000001</v>
+        <v>3531.7309999999998</v>
       </c>
       <c r="K40" s="17">
-        <v>2587.8480000000004</v>
+        <v>2622.4749999999999</v>
       </c>
       <c r="L40" s="17">
-        <v>3419.7529999999997</v>
+        <v>2978.3830000000003</v>
       </c>
       <c r="M40" s="17">
-        <v>2042.5399999999997</v>
+        <v>2025.0970000000002</v>
       </c>
       <c r="N40" s="17">
-        <v>1359.9259999999999</v>
-      </c>
-      <c r="O40" s="17"/>
+        <v>1204.242</v>
+      </c>
+      <c r="O40" s="17">
+        <v>0</v>
+      </c>
       <c r="P40" s="17">
-        <v>5282.9530000000059</v>
+        <v>4508.8510000000351</v>
       </c>
     </row>
     <row r="41" spans="2:16" hidden="1">
@@ -2727,45 +2743,47 @@
         <v>2022</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D41" s="12">
-        <f t="shared" si="2"/>
-        <v>100981.77</v>
+        <f t="shared" si="3"/>
+        <v>97785.689999999988</v>
       </c>
       <c r="E41" s="13">
-        <v>48175.270000000004</v>
+        <v>50063.990000000005</v>
       </c>
       <c r="F41" s="13">
-        <v>15121.800999999999</v>
+        <v>14860.342999999999</v>
       </c>
       <c r="G41" s="13">
-        <v>6917.94</v>
+        <v>6623.2259999999997</v>
       </c>
       <c r="H41" s="13">
-        <v>7004.4480000000003</v>
+        <v>5368.71</v>
       </c>
       <c r="I41" s="13">
-        <v>4293.0200000000004</v>
+        <v>3986.607</v>
       </c>
       <c r="J41" s="13">
-        <v>4633.1059999999998</v>
+        <v>4343.424</v>
       </c>
       <c r="K41" s="13">
-        <v>2216.5819999999999</v>
+        <v>2496.5360000000001</v>
       </c>
       <c r="L41" s="13">
-        <v>4035.9160000000002</v>
+        <v>2822.9870000000001</v>
       </c>
       <c r="M41" s="13">
-        <v>2042.0069999999998</v>
+        <v>1943.029</v>
       </c>
       <c r="N41" s="13">
-        <v>1212.9639999999999</v>
-      </c>
-      <c r="O41" s="13"/>
+        <v>1117.913</v>
+      </c>
+      <c r="O41" s="13">
+        <v>0</v>
+      </c>
       <c r="P41" s="13">
-        <v>5328.7160000000003</v>
+        <v>4158.924999999982</v>
       </c>
     </row>
     <row r="42" spans="2:16" hidden="1">
@@ -2773,45 +2791,47 @@
         <v>2022</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D42" s="16">
-        <f t="shared" si="2"/>
-        <v>91772.804999999978</v>
+        <f t="shared" si="3"/>
+        <v>98754.335000000006</v>
       </c>
       <c r="E42" s="17">
-        <v>42504.89</v>
+        <v>46577.189999999995</v>
       </c>
       <c r="F42" s="17">
-        <v>14271.894</v>
+        <v>15738.313999999998</v>
       </c>
       <c r="G42" s="17">
-        <v>6804.5039999999999</v>
+        <v>7141.8860000000004</v>
       </c>
       <c r="H42" s="17">
-        <v>5796.9490000000005</v>
+        <v>6363.9130000000005</v>
       </c>
       <c r="I42" s="17">
-        <v>3819.4520000000002</v>
+        <v>4263.3530000000001</v>
       </c>
       <c r="J42" s="17">
-        <v>4312.4709999999995</v>
+        <v>3976.6590000000001</v>
       </c>
       <c r="K42" s="17">
-        <v>2349.19</v>
+        <v>2587.8480000000004</v>
       </c>
       <c r="L42" s="17">
-        <v>3770.8559999999998</v>
+        <v>3419.7529999999997</v>
       </c>
       <c r="M42" s="17">
-        <v>1869.663</v>
+        <v>2042.5399999999997</v>
       </c>
       <c r="N42" s="17">
-        <v>1118.5450000000001</v>
-      </c>
-      <c r="O42" s="17"/>
+        <v>1359.9259999999999</v>
+      </c>
+      <c r="O42" s="17">
+        <v>0</v>
+      </c>
       <c r="P42" s="17">
-        <v>5154.390999999976</v>
+        <v>5282.9530000000059</v>
       </c>
     </row>
     <row r="43" spans="2:16" hidden="1">
@@ -2819,45 +2839,47 @@
         <v>2022</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D43" s="12">
-        <f t="shared" si="2"/>
-        <v>97475.604000000007</v>
+        <f t="shared" si="3"/>
+        <v>100981.77</v>
       </c>
       <c r="E43" s="13">
-        <v>43589.06</v>
+        <v>48175.270000000004</v>
       </c>
       <c r="F43" s="13">
-        <v>15805.73</v>
+        <v>15121.800999999999</v>
       </c>
       <c r="G43" s="13">
-        <v>7474.4720000000007</v>
+        <v>6917.94</v>
       </c>
       <c r="H43" s="13">
-        <v>6700.8620000000001</v>
+        <v>7004.4480000000003</v>
       </c>
       <c r="I43" s="13">
-        <v>4181.607</v>
+        <v>4293.0200000000004</v>
       </c>
       <c r="J43" s="13">
-        <v>4873.1779999999999</v>
+        <v>4633.1059999999998</v>
       </c>
       <c r="K43" s="13">
-        <v>2656.9369999999999</v>
+        <v>2216.5819999999999</v>
       </c>
       <c r="L43" s="13">
-        <v>3049.7539999999999</v>
+        <v>4035.9160000000002</v>
       </c>
       <c r="M43" s="13">
-        <v>2099.5990000000002</v>
+        <v>2042.0069999999998</v>
       </c>
       <c r="N43" s="13">
-        <v>1350.1109999999999</v>
-      </c>
-      <c r="O43" s="13"/>
+        <v>1212.9639999999999</v>
+      </c>
+      <c r="O43" s="13">
+        <v>0</v>
+      </c>
       <c r="P43" s="13">
-        <v>5694.2940000000135</v>
+        <v>5328.7160000000003</v>
       </c>
     </row>
     <row r="44" spans="2:16" hidden="1">
@@ -2865,229 +2887,237 @@
         <v>2022</v>
       </c>
       <c r="C44" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="16">
+        <f t="shared" si="3"/>
+        <v>91772.804999999978</v>
+      </c>
+      <c r="E44" s="17">
+        <v>42504.89</v>
+      </c>
+      <c r="F44" s="17">
+        <v>14271.894</v>
+      </c>
+      <c r="G44" s="17">
+        <v>6804.5039999999999</v>
+      </c>
+      <c r="H44" s="17">
+        <v>5796.9490000000005</v>
+      </c>
+      <c r="I44" s="17">
+        <v>3819.4520000000002</v>
+      </c>
+      <c r="J44" s="17">
+        <v>4312.4709999999995</v>
+      </c>
+      <c r="K44" s="17">
+        <v>2349.19</v>
+      </c>
+      <c r="L44" s="17">
+        <v>3770.8559999999998</v>
+      </c>
+      <c r="M44" s="17">
+        <v>1869.663</v>
+      </c>
+      <c r="N44" s="17">
+        <v>1118.5450000000001</v>
+      </c>
+      <c r="O44" s="17">
+        <v>0</v>
+      </c>
+      <c r="P44" s="17">
+        <v>5154.390999999976</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" hidden="1">
+      <c r="B45" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="12">
+        <f t="shared" si="3"/>
+        <v>97475.604000000007</v>
+      </c>
+      <c r="E45" s="13">
+        <v>43589.06</v>
+      </c>
+      <c r="F45" s="13">
+        <v>15805.73</v>
+      </c>
+      <c r="G45" s="13">
+        <v>7474.4720000000007</v>
+      </c>
+      <c r="H45" s="13">
+        <v>6700.8620000000001</v>
+      </c>
+      <c r="I45" s="13">
+        <v>4181.607</v>
+      </c>
+      <c r="J45" s="13">
+        <v>4873.1779999999999</v>
+      </c>
+      <c r="K45" s="13">
+        <v>2656.9369999999999</v>
+      </c>
+      <c r="L45" s="13">
+        <v>3049.7539999999999</v>
+      </c>
+      <c r="M45" s="13">
+        <v>2099.5990000000002</v>
+      </c>
+      <c r="N45" s="13">
+        <v>1350.1109999999999</v>
+      </c>
+      <c r="O45" s="13">
+        <v>0</v>
+      </c>
+      <c r="P45" s="13">
+        <v>5694.2940000000135</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" hidden="1">
+      <c r="B46" s="14">
+        <v>2022</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="16">
-        <f t="shared" si="2"/>
+      <c r="D46" s="16">
+        <f t="shared" si="3"/>
         <v>89800.428</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E46" s="17">
         <v>45366.31</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F46" s="17">
         <v>13369.772999999999</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G46" s="17">
         <v>5647.3320000000003</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H46" s="17">
         <v>5270.6120000000001</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I46" s="17">
         <v>3794.5039999999999</v>
       </c>
-      <c r="J44" s="17">
+      <c r="J46" s="17">
         <v>3839.19</v>
       </c>
-      <c r="K44" s="17">
+      <c r="K46" s="17">
         <v>2119.1379999999999</v>
       </c>
-      <c r="L44" s="17">
+      <c r="L46" s="17">
         <v>2576.7370000000001</v>
       </c>
-      <c r="M44" s="17">
+      <c r="M46" s="17">
         <v>1797.6790000000001</v>
       </c>
-      <c r="N44" s="17">
+      <c r="N46" s="17">
         <v>1019.68</v>
       </c>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17">
+      <c r="O46" s="17">
+        <v>0</v>
+      </c>
+      <c r="P46" s="17">
         <v>4999.4729999999945</v>
       </c>
     </row>
-    <row r="45" spans="2:16" hidden="1">
-      <c r="B45" s="18">
+    <row r="47" spans="2:16" hidden="1">
+      <c r="B47" s="18">
         <v>2022</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C47" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="20">
-        <f t="shared" si="2"/>
+      <c r="D47" s="20">
+        <f t="shared" si="3"/>
         <v>85046.313999999984</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E47" s="21">
         <v>41649.950000000004</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F47" s="21">
         <v>14466.567999999999</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G47" s="21">
         <v>5084.2289999999994</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H47" s="21">
         <v>5408.1559999999999</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I47" s="21">
         <v>2575.6040000000003</v>
       </c>
-      <c r="J45" s="21">
+      <c r="J47" s="21">
         <v>3171.0789999999997</v>
       </c>
-      <c r="K45" s="21">
+      <c r="K47" s="21">
         <v>2142.4740000000002</v>
       </c>
-      <c r="L45" s="21">
+      <c r="L47" s="21">
         <v>2573.4090000000001</v>
       </c>
-      <c r="M45" s="21">
+      <c r="M47" s="21">
         <v>1939.2370000000001</v>
       </c>
-      <c r="N45" s="21">
+      <c r="N47" s="21">
         <v>1105.0170000000001</v>
       </c>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21">
+      <c r="O47" s="21">
+        <v>0</v>
+      </c>
+      <c r="P47" s="21">
         <v>4930.590999999964</v>
       </c>
     </row>
-    <row r="46" spans="2:16" hidden="1">
-      <c r="B46" s="22">
+    <row r="48" spans="2:16" hidden="1">
+      <c r="B48" s="22">
         <v>2021</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C48" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="24">
-        <f t="shared" si="2"/>
+      <c r="D48" s="24">
+        <f t="shared" si="3"/>
         <v>106245.8559999999</v>
       </c>
-      <c r="E46" s="25">
+      <c r="E48" s="25">
         <v>50857.07</v>
       </c>
-      <c r="F46" s="25">
+      <c r="F48" s="25">
         <v>17094.063999999998</v>
       </c>
-      <c r="G46" s="25">
+      <c r="G48" s="25">
         <v>6690.982</v>
       </c>
-      <c r="H46" s="25">
+      <c r="H48" s="25">
         <v>6757.0789999999997</v>
       </c>
-      <c r="I46" s="25">
+      <c r="I48" s="25">
         <v>4772.1049999999996</v>
       </c>
-      <c r="J46" s="25">
+      <c r="J48" s="25">
         <v>4153.6809999999996</v>
       </c>
-      <c r="K46" s="25">
+      <c r="K48" s="25">
         <v>2996.9839999999999</v>
       </c>
-      <c r="L46" s="25">
+      <c r="L48" s="25">
         <v>3411.8760000000002</v>
       </c>
-      <c r="M46" s="25">
+      <c r="M48" s="25">
         <v>2152.6570000000002</v>
       </c>
-      <c r="N46" s="25">
+      <c r="N48" s="25">
         <v>1412.242</v>
       </c>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25">
+      <c r="O48" s="25"/>
+      <c r="P48" s="25">
         <v>5947.115999999909</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" hidden="1">
-      <c r="B47" s="10">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="12">
-        <f t="shared" si="2"/>
-        <v>103780.351</v>
-      </c>
-      <c r="E47" s="13">
-        <v>51670.84</v>
-      </c>
-      <c r="F47" s="13">
-        <v>16637.919000000002</v>
-      </c>
-      <c r="G47" s="13">
-        <v>6777.7350000000006</v>
-      </c>
-      <c r="H47" s="13">
-        <v>6088.8860000000004</v>
-      </c>
-      <c r="I47" s="13">
-        <v>4689.4409999999998</v>
-      </c>
-      <c r="J47" s="13">
-        <v>3093.7200000000003</v>
-      </c>
-      <c r="K47" s="13">
-        <v>2801.3710000000001</v>
-      </c>
-      <c r="L47" s="13">
-        <v>3273.163</v>
-      </c>
-      <c r="M47" s="13">
-        <v>2116.31</v>
-      </c>
-      <c r="N47" s="13">
-        <v>1187.3990000000001</v>
-      </c>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13">
-        <v>5443.5670000000018</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" hidden="1">
-      <c r="B48" s="14">
-        <v>2021</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="16">
-        <f t="shared" si="2"/>
-        <v>102011.41899999998</v>
-      </c>
-      <c r="E48" s="17">
-        <v>52512.270000000004</v>
-      </c>
-      <c r="F48" s="17">
-        <v>15934.506000000001</v>
-      </c>
-      <c r="G48" s="17">
-        <v>6335.259</v>
-      </c>
-      <c r="H48" s="17">
-        <v>5545.3950000000004</v>
-      </c>
-      <c r="I48" s="17">
-        <v>4882.7650000000003</v>
-      </c>
-      <c r="J48" s="17">
-        <v>2936.84</v>
-      </c>
-      <c r="K48" s="17">
-        <v>2405.8789999999999</v>
-      </c>
-      <c r="L48" s="17">
-        <v>3272.1130000000003</v>
-      </c>
-      <c r="M48" s="17">
-        <v>1900.828</v>
-      </c>
-      <c r="N48" s="17">
-        <v>1092.5319999999999</v>
-      </c>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17">
-        <v>5193.0319999999592</v>
       </c>
     </row>
     <row r="49" spans="2:16" hidden="1">
@@ -3095,45 +3125,45 @@
         <v>2021</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D49" s="12">
-        <f t="shared" ref="D49:D80" si="3">SUM(E49:P49)</f>
-        <v>91178.608999999982</v>
+        <f t="shared" si="3"/>
+        <v>103780.351</v>
       </c>
       <c r="E49" s="13">
-        <v>45915.21</v>
+        <v>51670.84</v>
       </c>
       <c r="F49" s="13">
-        <v>14692.056</v>
+        <v>16637.919000000002</v>
       </c>
       <c r="G49" s="13">
-        <v>5728.8209999999999</v>
+        <v>6777.7350000000006</v>
       </c>
       <c r="H49" s="13">
-        <v>5560.4480000000003</v>
+        <v>6088.8860000000004</v>
       </c>
       <c r="I49" s="13">
-        <v>4702.9629999999997</v>
+        <v>4689.4409999999998</v>
       </c>
       <c r="J49" s="13">
-        <v>2102.703</v>
+        <v>3093.7200000000003</v>
       </c>
       <c r="K49" s="13">
-        <v>2272.134</v>
+        <v>2801.3710000000001</v>
       </c>
       <c r="L49" s="13">
-        <v>2868.15</v>
+        <v>3273.163</v>
       </c>
       <c r="M49" s="13">
-        <v>1735.4590000000001</v>
+        <v>2116.31</v>
       </c>
       <c r="N49" s="13">
-        <v>1045.8</v>
+        <v>1187.3990000000001</v>
       </c>
       <c r="O49" s="13"/>
       <c r="P49" s="13">
-        <v>4554.864999999978</v>
+        <v>5443.5670000000018</v>
       </c>
     </row>
     <row r="50" spans="2:16" hidden="1">
@@ -3141,45 +3171,45 @@
         <v>2021</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D50" s="16">
         <f t="shared" si="3"/>
-        <v>92414.208999999988</v>
+        <v>102011.41899999998</v>
       </c>
       <c r="E50" s="17">
-        <v>46263.56</v>
+        <v>52512.270000000004</v>
       </c>
       <c r="F50" s="17">
-        <v>15429.054</v>
+        <v>15934.506000000001</v>
       </c>
       <c r="G50" s="17">
-        <v>5843.6489999999994</v>
+        <v>6335.259</v>
       </c>
       <c r="H50" s="17">
-        <v>5188.5529999999999</v>
+        <v>5545.3950000000004</v>
       </c>
       <c r="I50" s="17">
-        <v>4997.6589999999997</v>
+        <v>4882.7650000000003</v>
       </c>
       <c r="J50" s="17">
-        <v>1980.7669999999998</v>
+        <v>2936.84</v>
       </c>
       <c r="K50" s="17">
-        <v>2178.5140000000001</v>
+        <v>2405.8789999999999</v>
       </c>
       <c r="L50" s="17">
-        <v>2985.433</v>
+        <v>3272.1130000000003</v>
       </c>
       <c r="M50" s="17">
-        <v>1919.7950000000001</v>
+        <v>1900.828</v>
       </c>
       <c r="N50" s="17">
-        <v>1046.1379999999999</v>
+        <v>1092.5319999999999</v>
       </c>
       <c r="O50" s="17"/>
       <c r="P50" s="17">
-        <v>4581.0869999999823</v>
+        <v>5193.0319999999592</v>
       </c>
     </row>
     <row r="51" spans="2:16" hidden="1">
@@ -3187,45 +3217,45 @@
         <v>2021</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D51" s="12">
-        <f t="shared" si="3"/>
-        <v>94998.959000000017</v>
+        <f t="shared" ref="D51:D82" si="4">SUM(E51:P51)</f>
+        <v>91178.608999999982</v>
       </c>
       <c r="E51" s="13">
-        <v>47535.66</v>
+        <v>45915.21</v>
       </c>
       <c r="F51" s="13">
-        <v>16396.912</v>
+        <v>14692.056</v>
       </c>
       <c r="G51" s="13">
-        <v>5814.3230000000003</v>
+        <v>5728.8209999999999</v>
       </c>
       <c r="H51" s="13">
-        <v>5225.7449999999999</v>
+        <v>5560.4480000000003</v>
       </c>
       <c r="I51" s="13">
-        <v>4822.5879999999997</v>
+        <v>4702.9629999999997</v>
       </c>
       <c r="J51" s="13">
-        <v>2417.9939999999997</v>
+        <v>2102.703</v>
       </c>
       <c r="K51" s="13">
-        <v>2253.5949999999998</v>
+        <v>2272.134</v>
       </c>
       <c r="L51" s="13">
-        <v>2954.0879999999997</v>
+        <v>2868.15</v>
       </c>
       <c r="M51" s="13">
-        <v>2019.4090000000001</v>
+        <v>1735.4590000000001</v>
       </c>
       <c r="N51" s="13">
-        <v>989</v>
+        <v>1045.8</v>
       </c>
       <c r="O51" s="13"/>
       <c r="P51" s="13">
-        <v>4569.6450000000086</v>
+        <v>4554.864999999978</v>
       </c>
     </row>
     <row r="52" spans="2:16" hidden="1">
@@ -3233,45 +3263,45 @@
         <v>2021</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D52" s="16">
-        <f t="shared" si="3"/>
-        <v>93150.852999999974</v>
+        <f t="shared" si="4"/>
+        <v>92414.208999999988</v>
       </c>
       <c r="E52" s="17">
-        <v>46381.57</v>
+        <v>46263.56</v>
       </c>
       <c r="F52" s="17">
-        <v>16321.146999999999</v>
+        <v>15429.054</v>
       </c>
       <c r="G52" s="17">
-        <v>5643.8950000000004</v>
+        <v>5843.6489999999994</v>
       </c>
       <c r="H52" s="17">
-        <v>5512.8739999999998</v>
+        <v>5188.5529999999999</v>
       </c>
       <c r="I52" s="17">
-        <v>4619.1679999999997</v>
+        <v>4997.6589999999997</v>
       </c>
       <c r="J52" s="17">
-        <v>2265.636</v>
+        <v>1980.7669999999998</v>
       </c>
       <c r="K52" s="17">
-        <v>2051.7060000000001</v>
+        <v>2178.5140000000001</v>
       </c>
       <c r="L52" s="17">
-        <v>2931.884</v>
+        <v>2985.433</v>
       </c>
       <c r="M52" s="17">
-        <v>1972.1880000000001</v>
+        <v>1919.7950000000001</v>
       </c>
       <c r="N52" s="17">
-        <v>986.39300000000003</v>
+        <v>1046.1379999999999</v>
       </c>
       <c r="O52" s="17"/>
       <c r="P52" s="17">
-        <v>4464.3919999999753</v>
+        <v>4581.0869999999823</v>
       </c>
     </row>
     <row r="53" spans="2:16" hidden="1">
@@ -3279,45 +3309,45 @@
         <v>2021</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D53" s="12">
-        <f t="shared" si="3"/>
-        <v>91896.881000000023</v>
+        <f t="shared" si="4"/>
+        <v>94998.959000000017</v>
       </c>
       <c r="E53" s="13">
-        <v>46267.280000000006</v>
+        <v>47535.66</v>
       </c>
       <c r="F53" s="13">
-        <v>16961.302</v>
+        <v>16396.912</v>
       </c>
       <c r="G53" s="13">
-        <v>5341.201</v>
+        <v>5814.3230000000003</v>
       </c>
       <c r="H53" s="13">
-        <v>5093.9789999999994</v>
+        <v>5225.7449999999999</v>
       </c>
       <c r="I53" s="13">
-        <v>4098.0300000000007</v>
+        <v>4822.5879999999997</v>
       </c>
       <c r="J53" s="13">
-        <v>2317.509</v>
+        <v>2417.9939999999997</v>
       </c>
       <c r="K53" s="13">
-        <v>1839.751</v>
+        <v>2253.5949999999998</v>
       </c>
       <c r="L53" s="13">
-        <v>2917.2539999999999</v>
+        <v>2954.0879999999997</v>
       </c>
       <c r="M53" s="13">
-        <v>1854.6999999999998</v>
+        <v>2019.4090000000001</v>
       </c>
       <c r="N53" s="13">
-        <v>936.20399999999995</v>
+        <v>989</v>
       </c>
       <c r="O53" s="13"/>
       <c r="P53" s="13">
-        <v>4269.6710000000021</v>
+        <v>4569.6450000000086</v>
       </c>
     </row>
     <row r="54" spans="2:16" hidden="1">
@@ -3325,45 +3355,45 @@
         <v>2021</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D54" s="16">
-        <f t="shared" si="3"/>
-        <v>91124.671000000017</v>
+        <f t="shared" si="4"/>
+        <v>93150.852999999974</v>
       </c>
       <c r="E54" s="17">
-        <v>44958.49</v>
+        <v>46381.57</v>
       </c>
       <c r="F54" s="17">
-        <v>17353.253000000001</v>
+        <v>16321.146999999999</v>
       </c>
       <c r="G54" s="17">
-        <v>5074.8539999999994</v>
+        <v>5643.8950000000004</v>
       </c>
       <c r="H54" s="17">
-        <v>5150.7029999999995</v>
+        <v>5512.8739999999998</v>
       </c>
       <c r="I54" s="17">
-        <v>4190.9799999999996</v>
+        <v>4619.1679999999997</v>
       </c>
       <c r="J54" s="17">
-        <v>2711.4180000000001</v>
+        <v>2265.636</v>
       </c>
       <c r="K54" s="17">
-        <v>2026.221</v>
+        <v>2051.7060000000001</v>
       </c>
       <c r="L54" s="17">
-        <v>2834.6559999999999</v>
+        <v>2931.884</v>
       </c>
       <c r="M54" s="17">
-        <v>1752.0440000000001</v>
+        <v>1972.1880000000001</v>
       </c>
       <c r="N54" s="17">
-        <v>919.93</v>
+        <v>986.39300000000003</v>
       </c>
       <c r="O54" s="17"/>
       <c r="P54" s="17">
-        <v>4152.1220000000194</v>
+        <v>4464.3919999999753</v>
       </c>
     </row>
     <row r="55" spans="2:16" hidden="1">
@@ -3371,45 +3401,45 @@
         <v>2021</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D55" s="12">
-        <f t="shared" si="3"/>
-        <v>97804.682000000015</v>
+        <f t="shared" si="4"/>
+        <v>91896.881000000023</v>
       </c>
       <c r="E55" s="13">
-        <v>49200.950000000004</v>
+        <v>46267.280000000006</v>
       </c>
       <c r="F55" s="13">
-        <v>18513.925000000003</v>
+        <v>16961.302</v>
       </c>
       <c r="G55" s="13">
-        <v>5394.5290000000005</v>
+        <v>5341.201</v>
       </c>
       <c r="H55" s="13">
-        <v>5438.8379999999997</v>
+        <v>5093.9789999999994</v>
       </c>
       <c r="I55" s="13">
-        <v>4517.6980000000003</v>
+        <v>4098.0300000000007</v>
       </c>
       <c r="J55" s="13">
-        <v>2272.91</v>
+        <v>2317.509</v>
       </c>
       <c r="K55" s="13">
-        <v>2051.056</v>
+        <v>1839.751</v>
       </c>
       <c r="L55" s="13">
-        <v>2950.4749999999999</v>
+        <v>2917.2539999999999</v>
       </c>
       <c r="M55" s="13">
-        <v>1771.0360000000001</v>
+        <v>1854.6999999999998</v>
       </c>
       <c r="N55" s="13">
-        <v>1067.4470000000001</v>
+        <v>936.20399999999995</v>
       </c>
       <c r="O55" s="13"/>
       <c r="P55" s="13">
-        <v>4625.8179999999957</v>
+        <v>4269.6710000000021</v>
       </c>
     </row>
     <row r="56" spans="2:16" hidden="1">
@@ -3417,229 +3447,229 @@
         <v>2021</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D56" s="16">
-        <f t="shared" si="3"/>
-        <v>83857.271000000022</v>
+        <f t="shared" si="4"/>
+        <v>91124.671000000017</v>
       </c>
       <c r="E56" s="17">
-        <v>42287.700000000004</v>
+        <v>44958.49</v>
       </c>
       <c r="F56" s="17">
-        <v>15583.737000000001</v>
+        <v>17353.253000000001</v>
       </c>
       <c r="G56" s="17">
-        <v>4140.5389999999998</v>
+        <v>5074.8539999999994</v>
       </c>
       <c r="H56" s="17">
-        <v>4531.4269999999997</v>
+        <v>5150.7029999999995</v>
       </c>
       <c r="I56" s="17">
-        <v>3863.7919999999995</v>
+        <v>4190.9799999999996</v>
       </c>
       <c r="J56" s="17">
-        <v>2548.5929999999998</v>
+        <v>2711.4180000000001</v>
       </c>
       <c r="K56" s="17">
-        <v>1805.3239999999998</v>
+        <v>2026.221</v>
       </c>
       <c r="L56" s="17">
-        <v>2596.5039999999999</v>
+        <v>2834.6559999999999</v>
       </c>
       <c r="M56" s="17">
-        <v>1517.7179999999998</v>
+        <v>1752.0440000000001</v>
       </c>
       <c r="N56" s="17">
-        <v>866.53800000000001</v>
+        <v>919.93</v>
       </c>
       <c r="O56" s="17"/>
       <c r="P56" s="17">
+        <v>4152.1220000000194</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" hidden="1">
+      <c r="B57" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="12">
+        <f t="shared" si="4"/>
+        <v>97804.682000000015</v>
+      </c>
+      <c r="E57" s="13">
+        <v>49200.950000000004</v>
+      </c>
+      <c r="F57" s="13">
+        <v>18513.925000000003</v>
+      </c>
+      <c r="G57" s="13">
+        <v>5394.5290000000005</v>
+      </c>
+      <c r="H57" s="13">
+        <v>5438.8379999999997</v>
+      </c>
+      <c r="I57" s="13">
+        <v>4517.6980000000003</v>
+      </c>
+      <c r="J57" s="13">
+        <v>2272.91</v>
+      </c>
+      <c r="K57" s="13">
+        <v>2051.056</v>
+      </c>
+      <c r="L57" s="13">
+        <v>2950.4749999999999</v>
+      </c>
+      <c r="M57" s="13">
+        <v>1771.0360000000001</v>
+      </c>
+      <c r="N57" s="13">
+        <v>1067.4470000000001</v>
+      </c>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13">
+        <v>4625.8179999999957</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" hidden="1">
+      <c r="B58" s="14">
+        <v>2021</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="16">
+        <f t="shared" si="4"/>
+        <v>83857.271000000022</v>
+      </c>
+      <c r="E58" s="17">
+        <v>42287.700000000004</v>
+      </c>
+      <c r="F58" s="17">
+        <v>15583.737000000001</v>
+      </c>
+      <c r="G58" s="17">
+        <v>4140.5389999999998</v>
+      </c>
+      <c r="H58" s="17">
+        <v>4531.4269999999997</v>
+      </c>
+      <c r="I58" s="17">
+        <v>3863.7919999999995</v>
+      </c>
+      <c r="J58" s="17">
+        <v>2548.5929999999998</v>
+      </c>
+      <c r="K58" s="17">
+        <v>1805.3239999999998</v>
+      </c>
+      <c r="L58" s="17">
+        <v>2596.5039999999999</v>
+      </c>
+      <c r="M58" s="17">
+        <v>1517.7179999999998</v>
+      </c>
+      <c r="N58" s="17">
+        <v>866.53800000000001</v>
+      </c>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17">
         <v>4115.3990000000395</v>
       </c>
     </row>
-    <row r="57" spans="2:16" hidden="1">
-      <c r="B57" s="18">
+    <row r="59" spans="2:16" hidden="1">
+      <c r="B59" s="18">
         <v>2021</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C59" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="20">
-        <f t="shared" si="3"/>
+      <c r="D59" s="20">
+        <f t="shared" si="4"/>
         <v>88197.219999999987</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E59" s="21">
         <v>43928.770000000004</v>
       </c>
-      <c r="F57" s="21">
+      <c r="F59" s="21">
         <v>16300.849999999997</v>
       </c>
-      <c r="G57" s="21">
+      <c r="G59" s="21">
         <v>4840.8860000000004</v>
       </c>
-      <c r="H57" s="21">
+      <c r="H59" s="21">
         <v>4794.0879999999997</v>
       </c>
-      <c r="I57" s="21">
+      <c r="I59" s="21">
         <v>4785.6239999999998</v>
       </c>
-      <c r="J57" s="21">
+      <c r="J59" s="21">
         <v>2064.8710000000001</v>
       </c>
-      <c r="K57" s="21">
+      <c r="K59" s="21">
         <v>2034.952</v>
       </c>
-      <c r="L57" s="21">
+      <c r="L59" s="21">
         <v>2453.6999999999998</v>
       </c>
-      <c r="M57" s="21">
+      <c r="M59" s="21">
         <v>1745.922</v>
       </c>
-      <c r="N57" s="21">
+      <c r="N59" s="21">
         <v>918.11799999999994</v>
       </c>
-      <c r="O57" s="21"/>
-      <c r="P57" s="21">
+      <c r="O59" s="21"/>
+      <c r="P59" s="21">
         <v>4329.4389999999794</v>
       </c>
     </row>
-    <row r="58" spans="2:16" hidden="1">
-      <c r="B58" s="22">
+    <row r="60" spans="2:16" hidden="1">
+      <c r="B60" s="22">
         <v>2020</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C60" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D58" s="24">
-        <f t="shared" si="3"/>
+      <c r="D60" s="24">
+        <f t="shared" si="4"/>
         <v>94144.191000000021</v>
       </c>
-      <c r="E58" s="25">
+      <c r="E60" s="25">
         <v>46330.03</v>
       </c>
-      <c r="F58" s="25">
+      <c r="F60" s="25">
         <v>15973.973</v>
       </c>
-      <c r="G58" s="25">
+      <c r="G60" s="25">
         <v>5450.8789999999999</v>
       </c>
-      <c r="H58" s="25">
+      <c r="H60" s="25">
         <v>5488.8649999999998</v>
       </c>
-      <c r="I58" s="25">
+      <c r="I60" s="25">
         <v>5262.348</v>
       </c>
-      <c r="J58" s="25">
+      <c r="J60" s="25">
         <v>1922.278</v>
       </c>
-      <c r="K58" s="25">
+      <c r="K60" s="25">
         <v>2610.1819999999998</v>
       </c>
-      <c r="L58" s="25">
+      <c r="L60" s="25">
         <v>3093.9090000000001</v>
       </c>
-      <c r="M58" s="25">
+      <c r="M60" s="25">
         <v>1870.7370000000001</v>
       </c>
-      <c r="N58" s="25">
+      <c r="N60" s="25">
         <v>1267.98</v>
       </c>
-      <c r="O58" s="25"/>
-      <c r="P58" s="25">
+      <c r="O60" s="25"/>
+      <c r="P60" s="25">
         <v>4873.010000000022</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16" hidden="1">
-      <c r="B59" s="10">
-        <v>2020</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="12">
-        <f t="shared" si="3"/>
-        <v>91473.85500000001</v>
-      </c>
-      <c r="E59" s="13">
-        <v>47533.36</v>
-      </c>
-      <c r="F59" s="13">
-        <v>14400.682000000001</v>
-      </c>
-      <c r="G59" s="13">
-        <v>5383.1379999999999</v>
-      </c>
-      <c r="H59" s="13">
-        <v>4958.3670000000002</v>
-      </c>
-      <c r="I59" s="13">
-        <v>4752.6779999999999</v>
-      </c>
-      <c r="J59" s="13">
-        <v>1515.828</v>
-      </c>
-      <c r="K59" s="13">
-        <v>2284.3830000000003</v>
-      </c>
-      <c r="L59" s="13">
-        <v>3066.7379999999998</v>
-      </c>
-      <c r="M59" s="13">
-        <v>1683.905</v>
-      </c>
-      <c r="N59" s="13">
-        <v>1051.925</v>
-      </c>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13">
-        <v>4842.8510000000106</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16" hidden="1">
-      <c r="B60" s="14">
-        <v>2020</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="16">
-        <f t="shared" si="3"/>
-        <v>91662.356999999931</v>
-      </c>
-      <c r="E60" s="17">
-        <v>46625.39</v>
-      </c>
-      <c r="F60" s="17">
-        <v>16134.585999999999</v>
-      </c>
-      <c r="G60" s="17">
-        <v>5479.9110000000001</v>
-      </c>
-      <c r="H60" s="17">
-        <v>4639.0290000000005</v>
-      </c>
-      <c r="I60" s="17">
-        <v>5349.1270000000004</v>
-      </c>
-      <c r="J60" s="17">
-        <v>1260.509</v>
-      </c>
-      <c r="K60" s="17">
-        <v>2199.1950000000002</v>
-      </c>
-      <c r="L60" s="17">
-        <v>3053.64</v>
-      </c>
-      <c r="M60" s="17">
-        <v>1739.095</v>
-      </c>
-      <c r="N60" s="17">
-        <v>943.76300000000003</v>
-      </c>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17">
-        <v>4238.11199999993</v>
       </c>
     </row>
     <row r="61" spans="2:16" hidden="1">
@@ -3647,45 +3677,45 @@
         <v>2020</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D61" s="12">
-        <f t="shared" si="3"/>
-        <v>77051.781000000032</v>
+        <f t="shared" si="4"/>
+        <v>91473.85500000001</v>
       </c>
       <c r="E61" s="13">
-        <v>38240.839999999997</v>
+        <v>47533.36</v>
       </c>
       <c r="F61" s="13">
-        <v>14171.219000000001</v>
+        <v>14400.682000000001</v>
       </c>
       <c r="G61" s="13">
-        <v>4407.3809999999994</v>
+        <v>5383.1379999999999</v>
       </c>
       <c r="H61" s="13">
-        <v>3752.172</v>
+        <v>4958.3670000000002</v>
       </c>
       <c r="I61" s="13">
-        <v>4552.4279999999999</v>
+        <v>4752.6779999999999</v>
       </c>
       <c r="J61" s="13">
-        <v>1079.7190000000001</v>
+        <v>1515.828</v>
       </c>
       <c r="K61" s="13">
-        <v>1834.0129999999999</v>
+        <v>2284.3830000000003</v>
       </c>
       <c r="L61" s="13">
-        <v>2717.5839999999998</v>
+        <v>3066.7379999999998</v>
       </c>
       <c r="M61" s="13">
-        <v>1835.0609999999999</v>
+        <v>1683.905</v>
       </c>
       <c r="N61" s="13">
-        <v>788.73500000000001</v>
+        <v>1051.925</v>
       </c>
       <c r="O61" s="13"/>
       <c r="P61" s="13">
-        <v>3672.629000000029</v>
+        <v>4842.8510000000106</v>
       </c>
     </row>
     <row r="62" spans="2:16" hidden="1">
@@ -3693,45 +3723,45 @@
         <v>2020</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D62" s="16">
-        <f t="shared" si="3"/>
-        <v>73243.596999999965</v>
+        <f t="shared" si="4"/>
+        <v>91662.356999999931</v>
       </c>
       <c r="E62" s="17">
-        <v>37945.979999999996</v>
+        <v>46625.39</v>
       </c>
       <c r="F62" s="17">
-        <v>12325.865999999998</v>
+        <v>16134.585999999999</v>
       </c>
       <c r="G62" s="17">
-        <v>3948.0789999999997</v>
+        <v>5479.9110000000001</v>
       </c>
       <c r="H62" s="17">
-        <v>3392.7820000000002</v>
+        <v>4639.0290000000005</v>
       </c>
       <c r="I62" s="17">
-        <v>4478.6279999999997</v>
+        <v>5349.1270000000004</v>
       </c>
       <c r="J62" s="17">
-        <v>1011.65</v>
+        <v>1260.509</v>
       </c>
       <c r="K62" s="17">
-        <v>1714.8619999999999</v>
+        <v>2199.1950000000002</v>
       </c>
       <c r="L62" s="17">
-        <v>2516.4409999999998</v>
+        <v>3053.64</v>
       </c>
       <c r="M62" s="17">
-        <v>1831.6880000000001</v>
+        <v>1739.095</v>
       </c>
       <c r="N62" s="17">
-        <v>782.10199999999998</v>
+        <v>943.76300000000003</v>
       </c>
       <c r="O62" s="17"/>
       <c r="P62" s="17">
-        <v>3295.5189999999848</v>
+        <v>4238.11199999993</v>
       </c>
     </row>
     <row r="63" spans="2:16" hidden="1">
@@ -3739,45 +3769,45 @@
         <v>2020</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D63" s="12">
-        <f t="shared" si="3"/>
-        <v>70714.571000000011</v>
+        <f t="shared" si="4"/>
+        <v>77051.781000000032</v>
       </c>
       <c r="E63" s="13">
-        <v>34839.78</v>
+        <v>38240.839999999997</v>
       </c>
       <c r="F63" s="13">
-        <v>13321.585999999999</v>
+        <v>14171.219000000001</v>
       </c>
       <c r="G63" s="13">
-        <v>3950.6219999999998</v>
+        <v>4407.3809999999994</v>
       </c>
       <c r="H63" s="13">
-        <v>3725.6490000000003</v>
+        <v>3752.172</v>
       </c>
       <c r="I63" s="13">
-        <v>3987.5020000000004</v>
+        <v>4552.4279999999999</v>
       </c>
       <c r="J63" s="13">
-        <v>936.46399999999994</v>
+        <v>1079.7190000000001</v>
       </c>
       <c r="K63" s="13">
-        <v>1692.3649999999998</v>
+        <v>1834.0129999999999</v>
       </c>
       <c r="L63" s="13">
-        <v>2403.9839999999999</v>
+        <v>2717.5839999999998</v>
       </c>
       <c r="M63" s="13">
-        <v>1775.4699999999998</v>
+        <v>1835.0609999999999</v>
       </c>
       <c r="N63" s="13">
-        <v>840.952</v>
+        <v>788.73500000000001</v>
       </c>
       <c r="O63" s="13"/>
       <c r="P63" s="13">
-        <v>3240.1970000000092</v>
+        <v>3672.629000000029</v>
       </c>
     </row>
     <row r="64" spans="2:16" hidden="1">
@@ -3785,45 +3815,45 @@
         <v>2020</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D64" s="16">
-        <f t="shared" si="3"/>
-        <v>66590.821000000025</v>
+        <f t="shared" si="4"/>
+        <v>73243.596999999965</v>
       </c>
       <c r="E64" s="17">
-        <v>33996.18</v>
+        <v>37945.979999999996</v>
       </c>
       <c r="F64" s="17">
-        <v>13478.243999999999</v>
+        <v>12325.865999999998</v>
       </c>
       <c r="G64" s="17">
-        <v>3545.3679999999999</v>
+        <v>3948.0789999999997</v>
       </c>
       <c r="H64" s="17">
-        <v>3224.4189999999999</v>
+        <v>3392.7820000000002</v>
       </c>
       <c r="I64" s="17">
-        <v>3231.3440000000001</v>
+        <v>4478.6279999999997</v>
       </c>
       <c r="J64" s="17">
-        <v>771.17700000000002</v>
+        <v>1011.65</v>
       </c>
       <c r="K64" s="17">
-        <v>1478.3190000000002</v>
+        <v>1714.8619999999999</v>
       </c>
       <c r="L64" s="17">
-        <v>1821.6129999999998</v>
+        <v>2516.4409999999998</v>
       </c>
       <c r="M64" s="17">
-        <v>1594.6689999999999</v>
+        <v>1831.6880000000001</v>
       </c>
       <c r="N64" s="17">
-        <v>720.39199999999994</v>
+        <v>782.10199999999998</v>
       </c>
       <c r="O64" s="17"/>
       <c r="P64" s="17">
-        <v>2729.0960000000127</v>
+        <v>3295.5189999999848</v>
       </c>
     </row>
     <row r="65" spans="2:16" hidden="1">
@@ -3831,45 +3861,45 @@
         <v>2020</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D65" s="12">
-        <f t="shared" si="3"/>
-        <v>58590.57</v>
+        <f t="shared" si="4"/>
+        <v>70714.571000000011</v>
       </c>
       <c r="E65" s="13">
-        <v>31229.68</v>
+        <v>34839.78</v>
       </c>
       <c r="F65" s="13">
-        <v>11236.094000000001</v>
+        <v>13321.585999999999</v>
       </c>
       <c r="G65" s="13">
-        <v>2744.201</v>
+        <v>3950.6219999999998</v>
       </c>
       <c r="H65" s="13">
-        <v>2746.701</v>
+        <v>3725.6490000000003</v>
       </c>
       <c r="I65" s="13">
-        <v>2540.2469999999998</v>
+        <v>3987.5020000000004</v>
       </c>
       <c r="J65" s="13">
-        <v>612.84699999999998</v>
+        <v>936.46399999999994</v>
       </c>
       <c r="K65" s="13">
-        <v>1623.547</v>
+        <v>1692.3649999999998</v>
       </c>
       <c r="L65" s="13">
-        <v>1605.3789999999999</v>
+        <v>2403.9839999999999</v>
       </c>
       <c r="M65" s="13">
-        <v>1482.9659999999999</v>
+        <v>1775.4699999999998</v>
       </c>
       <c r="N65" s="13">
-        <v>671.48299999999995</v>
+        <v>840.952</v>
       </c>
       <c r="O65" s="13"/>
       <c r="P65" s="13">
-        <v>2097.424999999987</v>
+        <v>3240.1970000000092</v>
       </c>
     </row>
     <row r="66" spans="2:16" hidden="1">
@@ -3877,45 +3907,45 @@
         <v>2020</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D66" s="16">
-        <f t="shared" si="3"/>
-        <v>51124.868999999999</v>
+        <f t="shared" si="4"/>
+        <v>66590.821000000025</v>
       </c>
       <c r="E66" s="17">
-        <v>25419.52</v>
+        <v>33996.18</v>
       </c>
       <c r="F66" s="17">
-        <v>11565.216</v>
+        <v>13478.243999999999</v>
       </c>
       <c r="G66" s="17">
-        <v>2651.4159999999997</v>
+        <v>3545.3679999999999</v>
       </c>
       <c r="H66" s="17">
-        <v>2693.4929999999999</v>
+        <v>3224.4189999999999</v>
       </c>
       <c r="I66" s="17">
-        <v>2126.7669999999998</v>
+        <v>3231.3440000000001</v>
       </c>
       <c r="J66" s="17">
-        <v>551.59</v>
+        <v>771.17700000000002</v>
       </c>
       <c r="K66" s="17">
-        <v>1334.1680000000001</v>
+        <v>1478.3190000000002</v>
       </c>
       <c r="L66" s="17">
-        <v>1156.8400000000001</v>
+        <v>1821.6129999999998</v>
       </c>
       <c r="M66" s="17">
-        <v>1103.2260000000001</v>
+        <v>1594.6689999999999</v>
       </c>
       <c r="N66" s="17">
-        <v>532.67700000000002</v>
+        <v>720.39199999999994</v>
       </c>
       <c r="O66" s="17"/>
       <c r="P66" s="17">
-        <v>1989.9559999999994</v>
+        <v>2729.0960000000127</v>
       </c>
     </row>
     <row r="67" spans="2:16" hidden="1">
@@ -3923,45 +3953,45 @@
         <v>2020</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D67" s="12">
-        <f t="shared" si="3"/>
-        <v>79368.52999999997</v>
+        <f t="shared" si="4"/>
+        <v>58590.57</v>
       </c>
       <c r="E67" s="13">
-        <v>42274.520000000004</v>
+        <v>31229.68</v>
       </c>
       <c r="F67" s="13">
-        <v>14537.343000000001</v>
+        <v>11236.094000000001</v>
       </c>
       <c r="G67" s="13">
-        <v>4065.893</v>
+        <v>2744.201</v>
       </c>
       <c r="H67" s="13">
-        <v>3597.8379999999997</v>
+        <v>2746.701</v>
       </c>
       <c r="I67" s="13">
-        <v>2907.587</v>
+        <v>2540.2469999999998</v>
       </c>
       <c r="J67" s="13">
-        <v>2248.8019999999997</v>
+        <v>612.84699999999998</v>
       </c>
       <c r="K67" s="13">
-        <v>1787.81</v>
+        <v>1623.547</v>
       </c>
       <c r="L67" s="13">
-        <v>2068.8739999999998</v>
+        <v>1605.3789999999999</v>
       </c>
       <c r="M67" s="13">
-        <v>1532.5450000000001</v>
+        <v>1482.9659999999999</v>
       </c>
       <c r="N67" s="13">
-        <v>820.50299999999993</v>
+        <v>671.48299999999995</v>
       </c>
       <c r="O67" s="13"/>
       <c r="P67" s="13">
-        <v>3526.8149999999705</v>
+        <v>2097.424999999987</v>
       </c>
     </row>
     <row r="68" spans="2:16" hidden="1">
@@ -3969,228 +3999,228 @@
         <v>2020</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D68" s="16">
-        <f t="shared" si="3"/>
-        <v>75908.510999999955</v>
+        <f t="shared" si="4"/>
+        <v>51124.868999999999</v>
       </c>
       <c r="E68" s="17">
-        <v>42089.659999999996</v>
+        <v>25419.52</v>
       </c>
       <c r="F68" s="17">
-        <v>11466.815999999999</v>
+        <v>11565.216</v>
       </c>
       <c r="G68" s="17">
-        <v>3486.42</v>
+        <v>2651.4159999999997</v>
       </c>
       <c r="H68" s="17">
-        <v>3309.0249999999996</v>
+        <v>2693.4929999999999</v>
       </c>
       <c r="I68" s="17">
-        <v>2651.6840000000002</v>
+        <v>2126.7669999999998</v>
       </c>
       <c r="J68" s="17">
-        <v>2759.643</v>
+        <v>551.59</v>
       </c>
       <c r="K68" s="17">
-        <v>1653.057</v>
+        <v>1334.1680000000001</v>
       </c>
       <c r="L68" s="17">
-        <v>2319.8409999999999</v>
+        <v>1156.8400000000001</v>
       </c>
       <c r="M68" s="17">
-        <v>1687.9380000000001</v>
+        <v>1103.2260000000001</v>
       </c>
       <c r="N68" s="17">
-        <v>812.35799999999995</v>
+        <v>532.67700000000002</v>
       </c>
       <c r="O68" s="17"/>
       <c r="P68" s="17">
+        <v>1989.9559999999994</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" hidden="1">
+      <c r="B69" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="12">
+        <f t="shared" si="4"/>
+        <v>79368.52999999997</v>
+      </c>
+      <c r="E69" s="13">
+        <v>42274.520000000004</v>
+      </c>
+      <c r="F69" s="13">
+        <v>14537.343000000001</v>
+      </c>
+      <c r="G69" s="13">
+        <v>4065.893</v>
+      </c>
+      <c r="H69" s="13">
+        <v>3597.8379999999997</v>
+      </c>
+      <c r="I69" s="13">
+        <v>2907.587</v>
+      </c>
+      <c r="J69" s="13">
+        <v>2248.8019999999997</v>
+      </c>
+      <c r="K69" s="13">
+        <v>1787.81</v>
+      </c>
+      <c r="L69" s="13">
+        <v>2068.8739999999998</v>
+      </c>
+      <c r="M69" s="13">
+        <v>1532.5450000000001</v>
+      </c>
+      <c r="N69" s="13">
+        <v>820.50299999999993</v>
+      </c>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13">
+        <v>3526.8149999999705</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" hidden="1">
+      <c r="B70" s="14">
+        <v>2020</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" s="16">
+        <f t="shared" si="4"/>
+        <v>75908.510999999955</v>
+      </c>
+      <c r="E70" s="17">
+        <v>42089.659999999996</v>
+      </c>
+      <c r="F70" s="17">
+        <v>11466.815999999999</v>
+      </c>
+      <c r="G70" s="17">
+        <v>3486.42</v>
+      </c>
+      <c r="H70" s="17">
+        <v>3309.0249999999996</v>
+      </c>
+      <c r="I70" s="17">
+        <v>2651.6840000000002</v>
+      </c>
+      <c r="J70" s="17">
+        <v>2759.643</v>
+      </c>
+      <c r="K70" s="17">
+        <v>1653.057</v>
+      </c>
+      <c r="L70" s="17">
+        <v>2319.8409999999999</v>
+      </c>
+      <c r="M70" s="17">
+        <v>1687.9380000000001</v>
+      </c>
+      <c r="N70" s="17">
+        <v>812.35799999999995</v>
+      </c>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17">
         <v>3672.068999999979</v>
       </c>
     </row>
-    <row r="69" spans="2:16" hidden="1">
-      <c r="B69" s="18">
+    <row r="71" spans="2:16" hidden="1">
+      <c r="B71" s="18">
         <v>2020</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C71" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D69" s="20">
-        <f t="shared" si="3"/>
+      <c r="D71" s="20">
+        <f t="shared" si="4"/>
         <v>80828.273000000045</v>
       </c>
-      <c r="E69" s="21">
+      <c r="E71" s="21">
         <v>43200.08</v>
       </c>
-      <c r="F69" s="21">
+      <c r="F71" s="21">
         <v>12981.727999999999</v>
       </c>
-      <c r="G69" s="21">
+      <c r="G71" s="21">
         <v>3924.5250000000001</v>
       </c>
-      <c r="H69" s="21">
+      <c r="H71" s="21">
         <v>3616.1279999999997</v>
       </c>
-      <c r="I69" s="21">
+      <c r="I71" s="21">
         <v>2992.5469999999996</v>
       </c>
-      <c r="J69" s="21">
+      <c r="J71" s="21">
         <v>3044.2960000000003</v>
       </c>
-      <c r="K69" s="21">
+      <c r="K71" s="21">
         <v>1792.2229999999997</v>
       </c>
-      <c r="L69" s="21">
+      <c r="L71" s="21">
         <v>2507.0810000000001</v>
       </c>
-      <c r="M69" s="21">
+      <c r="M71" s="21">
         <v>1937.0650000000001</v>
       </c>
-      <c r="N69" s="21">
+      <c r="N71" s="21">
         <v>862.8069999999999</v>
       </c>
-      <c r="O69" s="21"/>
-      <c r="P69" s="21">
+      <c r="O71" s="21"/>
+      <c r="P71" s="21">
         <v>3969.7930000000383</v>
       </c>
     </row>
-    <row r="70" spans="2:16" hidden="1">
-      <c r="B70" s="22">
+    <row r="72" spans="2:16" hidden="1">
+      <c r="B72" s="22">
         <v>2019</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="C72" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D70" s="24">
-        <f t="shared" si="3"/>
+      <c r="D72" s="24">
+        <f t="shared" si="4"/>
         <v>83400</v>
       </c>
-      <c r="E70" s="25">
+      <c r="E72" s="25">
         <v>48000</v>
       </c>
-      <c r="F70" s="25">
+      <c r="F72" s="25">
         <v>14500</v>
       </c>
-      <c r="G70" s="25">
+      <c r="G72" s="25">
         <v>3700</v>
       </c>
-      <c r="H70" s="25">
+      <c r="H72" s="25">
         <v>2900</v>
       </c>
-      <c r="I70" s="25">
+      <c r="I72" s="25">
         <v>3100</v>
       </c>
-      <c r="J70" s="25">
+      <c r="J72" s="25">
         <v>1900</v>
       </c>
-      <c r="K70" s="25">
+      <c r="K72" s="25">
         <v>3700</v>
       </c>
-      <c r="L70" s="25">
+      <c r="L72" s="25">
         <v>1900</v>
       </c>
-      <c r="M70" s="25">
+      <c r="M72" s="25">
         <v>2600</v>
       </c>
-      <c r="N70" s="25">
+      <c r="N72" s="25">
         <v>1100</v>
       </c>
-      <c r="O70" s="25"/>
-      <c r="P70" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:16" hidden="1">
-      <c r="B71" s="10">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D71" s="12">
-        <f t="shared" si="3"/>
-        <v>83400</v>
-      </c>
-      <c r="E71" s="13">
-        <v>46600</v>
-      </c>
-      <c r="F71" s="13">
-        <v>14700</v>
-      </c>
-      <c r="G71" s="13">
-        <v>4300</v>
-      </c>
-      <c r="H71" s="13">
-        <v>3100</v>
-      </c>
-      <c r="I71" s="13">
-        <v>3100</v>
-      </c>
-      <c r="J71" s="13">
-        <v>2100</v>
-      </c>
-      <c r="K71" s="13">
-        <v>3900</v>
-      </c>
-      <c r="L71" s="13">
-        <v>1800</v>
-      </c>
-      <c r="M71" s="13">
-        <v>2800</v>
-      </c>
-      <c r="N71" s="13">
-        <v>1000</v>
-      </c>
-      <c r="O71" s="13"/>
-      <c r="P71" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:16" hidden="1">
-      <c r="B72" s="14">
-        <v>2019</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D72" s="16">
-        <f t="shared" si="3"/>
-        <v>90200</v>
-      </c>
-      <c r="E72" s="17">
-        <v>52200</v>
-      </c>
-      <c r="F72" s="17">
-        <v>14900</v>
-      </c>
-      <c r="G72" s="17">
-        <v>4600</v>
-      </c>
-      <c r="H72" s="17">
-        <v>3400</v>
-      </c>
-      <c r="I72" s="17">
-        <v>2700</v>
-      </c>
-      <c r="J72" s="17">
-        <v>2200</v>
-      </c>
-      <c r="K72" s="17">
-        <v>4200</v>
-      </c>
-      <c r="L72" s="17">
-        <v>2000</v>
-      </c>
-      <c r="M72" s="17">
-        <v>3000</v>
-      </c>
-      <c r="N72" s="17">
-        <v>1000</v>
-      </c>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17">
+      <c r="O72" s="25"/>
+      <c r="P72" s="25">
         <v>0</v>
       </c>
     </row>
@@ -4199,41 +4229,41 @@
         <v>2019</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D73" s="12">
-        <f t="shared" si="3"/>
-        <v>78300</v>
+        <f t="shared" si="4"/>
+        <v>83400</v>
       </c>
       <c r="E73" s="13">
-        <v>46000</v>
+        <v>46600</v>
       </c>
       <c r="F73" s="13">
-        <v>12400</v>
+        <v>14700</v>
       </c>
       <c r="G73" s="13">
         <v>4300</v>
       </c>
       <c r="H73" s="13">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I73" s="13">
-        <v>2200</v>
+        <v>3100</v>
       </c>
       <c r="J73" s="13">
+        <v>2100</v>
+      </c>
+      <c r="K73" s="13">
+        <v>3900</v>
+      </c>
+      <c r="L73" s="13">
         <v>1800</v>
       </c>
-      <c r="K73" s="13">
-        <v>3600</v>
-      </c>
-      <c r="L73" s="13">
-        <v>1700</v>
-      </c>
       <c r="M73" s="13">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="N73" s="13">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="O73" s="13"/>
       <c r="P73" s="13">
@@ -4245,41 +4275,41 @@
         <v>2019</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D74" s="16">
-        <f t="shared" si="3"/>
-        <v>80500</v>
+        <f t="shared" si="4"/>
+        <v>90200</v>
       </c>
       <c r="E74" s="17">
-        <v>46500</v>
+        <v>52200</v>
       </c>
       <c r="F74" s="17">
-        <v>12500</v>
+        <v>14900</v>
       </c>
       <c r="G74" s="17">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="H74" s="17">
         <v>3400</v>
       </c>
       <c r="I74" s="17">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="J74" s="17">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K74" s="17">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="L74" s="17">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M74" s="17">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="N74" s="17">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="O74" s="17"/>
       <c r="P74" s="17">
@@ -4291,41 +4321,41 @@
         <v>2019</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D75" s="12">
-        <f t="shared" si="3"/>
-        <v>81500</v>
+        <f t="shared" si="4"/>
+        <v>78300</v>
       </c>
       <c r="E75" s="13">
-        <v>46600</v>
+        <v>46000</v>
       </c>
       <c r="F75" s="13">
-        <v>13600</v>
+        <v>12400</v>
       </c>
       <c r="G75" s="13">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="H75" s="13">
         <v>3000</v>
       </c>
       <c r="I75" s="13">
+        <v>2200</v>
+      </c>
+      <c r="J75" s="13">
+        <v>1800</v>
+      </c>
+      <c r="K75" s="13">
+        <v>3600</v>
+      </c>
+      <c r="L75" s="13">
+        <v>1700</v>
+      </c>
+      <c r="M75" s="13">
         <v>2500</v>
       </c>
-      <c r="J75" s="13">
-        <v>2000</v>
-      </c>
-      <c r="K75" s="13">
-        <v>4200</v>
-      </c>
-      <c r="L75" s="13">
-        <v>2000</v>
-      </c>
-      <c r="M75" s="13">
-        <v>2600</v>
-      </c>
       <c r="N75" s="13">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="O75" s="13"/>
       <c r="P75" s="13">
@@ -4337,41 +4367,41 @@
         <v>2019</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D76" s="16">
-        <f t="shared" si="3"/>
-        <v>78600</v>
+        <f t="shared" si="4"/>
+        <v>80500</v>
       </c>
       <c r="E76" s="17">
-        <v>44200</v>
+        <v>46500</v>
       </c>
       <c r="F76" s="17">
-        <v>13300</v>
+        <v>12500</v>
       </c>
       <c r="G76" s="17">
         <v>4300</v>
       </c>
       <c r="H76" s="17">
-        <v>2900</v>
+        <v>3400</v>
       </c>
       <c r="I76" s="17">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="J76" s="17">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K76" s="17">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="L76" s="17">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M76" s="17">
         <v>2400</v>
       </c>
       <c r="N76" s="17">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="O76" s="17"/>
       <c r="P76" s="17">
@@ -4383,35 +4413,35 @@
         <v>2019</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D77" s="12">
-        <f t="shared" si="3"/>
-        <v>81100</v>
+        <f t="shared" si="4"/>
+        <v>81500</v>
       </c>
       <c r="E77" s="13">
-        <v>45800</v>
+        <v>46600</v>
       </c>
       <c r="F77" s="13">
-        <v>13000</v>
+        <v>13600</v>
       </c>
       <c r="G77" s="13">
-        <v>4600</v>
+        <v>4100</v>
       </c>
       <c r="H77" s="13">
         <v>3000</v>
       </c>
       <c r="I77" s="13">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="J77" s="13">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K77" s="13">
-        <v>4600</v>
+        <v>4200</v>
       </c>
       <c r="L77" s="13">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M77" s="13">
         <v>2600</v>
@@ -4429,38 +4459,38 @@
         <v>2019</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D78" s="16">
-        <f t="shared" si="3"/>
-        <v>79300</v>
+        <f t="shared" si="4"/>
+        <v>78600</v>
       </c>
       <c r="E78" s="17">
-        <v>45200</v>
+        <v>44200</v>
       </c>
       <c r="F78" s="17">
-        <v>12800</v>
+        <v>13300</v>
       </c>
       <c r="G78" s="17">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="H78" s="17">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="I78" s="17">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="J78" s="17">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K78" s="17">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="L78" s="17">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M78" s="17">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="N78" s="17">
         <v>800</v>
@@ -4475,38 +4505,38 @@
         <v>2019</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D79" s="12">
-        <f t="shared" si="3"/>
-        <v>86500</v>
+        <f t="shared" si="4"/>
+        <v>81100</v>
       </c>
       <c r="E79" s="13">
-        <v>49900</v>
+        <v>45800</v>
       </c>
       <c r="F79" s="13">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="G79" s="13">
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="H79" s="13">
         <v>3000</v>
       </c>
       <c r="I79" s="13">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="J79" s="13">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K79" s="13">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="L79" s="13">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="M79" s="13">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="N79" s="13">
         <v>900</v>
@@ -4521,41 +4551,41 @@
         <v>2019</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D80" s="16">
-        <f t="shared" si="3"/>
-        <v>73300</v>
+        <f t="shared" si="4"/>
+        <v>79300</v>
       </c>
       <c r="E80" s="17">
-        <v>41800</v>
+        <v>45200</v>
       </c>
       <c r="F80" s="17">
-        <v>11500</v>
+        <v>12800</v>
       </c>
       <c r="G80" s="17">
-        <v>4200</v>
+        <v>4600</v>
       </c>
       <c r="H80" s="17">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="I80" s="17">
         <v>2600</v>
       </c>
       <c r="J80" s="17">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="K80" s="17">
-        <v>4100</v>
+        <v>4400</v>
       </c>
       <c r="L80" s="17">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M80" s="17">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="N80" s="17">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O80" s="17"/>
       <c r="P80" s="17">
@@ -4563,91 +4593,91 @@
       </c>
     </row>
     <row r="81" spans="2:16" hidden="1">
-      <c r="B81" s="18">
+      <c r="B81" s="10">
         <v>2019</v>
       </c>
-      <c r="C81" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D81" s="20">
-        <f t="shared" ref="D81:D93" si="4">SUM(E81:P81)</f>
-        <v>79200</v>
-      </c>
-      <c r="E81" s="21">
-        <v>43500</v>
-      </c>
-      <c r="F81" s="21">
-        <v>13500</v>
-      </c>
-      <c r="G81" s="21">
-        <v>4800</v>
-      </c>
-      <c r="H81" s="21">
-        <v>2900</v>
-      </c>
-      <c r="I81" s="21">
-        <v>2600</v>
-      </c>
-      <c r="J81" s="21">
-        <v>1900</v>
-      </c>
-      <c r="K81" s="21">
-        <v>4500</v>
-      </c>
-      <c r="L81" s="21">
-        <v>2100</v>
-      </c>
-      <c r="M81" s="21">
+      <c r="C81" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="12">
+        <f t="shared" si="4"/>
+        <v>86500</v>
+      </c>
+      <c r="E81" s="13">
+        <v>49900</v>
+      </c>
+      <c r="F81" s="13">
+        <v>14500</v>
+      </c>
+      <c r="G81" s="13">
+        <v>4300</v>
+      </c>
+      <c r="H81" s="13">
+        <v>3000</v>
+      </c>
+      <c r="I81" s="13">
+        <v>2700</v>
+      </c>
+      <c r="J81" s="13">
+        <v>2000</v>
+      </c>
+      <c r="K81" s="13">
+        <v>5000</v>
+      </c>
+      <c r="L81" s="13">
+        <v>1700</v>
+      </c>
+      <c r="M81" s="13">
         <v>2500</v>
       </c>
-      <c r="N81" s="21">
+      <c r="N81" s="13">
         <v>900</v>
       </c>
-      <c r="O81" s="21"/>
-      <c r="P81" s="21">
+      <c r="O81" s="13"/>
+      <c r="P81" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:16" hidden="1">
-      <c r="B82" s="15">
-        <v>2018</v>
+      <c r="B82" s="14">
+        <v>2019</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D82" s="16">
         <f t="shared" si="4"/>
-        <v>85600</v>
+        <v>73300</v>
       </c>
       <c r="E82" s="17">
-        <v>48800</v>
+        <v>41800</v>
       </c>
       <c r="F82" s="17">
-        <v>14700</v>
+        <v>11500</v>
       </c>
       <c r="G82" s="17">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="H82" s="17">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="I82" s="17">
-        <v>3300</v>
+        <v>2600</v>
       </c>
       <c r="J82" s="17">
         <v>1900</v>
       </c>
       <c r="K82" s="17">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="L82" s="17">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="M82" s="17">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="N82" s="17">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="O82" s="17"/>
       <c r="P82" s="17">
@@ -4655,48 +4685,48 @@
       </c>
     </row>
     <row r="83" spans="2:16" hidden="1">
-      <c r="B83" s="11">
-        <v>2018</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D83" s="12">
-        <f t="shared" si="4"/>
-        <v>91600</v>
-      </c>
-      <c r="E83" s="13">
-        <v>52500</v>
-      </c>
-      <c r="F83" s="13">
-        <v>14700</v>
-      </c>
-      <c r="G83" s="13">
-        <v>5200</v>
-      </c>
-      <c r="H83" s="13">
-        <v>3400</v>
-      </c>
-      <c r="I83" s="13">
-        <v>3300</v>
-      </c>
-      <c r="J83" s="13">
-        <v>2300</v>
-      </c>
-      <c r="K83" s="13">
-        <v>4700</v>
-      </c>
-      <c r="L83" s="13">
-        <v>1800</v>
-      </c>
-      <c r="M83" s="13">
-        <v>2800</v>
-      </c>
-      <c r="N83" s="13">
+      <c r="B83" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" s="20">
+        <f t="shared" ref="D83:D95" si="5">SUM(E83:P83)</f>
+        <v>79200</v>
+      </c>
+      <c r="E83" s="21">
+        <v>43500</v>
+      </c>
+      <c r="F83" s="21">
+        <v>13500</v>
+      </c>
+      <c r="G83" s="21">
+        <v>4800</v>
+      </c>
+      <c r="H83" s="21">
+        <v>2900</v>
+      </c>
+      <c r="I83" s="21">
+        <v>2600</v>
+      </c>
+      <c r="J83" s="21">
+        <v>1900</v>
+      </c>
+      <c r="K83" s="21">
+        <v>4500</v>
+      </c>
+      <c r="L83" s="21">
+        <v>2100</v>
+      </c>
+      <c r="M83" s="21">
+        <v>2500</v>
+      </c>
+      <c r="N83" s="21">
         <v>900</v>
       </c>
-      <c r="O83" s="13"/>
-      <c r="P83" s="13">
+      <c r="O83" s="21"/>
+      <c r="P83" s="21">
         <v>0</v>
       </c>
     </row>
@@ -4705,38 +4735,38 @@
         <v>2018</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D84" s="16">
-        <f t="shared" si="4"/>
-        <v>94100</v>
+        <f t="shared" si="5"/>
+        <v>85600</v>
       </c>
       <c r="E84" s="17">
-        <v>53200</v>
+        <v>48800</v>
       </c>
       <c r="F84" s="17">
-        <v>15500</v>
+        <v>14700</v>
       </c>
       <c r="G84" s="17">
-        <v>5800</v>
+        <v>4500</v>
       </c>
       <c r="H84" s="17">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="I84" s="17">
-        <v>2800</v>
+        <v>3300</v>
       </c>
       <c r="J84" s="17">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="K84" s="17">
-        <v>5600</v>
+        <v>4000</v>
       </c>
       <c r="L84" s="17">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="M84" s="17">
-        <v>2900</v>
+        <v>2600</v>
       </c>
       <c r="N84" s="17">
         <v>900</v>
@@ -4751,41 +4781,41 @@
         <v>2018</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D85" s="12">
-        <f t="shared" si="4"/>
-        <v>81400</v>
+        <f t="shared" si="5"/>
+        <v>91600</v>
       </c>
       <c r="E85" s="13">
-        <v>46600</v>
+        <v>52500</v>
       </c>
       <c r="F85" s="13">
-        <v>13200</v>
+        <v>14700</v>
       </c>
       <c r="G85" s="13">
-        <v>4800</v>
+        <v>5200</v>
       </c>
       <c r="H85" s="13">
-        <v>2900</v>
+        <v>3400</v>
       </c>
       <c r="I85" s="13">
+        <v>3300</v>
+      </c>
+      <c r="J85" s="13">
         <v>2300</v>
       </c>
-      <c r="J85" s="13">
-        <v>1900</v>
-      </c>
       <c r="K85" s="13">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="L85" s="13">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="M85" s="13">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="N85" s="13">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="O85" s="13"/>
       <c r="P85" s="13">
@@ -4797,41 +4827,41 @@
         <v>2018</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D86" s="16">
-        <f t="shared" si="4"/>
-        <v>84400</v>
+        <f t="shared" si="5"/>
+        <v>94100</v>
       </c>
       <c r="E86" s="17">
-        <v>48300</v>
+        <v>53200</v>
       </c>
       <c r="F86" s="17">
-        <v>12600</v>
+        <v>15500</v>
       </c>
       <c r="G86" s="17">
-        <v>5100</v>
+        <v>5800</v>
       </c>
       <c r="H86" s="17">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="I86" s="17">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="J86" s="17">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="K86" s="17">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="L86" s="17">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M86" s="17">
-        <v>2300</v>
+        <v>2900</v>
       </c>
       <c r="N86" s="17">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="O86" s="17"/>
       <c r="P86" s="17">
@@ -4843,38 +4873,38 @@
         <v>2018</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D87" s="12">
-        <f t="shared" si="4"/>
-        <v>82200</v>
+        <f t="shared" si="5"/>
+        <v>81400</v>
       </c>
       <c r="E87" s="13">
-        <v>49400</v>
+        <v>46600</v>
       </c>
       <c r="F87" s="13">
-        <v>12400</v>
+        <v>13200</v>
       </c>
       <c r="G87" s="13">
-        <v>4200</v>
+        <v>4800</v>
       </c>
       <c r="H87" s="13">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="I87" s="13">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="J87" s="13">
         <v>1900</v>
       </c>
       <c r="K87" s="13">
-        <v>4100</v>
+        <v>5000</v>
       </c>
       <c r="L87" s="13">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="M87" s="13">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="N87" s="13">
         <v>800</v>
@@ -4889,41 +4919,41 @@
         <v>2018</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D88" s="16">
-        <f t="shared" si="4"/>
-        <v>86500</v>
+        <f t="shared" si="5"/>
+        <v>84400</v>
       </c>
       <c r="E88" s="17">
-        <v>51000</v>
+        <v>48300</v>
       </c>
       <c r="F88" s="17">
-        <v>13400</v>
+        <v>12600</v>
       </c>
       <c r="G88" s="17">
-        <v>4500</v>
+        <v>5100</v>
       </c>
       <c r="H88" s="17">
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="I88" s="17">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="J88" s="17">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K88" s="17">
-        <v>5100</v>
+        <v>5700</v>
       </c>
       <c r="L88" s="17">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M88" s="17">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="N88" s="17">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="O88" s="17"/>
       <c r="P88" s="17">
@@ -4935,41 +4965,41 @@
         <v>2018</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D89" s="12">
-        <f t="shared" si="4"/>
-        <v>86200</v>
+        <f t="shared" si="5"/>
+        <v>82200</v>
       </c>
       <c r="E89" s="13">
-        <v>49700</v>
+        <v>49400</v>
       </c>
       <c r="F89" s="13">
-        <v>13600</v>
+        <v>12400</v>
       </c>
       <c r="G89" s="13">
-        <v>5000</v>
+        <v>4200</v>
       </c>
       <c r="H89" s="13">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="I89" s="13">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="J89" s="13">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="K89" s="13">
-        <v>4700</v>
+        <v>4100</v>
       </c>
       <c r="L89" s="13">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="M89" s="13">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="N89" s="13">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="O89" s="13"/>
       <c r="P89" s="13">
@@ -4981,38 +5011,38 @@
         <v>2018</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D90" s="16">
-        <f t="shared" si="4"/>
-        <v>84500</v>
+        <f t="shared" si="5"/>
+        <v>86500</v>
       </c>
       <c r="E90" s="17">
-        <v>49400</v>
+        <v>51000</v>
       </c>
       <c r="F90" s="17">
-        <v>13900</v>
+        <v>13400</v>
       </c>
       <c r="G90" s="17">
         <v>4500</v>
       </c>
       <c r="H90" s="17">
-        <v>2800</v>
+        <v>3100</v>
       </c>
       <c r="I90" s="17">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="J90" s="17">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K90" s="17">
-        <v>4600</v>
+        <v>5100</v>
       </c>
       <c r="L90" s="17">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="M90" s="17">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="N90" s="17">
         <v>900</v>
@@ -5027,41 +5057,41 @@
         <v>2018</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D91" s="12">
-        <f t="shared" si="4"/>
-        <v>81600</v>
+        <f t="shared" si="5"/>
+        <v>86200</v>
       </c>
       <c r="E91" s="13">
-        <v>46000</v>
+        <v>49700</v>
       </c>
       <c r="F91" s="13">
-        <v>16000</v>
+        <v>13600</v>
       </c>
       <c r="G91" s="13">
-        <v>4400</v>
+        <v>5000</v>
       </c>
       <c r="H91" s="13">
-        <v>2900</v>
+        <v>3200</v>
       </c>
       <c r="I91" s="13">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="J91" s="13">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="K91" s="13">
-        <v>3500</v>
+        <v>4700</v>
       </c>
       <c r="L91" s="13">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="M91" s="13">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="N91" s="13">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="O91" s="13"/>
       <c r="P91" s="13">
@@ -5073,41 +5103,41 @@
         <v>2018</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D92" s="16">
-        <f t="shared" si="4"/>
-        <v>74900</v>
+        <f t="shared" si="5"/>
+        <v>84500</v>
       </c>
       <c r="E92" s="17">
-        <v>44100</v>
+        <v>49400</v>
       </c>
       <c r="F92" s="17">
-        <v>12100</v>
+        <v>13900</v>
       </c>
       <c r="G92" s="17">
-        <v>4100</v>
+        <v>4500</v>
       </c>
       <c r="H92" s="17">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="I92" s="17">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J92" s="17">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="K92" s="17">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="L92" s="17">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="M92" s="17">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="N92" s="17">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="O92" s="17"/>
       <c r="P92" s="17">
@@ -5119,38 +5149,38 @@
         <v>2018</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D93" s="12">
-        <f t="shared" si="4"/>
-        <v>74300</v>
+        <f t="shared" si="5"/>
+        <v>81600</v>
       </c>
       <c r="E93" s="13">
-        <v>42800</v>
+        <v>46000</v>
       </c>
       <c r="F93" s="13">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="G93" s="13">
-        <v>4100</v>
+        <v>4400</v>
       </c>
       <c r="H93" s="13">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="I93" s="13">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="J93" s="13">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="K93" s="13">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="L93" s="13">
+        <v>1400</v>
+      </c>
+      <c r="M93" s="13">
         <v>2000</v>
-      </c>
-      <c r="M93" s="13">
-        <v>1900</v>
       </c>
       <c r="N93" s="13">
         <v>800</v>
@@ -5160,57 +5190,123 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:16">
-      <c r="B94" s="26" t="s">
+    <row r="94" spans="2:16" hidden="1">
+      <c r="B94" s="15">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" s="16">
+        <f t="shared" si="5"/>
+        <v>74900</v>
+      </c>
+      <c r="E94" s="17">
+        <v>44100</v>
+      </c>
+      <c r="F94" s="17">
+        <v>12100</v>
+      </c>
+      <c r="G94" s="17">
+        <v>4100</v>
+      </c>
+      <c r="H94" s="17">
+        <v>2700</v>
+      </c>
+      <c r="I94" s="17">
+        <v>2700</v>
+      </c>
+      <c r="J94" s="17">
+        <v>2100</v>
+      </c>
+      <c r="K94" s="17">
+        <v>3000</v>
+      </c>
+      <c r="L94" s="17">
+        <v>1500</v>
+      </c>
+      <c r="M94" s="17">
+        <v>1900</v>
+      </c>
+      <c r="N94" s="17">
+        <v>700</v>
+      </c>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" hidden="1">
+      <c r="B95" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" s="12">
+        <f t="shared" si="5"/>
+        <v>74300</v>
+      </c>
+      <c r="E95" s="13">
+        <v>42800</v>
+      </c>
+      <c r="F95" s="13">
+        <v>12000</v>
+      </c>
+      <c r="G95" s="13">
+        <v>4100</v>
+      </c>
+      <c r="H95" s="13">
+        <v>2500</v>
+      </c>
+      <c r="I95" s="13">
+        <v>2600</v>
+      </c>
+      <c r="J95" s="13">
+        <v>2300</v>
+      </c>
+      <c r="K95" s="13">
+        <v>3300</v>
+      </c>
+      <c r="L95" s="13">
+        <v>2000</v>
+      </c>
+      <c r="M95" s="13">
+        <v>1900</v>
+      </c>
+      <c r="N95" s="13">
+        <v>800</v>
+      </c>
+      <c r="O95" s="13"/>
+      <c r="P95" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16">
+      <c r="B96" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C94" s="26"/>
-    </row>
-    <row r="95" spans="2:16">
-      <c r="B95" s="26" t="s">
+      <c r="C96" s="26"/>
+    </row>
+    <row r="97" spans="2:16">
+      <c r="B97" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C95" s="27"/>
-      <c r="P95" s="28"/>
-    </row>
-    <row r="96" spans="2:16">
-      <c r="B96" s="27" t="s">
+      <c r="C97" s="27"/>
+      <c r="P97" s="28"/>
+    </row>
+    <row r="98" spans="2:16">
+      <c r="B98" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="2:4">
-      <c r="B97" s="3" t="s">
+    <row r="99" spans="2:16">
+      <c r="B99" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="2:4">
-      <c r="D103" s="26"/>
-    </row>
-    <row r="113" spans="6:16">
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
-      <c r="P113" s="2"/>
-    </row>
-    <row r="114" spans="6:16">
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
-      <c r="P114" s="2"/>
+    <row r="105" spans="2:16">
+      <c r="D105" s="26"/>
     </row>
     <row r="115" spans="6:16">
       <c r="F115" s="2"/>
@@ -5342,6 +5438,32 @@
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
     </row>
+    <row r="125" spans="6:16">
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" s="2"/>
+    </row>
+    <row r="126" spans="6:16">
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E4:P4"/>

--- a/P_aeropuertos_carga.xlsx
+++ b/P_aeropuertos_carga.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC32FB0-A2DF-4766-ABDC-71542CB8A444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2F0440-3A57-44F4-883D-C4DF75BD2D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_37" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="34">
   <si>
     <t>Total</t>
   </si>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">  El aeropuerto Felipe Ángeles, Inició operaciones el 21 de marzo de 2022.</t>
   </si>
   <si>
-    <t>Actualización: Junio 2025.</t>
+    <t>Actualización: Julio 2025.</t>
   </si>
 </sst>
 </file>
@@ -697,8 +697,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:P95" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
-  <autoFilter ref="B5:P95" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:P96" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
+  <autoFilter ref="B5:P96" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -952,9 +952,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:P126"/>
+  <dimension ref="B2:AP127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -978,21 +978,21 @@
     <col min="17" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="18">
+    <row r="2" spans="2:42" ht="18">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:16">
+    <row r="3" spans="2:42">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:42">
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -1011,7 +1011,7 @@
       <c r="O4" s="30"/>
       <c r="P4" s="30"/>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:42">
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1058,4268 +1058,5215 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
-      <c r="B6" s="14">
+    <row r="6" spans="2:42">
+      <c r="B6" s="10">
         <v>2025</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="12">
+        <f>SUM(E6:P6)</f>
+        <v>108097.11907000002</v>
+      </c>
+      <c r="E6" s="13">
+        <v>21252.21</v>
+      </c>
+      <c r="F6" s="13">
+        <v>16828.947999999997</v>
+      </c>
+      <c r="G6" s="13">
+        <v>6535.1680000000006</v>
+      </c>
+      <c r="H6" s="13">
+        <v>7322.0330000000004</v>
+      </c>
+      <c r="I6" s="13">
+        <v>2763.8230000000003</v>
+      </c>
+      <c r="J6" s="13">
+        <v>2816.596</v>
+      </c>
+      <c r="K6" s="13">
+        <v>2437.1929999999998</v>
+      </c>
+      <c r="L6" s="13">
+        <v>3405.0040000000004</v>
+      </c>
+      <c r="M6" s="13">
+        <v>2215.2529999999997</v>
+      </c>
+      <c r="N6" s="13">
+        <v>1384.9839999999999</v>
+      </c>
+      <c r="O6" s="13">
+        <v>35649.921000000002</v>
+      </c>
+      <c r="P6" s="13">
+        <v>5485.9860700000172</v>
+      </c>
+      <c r="AE6" s="3">
+        <f>R6*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="3">
+        <f t="shared" ref="AF6:AN6" si="0">S6*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO6" s="3">
+        <f>AB6*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AP6" s="3">
+        <f>AC6*1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:42">
+      <c r="B7" s="14">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="16">
-        <f>SUM(E6:P6)</f>
-        <v>107138.81800000001</v>
-      </c>
-      <c r="E6" s="17">
+      <c r="D7" s="16">
+        <f>SUM(E7:P7)</f>
+        <v>107138.81816000002</v>
+      </c>
+      <c r="E7" s="17">
         <v>20433.3</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F7" s="17">
         <v>16625.118000000002</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G7" s="17">
         <v>6596.4850000000006</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H7" s="17">
         <v>6812.4170000000004</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I7" s="17">
         <v>2357.59</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J7" s="17">
         <v>2522.7240000000002</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K7" s="17">
         <v>2703.8649999999998</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L7" s="17">
         <v>3099.7750000000001</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M7" s="17">
         <v>2005.2020000000002</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N7" s="17">
         <v>1281.922</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O7" s="17">
         <v>37708.072</v>
       </c>
-      <c r="P6" s="17">
-        <v>4992.3480000000072</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16">
-      <c r="B7" s="10">
+      <c r="P7" s="17">
+        <v>4992.3481600000205</v>
+      </c>
+      <c r="AE7" s="3">
+        <f t="shared" ref="AE7:AE24" si="1">R7*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="3">
+        <f t="shared" ref="AF7:AF24" si="2">S7*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="3">
+        <f t="shared" ref="AG7:AG24" si="3">T7*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="3">
+        <f t="shared" ref="AH7:AH24" si="4">U7*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="3">
+        <f t="shared" ref="AI7:AI24" si="5">V7*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="3">
+        <f t="shared" ref="AJ7:AJ24" si="6">W7*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK7" s="3">
+        <f t="shared" ref="AK7:AK24" si="7">X7*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="3">
+        <f t="shared" ref="AL7:AL24" si="8">Y7*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AM7" s="3">
+        <f t="shared" ref="AM7:AM24" si="9">Z7*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AN7" s="3">
+        <f t="shared" ref="AN7:AN24" si="10">AA7*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="3">
+        <f t="shared" ref="AO7:AO24" si="11">AB7*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="3">
+        <f t="shared" ref="AP7:AP24" si="12">AC7*1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:42">
+      <c r="B8" s="10">
         <v>2025</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="12">
-        <f>SUM(E7:P7)</f>
+      <c r="D8" s="12">
+        <f>SUM(E8:P8)</f>
         <v>102570.24307</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E8" s="13">
         <v>20291.14</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F8" s="13">
         <v>14833.268</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G8" s="13">
         <v>6631.2019999999993</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H8" s="13">
         <v>6835.67</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I8" s="13">
         <v>2432.4679999999998</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J8" s="13">
         <v>2759.1390000000001</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K8" s="13">
         <v>2410.489</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L8" s="13">
         <v>3221.7449999999999</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M8" s="13">
         <v>2006.0029999999997</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N8" s="13">
         <v>1384.4360000000001</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O8" s="13">
         <v>34190.595999999998</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P8" s="13">
         <v>5574.0870700000041</v>
       </c>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="14">
+      <c r="AE8" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL8" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM8" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN8" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO8" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP8" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:42">
+      <c r="B9" s="14">
         <v>2025</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="16">
-        <f t="shared" ref="D8:D13" si="0">SUM(E8:P8)</f>
+      <c r="D9" s="16">
+        <f t="shared" ref="D9:D14" si="13">SUM(E9:P9)</f>
         <v>96473.226409999974</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E9" s="17">
         <v>19824.5</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F9" s="17">
         <v>14014.14</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G9" s="17">
         <v>6218.076</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H9" s="17">
         <v>6345.7909999999993</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I9" s="17">
         <v>2665.0520000000001</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J9" s="17">
         <v>3097.6140000000005</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K9" s="17">
         <v>2098.7640000000001</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L9" s="17">
         <v>3027.6949999999997</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M9" s="17">
         <v>1980.6879999999999</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N9" s="17">
         <v>1276.962</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O9" s="17">
         <v>30785.671000000002</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P9" s="17">
         <v>5138.273409999968</v>
       </c>
-    </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="10">
+      <c r="AE9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN9" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP9" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:42">
+      <c r="B10" s="10">
         <v>2025</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="12">
-        <f t="shared" si="0"/>
+      <c r="D10" s="12">
+        <f t="shared" si="13"/>
         <v>104081.79550000002</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E10" s="13">
         <v>22582</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F10" s="13">
         <v>14543.918000000001</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G10" s="13">
         <v>6624.4359999999997</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H10" s="13">
         <v>7070.3890000000001</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I10" s="13">
         <v>2837.4380000000001</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J10" s="13">
         <v>4035.1100000000006</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K10" s="13">
         <v>1969.5269999999998</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L10" s="13">
         <v>2985.9570000000003</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M10" s="13">
         <v>1984.1370000000002</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N10" s="13">
         <v>1609.2139999999999</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O10" s="13">
         <v>33154.97</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P10" s="13">
         <v>4684.6995000000006</v>
       </c>
-    </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="14">
+      <c r="AE10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM10" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN10" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP10" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:42">
+      <c r="B11" s="14">
         <v>2025</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="16">
-        <f t="shared" si="0"/>
+      <c r="D11" s="16">
+        <f t="shared" si="13"/>
         <v>86641.77502000003</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E11" s="17">
         <v>19575.670000000002</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F11" s="17">
         <v>11798.751</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G11" s="17">
         <v>5379.473</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H11" s="17">
         <v>4961.049</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I11" s="17">
         <v>2432.8789999999999</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J11" s="17">
         <v>3241.0389999999998</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K11" s="17">
         <v>1841.1139999999998</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L11" s="17">
         <v>2859.4220000000005</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M11" s="17">
         <v>1847.1349999999998</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N11" s="17">
         <v>1648.6580000000001</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O11" s="17">
         <v>26628.777010000002</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P11" s="17">
         <v>4427.8080100000279</v>
       </c>
-    </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="18">
+      <c r="AE11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP11" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:42">
+      <c r="B12" s="18">
         <v>2025</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C12" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="20">
-        <f t="shared" si="0"/>
+      <c r="D12" s="20">
+        <f t="shared" si="13"/>
         <v>91555.306729999982</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E12" s="21">
         <v>19159.400000000001</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F12" s="21">
         <v>13714.98</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G12" s="21">
         <v>5611.4270000000006</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H12" s="21">
         <v>6455.491</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I12" s="21">
         <v>2783.7079999999996</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J12" s="21">
         <v>2789.2219999999998</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K12" s="21">
         <v>2082.837</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L12" s="21">
         <v>2958.125</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M12" s="21">
         <v>2088.444</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N12" s="21">
         <v>1595.182</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O12" s="21">
         <v>27764.467000000001</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P12" s="21">
         <v>4552.0237299999771</v>
       </c>
-    </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="14">
+      <c r="AE12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP12" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:42">
+      <c r="B13" s="14">
         <v>2024</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="16">
-        <f t="shared" si="0"/>
+      <c r="D13" s="16">
+        <f t="shared" si="13"/>
         <v>103547.94350000002</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E13" s="17">
         <v>22084.1</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F13" s="17">
         <v>13788.543999999998</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G13" s="17">
         <v>6101.1239999999998</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H13" s="17">
         <v>6605.4089999999997</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I13" s="17">
         <v>2916.9539999999997</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J13" s="17">
         <v>3692.6709999999998</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K13" s="17">
         <v>2180.1759999999999</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L13" s="17">
         <v>3298.9829999999997</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M13" s="17">
         <v>2405.654</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N13" s="17">
         <v>1379.29</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O13" s="17">
         <v>34117.491999999998</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P13" s="17">
         <v>4977.5465000000313</v>
       </c>
-    </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="10">
+      <c r="AE13" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP13" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:42">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="12">
-        <f t="shared" si="0"/>
+      <c r="D14" s="12">
+        <f t="shared" si="13"/>
         <v>108489.79521000001</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E14" s="13">
         <v>20513.3</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F14" s="13">
         <v>14292.029000000002</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G14" s="13">
         <v>6952.0010000000002</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H14" s="13">
         <v>7027.32</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I14" s="13">
         <v>3190.241</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J14" s="13">
         <v>3783.056</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K14" s="13">
         <v>2546.4230000000002</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L14" s="13">
         <v>3625.6490000000003</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M14" s="13">
         <v>2301.3359999999998</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N14" s="13">
         <v>1566.8050000000001</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O14" s="13">
         <v>37606.786999999997</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P14" s="13">
         <v>5084.8482100000183</v>
       </c>
-    </row>
-    <row r="14" spans="2:16">
-      <c r="B14" s="14">
+      <c r="AE14" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN14" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO14" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP14" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:42">
+      <c r="B15" s="14">
         <v>2024</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="16">
-        <f t="shared" ref="D14" si="1">SUM(E14:P14)</f>
+      <c r="D15" s="16">
+        <f t="shared" ref="D15" si="14">SUM(E15:P15)</f>
         <v>112101.83326999999</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E15" s="17">
         <v>21954.2</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F15" s="17">
         <v>15035.019</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G15" s="17">
         <v>7434.2699999999995</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H15" s="17">
         <v>7376.1170000000002</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I15" s="17">
         <v>3603.3429999999998</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J15" s="17">
         <v>2668.8590000000004</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K15" s="17">
         <v>2486.047</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L15" s="17">
         <v>3482.5789999999997</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M15" s="17">
         <v>2059.6219999999998</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N15" s="17">
         <v>1836.462</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O15" s="17">
         <v>38827.07</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P15" s="17">
         <v>5338.2452699999949</v>
       </c>
-    </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="10">
+      <c r="AE15" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP15" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:42">
+      <c r="B16" s="10">
         <v>2024</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="12">
-        <f>SUM(E15:P15)</f>
+      <c r="D16" s="12">
+        <f>SUM(E16:P16)</f>
         <v>102256.34403999997</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E16" s="13">
         <v>19983</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>15121.885</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G16" s="13">
         <v>6653.17</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H16" s="13">
         <v>6096.0540000000001</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I16" s="13">
         <v>3038.8139999999999</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J16" s="13">
         <v>2226.7169999999996</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K16" s="13">
         <v>2083.5909999999999</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L16" s="13">
         <v>2940.2349999999997</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M16" s="13">
         <v>2121.4749999999999</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N16" s="13">
         <v>1691.9869999999999</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O16" s="13">
         <v>35995.97</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P16" s="13">
         <v>4303.4460399999825</v>
       </c>
-    </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="14">
+      <c r="AE16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM16" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN16" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO16" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP16" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:42">
+      <c r="B17" s="14">
         <v>2024</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="16">
-        <f>SUM(E16:P16)</f>
+      <c r="D17" s="16">
+        <f>SUM(E17:P17)</f>
         <v>108823.69917000002</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E17" s="17">
         <v>20229.3</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F17" s="17">
         <v>15421.421999999999</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G17" s="17">
         <v>6900.85</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H17" s="17">
         <v>6494.0969999999998</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I17" s="17">
         <v>3427.1890000000003</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J17" s="17">
         <v>2725.0420000000004</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K17" s="17">
         <v>2321.3049999999998</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L17" s="17">
         <v>3155.9950000000003</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M17" s="17">
         <v>2335.154</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N17" s="17">
         <v>1623.2050000000002</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O17" s="17">
         <v>39174.343999999997</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P17" s="17">
         <v>5015.7961700000369</v>
       </c>
-    </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="10">
+      <c r="AE17" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM17" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP17" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:42">
+      <c r="B18" s="10">
         <v>2024</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="12">
-        <f t="shared" ref="D17:D19" si="2">SUM(E17:P17)</f>
+      <c r="D18" s="12">
+        <f t="shared" ref="D18:D20" si="15">SUM(E18:P18)</f>
         <v>107882.74128000005</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E18" s="13">
         <v>19500.699999999997</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F18" s="13">
         <v>15606.789000000001</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G18" s="13">
         <v>7406.7370000000001</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H18" s="13">
         <v>6133.4809999999998</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I18" s="13">
         <v>3408.8180000000002</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J18" s="13">
         <v>2590.2110000000002</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K18" s="13">
         <v>2370.0729999999999</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L18" s="13">
         <v>3036.741</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M18" s="13">
         <v>2203.3470000000002</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N18" s="13">
         <v>1958.9659999999999</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O18" s="13">
         <v>38531.585999999996</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P18" s="13">
         <v>5135.2922800000515</v>
       </c>
-    </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="14">
+      <c r="AE18" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO18" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP18" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:42">
+      <c r="B19" s="14">
         <v>2024</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D19" s="16">
+        <f t="shared" si="15"/>
+        <v>106952.98336000003</v>
+      </c>
+      <c r="E19" s="17">
+        <v>19499.3</v>
+      </c>
+      <c r="F19" s="17">
+        <v>14724.419</v>
+      </c>
+      <c r="G19" s="17">
+        <v>7318.848</v>
+      </c>
+      <c r="H19" s="17">
+        <v>6428.241</v>
+      </c>
+      <c r="I19" s="17">
+        <v>3309.4189999999999</v>
+      </c>
+      <c r="J19" s="17">
+        <v>2399.3510000000001</v>
+      </c>
+      <c r="K19" s="17">
+        <v>2148.4209999999998</v>
+      </c>
+      <c r="L19" s="17">
+        <v>3308.527</v>
+      </c>
+      <c r="M19" s="17">
+        <v>2070.7939999999999</v>
+      </c>
+      <c r="N19" s="17">
+        <v>1689.7920000000001</v>
+      </c>
+      <c r="O19" s="17">
+        <v>39593.667999999998</v>
+      </c>
+      <c r="P19" s="17">
+        <v>4462.203360000025</v>
+      </c>
+      <c r="AE19" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="3">
         <f t="shared" si="2"/>
-        <v>106952.98336000003</v>
-      </c>
-      <c r="E18" s="17">
-        <v>19499.3</v>
-      </c>
-      <c r="F18" s="17">
-        <v>14724.419</v>
-      </c>
-      <c r="G18" s="17">
-        <v>7318.848</v>
-      </c>
-      <c r="H18" s="17">
-        <v>6428.241</v>
-      </c>
-      <c r="I18" s="17">
-        <v>3309.4189999999999</v>
-      </c>
-      <c r="J18" s="17">
-        <v>2399.3510000000001</v>
-      </c>
-      <c r="K18" s="17">
-        <v>2148.4209999999998</v>
-      </c>
-      <c r="L18" s="17">
-        <v>3308.527</v>
-      </c>
-      <c r="M18" s="17">
-        <v>2070.7939999999999</v>
-      </c>
-      <c r="N18" s="17">
-        <v>1689.7920000000001</v>
-      </c>
-      <c r="O18" s="17">
-        <v>39593.667999999998</v>
-      </c>
-      <c r="P18" s="17">
-        <v>4462.203360000025</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16">
-      <c r="B19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM19" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN19" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP19" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:42">
+      <c r="B20" s="10">
         <v>2024</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D20" s="12">
+        <f t="shared" si="15"/>
+        <v>110411.98745000002</v>
+      </c>
+      <c r="E20" s="13">
+        <v>20062</v>
+      </c>
+      <c r="F20" s="13">
+        <v>15321.734</v>
+      </c>
+      <c r="G20" s="13">
+        <v>6843.5949999999993</v>
+      </c>
+      <c r="H20" s="13">
+        <v>6818.1309999999994</v>
+      </c>
+      <c r="I20" s="13">
+        <v>3632.4749999999995</v>
+      </c>
+      <c r="J20" s="13">
+        <v>2865.9740000000002</v>
+      </c>
+      <c r="K20" s="13">
+        <v>2297.306</v>
+      </c>
+      <c r="L20" s="13">
+        <v>3244.5340000000001</v>
+      </c>
+      <c r="M20" s="13">
+        <v>2175.2600000000002</v>
+      </c>
+      <c r="N20" s="13">
+        <v>1778.4730000000002</v>
+      </c>
+      <c r="O20" s="13">
+        <v>40133.834000000003</v>
+      </c>
+      <c r="P20" s="13">
+        <v>5238.6714500000198</v>
+      </c>
+      <c r="AE20" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="3">
         <f t="shared" si="2"/>
-        <v>110411.98745000002</v>
-      </c>
-      <c r="E19" s="13">
-        <v>20062</v>
-      </c>
-      <c r="F19" s="13">
-        <v>15321.734</v>
-      </c>
-      <c r="G19" s="13">
-        <v>6843.5949999999993</v>
-      </c>
-      <c r="H19" s="13">
-        <v>6818.1309999999994</v>
-      </c>
-      <c r="I19" s="13">
-        <v>3632.4749999999995</v>
-      </c>
-      <c r="J19" s="13">
-        <v>2865.9740000000002</v>
-      </c>
-      <c r="K19" s="13">
-        <v>2297.306</v>
-      </c>
-      <c r="L19" s="13">
-        <v>3244.5340000000001</v>
-      </c>
-      <c r="M19" s="13">
-        <v>2175.2600000000002</v>
-      </c>
-      <c r="N19" s="13">
-        <v>1778.4730000000002</v>
-      </c>
-      <c r="O19" s="13">
-        <v>40133.834000000003</v>
-      </c>
-      <c r="P19" s="13">
-        <v>5238.6714500000198</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16">
-      <c r="B20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK20" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL20" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM20" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN20" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO20" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP20" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:42">
+      <c r="B21" s="14">
         <v>2024</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C21" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="16">
-        <f t="shared" ref="D20:D50" si="3">SUM(E20:P20)</f>
+      <c r="D21" s="16">
+        <f t="shared" ref="D21:D51" si="16">SUM(E21:P21)</f>
         <v>105215.16596</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E21" s="17">
         <v>18973.3</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F21" s="17">
         <v>13665.344000000001</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G21" s="17">
         <v>6313.32</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H21" s="17">
         <v>6639.4679999999998</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I21" s="17">
         <v>3421.6190000000001</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J21" s="17">
         <v>3106.3360000000002</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K21" s="17">
         <v>2364.4089999999997</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L21" s="17">
         <v>3512.4059999999999</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M21" s="17">
         <v>2156.3200000000002</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N21" s="17">
         <v>1665.7180000000001</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O21" s="17">
         <v>38502.94</v>
       </c>
-      <c r="P20" s="17">
+      <c r="P21" s="17">
         <v>4893.9859599999945</v>
       </c>
-    </row>
-    <row r="21" spans="2:16">
-      <c r="B21" s="10">
+      <c r="AE21" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM21" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN21" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO21" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP21" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:42">
+      <c r="B22" s="10">
         <v>2024</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D22" s="12">
+        <f t="shared" si="16"/>
+        <v>104014.85637999998</v>
+      </c>
+      <c r="E22" s="13">
+        <v>19802.7</v>
+      </c>
+      <c r="F22" s="13">
+        <v>14556.685000000001</v>
+      </c>
+      <c r="G22" s="13">
+        <v>5905.6409999999996</v>
+      </c>
+      <c r="H22" s="13">
+        <v>5567.2889999999998</v>
+      </c>
+      <c r="I22" s="13">
+        <v>3144.7429999999999</v>
+      </c>
+      <c r="J22" s="13">
+        <v>3762.2560000000003</v>
+      </c>
+      <c r="K22" s="13">
+        <v>2058.4110000000001</v>
+      </c>
+      <c r="L22" s="13">
+        <v>2935.8180000000002</v>
+      </c>
+      <c r="M22" s="13">
+        <v>1921.692</v>
+      </c>
+      <c r="N22" s="13">
+        <v>1570.1889999999996</v>
+      </c>
+      <c r="O22" s="13">
+        <v>38209.173000000003</v>
+      </c>
+      <c r="P22" s="13">
+        <v>4580.2593799999795</v>
+      </c>
+      <c r="AE22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="3">
         <f t="shared" si="3"/>
-        <v>104014.85637999998</v>
-      </c>
-      <c r="E21" s="13">
-        <v>19802.7</v>
-      </c>
-      <c r="F21" s="13">
-        <v>14556.685000000001</v>
-      </c>
-      <c r="G21" s="13">
-        <v>5905.6409999999996</v>
-      </c>
-      <c r="H21" s="13">
-        <v>5567.2889999999998</v>
-      </c>
-      <c r="I21" s="13">
-        <v>3144.7429999999999</v>
-      </c>
-      <c r="J21" s="13">
-        <v>3762.2560000000003</v>
-      </c>
-      <c r="K21" s="13">
-        <v>2058.4110000000001</v>
-      </c>
-      <c r="L21" s="13">
-        <v>2935.8180000000002</v>
-      </c>
-      <c r="M21" s="13">
-        <v>1921.692</v>
-      </c>
-      <c r="N21" s="13">
-        <v>1570.1889999999996</v>
-      </c>
-      <c r="O21" s="13">
-        <v>38209.173000000003</v>
-      </c>
-      <c r="P21" s="13">
-        <v>4580.2593799999795</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16">
-      <c r="B22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK22" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL22" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM22" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN22" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO22" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP22" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:42">
+      <c r="B23" s="14">
         <v>2024</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D23" s="16">
+        <f t="shared" si="16"/>
+        <v>96832.64800000003</v>
+      </c>
+      <c r="E23" s="17">
+        <v>19063.57</v>
+      </c>
+      <c r="F23" s="17">
+        <v>12825.287</v>
+      </c>
+      <c r="G23" s="17">
+        <v>5709.5889999999999</v>
+      </c>
+      <c r="H23" s="17">
+        <v>6237.3979999999992</v>
+      </c>
+      <c r="I23" s="17">
+        <v>3026.2809999999999</v>
+      </c>
+      <c r="J23" s="17">
+        <v>3371.2139999999999</v>
+      </c>
+      <c r="K23" s="17">
+        <v>2375.6289999999999</v>
+      </c>
+      <c r="L23" s="17">
+        <v>3173.3669999999997</v>
+      </c>
+      <c r="M23" s="17">
+        <v>2052.38</v>
+      </c>
+      <c r="N23" s="17">
+        <v>1593.547</v>
+      </c>
+      <c r="O23" s="17">
+        <v>32860.998999999996</v>
+      </c>
+      <c r="P23" s="17">
+        <v>4543.3870000000315</v>
+      </c>
+      <c r="AE23" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="3">
         <f t="shared" si="3"/>
-        <v>96832.64800000003</v>
-      </c>
-      <c r="E22" s="17">
-        <v>19063.57</v>
-      </c>
-      <c r="F22" s="17">
-        <v>12825.287</v>
-      </c>
-      <c r="G22" s="17">
-        <v>5709.5889999999999</v>
-      </c>
-      <c r="H22" s="17">
-        <v>6237.3979999999992</v>
-      </c>
-      <c r="I22" s="17">
-        <v>3026.2809999999999</v>
-      </c>
-      <c r="J22" s="17">
-        <v>3371.2139999999999</v>
-      </c>
-      <c r="K22" s="17">
-        <v>2375.6289999999999</v>
-      </c>
-      <c r="L22" s="17">
-        <v>3173.3669999999997</v>
-      </c>
-      <c r="M22" s="17">
-        <v>2052.38</v>
-      </c>
-      <c r="N22" s="17">
-        <v>1593.547</v>
-      </c>
-      <c r="O22" s="17">
-        <v>32860.998999999996</v>
-      </c>
-      <c r="P22" s="17">
-        <v>4543.3870000000315</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16">
-      <c r="B23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK23" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL23" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM23" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN23" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO23" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP23" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:42">
+      <c r="B24" s="18">
         <v>2024</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C24" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D24" s="20">
+        <f t="shared" si="16"/>
+        <v>97055.650600000066</v>
+      </c>
+      <c r="E24" s="21">
+        <v>18369.400000000001</v>
+      </c>
+      <c r="F24" s="21">
+        <v>13351.472999999998</v>
+      </c>
+      <c r="G24" s="21">
+        <v>5885.9059999999999</v>
+      </c>
+      <c r="H24" s="21">
+        <v>5967.9220000000005</v>
+      </c>
+      <c r="I24" s="21">
+        <v>2989.357</v>
+      </c>
+      <c r="J24" s="21">
+        <v>2973.8410000000003</v>
+      </c>
+      <c r="K24" s="21">
+        <v>2268.6259999999997</v>
+      </c>
+      <c r="L24" s="21">
+        <v>2854.8959999999997</v>
+      </c>
+      <c r="M24" s="21">
+        <v>2397.5709999999999</v>
+      </c>
+      <c r="N24" s="21">
+        <v>1825.489</v>
+      </c>
+      <c r="O24" s="21">
+        <v>33787.300999999999</v>
+      </c>
+      <c r="P24" s="21">
+        <v>4383.8686000000562</v>
+      </c>
+      <c r="AE24" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="3">
         <f t="shared" si="3"/>
-        <v>97055.650600000066</v>
-      </c>
-      <c r="E23" s="21">
-        <v>18369.400000000001</v>
-      </c>
-      <c r="F23" s="21">
-        <v>13351.472999999998</v>
-      </c>
-      <c r="G23" s="21">
-        <v>5885.9059999999999</v>
-      </c>
-      <c r="H23" s="21">
-        <v>5967.9220000000005</v>
-      </c>
-      <c r="I23" s="21">
-        <v>2989.357</v>
-      </c>
-      <c r="J23" s="21">
-        <v>2973.8410000000003</v>
-      </c>
-      <c r="K23" s="21">
-        <v>2268.6259999999997</v>
-      </c>
-      <c r="L23" s="21">
-        <v>2854.8959999999997</v>
-      </c>
-      <c r="M23" s="21">
-        <v>2397.5709999999999</v>
-      </c>
-      <c r="N23" s="21">
-        <v>1825.489</v>
-      </c>
-      <c r="O23" s="21">
-        <v>33787.300999999999</v>
-      </c>
-      <c r="P23" s="21">
-        <v>4383.8686000000562</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" hidden="1">
-      <c r="B24" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI24" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK24" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL24" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM24" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN24" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO24" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP24" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:42" hidden="1">
+      <c r="B25" s="22">
         <v>2023</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C25" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="24">
-        <f t="shared" si="3"/>
+      <c r="D25" s="24">
+        <f t="shared" si="16"/>
         <v>104426.30729999999</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E25" s="25">
         <v>20566.599999999999</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F25" s="25">
         <v>13313.805</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G25" s="25">
         <v>5779.5439999999999</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H25" s="25">
         <v>6634.8190000000004</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I25" s="25">
         <v>3186.3519999999999</v>
       </c>
-      <c r="J24" s="25">
+      <c r="J25" s="25">
         <v>3890.0010000000002</v>
       </c>
-      <c r="K24" s="25">
+      <c r="K25" s="25">
         <v>2228.2650000000003</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L25" s="25">
         <v>3022.0309999999999</v>
       </c>
-      <c r="M24" s="25">
+      <c r="M25" s="25">
         <v>2482.5659999999998</v>
       </c>
-      <c r="N24" s="25">
+      <c r="N25" s="25">
         <v>1573.3980000000001</v>
       </c>
-      <c r="O24" s="25">
+      <c r="O25" s="25">
         <v>36496.25</v>
       </c>
-      <c r="P24" s="25">
+      <c r="P25" s="25">
         <v>5252.6762999999974</v>
       </c>
     </row>
-    <row r="25" spans="2:16" hidden="1">
-      <c r="B25" s="10">
+    <row r="26" spans="2:42" hidden="1">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="12">
-        <f t="shared" si="3"/>
+      <c r="D26" s="12">
+        <f t="shared" si="16"/>
         <v>106410.00600000001</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E26" s="13">
         <v>20520.5</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="13">
         <v>14126.735000000001</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G26" s="13">
         <v>6122.6710000000003</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H26" s="13">
         <v>6195.4279999999999</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I26" s="13">
         <v>3286.1129999999998</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J26" s="13">
         <v>3463.6080000000002</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K26" s="13">
         <v>2592.8070000000002</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L26" s="13">
         <v>3439.2550000000001</v>
       </c>
-      <c r="M25" s="13">
+      <c r="M26" s="13">
         <v>2391.259</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N26" s="13">
         <v>1992.0079999999998</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O26" s="13">
         <v>36843.491999999998</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P26" s="13">
         <v>5436.1300000000128</v>
       </c>
     </row>
-    <row r="26" spans="2:16" hidden="1">
-      <c r="B26" s="14">
+    <row r="27" spans="2:42" hidden="1">
+      <c r="B27" s="14">
         <v>2023</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C27" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="16">
-        <f t="shared" si="3"/>
+      <c r="D27" s="16">
+        <f t="shared" si="16"/>
         <v>107132.1866</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E27" s="17">
         <v>20291</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F27" s="17">
         <v>14588.228999999999</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G27" s="17">
         <v>6563.4580000000005</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H27" s="17">
         <v>6490.5720000000001</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I27" s="17">
         <v>3206.3980000000001</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J27" s="17">
         <v>2918.2420000000002</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K27" s="17">
         <v>2583.0619999999999</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L27" s="17">
         <v>3007.05</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M27" s="17">
         <v>2285.1779999999999</v>
       </c>
-      <c r="N26" s="17">
+      <c r="N27" s="17">
         <v>2296.12</v>
       </c>
-      <c r="O26" s="17">
+      <c r="O27" s="17">
         <v>37567.615000000005</v>
       </c>
-      <c r="P26" s="17">
+      <c r="P27" s="17">
         <v>5335.2626000000073</v>
       </c>
     </row>
-    <row r="27" spans="2:16" hidden="1">
-      <c r="B27" s="10">
+    <row r="28" spans="2:42" hidden="1">
+      <c r="B28" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="12">
-        <f t="shared" si="3"/>
+      <c r="D28" s="12">
+        <f t="shared" si="16"/>
         <v>96344.621599999969</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="13">
         <v>18890.84</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="13">
         <v>11939.238000000001</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G28" s="13">
         <v>6448.41</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H28" s="13">
         <v>6941.482</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I28" s="13">
         <v>2997.1009999999997</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J28" s="13">
         <v>2820.8690000000001</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K28" s="13">
         <v>2392.9459999999999</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L28" s="13">
         <v>2689.5440000000003</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M28" s="13">
         <v>2237.8310000000001</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N28" s="13">
         <v>1937.12</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O28" s="13">
         <v>32211.534999999996</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P28" s="13">
         <v>4837.7055999999784</v>
       </c>
     </row>
-    <row r="28" spans="2:16" hidden="1">
-      <c r="B28" s="14">
+    <row r="29" spans="2:42" hidden="1">
+      <c r="B29" s="14">
         <v>2023</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="16">
-        <f t="shared" si="3"/>
+      <c r="D29" s="16">
+        <f t="shared" si="16"/>
         <v>101340.06099999999</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E29" s="17">
         <v>30758.92</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F29" s="17">
         <v>12635.058999999999</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G29" s="17">
         <v>6735.0630000000001</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H29" s="17">
         <v>7071.5340000000006</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I29" s="17">
         <v>3260.134</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J29" s="17">
         <v>2927.556</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K29" s="17">
         <v>2738.0719999999997</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L29" s="17">
         <v>3079.3420000000001</v>
       </c>
-      <c r="M28" s="17">
+      <c r="M29" s="17">
         <v>2242.9470000000001</v>
       </c>
-      <c r="N28" s="17">
+      <c r="N29" s="17">
         <v>2212.1790000000001</v>
       </c>
-      <c r="O28" s="17">
+      <c r="O29" s="17">
         <v>22653.131999999998</v>
       </c>
-      <c r="P28" s="17">
+      <c r="P29" s="17">
         <v>5026.1229999999987</v>
       </c>
     </row>
-    <row r="29" spans="2:16" hidden="1">
-      <c r="B29" s="10">
+    <row r="30" spans="2:42" hidden="1">
+      <c r="B30" s="10">
         <v>2023</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="12">
-        <f t="shared" si="3"/>
+      <c r="D30" s="12">
+        <f t="shared" si="16"/>
         <v>99893.349999999977</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E30" s="13">
         <v>42255.99</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F30" s="13">
         <v>13795.428</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G30" s="13">
         <v>6453.2659999999996</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H30" s="13">
         <v>6305.5460000000003</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I30" s="13">
         <v>2850.3670000000002</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J30" s="13">
         <v>2992.5640000000003</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K30" s="13">
         <v>2184.107</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L30" s="13">
         <v>3001.3330000000001</v>
       </c>
-      <c r="M29" s="13">
+      <c r="M30" s="13">
         <v>2136.636</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N30" s="13">
         <v>1665.6389999999999</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O30" s="13">
         <v>12061.946</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P30" s="13">
         <v>4190.5279999999912</v>
       </c>
     </row>
-    <row r="30" spans="2:16" hidden="1">
-      <c r="B30" s="14">
+    <row r="31" spans="2:42" hidden="1">
+      <c r="B31" s="14">
         <v>2023</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C31" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="16">
-        <f t="shared" si="3"/>
+      <c r="D31" s="16">
+        <f t="shared" si="16"/>
         <v>100692.46</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E31" s="17">
         <v>48959.360000000001</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F31" s="17">
         <v>14347.388000000001</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G31" s="17">
         <v>6967.08</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H31" s="17">
         <v>7548.9220000000005</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I31" s="17">
         <v>3319.7</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J31" s="17">
         <v>2985.5720000000001</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K31" s="17">
         <v>2751.5749999999998</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L31" s="17">
         <v>2986.2660000000001</v>
       </c>
-      <c r="M30" s="17">
+      <c r="M31" s="17">
         <v>2130.835</v>
       </c>
-      <c r="N30" s="17">
+      <c r="N31" s="17">
         <v>1363.424</v>
       </c>
-      <c r="O30" s="17">
+      <c r="O31" s="17">
         <v>2657.15</v>
       </c>
-      <c r="P30" s="17">
+      <c r="P31" s="17">
         <v>4675.1880000000074</v>
       </c>
     </row>
-    <row r="31" spans="2:16" hidden="1">
-      <c r="B31" s="10">
+    <row r="32" spans="2:42" hidden="1">
+      <c r="B32" s="10">
         <v>2023</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="12">
-        <f t="shared" si="3"/>
+      <c r="D32" s="12">
+        <f t="shared" si="16"/>
         <v>98181.257999999987</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E32" s="13">
         <v>50235.43</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F32" s="13">
         <v>13240.904999999999</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G32" s="13">
         <v>6447.4090000000006</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H32" s="13">
         <v>6818.1289999999999</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I32" s="13">
         <v>3168.0129999999999</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J32" s="13">
         <v>3032.7219999999998</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K32" s="13">
         <v>2419.5279999999998</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L32" s="13">
         <v>3039.0519999999997</v>
       </c>
-      <c r="M31" s="13">
+      <c r="M32" s="13">
         <v>2077.337</v>
       </c>
-      <c r="N31" s="13">
+      <c r="N32" s="13">
         <v>1145.9829999999999</v>
       </c>
-      <c r="O31" s="13">
+      <c r="O32" s="13">
         <v>2054.748</v>
       </c>
-      <c r="P31" s="13">
+      <c r="P32" s="13">
         <v>4502.0019999999795</v>
       </c>
     </row>
-    <row r="32" spans="2:16" hidden="1">
-      <c r="B32" s="14">
+    <row r="33" spans="2:16" hidden="1">
+      <c r="B33" s="14">
         <v>2023</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C33" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="16">
-        <f t="shared" si="3"/>
+      <c r="D33" s="16">
+        <f t="shared" si="16"/>
         <v>92574.85</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E33" s="17">
         <v>47367.56</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F33" s="17">
         <v>13553.766</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G33" s="17">
         <v>6046.3230000000003</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H33" s="17">
         <v>5997.2860000000001</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I33" s="17">
         <v>2823</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J33" s="17">
         <v>3201.482</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K33" s="17">
         <v>2103.346</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L33" s="17">
         <v>2699.6509999999998</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M33" s="17">
         <v>1830.1030000000001</v>
       </c>
-      <c r="N32" s="17">
+      <c r="N33" s="17">
         <v>966.625</v>
       </c>
-      <c r="O32" s="17">
+      <c r="O33" s="17">
         <v>1973.069</v>
       </c>
-      <c r="P32" s="17">
+      <c r="P33" s="17">
         <v>4012.6390000000029</v>
       </c>
     </row>
-    <row r="33" spans="2:16" hidden="1">
-      <c r="B33" s="10">
+    <row r="34" spans="2:16" hidden="1">
+      <c r="B34" s="10">
         <v>2023</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="12">
-        <f t="shared" si="3"/>
+      <c r="D34" s="12">
+        <f t="shared" si="16"/>
         <v>105745.56200000001</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E34" s="13">
         <v>52276.67</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F34" s="13">
         <v>16535.007000000001</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G34" s="13">
         <v>6440.4480000000003</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H34" s="13">
         <v>7445.0419999999995</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I34" s="13">
         <v>3504.6480000000001</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J34" s="13">
         <v>3949.8199999999997</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K34" s="13">
         <v>2498.7659999999996</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L34" s="13">
         <v>3061.4049999999997</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M34" s="13">
         <v>2069.788</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N34" s="13">
         <v>1219.9379999999999</v>
       </c>
-      <c r="O33" s="13">
+      <c r="O34" s="13">
         <v>1776.1070000000002</v>
       </c>
-      <c r="P33" s="13">
+      <c r="P34" s="13">
         <v>4967.9229999999952</v>
       </c>
     </row>
-    <row r="34" spans="2:16" hidden="1">
-      <c r="B34" s="14">
+    <row r="35" spans="2:16" hidden="1">
+      <c r="B35" s="14">
         <v>2023</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C35" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="16">
-        <f t="shared" si="3"/>
+      <c r="D35" s="16">
+        <f t="shared" si="16"/>
         <v>92062.197000000015</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E35" s="17">
         <v>48557.700000000004</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F35" s="17">
         <v>12859.111000000001</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G35" s="17">
         <v>5657.7039999999997</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H35" s="17">
         <v>6269.88</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I35" s="17">
         <v>2992.4319999999998</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J35" s="17">
         <v>3589.6260000000002</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K35" s="17">
         <v>2018.2800000000002</v>
       </c>
-      <c r="L34" s="17">
+      <c r="L35" s="17">
         <v>2591.8669999999997</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M35" s="17">
         <v>1971.3010000000002</v>
       </c>
-      <c r="N34" s="17">
+      <c r="N35" s="17">
         <v>967.20100000000002</v>
       </c>
-      <c r="O34" s="17">
+      <c r="O35" s="17">
         <v>24.785999999999998</v>
       </c>
-      <c r="P34" s="17">
+      <c r="P35" s="17">
         <v>4562.3090000000093</v>
       </c>
     </row>
-    <row r="35" spans="2:16" hidden="1">
-      <c r="B35" s="18">
+    <row r="36" spans="2:16" hidden="1">
+      <c r="B36" s="18">
         <v>2023</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C36" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="20">
-        <f t="shared" si="3"/>
+      <c r="D36" s="20">
+        <f t="shared" si="16"/>
         <v>91861.286999999982</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E36" s="21">
         <v>47206.720000000001</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F36" s="21">
         <v>14071.760999999999</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G36" s="21">
         <v>5308.5119999999997</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H36" s="21">
         <v>6105.5779999999995</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I36" s="21">
         <v>3099.4949999999999</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J36" s="21">
         <v>3049.6080000000002</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K36" s="21">
         <v>2226.4519999999998</v>
       </c>
-      <c r="L35" s="21">
+      <c r="L36" s="21">
         <v>2648.1549999999997</v>
       </c>
-      <c r="M35" s="21">
+      <c r="M36" s="21">
         <v>2170.7359999999999</v>
       </c>
-      <c r="N35" s="21">
+      <c r="N36" s="21">
         <v>1026.6849999999999</v>
       </c>
-      <c r="O35" s="21">
-        <v>0</v>
-      </c>
-      <c r="P35" s="21">
+      <c r="O36" s="21">
+        <v>0</v>
+      </c>
+      <c r="P36" s="21">
         <v>4947.5849999999755</v>
       </c>
     </row>
-    <row r="36" spans="2:16" hidden="1">
-      <c r="B36" s="22">
+    <row r="37" spans="2:16" hidden="1">
+      <c r="B37" s="22">
         <v>2022</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C37" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="24">
-        <f t="shared" si="3"/>
+      <c r="D37" s="24">
+        <f t="shared" si="16"/>
         <v>101065.27699999994</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E37" s="25">
         <v>51995.01</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F37" s="25">
         <v>14753.401000000002</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G37" s="25">
         <v>6074.482</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H37" s="25">
         <v>6693.6720000000005</v>
       </c>
-      <c r="I36" s="25">
+      <c r="I37" s="25">
         <v>3610.9369999999999</v>
       </c>
-      <c r="J36" s="25">
+      <c r="J37" s="25">
         <v>3543.056</v>
       </c>
-      <c r="K36" s="25">
+      <c r="K37" s="25">
         <v>2529.5419999999999</v>
       </c>
-      <c r="L36" s="25">
+      <c r="L37" s="25">
         <v>3120.09</v>
       </c>
-      <c r="M36" s="25">
+      <c r="M37" s="25">
         <v>2114.6820000000002</v>
       </c>
-      <c r="N36" s="25">
+      <c r="N37" s="25">
         <v>1202.202</v>
       </c>
-      <c r="O36" s="25">
-        <v>0</v>
-      </c>
-      <c r="P36" s="25">
+      <c r="O37" s="25">
+        <v>0</v>
+      </c>
+      <c r="P37" s="25">
         <v>5428.2029999999249</v>
       </c>
     </row>
-    <row r="37" spans="2:16" hidden="1">
-      <c r="B37" s="10">
+    <row r="38" spans="2:16" hidden="1">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="12">
-        <f t="shared" si="3"/>
+      <c r="D38" s="12">
+        <f t="shared" si="16"/>
         <v>100761.743</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E38" s="13">
         <v>52228.090000000004</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F38" s="13">
         <v>14611.128000000001</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G38" s="13">
         <v>6314.7170000000006</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H38" s="13">
         <v>6174.5390000000007</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I38" s="13">
         <v>3744.3739999999998</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J38" s="13">
         <v>3438.8589999999999</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K38" s="13">
         <v>2565.1889999999999</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L38" s="13">
         <v>3357.0519999999997</v>
       </c>
-      <c r="M37" s="13">
+      <c r="M38" s="13">
         <v>2200.0079999999998</v>
       </c>
-      <c r="N37" s="13">
+      <c r="N38" s="13">
         <v>1152.1139999999998</v>
       </c>
-      <c r="O37" s="13">
-        <v>0</v>
-      </c>
-      <c r="P37" s="13">
+      <c r="O38" s="13">
+        <v>0</v>
+      </c>
+      <c r="P38" s="13">
         <v>4975.6730000000007</v>
       </c>
     </row>
-    <row r="38" spans="2:16" hidden="1">
-      <c r="B38" s="14">
+    <row r="39" spans="2:16" hidden="1">
+      <c r="B39" s="14">
         <v>2022</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C39" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="16">
-        <f t="shared" si="3"/>
+      <c r="D39" s="16">
+        <f t="shared" si="16"/>
         <v>101815.66400000002</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E39" s="17">
         <v>53850.369999999995</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F39" s="17">
         <v>15184.744000000001</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G39" s="17">
         <v>6463.3790000000008</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H39" s="17">
         <v>5772.1310000000003</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I39" s="17">
         <v>3574.8900000000003</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J39" s="17">
         <v>3573.3429999999998</v>
       </c>
-      <c r="K38" s="17">
+      <c r="K39" s="17">
         <v>2038.558</v>
       </c>
-      <c r="L38" s="17">
+      <c r="L39" s="17">
         <v>2968.2270000000003</v>
       </c>
-      <c r="M38" s="17">
+      <c r="M39" s="17">
         <v>2060.0630000000001</v>
       </c>
-      <c r="N38" s="17">
+      <c r="N39" s="17">
         <v>1283.712</v>
       </c>
-      <c r="O38" s="17">
-        <v>0</v>
-      </c>
-      <c r="P38" s="17">
+      <c r="O39" s="17">
+        <v>0</v>
+      </c>
+      <c r="P39" s="17">
         <v>5046.2470000000367</v>
       </c>
     </row>
-    <row r="39" spans="2:16" hidden="1">
-      <c r="B39" s="10">
+    <row r="40" spans="2:16" hidden="1">
+      <c r="B40" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="12">
-        <f t="shared" si="3"/>
+      <c r="D40" s="12">
+        <f t="shared" si="16"/>
         <v>89334.159999999974</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="13">
         <v>47061.49</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="13">
         <v>14479.710999999999</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G40" s="13">
         <v>6202.4430000000002</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H40" s="13">
         <v>5721.7240000000002</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I40" s="13">
         <v>2401.297</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J40" s="13">
         <v>2631.6559999999999</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K40" s="13">
         <v>2465.8180000000002</v>
       </c>
-      <c r="L39" s="13">
+      <c r="L40" s="13">
         <v>2754.2740000000003</v>
       </c>
-      <c r="M39" s="13">
+      <c r="M40" s="13">
         <v>512.15899999999999</v>
       </c>
-      <c r="N39" s="13">
+      <c r="N40" s="13">
         <v>1143.1680000000001</v>
       </c>
-      <c r="O39" s="13">
-        <v>0</v>
-      </c>
-      <c r="P39" s="13">
+      <c r="O40" s="13">
+        <v>0</v>
+      </c>
+      <c r="P40" s="13">
         <v>3960.4199999999564</v>
       </c>
     </row>
-    <row r="40" spans="2:16" hidden="1">
-      <c r="B40" s="14">
+    <row r="41" spans="2:16" hidden="1">
+      <c r="B41" s="14">
         <v>2022</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C41" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="16">
-        <f t="shared" si="3"/>
+      <c r="D41" s="16">
+        <f t="shared" si="16"/>
         <v>95278.69100000005</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E41" s="17">
         <v>47746.51</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F41" s="17">
         <v>14115.436000000002</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G41" s="17">
         <v>7015.4850000000006</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H41" s="17">
         <v>6571.5810000000001</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I41" s="17">
         <v>2958.8999999999996</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J41" s="17">
         <v>3531.7309999999998</v>
       </c>
-      <c r="K40" s="17">
+      <c r="K41" s="17">
         <v>2622.4749999999999</v>
       </c>
-      <c r="L40" s="17">
+      <c r="L41" s="17">
         <v>2978.3830000000003</v>
       </c>
-      <c r="M40" s="17">
+      <c r="M41" s="17">
         <v>2025.0970000000002</v>
       </c>
-      <c r="N40" s="17">
+      <c r="N41" s="17">
         <v>1204.242</v>
       </c>
-      <c r="O40" s="17">
-        <v>0</v>
-      </c>
-      <c r="P40" s="17">
+      <c r="O41" s="17">
+        <v>0</v>
+      </c>
+      <c r="P41" s="17">
         <v>4508.8510000000351</v>
       </c>
     </row>
-    <row r="41" spans="2:16" hidden="1">
-      <c r="B41" s="10">
+    <row r="42" spans="2:16" hidden="1">
+      <c r="B42" s="10">
         <v>2022</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C42" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="12">
-        <f t="shared" si="3"/>
+      <c r="D42" s="12">
+        <f t="shared" si="16"/>
         <v>97785.689999999988</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E42" s="13">
         <v>50063.990000000005</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F42" s="13">
         <v>14860.342999999999</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G42" s="13">
         <v>6623.2259999999997</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H42" s="13">
         <v>5368.71</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I42" s="13">
         <v>3986.607</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J42" s="13">
         <v>4343.424</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K42" s="13">
         <v>2496.5360000000001</v>
       </c>
-      <c r="L41" s="13">
+      <c r="L42" s="13">
         <v>2822.9870000000001</v>
       </c>
-      <c r="M41" s="13">
+      <c r="M42" s="13">
         <v>1943.029</v>
       </c>
-      <c r="N41" s="13">
+      <c r="N42" s="13">
         <v>1117.913</v>
       </c>
-      <c r="O41" s="13">
-        <v>0</v>
-      </c>
-      <c r="P41" s="13">
+      <c r="O42" s="13">
+        <v>0</v>
+      </c>
+      <c r="P42" s="13">
         <v>4158.924999999982</v>
       </c>
     </row>
-    <row r="42" spans="2:16" hidden="1">
-      <c r="B42" s="14">
+    <row r="43" spans="2:16" hidden="1">
+      <c r="B43" s="14">
         <v>2022</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C43" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="16">
-        <f t="shared" si="3"/>
+      <c r="D43" s="16">
+        <f t="shared" si="16"/>
         <v>98754.335000000006</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E43" s="17">
         <v>46577.189999999995</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F43" s="17">
         <v>15738.313999999998</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G43" s="17">
         <v>7141.8860000000004</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H43" s="17">
         <v>6363.9130000000005</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I43" s="17">
         <v>4263.3530000000001</v>
       </c>
-      <c r="J42" s="17">
+      <c r="J43" s="17">
         <v>3976.6590000000001</v>
       </c>
-      <c r="K42" s="17">
+      <c r="K43" s="17">
         <v>2587.8480000000004</v>
       </c>
-      <c r="L42" s="17">
+      <c r="L43" s="17">
         <v>3419.7529999999997</v>
       </c>
-      <c r="M42" s="17">
+      <c r="M43" s="17">
         <v>2042.5399999999997</v>
       </c>
-      <c r="N42" s="17">
+      <c r="N43" s="17">
         <v>1359.9259999999999</v>
       </c>
-      <c r="O42" s="17">
-        <v>0</v>
-      </c>
-      <c r="P42" s="17">
+      <c r="O43" s="17">
+        <v>0</v>
+      </c>
+      <c r="P43" s="17">
         <v>5282.9530000000059</v>
       </c>
     </row>
-    <row r="43" spans="2:16" hidden="1">
-      <c r="B43" s="10">
+    <row r="44" spans="2:16" hidden="1">
+      <c r="B44" s="10">
         <v>2022</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C44" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="12">
-        <f t="shared" si="3"/>
+      <c r="D44" s="12">
+        <f t="shared" si="16"/>
         <v>100981.77</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E44" s="13">
         <v>48175.270000000004</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F44" s="13">
         <v>15121.800999999999</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G44" s="13">
         <v>6917.94</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H44" s="13">
         <v>7004.4480000000003</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I44" s="13">
         <v>4293.0200000000004</v>
       </c>
-      <c r="J43" s="13">
+      <c r="J44" s="13">
         <v>4633.1059999999998</v>
       </c>
-      <c r="K43" s="13">
+      <c r="K44" s="13">
         <v>2216.5819999999999</v>
       </c>
-      <c r="L43" s="13">
+      <c r="L44" s="13">
         <v>4035.9160000000002</v>
       </c>
-      <c r="M43" s="13">
+      <c r="M44" s="13">
         <v>2042.0069999999998</v>
       </c>
-      <c r="N43" s="13">
+      <c r="N44" s="13">
         <v>1212.9639999999999</v>
       </c>
-      <c r="O43" s="13">
-        <v>0</v>
-      </c>
-      <c r="P43" s="13">
+      <c r="O44" s="13">
+        <v>0</v>
+      </c>
+      <c r="P44" s="13">
         <v>5328.7160000000003</v>
       </c>
     </row>
-    <row r="44" spans="2:16" hidden="1">
-      <c r="B44" s="14">
+    <row r="45" spans="2:16" hidden="1">
+      <c r="B45" s="14">
         <v>2022</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C45" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="16">
-        <f t="shared" si="3"/>
+      <c r="D45" s="16">
+        <f t="shared" si="16"/>
         <v>91772.804999999978</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E45" s="17">
         <v>42504.89</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F45" s="17">
         <v>14271.894</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G45" s="17">
         <v>6804.5039999999999</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H45" s="17">
         <v>5796.9490000000005</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I45" s="17">
         <v>3819.4520000000002</v>
       </c>
-      <c r="J44" s="17">
+      <c r="J45" s="17">
         <v>4312.4709999999995</v>
       </c>
-      <c r="K44" s="17">
+      <c r="K45" s="17">
         <v>2349.19</v>
       </c>
-      <c r="L44" s="17">
+      <c r="L45" s="17">
         <v>3770.8559999999998</v>
       </c>
-      <c r="M44" s="17">
+      <c r="M45" s="17">
         <v>1869.663</v>
       </c>
-      <c r="N44" s="17">
+      <c r="N45" s="17">
         <v>1118.5450000000001</v>
       </c>
-      <c r="O44" s="17">
-        <v>0</v>
-      </c>
-      <c r="P44" s="17">
+      <c r="O45" s="17">
+        <v>0</v>
+      </c>
+      <c r="P45" s="17">
         <v>5154.390999999976</v>
       </c>
     </row>
-    <row r="45" spans="2:16" hidden="1">
-      <c r="B45" s="10">
+    <row r="46" spans="2:16" hidden="1">
+      <c r="B46" s="10">
         <v>2022</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C46" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="12">
-        <f t="shared" si="3"/>
+      <c r="D46" s="12">
+        <f t="shared" si="16"/>
         <v>97475.604000000007</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E46" s="13">
         <v>43589.06</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F46" s="13">
         <v>15805.73</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G46" s="13">
         <v>7474.4720000000007</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H46" s="13">
         <v>6700.8620000000001</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I46" s="13">
         <v>4181.607</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J46" s="13">
         <v>4873.1779999999999</v>
       </c>
-      <c r="K45" s="13">
+      <c r="K46" s="13">
         <v>2656.9369999999999</v>
       </c>
-      <c r="L45" s="13">
+      <c r="L46" s="13">
         <v>3049.7539999999999</v>
       </c>
-      <c r="M45" s="13">
+      <c r="M46" s="13">
         <v>2099.5990000000002</v>
       </c>
-      <c r="N45" s="13">
+      <c r="N46" s="13">
         <v>1350.1109999999999</v>
       </c>
-      <c r="O45" s="13">
-        <v>0</v>
-      </c>
-      <c r="P45" s="13">
+      <c r="O46" s="13">
+        <v>0</v>
+      </c>
+      <c r="P46" s="13">
         <v>5694.2940000000135</v>
       </c>
     </row>
-    <row r="46" spans="2:16" hidden="1">
-      <c r="B46" s="14">
+    <row r="47" spans="2:16" hidden="1">
+      <c r="B47" s="14">
         <v>2022</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C47" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="16">
-        <f t="shared" si="3"/>
+      <c r="D47" s="16">
+        <f t="shared" si="16"/>
         <v>89800.428</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E47" s="17">
         <v>45366.31</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F47" s="17">
         <v>13369.772999999999</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G47" s="17">
         <v>5647.3320000000003</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H47" s="17">
         <v>5270.6120000000001</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I47" s="17">
         <v>3794.5039999999999</v>
       </c>
-      <c r="J46" s="17">
+      <c r="J47" s="17">
         <v>3839.19</v>
       </c>
-      <c r="K46" s="17">
+      <c r="K47" s="17">
         <v>2119.1379999999999</v>
       </c>
-      <c r="L46" s="17">
+      <c r="L47" s="17">
         <v>2576.7370000000001</v>
       </c>
-      <c r="M46" s="17">
+      <c r="M47" s="17">
         <v>1797.6790000000001</v>
       </c>
-      <c r="N46" s="17">
+      <c r="N47" s="17">
         <v>1019.68</v>
       </c>
-      <c r="O46" s="17">
-        <v>0</v>
-      </c>
-      <c r="P46" s="17">
+      <c r="O47" s="17">
+        <v>0</v>
+      </c>
+      <c r="P47" s="17">
         <v>4999.4729999999945</v>
       </c>
     </row>
-    <row r="47" spans="2:16" hidden="1">
-      <c r="B47" s="18">
+    <row r="48" spans="2:16" hidden="1">
+      <c r="B48" s="18">
         <v>2022</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C48" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="20">
-        <f t="shared" si="3"/>
+      <c r="D48" s="20">
+        <f t="shared" si="16"/>
         <v>85046.313999999984</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E48" s="21">
         <v>41649.950000000004</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F48" s="21">
         <v>14466.567999999999</v>
       </c>
-      <c r="G47" s="21">
+      <c r="G48" s="21">
         <v>5084.2289999999994</v>
       </c>
-      <c r="H47" s="21">
+      <c r="H48" s="21">
         <v>5408.1559999999999</v>
       </c>
-      <c r="I47" s="21">
+      <c r="I48" s="21">
         <v>2575.6040000000003</v>
       </c>
-      <c r="J47" s="21">
+      <c r="J48" s="21">
         <v>3171.0789999999997</v>
       </c>
-      <c r="K47" s="21">
+      <c r="K48" s="21">
         <v>2142.4740000000002</v>
       </c>
-      <c r="L47" s="21">
+      <c r="L48" s="21">
         <v>2573.4090000000001</v>
       </c>
-      <c r="M47" s="21">
+      <c r="M48" s="21">
         <v>1939.2370000000001</v>
       </c>
-      <c r="N47" s="21">
+      <c r="N48" s="21">
         <v>1105.0170000000001</v>
       </c>
-      <c r="O47" s="21">
-        <v>0</v>
-      </c>
-      <c r="P47" s="21">
+      <c r="O48" s="21">
+        <v>0</v>
+      </c>
+      <c r="P48" s="21">
         <v>4930.590999999964</v>
       </c>
     </row>
-    <row r="48" spans="2:16" hidden="1">
-      <c r="B48" s="22">
+    <row r="49" spans="2:16" hidden="1">
+      <c r="B49" s="22">
         <v>2021</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C49" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="24">
-        <f t="shared" si="3"/>
+      <c r="D49" s="24">
+        <f t="shared" si="16"/>
         <v>106245.8559999999</v>
       </c>
-      <c r="E48" s="25">
+      <c r="E49" s="25">
         <v>50857.07</v>
       </c>
-      <c r="F48" s="25">
+      <c r="F49" s="25">
         <v>17094.063999999998</v>
       </c>
-      <c r="G48" s="25">
+      <c r="G49" s="25">
         <v>6690.982</v>
       </c>
-      <c r="H48" s="25">
+      <c r="H49" s="25">
         <v>6757.0789999999997</v>
       </c>
-      <c r="I48" s="25">
+      <c r="I49" s="25">
         <v>4772.1049999999996</v>
       </c>
-      <c r="J48" s="25">
+      <c r="J49" s="25">
         <v>4153.6809999999996</v>
       </c>
-      <c r="K48" s="25">
+      <c r="K49" s="25">
         <v>2996.9839999999999</v>
       </c>
-      <c r="L48" s="25">
+      <c r="L49" s="25">
         <v>3411.8760000000002</v>
       </c>
-      <c r="M48" s="25">
+      <c r="M49" s="25">
         <v>2152.6570000000002</v>
       </c>
-      <c r="N48" s="25">
+      <c r="N49" s="25">
         <v>1412.242</v>
       </c>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25">
+      <c r="O49" s="25"/>
+      <c r="P49" s="25">
         <v>5947.115999999909</v>
       </c>
     </row>
-    <row r="49" spans="2:16" hidden="1">
-      <c r="B49" s="10">
+    <row r="50" spans="2:16" hidden="1">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="12">
-        <f t="shared" si="3"/>
+      <c r="D50" s="12">
+        <f t="shared" si="16"/>
         <v>103780.351</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E50" s="13">
         <v>51670.84</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F50" s="13">
         <v>16637.919000000002</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G50" s="13">
         <v>6777.7350000000006</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H50" s="13">
         <v>6088.8860000000004</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I50" s="13">
         <v>4689.4409999999998</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J50" s="13">
         <v>3093.7200000000003</v>
       </c>
-      <c r="K49" s="13">
+      <c r="K50" s="13">
         <v>2801.3710000000001</v>
       </c>
-      <c r="L49" s="13">
+      <c r="L50" s="13">
         <v>3273.163</v>
       </c>
-      <c r="M49" s="13">
+      <c r="M50" s="13">
         <v>2116.31</v>
       </c>
-      <c r="N49" s="13">
+      <c r="N50" s="13">
         <v>1187.3990000000001</v>
       </c>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13">
+      <c r="O50" s="13"/>
+      <c r="P50" s="13">
         <v>5443.5670000000018</v>
       </c>
     </row>
-    <row r="50" spans="2:16" hidden="1">
-      <c r="B50" s="14">
+    <row r="51" spans="2:16" hidden="1">
+      <c r="B51" s="14">
         <v>2021</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C51" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="16">
-        <f t="shared" si="3"/>
+      <c r="D51" s="16">
+        <f t="shared" si="16"/>
         <v>102011.41899999998</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E51" s="17">
         <v>52512.270000000004</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F51" s="17">
         <v>15934.506000000001</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G51" s="17">
         <v>6335.259</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H51" s="17">
         <v>5545.3950000000004</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I51" s="17">
         <v>4882.7650000000003</v>
       </c>
-      <c r="J50" s="17">
+      <c r="J51" s="17">
         <v>2936.84</v>
       </c>
-      <c r="K50" s="17">
+      <c r="K51" s="17">
         <v>2405.8789999999999</v>
       </c>
-      <c r="L50" s="17">
+      <c r="L51" s="17">
         <v>3272.1130000000003</v>
       </c>
-      <c r="M50" s="17">
+      <c r="M51" s="17">
         <v>1900.828</v>
       </c>
-      <c r="N50" s="17">
+      <c r="N51" s="17">
         <v>1092.5319999999999</v>
       </c>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17">
+      <c r="O51" s="17"/>
+      <c r="P51" s="17">
         <v>5193.0319999999592</v>
       </c>
     </row>
-    <row r="51" spans="2:16" hidden="1">
-      <c r="B51" s="10">
+    <row r="52" spans="2:16" hidden="1">
+      <c r="B52" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="12">
-        <f t="shared" ref="D51:D82" si="4">SUM(E51:P51)</f>
+      <c r="D52" s="12">
+        <f t="shared" ref="D52:D83" si="17">SUM(E52:P52)</f>
         <v>91178.608999999982</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E52" s="13">
         <v>45915.21</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="13">
         <v>14692.056</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G52" s="13">
         <v>5728.8209999999999</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H52" s="13">
         <v>5560.4480000000003</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I52" s="13">
         <v>4702.9629999999997</v>
       </c>
-      <c r="J51" s="13">
+      <c r="J52" s="13">
         <v>2102.703</v>
       </c>
-      <c r="K51" s="13">
+      <c r="K52" s="13">
         <v>2272.134</v>
       </c>
-      <c r="L51" s="13">
+      <c r="L52" s="13">
         <v>2868.15</v>
       </c>
-      <c r="M51" s="13">
+      <c r="M52" s="13">
         <v>1735.4590000000001</v>
       </c>
-      <c r="N51" s="13">
+      <c r="N52" s="13">
         <v>1045.8</v>
       </c>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13">
+      <c r="O52" s="13"/>
+      <c r="P52" s="13">
         <v>4554.864999999978</v>
       </c>
     </row>
-    <row r="52" spans="2:16" hidden="1">
-      <c r="B52" s="14">
+    <row r="53" spans="2:16" hidden="1">
+      <c r="B53" s="14">
         <v>2021</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C53" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="16">
-        <f t="shared" si="4"/>
+      <c r="D53" s="16">
+        <f t="shared" si="17"/>
         <v>92414.208999999988</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E53" s="17">
         <v>46263.56</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F53" s="17">
         <v>15429.054</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G53" s="17">
         <v>5843.6489999999994</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H53" s="17">
         <v>5188.5529999999999</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I53" s="17">
         <v>4997.6589999999997</v>
       </c>
-      <c r="J52" s="17">
+      <c r="J53" s="17">
         <v>1980.7669999999998</v>
       </c>
-      <c r="K52" s="17">
+      <c r="K53" s="17">
         <v>2178.5140000000001</v>
       </c>
-      <c r="L52" s="17">
+      <c r="L53" s="17">
         <v>2985.433</v>
       </c>
-      <c r="M52" s="17">
+      <c r="M53" s="17">
         <v>1919.7950000000001</v>
       </c>
-      <c r="N52" s="17">
+      <c r="N53" s="17">
         <v>1046.1379999999999</v>
       </c>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17">
+      <c r="O53" s="17"/>
+      <c r="P53" s="17">
         <v>4581.0869999999823</v>
       </c>
     </row>
-    <row r="53" spans="2:16" hidden="1">
-      <c r="B53" s="10">
+    <row r="54" spans="2:16" hidden="1">
+      <c r="B54" s="10">
         <v>2021</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C54" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D53" s="12">
-        <f t="shared" si="4"/>
+      <c r="D54" s="12">
+        <f t="shared" si="17"/>
         <v>94998.959000000017</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E54" s="13">
         <v>47535.66</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F54" s="13">
         <v>16396.912</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G54" s="13">
         <v>5814.3230000000003</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H54" s="13">
         <v>5225.7449999999999</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I54" s="13">
         <v>4822.5879999999997</v>
       </c>
-      <c r="J53" s="13">
+      <c r="J54" s="13">
         <v>2417.9939999999997</v>
       </c>
-      <c r="K53" s="13">
+      <c r="K54" s="13">
         <v>2253.5949999999998</v>
       </c>
-      <c r="L53" s="13">
+      <c r="L54" s="13">
         <v>2954.0879999999997</v>
       </c>
-      <c r="M53" s="13">
+      <c r="M54" s="13">
         <v>2019.4090000000001</v>
       </c>
-      <c r="N53" s="13">
+      <c r="N54" s="13">
         <v>989</v>
       </c>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13">
+      <c r="O54" s="13"/>
+      <c r="P54" s="13">
         <v>4569.6450000000086</v>
       </c>
     </row>
-    <row r="54" spans="2:16" hidden="1">
-      <c r="B54" s="14">
+    <row r="55" spans="2:16" hidden="1">
+      <c r="B55" s="14">
         <v>2021</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C55" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="16">
-        <f t="shared" si="4"/>
+      <c r="D55" s="16">
+        <f t="shared" si="17"/>
         <v>93150.852999999974</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E55" s="17">
         <v>46381.57</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F55" s="17">
         <v>16321.146999999999</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G55" s="17">
         <v>5643.8950000000004</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H55" s="17">
         <v>5512.8739999999998</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I55" s="17">
         <v>4619.1679999999997</v>
       </c>
-      <c r="J54" s="17">
+      <c r="J55" s="17">
         <v>2265.636</v>
       </c>
-      <c r="K54" s="17">
+      <c r="K55" s="17">
         <v>2051.7060000000001</v>
       </c>
-      <c r="L54" s="17">
+      <c r="L55" s="17">
         <v>2931.884</v>
       </c>
-      <c r="M54" s="17">
+      <c r="M55" s="17">
         <v>1972.1880000000001</v>
       </c>
-      <c r="N54" s="17">
+      <c r="N55" s="17">
         <v>986.39300000000003</v>
       </c>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17">
+      <c r="O55" s="17"/>
+      <c r="P55" s="17">
         <v>4464.3919999999753</v>
       </c>
     </row>
-    <row r="55" spans="2:16" hidden="1">
-      <c r="B55" s="10">
+    <row r="56" spans="2:16" hidden="1">
+      <c r="B56" s="10">
         <v>2021</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C56" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="12">
-        <f t="shared" si="4"/>
+      <c r="D56" s="12">
+        <f t="shared" si="17"/>
         <v>91896.881000000023</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E56" s="13">
         <v>46267.280000000006</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F56" s="13">
         <v>16961.302</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G56" s="13">
         <v>5341.201</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H56" s="13">
         <v>5093.9789999999994</v>
       </c>
-      <c r="I55" s="13">
+      <c r="I56" s="13">
         <v>4098.0300000000007</v>
       </c>
-      <c r="J55" s="13">
+      <c r="J56" s="13">
         <v>2317.509</v>
       </c>
-      <c r="K55" s="13">
+      <c r="K56" s="13">
         <v>1839.751</v>
       </c>
-      <c r="L55" s="13">
+      <c r="L56" s="13">
         <v>2917.2539999999999</v>
       </c>
-      <c r="M55" s="13">
+      <c r="M56" s="13">
         <v>1854.6999999999998</v>
       </c>
-      <c r="N55" s="13">
+      <c r="N56" s="13">
         <v>936.20399999999995</v>
       </c>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13">
+      <c r="O56" s="13"/>
+      <c r="P56" s="13">
         <v>4269.6710000000021</v>
       </c>
     </row>
-    <row r="56" spans="2:16" hidden="1">
-      <c r="B56" s="14">
+    <row r="57" spans="2:16" hidden="1">
+      <c r="B57" s="14">
         <v>2021</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C57" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="16">
-        <f t="shared" si="4"/>
+      <c r="D57" s="16">
+        <f t="shared" si="17"/>
         <v>91124.671000000017</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E57" s="17">
         <v>44958.49</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F57" s="17">
         <v>17353.253000000001</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G57" s="17">
         <v>5074.8539999999994</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H57" s="17">
         <v>5150.7029999999995</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I57" s="17">
         <v>4190.9799999999996</v>
       </c>
-      <c r="J56" s="17">
+      <c r="J57" s="17">
         <v>2711.4180000000001</v>
       </c>
-      <c r="K56" s="17">
+      <c r="K57" s="17">
         <v>2026.221</v>
       </c>
-      <c r="L56" s="17">
+      <c r="L57" s="17">
         <v>2834.6559999999999</v>
       </c>
-      <c r="M56" s="17">
+      <c r="M57" s="17">
         <v>1752.0440000000001</v>
       </c>
-      <c r="N56" s="17">
+      <c r="N57" s="17">
         <v>919.93</v>
       </c>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17">
+      <c r="O57" s="17"/>
+      <c r="P57" s="17">
         <v>4152.1220000000194</v>
       </c>
     </row>
-    <row r="57" spans="2:16" hidden="1">
-      <c r="B57" s="10">
+    <row r="58" spans="2:16" hidden="1">
+      <c r="B58" s="10">
         <v>2021</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C58" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="12">
-        <f t="shared" si="4"/>
+      <c r="D58" s="12">
+        <f t="shared" si="17"/>
         <v>97804.682000000015</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E58" s="13">
         <v>49200.950000000004</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F58" s="13">
         <v>18513.925000000003</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G58" s="13">
         <v>5394.5290000000005</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H58" s="13">
         <v>5438.8379999999997</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I58" s="13">
         <v>4517.6980000000003</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J58" s="13">
         <v>2272.91</v>
       </c>
-      <c r="K57" s="13">
+      <c r="K58" s="13">
         <v>2051.056</v>
       </c>
-      <c r="L57" s="13">
+      <c r="L58" s="13">
         <v>2950.4749999999999</v>
       </c>
-      <c r="M57" s="13">
+      <c r="M58" s="13">
         <v>1771.0360000000001</v>
       </c>
-      <c r="N57" s="13">
+      <c r="N58" s="13">
         <v>1067.4470000000001</v>
       </c>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13">
+      <c r="O58" s="13"/>
+      <c r="P58" s="13">
         <v>4625.8179999999957</v>
       </c>
     </row>
-    <row r="58" spans="2:16" hidden="1">
-      <c r="B58" s="14">
+    <row r="59" spans="2:16" hidden="1">
+      <c r="B59" s="14">
         <v>2021</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C59" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="16">
-        <f t="shared" si="4"/>
+      <c r="D59" s="16">
+        <f t="shared" si="17"/>
         <v>83857.271000000022</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E59" s="17">
         <v>42287.700000000004</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F59" s="17">
         <v>15583.737000000001</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G59" s="17">
         <v>4140.5389999999998</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H59" s="17">
         <v>4531.4269999999997</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I59" s="17">
         <v>3863.7919999999995</v>
       </c>
-      <c r="J58" s="17">
+      <c r="J59" s="17">
         <v>2548.5929999999998</v>
       </c>
-      <c r="K58" s="17">
+      <c r="K59" s="17">
         <v>1805.3239999999998</v>
       </c>
-      <c r="L58" s="17">
+      <c r="L59" s="17">
         <v>2596.5039999999999</v>
       </c>
-      <c r="M58" s="17">
+      <c r="M59" s="17">
         <v>1517.7179999999998</v>
       </c>
-      <c r="N58" s="17">
+      <c r="N59" s="17">
         <v>866.53800000000001</v>
       </c>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17">
+      <c r="O59" s="17"/>
+      <c r="P59" s="17">
         <v>4115.3990000000395</v>
       </c>
     </row>
-    <row r="59" spans="2:16" hidden="1">
-      <c r="B59" s="18">
+    <row r="60" spans="2:16" hidden="1">
+      <c r="B60" s="18">
         <v>2021</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C60" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D59" s="20">
-        <f t="shared" si="4"/>
+      <c r="D60" s="20">
+        <f t="shared" si="17"/>
         <v>88197.219999999987</v>
       </c>
-      <c r="E59" s="21">
+      <c r="E60" s="21">
         <v>43928.770000000004</v>
       </c>
-      <c r="F59" s="21">
+      <c r="F60" s="21">
         <v>16300.849999999997</v>
       </c>
-      <c r="G59" s="21">
+      <c r="G60" s="21">
         <v>4840.8860000000004</v>
       </c>
-      <c r="H59" s="21">
+      <c r="H60" s="21">
         <v>4794.0879999999997</v>
       </c>
-      <c r="I59" s="21">
+      <c r="I60" s="21">
         <v>4785.6239999999998</v>
       </c>
-      <c r="J59" s="21">
+      <c r="J60" s="21">
         <v>2064.8710000000001</v>
       </c>
-      <c r="K59" s="21">
+      <c r="K60" s="21">
         <v>2034.952</v>
       </c>
-      <c r="L59" s="21">
+      <c r="L60" s="21">
         <v>2453.6999999999998</v>
       </c>
-      <c r="M59" s="21">
+      <c r="M60" s="21">
         <v>1745.922</v>
       </c>
-      <c r="N59" s="21">
+      <c r="N60" s="21">
         <v>918.11799999999994</v>
       </c>
-      <c r="O59" s="21"/>
-      <c r="P59" s="21">
+      <c r="O60" s="21"/>
+      <c r="P60" s="21">
         <v>4329.4389999999794</v>
       </c>
     </row>
-    <row r="60" spans="2:16" hidden="1">
-      <c r="B60" s="22">
+    <row r="61" spans="2:16" hidden="1">
+      <c r="B61" s="22">
         <v>2020</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C61" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="24">
-        <f t="shared" si="4"/>
+      <c r="D61" s="24">
+        <f t="shared" si="17"/>
         <v>94144.191000000021</v>
       </c>
-      <c r="E60" s="25">
+      <c r="E61" s="25">
         <v>46330.03</v>
       </c>
-      <c r="F60" s="25">
+      <c r="F61" s="25">
         <v>15973.973</v>
       </c>
-      <c r="G60" s="25">
+      <c r="G61" s="25">
         <v>5450.8789999999999</v>
       </c>
-      <c r="H60" s="25">
+      <c r="H61" s="25">
         <v>5488.8649999999998</v>
       </c>
-      <c r="I60" s="25">
+      <c r="I61" s="25">
         <v>5262.348</v>
       </c>
-      <c r="J60" s="25">
+      <c r="J61" s="25">
         <v>1922.278</v>
       </c>
-      <c r="K60" s="25">
+      <c r="K61" s="25">
         <v>2610.1819999999998</v>
       </c>
-      <c r="L60" s="25">
+      <c r="L61" s="25">
         <v>3093.9090000000001</v>
       </c>
-      <c r="M60" s="25">
+      <c r="M61" s="25">
         <v>1870.7370000000001</v>
       </c>
-      <c r="N60" s="25">
+      <c r="N61" s="25">
         <v>1267.98</v>
       </c>
-      <c r="O60" s="25"/>
-      <c r="P60" s="25">
+      <c r="O61" s="25"/>
+      <c r="P61" s="25">
         <v>4873.010000000022</v>
       </c>
     </row>
-    <row r="61" spans="2:16" hidden="1">
-      <c r="B61" s="10">
+    <row r="62" spans="2:16" hidden="1">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C62" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="12">
-        <f t="shared" si="4"/>
+      <c r="D62" s="12">
+        <f t="shared" si="17"/>
         <v>91473.85500000001</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E62" s="13">
         <v>47533.36</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F62" s="13">
         <v>14400.682000000001</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G62" s="13">
         <v>5383.1379999999999</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H62" s="13">
         <v>4958.3670000000002</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I62" s="13">
         <v>4752.6779999999999</v>
       </c>
-      <c r="J61" s="13">
+      <c r="J62" s="13">
         <v>1515.828</v>
       </c>
-      <c r="K61" s="13">
+      <c r="K62" s="13">
         <v>2284.3830000000003</v>
       </c>
-      <c r="L61" s="13">
+      <c r="L62" s="13">
         <v>3066.7379999999998</v>
       </c>
-      <c r="M61" s="13">
+      <c r="M62" s="13">
         <v>1683.905</v>
       </c>
-      <c r="N61" s="13">
+      <c r="N62" s="13">
         <v>1051.925</v>
       </c>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13">
+      <c r="O62" s="13"/>
+      <c r="P62" s="13">
         <v>4842.8510000000106</v>
       </c>
     </row>
-    <row r="62" spans="2:16" hidden="1">
-      <c r="B62" s="14">
+    <row r="63" spans="2:16" hidden="1">
+      <c r="B63" s="14">
         <v>2020</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C63" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D62" s="16">
-        <f t="shared" si="4"/>
+      <c r="D63" s="16">
+        <f t="shared" si="17"/>
         <v>91662.356999999931</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E63" s="17">
         <v>46625.39</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F63" s="17">
         <v>16134.585999999999</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G63" s="17">
         <v>5479.9110000000001</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H63" s="17">
         <v>4639.0290000000005</v>
       </c>
-      <c r="I62" s="17">
+      <c r="I63" s="17">
         <v>5349.1270000000004</v>
       </c>
-      <c r="J62" s="17">
+      <c r="J63" s="17">
         <v>1260.509</v>
       </c>
-      <c r="K62" s="17">
+      <c r="K63" s="17">
         <v>2199.1950000000002</v>
       </c>
-      <c r="L62" s="17">
+      <c r="L63" s="17">
         <v>3053.64</v>
       </c>
-      <c r="M62" s="17">
+      <c r="M63" s="17">
         <v>1739.095</v>
       </c>
-      <c r="N62" s="17">
+      <c r="N63" s="17">
         <v>943.76300000000003</v>
       </c>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17">
+      <c r="O63" s="17"/>
+      <c r="P63" s="17">
         <v>4238.11199999993</v>
       </c>
     </row>
-    <row r="63" spans="2:16" hidden="1">
-      <c r="B63" s="10">
+    <row r="64" spans="2:16" hidden="1">
+      <c r="B64" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C64" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D63" s="12">
-        <f t="shared" si="4"/>
+      <c r="D64" s="12">
+        <f t="shared" si="17"/>
         <v>77051.781000000032</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E64" s="13">
         <v>38240.839999999997</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F64" s="13">
         <v>14171.219000000001</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G64" s="13">
         <v>4407.3809999999994</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H64" s="13">
         <v>3752.172</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I64" s="13">
         <v>4552.4279999999999</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J64" s="13">
         <v>1079.7190000000001</v>
       </c>
-      <c r="K63" s="13">
+      <c r="K64" s="13">
         <v>1834.0129999999999</v>
       </c>
-      <c r="L63" s="13">
+      <c r="L64" s="13">
         <v>2717.5839999999998</v>
       </c>
-      <c r="M63" s="13">
+      <c r="M64" s="13">
         <v>1835.0609999999999</v>
       </c>
-      <c r="N63" s="13">
+      <c r="N64" s="13">
         <v>788.73500000000001</v>
       </c>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13">
+      <c r="O64" s="13"/>
+      <c r="P64" s="13">
         <v>3672.629000000029</v>
       </c>
     </row>
-    <row r="64" spans="2:16" hidden="1">
-      <c r="B64" s="14">
+    <row r="65" spans="2:16" hidden="1">
+      <c r="B65" s="14">
         <v>2020</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C65" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="16">
-        <f t="shared" si="4"/>
+      <c r="D65" s="16">
+        <f t="shared" si="17"/>
         <v>73243.596999999965</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E65" s="17">
         <v>37945.979999999996</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F65" s="17">
         <v>12325.865999999998</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G65" s="17">
         <v>3948.0789999999997</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H65" s="17">
         <v>3392.7820000000002</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I65" s="17">
         <v>4478.6279999999997</v>
       </c>
-      <c r="J64" s="17">
+      <c r="J65" s="17">
         <v>1011.65</v>
       </c>
-      <c r="K64" s="17">
+      <c r="K65" s="17">
         <v>1714.8619999999999</v>
       </c>
-      <c r="L64" s="17">
+      <c r="L65" s="17">
         <v>2516.4409999999998</v>
       </c>
-      <c r="M64" s="17">
+      <c r="M65" s="17">
         <v>1831.6880000000001</v>
       </c>
-      <c r="N64" s="17">
+      <c r="N65" s="17">
         <v>782.10199999999998</v>
       </c>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17">
+      <c r="O65" s="17"/>
+      <c r="P65" s="17">
         <v>3295.5189999999848</v>
       </c>
     </row>
-    <row r="65" spans="2:16" hidden="1">
-      <c r="B65" s="10">
+    <row r="66" spans="2:16" hidden="1">
+      <c r="B66" s="10">
         <v>2020</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C66" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="12">
-        <f t="shared" si="4"/>
+      <c r="D66" s="12">
+        <f t="shared" si="17"/>
         <v>70714.571000000011</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E66" s="13">
         <v>34839.78</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F66" s="13">
         <v>13321.585999999999</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G66" s="13">
         <v>3950.6219999999998</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H66" s="13">
         <v>3725.6490000000003</v>
       </c>
-      <c r="I65" s="13">
+      <c r="I66" s="13">
         <v>3987.5020000000004</v>
       </c>
-      <c r="J65" s="13">
+      <c r="J66" s="13">
         <v>936.46399999999994</v>
       </c>
-      <c r="K65" s="13">
+      <c r="K66" s="13">
         <v>1692.3649999999998</v>
       </c>
-      <c r="L65" s="13">
+      <c r="L66" s="13">
         <v>2403.9839999999999</v>
       </c>
-      <c r="M65" s="13">
+      <c r="M66" s="13">
         <v>1775.4699999999998</v>
       </c>
-      <c r="N65" s="13">
+      <c r="N66" s="13">
         <v>840.952</v>
       </c>
-      <c r="O65" s="13"/>
-      <c r="P65" s="13">
+      <c r="O66" s="13"/>
+      <c r="P66" s="13">
         <v>3240.1970000000092</v>
       </c>
     </row>
-    <row r="66" spans="2:16" hidden="1">
-      <c r="B66" s="14">
+    <row r="67" spans="2:16" hidden="1">
+      <c r="B67" s="14">
         <v>2020</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C67" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="16">
-        <f t="shared" si="4"/>
+      <c r="D67" s="16">
+        <f t="shared" si="17"/>
         <v>66590.821000000025</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E67" s="17">
         <v>33996.18</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F67" s="17">
         <v>13478.243999999999</v>
       </c>
-      <c r="G66" s="17">
+      <c r="G67" s="17">
         <v>3545.3679999999999</v>
       </c>
-      <c r="H66" s="17">
+      <c r="H67" s="17">
         <v>3224.4189999999999</v>
       </c>
-      <c r="I66" s="17">
+      <c r="I67" s="17">
         <v>3231.3440000000001</v>
       </c>
-      <c r="J66" s="17">
+      <c r="J67" s="17">
         <v>771.17700000000002</v>
       </c>
-      <c r="K66" s="17">
+      <c r="K67" s="17">
         <v>1478.3190000000002</v>
       </c>
-      <c r="L66" s="17">
+      <c r="L67" s="17">
         <v>1821.6129999999998</v>
       </c>
-      <c r="M66" s="17">
+      <c r="M67" s="17">
         <v>1594.6689999999999</v>
       </c>
-      <c r="N66" s="17">
+      <c r="N67" s="17">
         <v>720.39199999999994</v>
       </c>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17">
+      <c r="O67" s="17"/>
+      <c r="P67" s="17">
         <v>2729.0960000000127</v>
       </c>
     </row>
-    <row r="67" spans="2:16" hidden="1">
-      <c r="B67" s="10">
+    <row r="68" spans="2:16" hidden="1">
+      <c r="B68" s="10">
         <v>2020</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C68" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="12">
-        <f t="shared" si="4"/>
+      <c r="D68" s="12">
+        <f t="shared" si="17"/>
         <v>58590.57</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E68" s="13">
         <v>31229.68</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F68" s="13">
         <v>11236.094000000001</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G68" s="13">
         <v>2744.201</v>
       </c>
-      <c r="H67" s="13">
+      <c r="H68" s="13">
         <v>2746.701</v>
       </c>
-      <c r="I67" s="13">
+      <c r="I68" s="13">
         <v>2540.2469999999998</v>
       </c>
-      <c r="J67" s="13">
+      <c r="J68" s="13">
         <v>612.84699999999998</v>
       </c>
-      <c r="K67" s="13">
+      <c r="K68" s="13">
         <v>1623.547</v>
       </c>
-      <c r="L67" s="13">
+      <c r="L68" s="13">
         <v>1605.3789999999999</v>
       </c>
-      <c r="M67" s="13">
+      <c r="M68" s="13">
         <v>1482.9659999999999</v>
       </c>
-      <c r="N67" s="13">
+      <c r="N68" s="13">
         <v>671.48299999999995</v>
       </c>
-      <c r="O67" s="13"/>
-      <c r="P67" s="13">
+      <c r="O68" s="13"/>
+      <c r="P68" s="13">
         <v>2097.424999999987</v>
       </c>
     </row>
-    <row r="68" spans="2:16" hidden="1">
-      <c r="B68" s="14">
+    <row r="69" spans="2:16" hidden="1">
+      <c r="B69" s="14">
         <v>2020</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C69" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D68" s="16">
-        <f t="shared" si="4"/>
+      <c r="D69" s="16">
+        <f t="shared" si="17"/>
         <v>51124.868999999999</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E69" s="17">
         <v>25419.52</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F69" s="17">
         <v>11565.216</v>
       </c>
-      <c r="G68" s="17">
+      <c r="G69" s="17">
         <v>2651.4159999999997</v>
       </c>
-      <c r="H68" s="17">
+      <c r="H69" s="17">
         <v>2693.4929999999999</v>
       </c>
-      <c r="I68" s="17">
+      <c r="I69" s="17">
         <v>2126.7669999999998</v>
       </c>
-      <c r="J68" s="17">
+      <c r="J69" s="17">
         <v>551.59</v>
       </c>
-      <c r="K68" s="17">
+      <c r="K69" s="17">
         <v>1334.1680000000001</v>
       </c>
-      <c r="L68" s="17">
+      <c r="L69" s="17">
         <v>1156.8400000000001</v>
       </c>
-      <c r="M68" s="17">
+      <c r="M69" s="17">
         <v>1103.2260000000001</v>
       </c>
-      <c r="N68" s="17">
+      <c r="N69" s="17">
         <v>532.67700000000002</v>
       </c>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17">
+      <c r="O69" s="17"/>
+      <c r="P69" s="17">
         <v>1989.9559999999994</v>
       </c>
     </row>
-    <row r="69" spans="2:16" hidden="1">
-      <c r="B69" s="10">
+    <row r="70" spans="2:16" hidden="1">
+      <c r="B70" s="10">
         <v>2020</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C70" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="12">
-        <f t="shared" si="4"/>
+      <c r="D70" s="12">
+        <f t="shared" si="17"/>
         <v>79368.52999999997</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E70" s="13">
         <v>42274.520000000004</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F70" s="13">
         <v>14537.343000000001</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G70" s="13">
         <v>4065.893</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H70" s="13">
         <v>3597.8379999999997</v>
       </c>
-      <c r="I69" s="13">
+      <c r="I70" s="13">
         <v>2907.587</v>
       </c>
-      <c r="J69" s="13">
+      <c r="J70" s="13">
         <v>2248.8019999999997</v>
       </c>
-      <c r="K69" s="13">
+      <c r="K70" s="13">
         <v>1787.81</v>
       </c>
-      <c r="L69" s="13">
+      <c r="L70" s="13">
         <v>2068.8739999999998</v>
       </c>
-      <c r="M69" s="13">
+      <c r="M70" s="13">
         <v>1532.5450000000001</v>
       </c>
-      <c r="N69" s="13">
+      <c r="N70" s="13">
         <v>820.50299999999993</v>
       </c>
-      <c r="O69" s="13"/>
-      <c r="P69" s="13">
+      <c r="O70" s="13"/>
+      <c r="P70" s="13">
         <v>3526.8149999999705</v>
       </c>
     </row>
-    <row r="70" spans="2:16" hidden="1">
-      <c r="B70" s="14">
+    <row r="71" spans="2:16" hidden="1">
+      <c r="B71" s="14">
         <v>2020</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C71" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D70" s="16">
-        <f t="shared" si="4"/>
+      <c r="D71" s="16">
+        <f t="shared" si="17"/>
         <v>75908.510999999955</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E71" s="17">
         <v>42089.659999999996</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F71" s="17">
         <v>11466.815999999999</v>
       </c>
-      <c r="G70" s="17">
+      <c r="G71" s="17">
         <v>3486.42</v>
       </c>
-      <c r="H70" s="17">
+      <c r="H71" s="17">
         <v>3309.0249999999996</v>
       </c>
-      <c r="I70" s="17">
+      <c r="I71" s="17">
         <v>2651.6840000000002</v>
       </c>
-      <c r="J70" s="17">
+      <c r="J71" s="17">
         <v>2759.643</v>
       </c>
-      <c r="K70" s="17">
+      <c r="K71" s="17">
         <v>1653.057</v>
       </c>
-      <c r="L70" s="17">
+      <c r="L71" s="17">
         <v>2319.8409999999999</v>
       </c>
-      <c r="M70" s="17">
+      <c r="M71" s="17">
         <v>1687.9380000000001</v>
       </c>
-      <c r="N70" s="17">
+      <c r="N71" s="17">
         <v>812.35799999999995</v>
       </c>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17">
+      <c r="O71" s="17"/>
+      <c r="P71" s="17">
         <v>3672.068999999979</v>
       </c>
     </row>
-    <row r="71" spans="2:16" hidden="1">
-      <c r="B71" s="18">
+    <row r="72" spans="2:16" hidden="1">
+      <c r="B72" s="18">
         <v>2020</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C72" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="20">
-        <f t="shared" si="4"/>
+      <c r="D72" s="20">
+        <f t="shared" si="17"/>
         <v>80828.273000000045</v>
       </c>
-      <c r="E71" s="21">
+      <c r="E72" s="21">
         <v>43200.08</v>
       </c>
-      <c r="F71" s="21">
+      <c r="F72" s="21">
         <v>12981.727999999999</v>
       </c>
-      <c r="G71" s="21">
+      <c r="G72" s="21">
         <v>3924.5250000000001</v>
       </c>
-      <c r="H71" s="21">
+      <c r="H72" s="21">
         <v>3616.1279999999997</v>
       </c>
-      <c r="I71" s="21">
+      <c r="I72" s="21">
         <v>2992.5469999999996</v>
       </c>
-      <c r="J71" s="21">
+      <c r="J72" s="21">
         <v>3044.2960000000003</v>
       </c>
-      <c r="K71" s="21">
+      <c r="K72" s="21">
         <v>1792.2229999999997</v>
       </c>
-      <c r="L71" s="21">
+      <c r="L72" s="21">
         <v>2507.0810000000001</v>
       </c>
-      <c r="M71" s="21">
+      <c r="M72" s="21">
         <v>1937.0650000000001</v>
       </c>
-      <c r="N71" s="21">
+      <c r="N72" s="21">
         <v>862.8069999999999</v>
       </c>
-      <c r="O71" s="21"/>
-      <c r="P71" s="21">
+      <c r="O72" s="21"/>
+      <c r="P72" s="21">
         <v>3969.7930000000383</v>
       </c>
     </row>
-    <row r="72" spans="2:16" hidden="1">
-      <c r="B72" s="22">
+    <row r="73" spans="2:16" hidden="1">
+      <c r="B73" s="22">
         <v>2019</v>
       </c>
-      <c r="C72" s="23" t="s">
+      <c r="C73" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="24">
-        <f t="shared" si="4"/>
+      <c r="D73" s="24">
+        <f t="shared" si="17"/>
         <v>83400</v>
       </c>
-      <c r="E72" s="25">
+      <c r="E73" s="25">
         <v>48000</v>
       </c>
-      <c r="F72" s="25">
+      <c r="F73" s="25">
         <v>14500</v>
       </c>
-      <c r="G72" s="25">
+      <c r="G73" s="25">
         <v>3700</v>
       </c>
-      <c r="H72" s="25">
+      <c r="H73" s="25">
         <v>2900</v>
       </c>
-      <c r="I72" s="25">
+      <c r="I73" s="25">
         <v>3100</v>
       </c>
-      <c r="J72" s="25">
+      <c r="J73" s="25">
         <v>1900</v>
       </c>
-      <c r="K72" s="25">
+      <c r="K73" s="25">
         <v>3700</v>
       </c>
-      <c r="L72" s="25">
+      <c r="L73" s="25">
         <v>1900</v>
       </c>
-      <c r="M72" s="25">
+      <c r="M73" s="25">
         <v>2600</v>
       </c>
-      <c r="N72" s="25">
+      <c r="N73" s="25">
         <v>1100</v>
       </c>
-      <c r="O72" s="25"/>
-      <c r="P72" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" hidden="1">
-      <c r="B73" s="10">
+      <c r="O73" s="25"/>
+      <c r="P73" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" hidden="1">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C74" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D73" s="12">
-        <f t="shared" si="4"/>
+      <c r="D74" s="12">
+        <f t="shared" si="17"/>
         <v>83400</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E74" s="13">
         <v>46600</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F74" s="13">
         <v>14700</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G74" s="13">
         <v>4300</v>
       </c>
-      <c r="H73" s="13">
+      <c r="H74" s="13">
         <v>3100</v>
       </c>
-      <c r="I73" s="13">
+      <c r="I74" s="13">
         <v>3100</v>
       </c>
-      <c r="J73" s="13">
+      <c r="J74" s="13">
         <v>2100</v>
       </c>
-      <c r="K73" s="13">
+      <c r="K74" s="13">
         <v>3900</v>
       </c>
-      <c r="L73" s="13">
+      <c r="L74" s="13">
         <v>1800</v>
       </c>
-      <c r="M73" s="13">
+      <c r="M74" s="13">
         <v>2800</v>
       </c>
-      <c r="N73" s="13">
+      <c r="N74" s="13">
         <v>1000</v>
       </c>
-      <c r="O73" s="13"/>
-      <c r="P73" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:16" hidden="1">
-      <c r="B74" s="14">
+      <c r="O74" s="13"/>
+      <c r="P74" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" hidden="1">
+      <c r="B75" s="14">
         <v>2019</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C75" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="16">
-        <f t="shared" si="4"/>
+      <c r="D75" s="16">
+        <f t="shared" si="17"/>
         <v>90200</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E75" s="17">
         <v>52200</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F75" s="17">
         <v>14900</v>
       </c>
-      <c r="G74" s="17">
+      <c r="G75" s="17">
         <v>4600</v>
       </c>
-      <c r="H74" s="17">
+      <c r="H75" s="17">
         <v>3400</v>
       </c>
-      <c r="I74" s="17">
+      <c r="I75" s="17">
         <v>2700</v>
       </c>
-      <c r="J74" s="17">
+      <c r="J75" s="17">
         <v>2200</v>
       </c>
-      <c r="K74" s="17">
+      <c r="K75" s="17">
         <v>4200</v>
       </c>
-      <c r="L74" s="17">
+      <c r="L75" s="17">
         <v>2000</v>
       </c>
-      <c r="M74" s="17">
+      <c r="M75" s="17">
         <v>3000</v>
       </c>
-      <c r="N74" s="17">
+      <c r="N75" s="17">
         <v>1000</v>
       </c>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:16" hidden="1">
-      <c r="B75" s="10">
+      <c r="O75" s="17"/>
+      <c r="P75" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" hidden="1">
+      <c r="B76" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C76" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D75" s="12">
-        <f t="shared" si="4"/>
+      <c r="D76" s="12">
+        <f t="shared" si="17"/>
         <v>78300</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E76" s="13">
         <v>46000</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F76" s="13">
         <v>12400</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G76" s="13">
         <v>4300</v>
       </c>
-      <c r="H75" s="13">
+      <c r="H76" s="13">
         <v>3000</v>
       </c>
-      <c r="I75" s="13">
+      <c r="I76" s="13">
         <v>2200</v>
       </c>
-      <c r="J75" s="13">
+      <c r="J76" s="13">
         <v>1800</v>
       </c>
-      <c r="K75" s="13">
+      <c r="K76" s="13">
         <v>3600</v>
       </c>
-      <c r="L75" s="13">
+      <c r="L76" s="13">
         <v>1700</v>
       </c>
-      <c r="M75" s="13">
+      <c r="M76" s="13">
         <v>2500</v>
       </c>
-      <c r="N75" s="13">
+      <c r="N76" s="13">
         <v>800</v>
       </c>
-      <c r="O75" s="13"/>
-      <c r="P75" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:16" hidden="1">
-      <c r="B76" s="14">
+      <c r="O76" s="13"/>
+      <c r="P76" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" hidden="1">
+      <c r="B77" s="14">
         <v>2019</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C77" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="16">
-        <f t="shared" si="4"/>
+      <c r="D77" s="16">
+        <f t="shared" si="17"/>
         <v>80500</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E77" s="17">
         <v>46500</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F77" s="17">
         <v>12500</v>
       </c>
-      <c r="G76" s="17">
+      <c r="G77" s="17">
         <v>4300</v>
       </c>
-      <c r="H76" s="17">
+      <c r="H77" s="17">
         <v>3400</v>
       </c>
-      <c r="I76" s="17">
+      <c r="I77" s="17">
         <v>2500</v>
       </c>
-      <c r="J76" s="17">
+      <c r="J77" s="17">
         <v>2100</v>
       </c>
-      <c r="K76" s="17">
+      <c r="K77" s="17">
         <v>4100</v>
       </c>
-      <c r="L76" s="17">
+      <c r="L77" s="17">
         <v>1800</v>
       </c>
-      <c r="M76" s="17">
+      <c r="M77" s="17">
         <v>2400</v>
       </c>
-      <c r="N76" s="17">
+      <c r="N77" s="17">
         <v>900</v>
       </c>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" hidden="1">
-      <c r="B77" s="10">
+      <c r="O77" s="17"/>
+      <c r="P77" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" hidden="1">
+      <c r="B78" s="10">
         <v>2019</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C78" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D77" s="12">
-        <f t="shared" si="4"/>
+      <c r="D78" s="12">
+        <f t="shared" si="17"/>
         <v>81500</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E78" s="13">
         <v>46600</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F78" s="13">
         <v>13600</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G78" s="13">
         <v>4100</v>
       </c>
-      <c r="H77" s="13">
+      <c r="H78" s="13">
         <v>3000</v>
       </c>
-      <c r="I77" s="13">
+      <c r="I78" s="13">
         <v>2500</v>
       </c>
-      <c r="J77" s="13">
+      <c r="J78" s="13">
         <v>2000</v>
       </c>
-      <c r="K77" s="13">
+      <c r="K78" s="13">
         <v>4200</v>
       </c>
-      <c r="L77" s="13">
+      <c r="L78" s="13">
         <v>2000</v>
       </c>
-      <c r="M77" s="13">
+      <c r="M78" s="13">
         <v>2600</v>
       </c>
-      <c r="N77" s="13">
+      <c r="N78" s="13">
         <v>900</v>
       </c>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:16" hidden="1">
-      <c r="B78" s="14">
+      <c r="O78" s="13"/>
+      <c r="P78" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" hidden="1">
+      <c r="B79" s="14">
         <v>2019</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C79" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="16">
-        <f t="shared" si="4"/>
+      <c r="D79" s="16">
+        <f t="shared" si="17"/>
         <v>78600</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E79" s="17">
         <v>44200</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F79" s="17">
         <v>13300</v>
       </c>
-      <c r="G78" s="17">
+      <c r="G79" s="17">
         <v>4300</v>
       </c>
-      <c r="H78" s="17">
+      <c r="H79" s="17">
         <v>2900</v>
       </c>
-      <c r="I78" s="17">
+      <c r="I79" s="17">
         <v>2400</v>
       </c>
-      <c r="J78" s="17">
+      <c r="J79" s="17">
         <v>2000</v>
       </c>
-      <c r="K78" s="17">
+      <c r="K79" s="17">
         <v>4300</v>
       </c>
-      <c r="L78" s="17">
+      <c r="L79" s="17">
         <v>2000</v>
       </c>
-      <c r="M78" s="17">
+      <c r="M79" s="17">
         <v>2400</v>
       </c>
-      <c r="N78" s="17">
+      <c r="N79" s="17">
         <v>800</v>
       </c>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:16" hidden="1">
-      <c r="B79" s="10">
+      <c r="O79" s="17"/>
+      <c r="P79" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" hidden="1">
+      <c r="B80" s="10">
         <v>2019</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C80" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D79" s="12">
-        <f t="shared" si="4"/>
+      <c r="D80" s="12">
+        <f t="shared" si="17"/>
         <v>81100</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E80" s="13">
         <v>45800</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F80" s="13">
         <v>13000</v>
       </c>
-      <c r="G79" s="13">
+      <c r="G80" s="13">
         <v>4600</v>
       </c>
-      <c r="H79" s="13">
+      <c r="H80" s="13">
         <v>3000</v>
       </c>
-      <c r="I79" s="13">
+      <c r="I80" s="13">
         <v>2600</v>
       </c>
-      <c r="J79" s="13">
+      <c r="J80" s="13">
         <v>2100</v>
       </c>
-      <c r="K79" s="13">
+      <c r="K80" s="13">
         <v>4600</v>
       </c>
-      <c r="L79" s="13">
+      <c r="L80" s="13">
         <v>1900</v>
       </c>
-      <c r="M79" s="13">
+      <c r="M80" s="13">
         <v>2600</v>
       </c>
-      <c r="N79" s="13">
+      <c r="N80" s="13">
         <v>900</v>
       </c>
-      <c r="O79" s="13"/>
-      <c r="P79" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:16" hidden="1">
-      <c r="B80" s="14">
+      <c r="O80" s="13"/>
+      <c r="P80" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" hidden="1">
+      <c r="B81" s="14">
         <v>2019</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C81" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D80" s="16">
-        <f t="shared" si="4"/>
+      <c r="D81" s="16">
+        <f t="shared" si="17"/>
         <v>79300</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E81" s="17">
         <v>45200</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F81" s="17">
         <v>12800</v>
       </c>
-      <c r="G80" s="17">
+      <c r="G81" s="17">
         <v>4600</v>
       </c>
-      <c r="H80" s="17">
+      <c r="H81" s="17">
         <v>2500</v>
       </c>
-      <c r="I80" s="17">
+      <c r="I81" s="17">
         <v>2600</v>
       </c>
-      <c r="J80" s="17">
+      <c r="J81" s="17">
         <v>2100</v>
       </c>
-      <c r="K80" s="17">
+      <c r="K81" s="17">
         <v>4400</v>
       </c>
-      <c r="L80" s="17">
+      <c r="L81" s="17">
         <v>1800</v>
       </c>
-      <c r="M80" s="17">
+      <c r="M81" s="17">
         <v>2500</v>
       </c>
-      <c r="N80" s="17">
+      <c r="N81" s="17">
         <v>800</v>
       </c>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:16" hidden="1">
-      <c r="B81" s="10">
+      <c r="O81" s="17"/>
+      <c r="P81" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16" hidden="1">
+      <c r="B82" s="10">
         <v>2019</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C82" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D81" s="12">
-        <f t="shared" si="4"/>
+      <c r="D82" s="12">
+        <f t="shared" si="17"/>
         <v>86500</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E82" s="13">
         <v>49900</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F82" s="13">
         <v>14500</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G82" s="13">
         <v>4300</v>
       </c>
-      <c r="H81" s="13">
+      <c r="H82" s="13">
         <v>3000</v>
       </c>
-      <c r="I81" s="13">
+      <c r="I82" s="13">
         <v>2700</v>
       </c>
-      <c r="J81" s="13">
+      <c r="J82" s="13">
         <v>2000</v>
       </c>
-      <c r="K81" s="13">
+      <c r="K82" s="13">
         <v>5000</v>
       </c>
-      <c r="L81" s="13">
+      <c r="L82" s="13">
         <v>1700</v>
       </c>
-      <c r="M81" s="13">
+      <c r="M82" s="13">
         <v>2500</v>
       </c>
-      <c r="N81" s="13">
+      <c r="N82" s="13">
         <v>900</v>
       </c>
-      <c r="O81" s="13"/>
-      <c r="P81" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:16" hidden="1">
-      <c r="B82" s="14">
+      <c r="O82" s="13"/>
+      <c r="P82" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16" hidden="1">
+      <c r="B83" s="14">
         <v>2019</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C83" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D82" s="16">
-        <f t="shared" si="4"/>
+      <c r="D83" s="16">
+        <f t="shared" si="17"/>
         <v>73300</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E83" s="17">
         <v>41800</v>
       </c>
-      <c r="F82" s="17">
+      <c r="F83" s="17">
         <v>11500</v>
       </c>
-      <c r="G82" s="17">
+      <c r="G83" s="17">
         <v>4200</v>
       </c>
-      <c r="H82" s="17">
+      <c r="H83" s="17">
         <v>2600</v>
       </c>
-      <c r="I82" s="17">
+      <c r="I83" s="17">
         <v>2600</v>
       </c>
-      <c r="J82" s="17">
+      <c r="J83" s="17">
         <v>1900</v>
       </c>
-      <c r="K82" s="17">
+      <c r="K83" s="17">
         <v>4100</v>
       </c>
-      <c r="L82" s="17">
+      <c r="L83" s="17">
         <v>1600</v>
       </c>
-      <c r="M82" s="17">
+      <c r="M83" s="17">
         <v>2300</v>
       </c>
-      <c r="N82" s="17">
+      <c r="N83" s="17">
         <v>700</v>
       </c>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:16" hidden="1">
-      <c r="B83" s="18">
+      <c r="O83" s="17"/>
+      <c r="P83" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" hidden="1">
+      <c r="B84" s="18">
         <v>2019</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C84" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D83" s="20">
-        <f t="shared" ref="D83:D95" si="5">SUM(E83:P83)</f>
+      <c r="D84" s="20">
+        <f t="shared" ref="D84:D96" si="18">SUM(E84:P84)</f>
         <v>79200</v>
       </c>
-      <c r="E83" s="21">
+      <c r="E84" s="21">
         <v>43500</v>
       </c>
-      <c r="F83" s="21">
+      <c r="F84" s="21">
         <v>13500</v>
       </c>
-      <c r="G83" s="21">
+      <c r="G84" s="21">
         <v>4800</v>
       </c>
-      <c r="H83" s="21">
+      <c r="H84" s="21">
         <v>2900</v>
       </c>
-      <c r="I83" s="21">
+      <c r="I84" s="21">
         <v>2600</v>
       </c>
-      <c r="J83" s="21">
+      <c r="J84" s="21">
         <v>1900</v>
       </c>
-      <c r="K83" s="21">
+      <c r="K84" s="21">
         <v>4500</v>
       </c>
-      <c r="L83" s="21">
+      <c r="L84" s="21">
         <v>2100</v>
       </c>
-      <c r="M83" s="21">
+      <c r="M84" s="21">
         <v>2500</v>
       </c>
-      <c r="N83" s="21">
+      <c r="N84" s="21">
         <v>900</v>
       </c>
-      <c r="O83" s="21"/>
-      <c r="P83" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:16" hidden="1">
-      <c r="B84" s="15">
+      <c r="O84" s="21"/>
+      <c r="P84" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" hidden="1">
+      <c r="B85" s="15">
         <v>2018</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C85" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D84" s="16">
-        <f t="shared" si="5"/>
+      <c r="D85" s="16">
+        <f t="shared" si="18"/>
         <v>85600</v>
       </c>
-      <c r="E84" s="17">
+      <c r="E85" s="17">
         <v>48800</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F85" s="17">
         <v>14700</v>
       </c>
-      <c r="G84" s="17">
+      <c r="G85" s="17">
         <v>4500</v>
       </c>
-      <c r="H84" s="17">
+      <c r="H85" s="17">
         <v>3000</v>
       </c>
-      <c r="I84" s="17">
+      <c r="I85" s="17">
         <v>3300</v>
       </c>
-      <c r="J84" s="17">
+      <c r="J85" s="17">
         <v>1900</v>
       </c>
-      <c r="K84" s="17">
+      <c r="K85" s="17">
         <v>4000</v>
       </c>
-      <c r="L84" s="17">
+      <c r="L85" s="17">
         <v>1900</v>
       </c>
-      <c r="M84" s="17">
+      <c r="M85" s="17">
         <v>2600</v>
       </c>
-      <c r="N84" s="17">
+      <c r="N85" s="17">
         <v>900</v>
       </c>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:16" hidden="1">
-      <c r="B85" s="11">
+      <c r="O85" s="17"/>
+      <c r="P85" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" hidden="1">
+      <c r="B86" s="11">
         <v>2018</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C86" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D85" s="12">
-        <f t="shared" si="5"/>
+      <c r="D86" s="12">
+        <f t="shared" si="18"/>
         <v>91600</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E86" s="13">
         <v>52500</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F86" s="13">
         <v>14700</v>
       </c>
-      <c r="G85" s="13">
+      <c r="G86" s="13">
         <v>5200</v>
       </c>
-      <c r="H85" s="13">
+      <c r="H86" s="13">
         <v>3400</v>
       </c>
-      <c r="I85" s="13">
+      <c r="I86" s="13">
         <v>3300</v>
       </c>
-      <c r="J85" s="13">
+      <c r="J86" s="13">
         <v>2300</v>
       </c>
-      <c r="K85" s="13">
+      <c r="K86" s="13">
         <v>4700</v>
       </c>
-      <c r="L85" s="13">
+      <c r="L86" s="13">
         <v>1800</v>
       </c>
-      <c r="M85" s="13">
+      <c r="M86" s="13">
         <v>2800</v>
       </c>
-      <c r="N85" s="13">
+      <c r="N86" s="13">
         <v>900</v>
       </c>
-      <c r="O85" s="13"/>
-      <c r="P85" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:16" hidden="1">
-      <c r="B86" s="15">
+      <c r="O86" s="13"/>
+      <c r="P86" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16" hidden="1">
+      <c r="B87" s="15">
         <v>2018</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C87" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D86" s="16">
-        <f t="shared" si="5"/>
+      <c r="D87" s="16">
+        <f t="shared" si="18"/>
         <v>94100</v>
       </c>
-      <c r="E86" s="17">
+      <c r="E87" s="17">
         <v>53200</v>
       </c>
-      <c r="F86" s="17">
+      <c r="F87" s="17">
         <v>15500</v>
       </c>
-      <c r="G86" s="17">
+      <c r="G87" s="17">
         <v>5800</v>
       </c>
-      <c r="H86" s="17">
+      <c r="H87" s="17">
         <v>3400</v>
       </c>
-      <c r="I86" s="17">
+      <c r="I87" s="17">
         <v>2800</v>
       </c>
-      <c r="J86" s="17">
+      <c r="J87" s="17">
         <v>2200</v>
       </c>
-      <c r="K86" s="17">
+      <c r="K87" s="17">
         <v>5600</v>
       </c>
-      <c r="L86" s="17">
+      <c r="L87" s="17">
         <v>1800</v>
       </c>
-      <c r="M86" s="17">
+      <c r="M87" s="17">
         <v>2900</v>
       </c>
-      <c r="N86" s="17">
+      <c r="N87" s="17">
         <v>900</v>
       </c>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:16" hidden="1">
-      <c r="B87" s="11">
+      <c r="O87" s="17"/>
+      <c r="P87" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" hidden="1">
+      <c r="B88" s="11">
         <v>2018</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C88" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D87" s="12">
-        <f t="shared" si="5"/>
+      <c r="D88" s="12">
+        <f t="shared" si="18"/>
         <v>81400</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E88" s="13">
         <v>46600</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F88" s="13">
         <v>13200</v>
       </c>
-      <c r="G87" s="13">
+      <c r="G88" s="13">
         <v>4800</v>
       </c>
-      <c r="H87" s="13">
+      <c r="H88" s="13">
         <v>2900</v>
       </c>
-      <c r="I87" s="13">
+      <c r="I88" s="13">
         <v>2300</v>
       </c>
-      <c r="J87" s="13">
+      <c r="J88" s="13">
         <v>1900</v>
       </c>
-      <c r="K87" s="13">
+      <c r="K88" s="13">
         <v>5000</v>
       </c>
-      <c r="L87" s="13">
+      <c r="L88" s="13">
         <v>1500</v>
       </c>
-      <c r="M87" s="13">
+      <c r="M88" s="13">
         <v>2400</v>
       </c>
-      <c r="N87" s="13">
+      <c r="N88" s="13">
         <v>800</v>
       </c>
-      <c r="O87" s="13"/>
-      <c r="P87" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:16" hidden="1">
-      <c r="B88" s="15">
+      <c r="O88" s="13"/>
+      <c r="P88" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16" hidden="1">
+      <c r="B89" s="15">
         <v>2018</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C89" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="16">
-        <f t="shared" si="5"/>
+      <c r="D89" s="16">
+        <f t="shared" si="18"/>
         <v>84400</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E89" s="17">
         <v>48300</v>
       </c>
-      <c r="F88" s="17">
+      <c r="F89" s="17">
         <v>12600</v>
       </c>
-      <c r="G88" s="17">
+      <c r="G89" s="17">
         <v>5100</v>
       </c>
-      <c r="H88" s="17">
+      <c r="H89" s="17">
         <v>3500</v>
       </c>
-      <c r="I88" s="17">
+      <c r="I89" s="17">
         <v>2400</v>
       </c>
-      <c r="J88" s="17">
+      <c r="J89" s="17">
         <v>2100</v>
       </c>
-      <c r="K88" s="17">
+      <c r="K89" s="17">
         <v>5700</v>
       </c>
-      <c r="L88" s="17">
+      <c r="L89" s="17">
         <v>1600</v>
       </c>
-      <c r="M88" s="17">
+      <c r="M89" s="17">
         <v>2300</v>
       </c>
-      <c r="N88" s="17">
+      <c r="N89" s="17">
         <v>800</v>
       </c>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:16" hidden="1">
-      <c r="B89" s="11">
+      <c r="O89" s="17"/>
+      <c r="P89" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" hidden="1">
+      <c r="B90" s="11">
         <v>2018</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C90" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D89" s="12">
-        <f t="shared" si="5"/>
+      <c r="D90" s="12">
+        <f t="shared" si="18"/>
         <v>82200</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E90" s="13">
         <v>49400</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F90" s="13">
         <v>12400</v>
       </c>
-      <c r="G89" s="13">
+      <c r="G90" s="13">
         <v>4200</v>
       </c>
-      <c r="H89" s="13">
+      <c r="H90" s="13">
         <v>3100</v>
       </c>
-      <c r="I89" s="13">
+      <c r="I90" s="13">
         <v>2500</v>
       </c>
-      <c r="J89" s="13">
+      <c r="J90" s="13">
         <v>1900</v>
       </c>
-      <c r="K89" s="13">
+      <c r="K90" s="13">
         <v>4100</v>
       </c>
-      <c r="L89" s="13">
+      <c r="L90" s="13">
         <v>1700</v>
       </c>
-      <c r="M89" s="13">
+      <c r="M90" s="13">
         <v>2100</v>
       </c>
-      <c r="N89" s="13">
+      <c r="N90" s="13">
         <v>800</v>
       </c>
-      <c r="O89" s="13"/>
-      <c r="P89" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:16" hidden="1">
-      <c r="B90" s="15">
+      <c r="O90" s="13"/>
+      <c r="P90" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16" hidden="1">
+      <c r="B91" s="15">
         <v>2018</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C91" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="16">
-        <f t="shared" si="5"/>
+      <c r="D91" s="16">
+        <f t="shared" si="18"/>
         <v>86500</v>
       </c>
-      <c r="E90" s="17">
+      <c r="E91" s="17">
         <v>51000</v>
       </c>
-      <c r="F90" s="17">
+      <c r="F91" s="17">
         <v>13400</v>
       </c>
-      <c r="G90" s="17">
+      <c r="G91" s="17">
         <v>4500</v>
       </c>
-      <c r="H90" s="17">
+      <c r="H91" s="17">
         <v>3100</v>
       </c>
-      <c r="I90" s="17">
+      <c r="I91" s="17">
         <v>2600</v>
       </c>
-      <c r="J90" s="17">
+      <c r="J91" s="17">
         <v>2000</v>
       </c>
-      <c r="K90" s="17">
+      <c r="K91" s="17">
         <v>5100</v>
       </c>
-      <c r="L90" s="17">
+      <c r="L91" s="17">
         <v>1800</v>
       </c>
-      <c r="M90" s="17">
+      <c r="M91" s="17">
         <v>2100</v>
       </c>
-      <c r="N90" s="17">
+      <c r="N91" s="17">
         <v>900</v>
       </c>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:16" hidden="1">
-      <c r="B91" s="11">
+      <c r="O91" s="17"/>
+      <c r="P91" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16" hidden="1">
+      <c r="B92" s="11">
         <v>2018</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C92" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D91" s="12">
-        <f t="shared" si="5"/>
+      <c r="D92" s="12">
+        <f t="shared" si="18"/>
         <v>86200</v>
       </c>
-      <c r="E91" s="13">
+      <c r="E92" s="13">
         <v>49700</v>
       </c>
-      <c r="F91" s="13">
+      <c r="F92" s="13">
         <v>13600</v>
       </c>
-      <c r="G91" s="13">
+      <c r="G92" s="13">
         <v>5000</v>
       </c>
-      <c r="H91" s="13">
+      <c r="H92" s="13">
         <v>3200</v>
       </c>
-      <c r="I91" s="13">
+      <c r="I92" s="13">
         <v>2700</v>
       </c>
-      <c r="J91" s="13">
+      <c r="J92" s="13">
         <v>2300</v>
       </c>
-      <c r="K91" s="13">
+      <c r="K92" s="13">
         <v>4700</v>
       </c>
-      <c r="L91" s="13">
+      <c r="L92" s="13">
         <v>1900</v>
       </c>
-      <c r="M91" s="13">
+      <c r="M92" s="13">
         <v>2200</v>
       </c>
-      <c r="N91" s="13">
+      <c r="N92" s="13">
         <v>900</v>
       </c>
-      <c r="O91" s="13"/>
-      <c r="P91" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:16" hidden="1">
-      <c r="B92" s="15">
+      <c r="O92" s="13"/>
+      <c r="P92" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16" hidden="1">
+      <c r="B93" s="15">
         <v>2018</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C93" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D92" s="16">
-        <f t="shared" si="5"/>
+      <c r="D93" s="16">
+        <f t="shared" si="18"/>
         <v>84500</v>
       </c>
-      <c r="E92" s="17">
+      <c r="E93" s="17">
         <v>49400</v>
       </c>
-      <c r="F92" s="17">
+      <c r="F93" s="17">
         <v>13900</v>
       </c>
-      <c r="G92" s="17">
+      <c r="G93" s="17">
         <v>4500</v>
       </c>
-      <c r="H92" s="17">
+      <c r="H93" s="17">
         <v>2800</v>
       </c>
-      <c r="I92" s="17">
+      <c r="I93" s="17">
         <v>2800</v>
       </c>
-      <c r="J92" s="17">
+      <c r="J93" s="17">
         <v>1900</v>
       </c>
-      <c r="K92" s="17">
+      <c r="K93" s="17">
         <v>4600</v>
       </c>
-      <c r="L92" s="17">
+      <c r="L93" s="17">
         <v>1700</v>
       </c>
-      <c r="M92" s="17">
+      <c r="M93" s="17">
         <v>2000</v>
       </c>
-      <c r="N92" s="17">
+      <c r="N93" s="17">
         <v>900</v>
       </c>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:16" hidden="1">
-      <c r="B93" s="11">
+      <c r="O93" s="17"/>
+      <c r="P93" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16" hidden="1">
+      <c r="B94" s="11">
         <v>2018</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C94" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D93" s="12">
-        <f t="shared" si="5"/>
+      <c r="D94" s="12">
+        <f t="shared" si="18"/>
         <v>81600</v>
       </c>
-      <c r="E93" s="13">
+      <c r="E94" s="13">
         <v>46000</v>
       </c>
-      <c r="F93" s="13">
+      <c r="F94" s="13">
         <v>16000</v>
       </c>
-      <c r="G93" s="13">
+      <c r="G94" s="13">
         <v>4400</v>
       </c>
-      <c r="H93" s="13">
+      <c r="H94" s="13">
         <v>2900</v>
       </c>
-      <c r="I93" s="13">
+      <c r="I94" s="13">
         <v>2800</v>
       </c>
-      <c r="J93" s="13">
+      <c r="J94" s="13">
         <v>1800</v>
       </c>
-      <c r="K93" s="13">
+      <c r="K94" s="13">
         <v>3500</v>
       </c>
-      <c r="L93" s="13">
+      <c r="L94" s="13">
         <v>1400</v>
       </c>
-      <c r="M93" s="13">
+      <c r="M94" s="13">
         <v>2000</v>
       </c>
-      <c r="N93" s="13">
+      <c r="N94" s="13">
         <v>800</v>
       </c>
-      <c r="O93" s="13"/>
-      <c r="P93" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:16" hidden="1">
-      <c r="B94" s="15">
+      <c r="O94" s="13"/>
+      <c r="P94" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" hidden="1">
+      <c r="B95" s="15">
         <v>2018</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C95" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D94" s="16">
-        <f t="shared" si="5"/>
+      <c r="D95" s="16">
+        <f t="shared" si="18"/>
         <v>74900</v>
       </c>
-      <c r="E94" s="17">
+      <c r="E95" s="17">
         <v>44100</v>
       </c>
-      <c r="F94" s="17">
+      <c r="F95" s="17">
         <v>12100</v>
       </c>
-      <c r="G94" s="17">
+      <c r="G95" s="17">
         <v>4100</v>
       </c>
-      <c r="H94" s="17">
+      <c r="H95" s="17">
         <v>2700</v>
       </c>
-      <c r="I94" s="17">
+      <c r="I95" s="17">
         <v>2700</v>
       </c>
-      <c r="J94" s="17">
+      <c r="J95" s="17">
         <v>2100</v>
       </c>
-      <c r="K94" s="17">
+      <c r="K95" s="17">
         <v>3000</v>
       </c>
-      <c r="L94" s="17">
+      <c r="L95" s="17">
         <v>1500</v>
       </c>
-      <c r="M94" s="17">
+      <c r="M95" s="17">
         <v>1900</v>
       </c>
-      <c r="N94" s="17">
+      <c r="N95" s="17">
         <v>700</v>
       </c>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:16" hidden="1">
-      <c r="B95" s="11">
+      <c r="O95" s="17"/>
+      <c r="P95" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16" hidden="1">
+      <c r="B96" s="11">
         <v>2018</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C96" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="12">
-        <f t="shared" si="5"/>
+      <c r="D96" s="12">
+        <f t="shared" si="18"/>
         <v>74300</v>
       </c>
-      <c r="E95" s="13">
+      <c r="E96" s="13">
         <v>42800</v>
       </c>
-      <c r="F95" s="13">
+      <c r="F96" s="13">
         <v>12000</v>
       </c>
-      <c r="G95" s="13">
+      <c r="G96" s="13">
         <v>4100</v>
       </c>
-      <c r="H95" s="13">
+      <c r="H96" s="13">
         <v>2500</v>
       </c>
-      <c r="I95" s="13">
+      <c r="I96" s="13">
         <v>2600</v>
       </c>
-      <c r="J95" s="13">
+      <c r="J96" s="13">
         <v>2300</v>
       </c>
-      <c r="K95" s="13">
+      <c r="K96" s="13">
         <v>3300</v>
       </c>
-      <c r="L95" s="13">
+      <c r="L96" s="13">
         <v>2000</v>
       </c>
-      <c r="M95" s="13">
+      <c r="M96" s="13">
         <v>1900</v>
       </c>
-      <c r="N95" s="13">
+      <c r="N96" s="13">
         <v>800</v>
       </c>
-      <c r="O95" s="13"/>
-      <c r="P95" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:16">
-      <c r="B96" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C96" s="26"/>
+      <c r="O96" s="13"/>
+      <c r="P96" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="2:16">
       <c r="B97" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" s="26"/>
+    </row>
+    <row r="98" spans="2:16">
+      <c r="B98" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="27"/>
-      <c r="P97" s="28"/>
-    </row>
-    <row r="98" spans="2:16">
-      <c r="B98" s="27" t="s">
+      <c r="C98" s="27"/>
+      <c r="P98" s="28"/>
+    </row>
+    <row r="99" spans="2:16">
+      <c r="B99" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="2:16">
-      <c r="B99" s="3" t="s">
+    <row r="100" spans="2:16">
+      <c r="B100" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="2:16">
-      <c r="D105" s="26"/>
-    </row>
-    <row r="115" spans="6:16">
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-      <c r="P115" s="2"/>
+    <row r="106" spans="2:16">
+      <c r="D106" s="26"/>
     </row>
     <row r="116" spans="6:16">
       <c r="F116" s="2"/>
@@ -5464,6 +6411,19 @@
       <c r="O126" s="2"/>
       <c r="P126" s="2"/>
     </row>
+    <row r="127" spans="6:16">
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
+      <c r="P127" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E4:P4"/>

--- a/P_aeropuertos_carga.xlsx
+++ b/P_aeropuertos_carga.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2F0440-3A57-44F4-883D-C4DF75BD2D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4659AE-F4E9-431C-8C02-A085A211CC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="34">
   <si>
     <t>Total</t>
   </si>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">  El aeropuerto Felipe Ángeles, Inició operaciones el 21 de marzo de 2022.</t>
   </si>
   <si>
-    <t>Actualización: Julio 2025.</t>
+    <t>Actualización: Agosto 2025.</t>
   </si>
 </sst>
 </file>
@@ -697,8 +697,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:P96" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
-  <autoFilter ref="B5:P96" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:P97" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16">
+  <autoFilter ref="B5:P97" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -952,7 +952,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:AP127"/>
+  <dimension ref="B2:AP128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1059,339 +1059,291 @@
       </c>
     </row>
     <row r="6" spans="2:42">
-      <c r="B6" s="10">
+      <c r="B6" s="14">
         <v>2025</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="16">
+        <f>SUM(E6:P6)</f>
+        <v>103576.04000000001</v>
+      </c>
+      <c r="E6" s="17">
+        <v>20486.71</v>
+      </c>
+      <c r="F6" s="17">
+        <v>15931.624999999998</v>
+      </c>
+      <c r="G6" s="17">
+        <v>6390.33</v>
+      </c>
+      <c r="H6" s="17">
+        <v>5506.6219999999994</v>
+      </c>
+      <c r="I6" s="17">
+        <v>2559.4589999999998</v>
+      </c>
+      <c r="J6" s="17">
+        <v>2622.5740000000001</v>
+      </c>
+      <c r="K6" s="17">
+        <v>2265.578</v>
+      </c>
+      <c r="L6" s="17">
+        <v>3163.0709999999999</v>
+      </c>
+      <c r="M6" s="17">
+        <v>2197.1619999999998</v>
+      </c>
+      <c r="N6" s="17">
+        <v>1345.6870000000001</v>
+      </c>
+      <c r="O6" s="17">
+        <v>35737.775000000001</v>
+      </c>
+      <c r="P6" s="17">
+        <v>5369.4470000000156</v>
+      </c>
+    </row>
+    <row r="7" spans="2:42">
+      <c r="B7" s="10">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="12">
-        <f>SUM(E6:P6)</f>
+      <c r="D7" s="12">
+        <f>SUM(E7:P7)</f>
         <v>108097.11907000002</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E7" s="13">
         <v>21252.21</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F7" s="13">
         <v>16828.947999999997</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G7" s="13">
         <v>6535.1680000000006</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H7" s="13">
         <v>7322.0330000000004</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I7" s="13">
         <v>2763.8230000000003</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J7" s="13">
         <v>2816.596</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K7" s="13">
         <v>2437.1929999999998</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L7" s="13">
         <v>3405.0040000000004</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M7" s="13">
         <v>2215.2529999999997</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N7" s="13">
         <v>1384.9839999999999</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O7" s="13">
         <v>35649.921000000002</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P7" s="13">
         <v>5485.9860700000172</v>
       </c>
-      <c r="AE6" s="3">
-        <f>R6*1000</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="3">
-        <f t="shared" ref="AF6:AN6" si="0">S6*1000</f>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="3">
+      <c r="AE7" s="3">
+        <f>R7*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="3">
+        <f t="shared" ref="AF7:AN7" si="0">S7*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH6" s="3">
+      <c r="AH7" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI6" s="3">
+      <c r="AI7" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ6" s="3">
+      <c r="AJ7" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK6" s="3">
+      <c r="AK7" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL6" s="3">
+      <c r="AL7" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM6" s="3">
+      <c r="AM7" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN6" s="3">
+      <c r="AN7" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO6" s="3">
-        <f>AB6*1000</f>
-        <v>0</v>
-      </c>
-      <c r="AP6" s="3">
-        <f>AC6*1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:42">
-      <c r="B7" s="14">
+      <c r="AO7" s="3">
+        <f>AB7*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="3">
+        <f>AC7*1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:42">
+      <c r="B8" s="14">
         <v>2025</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="16">
-        <f>SUM(E7:P7)</f>
+      <c r="D8" s="16">
+        <f>SUM(E8:P8)</f>
         <v>107138.81816000002</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E8" s="17">
         <v>20433.3</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F8" s="17">
         <v>16625.118000000002</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G8" s="17">
         <v>6596.4850000000006</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H8" s="17">
         <v>6812.4170000000004</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I8" s="17">
         <v>2357.59</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J8" s="17">
         <v>2522.7240000000002</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K8" s="17">
         <v>2703.8649999999998</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L8" s="17">
         <v>3099.7750000000001</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M8" s="17">
         <v>2005.2020000000002</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N8" s="17">
         <v>1281.922</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O8" s="17">
         <v>37708.072</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P8" s="17">
         <v>4992.3481600000205</v>
       </c>
-      <c r="AE7" s="3">
-        <f t="shared" ref="AE7:AE24" si="1">R7*1000</f>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="3">
-        <f t="shared" ref="AF7:AF24" si="2">S7*1000</f>
-        <v>0</v>
-      </c>
-      <c r="AG7" s="3">
-        <f t="shared" ref="AG7:AG24" si="3">T7*1000</f>
-        <v>0</v>
-      </c>
-      <c r="AH7" s="3">
-        <f t="shared" ref="AH7:AH24" si="4">U7*1000</f>
-        <v>0</v>
-      </c>
-      <c r="AI7" s="3">
-        <f t="shared" ref="AI7:AI24" si="5">V7*1000</f>
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="3">
-        <f t="shared" ref="AJ7:AJ24" si="6">W7*1000</f>
-        <v>0</v>
-      </c>
-      <c r="AK7" s="3">
-        <f t="shared" ref="AK7:AK24" si="7">X7*1000</f>
-        <v>0</v>
-      </c>
-      <c r="AL7" s="3">
-        <f t="shared" ref="AL7:AL24" si="8">Y7*1000</f>
-        <v>0</v>
-      </c>
-      <c r="AM7" s="3">
-        <f t="shared" ref="AM7:AM24" si="9">Z7*1000</f>
-        <v>0</v>
-      </c>
-      <c r="AN7" s="3">
-        <f t="shared" ref="AN7:AN24" si="10">AA7*1000</f>
-        <v>0</v>
-      </c>
-      <c r="AO7" s="3">
-        <f t="shared" ref="AO7:AO24" si="11">AB7*1000</f>
-        <v>0</v>
-      </c>
-      <c r="AP7" s="3">
-        <f t="shared" ref="AP7:AP24" si="12">AC7*1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:42">
-      <c r="B8" s="10">
+      <c r="AE8" s="3">
+        <f t="shared" ref="AE8:AE25" si="1">R8*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="3">
+        <f t="shared" ref="AF8:AF25" si="2">S8*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="3">
+        <f t="shared" ref="AG8:AG25" si="3">T8*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="3">
+        <f t="shared" ref="AH8:AH25" si="4">U8*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="3">
+        <f t="shared" ref="AI8:AI25" si="5">V8*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="3">
+        <f t="shared" ref="AJ8:AJ25" si="6">W8*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="3">
+        <f t="shared" ref="AK8:AK25" si="7">X8*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AL8" s="3">
+        <f t="shared" ref="AL8:AL25" si="8">Y8*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AM8" s="3">
+        <f t="shared" ref="AM8:AM25" si="9">Z8*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AN8" s="3">
+        <f t="shared" ref="AN8:AN25" si="10">AA8*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AO8" s="3">
+        <f t="shared" ref="AO8:AO25" si="11">AB8*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AP8" s="3">
+        <f t="shared" ref="AP8:AP25" si="12">AC8*1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:42">
+      <c r="B9" s="10">
         <v>2025</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="12">
-        <f>SUM(E8:P8)</f>
+      <c r="D9" s="12">
+        <f>SUM(E9:P9)</f>
         <v>102570.24307</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E9" s="13">
         <v>20291.14</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F9" s="13">
         <v>14833.268</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G9" s="13">
         <v>6631.2019999999993</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H9" s="13">
         <v>6835.67</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I9" s="13">
         <v>2432.4679999999998</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J9" s="13">
         <v>2759.1390000000001</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K9" s="13">
         <v>2410.489</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L9" s="13">
         <v>3221.7449999999999</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M9" s="13">
         <v>2006.0029999999997</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N9" s="13">
         <v>1384.4360000000001</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O9" s="13">
         <v>34190.595999999998</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P9" s="13">
         <v>5574.0870700000041</v>
-      </c>
-      <c r="AE8" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG8" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH8" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI8" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AK8" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AL8" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM8" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN8" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AO8" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AP8" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:42">
-      <c r="B9" s="14">
-        <v>2025</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="16">
-        <f t="shared" ref="D9:D14" si="13">SUM(E9:P9)</f>
-        <v>96473.226409999974</v>
-      </c>
-      <c r="E9" s="17">
-        <v>19824.5</v>
-      </c>
-      <c r="F9" s="17">
-        <v>14014.14</v>
-      </c>
-      <c r="G9" s="17">
-        <v>6218.076</v>
-      </c>
-      <c r="H9" s="17">
-        <v>6345.7909999999993</v>
-      </c>
-      <c r="I9" s="17">
-        <v>2665.0520000000001</v>
-      </c>
-      <c r="J9" s="17">
-        <v>3097.6140000000005</v>
-      </c>
-      <c r="K9" s="17">
-        <v>2098.7640000000001</v>
-      </c>
-      <c r="L9" s="17">
-        <v>3027.6949999999997</v>
-      </c>
-      <c r="M9" s="17">
-        <v>1980.6879999999999</v>
-      </c>
-      <c r="N9" s="17">
-        <v>1276.962</v>
-      </c>
-      <c r="O9" s="17">
-        <v>30785.671000000002</v>
-      </c>
-      <c r="P9" s="17">
-        <v>5138.273409999968</v>
       </c>
       <c r="AE9" s="3">
         <f t="shared" si="1"/>
@@ -1443,531 +1395,531 @@
       </c>
     </row>
     <row r="10" spans="2:42">
-      <c r="B10" s="10">
+      <c r="B10" s="14">
         <v>2025</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="16">
+        <f t="shared" ref="D10:D15" si="13">SUM(E10:P10)</f>
+        <v>96473.226409999974</v>
+      </c>
+      <c r="E10" s="17">
+        <v>19824.5</v>
+      </c>
+      <c r="F10" s="17">
+        <v>14014.14</v>
+      </c>
+      <c r="G10" s="17">
+        <v>6218.076</v>
+      </c>
+      <c r="H10" s="17">
+        <v>6345.7909999999993</v>
+      </c>
+      <c r="I10" s="17">
+        <v>2665.0520000000001</v>
+      </c>
+      <c r="J10" s="17">
+        <v>3097.6140000000005</v>
+      </c>
+      <c r="K10" s="17">
+        <v>2098.7640000000001</v>
+      </c>
+      <c r="L10" s="17">
+        <v>3027.6949999999997</v>
+      </c>
+      <c r="M10" s="17">
+        <v>1980.6879999999999</v>
+      </c>
+      <c r="N10" s="17">
+        <v>1276.962</v>
+      </c>
+      <c r="O10" s="17">
+        <v>30785.671000000002</v>
+      </c>
+      <c r="P10" s="17">
+        <v>5138.273409999968</v>
+      </c>
+      <c r="AE10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM10" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN10" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP10" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:42">
+      <c r="B11" s="10">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D11" s="12">
         <f t="shared" si="13"/>
         <v>104081.79550000002</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E11" s="13">
         <v>22582</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F11" s="13">
         <v>14543.918000000001</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G11" s="13">
         <v>6624.4359999999997</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H11" s="13">
         <v>7070.3890000000001</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I11" s="13">
         <v>2837.4380000000001</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J11" s="13">
         <v>4035.1100000000006</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K11" s="13">
         <v>1969.5269999999998</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L11" s="13">
         <v>2985.9570000000003</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M11" s="13">
         <v>1984.1370000000002</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N11" s="13">
         <v>1609.2139999999999</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O11" s="13">
         <v>33154.97</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P11" s="13">
         <v>4684.6995000000006</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AE11" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AF11" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG10" s="3">
+      <c r="AG11" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH10" s="3">
+      <c r="AH11" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI10" s="3">
+      <c r="AI11" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AJ10" s="3">
+      <c r="AJ11" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AK10" s="3">
+      <c r="AK11" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL10" s="3">
+      <c r="AL11" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AM10" s="3">
+      <c r="AM11" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AN10" s="3">
+      <c r="AN11" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AO10" s="3">
+      <c r="AO11" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AP10" s="3">
+      <c r="AP11" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:42">
-      <c r="B11" s="14">
+    <row r="12" spans="2:42">
+      <c r="B12" s="14">
         <v>2025</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D12" s="16">
         <f t="shared" si="13"/>
         <v>86641.77502000003</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E12" s="17">
         <v>19575.670000000002</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F12" s="17">
         <v>11798.751</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G12" s="17">
         <v>5379.473</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H12" s="17">
         <v>4961.049</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I12" s="17">
         <v>2432.8789999999999</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J12" s="17">
         <v>3241.0389999999998</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K12" s="17">
         <v>1841.1139999999998</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L12" s="17">
         <v>2859.4220000000005</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M12" s="17">
         <v>1847.1349999999998</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N12" s="17">
         <v>1648.6580000000001</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O12" s="17">
         <v>26628.777010000002</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P12" s="17">
         <v>4427.8080100000279</v>
       </c>
-      <c r="AE11" s="3">
+      <c r="AE12" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="AF12" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG11" s="3">
+      <c r="AG12" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH11" s="3">
+      <c r="AH12" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI11" s="3">
+      <c r="AI12" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AJ11" s="3">
+      <c r="AJ12" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AK11" s="3">
+      <c r="AK12" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL11" s="3">
+      <c r="AL12" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AM11" s="3">
+      <c r="AM12" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AN11" s="3">
+      <c r="AN12" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AO11" s="3">
+      <c r="AO12" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AP11" s="3">
+      <c r="AP12" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:42">
-      <c r="B12" s="18">
+    <row r="13" spans="2:42">
+      <c r="B13" s="18">
         <v>2025</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D13" s="20">
         <f t="shared" si="13"/>
         <v>91555.306729999982</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E13" s="21">
         <v>19159.400000000001</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F13" s="21">
         <v>13714.98</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G13" s="21">
         <v>5611.4270000000006</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H13" s="21">
         <v>6455.491</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I13" s="21">
         <v>2783.7079999999996</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J13" s="21">
         <v>2789.2219999999998</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K13" s="21">
         <v>2082.837</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L13" s="21">
         <v>2958.125</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M13" s="21">
         <v>2088.444</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N13" s="21">
         <v>1595.182</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O13" s="21">
         <v>27764.467000000001</v>
       </c>
-      <c r="P12" s="21">
+      <c r="P13" s="21">
         <v>4552.0237299999771</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AE13" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="3">
+      <c r="AF13" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG12" s="3">
+      <c r="AG13" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH12" s="3">
+      <c r="AH13" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI12" s="3">
+      <c r="AI13" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AJ12" s="3">
+      <c r="AJ13" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AK12" s="3">
+      <c r="AK13" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL12" s="3">
+      <c r="AL13" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AM12" s="3">
+      <c r="AM13" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AN12" s="3">
+      <c r="AN13" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AO12" s="3">
+      <c r="AO13" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AP12" s="3">
+      <c r="AP13" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:42">
-      <c r="B13" s="14">
+    <row r="14" spans="2:42">
+      <c r="B14" s="14">
         <v>2024</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D14" s="16">
         <f t="shared" si="13"/>
         <v>103547.94350000002</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E14" s="17">
         <v>22084.1</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F14" s="17">
         <v>13788.543999999998</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G14" s="17">
         <v>6101.1239999999998</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H14" s="17">
         <v>6605.4089999999997</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I14" s="17">
         <v>2916.9539999999997</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J14" s="17">
         <v>3692.6709999999998</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K14" s="17">
         <v>2180.1759999999999</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L14" s="17">
         <v>3298.9829999999997</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M14" s="17">
         <v>2405.654</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N14" s="17">
         <v>1379.29</v>
       </c>
-      <c r="O13" s="17">
+      <c r="O14" s="17">
         <v>34117.491999999998</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P14" s="17">
         <v>4977.5465000000313</v>
       </c>
-      <c r="AE13" s="3">
+      <c r="AE14" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="3">
+      <c r="AF14" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG13" s="3">
+      <c r="AG14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH13" s="3">
+      <c r="AH14" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI13" s="3">
+      <c r="AI14" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AJ13" s="3">
+      <c r="AJ14" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AK13" s="3">
+      <c r="AK14" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL13" s="3">
+      <c r="AL14" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AM13" s="3">
+      <c r="AM14" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AN13" s="3">
+      <c r="AN14" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AO13" s="3">
+      <c r="AO14" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AP13" s="3">
+      <c r="AP14" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:42">
-      <c r="B14" s="10">
+    <row r="15" spans="2:42">
+      <c r="B15" s="10">
         <v>2024</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D15" s="12">
         <f t="shared" si="13"/>
         <v>108489.79521000001</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E15" s="13">
         <v>20513.3</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F15" s="13">
         <v>14292.029000000002</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G15" s="13">
         <v>6952.0010000000002</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H15" s="13">
         <v>7027.32</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I15" s="13">
         <v>3190.241</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J15" s="13">
         <v>3783.056</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K15" s="13">
         <v>2546.4230000000002</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L15" s="13">
         <v>3625.6490000000003</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M15" s="13">
         <v>2301.3359999999998</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N15" s="13">
         <v>1566.8050000000001</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O15" s="13">
         <v>37606.786999999997</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P15" s="13">
         <v>5084.8482100000183</v>
-      </c>
-      <c r="AE14" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH14" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI14" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AK14" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AL14" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM14" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN14" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AO14" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AP14" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:42">
-      <c r="B15" s="14">
-        <v>2024</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="16">
-        <f t="shared" ref="D15" si="14">SUM(E15:P15)</f>
-        <v>112101.83326999999</v>
-      </c>
-      <c r="E15" s="17">
-        <v>21954.2</v>
-      </c>
-      <c r="F15" s="17">
-        <v>15035.019</v>
-      </c>
-      <c r="G15" s="17">
-        <v>7434.2699999999995</v>
-      </c>
-      <c r="H15" s="17">
-        <v>7376.1170000000002</v>
-      </c>
-      <c r="I15" s="17">
-        <v>3603.3429999999998</v>
-      </c>
-      <c r="J15" s="17">
-        <v>2668.8590000000004</v>
-      </c>
-      <c r="K15" s="17">
-        <v>2486.047</v>
-      </c>
-      <c r="L15" s="17">
-        <v>3482.5789999999997</v>
-      </c>
-      <c r="M15" s="17">
-        <v>2059.6219999999998</v>
-      </c>
-      <c r="N15" s="17">
-        <v>1836.462</v>
-      </c>
-      <c r="O15" s="17">
-        <v>38827.07</v>
-      </c>
-      <c r="P15" s="17">
-        <v>5338.2452699999949</v>
       </c>
       <c r="AE15" s="3">
         <f t="shared" si="1"/>
@@ -2019,51 +1971,51 @@
       </c>
     </row>
     <row r="16" spans="2:42">
-      <c r="B16" s="10">
+      <c r="B16" s="14">
         <v>2024</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="12">
-        <f>SUM(E16:P16)</f>
-        <v>102256.34403999997</v>
-      </c>
-      <c r="E16" s="13">
-        <v>19983</v>
-      </c>
-      <c r="F16" s="13">
-        <v>15121.885</v>
-      </c>
-      <c r="G16" s="13">
-        <v>6653.17</v>
-      </c>
-      <c r="H16" s="13">
-        <v>6096.0540000000001</v>
-      </c>
-      <c r="I16" s="13">
-        <v>3038.8139999999999</v>
-      </c>
-      <c r="J16" s="13">
-        <v>2226.7169999999996</v>
-      </c>
-      <c r="K16" s="13">
-        <v>2083.5909999999999</v>
-      </c>
-      <c r="L16" s="13">
-        <v>2940.2349999999997</v>
-      </c>
-      <c r="M16" s="13">
-        <v>2121.4749999999999</v>
-      </c>
-      <c r="N16" s="13">
-        <v>1691.9869999999999</v>
-      </c>
-      <c r="O16" s="13">
-        <v>35995.97</v>
-      </c>
-      <c r="P16" s="13">
-        <v>4303.4460399999825</v>
+      <c r="C16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" ref="D16" si="14">SUM(E16:P16)</f>
+        <v>112101.83326999999</v>
+      </c>
+      <c r="E16" s="17">
+        <v>21954.2</v>
+      </c>
+      <c r="F16" s="17">
+        <v>15035.019</v>
+      </c>
+      <c r="G16" s="17">
+        <v>7434.2699999999995</v>
+      </c>
+      <c r="H16" s="17">
+        <v>7376.1170000000002</v>
+      </c>
+      <c r="I16" s="17">
+        <v>3603.3429999999998</v>
+      </c>
+      <c r="J16" s="17">
+        <v>2668.8590000000004</v>
+      </c>
+      <c r="K16" s="17">
+        <v>2486.047</v>
+      </c>
+      <c r="L16" s="17">
+        <v>3482.5789999999997</v>
+      </c>
+      <c r="M16" s="17">
+        <v>2059.6219999999998</v>
+      </c>
+      <c r="N16" s="17">
+        <v>1836.462</v>
+      </c>
+      <c r="O16" s="17">
+        <v>38827.07</v>
+      </c>
+      <c r="P16" s="17">
+        <v>5338.2452699999949</v>
       </c>
       <c r="AE16" s="3">
         <f t="shared" si="1"/>
@@ -2115,51 +2067,51 @@
       </c>
     </row>
     <row r="17" spans="2:42">
-      <c r="B17" s="14">
+      <c r="B17" s="10">
         <v>2024</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="16">
+      <c r="C17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="12">
         <f>SUM(E17:P17)</f>
-        <v>108823.69917000002</v>
-      </c>
-      <c r="E17" s="17">
-        <v>20229.3</v>
-      </c>
-      <c r="F17" s="17">
-        <v>15421.421999999999</v>
-      </c>
-      <c r="G17" s="17">
-        <v>6900.85</v>
-      </c>
-      <c r="H17" s="17">
-        <v>6494.0969999999998</v>
-      </c>
-      <c r="I17" s="17">
-        <v>3427.1890000000003</v>
-      </c>
-      <c r="J17" s="17">
-        <v>2725.0420000000004</v>
-      </c>
-      <c r="K17" s="17">
-        <v>2321.3049999999998</v>
-      </c>
-      <c r="L17" s="17">
-        <v>3155.9950000000003</v>
-      </c>
-      <c r="M17" s="17">
-        <v>2335.154</v>
-      </c>
-      <c r="N17" s="17">
-        <v>1623.2050000000002</v>
-      </c>
-      <c r="O17" s="17">
-        <v>39174.343999999997</v>
-      </c>
-      <c r="P17" s="17">
-        <v>5015.7961700000369</v>
+        <v>102256.34403999997</v>
+      </c>
+      <c r="E17" s="13">
+        <v>19983</v>
+      </c>
+      <c r="F17" s="13">
+        <v>15121.885</v>
+      </c>
+      <c r="G17" s="13">
+        <v>6653.17</v>
+      </c>
+      <c r="H17" s="13">
+        <v>6096.0540000000001</v>
+      </c>
+      <c r="I17" s="13">
+        <v>3038.8139999999999</v>
+      </c>
+      <c r="J17" s="13">
+        <v>2226.7169999999996</v>
+      </c>
+      <c r="K17" s="13">
+        <v>2083.5909999999999</v>
+      </c>
+      <c r="L17" s="13">
+        <v>2940.2349999999997</v>
+      </c>
+      <c r="M17" s="13">
+        <v>2121.4749999999999</v>
+      </c>
+      <c r="N17" s="13">
+        <v>1691.9869999999999</v>
+      </c>
+      <c r="O17" s="13">
+        <v>35995.97</v>
+      </c>
+      <c r="P17" s="13">
+        <v>4303.4460399999825</v>
       </c>
       <c r="AE17" s="3">
         <f t="shared" si="1"/>
@@ -2211,51 +2163,51 @@
       </c>
     </row>
     <row r="18" spans="2:42">
-      <c r="B18" s="10">
+      <c r="B18" s="14">
         <v>2024</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="12">
-        <f t="shared" ref="D18:D20" si="15">SUM(E18:P18)</f>
-        <v>107882.74128000005</v>
-      </c>
-      <c r="E18" s="13">
-        <v>19500.699999999997</v>
-      </c>
-      <c r="F18" s="13">
-        <v>15606.789000000001</v>
-      </c>
-      <c r="G18" s="13">
-        <v>7406.7370000000001</v>
-      </c>
-      <c r="H18" s="13">
-        <v>6133.4809999999998</v>
-      </c>
-      <c r="I18" s="13">
-        <v>3408.8180000000002</v>
-      </c>
-      <c r="J18" s="13">
-        <v>2590.2110000000002</v>
-      </c>
-      <c r="K18" s="13">
-        <v>2370.0729999999999</v>
-      </c>
-      <c r="L18" s="13">
-        <v>3036.741</v>
-      </c>
-      <c r="M18" s="13">
-        <v>2203.3470000000002</v>
-      </c>
-      <c r="N18" s="13">
-        <v>1958.9659999999999</v>
-      </c>
-      <c r="O18" s="13">
-        <v>38531.585999999996</v>
-      </c>
-      <c r="P18" s="13">
-        <v>5135.2922800000515</v>
+      <c r="C18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="16">
+        <f>SUM(E18:P18)</f>
+        <v>108823.69917000002</v>
+      </c>
+      <c r="E18" s="17">
+        <v>20229.3</v>
+      </c>
+      <c r="F18" s="17">
+        <v>15421.421999999999</v>
+      </c>
+      <c r="G18" s="17">
+        <v>6900.85</v>
+      </c>
+      <c r="H18" s="17">
+        <v>6494.0969999999998</v>
+      </c>
+      <c r="I18" s="17">
+        <v>3427.1890000000003</v>
+      </c>
+      <c r="J18" s="17">
+        <v>2725.0420000000004</v>
+      </c>
+      <c r="K18" s="17">
+        <v>2321.3049999999998</v>
+      </c>
+      <c r="L18" s="17">
+        <v>3155.9950000000003</v>
+      </c>
+      <c r="M18" s="17">
+        <v>2335.154</v>
+      </c>
+      <c r="N18" s="17">
+        <v>1623.2050000000002</v>
+      </c>
+      <c r="O18" s="17">
+        <v>39174.343999999997</v>
+      </c>
+      <c r="P18" s="17">
+        <v>5015.7961700000369</v>
       </c>
       <c r="AE18" s="3">
         <f t="shared" si="1"/>
@@ -2307,243 +2259,243 @@
       </c>
     </row>
     <row r="19" spans="2:42">
-      <c r="B19" s="14">
+      <c r="B19" s="10">
         <v>2024</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" ref="D19:D21" si="15">SUM(E19:P19)</f>
+        <v>107882.74128000005</v>
+      </c>
+      <c r="E19" s="13">
+        <v>19500.699999999997</v>
+      </c>
+      <c r="F19" s="13">
+        <v>15606.789000000001</v>
+      </c>
+      <c r="G19" s="13">
+        <v>7406.7370000000001</v>
+      </c>
+      <c r="H19" s="13">
+        <v>6133.4809999999998</v>
+      </c>
+      <c r="I19" s="13">
+        <v>3408.8180000000002</v>
+      </c>
+      <c r="J19" s="13">
+        <v>2590.2110000000002</v>
+      </c>
+      <c r="K19" s="13">
+        <v>2370.0729999999999</v>
+      </c>
+      <c r="L19" s="13">
+        <v>3036.741</v>
+      </c>
+      <c r="M19" s="13">
+        <v>2203.3470000000002</v>
+      </c>
+      <c r="N19" s="13">
+        <v>1958.9659999999999</v>
+      </c>
+      <c r="O19" s="13">
+        <v>38531.585999999996</v>
+      </c>
+      <c r="P19" s="13">
+        <v>5135.2922800000515</v>
+      </c>
+      <c r="AE19" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM19" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN19" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP19" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:42">
+      <c r="B20" s="14">
+        <v>2024</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D20" s="16">
         <f t="shared" si="15"/>
         <v>106952.98336000003</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E20" s="17">
         <v>19499.3</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F20" s="17">
         <v>14724.419</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G20" s="17">
         <v>7318.848</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H20" s="17">
         <v>6428.241</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I20" s="17">
         <v>3309.4189999999999</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J20" s="17">
         <v>2399.3510000000001</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K20" s="17">
         <v>2148.4209999999998</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L20" s="17">
         <v>3308.527</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M20" s="17">
         <v>2070.7939999999999</v>
       </c>
-      <c r="N19" s="17">
+      <c r="N20" s="17">
         <v>1689.7920000000001</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O20" s="17">
         <v>39593.667999999998</v>
       </c>
-      <c r="P19" s="17">
+      <c r="P20" s="17">
         <v>4462.203360000025</v>
       </c>
-      <c r="AE19" s="3">
+      <c r="AE20" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF19" s="3">
+      <c r="AF20" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG19" s="3">
+      <c r="AG20" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH19" s="3">
+      <c r="AH20" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI19" s="3">
+      <c r="AI20" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AJ19" s="3">
+      <c r="AJ20" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AK19" s="3">
+      <c r="AK20" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL19" s="3">
+      <c r="AL20" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AM19" s="3">
+      <c r="AM20" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AN19" s="3">
+      <c r="AN20" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AO19" s="3">
+      <c r="AO20" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AP19" s="3">
+      <c r="AP20" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:42">
-      <c r="B20" s="10">
+    <row r="21" spans="2:42">
+      <c r="B21" s="10">
         <v>2024</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D21" s="12">
         <f t="shared" si="15"/>
         <v>110411.98745000002</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E21" s="13">
         <v>20062</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F21" s="13">
         <v>15321.734</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G21" s="13">
         <v>6843.5949999999993</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H21" s="13">
         <v>6818.1309999999994</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I21" s="13">
         <v>3632.4749999999995</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J21" s="13">
         <v>2865.9740000000002</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K21" s="13">
         <v>2297.306</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L21" s="13">
         <v>3244.5340000000001</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M21" s="13">
         <v>2175.2600000000002</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N21" s="13">
         <v>1778.4730000000002</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O21" s="13">
         <v>40133.834000000003</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P21" s="13">
         <v>5238.6714500000198</v>
-      </c>
-      <c r="AE20" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG20" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH20" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI20" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AK20" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AL20" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AM20" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AN20" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AO20" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AP20" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:42">
-      <c r="B21" s="14">
-        <v>2024</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="16">
-        <f t="shared" ref="D21:D51" si="16">SUM(E21:P21)</f>
-        <v>105215.16596</v>
-      </c>
-      <c r="E21" s="17">
-        <v>18973.3</v>
-      </c>
-      <c r="F21" s="17">
-        <v>13665.344000000001</v>
-      </c>
-      <c r="G21" s="17">
-        <v>6313.32</v>
-      </c>
-      <c r="H21" s="17">
-        <v>6639.4679999999998</v>
-      </c>
-      <c r="I21" s="17">
-        <v>3421.6190000000001</v>
-      </c>
-      <c r="J21" s="17">
-        <v>3106.3360000000002</v>
-      </c>
-      <c r="K21" s="17">
-        <v>2364.4089999999997</v>
-      </c>
-      <c r="L21" s="17">
-        <v>3512.4059999999999</v>
-      </c>
-      <c r="M21" s="17">
-        <v>2156.3200000000002</v>
-      </c>
-      <c r="N21" s="17">
-        <v>1665.7180000000001</v>
-      </c>
-      <c r="O21" s="17">
-        <v>38502.94</v>
-      </c>
-      <c r="P21" s="17">
-        <v>4893.9859599999945</v>
       </c>
       <c r="AE21" s="3">
         <f t="shared" si="1"/>
@@ -2595,3691 +2547,3774 @@
       </c>
     </row>
     <row r="22" spans="2:42">
-      <c r="B22" s="10">
+      <c r="B22" s="14">
         <v>2024</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="16">
+        <f t="shared" ref="D22:D52" si="16">SUM(E22:P22)</f>
+        <v>105215.16596</v>
+      </c>
+      <c r="E22" s="17">
+        <v>18973.3</v>
+      </c>
+      <c r="F22" s="17">
+        <v>13665.344000000001</v>
+      </c>
+      <c r="G22" s="17">
+        <v>6313.32</v>
+      </c>
+      <c r="H22" s="17">
+        <v>6639.4679999999998</v>
+      </c>
+      <c r="I22" s="17">
+        <v>3421.6190000000001</v>
+      </c>
+      <c r="J22" s="17">
+        <v>3106.3360000000002</v>
+      </c>
+      <c r="K22" s="17">
+        <v>2364.4089999999997</v>
+      </c>
+      <c r="L22" s="17">
+        <v>3512.4059999999999</v>
+      </c>
+      <c r="M22" s="17">
+        <v>2156.3200000000002</v>
+      </c>
+      <c r="N22" s="17">
+        <v>1665.7180000000001</v>
+      </c>
+      <c r="O22" s="17">
+        <v>38502.94</v>
+      </c>
+      <c r="P22" s="17">
+        <v>4893.9859599999945</v>
+      </c>
+      <c r="AE22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK22" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL22" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AM22" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN22" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO22" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AP22" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:42">
+      <c r="B23" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D23" s="12">
         <f t="shared" si="16"/>
         <v>104014.85637999998</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E23" s="13">
         <v>19802.7</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="13">
         <v>14556.685000000001</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G23" s="13">
         <v>5905.6409999999996</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H23" s="13">
         <v>5567.2889999999998</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I23" s="13">
         <v>3144.7429999999999</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J23" s="13">
         <v>3762.2560000000003</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K23" s="13">
         <v>2058.4110000000001</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L23" s="13">
         <v>2935.8180000000002</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M23" s="13">
         <v>1921.692</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N23" s="13">
         <v>1570.1889999999996</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O23" s="13">
         <v>38209.173000000003</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P23" s="13">
         <v>4580.2593799999795</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AE23" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF22" s="3">
+      <c r="AF23" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG22" s="3">
+      <c r="AG23" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH22" s="3">
+      <c r="AH23" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI22" s="3">
+      <c r="AI23" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AJ22" s="3">
+      <c r="AJ23" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AK22" s="3">
+      <c r="AK23" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL22" s="3">
+      <c r="AL23" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AM22" s="3">
+      <c r="AM23" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AN22" s="3">
+      <c r="AN23" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AO22" s="3">
+      <c r="AO23" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AP22" s="3">
+      <c r="AP23" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:42">
-      <c r="B23" s="14">
+    <row r="24" spans="2:42">
+      <c r="B24" s="14">
         <v>2024</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C24" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D24" s="16">
         <f t="shared" si="16"/>
         <v>96832.64800000003</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E24" s="17">
         <v>19063.57</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F24" s="17">
         <v>12825.287</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G24" s="17">
         <v>5709.5889999999999</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H24" s="17">
         <v>6237.3979999999992</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I24" s="17">
         <v>3026.2809999999999</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J24" s="17">
         <v>3371.2139999999999</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K24" s="17">
         <v>2375.6289999999999</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L24" s="17">
         <v>3173.3669999999997</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M24" s="17">
         <v>2052.38</v>
       </c>
-      <c r="N23" s="17">
+      <c r="N24" s="17">
         <v>1593.547</v>
       </c>
-      <c r="O23" s="17">
+      <c r="O24" s="17">
         <v>32860.998999999996</v>
       </c>
-      <c r="P23" s="17">
+      <c r="P24" s="17">
         <v>4543.3870000000315</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AE24" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="AF24" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG23" s="3">
+      <c r="AG24" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH23" s="3">
+      <c r="AH24" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI23" s="3">
+      <c r="AI24" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AJ23" s="3">
+      <c r="AJ24" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AK23" s="3">
+      <c r="AK24" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL23" s="3">
+      <c r="AL24" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AM23" s="3">
+      <c r="AM24" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AN23" s="3">
+      <c r="AN24" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AO23" s="3">
+      <c r="AO24" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AP23" s="3">
+      <c r="AP24" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:42">
-      <c r="B24" s="18">
+    <row r="25" spans="2:42">
+      <c r="B25" s="18">
         <v>2024</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D25" s="20">
         <f t="shared" si="16"/>
         <v>97055.650600000066</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E25" s="21">
         <v>18369.400000000001</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F25" s="21">
         <v>13351.472999999998</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G25" s="21">
         <v>5885.9059999999999</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H25" s="21">
         <v>5967.9220000000005</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I25" s="21">
         <v>2989.357</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J25" s="21">
         <v>2973.8410000000003</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K25" s="21">
         <v>2268.6259999999997</v>
       </c>
-      <c r="L24" s="21">
+      <c r="L25" s="21">
         <v>2854.8959999999997</v>
       </c>
-      <c r="M24" s="21">
+      <c r="M25" s="21">
         <v>2397.5709999999999</v>
       </c>
-      <c r="N24" s="21">
+      <c r="N25" s="21">
         <v>1825.489</v>
       </c>
-      <c r="O24" s="21">
+      <c r="O25" s="21">
         <v>33787.300999999999</v>
       </c>
-      <c r="P24" s="21">
+      <c r="P25" s="21">
         <v>4383.8686000000562</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AE25" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AF24" s="3">
+      <c r="AF25" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG24" s="3">
+      <c r="AG25" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH24" s="3">
+      <c r="AH25" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AI24" s="3">
+      <c r="AI25" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AJ24" s="3">
+      <c r="AJ25" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AK24" s="3">
+      <c r="AK25" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL24" s="3">
+      <c r="AL25" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AM24" s="3">
+      <c r="AM25" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AN24" s="3">
+      <c r="AN25" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AO24" s="3">
+      <c r="AO25" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AP24" s="3">
+      <c r="AP25" s="3">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:42" hidden="1">
-      <c r="B25" s="22">
+    <row r="26" spans="2:42" hidden="1">
+      <c r="B26" s="22">
         <v>2023</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C26" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D26" s="24">
         <f t="shared" si="16"/>
         <v>104426.30729999999</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E26" s="25">
         <v>20566.599999999999</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F26" s="25">
         <v>13313.805</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G26" s="25">
         <v>5779.5439999999999</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H26" s="25">
         <v>6634.8190000000004</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I26" s="25">
         <v>3186.3519999999999</v>
       </c>
-      <c r="J25" s="25">
+      <c r="J26" s="25">
         <v>3890.0010000000002</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K26" s="25">
         <v>2228.2650000000003</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L26" s="25">
         <v>3022.0309999999999</v>
       </c>
-      <c r="M25" s="25">
+      <c r="M26" s="25">
         <v>2482.5659999999998</v>
       </c>
-      <c r="N25" s="25">
+      <c r="N26" s="25">
         <v>1573.3980000000001</v>
       </c>
-      <c r="O25" s="25">
+      <c r="O26" s="25">
         <v>36496.25</v>
       </c>
-      <c r="P25" s="25">
+      <c r="P26" s="25">
         <v>5252.6762999999974</v>
       </c>
     </row>
-    <row r="26" spans="2:42" hidden="1">
-      <c r="B26" s="10">
+    <row r="27" spans="2:42" hidden="1">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D27" s="12">
         <f t="shared" si="16"/>
         <v>106410.00600000001</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E27" s="13">
         <v>20520.5</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="13">
         <v>14126.735000000001</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G27" s="13">
         <v>6122.6710000000003</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H27" s="13">
         <v>6195.4279999999999</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I27" s="13">
         <v>3286.1129999999998</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J27" s="13">
         <v>3463.6080000000002</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K27" s="13">
         <v>2592.8070000000002</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L27" s="13">
         <v>3439.2550000000001</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M27" s="13">
         <v>2391.259</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N27" s="13">
         <v>1992.0079999999998</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O27" s="13">
         <v>36843.491999999998</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P27" s="13">
         <v>5436.1300000000128</v>
       </c>
     </row>
-    <row r="27" spans="2:42" hidden="1">
-      <c r="B27" s="14">
+    <row r="28" spans="2:42" hidden="1">
+      <c r="B28" s="14">
         <v>2023</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C28" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D28" s="16">
         <f t="shared" si="16"/>
         <v>107132.1866</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E28" s="17">
         <v>20291</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F28" s="17">
         <v>14588.228999999999</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G28" s="17">
         <v>6563.4580000000005</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H28" s="17">
         <v>6490.5720000000001</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I28" s="17">
         <v>3206.3980000000001</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J28" s="17">
         <v>2918.2420000000002</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K28" s="17">
         <v>2583.0619999999999</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L28" s="17">
         <v>3007.05</v>
       </c>
-      <c r="M27" s="17">
+      <c r="M28" s="17">
         <v>2285.1779999999999</v>
       </c>
-      <c r="N27" s="17">
+      <c r="N28" s="17">
         <v>2296.12</v>
       </c>
-      <c r="O27" s="17">
+      <c r="O28" s="17">
         <v>37567.615000000005</v>
       </c>
-      <c r="P27" s="17">
+      <c r="P28" s="17">
         <v>5335.2626000000073</v>
       </c>
     </row>
-    <row r="28" spans="2:42" hidden="1">
-      <c r="B28" s="10">
+    <row r="29" spans="2:42" hidden="1">
+      <c r="B29" s="10">
         <v>2023</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D29" s="12">
         <f t="shared" si="16"/>
         <v>96344.621599999969</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E29" s="13">
         <v>18890.84</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="13">
         <v>11939.238000000001</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G29" s="13">
         <v>6448.41</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H29" s="13">
         <v>6941.482</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I29" s="13">
         <v>2997.1009999999997</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J29" s="13">
         <v>2820.8690000000001</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K29" s="13">
         <v>2392.9459999999999</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L29" s="13">
         <v>2689.5440000000003</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M29" s="13">
         <v>2237.8310000000001</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N29" s="13">
         <v>1937.12</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O29" s="13">
         <v>32211.534999999996</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P29" s="13">
         <v>4837.7055999999784</v>
       </c>
     </row>
-    <row r="29" spans="2:42" hidden="1">
-      <c r="B29" s="14">
+    <row r="30" spans="2:42" hidden="1">
+      <c r="B30" s="14">
         <v>2023</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C30" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D30" s="16">
         <f t="shared" si="16"/>
         <v>101340.06099999999</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E30" s="17">
         <v>30758.92</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F30" s="17">
         <v>12635.058999999999</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G30" s="17">
         <v>6735.0630000000001</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H30" s="17">
         <v>7071.5340000000006</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I30" s="17">
         <v>3260.134</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J30" s="17">
         <v>2927.556</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K30" s="17">
         <v>2738.0719999999997</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L30" s="17">
         <v>3079.3420000000001</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M30" s="17">
         <v>2242.9470000000001</v>
       </c>
-      <c r="N29" s="17">
+      <c r="N30" s="17">
         <v>2212.1790000000001</v>
       </c>
-      <c r="O29" s="17">
+      <c r="O30" s="17">
         <v>22653.131999999998</v>
       </c>
-      <c r="P29" s="17">
+      <c r="P30" s="17">
         <v>5026.1229999999987</v>
       </c>
     </row>
-    <row r="30" spans="2:42" hidden="1">
-      <c r="B30" s="10">
+    <row r="31" spans="2:42" hidden="1">
+      <c r="B31" s="10">
         <v>2023</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D31" s="12">
         <f t="shared" si="16"/>
         <v>99893.349999999977</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E31" s="13">
         <v>42255.99</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F31" s="13">
         <v>13795.428</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G31" s="13">
         <v>6453.2659999999996</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H31" s="13">
         <v>6305.5460000000003</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I31" s="13">
         <v>2850.3670000000002</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J31" s="13">
         <v>2992.5640000000003</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K31" s="13">
         <v>2184.107</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L31" s="13">
         <v>3001.3330000000001</v>
       </c>
-      <c r="M30" s="13">
+      <c r="M31" s="13">
         <v>2136.636</v>
       </c>
-      <c r="N30" s="13">
+      <c r="N31" s="13">
         <v>1665.6389999999999</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O31" s="13">
         <v>12061.946</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P31" s="13">
         <v>4190.5279999999912</v>
       </c>
     </row>
-    <row r="31" spans="2:42" hidden="1">
-      <c r="B31" s="14">
+    <row r="32" spans="2:42" hidden="1">
+      <c r="B32" s="14">
         <v>2023</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C32" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D32" s="16">
         <f t="shared" si="16"/>
         <v>100692.46</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E32" s="17">
         <v>48959.360000000001</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F32" s="17">
         <v>14347.388000000001</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G32" s="17">
         <v>6967.08</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H32" s="17">
         <v>7548.9220000000005</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I32" s="17">
         <v>3319.7</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J32" s="17">
         <v>2985.5720000000001</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K32" s="17">
         <v>2751.5749999999998</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L32" s="17">
         <v>2986.2660000000001</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M32" s="17">
         <v>2130.835</v>
       </c>
-      <c r="N31" s="17">
+      <c r="N32" s="17">
         <v>1363.424</v>
       </c>
-      <c r="O31" s="17">
+      <c r="O32" s="17">
         <v>2657.15</v>
       </c>
-      <c r="P31" s="17">
+      <c r="P32" s="17">
         <v>4675.1880000000074</v>
       </c>
     </row>
-    <row r="32" spans="2:42" hidden="1">
-      <c r="B32" s="10">
+    <row r="33" spans="2:16" hidden="1">
+      <c r="B33" s="10">
         <v>2023</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D33" s="12">
         <f t="shared" si="16"/>
         <v>98181.257999999987</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E33" s="13">
         <v>50235.43</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F33" s="13">
         <v>13240.904999999999</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G33" s="13">
         <v>6447.4090000000006</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H33" s="13">
         <v>6818.1289999999999</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I33" s="13">
         <v>3168.0129999999999</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J33" s="13">
         <v>3032.7219999999998</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K33" s="13">
         <v>2419.5279999999998</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L33" s="13">
         <v>3039.0519999999997</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M33" s="13">
         <v>2077.337</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N33" s="13">
         <v>1145.9829999999999</v>
       </c>
-      <c r="O32" s="13">
+      <c r="O33" s="13">
         <v>2054.748</v>
       </c>
-      <c r="P32" s="13">
+      <c r="P33" s="13">
         <v>4502.0019999999795</v>
       </c>
     </row>
-    <row r="33" spans="2:16" hidden="1">
-      <c r="B33" s="14">
+    <row r="34" spans="2:16" hidden="1">
+      <c r="B34" s="14">
         <v>2023</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C34" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D34" s="16">
         <f t="shared" si="16"/>
         <v>92574.85</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E34" s="17">
         <v>47367.56</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F34" s="17">
         <v>13553.766</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G34" s="17">
         <v>6046.3230000000003</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H34" s="17">
         <v>5997.2860000000001</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I34" s="17">
         <v>2823</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J34" s="17">
         <v>3201.482</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K34" s="17">
         <v>2103.346</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L34" s="17">
         <v>2699.6509999999998</v>
       </c>
-      <c r="M33" s="17">
+      <c r="M34" s="17">
         <v>1830.1030000000001</v>
       </c>
-      <c r="N33" s="17">
+      <c r="N34" s="17">
         <v>966.625</v>
       </c>
-      <c r="O33" s="17">
+      <c r="O34" s="17">
         <v>1973.069</v>
       </c>
-      <c r="P33" s="17">
+      <c r="P34" s="17">
         <v>4012.6390000000029</v>
       </c>
     </row>
-    <row r="34" spans="2:16" hidden="1">
-      <c r="B34" s="10">
+    <row r="35" spans="2:16" hidden="1">
+      <c r="B35" s="10">
         <v>2023</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D35" s="12">
         <f t="shared" si="16"/>
         <v>105745.56200000001</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E35" s="13">
         <v>52276.67</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F35" s="13">
         <v>16535.007000000001</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G35" s="13">
         <v>6440.4480000000003</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H35" s="13">
         <v>7445.0419999999995</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I35" s="13">
         <v>3504.6480000000001</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J35" s="13">
         <v>3949.8199999999997</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K35" s="13">
         <v>2498.7659999999996</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L35" s="13">
         <v>3061.4049999999997</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M35" s="13">
         <v>2069.788</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N35" s="13">
         <v>1219.9379999999999</v>
       </c>
-      <c r="O34" s="13">
+      <c r="O35" s="13">
         <v>1776.1070000000002</v>
       </c>
-      <c r="P34" s="13">
+      <c r="P35" s="13">
         <v>4967.9229999999952</v>
       </c>
     </row>
-    <row r="35" spans="2:16" hidden="1">
-      <c r="B35" s="14">
+    <row r="36" spans="2:16" hidden="1">
+      <c r="B36" s="14">
         <v>2023</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C36" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D36" s="16">
         <f t="shared" si="16"/>
         <v>92062.197000000015</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E36" s="17">
         <v>48557.700000000004</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F36" s="17">
         <v>12859.111000000001</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G36" s="17">
         <v>5657.7039999999997</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H36" s="17">
         <v>6269.88</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I36" s="17">
         <v>2992.4319999999998</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J36" s="17">
         <v>3589.6260000000002</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K36" s="17">
         <v>2018.2800000000002</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L36" s="17">
         <v>2591.8669999999997</v>
       </c>
-      <c r="M35" s="17">
+      <c r="M36" s="17">
         <v>1971.3010000000002</v>
       </c>
-      <c r="N35" s="17">
+      <c r="N36" s="17">
         <v>967.20100000000002</v>
       </c>
-      <c r="O35" s="17">
+      <c r="O36" s="17">
         <v>24.785999999999998</v>
       </c>
-      <c r="P35" s="17">
+      <c r="P36" s="17">
         <v>4562.3090000000093</v>
       </c>
     </row>
-    <row r="36" spans="2:16" hidden="1">
-      <c r="B36" s="18">
+    <row r="37" spans="2:16" hidden="1">
+      <c r="B37" s="18">
         <v>2023</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C37" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D37" s="20">
         <f t="shared" si="16"/>
         <v>91861.286999999982</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E37" s="21">
         <v>47206.720000000001</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F37" s="21">
         <v>14071.760999999999</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G37" s="21">
         <v>5308.5119999999997</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H37" s="21">
         <v>6105.5779999999995</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I37" s="21">
         <v>3099.4949999999999</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J37" s="21">
         <v>3049.6080000000002</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K37" s="21">
         <v>2226.4519999999998</v>
       </c>
-      <c r="L36" s="21">
+      <c r="L37" s="21">
         <v>2648.1549999999997</v>
       </c>
-      <c r="M36" s="21">
+      <c r="M37" s="21">
         <v>2170.7359999999999</v>
       </c>
-      <c r="N36" s="21">
+      <c r="N37" s="21">
         <v>1026.6849999999999</v>
       </c>
-      <c r="O36" s="21">
-        <v>0</v>
-      </c>
-      <c r="P36" s="21">
+      <c r="O37" s="21">
+        <v>0</v>
+      </c>
+      <c r="P37" s="21">
         <v>4947.5849999999755</v>
       </c>
     </row>
-    <row r="37" spans="2:16" hidden="1">
-      <c r="B37" s="22">
+    <row r="38" spans="2:16" hidden="1">
+      <c r="B38" s="22">
         <v>2022</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C38" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D38" s="24">
         <f t="shared" si="16"/>
         <v>101065.27699999994</v>
       </c>
-      <c r="E37" s="25">
+      <c r="E38" s="25">
         <v>51995.01</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F38" s="25">
         <v>14753.401000000002</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G38" s="25">
         <v>6074.482</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H38" s="25">
         <v>6693.6720000000005</v>
       </c>
-      <c r="I37" s="25">
+      <c r="I38" s="25">
         <v>3610.9369999999999</v>
       </c>
-      <c r="J37" s="25">
+      <c r="J38" s="25">
         <v>3543.056</v>
       </c>
-      <c r="K37" s="25">
+      <c r="K38" s="25">
         <v>2529.5419999999999</v>
       </c>
-      <c r="L37" s="25">
+      <c r="L38" s="25">
         <v>3120.09</v>
       </c>
-      <c r="M37" s="25">
+      <c r="M38" s="25">
         <v>2114.6820000000002</v>
       </c>
-      <c r="N37" s="25">
+      <c r="N38" s="25">
         <v>1202.202</v>
       </c>
-      <c r="O37" s="25">
-        <v>0</v>
-      </c>
-      <c r="P37" s="25">
+      <c r="O38" s="25">
+        <v>0</v>
+      </c>
+      <c r="P38" s="25">
         <v>5428.2029999999249</v>
       </c>
     </row>
-    <row r="38" spans="2:16" hidden="1">
-      <c r="B38" s="10">
+    <row r="39" spans="2:16" hidden="1">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D39" s="12">
         <f t="shared" si="16"/>
         <v>100761.743</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E39" s="13">
         <v>52228.090000000004</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F39" s="13">
         <v>14611.128000000001</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G39" s="13">
         <v>6314.7170000000006</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H39" s="13">
         <v>6174.5390000000007</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I39" s="13">
         <v>3744.3739999999998</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J39" s="13">
         <v>3438.8589999999999</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K39" s="13">
         <v>2565.1889999999999</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L39" s="13">
         <v>3357.0519999999997</v>
       </c>
-      <c r="M38" s="13">
+      <c r="M39" s="13">
         <v>2200.0079999999998</v>
       </c>
-      <c r="N38" s="13">
+      <c r="N39" s="13">
         <v>1152.1139999999998</v>
       </c>
-      <c r="O38" s="13">
-        <v>0</v>
-      </c>
-      <c r="P38" s="13">
+      <c r="O39" s="13">
+        <v>0</v>
+      </c>
+      <c r="P39" s="13">
         <v>4975.6730000000007</v>
       </c>
     </row>
-    <row r="39" spans="2:16" hidden="1">
-      <c r="B39" s="14">
+    <row r="40" spans="2:16" hidden="1">
+      <c r="B40" s="14">
         <v>2022</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C40" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D40" s="16">
         <f t="shared" si="16"/>
         <v>101815.66400000002</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E40" s="17">
         <v>53850.369999999995</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F40" s="17">
         <v>15184.744000000001</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G40" s="17">
         <v>6463.3790000000008</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H40" s="17">
         <v>5772.1310000000003</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I40" s="17">
         <v>3574.8900000000003</v>
       </c>
-      <c r="J39" s="17">
+      <c r="J40" s="17">
         <v>3573.3429999999998</v>
       </c>
-      <c r="K39" s="17">
+      <c r="K40" s="17">
         <v>2038.558</v>
       </c>
-      <c r="L39" s="17">
+      <c r="L40" s="17">
         <v>2968.2270000000003</v>
       </c>
-      <c r="M39" s="17">
+      <c r="M40" s="17">
         <v>2060.0630000000001</v>
       </c>
-      <c r="N39" s="17">
+      <c r="N40" s="17">
         <v>1283.712</v>
       </c>
-      <c r="O39" s="17">
-        <v>0</v>
-      </c>
-      <c r="P39" s="17">
+      <c r="O40" s="17">
+        <v>0</v>
+      </c>
+      <c r="P40" s="17">
         <v>5046.2470000000367</v>
       </c>
     </row>
-    <row r="40" spans="2:16" hidden="1">
-      <c r="B40" s="10">
+    <row r="41" spans="2:16" hidden="1">
+      <c r="B41" s="10">
         <v>2022</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D41" s="12">
         <f t="shared" si="16"/>
         <v>89334.159999999974</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E41" s="13">
         <v>47061.49</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="13">
         <v>14479.710999999999</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G41" s="13">
         <v>6202.4430000000002</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H41" s="13">
         <v>5721.7240000000002</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I41" s="13">
         <v>2401.297</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J41" s="13">
         <v>2631.6559999999999</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K41" s="13">
         <v>2465.8180000000002</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L41" s="13">
         <v>2754.2740000000003</v>
       </c>
-      <c r="M40" s="13">
+      <c r="M41" s="13">
         <v>512.15899999999999</v>
       </c>
-      <c r="N40" s="13">
+      <c r="N41" s="13">
         <v>1143.1680000000001</v>
       </c>
-      <c r="O40" s="13">
-        <v>0</v>
-      </c>
-      <c r="P40" s="13">
+      <c r="O41" s="13">
+        <v>0</v>
+      </c>
+      <c r="P41" s="13">
         <v>3960.4199999999564</v>
       </c>
     </row>
-    <row r="41" spans="2:16" hidden="1">
-      <c r="B41" s="14">
+    <row r="42" spans="2:16" hidden="1">
+      <c r="B42" s="14">
         <v>2022</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C42" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D42" s="16">
         <f t="shared" si="16"/>
         <v>95278.69100000005</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E42" s="17">
         <v>47746.51</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F42" s="17">
         <v>14115.436000000002</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G42" s="17">
         <v>7015.4850000000006</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H42" s="17">
         <v>6571.5810000000001</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I42" s="17">
         <v>2958.8999999999996</v>
       </c>
-      <c r="J41" s="17">
+      <c r="J42" s="17">
         <v>3531.7309999999998</v>
       </c>
-      <c r="K41" s="17">
+      <c r="K42" s="17">
         <v>2622.4749999999999</v>
       </c>
-      <c r="L41" s="17">
+      <c r="L42" s="17">
         <v>2978.3830000000003</v>
       </c>
-      <c r="M41" s="17">
+      <c r="M42" s="17">
         <v>2025.0970000000002</v>
       </c>
-      <c r="N41" s="17">
+      <c r="N42" s="17">
         <v>1204.242</v>
       </c>
-      <c r="O41" s="17">
-        <v>0</v>
-      </c>
-      <c r="P41" s="17">
+      <c r="O42" s="17">
+        <v>0</v>
+      </c>
+      <c r="P42" s="17">
         <v>4508.8510000000351</v>
       </c>
     </row>
-    <row r="42" spans="2:16" hidden="1">
-      <c r="B42" s="10">
+    <row r="43" spans="2:16" hidden="1">
+      <c r="B43" s="10">
         <v>2022</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C43" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D43" s="12">
         <f t="shared" si="16"/>
         <v>97785.689999999988</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E43" s="13">
         <v>50063.990000000005</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F43" s="13">
         <v>14860.342999999999</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G43" s="13">
         <v>6623.2259999999997</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H43" s="13">
         <v>5368.71</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I43" s="13">
         <v>3986.607</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J43" s="13">
         <v>4343.424</v>
       </c>
-      <c r="K42" s="13">
+      <c r="K43" s="13">
         <v>2496.5360000000001</v>
       </c>
-      <c r="L42" s="13">
+      <c r="L43" s="13">
         <v>2822.9870000000001</v>
       </c>
-      <c r="M42" s="13">
+      <c r="M43" s="13">
         <v>1943.029</v>
       </c>
-      <c r="N42" s="13">
+      <c r="N43" s="13">
         <v>1117.913</v>
       </c>
-      <c r="O42" s="13">
-        <v>0</v>
-      </c>
-      <c r="P42" s="13">
+      <c r="O43" s="13">
+        <v>0</v>
+      </c>
+      <c r="P43" s="13">
         <v>4158.924999999982</v>
       </c>
     </row>
-    <row r="43" spans="2:16" hidden="1">
-      <c r="B43" s="14">
+    <row r="44" spans="2:16" hidden="1">
+      <c r="B44" s="14">
         <v>2022</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C44" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D44" s="16">
         <f t="shared" si="16"/>
         <v>98754.335000000006</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E44" s="17">
         <v>46577.189999999995</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F44" s="17">
         <v>15738.313999999998</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G44" s="17">
         <v>7141.8860000000004</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H44" s="17">
         <v>6363.9130000000005</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I44" s="17">
         <v>4263.3530000000001</v>
       </c>
-      <c r="J43" s="17">
+      <c r="J44" s="17">
         <v>3976.6590000000001</v>
       </c>
-      <c r="K43" s="17">
+      <c r="K44" s="17">
         <v>2587.8480000000004</v>
       </c>
-      <c r="L43" s="17">
+      <c r="L44" s="17">
         <v>3419.7529999999997</v>
       </c>
-      <c r="M43" s="17">
+      <c r="M44" s="17">
         <v>2042.5399999999997</v>
       </c>
-      <c r="N43" s="17">
+      <c r="N44" s="17">
         <v>1359.9259999999999</v>
       </c>
-      <c r="O43" s="17">
-        <v>0</v>
-      </c>
-      <c r="P43" s="17">
+      <c r="O44" s="17">
+        <v>0</v>
+      </c>
+      <c r="P44" s="17">
         <v>5282.9530000000059</v>
       </c>
     </row>
-    <row r="44" spans="2:16" hidden="1">
-      <c r="B44" s="10">
+    <row r="45" spans="2:16" hidden="1">
+      <c r="B45" s="10">
         <v>2022</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C45" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D45" s="12">
         <f t="shared" si="16"/>
         <v>100981.77</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E45" s="13">
         <v>48175.270000000004</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F45" s="13">
         <v>15121.800999999999</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G45" s="13">
         <v>6917.94</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H45" s="13">
         <v>7004.4480000000003</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I45" s="13">
         <v>4293.0200000000004</v>
       </c>
-      <c r="J44" s="13">
+      <c r="J45" s="13">
         <v>4633.1059999999998</v>
       </c>
-      <c r="K44" s="13">
+      <c r="K45" s="13">
         <v>2216.5819999999999</v>
       </c>
-      <c r="L44" s="13">
+      <c r="L45" s="13">
         <v>4035.9160000000002</v>
       </c>
-      <c r="M44" s="13">
+      <c r="M45" s="13">
         <v>2042.0069999999998</v>
       </c>
-      <c r="N44" s="13">
+      <c r="N45" s="13">
         <v>1212.9639999999999</v>
       </c>
-      <c r="O44" s="13">
-        <v>0</v>
-      </c>
-      <c r="P44" s="13">
+      <c r="O45" s="13">
+        <v>0</v>
+      </c>
+      <c r="P45" s="13">
         <v>5328.7160000000003</v>
       </c>
     </row>
-    <row r="45" spans="2:16" hidden="1">
-      <c r="B45" s="14">
+    <row r="46" spans="2:16" hidden="1">
+      <c r="B46" s="14">
         <v>2022</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C46" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D46" s="16">
         <f t="shared" si="16"/>
         <v>91772.804999999978</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E46" s="17">
         <v>42504.89</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F46" s="17">
         <v>14271.894</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G46" s="17">
         <v>6804.5039999999999</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H46" s="17">
         <v>5796.9490000000005</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I46" s="17">
         <v>3819.4520000000002</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J46" s="17">
         <v>4312.4709999999995</v>
       </c>
-      <c r="K45" s="17">
+      <c r="K46" s="17">
         <v>2349.19</v>
       </c>
-      <c r="L45" s="17">
+      <c r="L46" s="17">
         <v>3770.8559999999998</v>
       </c>
-      <c r="M45" s="17">
+      <c r="M46" s="17">
         <v>1869.663</v>
       </c>
-      <c r="N45" s="17">
+      <c r="N46" s="17">
         <v>1118.5450000000001</v>
       </c>
-      <c r="O45" s="17">
-        <v>0</v>
-      </c>
-      <c r="P45" s="17">
+      <c r="O46" s="17">
+        <v>0</v>
+      </c>
+      <c r="P46" s="17">
         <v>5154.390999999976</v>
       </c>
     </row>
-    <row r="46" spans="2:16" hidden="1">
-      <c r="B46" s="10">
+    <row r="47" spans="2:16" hidden="1">
+      <c r="B47" s="10">
         <v>2022</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C47" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D47" s="12">
         <f t="shared" si="16"/>
         <v>97475.604000000007</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E47" s="13">
         <v>43589.06</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F47" s="13">
         <v>15805.73</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G47" s="13">
         <v>7474.4720000000007</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H47" s="13">
         <v>6700.8620000000001</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I47" s="13">
         <v>4181.607</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J47" s="13">
         <v>4873.1779999999999</v>
       </c>
-      <c r="K46" s="13">
+      <c r="K47" s="13">
         <v>2656.9369999999999</v>
       </c>
-      <c r="L46" s="13">
+      <c r="L47" s="13">
         <v>3049.7539999999999</v>
       </c>
-      <c r="M46" s="13">
+      <c r="M47" s="13">
         <v>2099.5990000000002</v>
       </c>
-      <c r="N46" s="13">
+      <c r="N47" s="13">
         <v>1350.1109999999999</v>
       </c>
-      <c r="O46" s="13">
-        <v>0</v>
-      </c>
-      <c r="P46" s="13">
+      <c r="O47" s="13">
+        <v>0</v>
+      </c>
+      <c r="P47" s="13">
         <v>5694.2940000000135</v>
       </c>
     </row>
-    <row r="47" spans="2:16" hidden="1">
-      <c r="B47" s="14">
+    <row r="48" spans="2:16" hidden="1">
+      <c r="B48" s="14">
         <v>2022</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C48" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D48" s="16">
         <f t="shared" si="16"/>
         <v>89800.428</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E48" s="17">
         <v>45366.31</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F48" s="17">
         <v>13369.772999999999</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G48" s="17">
         <v>5647.3320000000003</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H48" s="17">
         <v>5270.6120000000001</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I48" s="17">
         <v>3794.5039999999999</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J48" s="17">
         <v>3839.19</v>
       </c>
-      <c r="K47" s="17">
+      <c r="K48" s="17">
         <v>2119.1379999999999</v>
       </c>
-      <c r="L47" s="17">
+      <c r="L48" s="17">
         <v>2576.7370000000001</v>
       </c>
-      <c r="M47" s="17">
+      <c r="M48" s="17">
         <v>1797.6790000000001</v>
       </c>
-      <c r="N47" s="17">
+      <c r="N48" s="17">
         <v>1019.68</v>
       </c>
-      <c r="O47" s="17">
-        <v>0</v>
-      </c>
-      <c r="P47" s="17">
+      <c r="O48" s="17">
+        <v>0</v>
+      </c>
+      <c r="P48" s="17">
         <v>4999.4729999999945</v>
       </c>
     </row>
-    <row r="48" spans="2:16" hidden="1">
-      <c r="B48" s="18">
+    <row r="49" spans="2:16" hidden="1">
+      <c r="B49" s="18">
         <v>2022</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C49" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D49" s="20">
         <f t="shared" si="16"/>
         <v>85046.313999999984</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E49" s="21">
         <v>41649.950000000004</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F49" s="21">
         <v>14466.567999999999</v>
       </c>
-      <c r="G48" s="21">
+      <c r="G49" s="21">
         <v>5084.2289999999994</v>
       </c>
-      <c r="H48" s="21">
+      <c r="H49" s="21">
         <v>5408.1559999999999</v>
       </c>
-      <c r="I48" s="21">
+      <c r="I49" s="21">
         <v>2575.6040000000003</v>
       </c>
-      <c r="J48" s="21">
+      <c r="J49" s="21">
         <v>3171.0789999999997</v>
       </c>
-      <c r="K48" s="21">
+      <c r="K49" s="21">
         <v>2142.4740000000002</v>
       </c>
-      <c r="L48" s="21">
+      <c r="L49" s="21">
         <v>2573.4090000000001</v>
       </c>
-      <c r="M48" s="21">
+      <c r="M49" s="21">
         <v>1939.2370000000001</v>
       </c>
-      <c r="N48" s="21">
+      <c r="N49" s="21">
         <v>1105.0170000000001</v>
       </c>
-      <c r="O48" s="21">
-        <v>0</v>
-      </c>
-      <c r="P48" s="21">
+      <c r="O49" s="21">
+        <v>0</v>
+      </c>
+      <c r="P49" s="21">
         <v>4930.590999999964</v>
       </c>
     </row>
-    <row r="49" spans="2:16" hidden="1">
-      <c r="B49" s="22">
+    <row r="50" spans="2:16" hidden="1">
+      <c r="B50" s="22">
         <v>2021</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C50" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="24">
+      <c r="D50" s="24">
         <f t="shared" si="16"/>
         <v>106245.8559999999</v>
       </c>
-      <c r="E49" s="25">
+      <c r="E50" s="25">
         <v>50857.07</v>
       </c>
-      <c r="F49" s="25">
+      <c r="F50" s="25">
         <v>17094.063999999998</v>
       </c>
-      <c r="G49" s="25">
+      <c r="G50" s="25">
         <v>6690.982</v>
       </c>
-      <c r="H49" s="25">
+      <c r="H50" s="25">
         <v>6757.0789999999997</v>
       </c>
-      <c r="I49" s="25">
+      <c r="I50" s="25">
         <v>4772.1049999999996</v>
       </c>
-      <c r="J49" s="25">
+      <c r="J50" s="25">
         <v>4153.6809999999996</v>
       </c>
-      <c r="K49" s="25">
+      <c r="K50" s="25">
         <v>2996.9839999999999</v>
       </c>
-      <c r="L49" s="25">
+      <c r="L50" s="25">
         <v>3411.8760000000002</v>
       </c>
-      <c r="M49" s="25">
+      <c r="M50" s="25">
         <v>2152.6570000000002</v>
       </c>
-      <c r="N49" s="25">
+      <c r="N50" s="25">
         <v>1412.242</v>
       </c>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25">
+      <c r="O50" s="25"/>
+      <c r="P50" s="25">
         <v>5947.115999999909</v>
       </c>
     </row>
-    <row r="50" spans="2:16" hidden="1">
-      <c r="B50" s="10">
+    <row r="51" spans="2:16" hidden="1">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D51" s="12">
         <f t="shared" si="16"/>
         <v>103780.351</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E51" s="13">
         <v>51670.84</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F51" s="13">
         <v>16637.919000000002</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G51" s="13">
         <v>6777.7350000000006</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H51" s="13">
         <v>6088.8860000000004</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I51" s="13">
         <v>4689.4409999999998</v>
       </c>
-      <c r="J50" s="13">
+      <c r="J51" s="13">
         <v>3093.7200000000003</v>
       </c>
-      <c r="K50" s="13">
+      <c r="K51" s="13">
         <v>2801.3710000000001</v>
       </c>
-      <c r="L50" s="13">
+      <c r="L51" s="13">
         <v>3273.163</v>
       </c>
-      <c r="M50" s="13">
+      <c r="M51" s="13">
         <v>2116.31</v>
       </c>
-      <c r="N50" s="13">
+      <c r="N51" s="13">
         <v>1187.3990000000001</v>
       </c>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13">
+      <c r="O51" s="13"/>
+      <c r="P51" s="13">
         <v>5443.5670000000018</v>
       </c>
     </row>
-    <row r="51" spans="2:16" hidden="1">
-      <c r="B51" s="14">
+    <row r="52" spans="2:16" hidden="1">
+      <c r="B52" s="14">
         <v>2021</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C52" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D52" s="16">
         <f t="shared" si="16"/>
         <v>102011.41899999998</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E52" s="17">
         <v>52512.270000000004</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F52" s="17">
         <v>15934.506000000001</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G52" s="17">
         <v>6335.259</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H52" s="17">
         <v>5545.3950000000004</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I52" s="17">
         <v>4882.7650000000003</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J52" s="17">
         <v>2936.84</v>
       </c>
-      <c r="K51" s="17">
+      <c r="K52" s="17">
         <v>2405.8789999999999</v>
       </c>
-      <c r="L51" s="17">
+      <c r="L52" s="17">
         <v>3272.1130000000003</v>
       </c>
-      <c r="M51" s="17">
+      <c r="M52" s="17">
         <v>1900.828</v>
       </c>
-      <c r="N51" s="17">
+      <c r="N52" s="17">
         <v>1092.5319999999999</v>
       </c>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17">
+      <c r="O52" s="17"/>
+      <c r="P52" s="17">
         <v>5193.0319999999592</v>
       </c>
     </row>
-    <row r="52" spans="2:16" hidden="1">
-      <c r="B52" s="10">
+    <row r="53" spans="2:16" hidden="1">
+      <c r="B53" s="10">
         <v>2021</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C53" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="12">
-        <f t="shared" ref="D52:D83" si="17">SUM(E52:P52)</f>
+      <c r="D53" s="12">
+        <f t="shared" ref="D53:D84" si="17">SUM(E53:P53)</f>
         <v>91178.608999999982</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E53" s="13">
         <v>45915.21</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="13">
         <v>14692.056</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G53" s="13">
         <v>5728.8209999999999</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H53" s="13">
         <v>5560.4480000000003</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I53" s="13">
         <v>4702.9629999999997</v>
       </c>
-      <c r="J52" s="13">
+      <c r="J53" s="13">
         <v>2102.703</v>
       </c>
-      <c r="K52" s="13">
+      <c r="K53" s="13">
         <v>2272.134</v>
       </c>
-      <c r="L52" s="13">
+      <c r="L53" s="13">
         <v>2868.15</v>
       </c>
-      <c r="M52" s="13">
+      <c r="M53" s="13">
         <v>1735.4590000000001</v>
       </c>
-      <c r="N52" s="13">
+      <c r="N53" s="13">
         <v>1045.8</v>
       </c>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13">
+      <c r="O53" s="13"/>
+      <c r="P53" s="13">
         <v>4554.864999999978</v>
       </c>
     </row>
-    <row r="53" spans="2:16" hidden="1">
-      <c r="B53" s="14">
+    <row r="54" spans="2:16" hidden="1">
+      <c r="B54" s="14">
         <v>2021</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C54" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D54" s="16">
         <f t="shared" si="17"/>
         <v>92414.208999999988</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E54" s="17">
         <v>46263.56</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F54" s="17">
         <v>15429.054</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G54" s="17">
         <v>5843.6489999999994</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H54" s="17">
         <v>5188.5529999999999</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I54" s="17">
         <v>4997.6589999999997</v>
       </c>
-      <c r="J53" s="17">
+      <c r="J54" s="17">
         <v>1980.7669999999998</v>
       </c>
-      <c r="K53" s="17">
+      <c r="K54" s="17">
         <v>2178.5140000000001</v>
       </c>
-      <c r="L53" s="17">
+      <c r="L54" s="17">
         <v>2985.433</v>
       </c>
-      <c r="M53" s="17">
+      <c r="M54" s="17">
         <v>1919.7950000000001</v>
       </c>
-      <c r="N53" s="17">
+      <c r="N54" s="17">
         <v>1046.1379999999999</v>
       </c>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17">
+      <c r="O54" s="17"/>
+      <c r="P54" s="17">
         <v>4581.0869999999823</v>
       </c>
     </row>
-    <row r="54" spans="2:16" hidden="1">
-      <c r="B54" s="10">
+    <row r="55" spans="2:16" hidden="1">
+      <c r="B55" s="10">
         <v>2021</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C55" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D55" s="12">
         <f t="shared" si="17"/>
         <v>94998.959000000017</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E55" s="13">
         <v>47535.66</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F55" s="13">
         <v>16396.912</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G55" s="13">
         <v>5814.3230000000003</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H55" s="13">
         <v>5225.7449999999999</v>
       </c>
-      <c r="I54" s="13">
+      <c r="I55" s="13">
         <v>4822.5879999999997</v>
       </c>
-      <c r="J54" s="13">
+      <c r="J55" s="13">
         <v>2417.9939999999997</v>
       </c>
-      <c r="K54" s="13">
+      <c r="K55" s="13">
         <v>2253.5949999999998</v>
       </c>
-      <c r="L54" s="13">
+      <c r="L55" s="13">
         <v>2954.0879999999997</v>
       </c>
-      <c r="M54" s="13">
+      <c r="M55" s="13">
         <v>2019.4090000000001</v>
       </c>
-      <c r="N54" s="13">
+      <c r="N55" s="13">
         <v>989</v>
       </c>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13">
+      <c r="O55" s="13"/>
+      <c r="P55" s="13">
         <v>4569.6450000000086</v>
       </c>
     </row>
-    <row r="55" spans="2:16" hidden="1">
-      <c r="B55" s="14">
+    <row r="56" spans="2:16" hidden="1">
+      <c r="B56" s="14">
         <v>2021</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C56" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D56" s="16">
         <f t="shared" si="17"/>
         <v>93150.852999999974</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E56" s="17">
         <v>46381.57</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F56" s="17">
         <v>16321.146999999999</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G56" s="17">
         <v>5643.8950000000004</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H56" s="17">
         <v>5512.8739999999998</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I56" s="17">
         <v>4619.1679999999997</v>
       </c>
-      <c r="J55" s="17">
+      <c r="J56" s="17">
         <v>2265.636</v>
       </c>
-      <c r="K55" s="17">
+      <c r="K56" s="17">
         <v>2051.7060000000001</v>
       </c>
-      <c r="L55" s="17">
+      <c r="L56" s="17">
         <v>2931.884</v>
       </c>
-      <c r="M55" s="17">
+      <c r="M56" s="17">
         <v>1972.1880000000001</v>
       </c>
-      <c r="N55" s="17">
+      <c r="N56" s="17">
         <v>986.39300000000003</v>
       </c>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17">
+      <c r="O56" s="17"/>
+      <c r="P56" s="17">
         <v>4464.3919999999753</v>
       </c>
     </row>
-    <row r="56" spans="2:16" hidden="1">
-      <c r="B56" s="10">
+    <row r="57" spans="2:16" hidden="1">
+      <c r="B57" s="10">
         <v>2021</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C57" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D57" s="12">
         <f t="shared" si="17"/>
         <v>91896.881000000023</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E57" s="13">
         <v>46267.280000000006</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F57" s="13">
         <v>16961.302</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G57" s="13">
         <v>5341.201</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H57" s="13">
         <v>5093.9789999999994</v>
       </c>
-      <c r="I56" s="13">
+      <c r="I57" s="13">
         <v>4098.0300000000007</v>
       </c>
-      <c r="J56" s="13">
+      <c r="J57" s="13">
         <v>2317.509</v>
       </c>
-      <c r="K56" s="13">
+      <c r="K57" s="13">
         <v>1839.751</v>
       </c>
-      <c r="L56" s="13">
+      <c r="L57" s="13">
         <v>2917.2539999999999</v>
       </c>
-      <c r="M56" s="13">
+      <c r="M57" s="13">
         <v>1854.6999999999998</v>
       </c>
-      <c r="N56" s="13">
+      <c r="N57" s="13">
         <v>936.20399999999995</v>
       </c>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13">
+      <c r="O57" s="13"/>
+      <c r="P57" s="13">
         <v>4269.6710000000021</v>
       </c>
     </row>
-    <row r="57" spans="2:16" hidden="1">
-      <c r="B57" s="14">
+    <row r="58" spans="2:16" hidden="1">
+      <c r="B58" s="14">
         <v>2021</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C58" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D58" s="16">
         <f t="shared" si="17"/>
         <v>91124.671000000017</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E58" s="17">
         <v>44958.49</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F58" s="17">
         <v>17353.253000000001</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G58" s="17">
         <v>5074.8539999999994</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H58" s="17">
         <v>5150.7029999999995</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I58" s="17">
         <v>4190.9799999999996</v>
       </c>
-      <c r="J57" s="17">
+      <c r="J58" s="17">
         <v>2711.4180000000001</v>
       </c>
-      <c r="K57" s="17">
+      <c r="K58" s="17">
         <v>2026.221</v>
       </c>
-      <c r="L57" s="17">
+      <c r="L58" s="17">
         <v>2834.6559999999999</v>
       </c>
-      <c r="M57" s="17">
+      <c r="M58" s="17">
         <v>1752.0440000000001</v>
       </c>
-      <c r="N57" s="17">
+      <c r="N58" s="17">
         <v>919.93</v>
       </c>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17">
+      <c r="O58" s="17"/>
+      <c r="P58" s="17">
         <v>4152.1220000000194</v>
       </c>
     </row>
-    <row r="58" spans="2:16" hidden="1">
-      <c r="B58" s="10">
+    <row r="59" spans="2:16" hidden="1">
+      <c r="B59" s="10">
         <v>2021</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C59" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D59" s="12">
         <f t="shared" si="17"/>
         <v>97804.682000000015</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E59" s="13">
         <v>49200.950000000004</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F59" s="13">
         <v>18513.925000000003</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G59" s="13">
         <v>5394.5290000000005</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H59" s="13">
         <v>5438.8379999999997</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I59" s="13">
         <v>4517.6980000000003</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J59" s="13">
         <v>2272.91</v>
       </c>
-      <c r="K58" s="13">
+      <c r="K59" s="13">
         <v>2051.056</v>
       </c>
-      <c r="L58" s="13">
+      <c r="L59" s="13">
         <v>2950.4749999999999</v>
       </c>
-      <c r="M58" s="13">
+      <c r="M59" s="13">
         <v>1771.0360000000001</v>
       </c>
-      <c r="N58" s="13">
+      <c r="N59" s="13">
         <v>1067.4470000000001</v>
       </c>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13">
+      <c r="O59" s="13"/>
+      <c r="P59" s="13">
         <v>4625.8179999999957</v>
       </c>
     </row>
-    <row r="59" spans="2:16" hidden="1">
-      <c r="B59" s="14">
+    <row r="60" spans="2:16" hidden="1">
+      <c r="B60" s="14">
         <v>2021</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C60" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D60" s="16">
         <f t="shared" si="17"/>
         <v>83857.271000000022</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E60" s="17">
         <v>42287.700000000004</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F60" s="17">
         <v>15583.737000000001</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G60" s="17">
         <v>4140.5389999999998</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H60" s="17">
         <v>4531.4269999999997</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I60" s="17">
         <v>3863.7919999999995</v>
       </c>
-      <c r="J59" s="17">
+      <c r="J60" s="17">
         <v>2548.5929999999998</v>
       </c>
-      <c r="K59" s="17">
+      <c r="K60" s="17">
         <v>1805.3239999999998</v>
       </c>
-      <c r="L59" s="17">
+      <c r="L60" s="17">
         <v>2596.5039999999999</v>
       </c>
-      <c r="M59" s="17">
+      <c r="M60" s="17">
         <v>1517.7179999999998</v>
       </c>
-      <c r="N59" s="17">
+      <c r="N60" s="17">
         <v>866.53800000000001</v>
       </c>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17">
+      <c r="O60" s="17"/>
+      <c r="P60" s="17">
         <v>4115.3990000000395</v>
       </c>
     </row>
-    <row r="60" spans="2:16" hidden="1">
-      <c r="B60" s="18">
+    <row r="61" spans="2:16" hidden="1">
+      <c r="B61" s="18">
         <v>2021</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C61" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D61" s="20">
         <f t="shared" si="17"/>
         <v>88197.219999999987</v>
       </c>
-      <c r="E60" s="21">
+      <c r="E61" s="21">
         <v>43928.770000000004</v>
       </c>
-      <c r="F60" s="21">
+      <c r="F61" s="21">
         <v>16300.849999999997</v>
       </c>
-      <c r="G60" s="21">
+      <c r="G61" s="21">
         <v>4840.8860000000004</v>
       </c>
-      <c r="H60" s="21">
+      <c r="H61" s="21">
         <v>4794.0879999999997</v>
       </c>
-      <c r="I60" s="21">
+      <c r="I61" s="21">
         <v>4785.6239999999998</v>
       </c>
-      <c r="J60" s="21">
+      <c r="J61" s="21">
         <v>2064.8710000000001</v>
       </c>
-      <c r="K60" s="21">
+      <c r="K61" s="21">
         <v>2034.952</v>
       </c>
-      <c r="L60" s="21">
+      <c r="L61" s="21">
         <v>2453.6999999999998</v>
       </c>
-      <c r="M60" s="21">
+      <c r="M61" s="21">
         <v>1745.922</v>
       </c>
-      <c r="N60" s="21">
+      <c r="N61" s="21">
         <v>918.11799999999994</v>
       </c>
-      <c r="O60" s="21"/>
-      <c r="P60" s="21">
+      <c r="O61" s="21"/>
+      <c r="P61" s="21">
         <v>4329.4389999999794</v>
       </c>
     </row>
-    <row r="61" spans="2:16" hidden="1">
-      <c r="B61" s="22">
+    <row r="62" spans="2:16" hidden="1">
+      <c r="B62" s="22">
         <v>2020</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C62" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D61" s="24">
+      <c r="D62" s="24">
         <f t="shared" si="17"/>
         <v>94144.191000000021</v>
       </c>
-      <c r="E61" s="25">
+      <c r="E62" s="25">
         <v>46330.03</v>
       </c>
-      <c r="F61" s="25">
+      <c r="F62" s="25">
         <v>15973.973</v>
       </c>
-      <c r="G61" s="25">
+      <c r="G62" s="25">
         <v>5450.8789999999999</v>
       </c>
-      <c r="H61" s="25">
+      <c r="H62" s="25">
         <v>5488.8649999999998</v>
       </c>
-      <c r="I61" s="25">
+      <c r="I62" s="25">
         <v>5262.348</v>
       </c>
-      <c r="J61" s="25">
+      <c r="J62" s="25">
         <v>1922.278</v>
       </c>
-      <c r="K61" s="25">
+      <c r="K62" s="25">
         <v>2610.1819999999998</v>
       </c>
-      <c r="L61" s="25">
+      <c r="L62" s="25">
         <v>3093.9090000000001</v>
       </c>
-      <c r="M61" s="25">
+      <c r="M62" s="25">
         <v>1870.7370000000001</v>
       </c>
-      <c r="N61" s="25">
+      <c r="N62" s="25">
         <v>1267.98</v>
       </c>
-      <c r="O61" s="25"/>
-      <c r="P61" s="25">
+      <c r="O62" s="25"/>
+      <c r="P62" s="25">
         <v>4873.010000000022</v>
       </c>
     </row>
-    <row r="62" spans="2:16" hidden="1">
-      <c r="B62" s="10">
+    <row r="63" spans="2:16" hidden="1">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C63" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D63" s="12">
         <f t="shared" si="17"/>
         <v>91473.85500000001</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E63" s="13">
         <v>47533.36</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F63" s="13">
         <v>14400.682000000001</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G63" s="13">
         <v>5383.1379999999999</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H63" s="13">
         <v>4958.3670000000002</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I63" s="13">
         <v>4752.6779999999999</v>
       </c>
-      <c r="J62" s="13">
+      <c r="J63" s="13">
         <v>1515.828</v>
       </c>
-      <c r="K62" s="13">
+      <c r="K63" s="13">
         <v>2284.3830000000003</v>
       </c>
-      <c r="L62" s="13">
+      <c r="L63" s="13">
         <v>3066.7379999999998</v>
       </c>
-      <c r="M62" s="13">
+      <c r="M63" s="13">
         <v>1683.905</v>
       </c>
-      <c r="N62" s="13">
+      <c r="N63" s="13">
         <v>1051.925</v>
       </c>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13">
+      <c r="O63" s="13"/>
+      <c r="P63" s="13">
         <v>4842.8510000000106</v>
       </c>
     </row>
-    <row r="63" spans="2:16" hidden="1">
-      <c r="B63" s="14">
+    <row r="64" spans="2:16" hidden="1">
+      <c r="B64" s="14">
         <v>2020</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C64" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D64" s="16">
         <f t="shared" si="17"/>
         <v>91662.356999999931</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E64" s="17">
         <v>46625.39</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F64" s="17">
         <v>16134.585999999999</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G64" s="17">
         <v>5479.9110000000001</v>
       </c>
-      <c r="H63" s="17">
+      <c r="H64" s="17">
         <v>4639.0290000000005</v>
       </c>
-      <c r="I63" s="17">
+      <c r="I64" s="17">
         <v>5349.1270000000004</v>
       </c>
-      <c r="J63" s="17">
+      <c r="J64" s="17">
         <v>1260.509</v>
       </c>
-      <c r="K63" s="17">
+      <c r="K64" s="17">
         <v>2199.1950000000002</v>
       </c>
-      <c r="L63" s="17">
+      <c r="L64" s="17">
         <v>3053.64</v>
       </c>
-      <c r="M63" s="17">
+      <c r="M64" s="17">
         <v>1739.095</v>
       </c>
-      <c r="N63" s="17">
+      <c r="N64" s="17">
         <v>943.76300000000003</v>
       </c>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17">
+      <c r="O64" s="17"/>
+      <c r="P64" s="17">
         <v>4238.11199999993</v>
       </c>
     </row>
-    <row r="64" spans="2:16" hidden="1">
-      <c r="B64" s="10">
+    <row r="65" spans="2:16" hidden="1">
+      <c r="B65" s="10">
         <v>2020</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C65" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D65" s="12">
         <f t="shared" si="17"/>
         <v>77051.781000000032</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E65" s="13">
         <v>38240.839999999997</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F65" s="13">
         <v>14171.219000000001</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G65" s="13">
         <v>4407.3809999999994</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H65" s="13">
         <v>3752.172</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I65" s="13">
         <v>4552.4279999999999</v>
       </c>
-      <c r="J64" s="13">
+      <c r="J65" s="13">
         <v>1079.7190000000001</v>
       </c>
-      <c r="K64" s="13">
+      <c r="K65" s="13">
         <v>1834.0129999999999</v>
       </c>
-      <c r="L64" s="13">
+      <c r="L65" s="13">
         <v>2717.5839999999998</v>
       </c>
-      <c r="M64" s="13">
+      <c r="M65" s="13">
         <v>1835.0609999999999</v>
       </c>
-      <c r="N64" s="13">
+      <c r="N65" s="13">
         <v>788.73500000000001</v>
       </c>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13">
+      <c r="O65" s="13"/>
+      <c r="P65" s="13">
         <v>3672.629000000029</v>
       </c>
     </row>
-    <row r="65" spans="2:16" hidden="1">
-      <c r="B65" s="14">
+    <row r="66" spans="2:16" hidden="1">
+      <c r="B66" s="14">
         <v>2020</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C66" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D66" s="16">
         <f t="shared" si="17"/>
         <v>73243.596999999965</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E66" s="17">
         <v>37945.979999999996</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F66" s="17">
         <v>12325.865999999998</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G66" s="17">
         <v>3948.0789999999997</v>
       </c>
-      <c r="H65" s="17">
+      <c r="H66" s="17">
         <v>3392.7820000000002</v>
       </c>
-      <c r="I65" s="17">
+      <c r="I66" s="17">
         <v>4478.6279999999997</v>
       </c>
-      <c r="J65" s="17">
+      <c r="J66" s="17">
         <v>1011.65</v>
       </c>
-      <c r="K65" s="17">
+      <c r="K66" s="17">
         <v>1714.8619999999999</v>
       </c>
-      <c r="L65" s="17">
+      <c r="L66" s="17">
         <v>2516.4409999999998</v>
       </c>
-      <c r="M65" s="17">
+      <c r="M66" s="17">
         <v>1831.6880000000001</v>
       </c>
-      <c r="N65" s="17">
+      <c r="N66" s="17">
         <v>782.10199999999998</v>
       </c>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17">
+      <c r="O66" s="17"/>
+      <c r="P66" s="17">
         <v>3295.5189999999848</v>
       </c>
     </row>
-    <row r="66" spans="2:16" hidden="1">
-      <c r="B66" s="10">
+    <row r="67" spans="2:16" hidden="1">
+      <c r="B67" s="10">
         <v>2020</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C67" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D67" s="12">
         <f t="shared" si="17"/>
         <v>70714.571000000011</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E67" s="13">
         <v>34839.78</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F67" s="13">
         <v>13321.585999999999</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G67" s="13">
         <v>3950.6219999999998</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H67" s="13">
         <v>3725.6490000000003</v>
       </c>
-      <c r="I66" s="13">
+      <c r="I67" s="13">
         <v>3987.5020000000004</v>
       </c>
-      <c r="J66" s="13">
+      <c r="J67" s="13">
         <v>936.46399999999994</v>
       </c>
-      <c r="K66" s="13">
+      <c r="K67" s="13">
         <v>1692.3649999999998</v>
       </c>
-      <c r="L66" s="13">
+      <c r="L67" s="13">
         <v>2403.9839999999999</v>
       </c>
-      <c r="M66" s="13">
+      <c r="M67" s="13">
         <v>1775.4699999999998</v>
       </c>
-      <c r="N66" s="13">
+      <c r="N67" s="13">
         <v>840.952</v>
       </c>
-      <c r="O66" s="13"/>
-      <c r="P66" s="13">
+      <c r="O67" s="13"/>
+      <c r="P67" s="13">
         <v>3240.1970000000092</v>
       </c>
     </row>
-    <row r="67" spans="2:16" hidden="1">
-      <c r="B67" s="14">
+    <row r="68" spans="2:16" hidden="1">
+      <c r="B68" s="14">
         <v>2020</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C68" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D68" s="16">
         <f t="shared" si="17"/>
         <v>66590.821000000025</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E68" s="17">
         <v>33996.18</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F68" s="17">
         <v>13478.243999999999</v>
       </c>
-      <c r="G67" s="17">
+      <c r="G68" s="17">
         <v>3545.3679999999999</v>
       </c>
-      <c r="H67" s="17">
+      <c r="H68" s="17">
         <v>3224.4189999999999</v>
       </c>
-      <c r="I67" s="17">
+      <c r="I68" s="17">
         <v>3231.3440000000001</v>
       </c>
-      <c r="J67" s="17">
+      <c r="J68" s="17">
         <v>771.17700000000002</v>
       </c>
-      <c r="K67" s="17">
+      <c r="K68" s="17">
         <v>1478.3190000000002</v>
       </c>
-      <c r="L67" s="17">
+      <c r="L68" s="17">
         <v>1821.6129999999998</v>
       </c>
-      <c r="M67" s="17">
+      <c r="M68" s="17">
         <v>1594.6689999999999</v>
       </c>
-      <c r="N67" s="17">
+      <c r="N68" s="17">
         <v>720.39199999999994</v>
       </c>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17">
+      <c r="O68" s="17"/>
+      <c r="P68" s="17">
         <v>2729.0960000000127</v>
       </c>
     </row>
-    <row r="68" spans="2:16" hidden="1">
-      <c r="B68" s="10">
+    <row r="69" spans="2:16" hidden="1">
+      <c r="B69" s="10">
         <v>2020</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C69" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D69" s="12">
         <f t="shared" si="17"/>
         <v>58590.57</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E69" s="13">
         <v>31229.68</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F69" s="13">
         <v>11236.094000000001</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G69" s="13">
         <v>2744.201</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H69" s="13">
         <v>2746.701</v>
       </c>
-      <c r="I68" s="13">
+      <c r="I69" s="13">
         <v>2540.2469999999998</v>
       </c>
-      <c r="J68" s="13">
+      <c r="J69" s="13">
         <v>612.84699999999998</v>
       </c>
-      <c r="K68" s="13">
+      <c r="K69" s="13">
         <v>1623.547</v>
       </c>
-      <c r="L68" s="13">
+      <c r="L69" s="13">
         <v>1605.3789999999999</v>
       </c>
-      <c r="M68" s="13">
+      <c r="M69" s="13">
         <v>1482.9659999999999</v>
       </c>
-      <c r="N68" s="13">
+      <c r="N69" s="13">
         <v>671.48299999999995</v>
       </c>
-      <c r="O68" s="13"/>
-      <c r="P68" s="13">
+      <c r="O69" s="13"/>
+      <c r="P69" s="13">
         <v>2097.424999999987</v>
       </c>
     </row>
-    <row r="69" spans="2:16" hidden="1">
-      <c r="B69" s="14">
+    <row r="70" spans="2:16" hidden="1">
+      <c r="B70" s="14">
         <v>2020</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C70" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D70" s="16">
         <f t="shared" si="17"/>
         <v>51124.868999999999</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E70" s="17">
         <v>25419.52</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F70" s="17">
         <v>11565.216</v>
       </c>
-      <c r="G69" s="17">
+      <c r="G70" s="17">
         <v>2651.4159999999997</v>
       </c>
-      <c r="H69" s="17">
+      <c r="H70" s="17">
         <v>2693.4929999999999</v>
       </c>
-      <c r="I69" s="17">
+      <c r="I70" s="17">
         <v>2126.7669999999998</v>
       </c>
-      <c r="J69" s="17">
+      <c r="J70" s="17">
         <v>551.59</v>
       </c>
-      <c r="K69" s="17">
+      <c r="K70" s="17">
         <v>1334.1680000000001</v>
       </c>
-      <c r="L69" s="17">
+      <c r="L70" s="17">
         <v>1156.8400000000001</v>
       </c>
-      <c r="M69" s="17">
+      <c r="M70" s="17">
         <v>1103.2260000000001</v>
       </c>
-      <c r="N69" s="17">
+      <c r="N70" s="17">
         <v>532.67700000000002</v>
       </c>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17">
+      <c r="O70" s="17"/>
+      <c r="P70" s="17">
         <v>1989.9559999999994</v>
       </c>
     </row>
-    <row r="70" spans="2:16" hidden="1">
-      <c r="B70" s="10">
+    <row r="71" spans="2:16" hidden="1">
+      <c r="B71" s="10">
         <v>2020</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C71" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D71" s="12">
         <f t="shared" si="17"/>
         <v>79368.52999999997</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E71" s="13">
         <v>42274.520000000004</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F71" s="13">
         <v>14537.343000000001</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G71" s="13">
         <v>4065.893</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H71" s="13">
         <v>3597.8379999999997</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I71" s="13">
         <v>2907.587</v>
       </c>
-      <c r="J70" s="13">
+      <c r="J71" s="13">
         <v>2248.8019999999997</v>
       </c>
-      <c r="K70" s="13">
+      <c r="K71" s="13">
         <v>1787.81</v>
       </c>
-      <c r="L70" s="13">
+      <c r="L71" s="13">
         <v>2068.8739999999998</v>
       </c>
-      <c r="M70" s="13">
+      <c r="M71" s="13">
         <v>1532.5450000000001</v>
       </c>
-      <c r="N70" s="13">
+      <c r="N71" s="13">
         <v>820.50299999999993</v>
       </c>
-      <c r="O70" s="13"/>
-      <c r="P70" s="13">
+      <c r="O71" s="13"/>
+      <c r="P71" s="13">
         <v>3526.8149999999705</v>
       </c>
     </row>
-    <row r="71" spans="2:16" hidden="1">
-      <c r="B71" s="14">
+    <row r="72" spans="2:16" hidden="1">
+      <c r="B72" s="14">
         <v>2020</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C72" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D72" s="16">
         <f t="shared" si="17"/>
         <v>75908.510999999955</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E72" s="17">
         <v>42089.659999999996</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F72" s="17">
         <v>11466.815999999999</v>
       </c>
-      <c r="G71" s="17">
+      <c r="G72" s="17">
         <v>3486.42</v>
       </c>
-      <c r="H71" s="17">
+      <c r="H72" s="17">
         <v>3309.0249999999996</v>
       </c>
-      <c r="I71" s="17">
+      <c r="I72" s="17">
         <v>2651.6840000000002</v>
       </c>
-      <c r="J71" s="17">
+      <c r="J72" s="17">
         <v>2759.643</v>
       </c>
-      <c r="K71" s="17">
+      <c r="K72" s="17">
         <v>1653.057</v>
       </c>
-      <c r="L71" s="17">
+      <c r="L72" s="17">
         <v>2319.8409999999999</v>
       </c>
-      <c r="M71" s="17">
+      <c r="M72" s="17">
         <v>1687.9380000000001</v>
       </c>
-      <c r="N71" s="17">
+      <c r="N72" s="17">
         <v>812.35799999999995</v>
       </c>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17">
+      <c r="O72" s="17"/>
+      <c r="P72" s="17">
         <v>3672.068999999979</v>
       </c>
     </row>
-    <row r="72" spans="2:16" hidden="1">
-      <c r="B72" s="18">
+    <row r="73" spans="2:16" hidden="1">
+      <c r="B73" s="18">
         <v>2020</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C73" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="20">
+      <c r="D73" s="20">
         <f t="shared" si="17"/>
         <v>80828.273000000045</v>
       </c>
-      <c r="E72" s="21">
+      <c r="E73" s="21">
         <v>43200.08</v>
       </c>
-      <c r="F72" s="21">
+      <c r="F73" s="21">
         <v>12981.727999999999</v>
       </c>
-      <c r="G72" s="21">
+      <c r="G73" s="21">
         <v>3924.5250000000001</v>
       </c>
-      <c r="H72" s="21">
+      <c r="H73" s="21">
         <v>3616.1279999999997</v>
       </c>
-      <c r="I72" s="21">
+      <c r="I73" s="21">
         <v>2992.5469999999996</v>
       </c>
-      <c r="J72" s="21">
+      <c r="J73" s="21">
         <v>3044.2960000000003</v>
       </c>
-      <c r="K72" s="21">
+      <c r="K73" s="21">
         <v>1792.2229999999997</v>
       </c>
-      <c r="L72" s="21">
+      <c r="L73" s="21">
         <v>2507.0810000000001</v>
       </c>
-      <c r="M72" s="21">
+      <c r="M73" s="21">
         <v>1937.0650000000001</v>
       </c>
-      <c r="N72" s="21">
+      <c r="N73" s="21">
         <v>862.8069999999999</v>
       </c>
-      <c r="O72" s="21"/>
-      <c r="P72" s="21">
+      <c r="O73" s="21"/>
+      <c r="P73" s="21">
         <v>3969.7930000000383</v>
       </c>
     </row>
-    <row r="73" spans="2:16" hidden="1">
-      <c r="B73" s="22">
+    <row r="74" spans="2:16" hidden="1">
+      <c r="B74" s="22">
         <v>2019</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C74" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D73" s="24">
+      <c r="D74" s="24">
         <f t="shared" si="17"/>
         <v>83400</v>
       </c>
-      <c r="E73" s="25">
+      <c r="E74" s="25">
         <v>48000</v>
       </c>
-      <c r="F73" s="25">
+      <c r="F74" s="25">
         <v>14500</v>
       </c>
-      <c r="G73" s="25">
+      <c r="G74" s="25">
         <v>3700</v>
       </c>
-      <c r="H73" s="25">
+      <c r="H74" s="25">
         <v>2900</v>
       </c>
-      <c r="I73" s="25">
+      <c r="I74" s="25">
         <v>3100</v>
       </c>
-      <c r="J73" s="25">
+      <c r="J74" s="25">
         <v>1900</v>
       </c>
-      <c r="K73" s="25">
+      <c r="K74" s="25">
         <v>3700</v>
       </c>
-      <c r="L73" s="25">
+      <c r="L74" s="25">
         <v>1900</v>
       </c>
-      <c r="M73" s="25">
+      <c r="M74" s="25">
         <v>2600</v>
       </c>
-      <c r="N73" s="25">
+      <c r="N74" s="25">
         <v>1100</v>
       </c>
-      <c r="O73" s="25"/>
-      <c r="P73" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:16" hidden="1">
-      <c r="B74" s="10">
+      <c r="O74" s="25"/>
+      <c r="P74" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" hidden="1">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C75" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D75" s="12">
         <f t="shared" si="17"/>
         <v>83400</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E75" s="13">
         <v>46600</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F75" s="13">
         <v>14700</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G75" s="13">
         <v>4300</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H75" s="13">
         <v>3100</v>
       </c>
-      <c r="I74" s="13">
+      <c r="I75" s="13">
         <v>3100</v>
       </c>
-      <c r="J74" s="13">
+      <c r="J75" s="13">
         <v>2100</v>
       </c>
-      <c r="K74" s="13">
+      <c r="K75" s="13">
         <v>3900</v>
       </c>
-      <c r="L74" s="13">
+      <c r="L75" s="13">
         <v>1800</v>
       </c>
-      <c r="M74" s="13">
+      <c r="M75" s="13">
         <v>2800</v>
       </c>
-      <c r="N74" s="13">
+      <c r="N75" s="13">
         <v>1000</v>
       </c>
-      <c r="O74" s="13"/>
-      <c r="P74" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:16" hidden="1">
-      <c r="B75" s="14">
+      <c r="O75" s="13"/>
+      <c r="P75" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" hidden="1">
+      <c r="B76" s="14">
         <v>2019</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C76" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D76" s="16">
         <f t="shared" si="17"/>
         <v>90200</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E76" s="17">
         <v>52200</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F76" s="17">
         <v>14900</v>
       </c>
-      <c r="G75" s="17">
+      <c r="G76" s="17">
         <v>4600</v>
       </c>
-      <c r="H75" s="17">
+      <c r="H76" s="17">
         <v>3400</v>
       </c>
-      <c r="I75" s="17">
+      <c r="I76" s="17">
         <v>2700</v>
       </c>
-      <c r="J75" s="17">
+      <c r="J76" s="17">
         <v>2200</v>
       </c>
-      <c r="K75" s="17">
+      <c r="K76" s="17">
         <v>4200</v>
       </c>
-      <c r="L75" s="17">
+      <c r="L76" s="17">
         <v>2000</v>
       </c>
-      <c r="M75" s="17">
+      <c r="M76" s="17">
         <v>3000</v>
       </c>
-      <c r="N75" s="17">
+      <c r="N76" s="17">
         <v>1000</v>
       </c>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:16" hidden="1">
-      <c r="B76" s="10">
+      <c r="O76" s="17"/>
+      <c r="P76" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" hidden="1">
+      <c r="B77" s="10">
         <v>2019</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C77" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D77" s="12">
         <f t="shared" si="17"/>
         <v>78300</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E77" s="13">
         <v>46000</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F77" s="13">
         <v>12400</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G77" s="13">
         <v>4300</v>
       </c>
-      <c r="H76" s="13">
+      <c r="H77" s="13">
         <v>3000</v>
       </c>
-      <c r="I76" s="13">
+      <c r="I77" s="13">
         <v>2200</v>
       </c>
-      <c r="J76" s="13">
+      <c r="J77" s="13">
         <v>1800</v>
       </c>
-      <c r="K76" s="13">
+      <c r="K77" s="13">
         <v>3600</v>
       </c>
-      <c r="L76" s="13">
+      <c r="L77" s="13">
         <v>1700</v>
       </c>
-      <c r="M76" s="13">
+      <c r="M77" s="13">
         <v>2500</v>
       </c>
-      <c r="N76" s="13">
+      <c r="N77" s="13">
         <v>800</v>
       </c>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" hidden="1">
-      <c r="B77" s="14">
+      <c r="O77" s="13"/>
+      <c r="P77" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" hidden="1">
+      <c r="B78" s="14">
         <v>2019</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C78" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D78" s="16">
         <f t="shared" si="17"/>
         <v>80500</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E78" s="17">
         <v>46500</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F78" s="17">
         <v>12500</v>
       </c>
-      <c r="G77" s="17">
+      <c r="G78" s="17">
         <v>4300</v>
       </c>
-      <c r="H77" s="17">
+      <c r="H78" s="17">
         <v>3400</v>
       </c>
-      <c r="I77" s="17">
+      <c r="I78" s="17">
         <v>2500</v>
       </c>
-      <c r="J77" s="17">
+      <c r="J78" s="17">
         <v>2100</v>
       </c>
-      <c r="K77" s="17">
+      <c r="K78" s="17">
         <v>4100</v>
       </c>
-      <c r="L77" s="17">
+      <c r="L78" s="17">
         <v>1800</v>
       </c>
-      <c r="M77" s="17">
+      <c r="M78" s="17">
         <v>2400</v>
       </c>
-      <c r="N77" s="17">
+      <c r="N78" s="17">
         <v>900</v>
       </c>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:16" hidden="1">
-      <c r="B78" s="10">
+      <c r="O78" s="17"/>
+      <c r="P78" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" hidden="1">
+      <c r="B79" s="10">
         <v>2019</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C79" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D79" s="12">
         <f t="shared" si="17"/>
         <v>81500</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E79" s="13">
         <v>46600</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F79" s="13">
         <v>13600</v>
       </c>
-      <c r="G78" s="13">
+      <c r="G79" s="13">
         <v>4100</v>
       </c>
-      <c r="H78" s="13">
+      <c r="H79" s="13">
         <v>3000</v>
       </c>
-      <c r="I78" s="13">
+      <c r="I79" s="13">
         <v>2500</v>
       </c>
-      <c r="J78" s="13">
+      <c r="J79" s="13">
         <v>2000</v>
       </c>
-      <c r="K78" s="13">
+      <c r="K79" s="13">
         <v>4200</v>
       </c>
-      <c r="L78" s="13">
+      <c r="L79" s="13">
         <v>2000</v>
       </c>
-      <c r="M78" s="13">
+      <c r="M79" s="13">
         <v>2600</v>
       </c>
-      <c r="N78" s="13">
+      <c r="N79" s="13">
         <v>900</v>
       </c>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:16" hidden="1">
-      <c r="B79" s="14">
+      <c r="O79" s="13"/>
+      <c r="P79" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" hidden="1">
+      <c r="B80" s="14">
         <v>2019</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C80" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="16">
+      <c r="D80" s="16">
         <f t="shared" si="17"/>
         <v>78600</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E80" s="17">
         <v>44200</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F80" s="17">
         <v>13300</v>
       </c>
-      <c r="G79" s="17">
+      <c r="G80" s="17">
         <v>4300</v>
       </c>
-      <c r="H79" s="17">
+      <c r="H80" s="17">
         <v>2900</v>
       </c>
-      <c r="I79" s="17">
+      <c r="I80" s="17">
         <v>2400</v>
       </c>
-      <c r="J79" s="17">
+      <c r="J80" s="17">
         <v>2000</v>
       </c>
-      <c r="K79" s="17">
+      <c r="K80" s="17">
         <v>4300</v>
       </c>
-      <c r="L79" s="17">
+      <c r="L80" s="17">
         <v>2000</v>
       </c>
-      <c r="M79" s="17">
+      <c r="M80" s="17">
         <v>2400</v>
       </c>
-      <c r="N79" s="17">
+      <c r="N80" s="17">
         <v>800</v>
       </c>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:16" hidden="1">
-      <c r="B80" s="10">
+      <c r="O80" s="17"/>
+      <c r="P80" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" hidden="1">
+      <c r="B81" s="10">
         <v>2019</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C81" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D81" s="12">
         <f t="shared" si="17"/>
         <v>81100</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E81" s="13">
         <v>45800</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F81" s="13">
         <v>13000</v>
       </c>
-      <c r="G80" s="13">
+      <c r="G81" s="13">
         <v>4600</v>
       </c>
-      <c r="H80" s="13">
+      <c r="H81" s="13">
         <v>3000</v>
       </c>
-      <c r="I80" s="13">
+      <c r="I81" s="13">
         <v>2600</v>
       </c>
-      <c r="J80" s="13">
+      <c r="J81" s="13">
         <v>2100</v>
       </c>
-      <c r="K80" s="13">
+      <c r="K81" s="13">
         <v>4600</v>
       </c>
-      <c r="L80" s="13">
+      <c r="L81" s="13">
         <v>1900</v>
       </c>
-      <c r="M80" s="13">
+      <c r="M81" s="13">
         <v>2600</v>
       </c>
-      <c r="N80" s="13">
+      <c r="N81" s="13">
         <v>900</v>
       </c>
-      <c r="O80" s="13"/>
-      <c r="P80" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:16" hidden="1">
-      <c r="B81" s="14">
+      <c r="O81" s="13"/>
+      <c r="P81" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16" hidden="1">
+      <c r="B82" s="14">
         <v>2019</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C82" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D81" s="16">
+      <c r="D82" s="16">
         <f t="shared" si="17"/>
         <v>79300</v>
       </c>
-      <c r="E81" s="17">
+      <c r="E82" s="17">
         <v>45200</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F82" s="17">
         <v>12800</v>
       </c>
-      <c r="G81" s="17">
+      <c r="G82" s="17">
         <v>4600</v>
       </c>
-      <c r="H81" s="17">
+      <c r="H82" s="17">
         <v>2500</v>
       </c>
-      <c r="I81" s="17">
+      <c r="I82" s="17">
         <v>2600</v>
       </c>
-      <c r="J81" s="17">
+      <c r="J82" s="17">
         <v>2100</v>
       </c>
-      <c r="K81" s="17">
+      <c r="K82" s="17">
         <v>4400</v>
       </c>
-      <c r="L81" s="17">
+      <c r="L82" s="17">
         <v>1800</v>
       </c>
-      <c r="M81" s="17">
+      <c r="M82" s="17">
         <v>2500</v>
       </c>
-      <c r="N81" s="17">
+      <c r="N82" s="17">
         <v>800</v>
       </c>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:16" hidden="1">
-      <c r="B82" s="10">
+      <c r="O82" s="17"/>
+      <c r="P82" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16" hidden="1">
+      <c r="B83" s="10">
         <v>2019</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C83" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D83" s="12">
         <f t="shared" si="17"/>
         <v>86500</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E83" s="13">
         <v>49900</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F83" s="13">
         <v>14500</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G83" s="13">
         <v>4300</v>
       </c>
-      <c r="H82" s="13">
+      <c r="H83" s="13">
         <v>3000</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I83" s="13">
         <v>2700</v>
       </c>
-      <c r="J82" s="13">
+      <c r="J83" s="13">
         <v>2000</v>
       </c>
-      <c r="K82" s="13">
+      <c r="K83" s="13">
         <v>5000</v>
       </c>
-      <c r="L82" s="13">
+      <c r="L83" s="13">
         <v>1700</v>
       </c>
-      <c r="M82" s="13">
+      <c r="M83" s="13">
         <v>2500</v>
       </c>
-      <c r="N82" s="13">
+      <c r="N83" s="13">
         <v>900</v>
       </c>
-      <c r="O82" s="13"/>
-      <c r="P82" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:16" hidden="1">
-      <c r="B83" s="14">
+      <c r="O83" s="13"/>
+      <c r="P83" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" hidden="1">
+      <c r="B84" s="14">
         <v>2019</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C84" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D83" s="16">
+      <c r="D84" s="16">
         <f t="shared" si="17"/>
         <v>73300</v>
       </c>
-      <c r="E83" s="17">
+      <c r="E84" s="17">
         <v>41800</v>
       </c>
-      <c r="F83" s="17">
+      <c r="F84" s="17">
         <v>11500</v>
       </c>
-      <c r="G83" s="17">
+      <c r="G84" s="17">
         <v>4200</v>
       </c>
-      <c r="H83" s="17">
+      <c r="H84" s="17">
         <v>2600</v>
       </c>
-      <c r="I83" s="17">
+      <c r="I84" s="17">
         <v>2600</v>
       </c>
-      <c r="J83" s="17">
+      <c r="J84" s="17">
         <v>1900</v>
       </c>
-      <c r="K83" s="17">
+      <c r="K84" s="17">
         <v>4100</v>
       </c>
-      <c r="L83" s="17">
+      <c r="L84" s="17">
         <v>1600</v>
       </c>
-      <c r="M83" s="17">
+      <c r="M84" s="17">
         <v>2300</v>
       </c>
-      <c r="N83" s="17">
+      <c r="N84" s="17">
         <v>700</v>
       </c>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:16" hidden="1">
-      <c r="B84" s="18">
+      <c r="O84" s="17"/>
+      <c r="P84" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" hidden="1">
+      <c r="B85" s="18">
         <v>2019</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="C85" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="20">
-        <f t="shared" ref="D84:D96" si="18">SUM(E84:P84)</f>
+      <c r="D85" s="20">
+        <f t="shared" ref="D85:D97" si="18">SUM(E85:P85)</f>
         <v>79200</v>
       </c>
-      <c r="E84" s="21">
+      <c r="E85" s="21">
         <v>43500</v>
       </c>
-      <c r="F84" s="21">
+      <c r="F85" s="21">
         <v>13500</v>
       </c>
-      <c r="G84" s="21">
+      <c r="G85" s="21">
         <v>4800</v>
       </c>
-      <c r="H84" s="21">
+      <c r="H85" s="21">
         <v>2900</v>
       </c>
-      <c r="I84" s="21">
+      <c r="I85" s="21">
         <v>2600</v>
       </c>
-      <c r="J84" s="21">
+      <c r="J85" s="21">
         <v>1900</v>
       </c>
-      <c r="K84" s="21">
+      <c r="K85" s="21">
         <v>4500</v>
       </c>
-      <c r="L84" s="21">
+      <c r="L85" s="21">
         <v>2100</v>
       </c>
-      <c r="M84" s="21">
+      <c r="M85" s="21">
         <v>2500</v>
       </c>
-      <c r="N84" s="21">
+      <c r="N85" s="21">
         <v>900</v>
       </c>
-      <c r="O84" s="21"/>
-      <c r="P84" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:16" hidden="1">
-      <c r="B85" s="15">
+      <c r="O85" s="21"/>
+      <c r="P85" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" hidden="1">
+      <c r="B86" s="15">
         <v>2018</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C86" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="16">
+      <c r="D86" s="16">
         <f t="shared" si="18"/>
         <v>85600</v>
       </c>
-      <c r="E85" s="17">
+      <c r="E86" s="17">
         <v>48800</v>
       </c>
-      <c r="F85" s="17">
+      <c r="F86" s="17">
         <v>14700</v>
       </c>
-      <c r="G85" s="17">
+      <c r="G86" s="17">
         <v>4500</v>
       </c>
-      <c r="H85" s="17">
+      <c r="H86" s="17">
         <v>3000</v>
       </c>
-      <c r="I85" s="17">
+      <c r="I86" s="17">
         <v>3300</v>
       </c>
-      <c r="J85" s="17">
+      <c r="J86" s="17">
         <v>1900</v>
       </c>
-      <c r="K85" s="17">
+      <c r="K86" s="17">
         <v>4000</v>
       </c>
-      <c r="L85" s="17">
+      <c r="L86" s="17">
         <v>1900</v>
       </c>
-      <c r="M85" s="17">
+      <c r="M86" s="17">
         <v>2600</v>
       </c>
-      <c r="N85" s="17">
+      <c r="N86" s="17">
         <v>900</v>
       </c>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:16" hidden="1">
-      <c r="B86" s="11">
+      <c r="O86" s="17"/>
+      <c r="P86" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16" hidden="1">
+      <c r="B87" s="11">
         <v>2018</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C87" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D87" s="12">
         <f t="shared" si="18"/>
         <v>91600</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E87" s="13">
         <v>52500</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F87" s="13">
         <v>14700</v>
       </c>
-      <c r="G86" s="13">
+      <c r="G87" s="13">
         <v>5200</v>
       </c>
-      <c r="H86" s="13">
+      <c r="H87" s="13">
         <v>3400</v>
       </c>
-      <c r="I86" s="13">
+      <c r="I87" s="13">
         <v>3300</v>
       </c>
-      <c r="J86" s="13">
+      <c r="J87" s="13">
         <v>2300</v>
       </c>
-      <c r="K86" s="13">
+      <c r="K87" s="13">
         <v>4700</v>
       </c>
-      <c r="L86" s="13">
+      <c r="L87" s="13">
         <v>1800</v>
       </c>
-      <c r="M86" s="13">
+      <c r="M87" s="13">
         <v>2800</v>
       </c>
-      <c r="N86" s="13">
+      <c r="N87" s="13">
         <v>900</v>
       </c>
-      <c r="O86" s="13"/>
-      <c r="P86" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:16" hidden="1">
-      <c r="B87" s="15">
+      <c r="O87" s="13"/>
+      <c r="P87" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" hidden="1">
+      <c r="B88" s="15">
         <v>2018</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C88" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="16">
+      <c r="D88" s="16">
         <f t="shared" si="18"/>
         <v>94100</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E88" s="17">
         <v>53200</v>
       </c>
-      <c r="F87" s="17">
+      <c r="F88" s="17">
         <v>15500</v>
       </c>
-      <c r="G87" s="17">
+      <c r="G88" s="17">
         <v>5800</v>
       </c>
-      <c r="H87" s="17">
+      <c r="H88" s="17">
         <v>3400</v>
       </c>
-      <c r="I87" s="17">
+      <c r="I88" s="17">
         <v>2800</v>
       </c>
-      <c r="J87" s="17">
+      <c r="J88" s="17">
         <v>2200</v>
       </c>
-      <c r="K87" s="17">
+      <c r="K88" s="17">
         <v>5600</v>
       </c>
-      <c r="L87" s="17">
+      <c r="L88" s="17">
         <v>1800</v>
       </c>
-      <c r="M87" s="17">
+      <c r="M88" s="17">
         <v>2900</v>
       </c>
-      <c r="N87" s="17">
+      <c r="N88" s="17">
         <v>900</v>
       </c>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:16" hidden="1">
-      <c r="B88" s="11">
+      <c r="O88" s="17"/>
+      <c r="P88" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16" hidden="1">
+      <c r="B89" s="11">
         <v>2018</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C89" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D89" s="12">
         <f t="shared" si="18"/>
         <v>81400</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E89" s="13">
         <v>46600</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F89" s="13">
         <v>13200</v>
       </c>
-      <c r="G88" s="13">
+      <c r="G89" s="13">
         <v>4800</v>
       </c>
-      <c r="H88" s="13">
+      <c r="H89" s="13">
         <v>2900</v>
       </c>
-      <c r="I88" s="13">
+      <c r="I89" s="13">
         <v>2300</v>
       </c>
-      <c r="J88" s="13">
+      <c r="J89" s="13">
         <v>1900</v>
       </c>
-      <c r="K88" s="13">
+      <c r="K89" s="13">
         <v>5000</v>
       </c>
-      <c r="L88" s="13">
+      <c r="L89" s="13">
         <v>1500</v>
       </c>
-      <c r="M88" s="13">
+      <c r="M89" s="13">
         <v>2400</v>
       </c>
-      <c r="N88" s="13">
+      <c r="N89" s="13">
         <v>800</v>
       </c>
-      <c r="O88" s="13"/>
-      <c r="P88" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:16" hidden="1">
-      <c r="B89" s="15">
+      <c r="O89" s="13"/>
+      <c r="P89" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" hidden="1">
+      <c r="B90" s="15">
         <v>2018</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C90" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D89" s="16">
+      <c r="D90" s="16">
         <f t="shared" si="18"/>
         <v>84400</v>
       </c>
-      <c r="E89" s="17">
+      <c r="E90" s="17">
         <v>48300</v>
       </c>
-      <c r="F89" s="17">
+      <c r="F90" s="17">
         <v>12600</v>
       </c>
-      <c r="G89" s="17">
+      <c r="G90" s="17">
         <v>5100</v>
       </c>
-      <c r="H89" s="17">
+      <c r="H90" s="17">
         <v>3500</v>
       </c>
-      <c r="I89" s="17">
+      <c r="I90" s="17">
         <v>2400</v>
       </c>
-      <c r="J89" s="17">
+      <c r="J90" s="17">
         <v>2100</v>
       </c>
-      <c r="K89" s="17">
+      <c r="K90" s="17">
         <v>5700</v>
       </c>
-      <c r="L89" s="17">
+      <c r="L90" s="17">
         <v>1600</v>
       </c>
-      <c r="M89" s="17">
+      <c r="M90" s="17">
         <v>2300</v>
       </c>
-      <c r="N89" s="17">
+      <c r="N90" s="17">
         <v>800</v>
       </c>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:16" hidden="1">
-      <c r="B90" s="11">
+      <c r="O90" s="17"/>
+      <c r="P90" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16" hidden="1">
+      <c r="B91" s="11">
         <v>2018</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C91" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D90" s="12">
+      <c r="D91" s="12">
         <f t="shared" si="18"/>
         <v>82200</v>
       </c>
-      <c r="E90" s="13">
+      <c r="E91" s="13">
         <v>49400</v>
       </c>
-      <c r="F90" s="13">
+      <c r="F91" s="13">
         <v>12400</v>
       </c>
-      <c r="G90" s="13">
+      <c r="G91" s="13">
         <v>4200</v>
       </c>
-      <c r="H90" s="13">
+      <c r="H91" s="13">
         <v>3100</v>
       </c>
-      <c r="I90" s="13">
+      <c r="I91" s="13">
         <v>2500</v>
       </c>
-      <c r="J90" s="13">
+      <c r="J91" s="13">
         <v>1900</v>
       </c>
-      <c r="K90" s="13">
+      <c r="K91" s="13">
         <v>4100</v>
       </c>
-      <c r="L90" s="13">
+      <c r="L91" s="13">
         <v>1700</v>
       </c>
-      <c r="M90" s="13">
+      <c r="M91" s="13">
         <v>2100</v>
       </c>
-      <c r="N90" s="13">
+      <c r="N91" s="13">
         <v>800</v>
       </c>
-      <c r="O90" s="13"/>
-      <c r="P90" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:16" hidden="1">
-      <c r="B91" s="15">
+      <c r="O91" s="13"/>
+      <c r="P91" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16" hidden="1">
+      <c r="B92" s="15">
         <v>2018</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C92" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D91" s="16">
+      <c r="D92" s="16">
         <f t="shared" si="18"/>
         <v>86500</v>
       </c>
-      <c r="E91" s="17">
+      <c r="E92" s="17">
         <v>51000</v>
       </c>
-      <c r="F91" s="17">
+      <c r="F92" s="17">
         <v>13400</v>
       </c>
-      <c r="G91" s="17">
+      <c r="G92" s="17">
         <v>4500</v>
       </c>
-      <c r="H91" s="17">
+      <c r="H92" s="17">
         <v>3100</v>
       </c>
-      <c r="I91" s="17">
+      <c r="I92" s="17">
         <v>2600</v>
       </c>
-      <c r="J91" s="17">
+      <c r="J92" s="17">
         <v>2000</v>
       </c>
-      <c r="K91" s="17">
+      <c r="K92" s="17">
         <v>5100</v>
       </c>
-      <c r="L91" s="17">
+      <c r="L92" s="17">
         <v>1800</v>
       </c>
-      <c r="M91" s="17">
+      <c r="M92" s="17">
         <v>2100</v>
       </c>
-      <c r="N91" s="17">
+      <c r="N92" s="17">
         <v>900</v>
       </c>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:16" hidden="1">
-      <c r="B92" s="11">
+      <c r="O92" s="17"/>
+      <c r="P92" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16" hidden="1">
+      <c r="B93" s="11">
         <v>2018</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C93" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D92" s="12">
+      <c r="D93" s="12">
         <f t="shared" si="18"/>
         <v>86200</v>
       </c>
-      <c r="E92" s="13">
+      <c r="E93" s="13">
         <v>49700</v>
       </c>
-      <c r="F92" s="13">
+      <c r="F93" s="13">
         <v>13600</v>
       </c>
-      <c r="G92" s="13">
+      <c r="G93" s="13">
         <v>5000</v>
       </c>
-      <c r="H92" s="13">
+      <c r="H93" s="13">
         <v>3200</v>
       </c>
-      <c r="I92" s="13">
+      <c r="I93" s="13">
         <v>2700</v>
       </c>
-      <c r="J92" s="13">
+      <c r="J93" s="13">
         <v>2300</v>
       </c>
-      <c r="K92" s="13">
+      <c r="K93" s="13">
         <v>4700</v>
       </c>
-      <c r="L92" s="13">
+      <c r="L93" s="13">
         <v>1900</v>
       </c>
-      <c r="M92" s="13">
+      <c r="M93" s="13">
         <v>2200</v>
       </c>
-      <c r="N92" s="13">
+      <c r="N93" s="13">
         <v>900</v>
       </c>
-      <c r="O92" s="13"/>
-      <c r="P92" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:16" hidden="1">
-      <c r="B93" s="15">
+      <c r="O93" s="13"/>
+      <c r="P93" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16" hidden="1">
+      <c r="B94" s="15">
         <v>2018</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C94" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D93" s="16">
+      <c r="D94" s="16">
         <f t="shared" si="18"/>
         <v>84500</v>
       </c>
-      <c r="E93" s="17">
+      <c r="E94" s="17">
         <v>49400</v>
       </c>
-      <c r="F93" s="17">
+      <c r="F94" s="17">
         <v>13900</v>
       </c>
-      <c r="G93" s="17">
+      <c r="G94" s="17">
         <v>4500</v>
       </c>
-      <c r="H93" s="17">
+      <c r="H94" s="17">
         <v>2800</v>
       </c>
-      <c r="I93" s="17">
+      <c r="I94" s="17">
         <v>2800</v>
       </c>
-      <c r="J93" s="17">
+      <c r="J94" s="17">
         <v>1900</v>
       </c>
-      <c r="K93" s="17">
+      <c r="K94" s="17">
         <v>4600</v>
       </c>
-      <c r="L93" s="17">
+      <c r="L94" s="17">
         <v>1700</v>
       </c>
-      <c r="M93" s="17">
+      <c r="M94" s="17">
         <v>2000</v>
       </c>
-      <c r="N93" s="17">
+      <c r="N94" s="17">
         <v>900</v>
       </c>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:16" hidden="1">
-      <c r="B94" s="11">
+      <c r="O94" s="17"/>
+      <c r="P94" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" hidden="1">
+      <c r="B95" s="11">
         <v>2018</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C95" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D94" s="12">
+      <c r="D95" s="12">
         <f t="shared" si="18"/>
         <v>81600</v>
       </c>
-      <c r="E94" s="13">
+      <c r="E95" s="13">
         <v>46000</v>
       </c>
-      <c r="F94" s="13">
+      <c r="F95" s="13">
         <v>16000</v>
       </c>
-      <c r="G94" s="13">
+      <c r="G95" s="13">
         <v>4400</v>
       </c>
-      <c r="H94" s="13">
+      <c r="H95" s="13">
         <v>2900</v>
       </c>
-      <c r="I94" s="13">
+      <c r="I95" s="13">
         <v>2800</v>
       </c>
-      <c r="J94" s="13">
+      <c r="J95" s="13">
         <v>1800</v>
       </c>
-      <c r="K94" s="13">
+      <c r="K95" s="13">
         <v>3500</v>
       </c>
-      <c r="L94" s="13">
+      <c r="L95" s="13">
         <v>1400</v>
       </c>
-      <c r="M94" s="13">
+      <c r="M95" s="13">
         <v>2000</v>
       </c>
-      <c r="N94" s="13">
+      <c r="N95" s="13">
         <v>800</v>
       </c>
-      <c r="O94" s="13"/>
-      <c r="P94" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:16" hidden="1">
-      <c r="B95" s="15">
+      <c r="O95" s="13"/>
+      <c r="P95" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16" hidden="1">
+      <c r="B96" s="15">
         <v>2018</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C96" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D95" s="16">
+      <c r="D96" s="16">
         <f t="shared" si="18"/>
         <v>74900</v>
       </c>
-      <c r="E95" s="17">
+      <c r="E96" s="17">
         <v>44100</v>
       </c>
-      <c r="F95" s="17">
+      <c r="F96" s="17">
         <v>12100</v>
       </c>
-      <c r="G95" s="17">
+      <c r="G96" s="17">
         <v>4100</v>
       </c>
-      <c r="H95" s="17">
+      <c r="H96" s="17">
         <v>2700</v>
       </c>
-      <c r="I95" s="17">
+      <c r="I96" s="17">
         <v>2700</v>
       </c>
-      <c r="J95" s="17">
+      <c r="J96" s="17">
         <v>2100</v>
       </c>
-      <c r="K95" s="17">
+      <c r="K96" s="17">
         <v>3000</v>
       </c>
-      <c r="L95" s="17">
+      <c r="L96" s="17">
         <v>1500</v>
       </c>
-      <c r="M95" s="17">
+      <c r="M96" s="17">
         <v>1900</v>
       </c>
-      <c r="N95" s="17">
+      <c r="N96" s="17">
         <v>700</v>
       </c>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:16" hidden="1">
-      <c r="B96" s="11">
+      <c r="O96" s="17"/>
+      <c r="P96" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:16" hidden="1">
+      <c r="B97" s="11">
         <v>2018</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C97" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D96" s="12">
+      <c r="D97" s="12">
         <f t="shared" si="18"/>
         <v>74300</v>
       </c>
-      <c r="E96" s="13">
+      <c r="E97" s="13">
         <v>42800</v>
       </c>
-      <c r="F96" s="13">
+      <c r="F97" s="13">
         <v>12000</v>
       </c>
-      <c r="G96" s="13">
+      <c r="G97" s="13">
         <v>4100</v>
       </c>
-      <c r="H96" s="13">
+      <c r="H97" s="13">
         <v>2500</v>
       </c>
-      <c r="I96" s="13">
+      <c r="I97" s="13">
         <v>2600</v>
       </c>
-      <c r="J96" s="13">
+      <c r="J97" s="13">
         <v>2300</v>
       </c>
-      <c r="K96" s="13">
+      <c r="K97" s="13">
         <v>3300</v>
       </c>
-      <c r="L96" s="13">
+      <c r="L97" s="13">
         <v>2000</v>
       </c>
-      <c r="M96" s="13">
+      <c r="M97" s="13">
         <v>1900</v>
       </c>
-      <c r="N96" s="13">
+      <c r="N97" s="13">
         <v>800</v>
       </c>
-      <c r="O96" s="13"/>
-      <c r="P96" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:16">
-      <c r="B97" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C97" s="26"/>
+      <c r="O97" s="13"/>
+      <c r="P97" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="2:16">
       <c r="B98" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98" s="26"/>
+    </row>
+    <row r="99" spans="2:16">
+      <c r="B99" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C98" s="27"/>
-      <c r="P98" s="28"/>
-    </row>
-    <row r="99" spans="2:16">
-      <c r="B99" s="27" t="s">
+      <c r="C99" s="27"/>
+      <c r="P99" s="28"/>
+    </row>
+    <row r="100" spans="2:16">
+      <c r="B100" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="2:16">
-      <c r="B100" s="3" t="s">
+    <row r="101" spans="2:16">
+      <c r="B101" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="2:16">
-      <c r="D106" s="26"/>
-    </row>
-    <row r="116" spans="6:16">
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
-      <c r="P116" s="2"/>
+    <row r="107" spans="2:16">
+      <c r="D107" s="26"/>
     </row>
     <row r="117" spans="6:16">
       <c r="F117" s="2"/>
@@ -6424,6 +6459,19 @@
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
     </row>
+    <row r="128" spans="6:16">
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E4:P4"/>
